--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -196,6 +196,39 @@
   </si>
   <si>
     <t xml:space="preserve">Combination/Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.AwardTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.sum7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur. Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOA or BPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSS or GWAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlbd. IDV</t>
   </si>
 </sst>
 </file>
@@ -4563,10 +4596,10 @@
   <sheetData>
     <row r="1">
       <c r="N1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -4673,10 +4706,10 @@
     </row>
     <row r="2">
       <c r="N2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -4689,84 +4722,84 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>188093593</v>
+        <v>2558900794</v>
       </c>
       <c r="AA2" t="n">
-        <v>265567420</v>
+        <v>2885845820</v>
       </c>
       <c r="AB2" t="n">
-        <v>305630976</v>
+        <v>4040456662.2031</v>
       </c>
       <c r="AC2" t="n">
-        <v>470008161.0938</v>
+        <v>4079977686</v>
       </c>
       <c r="AD2" t="n">
-        <v>508187397.6484</v>
+        <v>5018785990.1563</v>
       </c>
       <c r="AE2" t="n">
-        <v>412587169.4375</v>
+        <v>5274788848.7188</v>
       </c>
       <c r="AF2" t="n">
-        <v>588051577.1021</v>
+        <v>5257498575.1915</v>
       </c>
       <c r="AG2" t="n">
-        <v>731847538.1334</v>
+        <v>6177213235.1166</v>
       </c>
       <c r="AH2" t="n">
-        <v>1154677070.255</v>
+        <v>6224315728.5161</v>
       </c>
       <c r="AI2" t="n">
-        <v>2478561502.3815</v>
+        <v>7067817596.8509</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3280943246.4082</v>
+        <v>6615447768.5775</v>
       </c>
       <c r="AK2" t="n">
-        <v>3594937685.9658</v>
+        <v>6594771286.0772</v>
       </c>
       <c r="AL2" t="n">
-        <v>2167938638.0338</v>
+        <v>7534709642.0676</v>
       </c>
       <c r="AM2" t="n">
-        <v>1028884661.1787</v>
+        <v>7863139729.8713</v>
       </c>
       <c r="AN2" t="n">
-        <v>1324720469.133</v>
+        <v>5373713082.9504</v>
       </c>
       <c r="AO2" t="n">
-        <v>1999334816.8284</v>
+        <v>6543780031.0753</v>
       </c>
       <c r="AP2" t="n">
-        <v>3124515545.3746</v>
+        <v>7232656502.986</v>
       </c>
       <c r="AQ2" t="n">
-        <v>737933973.7061</v>
+        <v>6332266870.3337</v>
       </c>
       <c r="AR2" t="n">
-        <v>631329825.3753</v>
+        <v>10826353400.0477</v>
       </c>
       <c r="AS2" t="n">
-        <v>383721696.5766</v>
+        <v>12037395074.6029</v>
       </c>
       <c r="AT2" t="n">
-        <v>6550229032.8473</v>
+        <v>16698966232.4039</v>
       </c>
       <c r="AU2" t="n">
-        <v>1379016621.5815</v>
+        <v>9120552741.7392</v>
       </c>
       <c r="AV2" t="n">
-        <v>2231441789.9627</v>
+        <v>10498698100.2625</v>
       </c>
       <c r="AW2" t="n">
-        <v>1172691161.9394</v>
+        <v>4581855050.4325</v>
       </c>
     </row>
     <row r="3">
       <c r="N3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
@@ -4779,68 +4812,84 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3" t="n">
-        <v>13712019</v>
+        <v>9359901</v>
       </c>
       <c r="AA3" t="n">
-        <v>23550576</v>
+        <v>11458401.3999</v>
       </c>
       <c r="AB3" t="n">
-        <v>32894146</v>
+        <v>23739693</v>
       </c>
       <c r="AC3" t="n">
-        <v>16542070</v>
+        <v>29914621</v>
       </c>
       <c r="AD3" t="n">
-        <v>1103661</v>
+        <v>18301071</v>
       </c>
       <c r="AE3" t="n">
-        <v>1393825</v>
+        <v>6057948</v>
       </c>
       <c r="AF3" t="n">
-        <v>1919856</v>
+        <v>4146965.9137</v>
       </c>
       <c r="AG3" t="n">
-        <v>99989</v>
+        <v>7456999.7012</v>
       </c>
       <c r="AH3" t="n">
-        <v>21977974.25</v>
+        <v>47945902.742</v>
       </c>
       <c r="AI3" t="n">
-        <v>384624.5938</v>
+        <v>41328318.6303</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10348269</v>
+        <v>3427622.5218</v>
       </c>
       <c r="AK3" t="n">
-        <v>9849413.3302</v>
+        <v>6315344.7673</v>
       </c>
       <c r="AL3" t="n">
-        <v>2016281</v>
+        <v>4012111.4833</v>
       </c>
       <c r="AM3" t="n">
-        <v>3724361</v>
+        <v>4288752.86</v>
       </c>
       <c r="AN3" t="n">
-        <v>-20.89</v>
+        <v>4201257.22</v>
       </c>
       <c r="AO3" t="n">
-        <v>-22.54</v>
-      </c>
-      <c r="AP3"/>
-      <c r="AQ3"/>
-      <c r="AR3"/>
-      <c r="AS3"/>
-      <c r="AT3"/>
-      <c r="AU3"/>
-      <c r="AV3"/>
-      <c r="AW3"/>
+        <v>3767931.089</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2381826.8378</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2482831.5998</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>4097839.9511</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1926730.4835</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1377345.1151</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1509319.8941</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>298037.9588</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>-4860</v>
+      </c>
     </row>
     <row r="4">
       <c r="N4" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
@@ -4853,84 +4902,70 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4" t="n">
-        <v>143413440</v>
+        <v>-86835</v>
       </c>
       <c r="AA4" t="n">
-        <v>172688897</v>
+        <v>1373875</v>
       </c>
       <c r="AB4" t="n">
-        <v>203213466.8281</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>244288284</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>247394625.5938</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>288277076</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>350559515.4688</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>249377755.7227</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>237464435.387</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>387724569.7587</v>
-      </c>
+        <v>-295030</v>
+      </c>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
       <c r="AJ4" t="n">
-        <v>576049069.2408</v>
+        <v>344518.3672</v>
       </c>
       <c r="AK4" t="n">
-        <v>501991794.0445</v>
+        <v>24755231.0312</v>
       </c>
       <c r="AL4" t="n">
-        <v>483992311.7919</v>
+        <v>118987300.2111</v>
       </c>
       <c r="AM4" t="n">
-        <v>399494367.0039</v>
+        <v>144054186.9</v>
       </c>
       <c r="AN4" t="n">
-        <v>189869901.1531</v>
+        <v>218073741.68</v>
       </c>
       <c r="AO4" t="n">
-        <v>313780993.3078</v>
+        <v>220320527.2748</v>
       </c>
       <c r="AP4" t="n">
-        <v>207934670.21</v>
+        <v>323336359.1307</v>
       </c>
       <c r="AQ4" t="n">
-        <v>285904918.207</v>
+        <v>252881989.0787</v>
       </c>
       <c r="AR4" t="n">
-        <v>8416343.4459</v>
+        <v>244734668.0503</v>
       </c>
       <c r="AS4" t="n">
-        <v>2014404.0337</v>
+        <v>244615993.1658</v>
       </c>
       <c r="AT4" t="n">
-        <v>-78349.0893</v>
+        <v>211126717.7843</v>
       </c>
       <c r="AU4" t="n">
-        <v>-412285.4971</v>
+        <v>190252182.1247</v>
       </c>
       <c r="AV4" t="n">
-        <v>-10049870.0288</v>
+        <v>159594051.9701</v>
       </c>
       <c r="AW4" t="n">
-        <v>-2210387.9844</v>
+        <v>83390133.8195</v>
       </c>
     </row>
     <row r="5">
       <c r="N5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -4943,84 +4978,84 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5" t="n">
-        <v>36020375</v>
+        <v>7929210</v>
       </c>
       <c r="AA5" t="n">
-        <v>185463455</v>
+        <v>10924355</v>
       </c>
       <c r="AB5" t="n">
-        <v>264519018</v>
+        <v>34224659.625</v>
       </c>
       <c r="AC5" t="n">
-        <v>135374880</v>
+        <v>62708598.0938</v>
       </c>
       <c r="AD5" t="n">
-        <v>39511440</v>
+        <v>109468386.4297</v>
       </c>
       <c r="AE5" t="n">
-        <v>37634913</v>
+        <v>153172589</v>
       </c>
       <c r="AF5" t="n">
-        <v>111698152</v>
+        <v>211604886.8945</v>
       </c>
       <c r="AG5" t="n">
-        <v>135894401.1563</v>
+        <v>320827792.9358</v>
       </c>
       <c r="AH5" t="n">
-        <v>262231428.3676</v>
+        <v>319670621.9295</v>
       </c>
       <c r="AI5" t="n">
-        <v>417836167.9448</v>
+        <v>326292080.046</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1158868116.2352</v>
+        <v>270530588.6533</v>
       </c>
       <c r="AK5" t="n">
-        <v>1425188606.175</v>
+        <v>160941783.793</v>
       </c>
       <c r="AL5" t="n">
-        <v>1477921988.3733</v>
+        <v>51592311.8886</v>
       </c>
       <c r="AM5" t="n">
-        <v>3940505912.5198</v>
+        <v>38543213.7133</v>
       </c>
       <c r="AN5" t="n">
-        <v>2191682732.22</v>
+        <v>31011468.32</v>
       </c>
       <c r="AO5" t="n">
-        <v>3053677012.1736</v>
+        <v>32489557.5681</v>
       </c>
       <c r="AP5" t="n">
-        <v>2586325522.717</v>
+        <v>36531996.5104</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1254779181.1651</v>
+        <v>37254817.9215</v>
       </c>
       <c r="AR5" t="n">
-        <v>7893031520.39</v>
+        <v>27216215.4048</v>
       </c>
       <c r="AS5" t="n">
-        <v>9543424182.8969</v>
+        <v>54015585.171</v>
       </c>
       <c r="AT5" t="n">
-        <v>6406255060.8543</v>
+        <v>57856220.8699</v>
       </c>
       <c r="AU5" t="n">
-        <v>5937681464.8529</v>
+        <v>39535987.7044</v>
       </c>
       <c r="AV5" t="n">
-        <v>7209301651.7395</v>
+        <v>42936239.6834</v>
       </c>
       <c r="AW5" t="n">
-        <v>2886601818.471</v>
+        <v>19902650.1548</v>
       </c>
     </row>
     <row r="6">
       <c r="N6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -5033,84 +5068,84 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6" t="n">
-        <v>2042760115</v>
+        <v>182377265</v>
       </c>
       <c r="AA6" t="n">
-        <v>2090668841</v>
+        <v>207968974</v>
       </c>
       <c r="AB6" t="n">
-        <v>2957552781</v>
+        <v>257477721</v>
       </c>
       <c r="AC6" t="n">
-        <v>3226349708</v>
+        <v>297026783</v>
       </c>
       <c r="AD6" t="n">
-        <v>3882135178.1563</v>
+        <v>280436648</v>
       </c>
       <c r="AE6" t="n">
-        <v>4548786188.7188</v>
+        <v>296197183</v>
       </c>
       <c r="AF6" t="n">
-        <v>4106603861.7383</v>
+        <v>321230171</v>
       </c>
       <c r="AG6" t="n">
-        <v>4453760963.0368</v>
+        <v>334779639.6993</v>
       </c>
       <c r="AH6" t="n">
-        <v>2491178476.9149</v>
+        <v>620599460.0895</v>
       </c>
       <c r="AI6" t="n">
-        <v>3399241384.2067</v>
+        <v>662791273.8364</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4137433215.6188</v>
+        <v>845313610.9294</v>
       </c>
       <c r="AK6" t="n">
-        <v>3707906717.6788</v>
+        <v>960717893.5084</v>
       </c>
       <c r="AL6" t="n">
-        <v>4081238872.4698</v>
+        <v>1428591517.8023</v>
       </c>
       <c r="AM6" t="n">
-        <v>3462075641.7363</v>
+        <v>878667396.6901</v>
       </c>
       <c r="AN6" t="n">
-        <v>3760509665.3786</v>
+        <v>864387280.1527</v>
       </c>
       <c r="AO6" t="n">
-        <v>3360832180.317</v>
+        <v>736477819.9313</v>
       </c>
       <c r="AP6" t="n">
-        <v>2481339093.598</v>
+        <v>486928011.559</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3140121951.4034</v>
+        <v>148502404.0303</v>
       </c>
       <c r="AR6" t="n">
-        <v>3003174380.6131</v>
+        <v>132728406.8579</v>
       </c>
       <c r="AS6" t="n">
-        <v>3506229863.3735</v>
+        <v>286887474.3502</v>
       </c>
       <c r="AT6" t="n">
-        <v>4634773807.7049</v>
+        <v>306678039.9971</v>
       </c>
       <c r="AU6" t="n">
-        <v>3356247027.6463</v>
+        <v>331125903.669</v>
       </c>
       <c r="AV6" t="n">
-        <v>3097662122.9688</v>
+        <v>342250714.6995</v>
       </c>
       <c r="AW6" t="n">
-        <v>1936596308.6438</v>
+        <v>235580620.3642</v>
       </c>
     </row>
     <row r="7">
       <c r="N7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -5123,84 +5158,84 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7" t="n">
-        <v>122092079</v>
+        <v>236607674</v>
       </c>
       <c r="AA7" t="n">
-        <v>613410860</v>
+        <v>241150872</v>
       </c>
       <c r="AB7" t="n">
-        <v>929286575</v>
+        <v>365004941</v>
       </c>
       <c r="AC7" t="n">
-        <v>891140071</v>
+        <v>567029827</v>
       </c>
       <c r="AD7" t="n">
-        <v>1216032307</v>
+        <v>565824399</v>
       </c>
       <c r="AE7" t="n">
-        <v>1070575766</v>
+        <v>762477556.4375</v>
       </c>
       <c r="AF7" t="n">
-        <v>1363131220</v>
+        <v>968747337.329</v>
       </c>
       <c r="AG7" t="n">
-        <v>1063840951.9997</v>
+        <v>1467940096.779</v>
       </c>
       <c r="AH7" t="n">
-        <v>1135542368.3325</v>
+        <v>1549209222.6267</v>
       </c>
       <c r="AI7" t="n">
-        <v>1598689132.2695</v>
+        <v>2401440484.416</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1372080615.1315</v>
+        <v>2796841636.3411</v>
       </c>
       <c r="AK7" t="n">
-        <v>1668436621.1011</v>
+        <v>3155589856.3139</v>
       </c>
       <c r="AL7" t="n">
-        <v>2995119286.7718</v>
+        <v>2070025279.9031</v>
       </c>
       <c r="AM7" t="n">
-        <v>1973287979.8903</v>
+        <v>1878146025.8377</v>
       </c>
       <c r="AN7" t="n">
-        <v>1051781326.8202</v>
+        <v>2023400318.501</v>
       </c>
       <c r="AO7" t="n">
-        <v>653442719.9612</v>
+        <v>1839877775.0993</v>
       </c>
       <c r="AP7" t="n">
-        <v>1585413796.8568</v>
+        <v>1904006961.0763</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3213161772.667</v>
+        <v>1858927122.2117</v>
       </c>
       <c r="AR7" t="n">
-        <v>1891091603.0572</v>
+        <v>2191913142.5697</v>
       </c>
       <c r="AS7" t="n">
-        <v>1393690630.0432</v>
+        <v>2204239919.1505</v>
       </c>
       <c r="AT7" t="n">
-        <v>1777873065.1261</v>
+        <v>2093048061.273</v>
       </c>
       <c r="AU7" t="n">
-        <v>1425007576.2745</v>
+        <v>2414564269.7267</v>
       </c>
       <c r="AV7" t="n">
-        <v>1288934835.0641</v>
+        <v>2773513385.132</v>
       </c>
       <c r="AW7" t="n">
-        <v>417086819.7503</v>
+        <v>1490042126.0491</v>
       </c>
     </row>
     <row r="8">
       <c r="N8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -5212,50 +5247,52 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
+      <c r="Z8" t="n">
+        <v>5951108</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5569219</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5982298</v>
+      </c>
       <c r="AC8" t="n">
-        <v>8050613</v>
+        <v>-225391</v>
       </c>
       <c r="AD8" t="n">
-        <v>69113097</v>
+        <v>-191046</v>
       </c>
       <c r="AE8" t="n">
-        <v>117706104</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>236927162.5508</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1670263655.6915</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>3334452868.81</v>
-      </c>
+        <v>13569</v>
+      </c>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
       <c r="AI8" t="n">
-        <v>2202198527.7097</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6934225.014</v>
+        <v>10751011.2582</v>
       </c>
       <c r="AK8" t="n">
-        <v>2076027.0686</v>
+        <v>7239480.1542</v>
       </c>
       <c r="AL8" t="n">
-        <v>-744085.4561</v>
+        <v>-496764.3598</v>
       </c>
       <c r="AM8" t="n">
-        <v>-1545901.82</v>
+        <v>1097880.57</v>
       </c>
       <c r="AN8" t="n">
-        <v>-1396170.87</v>
+        <v>1670588.57</v>
       </c>
       <c r="AO8" t="n">
-        <v>188650</v>
+        <v>2672809.5352</v>
       </c>
       <c r="AP8"/>
-      <c r="AQ8"/>
+      <c r="AQ8" t="n">
+        <v>894099.1604</v>
+      </c>
       <c r="AR8"/>
       <c r="AS8"/>
       <c r="AT8"/>
@@ -5264,9 +5301,7 @@
       <c r="AW8"/>
     </row>
     <row r="9">
-      <c r="N9" t="s">
-        <v>58</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
         <v>3035334000</v>
@@ -5299,84 +5334,66 @@
         <v>3665542951</v>
       </c>
       <c r="Z9" t="n">
-        <v>454947496</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12941467.3999</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>33493982</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>44678337</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>29147742.1875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
       <c r="AE9" t="n">
-        <v>15746652</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>4336591.4687</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>3132509.4915</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>124216313.5868</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>15033844.9149</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-55989.7188</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-61893.9883</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1510164.9334</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-710165.5508</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>-1869898.475</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>313029.3438</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1308337.1875</v>
-      </c>
-      <c r="AR9" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
       <c r="AW9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="N13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s">
         <v>1</v>
@@ -5483,10 +5500,10 @@
     </row>
     <row r="14">
       <c r="N14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -5499,84 +5516,84 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14" t="n">
-        <v>303908470.379152</v>
+        <v>4134492907.24399</v>
       </c>
       <c r="AA14" t="n">
-        <v>418926534.125859</v>
+        <v>4552355810.0395</v>
       </c>
       <c r="AB14" t="n">
-        <v>474634465.5017</v>
+        <v>6274691176.09189</v>
       </c>
       <c r="AC14" t="n">
-        <v>716216453.954378</v>
+        <v>6217226406.62134</v>
       </c>
       <c r="AD14" t="n">
-        <v>755918249.100577</v>
+        <v>7465340415.45491</v>
       </c>
       <c r="AE14" t="n">
-        <v>595633408.847446</v>
+        <v>7614973745.29678</v>
       </c>
       <c r="AF14" t="n">
-        <v>822175364.343753</v>
+        <v>7350691631.33003</v>
       </c>
       <c r="AG14" t="n">
-        <v>995910530.255985</v>
+        <v>8406056436.53596</v>
       </c>
       <c r="AH14" t="n">
-        <v>1539202745.81494</v>
+        <v>8297111033.85409</v>
       </c>
       <c r="AI14" t="n">
-        <v>3270724616.85976</v>
+        <v>9326734470.49153</v>
       </c>
       <c r="AJ14" t="n">
-        <v>4292220889.85971</v>
+        <v>8654512125.17907</v>
       </c>
       <c r="AK14" t="n">
-        <v>4610086584.38434</v>
+        <v>8457021870.42493</v>
       </c>
       <c r="AL14" t="n">
-        <v>2730085126.35506</v>
+        <v>9488459850.44533</v>
       </c>
       <c r="AM14" t="n">
-        <v>1272389721.3457</v>
+        <v>9724100812.55507</v>
       </c>
       <c r="AN14" t="n">
-        <v>1607148831.52671</v>
+        <v>6519380430.40569</v>
       </c>
       <c r="AO14" t="n">
-        <v>2398097281.81432</v>
+        <v>7848921037.75102</v>
       </c>
       <c r="AP14" t="n">
-        <v>3716892526.40186</v>
+        <v>8603896031.74704</v>
       </c>
       <c r="AQ14" t="n">
-        <v>862441070.581501</v>
+        <v>7400671623.00543</v>
       </c>
       <c r="AR14" t="n">
-        <v>720922786.555265</v>
+        <v>12362737427.7062</v>
       </c>
       <c r="AS14" t="n">
-        <v>429758744.737958</v>
+        <v>13481582728.6522</v>
       </c>
       <c r="AT14" t="n">
-        <v>7239515030.33714</v>
+        <v>18456212206.3738</v>
       </c>
       <c r="AU14" t="n">
-        <v>1474565366.65151</v>
+        <v>9752493905.5945</v>
       </c>
       <c r="AV14" t="n">
-        <v>2231441789.9627</v>
+        <v>10498698100.2625</v>
       </c>
       <c r="AW14" t="n">
-        <v>1118510929.83592</v>
+        <v>4370165921.91005</v>
       </c>
     </row>
     <row r="15">
       <c r="N15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
@@ -5589,68 +5606,84 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15" t="n">
-        <v>22154921.1413058</v>
+        <v>15123073.3085645</v>
       </c>
       <c r="AA15" t="n">
-        <v>37150495.2691397</v>
+        <v>18075366.2670029</v>
       </c>
       <c r="AB15" t="n">
-        <v>51083485.0877317</v>
+        <v>36866932.291017</v>
       </c>
       <c r="AC15" t="n">
-        <v>25207440.417403</v>
+        <v>45585046.2769588</v>
       </c>
       <c r="AD15" t="n">
-        <v>1641672.92337659</v>
+        <v>27222464.8053094</v>
       </c>
       <c r="AE15" t="n">
-        <v>2012202.02077213</v>
+        <v>8745585.13969293</v>
       </c>
       <c r="AF15" t="n">
-        <v>2684217.45260192</v>
+        <v>5798017.28926482</v>
       </c>
       <c r="AG15" t="n">
-        <v>136066.725405332</v>
+        <v>10147611.5441781</v>
       </c>
       <c r="AH15" t="n">
-        <v>29296986.3042134</v>
+        <v>63912644.5411829</v>
       </c>
       <c r="AI15" t="n">
-        <v>507552.919700644</v>
+        <v>54537097.0168244</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13537892.319324</v>
+        <v>4484110.78330282</v>
       </c>
       <c r="AK15" t="n">
-        <v>12630719.1456679</v>
+        <v>8098690.08332194</v>
       </c>
       <c r="AL15" t="n">
-        <v>2539102.66281554</v>
+        <v>5052451.98995568</v>
       </c>
       <c r="AM15" t="n">
-        <v>4605801.63528916</v>
+        <v>5303767.52842677</v>
       </c>
       <c r="AN15" t="n">
-        <v>-25.3437158048641</v>
+        <v>5096958.78443338</v>
       </c>
       <c r="AO15" t="n">
-        <v>-27.0355481618835</v>
-      </c>
-      <c r="AP15"/>
-      <c r="AQ15"/>
-      <c r="AR15"/>
-      <c r="AS15"/>
-      <c r="AT15"/>
-      <c r="AU15"/>
-      <c r="AV15"/>
-      <c r="AW15"/>
+        <v>4519435.77760949</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>2833397.44803247</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2901744.62662416</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>4679370.55666321</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>2157890.16212698</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>1522284.27627873</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1613897.03953358</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>298037.9588</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>-4635.46012405565</v>
+      </c>
     </row>
     <row r="16">
       <c r="N16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
@@ -5663,84 +5696,70 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16" t="n">
-        <v>231717404.548768</v>
+        <v>-140301.918871706</v>
       </c>
       <c r="AA16" t="n">
-        <v>272412787.314903</v>
+        <v>2167256.40544373</v>
       </c>
       <c r="AB16" t="n">
-        <v>315583572.297013</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>372255852.11522</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>367994391.598717</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>416172557.436896</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>490129452.207366</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>339357475.423483</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>316543837.577328</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>511643666.559276</v>
-      </c>
+        <v>-458171.511898606</v>
+      </c>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
       <c r="AJ16" t="n">
-        <v>753603358.206942</v>
+        <v>450708.476672083</v>
       </c>
       <c r="AK16" t="n">
-        <v>643745688.341144</v>
+        <v>31745684.7488053</v>
       </c>
       <c r="AL16" t="n">
-        <v>609491518.123249</v>
+        <v>149840707.127249</v>
       </c>
       <c r="AM16" t="n">
-        <v>494042282.376862</v>
+        <v>178147341.139667</v>
       </c>
       <c r="AN16" t="n">
-        <v>230349871.456285</v>
+        <v>264566727.31648</v>
       </c>
       <c r="AO16" t="n">
-        <v>376363849.017599</v>
+        <v>264262920.416568</v>
       </c>
       <c r="AP16" t="n">
-        <v>247357009.577856</v>
+        <v>384637707.610701</v>
       </c>
       <c r="AQ16" t="n">
-        <v>334143910.605702</v>
+        <v>295549224.13516</v>
       </c>
       <c r="AR16" t="n">
-        <v>9610719.35104201</v>
+        <v>279465331.37828</v>
       </c>
       <c r="AS16" t="n">
-        <v>2256082.35510648</v>
+        <v>273963820.924516</v>
       </c>
       <c r="AT16" t="n">
-        <v>-86593.8285144234</v>
+        <v>233343756.232106</v>
       </c>
       <c r="AU16" t="n">
-        <v>-440851.767616227</v>
+        <v>203434298.253219</v>
       </c>
       <c r="AV16" t="n">
-        <v>-10049870.0288</v>
+        <v>159594051.9701</v>
       </c>
       <c r="AW16" t="n">
-        <v>-2108264.47744402</v>
+        <v>79537374.4979335</v>
       </c>
     </row>
     <row r="17">
       <c r="N17" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -5753,84 +5772,84 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17" t="n">
-        <v>58199202.2914542</v>
+        <v>12811462.8679302</v>
       </c>
       <c r="AA17" t="n">
-        <v>292564360.530962</v>
+        <v>17232920.2795678</v>
       </c>
       <c r="AB17" t="n">
-        <v>410788999.094989</v>
+        <v>53149727.2975678</v>
       </c>
       <c r="AC17" t="n">
-        <v>206289431.831269</v>
+        <v>95557765.7517066</v>
       </c>
       <c r="AD17" t="n">
-        <v>58772450.2466055</v>
+        <v>162831961.958757</v>
       </c>
       <c r="AE17" t="n">
-        <v>54331819.2672562</v>
+        <v>221128328.96002</v>
       </c>
       <c r="AF17" t="n">
-        <v>156169071.545877</v>
+        <v>295852152.691698</v>
       </c>
       <c r="AG17" t="n">
-        <v>184927403.676968</v>
+        <v>436587896.70658</v>
       </c>
       <c r="AH17" t="n">
-        <v>349558629.836865</v>
+        <v>426125980.765854</v>
       </c>
       <c r="AI17" t="n">
-        <v>551379112.036677</v>
+        <v>430576984.862957</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1516063388.94844</v>
+        <v>353915614.125582</v>
       </c>
       <c r="AK17" t="n">
-        <v>1827637485.67721</v>
+        <v>206388990.058854</v>
       </c>
       <c r="AL17" t="n">
-        <v>1861147159.60339</v>
+        <v>64970198.3489177</v>
       </c>
       <c r="AM17" t="n">
-        <v>4873101338.92775</v>
+        <v>47665195.9222043</v>
       </c>
       <c r="AN17" t="n">
-        <v>2658946112.9637</v>
+        <v>37623065.5717389</v>
       </c>
       <c r="AO17" t="n">
-        <v>3662725462.88625</v>
+        <v>38969520.7804195</v>
       </c>
       <c r="AP17" t="n">
-        <v>3076667043.779</v>
+        <v>43458098.6499029</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1466490416.3613</v>
+        <v>43540596.0389268</v>
       </c>
       <c r="AR17" t="n">
-        <v>9013143446.32058</v>
+        <v>31078509.2997198</v>
       </c>
       <c r="AS17" t="n">
-        <v>10688397434.7406</v>
+        <v>60496110.2968052</v>
       </c>
       <c r="AT17" t="n">
-        <v>7080390558.6593</v>
+        <v>63944478.6565085</v>
       </c>
       <c r="AU17" t="n">
-        <v>6349089132.97912</v>
+        <v>42275341.2053944</v>
       </c>
       <c r="AV17" t="n">
-        <v>7209301651.7395</v>
+        <v>42936239.6834</v>
       </c>
       <c r="AW17" t="n">
-        <v>2753236136.53269</v>
+        <v>18983115.4641163</v>
       </c>
     </row>
     <row r="18">
       <c r="N18" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="O18" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
@@ -5843,84 +5862,84 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18" t="n">
-        <v>3300548902.27543</v>
+        <v>294672427.455215</v>
       </c>
       <c r="AA18" t="n">
-        <v>3297982303.57119</v>
+        <v>328066302.272813</v>
       </c>
       <c r="AB18" t="n">
-        <v>4592978440.1271</v>
+        <v>399854105.381749</v>
       </c>
       <c r="AC18" t="n">
-        <v>4916435369.34105</v>
+        <v>452620798.657325</v>
       </c>
       <c r="AD18" t="n">
-        <v>5774595828.67109</v>
+        <v>417143716.905909</v>
       </c>
       <c r="AE18" t="n">
-        <v>6566876588.52463</v>
+        <v>427606457.180502</v>
       </c>
       <c r="AF18" t="n">
-        <v>5741585700.49024</v>
+        <v>449123075.533008</v>
       </c>
       <c r="AG18" t="n">
-        <v>6060753382.65725</v>
+        <v>455573806.181287</v>
       </c>
       <c r="AH18" t="n">
-        <v>3320780199.72778</v>
+        <v>827268868.178072</v>
       </c>
       <c r="AI18" t="n">
-        <v>4485659308.14736</v>
+        <v>874623338.211956</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5412704806.13153</v>
+        <v>1105862694.60344</v>
       </c>
       <c r="AK18" t="n">
-        <v>4754956137.91905</v>
+        <v>1232008190.16455</v>
       </c>
       <c r="AL18" t="n">
-        <v>5139504111.1206</v>
+        <v>1799025298.02518</v>
       </c>
       <c r="AM18" t="n">
-        <v>4281441474.71307</v>
+        <v>1086620693.46944</v>
       </c>
       <c r="AN18" t="n">
-        <v>4562244530.4356</v>
+        <v>1048673316.1096</v>
       </c>
       <c r="AO18" t="n">
-        <v>4031141982.03054</v>
+        <v>883366529.321724</v>
       </c>
       <c r="AP18" t="n">
-        <v>2951776234.91626</v>
+        <v>579244705.547585</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3669935568.79306</v>
+        <v>173558308.574132</v>
       </c>
       <c r="AR18" t="n">
-        <v>3429359355.38281</v>
+        <v>151564093.887306</v>
       </c>
       <c r="AS18" t="n">
-        <v>3926890134.9323</v>
+        <v>321306827.207705</v>
       </c>
       <c r="AT18" t="n">
-        <v>5122494873.81775</v>
+        <v>338950022.800691</v>
       </c>
       <c r="AU18" t="n">
-        <v>3588793312.16373</v>
+        <v>354068821.151359</v>
       </c>
       <c r="AV18" t="n">
-        <v>3097662122.9688</v>
+        <v>342250714.6995</v>
       </c>
       <c r="AW18" t="n">
-        <v>1847122420.80488</v>
+        <v>224696413.929741</v>
       </c>
     </row>
     <row r="19">
       <c r="N19" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
@@ -5933,84 +5952,84 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19" t="n">
-        <v>197267840.879092</v>
+        <v>382294128.887788</v>
       </c>
       <c r="AA19" t="n">
-        <v>967641608.955507</v>
+        <v>380409987.823012</v>
       </c>
       <c r="AB19" t="n">
-        <v>1443150306.9343</v>
+        <v>566840204.956891</v>
       </c>
       <c r="AC19" t="n">
-        <v>1357953402.64506</v>
+        <v>864061787.853202</v>
       </c>
       <c r="AD19" t="n">
-        <v>1808822919.67649</v>
+        <v>841652097.178512</v>
       </c>
       <c r="AE19" t="n">
-        <v>1545541742.855</v>
+        <v>1100754312.66976</v>
       </c>
       <c r="AF19" t="n">
-        <v>1905841172.93721</v>
+        <v>1354439348.58663</v>
       </c>
       <c r="AG19" t="n">
-        <v>1447692793.11415</v>
+        <v>1997597756.35225</v>
       </c>
       <c r="AH19" t="n">
-        <v>1513695886.36638</v>
+        <v>2065120327.35026</v>
       </c>
       <c r="AI19" t="n">
-        <v>2109639762.65907</v>
+        <v>3168955259.23249</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1794993889.42075</v>
+        <v>3658905746.16758</v>
       </c>
       <c r="AK19" t="n">
-        <v>2139574578.40255</v>
+        <v>4046674444.23414</v>
       </c>
       <c r="AL19" t="n">
-        <v>3771753717.11208</v>
+        <v>2606782834.4846</v>
       </c>
       <c r="AM19" t="n">
-        <v>2440303988.97292</v>
+        <v>2322644887.83851</v>
       </c>
       <c r="AN19" t="n">
-        <v>1276019484.71967</v>
+        <v>2454786147.99238</v>
       </c>
       <c r="AO19" t="n">
-        <v>783770280.68071</v>
+        <v>2206836921.05928</v>
       </c>
       <c r="AP19" t="n">
-        <v>1885992438.57657</v>
+        <v>2264987688.83326</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3755298953.44562</v>
+        <v>2172572553.28885</v>
       </c>
       <c r="AR19" t="n">
-        <v>2159459245.08923</v>
+        <v>2502970819.87072</v>
       </c>
       <c r="AS19" t="n">
-        <v>1560898800.00011</v>
+        <v>2468693819.5227</v>
       </c>
       <c r="AT19" t="n">
-        <v>1964960112.45841</v>
+        <v>2313301233.1047</v>
       </c>
       <c r="AU19" t="n">
-        <v>1523742923.98346</v>
+        <v>2581863620.7662</v>
       </c>
       <c r="AV19" t="n">
-        <v>1288934835.0641</v>
+        <v>2773513385.132</v>
       </c>
       <c r="AW19" t="n">
-        <v>397816732.761667</v>
+        <v>1421199765.11599</v>
       </c>
     </row>
     <row r="20">
       <c r="N20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
@@ -6022,50 +6041,52 @@
       <c r="W20"/>
       <c r="X20"/>
       <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
+      <c r="Z20" t="n">
+        <v>9615384.02502171</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8785315.65904389</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9290304.44120261</v>
+      </c>
       <c r="AC20" t="n">
-        <v>12267832.7150755</v>
+        <v>-343459.446315901</v>
       </c>
       <c r="AD20" t="n">
-        <v>102804303.12895</v>
+        <v>-284176.975828089</v>
       </c>
       <c r="AE20" t="n">
-        <v>169926970.979868</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>331256107.080067</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>2272923083.474</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>4444878263.95427</v>
-      </c>
+        <v>19588.9507074827</v>
+      </c>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
       <c r="AI20" t="n">
-        <v>2906034378.7603</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9071545.35289866</v>
+        <v>14064770.9039408</v>
       </c>
       <c r="AK20" t="n">
-        <v>2662261.59500186</v>
+        <v>9283785.49288478</v>
       </c>
       <c r="AL20" t="n">
-        <v>-937026.814687945</v>
+        <v>-625575.35817678</v>
       </c>
       <c r="AM20" t="n">
-        <v>-1911768.79216394</v>
+        <v>1357714.81998072</v>
       </c>
       <c r="AN20" t="n">
-        <v>-1693832.34774102</v>
+        <v>2026755.47845545</v>
       </c>
       <c r="AO20" t="n">
-        <v>226275.783528808</v>
+        <v>3205894.89425205</v>
       </c>
       <c r="AP20"/>
-      <c r="AQ20"/>
+      <c r="AQ20" t="n">
+        <v>1044955.05638355</v>
+      </c>
       <c r="AR20"/>
       <c r="AS20"/>
       <c r="AT20"/>
@@ -6074,9 +6095,7 @@
       <c r="AW20"/>
     </row>
     <row r="21">
-      <c r="N21" t="s">
-        <v>58</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
         <v>6032822140.01566</v>
@@ -6109,74 +6128,56 @@
         <v>6045865409.8293</v>
       </c>
       <c r="Z21" t="n">
-        <v>735072340.35444</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>20414868.9788187</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>52015009.9055848</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>68082562.6947625</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>43356663.9817665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
       <c r="AE21" t="n">
-        <v>22732728.2655969</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>6063139.37352027</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>4262771.9930145</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>165582305.107685</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>19838751.8736046</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
         <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>-71800.2574873525</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>-77943.0994513184</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>1867574.0938674</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>-861571.751741501</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>-2242845.17651709</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>372376.584983579</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1529084.93832063</v>
-      </c>
-      <c r="AR21" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
       <c r="AW21" t="n">
         <v>0</v>
       </c>

--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Cust" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -235,14 +236,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,8 +275,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3026,88 +3039,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="n">
         <v>188093593</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="1" t="n">
         <v>265567420</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>305630976</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>470008161.0938</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="1" t="n">
         <v>508187397.6484</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="1" t="n">
         <v>412587169.4375</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="1" t="n">
         <v>588051577.1021</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="1" t="n">
         <v>731847538.1334</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="1" t="n">
         <v>1154677070.255</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="1" t="n">
         <v>2478561502.3815</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>3280943246.4082</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="1" t="n">
         <v>3594937685.9658</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="1" t="n">
         <v>2167938638.0338</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="1" t="n">
         <v>1028884661.1787</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="1" t="n">
         <v>1324720469.133</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="1" t="n">
         <v>1999334816.8284</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="1" t="n">
         <v>3124515545.3746</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>737933973.7061</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="1" t="n">
         <v>631329825.3753</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="1" t="n">
         <v>383721696.5766</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="1" t="n">
         <v>6550229032.8473</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="1" t="n">
         <v>1379016621.5815</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="1" t="n">
         <v>2231441789.9627</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="1" t="n">
         <v>1172691161.9394</v>
       </c>
+      <c r="AX2" s="1"/>
     </row>
     <row r="3">
       <c r="M3" t="s">
@@ -3119,72 +3133,73 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="n">
         <v>13712019</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="1" t="n">
         <v>23550576</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="1" t="n">
         <v>32894146</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="1" t="n">
         <v>16542070</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="1" t="n">
         <v>1103661</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="1" t="n">
         <v>1393825</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="1" t="n">
         <v>1919856</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="1" t="n">
         <v>99989</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="1" t="n">
         <v>21977974.25</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="1" t="n">
         <v>384624.5938</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>10348269</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="1" t="n">
         <v>9849413.3302</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="1" t="n">
         <v>2016281</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="1" t="n">
         <v>3724361</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="1" t="n">
         <v>-20.89</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="1" t="n">
         <v>-22.54</v>
       </c>
-      <c r="AP3"/>
-      <c r="AQ3"/>
-      <c r="AR3"/>
-      <c r="AS3"/>
-      <c r="AT3"/>
-      <c r="AU3"/>
-      <c r="AV3"/>
-      <c r="AW3"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
     </row>
     <row r="4">
       <c r="M4" t="s">
@@ -3196,88 +3211,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="n">
         <v>143413440</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="1" t="n">
         <v>172688897</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="1" t="n">
         <v>203213466.8281</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="1" t="n">
         <v>244288284</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="1" t="n">
         <v>247394625.5938</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="1" t="n">
         <v>288277076</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="1" t="n">
         <v>350559515.4688</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="1" t="n">
         <v>249377755.7227</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="1" t="n">
         <v>237464435.387</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="1" t="n">
         <v>387724569.7587</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>576049069.2408</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="1" t="n">
         <v>501991794.0445</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="1" t="n">
         <v>483992311.7919</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="1" t="n">
         <v>399494367.0039</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="1" t="n">
         <v>189869901.1531</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="1" t="n">
         <v>313780993.3078</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="1" t="n">
         <v>207934670.21</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>285904918.207</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="1" t="n">
         <v>8416343.4459</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="1" t="n">
         <v>2014404.0337</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="1" t="n">
         <v>-78349.0893</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="1" t="n">
         <v>-412285.4971</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="1" t="n">
         <v>-10049870.0288</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="1" t="n">
         <v>-2210387.9844</v>
       </c>
+      <c r="AX4" s="1"/>
     </row>
     <row r="5">
       <c r="M5" t="s">
@@ -3289,88 +3305,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="n">
         <v>36020375</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="1" t="n">
         <v>185463455</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="1" t="n">
         <v>264519018</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="1" t="n">
         <v>135374880</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="1" t="n">
         <v>39511440</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="1" t="n">
         <v>37634913</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="1" t="n">
         <v>111698152</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="1" t="n">
         <v>135894401.1563</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="1" t="n">
         <v>262231428.3676</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="1" t="n">
         <v>417836167.9448</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>1158868116.2352</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="1" t="n">
         <v>1425188606.175</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="1" t="n">
         <v>1477921988.3733</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="1" t="n">
         <v>3940505912.5198</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="1" t="n">
         <v>2191682732.22</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="1" t="n">
         <v>3053677012.1736</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="1" t="n">
         <v>2586325522.717</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="1" t="n">
         <v>1254779181.1651</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="1" t="n">
         <v>7893031520.39</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="1" t="n">
         <v>9543424182.8969</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="1" t="n">
         <v>6406255060.8543</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="1" t="n">
         <v>5937681464.8529</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="1" t="n">
         <v>7209301651.7395</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="1" t="n">
         <v>2886601818.471</v>
       </c>
+      <c r="AX5" s="1"/>
     </row>
     <row r="6">
       <c r="M6" t="s">
@@ -3382,88 +3399,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="n">
         <v>2042760115</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="1" t="n">
         <v>2090668841</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="1" t="n">
         <v>2957552781</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="1" t="n">
         <v>3226349708</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="1" t="n">
         <v>3882135178.1563</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="1" t="n">
         <v>4548786188.7188</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="1" t="n">
         <v>4106603861.7383</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="1" t="n">
         <v>4453760963.0368</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="1" t="n">
         <v>2491178476.9149</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="1" t="n">
         <v>3399241384.2067</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="1" t="n">
         <v>4137433215.6188</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="1" t="n">
         <v>3707906717.6788</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="1" t="n">
         <v>4081238872.4698</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="1" t="n">
         <v>3462075641.7363</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="1" t="n">
         <v>3760509665.3786</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="1" t="n">
         <v>3360832180.317</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="1" t="n">
         <v>2481339093.598</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="1" t="n">
         <v>3140121951.4034</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="1" t="n">
         <v>3003174380.6131</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="1" t="n">
         <v>3506229863.3735</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="1" t="n">
         <v>4634773807.7049</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="1" t="n">
         <v>3356247027.6463</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="1" t="n">
         <v>3097662122.9688</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="1" t="n">
         <v>1936596308.6438</v>
       </c>
+      <c r="AX6" s="1"/>
     </row>
     <row r="7">
       <c r="M7" t="s">
@@ -3475,88 +3493,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="n">
         <v>122092079</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="1" t="n">
         <v>613410860</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="1" t="n">
         <v>929286575</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="1" t="n">
         <v>891140071</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="1" t="n">
         <v>1216032307</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="1" t="n">
         <v>1070575766</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="1" t="n">
         <v>1363131220</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="1" t="n">
         <v>1063840951.9997</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="1" t="n">
         <v>1135542368.3325</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="1" t="n">
         <v>1598689132.2695</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>1372080615.1315</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="1" t="n">
         <v>1668436621.1011</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="1" t="n">
         <v>2995119286.7718</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="1" t="n">
         <v>1973287979.8903</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="1" t="n">
         <v>1051781326.8202</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="1" t="n">
         <v>653442719.9612</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="1" t="n">
         <v>1585413796.8568</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="1" t="n">
         <v>3213161772.667</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="1" t="n">
         <v>1891091603.0572</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="1" t="n">
         <v>1393690630.0432</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="1" t="n">
         <v>1777873065.1261</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="1" t="n">
         <v>1425007576.2745</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="1" t="n">
         <v>1288934835.0641</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="1" t="n">
         <v>417086819.7503</v>
       </c>
+      <c r="AX7" s="1"/>
     </row>
     <row r="8">
       <c r="M8" t="s">
@@ -3568,66 +3587,67 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8" t="n">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1" t="n">
         <v>8050613</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="1" t="n">
         <v>69113097</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="1" t="n">
         <v>117706104</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="1" t="n">
         <v>236927162.5508</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="1" t="n">
         <v>1670263655.6915</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="1" t="n">
         <v>3334452868.81</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="1" t="n">
         <v>2202198527.7097</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>6934225.014</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="1" t="n">
         <v>2076027.0686</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="1" t="n">
         <v>-744085.4561</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="1" t="n">
         <v>-1545901.82</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="1" t="n">
         <v>-1396170.87</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="1" t="n">
         <v>188650</v>
       </c>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
     </row>
     <row r="9">
       <c r="M9" t="s">
@@ -3637,108 +3657,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="1" t="n">
         <v>3035334000</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="1" t="n">
         <v>5206015283</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="1" t="n">
         <v>3918554592</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="1" t="n">
         <v>4991418711</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="1" t="n">
         <v>4289293657</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="1" t="n">
         <v>3486356407</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="1" t="n">
         <v>3715624896</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="1" t="n">
         <v>4012460461</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="1" t="n">
         <v>3602703203</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="1" t="n">
         <v>3665542951</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="1" t="n">
         <v>454947496</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="1" t="n">
         <v>12941467.3999</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" s="1" t="n">
         <v>33493982</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="1" t="n">
         <v>44678337</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" s="1" t="n">
         <v>29147742.1875</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="1" t="n">
         <v>15746652</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="1" t="n">
         <v>4336591.4687</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="1" t="n">
         <v>3132509.4915</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="1" t="n">
         <v>124216313.5868</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" s="1" t="n">
         <v>15033844.9149</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AJ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1" t="n">
         <v>-55989.7188</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9" s="1" t="n">
         <v>-61893.9883</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9" s="1" t="n">
         <v>1510164.9334</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9" s="1" t="n">
         <v>-710165.5508</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9" s="1" t="n">
         <v>-1869898.475</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9" s="1" t="n">
         <v>313029.3438</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>1308337.1875</v>
       </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1"/>
     </row>
     <row r="13">
       <c r="M13" t="s">
@@ -3863,88 +3884,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="n">
         <v>303908470.379152</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="1" t="n">
         <v>418926534.125859</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="1" t="n">
         <v>474634465.5017</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="1" t="n">
         <v>716216453.954378</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="1" t="n">
         <v>755918249.100577</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="1" t="n">
         <v>595633408.847446</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="1" t="n">
         <v>822175364.343753</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="1" t="n">
         <v>995910530.255985</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="1" t="n">
         <v>1539202745.81494</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="1" t="n">
         <v>3270724616.85976</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="1" t="n">
         <v>4292220889.85971</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="1" t="n">
         <v>4610086584.38434</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="1" t="n">
         <v>2730085126.35506</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="1" t="n">
         <v>1272389721.3457</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="1" t="n">
         <v>1607148831.52671</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="1" t="n">
         <v>2398097281.81432</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="1" t="n">
         <v>3716892526.40186</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="1" t="n">
         <v>862441070.581501</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="1" t="n">
         <v>720922786.555265</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="1" t="n">
         <v>429758744.737958</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="1" t="n">
         <v>7239515030.33714</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="1" t="n">
         <v>1474565366.65151</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="1" t="n">
         <v>2231441789.9627</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="1" t="n">
         <v>1118510929.83592</v>
       </c>
+      <c r="AX14" s="1"/>
     </row>
     <row r="15">
       <c r="M15" t="s">
@@ -3956,72 +3978,73 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="n">
         <v>22154921.1413058</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="1" t="n">
         <v>37150495.2691397</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="1" t="n">
         <v>51083485.0877317</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="1" t="n">
         <v>25207440.417403</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="1" t="n">
         <v>1641672.92337659</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="1" t="n">
         <v>2012202.02077213</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="1" t="n">
         <v>2684217.45260192</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="1" t="n">
         <v>136066.725405332</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="1" t="n">
         <v>29296986.3042134</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="1" t="n">
         <v>507552.919700644</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="1" t="n">
         <v>13537892.319324</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="1" t="n">
         <v>12630719.1456679</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="1" t="n">
         <v>2539102.66281554</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="1" t="n">
         <v>4605801.63528916</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="1" t="n">
         <v>-25.3437158048641</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="1" t="n">
         <v>-27.0355481618835</v>
       </c>
-      <c r="AP15"/>
-      <c r="AQ15"/>
-      <c r="AR15"/>
-      <c r="AS15"/>
-      <c r="AT15"/>
-      <c r="AU15"/>
-      <c r="AV15"/>
-      <c r="AW15"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
     </row>
     <row r="16">
       <c r="M16" t="s">
@@ -4033,88 +4056,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="n">
         <v>231717404.548768</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="1" t="n">
         <v>272412787.314903</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="1" t="n">
         <v>315583572.297013</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="1" t="n">
         <v>372255852.11522</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="1" t="n">
         <v>367994391.598717</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="1" t="n">
         <v>416172557.436896</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="1" t="n">
         <v>490129452.207366</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="1" t="n">
         <v>339357475.423483</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="1" t="n">
         <v>316543837.577328</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="1" t="n">
         <v>511643666.559276</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="1" t="n">
         <v>753603358.206942</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="1" t="n">
         <v>643745688.341144</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="1" t="n">
         <v>609491518.123249</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="1" t="n">
         <v>494042282.376862</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="1" t="n">
         <v>230349871.456285</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="1" t="n">
         <v>376363849.017599</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="1" t="n">
         <v>247357009.577856</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="1" t="n">
         <v>334143910.605702</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="1" t="n">
         <v>9610719.35104201</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="1" t="n">
         <v>2256082.35510648</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="1" t="n">
         <v>-86593.8285144234</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="1" t="n">
         <v>-440851.767616227</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="1" t="n">
         <v>-10049870.0288</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="1" t="n">
         <v>-2108264.47744402</v>
       </c>
+      <c r="AX16" s="1"/>
     </row>
     <row r="17">
       <c r="M17" t="s">
@@ -4126,88 +4150,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="n">
         <v>58199202.2914542</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="1" t="n">
         <v>292564360.530962</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="1" t="n">
         <v>410788999.094989</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="1" t="n">
         <v>206289431.831269</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="1" t="n">
         <v>58772450.2466055</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="1" t="n">
         <v>54331819.2672562</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="1" t="n">
         <v>156169071.545877</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="1" t="n">
         <v>184927403.676968</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="1" t="n">
         <v>349558629.836865</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="1" t="n">
         <v>551379112.036677</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="1" t="n">
         <v>1516063388.94844</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="1" t="n">
         <v>1827637485.67721</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="1" t="n">
         <v>1861147159.60339</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="1" t="n">
         <v>4873101338.92775</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="1" t="n">
         <v>2658946112.9637</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="1" t="n">
         <v>3662725462.88625</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="1" t="n">
         <v>3076667043.779</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="1" t="n">
         <v>1466490416.3613</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="1" t="n">
         <v>9013143446.32058</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="1" t="n">
         <v>10688397434.7406</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="1" t="n">
         <v>7080390558.6593</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="1" t="n">
         <v>6349089132.97912</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="1" t="n">
         <v>7209301651.7395</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="1" t="n">
         <v>2753236136.53269</v>
       </c>
+      <c r="AX17" s="1"/>
     </row>
     <row r="18">
       <c r="M18" t="s">
@@ -4219,88 +4244,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1" t="n">
         <v>3300548902.27543</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="1" t="n">
         <v>3297982303.57119</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="1" t="n">
         <v>4592978440.1271</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="1" t="n">
         <v>4916435369.34105</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="1" t="n">
         <v>5774595828.67109</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="1" t="n">
         <v>6566876588.52463</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="1" t="n">
         <v>5741585700.49024</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="1" t="n">
         <v>6060753382.65725</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="1" t="n">
         <v>3320780199.72778</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="1" t="n">
         <v>4485659308.14736</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="1" t="n">
         <v>5412704806.13153</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="1" t="n">
         <v>4754956137.91905</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="1" t="n">
         <v>5139504111.1206</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="1" t="n">
         <v>4281441474.71307</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="1" t="n">
         <v>4562244530.4356</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="1" t="n">
         <v>4031141982.03054</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="1" t="n">
         <v>2951776234.91626</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="1" t="n">
         <v>3669935568.79306</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="1" t="n">
         <v>3429359355.38281</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="1" t="n">
         <v>3926890134.9323</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="1" t="n">
         <v>5122494873.81775</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="1" t="n">
         <v>3588793312.16373</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="1" t="n">
         <v>3097662122.9688</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="1" t="n">
         <v>1847122420.80488</v>
       </c>
+      <c r="AX18" s="1"/>
     </row>
     <row r="19">
       <c r="M19" t="s">
@@ -4312,88 +4338,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="n">
         <v>197267840.879092</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="1" t="n">
         <v>967641608.955507</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="1" t="n">
         <v>1443150306.9343</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="1" t="n">
         <v>1357953402.64506</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="1" t="n">
         <v>1808822919.67649</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="1" t="n">
         <v>1545541742.855</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="1" t="n">
         <v>1905841172.93721</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="1" t="n">
         <v>1447692793.11415</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="1" t="n">
         <v>1513695886.36638</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="1" t="n">
         <v>2109639762.65907</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="1" t="n">
         <v>1794993889.42075</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="1" t="n">
         <v>2139574578.40255</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="1" t="n">
         <v>3771753717.11208</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="1" t="n">
         <v>2440303988.97292</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="1" t="n">
         <v>1276019484.71967</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="1" t="n">
         <v>783770280.68071</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="1" t="n">
         <v>1885992438.57657</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="1" t="n">
         <v>3755298953.44562</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="1" t="n">
         <v>2159459245.08923</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="1" t="n">
         <v>1560898800.00011</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="1" t="n">
         <v>1964960112.45841</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="1" t="n">
         <v>1523742923.98346</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="1" t="n">
         <v>1288934835.0641</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="1" t="n">
         <v>397816732.761667</v>
       </c>
+      <c r="AX19" s="1"/>
     </row>
     <row r="20">
       <c r="M20" t="s">
@@ -4405,66 +4432,67 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20" t="n">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1" t="n">
         <v>12267832.7150755</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="1" t="n">
         <v>102804303.12895</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="1" t="n">
         <v>169926970.979868</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="1" t="n">
         <v>331256107.080067</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="1" t="n">
         <v>2272923083.474</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="1" t="n">
         <v>4444878263.95427</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="1" t="n">
         <v>2906034378.7603</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="1" t="n">
         <v>9071545.35289866</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="1" t="n">
         <v>2662261.59500186</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="1" t="n">
         <v>-937026.814687945</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="1" t="n">
         <v>-1911768.79216394</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="1" t="n">
         <v>-1693832.34774102</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="1" t="n">
         <v>226275.783528808</v>
       </c>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
     </row>
     <row r="21">
       <c r="M21" t="s">
@@ -4474,108 +4502,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="1" t="n">
         <v>6032822140.01566</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="1" t="n">
         <v>9990757469.16172</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="1" t="n">
         <v>7336657438.47783</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="1" t="n">
         <v>9130873892.26007</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="1" t="n">
         <v>7679140602.47769</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="1" t="n">
         <v>6112165700.2052</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="1" t="n">
         <v>6393941560.35423</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="1" t="n">
         <v>6784225907.77468</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="1" t="n">
         <v>6016289806.15404</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="1" t="n">
         <v>6045865409.8293</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="1" t="n">
         <v>735072340.35444</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="1" t="n">
         <v>20414868.9788187</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" s="1" t="n">
         <v>52015009.9055848</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="1" t="n">
         <v>68082562.6947625</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21" s="1" t="n">
         <v>43356663.9817665</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="1" t="n">
         <v>22732728.2655969</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="1" t="n">
         <v>6063139.37352027</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="1" t="n">
         <v>4262771.9930145</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21" s="1" t="n">
         <v>165582305.107685</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21" s="1" t="n">
         <v>19838751.8736046</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
+      <c r="AJ21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1" t="n">
         <v>-71800.2574873525</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21" s="1" t="n">
         <v>-77943.0994513184</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21" s="1" t="n">
         <v>1867574.0938674</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21" s="1" t="n">
         <v>-861571.751741501</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21" s="1" t="n">
         <v>-2242845.17651709</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21" s="1" t="n">
         <v>372376.584983579</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21" s="1" t="n">
         <v>1529084.93832063</v>
       </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4711,88 +4740,89 @@
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>2558900794</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="2" t="n">
         <v>2885845820</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="2" t="n">
         <v>4040456662.2031</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="2" t="n">
         <v>4079977686</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="2" t="n">
         <v>5018785990.1563</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="2" t="n">
         <v>5274788848.7188</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="2" t="n">
         <v>5257498575.1915</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>6177213235.1166</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="2" t="n">
         <v>6224315728.5161</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="2" t="n">
         <v>7067817596.8509</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>6615447768.5775</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="2" t="n">
         <v>6594771286.0772</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="2" t="n">
         <v>7534709642.0676</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="2" t="n">
         <v>7863139729.8713</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="2" t="n">
         <v>5373713082.9504</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="2" t="n">
         <v>6543780031.0753</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="2" t="n">
         <v>7232656502.986</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>6332266870.3337</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="2" t="n">
         <v>10826353400.0477</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="2" t="n">
         <v>12037395074.6029</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="2" t="n">
         <v>16698966232.4039</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="2" t="n">
         <v>9120552741.7392</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="2" t="n">
         <v>10498698100.2625</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="2" t="n">
         <v>4581855050.4325</v>
       </c>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="N3" t="s">
@@ -4801,88 +4831,89 @@
       <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>9359901</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="2" t="n">
         <v>11458401.3999</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="2" t="n">
         <v>23739693</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="2" t="n">
         <v>29914621</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="2" t="n">
         <v>18301071</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="2" t="n">
         <v>6057948</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="2" t="n">
         <v>4146965.9137</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="2" t="n">
         <v>7456999.7012</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="2" t="n">
         <v>47945902.742</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="2" t="n">
         <v>41328318.6303</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>3427622.5218</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="2" t="n">
         <v>6315344.7673</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="2" t="n">
         <v>4012111.4833</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="2" t="n">
         <v>4288752.86</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="2" t="n">
         <v>4201257.22</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="2" t="n">
         <v>3767931.089</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="2" t="n">
         <v>2381826.8378</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>2482831.5998</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="2" t="n">
         <v>4097839.9511</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="2" t="n">
         <v>1926730.4835</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="2" t="n">
         <v>1377345.1151</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="2" t="n">
         <v>1509319.8941</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="2" t="n">
         <v>298037.9588</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="2" t="n">
         <v>-4860</v>
       </c>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="N4" t="s">
@@ -4891,74 +4922,75 @@
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>-86835</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="2" t="n">
         <v>1373875</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="2" t="n">
         <v>-295030</v>
       </c>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4" t="n">
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2" t="n">
         <v>344518.3672</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="2" t="n">
         <v>24755231.0312</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="2" t="n">
         <v>118987300.2111</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="2" t="n">
         <v>144054186.9</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="2" t="n">
         <v>218073741.68</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="2" t="n">
         <v>220320527.2748</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="2" t="n">
         <v>323336359.1307</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>252881989.0787</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="2" t="n">
         <v>244734668.0503</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="2" t="n">
         <v>244615993.1658</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="2" t="n">
         <v>211126717.7843</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="2" t="n">
         <v>190252182.1247</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="2" t="n">
         <v>159594051.9701</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="2" t="n">
         <v>83390133.8195</v>
       </c>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="N5" t="s">
@@ -4967,88 +4999,89 @@
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>7929210</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="2" t="n">
         <v>10924355</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="2" t="n">
         <v>34224659.625</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="2" t="n">
         <v>62708598.0938</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="2" t="n">
         <v>109468386.4297</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="2" t="n">
         <v>153172589</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="2" t="n">
         <v>211604886.8945</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="2" t="n">
         <v>320827792.9358</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="2" t="n">
         <v>319670621.9295</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="2" t="n">
         <v>326292080.046</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>270530588.6533</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="2" t="n">
         <v>160941783.793</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="2" t="n">
         <v>51592311.8886</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="2" t="n">
         <v>38543213.7133</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="2" t="n">
         <v>31011468.32</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="2" t="n">
         <v>32489557.5681</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="2" t="n">
         <v>36531996.5104</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>37254817.9215</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="2" t="n">
         <v>27216215.4048</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="2" t="n">
         <v>54015585.171</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="2" t="n">
         <v>57856220.8699</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="2" t="n">
         <v>39535987.7044</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="2" t="n">
         <v>42936239.6834</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="2" t="n">
         <v>19902650.1548</v>
       </c>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="N6" t="s">
@@ -5057,88 +5090,89 @@
       <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>182377265</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="2" t="n">
         <v>207968974</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="2" t="n">
         <v>257477721</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="2" t="n">
         <v>297026783</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="2" t="n">
         <v>280436648</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="2" t="n">
         <v>296197183</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="2" t="n">
         <v>321230171</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="2" t="n">
         <v>334779639.6993</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="2" t="n">
         <v>620599460.0895</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="2" t="n">
         <v>662791273.8364</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>845313610.9294</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="2" t="n">
         <v>960717893.5084</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="2" t="n">
         <v>1428591517.8023</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="2" t="n">
         <v>878667396.6901</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="2" t="n">
         <v>864387280.1527</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="2" t="n">
         <v>736477819.9313</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="2" t="n">
         <v>486928011.559</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>148502404.0303</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="2" t="n">
         <v>132728406.8579</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="2" t="n">
         <v>286887474.3502</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="2" t="n">
         <v>306678039.9971</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="2" t="n">
         <v>331125903.669</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="2" t="n">
         <v>342250714.6995</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="2" t="n">
         <v>235580620.3642</v>
       </c>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="N7" t="s">
@@ -5147,88 +5181,89 @@
       <c r="O7" t="s">
         <v>69</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>236607674</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="2" t="n">
         <v>241150872</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="2" t="n">
         <v>365004941</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="2" t="n">
         <v>567029827</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="2" t="n">
         <v>565824399</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="2" t="n">
         <v>762477556.4375</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="2" t="n">
         <v>968747337.329</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="2" t="n">
         <v>1467940096.779</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="2" t="n">
         <v>1549209222.6267</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="2" t="n">
         <v>2401440484.416</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>2796841636.3411</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="2" t="n">
         <v>3155589856.3139</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="2" t="n">
         <v>2070025279.9031</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="2" t="n">
         <v>1878146025.8377</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="2" t="n">
         <v>2023400318.501</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="2" t="n">
         <v>1839877775.0993</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="2" t="n">
         <v>1904006961.0763</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>1858927122.2117</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="2" t="n">
         <v>2191913142.5697</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="2" t="n">
         <v>2204239919.1505</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="2" t="n">
         <v>2093048061.273</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="2" t="n">
         <v>2414564269.7267</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="2" t="n">
         <v>2773513385.132</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="2" t="n">
         <v>1490042126.0491</v>
       </c>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="N8" t="s">
@@ -5237,156 +5272,158 @@
       <c r="O8" t="s">
         <v>70</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
         <v>5951108</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="2" t="n">
         <v>5569219</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="2" t="n">
         <v>5982298</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="2" t="n">
         <v>-225391</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="2" t="n">
         <v>-191046</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="2" t="n">
         <v>13569</v>
       </c>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
         <v>10751011.2582</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="2" t="n">
         <v>7239480.1542</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="2" t="n">
         <v>-496764.3598</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="2" t="n">
         <v>1097880.57</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="2" t="n">
         <v>1670588.57</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="2" t="n">
         <v>2672809.5352</v>
       </c>
-      <c r="AP8"/>
-      <c r="AQ8" t="n">
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2" t="n">
         <v>894099.1604</v>
       </c>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="2" t="n">
         <v>3035334000</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="2" t="n">
         <v>5206015283</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="2" t="n">
         <v>3918554592</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="2" t="n">
         <v>4991418711</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="2" t="n">
         <v>4289293657</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="2" t="n">
         <v>3486356407</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="2" t="n">
         <v>3715624896</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="2" t="n">
         <v>4012460461</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="2" t="n">
         <v>3602703203</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="2" t="n">
         <v>3665542951</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2"/>
     </row>
     <row r="13">
       <c r="N13" t="s">
@@ -5505,88 +5542,89 @@
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>4134492907.24399</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="2" t="n">
         <v>4552355810.0395</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="2" t="n">
         <v>6274691176.09189</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="2" t="n">
         <v>6217226406.62134</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="2" t="n">
         <v>7465340415.45491</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="2" t="n">
         <v>7614973745.29678</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="2" t="n">
         <v>7350691631.33003</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="2" t="n">
         <v>8406056436.53596</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="2" t="n">
         <v>8297111033.85409</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="2" t="n">
         <v>9326734470.49153</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>8654512125.17907</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="2" t="n">
         <v>8457021870.42493</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="2" t="n">
         <v>9488459850.44533</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="2" t="n">
         <v>9724100812.55507</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="2" t="n">
         <v>6519380430.40569</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="2" t="n">
         <v>7848921037.75102</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="2" t="n">
         <v>8603896031.74704</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>7400671623.00543</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="2" t="n">
         <v>12362737427.7062</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="2" t="n">
         <v>13481582728.6522</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="2" t="n">
         <v>18456212206.3738</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="2" t="n">
         <v>9752493905.5945</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="2" t="n">
         <v>10498698100.2625</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="2" t="n">
         <v>4370165921.91005</v>
       </c>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="N15" t="s">
@@ -5595,88 +5633,89 @@
       <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>15123073.3085645</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="2" t="n">
         <v>18075366.2670029</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="2" t="n">
         <v>36866932.291017</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="2" t="n">
         <v>45585046.2769588</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="2" t="n">
         <v>27222464.8053094</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="2" t="n">
         <v>8745585.13969293</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="2" t="n">
         <v>5798017.28926482</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="2" t="n">
         <v>10147611.5441781</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="2" t="n">
         <v>63912644.5411829</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="2" t="n">
         <v>54537097.0168244</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>4484110.78330282</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="2" t="n">
         <v>8098690.08332194</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="2" t="n">
         <v>5052451.98995568</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="2" t="n">
         <v>5303767.52842677</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="2" t="n">
         <v>5096958.78443338</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="2" t="n">
         <v>4519435.77760949</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="2" t="n">
         <v>2833397.44803247</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>2901744.62662416</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="2" t="n">
         <v>4679370.55666321</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="2" t="n">
         <v>2157890.16212698</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="2" t="n">
         <v>1522284.27627873</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="2" t="n">
         <v>1613897.03953358</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="2" t="n">
         <v>298037.9588</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="2" t="n">
         <v>-4635.46012405565</v>
       </c>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="N16" t="s">
@@ -5685,74 +5724,75 @@
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>-140301.918871706</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="2" t="n">
         <v>2167256.40544373</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="2" t="n">
         <v>-458171.511898606</v>
       </c>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16" t="n">
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2" t="n">
         <v>450708.476672083</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="2" t="n">
         <v>31745684.7488053</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="2" t="n">
         <v>149840707.127249</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="2" t="n">
         <v>178147341.139667</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="2" t="n">
         <v>264566727.31648</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="2" t="n">
         <v>264262920.416568</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="2" t="n">
         <v>384637707.610701</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>295549224.13516</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="2" t="n">
         <v>279465331.37828</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="2" t="n">
         <v>273963820.924516</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="2" t="n">
         <v>233343756.232106</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="2" t="n">
         <v>203434298.253219</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="2" t="n">
         <v>159594051.9701</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="2" t="n">
         <v>79537374.4979335</v>
       </c>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="N17" t="s">
@@ -5761,88 +5801,89 @@
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>12811462.8679302</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="2" t="n">
         <v>17232920.2795678</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="2" t="n">
         <v>53149727.2975678</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="2" t="n">
         <v>95557765.7517066</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="2" t="n">
         <v>162831961.958757</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="2" t="n">
         <v>221128328.96002</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="2" t="n">
         <v>295852152.691698</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="2" t="n">
         <v>436587896.70658</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="2" t="n">
         <v>426125980.765854</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="2" t="n">
         <v>430576984.862957</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>353915614.125582</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="2" t="n">
         <v>206388990.058854</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="2" t="n">
         <v>64970198.3489177</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="2" t="n">
         <v>47665195.9222043</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="2" t="n">
         <v>37623065.5717389</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="2" t="n">
         <v>38969520.7804195</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="2" t="n">
         <v>43458098.6499029</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>43540596.0389268</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="2" t="n">
         <v>31078509.2997198</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="2" t="n">
         <v>60496110.2968052</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="2" t="n">
         <v>63944478.6565085</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="2" t="n">
         <v>42275341.2053944</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="2" t="n">
         <v>42936239.6834</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="2" t="n">
         <v>18983115.4641163</v>
       </c>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="N18" t="s">
@@ -5851,88 +5892,89 @@
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>294672427.455215</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="2" t="n">
         <v>328066302.272813</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="2" t="n">
         <v>399854105.381749</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="2" t="n">
         <v>452620798.657325</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="2" t="n">
         <v>417143716.905909</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="2" t="n">
         <v>427606457.180502</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="2" t="n">
         <v>449123075.533008</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="2" t="n">
         <v>455573806.181287</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="2" t="n">
         <v>827268868.178072</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="2" t="n">
         <v>874623338.211956</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>1105862694.60344</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="2" t="n">
         <v>1232008190.16455</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="2" t="n">
         <v>1799025298.02518</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="2" t="n">
         <v>1086620693.46944</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="2" t="n">
         <v>1048673316.1096</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="2" t="n">
         <v>883366529.321724</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="2" t="n">
         <v>579244705.547585</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>173558308.574132</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="2" t="n">
         <v>151564093.887306</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="2" t="n">
         <v>321306827.207705</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="2" t="n">
         <v>338950022.800691</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="2" t="n">
         <v>354068821.151359</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="2" t="n">
         <v>342250714.6995</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="2" t="n">
         <v>224696413.929741</v>
       </c>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="N19" t="s">
@@ -5941,88 +5983,89 @@
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>382294128.887788</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="2" t="n">
         <v>380409987.823012</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="2" t="n">
         <v>566840204.956891</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="2" t="n">
         <v>864061787.853202</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="2" t="n">
         <v>841652097.178512</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="2" t="n">
         <v>1100754312.66976</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="2" t="n">
         <v>1354439348.58663</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="2" t="n">
         <v>1997597756.35225</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="2" t="n">
         <v>2065120327.35026</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="2" t="n">
         <v>3168955259.23249</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>3658905746.16758</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="2" t="n">
         <v>4046674444.23414</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="2" t="n">
         <v>2606782834.4846</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="2" t="n">
         <v>2322644887.83851</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="2" t="n">
         <v>2454786147.99238</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="2" t="n">
         <v>2206836921.05928</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="2" t="n">
         <v>2264987688.83326</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>2172572553.28885</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="2" t="n">
         <v>2502970819.87072</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="2" t="n">
         <v>2468693819.5227</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="2" t="n">
         <v>2313301233.1047</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="2" t="n">
         <v>2581863620.7662</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="2" t="n">
         <v>2773513385.132</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="2" t="n">
         <v>1421199765.11599</v>
       </c>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="N20" t="s">
@@ -6031,156 +6074,1779 @@
       <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
         <v>9615384.02502171</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="2" t="n">
         <v>8785315.65904389</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="2" t="n">
         <v>9290304.44120261</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="2" t="n">
         <v>-343459.446315901</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="2" t="n">
         <v>-284176.975828089</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="2" t="n">
         <v>19588.9507074827</v>
       </c>
-      <c r="AF20"/>
-      <c r="AG20"/>
-      <c r="AH20"/>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="2" t="n">
         <v>14064770.9039408</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="2" t="n">
         <v>9283785.49288478</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="2" t="n">
         <v>-625575.35817678</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="2" t="n">
         <v>1357714.81998072</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="2" t="n">
         <v>2026755.47845545</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="2" t="n">
         <v>3205894.89425205</v>
       </c>
-      <c r="AP20"/>
-      <c r="AQ20" t="n">
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2" t="n">
         <v>1044955.05638355</v>
       </c>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="2" t="n">
         <v>6032822140.01566</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="2" t="n">
         <v>9990757469.16172</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="2" t="n">
         <v>7336657438.47783</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="2" t="n">
         <v>9130873892.26007</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="2" t="n">
         <v>7679140602.47769</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="2" t="n">
         <v>6112165700.2052</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="2" t="n">
         <v>6393941560.35423</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="2" t="n">
         <v>6784225907.77468</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="2" t="n">
         <v>6016289806.15404</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="2" t="n">
         <v>6045865409.8293</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21"/>
-      <c r="AS21"/>
-      <c r="AT21"/>
-      <c r="AU21"/>
-      <c r="AV21"/>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Z21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="n">
+        <v>2558900794</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>2885845820</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>4040456662.2031</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>4079977686</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>5018785990.1563</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>5274788848.7188</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>5257498575.1915</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>6177213235.1166</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>6224315728.5161</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>7067817596.8509</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>6615447768.5775</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>6594771286.0772</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>7534709642.0676</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>7863139729.8713</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>5373713082.9504</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>6543780031.0753</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>7232656502.986</v>
+      </c>
+      <c r="AP2" s="3" t="n">
+        <v>6332266870.3337</v>
+      </c>
+      <c r="AQ2" s="3" t="n">
+        <v>10826353400.0477</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>12037395074.6029</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>16698966232.4039</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>9120552741.7392</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>10498698100.2625</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>4581855050.4325</v>
+      </c>
+      <c r="AW2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="n">
+        <v>9359901</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>11458401.3999</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>23739693</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>29914621</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>18301071</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>6057948</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>4146965.9137</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>7456999.7012</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>47945902.742</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>41328318.6303</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>3427622.5218</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>6315344.7673</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>4012111.4833</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>4288752.86</v>
+      </c>
+      <c r="AM3" s="3" t="n">
+        <v>4201257.22</v>
+      </c>
+      <c r="AN3" s="3" t="n">
+        <v>3767931.089</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>2381826.8378</v>
+      </c>
+      <c r="AP3" s="3" t="n">
+        <v>2482831.5998</v>
+      </c>
+      <c r="AQ3" s="3" t="n">
+        <v>4097839.9511</v>
+      </c>
+      <c r="AR3" s="3" t="n">
+        <v>1926730.4835</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>1377345.1151</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>1509319.8941</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>298037.9588</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>-4860</v>
+      </c>
+      <c r="AW3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="n">
+        <v>-86835</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>1373875</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>-295030</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3" t="n">
+        <v>344518.3672</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>24755231.0312</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>118987300.2111</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>144054186.9</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>218073741.68</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>220320527.2748</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>323336359.1307</v>
+      </c>
+      <c r="AP4" s="3" t="n">
+        <v>252881989.0787</v>
+      </c>
+      <c r="AQ4" s="3" t="n">
+        <v>244734668.0503</v>
+      </c>
+      <c r="AR4" s="3" t="n">
+        <v>244615993.1658</v>
+      </c>
+      <c r="AS4" s="3" t="n">
+        <v>211126717.7843</v>
+      </c>
+      <c r="AT4" s="3" t="n">
+        <v>190252182.1247</v>
+      </c>
+      <c r="AU4" s="3" t="n">
+        <v>159594051.9701</v>
+      </c>
+      <c r="AV4" s="3" t="n">
+        <v>83390133.8195</v>
+      </c>
+      <c r="AW4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="n">
+        <v>7929210</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>10924355</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>34224659.625</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>62708598.0938</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>109468386.4297</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>153172589</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>211604886.8945</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>320827792.9358</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>319670621.9295</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v>326292080.046</v>
+      </c>
+      <c r="AI5" s="3" t="n">
+        <v>270530588.6533</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>160941783.793</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>51592311.8886</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>38543213.7133</v>
+      </c>
+      <c r="AM5" s="3" t="n">
+        <v>31011468.32</v>
+      </c>
+      <c r="AN5" s="3" t="n">
+        <v>32489557.5681</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>36531996.5104</v>
+      </c>
+      <c r="AP5" s="3" t="n">
+        <v>37254817.9215</v>
+      </c>
+      <c r="AQ5" s="3" t="n">
+        <v>27216215.4048</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>54015585.171</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>57856220.8699</v>
+      </c>
+      <c r="AT5" s="3" t="n">
+        <v>39535987.7044</v>
+      </c>
+      <c r="AU5" s="3" t="n">
+        <v>42936239.6834</v>
+      </c>
+      <c r="AV5" s="3" t="n">
+        <v>19902650.1548</v>
+      </c>
+      <c r="AW5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3" t="n">
+        <v>182377265</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>207968974</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>257477721</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>297026783</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>280436648</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>296197183</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>321230171</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>334779639.6993</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>620599460.0895</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>662791273.8364</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>845313610.9294</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>960717893.5084</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>1428591517.8023</v>
+      </c>
+      <c r="AL6" s="3" t="n">
+        <v>878667396.6901</v>
+      </c>
+      <c r="AM6" s="3" t="n">
+        <v>864387280.1527</v>
+      </c>
+      <c r="AN6" s="3" t="n">
+        <v>736477819.9313</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>486928011.559</v>
+      </c>
+      <c r="AP6" s="3" t="n">
+        <v>148502404.0303</v>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>132728406.8579</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>286887474.3502</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>306678039.9971</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>331125903.669</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>342250714.6995</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>235580620.3642</v>
+      </c>
+      <c r="AW6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="n">
+        <v>236607674</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>241150872</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>365004941</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>567029827</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>565824399</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>762477556.4375</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>968747337.329</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>1467940096.779</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>1549209222.6267</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>2401440484.416</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>2796841636.3411</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>3155589856.3139</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>2070025279.9031</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>1878146025.8377</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>2023400318.501</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>1839877775.0993</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>1904006961.0763</v>
+      </c>
+      <c r="AP7" s="3" t="n">
+        <v>1858927122.2117</v>
+      </c>
+      <c r="AQ7" s="3" t="n">
+        <v>2191913142.5697</v>
+      </c>
+      <c r="AR7" s="3" t="n">
+        <v>2204239919.1505</v>
+      </c>
+      <c r="AS7" s="3" t="n">
+        <v>2093048061.273</v>
+      </c>
+      <c r="AT7" s="3" t="n">
+        <v>2414564269.7267</v>
+      </c>
+      <c r="AU7" s="3" t="n">
+        <v>2773513385.132</v>
+      </c>
+      <c r="AV7" s="3" t="n">
+        <v>1490042126.0491</v>
+      </c>
+      <c r="AW7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="n">
+        <v>5951108</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>5569219</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>5982298</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>-225391</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>-191046</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>13569</v>
+      </c>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>10751011.2582</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>7239480.1542</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>-496764.3598</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>1097880.57</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>1670588.57</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>2672809.5352</v>
+      </c>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3" t="n">
+        <v>894099.1604</v>
+      </c>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="3" t="n">
+        <v>3035334000</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>5206015283</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>3918554592</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>4991418711</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>4289293657</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>3486356407</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>3715624896</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>4012460461</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>3602703203</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>3665542951</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="n">
+        <v>4134492907.24399</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>4552355810.0395</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>6274691176.09189</v>
+      </c>
+      <c r="AB14" s="3" t="n">
+        <v>6217226406.62134</v>
+      </c>
+      <c r="AC14" s="3" t="n">
+        <v>7465340415.45491</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>7614973745.29678</v>
+      </c>
+      <c r="AE14" s="3" t="n">
+        <v>7350691631.33003</v>
+      </c>
+      <c r="AF14" s="3" t="n">
+        <v>8406056436.53596</v>
+      </c>
+      <c r="AG14" s="3" t="n">
+        <v>8297111033.85409</v>
+      </c>
+      <c r="AH14" s="3" t="n">
+        <v>9326734470.49153</v>
+      </c>
+      <c r="AI14" s="3" t="n">
+        <v>8654512125.17907</v>
+      </c>
+      <c r="AJ14" s="3" t="n">
+        <v>8457021870.42493</v>
+      </c>
+      <c r="AK14" s="3" t="n">
+        <v>9488459850.44533</v>
+      </c>
+      <c r="AL14" s="3" t="n">
+        <v>9724100812.55507</v>
+      </c>
+      <c r="AM14" s="3" t="n">
+        <v>6519380430.40569</v>
+      </c>
+      <c r="AN14" s="3" t="n">
+        <v>7848921037.75102</v>
+      </c>
+      <c r="AO14" s="3" t="n">
+        <v>8603896031.74704</v>
+      </c>
+      <c r="AP14" s="3" t="n">
+        <v>7400671623.00543</v>
+      </c>
+      <c r="AQ14" s="3" t="n">
+        <v>12362737427.7062</v>
+      </c>
+      <c r="AR14" s="3" t="n">
+        <v>13481582728.6522</v>
+      </c>
+      <c r="AS14" s="3" t="n">
+        <v>18456212206.3738</v>
+      </c>
+      <c r="AT14" s="3" t="n">
+        <v>9752493905.5945</v>
+      </c>
+      <c r="AU14" s="3" t="n">
+        <v>10498698100.2625</v>
+      </c>
+      <c r="AV14" s="3" t="n">
+        <v>4370165921.91005</v>
+      </c>
+      <c r="AW14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="n">
+        <v>15123073.3085645</v>
+      </c>
+      <c r="Z15" s="3" t="n">
+        <v>18075366.2670029</v>
+      </c>
+      <c r="AA15" s="3" t="n">
+        <v>36866932.291017</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>45585046.2769588</v>
+      </c>
+      <c r="AC15" s="3" t="n">
+        <v>27222464.8053094</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>8745585.13969293</v>
+      </c>
+      <c r="AE15" s="3" t="n">
+        <v>5798017.28926482</v>
+      </c>
+      <c r="AF15" s="3" t="n">
+        <v>10147611.5441781</v>
+      </c>
+      <c r="AG15" s="3" t="n">
+        <v>63912644.5411829</v>
+      </c>
+      <c r="AH15" s="3" t="n">
+        <v>54537097.0168244</v>
+      </c>
+      <c r="AI15" s="3" t="n">
+        <v>4484110.78330282</v>
+      </c>
+      <c r="AJ15" s="3" t="n">
+        <v>8098690.08332194</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>5052451.98995568</v>
+      </c>
+      <c r="AL15" s="3" t="n">
+        <v>5303767.52842677</v>
+      </c>
+      <c r="AM15" s="3" t="n">
+        <v>5096958.78443338</v>
+      </c>
+      <c r="AN15" s="3" t="n">
+        <v>4519435.77760949</v>
+      </c>
+      <c r="AO15" s="3" t="n">
+        <v>2833397.44803247</v>
+      </c>
+      <c r="AP15" s="3" t="n">
+        <v>2901744.62662416</v>
+      </c>
+      <c r="AQ15" s="3" t="n">
+        <v>4679370.55666321</v>
+      </c>
+      <c r="AR15" s="3" t="n">
+        <v>2157890.16212698</v>
+      </c>
+      <c r="AS15" s="3" t="n">
+        <v>1522284.27627873</v>
+      </c>
+      <c r="AT15" s="3" t="n">
+        <v>1613897.03953358</v>
+      </c>
+      <c r="AU15" s="3" t="n">
+        <v>298037.9588</v>
+      </c>
+      <c r="AV15" s="3" t="n">
+        <v>-4635.46012405565</v>
+      </c>
+      <c r="AW15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3" t="n">
+        <v>-140301.918871706</v>
+      </c>
+      <c r="Z16" s="3" t="n">
+        <v>2167256.40544373</v>
+      </c>
+      <c r="AA16" s="3" t="n">
+        <v>-458171.511898606</v>
+      </c>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3" t="n">
+        <v>450708.476672083</v>
+      </c>
+      <c r="AJ16" s="3" t="n">
+        <v>31745684.7488053</v>
+      </c>
+      <c r="AK16" s="3" t="n">
+        <v>149840707.127249</v>
+      </c>
+      <c r="AL16" s="3" t="n">
+        <v>178147341.139667</v>
+      </c>
+      <c r="AM16" s="3" t="n">
+        <v>264566727.31648</v>
+      </c>
+      <c r="AN16" s="3" t="n">
+        <v>264262920.416568</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>384637707.610701</v>
+      </c>
+      <c r="AP16" s="3" t="n">
+        <v>295549224.13516</v>
+      </c>
+      <c r="AQ16" s="3" t="n">
+        <v>279465331.37828</v>
+      </c>
+      <c r="AR16" s="3" t="n">
+        <v>273963820.924516</v>
+      </c>
+      <c r="AS16" s="3" t="n">
+        <v>233343756.232106</v>
+      </c>
+      <c r="AT16" s="3" t="n">
+        <v>203434298.253219</v>
+      </c>
+      <c r="AU16" s="3" t="n">
+        <v>159594051.9701</v>
+      </c>
+      <c r="AV16" s="3" t="n">
+        <v>79537374.4979335</v>
+      </c>
+      <c r="AW16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="n">
+        <v>12811462.8679302</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>17232920.2795678</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>53149727.2975678</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>95557765.7517066</v>
+      </c>
+      <c r="AC17" s="3" t="n">
+        <v>162831961.958757</v>
+      </c>
+      <c r="AD17" s="3" t="n">
+        <v>221128328.96002</v>
+      </c>
+      <c r="AE17" s="3" t="n">
+        <v>295852152.691698</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>436587896.70658</v>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>426125980.765854</v>
+      </c>
+      <c r="AH17" s="3" t="n">
+        <v>430576984.862957</v>
+      </c>
+      <c r="AI17" s="3" t="n">
+        <v>353915614.125582</v>
+      </c>
+      <c r="AJ17" s="3" t="n">
+        <v>206388990.058854</v>
+      </c>
+      <c r="AK17" s="3" t="n">
+        <v>64970198.3489177</v>
+      </c>
+      <c r="AL17" s="3" t="n">
+        <v>47665195.9222043</v>
+      </c>
+      <c r="AM17" s="3" t="n">
+        <v>37623065.5717389</v>
+      </c>
+      <c r="AN17" s="3" t="n">
+        <v>38969520.7804195</v>
+      </c>
+      <c r="AO17" s="3" t="n">
+        <v>43458098.6499029</v>
+      </c>
+      <c r="AP17" s="3" t="n">
+        <v>43540596.0389268</v>
+      </c>
+      <c r="AQ17" s="3" t="n">
+        <v>31078509.2997198</v>
+      </c>
+      <c r="AR17" s="3" t="n">
+        <v>60496110.2968052</v>
+      </c>
+      <c r="AS17" s="3" t="n">
+        <v>63944478.6565085</v>
+      </c>
+      <c r="AT17" s="3" t="n">
+        <v>42275341.2053944</v>
+      </c>
+      <c r="AU17" s="3" t="n">
+        <v>42936239.6834</v>
+      </c>
+      <c r="AV17" s="3" t="n">
+        <v>18983115.4641163</v>
+      </c>
+      <c r="AW17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="n">
+        <v>294672427.455215</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>328066302.272813</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>399854105.381749</v>
+      </c>
+      <c r="AB18" s="3" t="n">
+        <v>452620798.657325</v>
+      </c>
+      <c r="AC18" s="3" t="n">
+        <v>417143716.905909</v>
+      </c>
+      <c r="AD18" s="3" t="n">
+        <v>427606457.180502</v>
+      </c>
+      <c r="AE18" s="3" t="n">
+        <v>449123075.533008</v>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>455573806.181287</v>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>827268868.178072</v>
+      </c>
+      <c r="AH18" s="3" t="n">
+        <v>874623338.211956</v>
+      </c>
+      <c r="AI18" s="3" t="n">
+        <v>1105862694.60344</v>
+      </c>
+      <c r="AJ18" s="3" t="n">
+        <v>1232008190.16455</v>
+      </c>
+      <c r="AK18" s="3" t="n">
+        <v>1799025298.02518</v>
+      </c>
+      <c r="AL18" s="3" t="n">
+        <v>1086620693.46944</v>
+      </c>
+      <c r="AM18" s="3" t="n">
+        <v>1048673316.1096</v>
+      </c>
+      <c r="AN18" s="3" t="n">
+        <v>883366529.321724</v>
+      </c>
+      <c r="AO18" s="3" t="n">
+        <v>579244705.547585</v>
+      </c>
+      <c r="AP18" s="3" t="n">
+        <v>173558308.574132</v>
+      </c>
+      <c r="AQ18" s="3" t="n">
+        <v>151564093.887306</v>
+      </c>
+      <c r="AR18" s="3" t="n">
+        <v>321306827.207705</v>
+      </c>
+      <c r="AS18" s="3" t="n">
+        <v>338950022.800691</v>
+      </c>
+      <c r="AT18" s="3" t="n">
+        <v>354068821.151359</v>
+      </c>
+      <c r="AU18" s="3" t="n">
+        <v>342250714.6995</v>
+      </c>
+      <c r="AV18" s="3" t="n">
+        <v>224696413.929741</v>
+      </c>
+      <c r="AW18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3" t="n">
+        <v>382294128.887788</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>380409987.823012</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>566840204.956891</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>864061787.853202</v>
+      </c>
+      <c r="AC19" s="3" t="n">
+        <v>841652097.178512</v>
+      </c>
+      <c r="AD19" s="3" t="n">
+        <v>1100754312.66976</v>
+      </c>
+      <c r="AE19" s="3" t="n">
+        <v>1354439348.58663</v>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>1997597756.35225</v>
+      </c>
+      <c r="AG19" s="3" t="n">
+        <v>2065120327.35026</v>
+      </c>
+      <c r="AH19" s="3" t="n">
+        <v>3168955259.23249</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>3658905746.16758</v>
+      </c>
+      <c r="AJ19" s="3" t="n">
+        <v>4046674444.23414</v>
+      </c>
+      <c r="AK19" s="3" t="n">
+        <v>2606782834.4846</v>
+      </c>
+      <c r="AL19" s="3" t="n">
+        <v>2322644887.83851</v>
+      </c>
+      <c r="AM19" s="3" t="n">
+        <v>2454786147.99238</v>
+      </c>
+      <c r="AN19" s="3" t="n">
+        <v>2206836921.05928</v>
+      </c>
+      <c r="AO19" s="3" t="n">
+        <v>2264987688.83326</v>
+      </c>
+      <c r="AP19" s="3" t="n">
+        <v>2172572553.28885</v>
+      </c>
+      <c r="AQ19" s="3" t="n">
+        <v>2502970819.87072</v>
+      </c>
+      <c r="AR19" s="3" t="n">
+        <v>2468693819.5227</v>
+      </c>
+      <c r="AS19" s="3" t="n">
+        <v>2313301233.1047</v>
+      </c>
+      <c r="AT19" s="3" t="n">
+        <v>2581863620.7662</v>
+      </c>
+      <c r="AU19" s="3" t="n">
+        <v>2773513385.132</v>
+      </c>
+      <c r="AV19" s="3" t="n">
+        <v>1421199765.11599</v>
+      </c>
+      <c r="AW19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="n">
+        <v>9615384.02502171</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>8785315.65904389</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>9290304.44120261</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>-343459.446315901</v>
+      </c>
+      <c r="AC20" s="3" t="n">
+        <v>-284176.975828089</v>
+      </c>
+      <c r="AD20" s="3" t="n">
+        <v>19588.9507074827</v>
+      </c>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3" t="n">
+        <v>14064770.9039408</v>
+      </c>
+      <c r="AJ20" s="3" t="n">
+        <v>9283785.49288478</v>
+      </c>
+      <c r="AK20" s="3" t="n">
+        <v>-625575.35817678</v>
+      </c>
+      <c r="AL20" s="3" t="n">
+        <v>1357714.81998072</v>
+      </c>
+      <c r="AM20" s="3" t="n">
+        <v>2026755.47845545</v>
+      </c>
+      <c r="AN20" s="3" t="n">
+        <v>3205894.89425205</v>
+      </c>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3" t="n">
+        <v>1044955.05638355</v>
+      </c>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="3" t="n">
+        <v>6032822140.01566</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>9990757469.16172</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>7336657438.47783</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>9130873892.26007</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>7679140602.47769</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>6112165700.2052</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>6393941560.35423</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>6784225907.77468</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>6016289806.15404</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>6045865409.8293</v>
+      </c>
+      <c r="Y21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -11,12 +11,14 @@
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -231,15 +233,102 @@
   <si>
     <t xml:space="preserve">Unlbd. IDV</t>
   </si>
+  <si>
+    <t xml:space="preserve">TopProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALLISTIC MISSILE DEFENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTAMDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISSILE DEFENSE AGENCY SU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAC-3 MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRIOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRIOT MISSILE SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRIOT/MEADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAAD-THEATER HIGH ALT AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopPStext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFENSE AIRCRAFT
+(ADVANCED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINEERING AND
+TECHNICAL SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIDED MISSILE
+COMPONENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIDED MISSILES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER DEFENSE
+(ADVANCED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled PSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D- DEFENSE
+SYSTEM:
+MISSILE/SPACE
+SYSTEMS (ADVANCED
+DEVELOPMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D- DEFENSE
+SYSTEM:
+MISSILE/SPACE
+SYSTEMS (APPLIED
+RESEARCH/EXPLORATORY
+DEVELOPMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D- DEFENSE
+SYSTEM:
+MISSILE/SPACE
+SYSTEMS
+(ENGINEERING
+DEVELOPMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RADAR EQUIPMENT,
+EXCEPT AIRBORNE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -275,11 +364,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7852,4 +7943,3304 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>1723313820</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1144225016</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>616761921</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>624608748</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>1482867</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4" t="n">
+        <v>-232087.9468</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>-738466.3701</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>-1307972.8354</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>-995751.6123</v>
+      </c>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>-86754.8106</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="n">
+        <v>89724927</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>244783962</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>270902157.4219</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>448850784.125</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>435022488.6299</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>425997768.1564</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>258866860.6211</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>263393207.0523</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>493982433.0777</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>417122703.3063</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>628060221.5797</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>570446795.6054</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>606250561.8626</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>548339567.3518</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>691883896.4739</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>720931920.8941</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>643919640.7736</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>695703467.4951</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>551993804.1368</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>376895553.2932</v>
+      </c>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4" t="n">
+        <v>3558108891.4062</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>4555860339.8096</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>1193925604.9232</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>1918911399.4134</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>3233787953.6642</v>
+      </c>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>293472820</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1104343146.3999</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2627524408.8281</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2983186586.0938</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>4455972289.586</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>4902729309.1563</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>4487226755.394</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5636680902.7984</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>5827414394.0719</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>5278493209.1992</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5134824130.9691</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>5072049489.9168</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>6412980606.3249</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>7378691004.6217</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>5574708066.684</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>4234648142.4837</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>6075253984.317</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>5113479977.5101</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>7582946923.7005</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>8027187255.4746</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>11487518565.0383</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>7761768593.9455</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>8172176497.1852</v>
+      </c>
+      <c r="AK5" s="4" t="n">
+        <v>4601381789.7637</v>
+      </c>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>234762930</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>224579720</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>196975205</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>238864110</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>702517519</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>619036299</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>1161950679.5128</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1249756729.4089</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>876584945.6646</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1176334973.0375</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1232266065.0893</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1473322498.8389</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1141297246.4773</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>807238828.72</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>610798776.5</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>809124900.3215</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1051140259.346</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>1224312126.4158</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>1087685022.2122</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>997937687.5569</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1634669242.0624</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>1023786628.709</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>1302096696.3975</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>538454798.5845</v>
+      </c>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4" t="n">
+        <v>428167663.37</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>1830588298</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1826374230.0419</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>84766828.588</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>59738487.6095</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>229141613.7293</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>201097906.5165</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>161915560.1566</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>223277735.9279</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>217864538.3452</v>
+      </c>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="n">
+        <v>-7664</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>545590</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>339186911.8996</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>774593630.2636</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>2411545050.5789</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>3093567124.9184</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>3543625368.9727</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>2391815511.2453</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>2089190450.0281</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>1167891356.23</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>695863642.4823</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>333641882.2051</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>52715937.5805</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>-28843688.2066</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>-36491160.0334</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>-6306976.0216</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>-4956354.6856</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>-9795723.5255</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>-5983423.5178</v>
+      </c>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>322095962</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>278027383</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>487785275</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>405421716</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>40823030</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>8952204</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>12455629</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>-5148788</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>312441</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>-709288.8658</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>-12689917.0663</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>-4571609.0866</v>
+      </c>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4" t="n">
+        <v>-552997.72</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>-27254</v>
+      </c>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4" t="n">
+        <v>1244282.9375</v>
+      </c>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4" t="n">
+        <v>89637.0078</v>
+      </c>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4" t="n">
+        <v>1996697.7266</v>
+      </c>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4" t="n">
+        <v>639495.0625</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>9727091.9453</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>37489754.3204</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>1178125193.6519</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>43880785.7099</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>1575506147.7566</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>3902237456.5622</v>
+      </c>
+      <c r="AG10" s="4" t="n">
+        <v>1126825152.759</v>
+      </c>
+      <c r="AH10" s="4" t="n">
+        <v>615142410.2882</v>
+      </c>
+      <c r="AI10" s="4" t="n">
+        <v>514656179.2428</v>
+      </c>
+      <c r="AJ10" s="4" t="n">
+        <v>153662063.9002</v>
+      </c>
+      <c r="AK10" s="4" t="n">
+        <v>6526270.2891</v>
+      </c>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>427393585</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>567514850</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>770886872</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>734893178</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>611745524</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>638010178</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>791223990</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>580520560</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>403608313</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>416757371</v>
+      </c>
+      <c r="X11" s="4" t="n">
+        <v>287211640.2656</v>
+      </c>
+      <c r="Y11" s="4" t="n">
+        <v>147373827.0645</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>54587040.4375</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <v>27174261.37</v>
+      </c>
+      <c r="AB11" s="4" t="n">
+        <v>-6735766.88</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>-534233.07</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>-1062385.625</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>-1667161.625</v>
+      </c>
+      <c r="AF11" s="4" t="n">
+        <v>-5996201.8437</v>
+      </c>
+      <c r="AG11" s="4" t="n">
+        <v>-633691.625</v>
+      </c>
+      <c r="AH11" s="4" t="n">
+        <v>-776000</v>
+      </c>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="M12"/>
+      <c r="N12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>45601401</v>
+      </c>
+      <c r="P12" s="4" t="n">
+        <v>26657263</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>49457786</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v>90366956</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>79195742</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v>38923135</v>
+      </c>
+      <c r="U12" s="4" t="n">
+        <v>58370664</v>
+      </c>
+      <c r="V12" s="4" t="n">
+        <v>444436811.2206</v>
+      </c>
+      <c r="W12" s="4" t="n">
+        <v>791989137.0435</v>
+      </c>
+      <c r="X12" s="4" t="n">
+        <v>547922126.9601</v>
+      </c>
+      <c r="Y12" s="4" t="n">
+        <v>416133844.4989</v>
+      </c>
+      <c r="Z12" s="4" t="n">
+        <v>712119066.371</v>
+      </c>
+      <c r="AA12" s="4" t="n">
+        <v>79345844.171</v>
+      </c>
+      <c r="AB12" s="4" t="n">
+        <v>76104919.59</v>
+      </c>
+      <c r="AC12" s="4" t="n">
+        <v>61123712.0982</v>
+      </c>
+      <c r="AD12" s="4" t="n">
+        <v>49118057.3052</v>
+      </c>
+      <c r="AE12" s="4" t="n">
+        <v>35756710.7583</v>
+      </c>
+      <c r="AF12" s="4" t="n">
+        <v>137388894.1763</v>
+      </c>
+      <c r="AG12" s="4" t="n">
+        <v>206073106.7622</v>
+      </c>
+      <c r="AH12" s="4" t="n">
+        <v>237927488.9763</v>
+      </c>
+      <c r="AI12" s="4" t="n">
+        <v>750740725.0715</v>
+      </c>
+      <c r="AJ12" s="4" t="n">
+        <v>1504968056.2708</v>
+      </c>
+      <c r="AK12" s="4" t="n">
+        <v>606793925.0374</v>
+      </c>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U16" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="4" t="n">
+        <v>2784409924.1565</v>
+      </c>
+      <c r="O17" s="4" t="n">
+        <v>1804988805.52813</v>
+      </c>
+      <c r="P17" s="4" t="n">
+        <v>957810194.98376</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>951802754.999747</v>
+      </c>
+      <c r="R17" s="4" t="n">
+        <v>2205734.00969018</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4" t="n">
+        <v>-309376.89349475</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>-974484.648893482</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>-1711126.3151592</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>-1276934.83176748</v>
+      </c>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4" t="n">
+        <v>-99066.315721179</v>
+      </c>
+      <c r="AG17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4" t="n">
+        <v>133463974.180334</v>
+      </c>
+      <c r="S18" s="4" t="n">
+        <v>353383518.726532</v>
+      </c>
+      <c r="T18" s="4" t="n">
+        <v>378757729.173113</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v>610803752.3278</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>579891838.366996</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>562149208.602528</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>338656801.840957</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>337770942.453361</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>622072077.856056</v>
+      </c>
+      <c r="AA18" s="4" t="n">
+        <v>515842698.65472</v>
+      </c>
+      <c r="AB18" s="4" t="n">
+        <v>761961692.870075</v>
+      </c>
+      <c r="AC18" s="4" t="n">
+        <v>684221021.134957</v>
+      </c>
+      <c r="AD18" s="4" t="n">
+        <v>721189621.171773</v>
+      </c>
+      <c r="AE18" s="4" t="n">
+        <v>640857556.85431</v>
+      </c>
+      <c r="AF18" s="4" t="n">
+        <v>790070176.586644</v>
+      </c>
+      <c r="AG18" s="4" t="n">
+        <v>807425798.773212</v>
+      </c>
+      <c r="AH18" s="4" t="n">
+        <v>711679835.061188</v>
+      </c>
+      <c r="AI18" s="4" t="n">
+        <v>743907087.538328</v>
+      </c>
+      <c r="AJ18" s="4" t="n">
+        <v>551993804.1368</v>
+      </c>
+      <c r="AK18" s="4" t="n">
+        <v>359482367.947432</v>
+      </c>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4" t="n">
+        <v>3984993354.4387</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>5035277276.68349</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>1276649838.60686</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>1918911399.4134</v>
+      </c>
+      <c r="AK19" s="4" t="n">
+        <v>3084381709.64237</v>
+      </c>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="4" t="n">
+        <v>474172854.064499</v>
+      </c>
+      <c r="O20" s="4" t="n">
+        <v>1742076067.94145</v>
+      </c>
+      <c r="P20" s="4" t="n">
+        <v>4080455651.77528</v>
+      </c>
+      <c r="Q20" s="4" t="n">
+        <v>4545894082.35821</v>
+      </c>
+      <c r="R20" s="4" t="n">
+        <v>6628166669.95548</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <v>7077848240.04668</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>6273747807.44538</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <v>7670490879.98229</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>7768035295.25022</v>
+      </c>
+      <c r="W20" s="4" t="n">
+        <v>6965531282.02244</v>
+      </c>
+      <c r="X20" s="4" t="n">
+        <v>6717519245.36619</v>
+      </c>
+      <c r="Y20" s="4" t="n">
+        <v>6504309490.55992</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>8075866476.00407</v>
+      </c>
+      <c r="AA20" s="4" t="n">
+        <v>9124998112.52992</v>
+      </c>
+      <c r="AB20" s="4" t="n">
+        <v>6763227234.90294</v>
+      </c>
+      <c r="AC20" s="4" t="n">
+        <v>5079238411.92319</v>
+      </c>
+      <c r="AD20" s="4" t="n">
+        <v>7227061540.38152</v>
+      </c>
+      <c r="AE20" s="4" t="n">
+        <v>5976246254.19035</v>
+      </c>
+      <c r="AF20" s="4" t="n">
+        <v>8659054280.04308</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>8990249833.32066</v>
+      </c>
+      <c r="AH20" s="4" t="n">
+        <v>12696359607.5543</v>
+      </c>
+      <c r="AI20" s="4" t="n">
+        <v>8299562872.17891</v>
+      </c>
+      <c r="AJ20" s="4" t="n">
+        <v>8172176497.1852</v>
+      </c>
+      <c r="AK20" s="4" t="n">
+        <v>4388790494.23981</v>
+      </c>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="4" t="n">
+        <v>379313520.572856</v>
+      </c>
+      <c r="O21" s="4" t="n">
+        <v>354269374.362849</v>
+      </c>
+      <c r="P21" s="4" t="n">
+        <v>305895764.774389</v>
+      </c>
+      <c r="Q21" s="4" t="n">
+        <v>363990287.834654</v>
+      </c>
+      <c r="R21" s="4" t="n">
+        <v>1044980287.55207</v>
+      </c>
+      <c r="S21" s="4" t="n">
+        <v>893674666.316863</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <v>1624563661.55114</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>1700690133.15411</v>
+      </c>
+      <c r="V21" s="4" t="n">
+        <v>1168501557.7637</v>
+      </c>
+      <c r="W21" s="4" t="n">
+        <v>1552298682.23565</v>
+      </c>
+      <c r="X21" s="4" t="n">
+        <v>1612084619.94331</v>
+      </c>
+      <c r="Y21" s="4" t="n">
+        <v>1889363566.12926</v>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <v>1437235622.21464</v>
+      </c>
+      <c r="AA21" s="4" t="n">
+        <v>998287200.780881</v>
+      </c>
+      <c r="AB21" s="4" t="n">
+        <v>741020134.302283</v>
+      </c>
+      <c r="AC21" s="4" t="n">
+        <v>970502893.150893</v>
+      </c>
+      <c r="AD21" s="4" t="n">
+        <v>1250425967.61824</v>
+      </c>
+      <c r="AE21" s="4" t="n">
+        <v>1430882841.35905</v>
+      </c>
+      <c r="AF21" s="4" t="n">
+        <v>1242040032.94396</v>
+      </c>
+      <c r="AG21" s="4" t="n">
+        <v>1117665359.44506</v>
+      </c>
+      <c r="AH21" s="4" t="n">
+        <v>1806686833.11618</v>
+      </c>
+      <c r="AI21" s="4" t="n">
+        <v>1094722341.9279</v>
+      </c>
+      <c r="AJ21" s="4" t="n">
+        <v>1302096696.3975</v>
+      </c>
+      <c r="AK21" s="4" t="n">
+        <v>513577314.289067</v>
+      </c>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4" t="n">
+        <v>519452349.319387</v>
+      </c>
+      <c r="AC22" s="4" t="n">
+        <v>2195694680.35312</v>
+      </c>
+      <c r="AD22" s="4" t="n">
+        <v>2172636566.36466</v>
+      </c>
+      <c r="AE22" s="4" t="n">
+        <v>99069018.3704019</v>
+      </c>
+      <c r="AF22" s="4" t="n">
+        <v>68216065.8676888</v>
+      </c>
+      <c r="AG22" s="4" t="n">
+        <v>256632901.298235</v>
+      </c>
+      <c r="AH22" s="4" t="n">
+        <v>222259604.892425</v>
+      </c>
+      <c r="AI22" s="4" t="n">
+        <v>173134299.900671</v>
+      </c>
+      <c r="AJ22" s="4" t="n">
+        <v>223277735.9279</v>
+      </c>
+      <c r="AK22" s="4" t="n">
+        <v>207798843.610076</v>
+      </c>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4" t="n">
+        <v>-11400.0415750472</v>
+      </c>
+      <c r="S23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4" t="n">
+        <v>762808.35644188</v>
+      </c>
+      <c r="U23" s="4" t="n">
+        <v>461571296.86791</v>
+      </c>
+      <c r="V23" s="4" t="n">
+        <v>1032545525.76262</v>
+      </c>
+      <c r="W23" s="4" t="n">
+        <v>3182289305.31524</v>
+      </c>
+      <c r="X23" s="4" t="n">
+        <v>4047090254.39387</v>
+      </c>
+      <c r="Y23" s="4" t="n">
+        <v>4544284546.95069</v>
+      </c>
+      <c r="Z23" s="4" t="n">
+        <v>3012013272.73651</v>
+      </c>
+      <c r="AA23" s="4" t="n">
+        <v>2583636975.89195</v>
+      </c>
+      <c r="AB23" s="4" t="n">
+        <v>1416883993.45382</v>
+      </c>
+      <c r="AC23" s="4" t="n">
+        <v>834651952.991745</v>
+      </c>
+      <c r="AD23" s="4" t="n">
+        <v>396897055.064614</v>
+      </c>
+      <c r="AE23" s="4" t="n">
+        <v>61610376.0818868</v>
+      </c>
+      <c r="AF23" s="4" t="n">
+        <v>-32936939.2045942</v>
+      </c>
+      <c r="AG23" s="4" t="n">
+        <v>-40869190.535478</v>
+      </c>
+      <c r="AH23" s="4" t="n">
+        <v>-6970664.30431388</v>
+      </c>
+      <c r="AI23" s="4" t="n">
+        <v>-5299768.58135699</v>
+      </c>
+      <c r="AJ23" s="4" t="n">
+        <v>-9795723.5255</v>
+      </c>
+      <c r="AK23" s="4" t="n">
+        <v>-5706979.65475282</v>
+      </c>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="4" t="n">
+        <v>520420124.712709</v>
+      </c>
+      <c r="O24" s="4" t="n">
+        <v>438581840.921122</v>
+      </c>
+      <c r="P24" s="4" t="n">
+        <v>757513869.534038</v>
+      </c>
+      <c r="Q24" s="4" t="n">
+        <v>617797152.955541</v>
+      </c>
+      <c r="R24" s="4" t="n">
+        <v>60723413.2593164</v>
+      </c>
+      <c r="S24" s="4" t="n">
+        <v>12923891.4348389</v>
+      </c>
+      <c r="T24" s="4" t="n">
+        <v>17414648.1532649</v>
+      </c>
+      <c r="U24" s="4" t="n">
+        <v>-7006557.95103731</v>
+      </c>
+      <c r="V24" s="4" t="n">
+        <v>416488.780710749</v>
+      </c>
+      <c r="W24" s="4" t="n">
+        <v>-935981.839307822</v>
+      </c>
+      <c r="X24" s="4" t="n">
+        <v>-16601301.2209793</v>
+      </c>
+      <c r="Y24" s="4" t="n">
+        <v>-5862553.27914596</v>
+      </c>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4" t="n">
+        <v>-683875.113902003</v>
+      </c>
+      <c r="AB24" s="4" t="n">
+        <v>-33064.5107968294</v>
+      </c>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4" t="n">
+        <v>1480186.57099324</v>
+      </c>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4" t="n">
+        <v>102357.529843038</v>
+      </c>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4" t="n">
+        <v>2612135.30658605</v>
+      </c>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4" t="n">
+        <v>805316.132052596</v>
+      </c>
+      <c r="AA25" s="4" t="n">
+        <v>12029192.6556719</v>
+      </c>
+      <c r="AB25" s="4" t="n">
+        <v>45482512.1632548</v>
+      </c>
+      <c r="AC25" s="4" t="n">
+        <v>1413099397.23622</v>
+      </c>
+      <c r="AD25" s="4" t="n">
+        <v>52200144.9790241</v>
+      </c>
+      <c r="AE25" s="4" t="n">
+        <v>1841331687.10851</v>
+      </c>
+      <c r="AF25" s="4" t="n">
+        <v>4456009819.13505</v>
+      </c>
+      <c r="AG25" s="4" t="n">
+        <v>1262016110.91906</v>
+      </c>
+      <c r="AH25" s="4" t="n">
+        <v>679874352.903876</v>
+      </c>
+      <c r="AI25" s="4" t="n">
+        <v>550315468.115461</v>
+      </c>
+      <c r="AJ25" s="4" t="n">
+        <v>153662063.9002</v>
+      </c>
+      <c r="AK25" s="4" t="n">
+        <v>6224746.02550045</v>
+      </c>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="4" t="n">
+        <v>690552658.363074</v>
+      </c>
+      <c r="O26" s="4" t="n">
+        <v>895241702.372441</v>
+      </c>
+      <c r="P26" s="4" t="n">
+        <v>1197160979.0429</v>
+      </c>
+      <c r="Q26" s="4" t="n">
+        <v>1119858397.2617</v>
+      </c>
+      <c r="R26" s="4" t="n">
+        <v>909958821.366004</v>
+      </c>
+      <c r="S26" s="4" t="n">
+        <v>921066396.028761</v>
+      </c>
+      <c r="T26" s="4" t="n">
+        <v>1106237781.8312</v>
+      </c>
+      <c r="U26" s="4" t="n">
+        <v>789982214.340274</v>
+      </c>
+      <c r="V26" s="4" t="n">
+        <v>538016246.798891</v>
+      </c>
+      <c r="W26" s="4" t="n">
+        <v>549955525.121219</v>
+      </c>
+      <c r="X26" s="4" t="n">
+        <v>375738228.178271</v>
+      </c>
+      <c r="Y26" s="4" t="n">
+        <v>188989674.478016</v>
+      </c>
+      <c r="Z26" s="4" t="n">
+        <v>68741460.0098279</v>
+      </c>
+      <c r="AA26" s="4" t="n">
+        <v>33605565.4797484</v>
+      </c>
+      <c r="AB26" s="4" t="n">
+        <v>-8171821.99782364</v>
+      </c>
+      <c r="AC26" s="4" t="n">
+        <v>-640784.556062817</v>
+      </c>
+      <c r="AD26" s="4" t="n">
+        <v>-1263803.34243011</v>
+      </c>
+      <c r="AE26" s="4" t="n">
+        <v>-1948451.63379081</v>
+      </c>
+      <c r="AF26" s="4" t="n">
+        <v>-6847131.82897433</v>
+      </c>
+      <c r="AG26" s="4" t="n">
+        <v>-709718.839827428</v>
+      </c>
+      <c r="AH26" s="4" t="n">
+        <v>-857659.119302521</v>
+      </c>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="M27"/>
+      <c r="N27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4" t="n">
+        <v>71935167.6203862</v>
+      </c>
+      <c r="P27" s="4" t="n">
+        <v>41397818.8380462</v>
+      </c>
+      <c r="Q27" s="4" t="n">
+        <v>75365670.3043614</v>
+      </c>
+      <c r="R27" s="4" t="n">
+        <v>134418979.046251</v>
+      </c>
+      <c r="S27" s="4" t="n">
+        <v>114331305.643785</v>
+      </c>
+      <c r="T27" s="4" t="n">
+        <v>54419788.9200964</v>
+      </c>
+      <c r="U27" s="4" t="n">
+        <v>79431788.5988949</v>
+      </c>
+      <c r="V27" s="4" t="n">
+        <v>592441278.85982</v>
+      </c>
+      <c r="W27" s="4" t="n">
+        <v>1045113613.00688</v>
+      </c>
+      <c r="X27" s="4" t="n">
+        <v>716806912.74655</v>
+      </c>
+      <c r="Y27" s="4" t="n">
+        <v>533642922.747148</v>
+      </c>
+      <c r="Z27" s="4" t="n">
+        <v>896771540.109896</v>
+      </c>
+      <c r="AA27" s="4" t="n">
+        <v>98124542.3943036</v>
+      </c>
+      <c r="AB27" s="4" t="n">
+        <v>92330371.1556243</v>
+      </c>
+      <c r="AC27" s="4" t="n">
+        <v>73314687.7668141</v>
+      </c>
+      <c r="AD27" s="4" t="n">
+        <v>58430351.0281265</v>
+      </c>
+      <c r="AE27" s="4" t="n">
+        <v>41789722.3947888</v>
+      </c>
+      <c r="AF27" s="4" t="n">
+        <v>156885957.941945</v>
+      </c>
+      <c r="AG27" s="4" t="n">
+        <v>230796747.946451</v>
+      </c>
+      <c r="AH27" s="4" t="n">
+        <v>262964794.656281</v>
+      </c>
+      <c r="AI27" s="4" t="n">
+        <v>802757744.323426</v>
+      </c>
+      <c r="AJ27" s="4" t="n">
+        <v>1504968056.2708</v>
+      </c>
+      <c r="AK27" s="4" t="n">
+        <v>578759062.351869</v>
+      </c>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="n">
+        <v>4173553</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>400000</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5" t="n">
+        <v>1093651230.711</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>1701417336.4368</v>
+      </c>
+      <c r="AK2" s="5" t="n">
+        <v>2429633007.1796</v>
+      </c>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>29240519</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>23162931</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>31022431.625</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>46512850.0938</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>64762680.625</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>69130735</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>73899778</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>91048684.3008</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>126885324.8677</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>450004841.8146</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>408071489.6936</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>367861524.2549</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>338591341.8207</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>367632624.444</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>392688090.0725</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>593408744.9265</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>584532069.0037</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>607204658.601</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>354191599.3217</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>416897047.5486</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>435480807.9591</v>
+      </c>
+      <c r="AI3" s="5" t="n">
+        <v>471413463.3117</v>
+      </c>
+      <c r="AJ3" s="5" t="n">
+        <v>438100054.5282</v>
+      </c>
+      <c r="AK3" s="5" t="n">
+        <v>341745389.8829</v>
+      </c>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>245772505</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>174269410</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>205735267</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>94129908</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>41565670</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>18273089</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>32504898</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>30298833.4273</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>32189164.0587</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>5984849.0361</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>70661550.4194</v>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>58893158.8223</v>
+      </c>
+      <c r="Z4" s="5" t="n">
+        <v>1313262531.1621</v>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>1256601691.829</v>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>1481316539.88</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>2580612139.2388</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>3171246397.4918</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>1251317731.0858</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>2211655419.0955</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>1268628496.6104</v>
+      </c>
+      <c r="AH4" s="5" t="n">
+        <v>1141553263.8143</v>
+      </c>
+      <c r="AI4" s="5" t="n">
+        <v>1670322281.4387</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
+        <v>670358847.8584</v>
+      </c>
+      <c r="AK4" s="5" t="n">
+        <v>207364832.3165</v>
+      </c>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>55243619</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>854853268</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>2229501652</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>2187893126</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>3125257508</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>3219628892</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>2643693648.0313</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>2898776527.2031</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>2512739798</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>2728453114.6749</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>2608322366.3642</v>
+      </c>
+      <c r="Y5" s="5" t="n">
+        <v>3774784542.0263</v>
+      </c>
+      <c r="Z5" s="5" t="n">
+        <v>3159027893.4141</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>4073147651.27</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>1892898053.24</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>1140875227.965</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>1522893885.2656</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>1975306847.2741</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>4932975573.0875</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>7011190256.8333</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>9328269716.036</v>
+      </c>
+      <c r="AI5" s="5" t="n">
+        <v>2604954892.7667</v>
+      </c>
+      <c r="AJ5" s="5" t="n">
+        <v>6112487564.4665</v>
+      </c>
+      <c r="AK5" s="5" t="n">
+        <v>4195477484</v>
+      </c>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1366578826</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>746128800</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>266055984</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>351867178</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>281642263</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>281583912.4375</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>237742018.16</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>236455146.0937</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>239077453.2018</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>231034999.306</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>203730576.9878</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>132479149.899</v>
+      </c>
+      <c r="Z6" s="5" t="n">
+        <v>268243659.9672</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>247292545.2222</v>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>123170960.3569</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>106266065.9291</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>101183225.9727</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>98338698.1009</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>24035697.8709</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>926604.2784</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>5354912.1682</v>
+      </c>
+      <c r="AI6" s="5" t="n">
+        <v>-1004418.3271</v>
+      </c>
+      <c r="AJ6" s="5" t="n">
+        <v>-1703804.7628</v>
+      </c>
+      <c r="AK6" s="5" t="n">
+        <v>-71333.2393</v>
+      </c>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>358996570</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>431146476</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>527827027.2031</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>808683640</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>736653292.961</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>885105378.7188</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>1522829360.5675</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>1786049238.9726</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>2787044647.1126</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>3337298816.9332</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>3707159892.6267</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>3869417092.6491</v>
+      </c>
+      <c r="Z7" s="5" t="n">
+        <v>3559345551.4533</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>3087883330.0871</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>2580586216.4234</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>3360811984.7627</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>2760277761.744</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>2584712971.9934</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>3658806626.0188</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>3493984080.8754</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>3342186413.5859</v>
+      </c>
+      <c r="AI7" s="5" t="n">
+        <v>3690143051.1163</v>
+      </c>
+      <c r="AJ7" s="5" t="n">
+        <v>2834054110.4499</v>
+      </c>
+      <c r="AK7" s="5" t="n">
+        <v>1306383679.1148</v>
+      </c>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>921199181</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>1077964592.3999</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>1408524854</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>1457413048</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>1413890031</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>1599135686</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>1737505452.5699</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>2047204030.2188</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>2090276569.9754</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>1884737316.4472</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>1440391698.5879</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>1151392816.2757</v>
+      </c>
+      <c r="Z8" s="5" t="n">
+        <v>1322456617.2808</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>648598937.5738</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>569805574.2521</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>567674046.7933</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>440949304.9665</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>467391034.2478</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>741393563.2313</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>1128376370.1317</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>1047942788.3696</v>
+      </c>
+      <c r="AI8" s="5" t="n">
+        <v>1090034376.0168</v>
+      </c>
+      <c r="AJ8" s="5" t="n">
+        <v>805573696.8715</v>
+      </c>
+      <c r="AK8" s="5" t="n">
+        <v>496342828.2196</v>
+      </c>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1640212</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>1569889</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>2303676</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>12266800</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>10127954</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>15604451</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>60050246</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>234581086</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>292308913.7813</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>458421807.9146</v>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>592889584.0175</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>398595500.3496</v>
+      </c>
+      <c r="Z9" s="5" t="n">
+        <v>428003335.5458</v>
+      </c>
+      <c r="AA9" s="5" t="n">
+        <v>524182865.5755</v>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>654060293.1988</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>612399773.1611</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>664494049.3307</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>750236295.8237</v>
+      </c>
+      <c r="AF9" s="5" t="n">
+        <v>308355583.8733</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>199374868.8295</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>162012499.6379</v>
+      </c>
+      <c r="AI9" s="5" t="n">
+        <v>50069508.373</v>
+      </c>
+      <c r="AJ9" s="5" t="n">
+        <v>38199669.732</v>
+      </c>
+      <c r="AK9" s="5" t="n">
+        <v>816927.8721</v>
+      </c>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>2067392</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>28513825</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>29518994</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>69554920</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>141453391</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>246019432</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>235940110</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>502824532.1094</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>484196503.75</v>
+      </c>
+      <c r="W10" s="5" t="n">
+        <v>1069630336.6412</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>1256922792.5608</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>949726289.2863</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>582485591.3366</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>380801769.9108</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>615303843.9704</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>211873118.9452</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>285952151.7002</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>571298227.0219</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>618758994.1012</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>667790795.7529</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>559563225.3645</v>
+      </c>
+      <c r="AI10" s="5" t="n">
+        <v>789115253.7751</v>
+      </c>
+      <c r="AJ10" s="5" t="n">
+        <v>585910085.2194</v>
+      </c>
+      <c r="AK10" s="5" t="n">
+        <v>352109675.1133</v>
+      </c>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>20300293</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>26682325</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>21927506</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>7710654</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>177272658</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>158226118</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>219062425</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>480979685.9062</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>197022561.1563</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <v>334103671.0118</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>254506805.3906</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>207180802.082</v>
+      </c>
+      <c r="Z11" s="5" t="n">
+        <v>236004877.0156</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>221795770.53</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>206628166</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>205465349.8513</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>454312812.625</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>327403670.1875</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>576870616.2813</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>641912256.0637</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>3346688990.5078</v>
+      </c>
+      <c r="AI11" s="5" t="n">
+        <v>638840765.6759</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
+        <v>632892968.9064</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <v>245918915</v>
+      </c>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+      <c r="W15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5" t="n">
+        <v>6481385.24217525</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>609535.334269604</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5" t="n">
+        <v>1169427694.17296</v>
+      </c>
+      <c r="AJ16" s="5" t="n">
+        <v>1701417336.4368</v>
+      </c>
+      <c r="AK16" s="5" t="n">
+        <v>2317380024.87046</v>
+      </c>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>47244785.2191464</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>36538994.1432817</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>48176776.6003368</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>70878064.0743909</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>96333148.6999617</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <v>99800910.921</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>103321850.102824</v>
+      </c>
+      <c r="U17" s="5" t="n">
+        <v>123900592.317892</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>169140139.239843</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>593829086.917911</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>533850432.962084</v>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>471739325.134667</v>
+      </c>
+      <c r="Z17" s="5" t="n">
+        <v>426388076.673453</v>
+      </c>
+      <c r="AA17" s="5" t="n">
+        <v>454639854.420617</v>
+      </c>
+      <c r="AB17" s="5" t="n">
+        <v>476408585.675074</v>
+      </c>
+      <c r="AC17" s="5" t="n">
+        <v>711762675.383463</v>
+      </c>
+      <c r="AD17" s="5" t="n">
+        <v>695353518.704157</v>
+      </c>
+      <c r="AE17" s="5" t="n">
+        <v>709654595.784323</v>
+      </c>
+      <c r="AF17" s="5" t="n">
+        <v>404455459.720557</v>
+      </c>
+      <c r="AG17" s="5" t="n">
+        <v>466914311.69486</v>
+      </c>
+      <c r="AH17" s="5" t="n">
+        <v>481306812.148649</v>
+      </c>
+      <c r="AI17" s="5" t="n">
+        <v>504076568.3995</v>
+      </c>
+      <c r="AJ17" s="5" t="n">
+        <v>438100054.5282</v>
+      </c>
+      <c r="AK17" s="5" t="n">
+        <v>325956199.049801</v>
+      </c>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>397102021.735544</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>274906010.441561</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>319499841.820335</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>143438762.343868</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>61828074.9079715</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>26380030.9303887</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>45446228.5226836</v>
+      </c>
+      <c r="U18" s="5" t="n">
+        <v>41231165.9087932</v>
+      </c>
+      <c r="V18" s="5" t="n">
+        <v>42908663.3665435</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>7897642.66561609</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>92441398.720339</v>
+      </c>
+      <c r="Y18" s="5" t="n">
+        <v>75523579.2983601</v>
+      </c>
+      <c r="Z18" s="5" t="n">
+        <v>1653791505.17689</v>
+      </c>
+      <c r="AA18" s="5" t="n">
+        <v>1554000304.24901</v>
+      </c>
+      <c r="AB18" s="5" t="n">
+        <v>1797130943.21509</v>
+      </c>
+      <c r="AC18" s="5" t="n">
+        <v>3095308951.97568</v>
+      </c>
+      <c r="AD18" s="5" t="n">
+        <v>3772483081.9502</v>
+      </c>
+      <c r="AE18" s="5" t="n">
+        <v>1462444936.93018</v>
+      </c>
+      <c r="AF18" s="5" t="n">
+        <v>2525514752.43001</v>
+      </c>
+      <c r="AG18" s="5" t="n">
+        <v>1420832324.8494</v>
+      </c>
+      <c r="AH18" s="5" t="n">
+        <v>1261679854.22666</v>
+      </c>
+      <c r="AI18" s="5" t="n">
+        <v>1786054895.06805</v>
+      </c>
+      <c r="AJ18" s="5" t="n">
+        <v>670358847.8584</v>
+      </c>
+      <c r="AK18" s="5" t="n">
+        <v>197784241.015354</v>
+      </c>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>89258775.2762991</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>1348511488.15395</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>3462339906.71213</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>3333995419.75645</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>4648755939.9698</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>4648032401.92904</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>3696240045.80471</v>
+      </c>
+      <c r="U19" s="5" t="n">
+        <v>3944704214.8473</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>3349521780.79187</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>3600483086.47589</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>3412279612.16731</v>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>4840719115.68104</v>
+      </c>
+      <c r="Z19" s="5" t="n">
+        <v>3978163825.41734</v>
+      </c>
+      <c r="AA19" s="5" t="n">
+        <v>5037135259.71128</v>
+      </c>
+      <c r="AB19" s="5" t="n">
+        <v>2296461000.9045</v>
+      </c>
+      <c r="AC19" s="5" t="n">
+        <v>1368420016.51942</v>
+      </c>
+      <c r="AD19" s="5" t="n">
+        <v>1811619375.37045</v>
+      </c>
+      <c r="AE19" s="5" t="n">
+        <v>2308588319.26952</v>
+      </c>
+      <c r="AF19" s="5" t="n">
+        <v>5633021525.70603</v>
+      </c>
+      <c r="AG19" s="5" t="n">
+        <v>7852358495.17357</v>
+      </c>
+      <c r="AH19" s="5" t="n">
+        <v>10309891223.2884</v>
+      </c>
+      <c r="AI19" s="5" t="n">
+        <v>2785445952.17278</v>
+      </c>
+      <c r="AJ19" s="5" t="n">
+        <v>6112487564.4665</v>
+      </c>
+      <c r="AK19" s="5" t="n">
+        <v>4001639625.19657</v>
+      </c>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>2208022474.54648</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>1177001125.34695</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>413175854.790873</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>536188694.901831</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>418937044.296763</v>
+      </c>
+      <c r="S20" s="5" t="n">
+        <v>406509940.360993</v>
+      </c>
+      <c r="T20" s="5" t="n">
+        <v>332395385.050689</v>
+      </c>
+      <c r="U20" s="5" t="n">
+        <v>321772169.280713</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>318694015.764412</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>304875170.077584</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>266525987.429839</v>
+      </c>
+      <c r="Y20" s="5" t="n">
+        <v>169888995.307006</v>
+      </c>
+      <c r="Z20" s="5" t="n">
+        <v>337799240.932243</v>
+      </c>
+      <c r="AA20" s="5" t="n">
+        <v>305819014.101809</v>
+      </c>
+      <c r="AB20" s="5" t="n">
+        <v>149430819.277044</v>
+      </c>
+      <c r="AC20" s="5" t="n">
+        <v>127460574.241352</v>
+      </c>
+      <c r="AD20" s="5" t="n">
+        <v>120366556.336038</v>
+      </c>
+      <c r="AE20" s="5" t="n">
+        <v>114930786.61738</v>
+      </c>
+      <c r="AF20" s="5" t="n">
+        <v>27446639.7585271</v>
+      </c>
+      <c r="AG20" s="5" t="n">
+        <v>1037773.71753205</v>
+      </c>
+      <c r="AH20" s="5" t="n">
+        <v>5918413.98726903</v>
+      </c>
+      <c r="AI20" s="5" t="n">
+        <v>-1074012.05728264</v>
+      </c>
+      <c r="AJ20" s="5" t="n">
+        <v>-1703804.7628</v>
+      </c>
+      <c r="AK20" s="5" t="n">
+        <v>-68037.5280442118</v>
+      </c>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>88</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>580041545.913062</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>680123709.795645</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>819697342.895946</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>1232303132.0644</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>1095756545.68774</v>
+      </c>
+      <c r="S21" s="5" t="n">
+        <v>1277786545.40868</v>
+      </c>
+      <c r="T21" s="5" t="n">
+        <v>2129120698.09918</v>
+      </c>
+      <c r="U21" s="5" t="n">
+        <v>2430486067.06425</v>
+      </c>
+      <c r="V21" s="5" t="n">
+        <v>3715174470.89961</v>
+      </c>
+      <c r="W21" s="5" t="n">
+        <v>4403919525.04403</v>
+      </c>
+      <c r="X21" s="5" t="n">
+        <v>4849809319.50041</v>
+      </c>
+      <c r="Y21" s="5" t="n">
+        <v>4962074279.57592</v>
+      </c>
+      <c r="Z21" s="5" t="n">
+        <v>4482283852.08992</v>
+      </c>
+      <c r="AA21" s="5" t="n">
+        <v>3818689458.75475</v>
+      </c>
+      <c r="AB21" s="5" t="n">
+        <v>3130763220.63112</v>
+      </c>
+      <c r="AC21" s="5" t="n">
+        <v>4031117758.52207</v>
+      </c>
+      <c r="AD21" s="5" t="n">
+        <v>3283598892.18905</v>
+      </c>
+      <c r="AE21" s="5" t="n">
+        <v>3020815821.11803</v>
+      </c>
+      <c r="AF21" s="5" t="n">
+        <v>4178033354.79727</v>
+      </c>
+      <c r="AG21" s="5" t="n">
+        <v>3913175163.47859</v>
+      </c>
+      <c r="AH21" s="5" t="n">
+        <v>3693887443.32595</v>
+      </c>
+      <c r="AI21" s="5" t="n">
+        <v>3945824188.05475</v>
+      </c>
+      <c r="AJ21" s="5" t="n">
+        <v>2834054110.4499</v>
+      </c>
+      <c r="AK21" s="5" t="n">
+        <v>1246026636.06045</v>
+      </c>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>1488409198.56445</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>1700464502.02546</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>2187390983.64215</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>2220861873.45391</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <v>2103132194.14729</v>
+      </c>
+      <c r="S22" s="5" t="n">
+        <v>2308599758.83488</v>
+      </c>
+      <c r="T22" s="5" t="n">
+        <v>2429266809.479</v>
+      </c>
+      <c r="U22" s="5" t="n">
+        <v>2785869931.97722</v>
+      </c>
+      <c r="V22" s="5" t="n">
+        <v>2786371634.89203</v>
+      </c>
+      <c r="W22" s="5" t="n">
+        <v>2487110661.28276</v>
+      </c>
+      <c r="X22" s="5" t="n">
+        <v>1884360342.11434</v>
+      </c>
+      <c r="Y22" s="5" t="n">
+        <v>1476526448.95375</v>
+      </c>
+      <c r="Z22" s="5" t="n">
+        <v>1665369617.82396</v>
+      </c>
+      <c r="AA22" s="5" t="n">
+        <v>802102171.976406</v>
+      </c>
+      <c r="AB22" s="5" t="n">
+        <v>691287244.51281</v>
+      </c>
+      <c r="AC22" s="5" t="n">
+        <v>680895254.318172</v>
+      </c>
+      <c r="AD22" s="5" t="n">
+        <v>524548894.812934</v>
+      </c>
+      <c r="AE22" s="5" t="n">
+        <v>546251071.667573</v>
+      </c>
+      <c r="AF22" s="5" t="n">
+        <v>846605834.31349</v>
+      </c>
+      <c r="AG22" s="5" t="n">
+        <v>1263753435.74811</v>
+      </c>
+      <c r="AH22" s="5" t="n">
+        <v>1158218671.33054</v>
+      </c>
+      <c r="AI22" s="5" t="n">
+        <v>1165560236.31581</v>
+      </c>
+      <c r="AJ22" s="5" t="n">
+        <v>805573696.8715</v>
+      </c>
+      <c r="AK22" s="5" t="n">
+        <v>473410985.200198</v>
+      </c>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>2650139.81639199</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>2476464.00952463</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>3577530.13539143</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>18692620.0960459</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>15065122.2168797</v>
+      </c>
+      <c r="S23" s="5" t="n">
+        <v>22527439.1227304</v>
+      </c>
+      <c r="T23" s="5" t="n">
+        <v>83958337.6806587</v>
+      </c>
+      <c r="U23" s="5" t="n">
+        <v>319221916.551287</v>
+      </c>
+      <c r="V23" s="5" t="n">
+        <v>389652392.264962</v>
+      </c>
+      <c r="W23" s="5" t="n">
+        <v>604936165.840945</v>
+      </c>
+      <c r="X23" s="5" t="n">
+        <v>775634586.390993</v>
+      </c>
+      <c r="Y23" s="5" t="n">
+        <v>511152050.265367</v>
+      </c>
+      <c r="Z23" s="5" t="n">
+        <v>538984600.349988</v>
+      </c>
+      <c r="AA23" s="5" t="n">
+        <v>648240677.919836</v>
+      </c>
+      <c r="AB23" s="5" t="n">
+        <v>793504939.687719</v>
+      </c>
+      <c r="AC23" s="5" t="n">
+        <v>734541417.995718</v>
+      </c>
+      <c r="AD23" s="5" t="n">
+        <v>790475492.897467</v>
+      </c>
+      <c r="AE23" s="5" t="n">
+        <v>876819088.447321</v>
+      </c>
+      <c r="AF23" s="5" t="n">
+        <v>352114786.662687</v>
+      </c>
+      <c r="AG23" s="5" t="n">
+        <v>223294888.261176</v>
+      </c>
+      <c r="AH23" s="5" t="n">
+        <v>179061208.447734</v>
+      </c>
+      <c r="AI23" s="5" t="n">
+        <v>53538704.187207</v>
+      </c>
+      <c r="AJ23" s="5" t="n">
+        <v>38199669.732</v>
+      </c>
+      <c r="AK23" s="5" t="n">
+        <v>779184.480524524</v>
+      </c>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>3340347.37905239</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>44979907.1057786</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>45841989.3255123</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>105990453.530739</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>210408995.084996</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>355167110.806315</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>329876074.57581</v>
+      </c>
+      <c r="U24" s="5" t="n">
+        <v>684252143.111686</v>
+      </c>
+      <c r="V24" s="5" t="n">
+        <v>645441576.077548</v>
+      </c>
+      <c r="W24" s="5" t="n">
+        <v>1411490604.38117</v>
+      </c>
+      <c r="X24" s="5" t="n">
+        <v>1644341234.20953</v>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>1217912744.96031</v>
+      </c>
+      <c r="Z24" s="5" t="n">
+        <v>733524105.030224</v>
+      </c>
+      <c r="AA24" s="5" t="n">
+        <v>470925727.816441</v>
+      </c>
+      <c r="AB24" s="5" t="n">
+        <v>746485675.214277</v>
+      </c>
+      <c r="AC24" s="5" t="n">
+        <v>254130697.047535</v>
+      </c>
+      <c r="AD24" s="5" t="n">
+        <v>340165827.350869</v>
+      </c>
+      <c r="AE24" s="5" t="n">
+        <v>667689891.088163</v>
+      </c>
+      <c r="AF24" s="5" t="n">
+        <v>706568009.785368</v>
+      </c>
+      <c r="AG24" s="5" t="n">
+        <v>747909061.934001</v>
+      </c>
+      <c r="AH24" s="5" t="n">
+        <v>618446524.562107</v>
+      </c>
+      <c r="AI24" s="5" t="n">
+        <v>843791151.827252</v>
+      </c>
+      <c r="AJ24" s="5" t="n">
+        <v>585910085.2194</v>
+      </c>
+      <c r="AK24" s="5" t="n">
+        <v>335841637.506562</v>
+      </c>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>92</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <v>32799793.4192188</v>
+      </c>
+      <c r="O25" s="5" t="n">
+        <v>42090757.7242335</v>
+      </c>
+      <c r="P25" s="5" t="n">
+        <v>34052667.7835669</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>11749790.1583181</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>263689414.31617</v>
+      </c>
+      <c r="S25" s="5" t="n">
+        <v>228423879.883436</v>
+      </c>
+      <c r="T25" s="5" t="n">
+        <v>306278796.115073</v>
+      </c>
+      <c r="U25" s="5" t="n">
+        <v>654525306.261107</v>
+      </c>
+      <c r="V25" s="5" t="n">
+        <v>262634181.392635</v>
+      </c>
+      <c r="W25" s="5" t="n">
+        <v>440885207.129837</v>
+      </c>
+      <c r="X25" s="5" t="n">
+        <v>332952856.744747</v>
+      </c>
+      <c r="Y25" s="5" t="n">
+        <v>265685116.031049</v>
+      </c>
+      <c r="Z25" s="5" t="n">
+        <v>297200941.569039</v>
+      </c>
+      <c r="AA25" s="5" t="n">
+        <v>274287944.323145</v>
+      </c>
+      <c r="AB25" s="5" t="n">
+        <v>250680972.541133</v>
+      </c>
+      <c r="AC25" s="5" t="n">
+        <v>246444913.997474</v>
+      </c>
+      <c r="AD25" s="5" t="n">
+        <v>540445990.225348</v>
+      </c>
+      <c r="AE25" s="5" t="n">
+        <v>382644493.803018</v>
+      </c>
+      <c r="AF25" s="5" t="n">
+        <v>658735189.524975</v>
+      </c>
+      <c r="AG25" s="5" t="n">
+        <v>718925741.908828</v>
+      </c>
+      <c r="AH25" s="5" t="n">
+        <v>3698863830.12676</v>
+      </c>
+      <c r="AI25" s="5" t="n">
+        <v>683104505.869178</v>
+      </c>
+      <c r="AJ25" s="5" t="n">
+        <v>632892968.9064</v>
+      </c>
+      <c r="AK25" s="5" t="n">
+        <v>234557062.599492</v>
+      </c>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -13,12 +13,14 @@
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -318,17 +320,193 @@
     <t xml:space="preserve">RADAR EQUIPMENT,
 EXCEPT AIRBORNE</t>
   </si>
+  <si>
+    <t xml:space="preserve">Project.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEGIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGM-84 HARPOON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIM-7 SPARROW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR DEFENSE TARGETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/ALQ-147 COUNTERMEASURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/APG-59 RADAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/APN-59 WEATHER RADAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/APQ-109 RADAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/BPS-15 RADAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/FPS-108 PHASED ARRAY R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/FPS-117 RADAR SEEK IGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/MPS-T1 RADAR CONTROL V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/PPS-5 RADAR PORTABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/SPG-55 RADAR ANTENNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/SPS-48 AIR SEARCH RADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/SPS-52 RADAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/SWG-1A HSCLLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/TPS-59 RADAR SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/TPS-63 RADAR SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/TSQ-73 AIR DEF MSL SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/USP-1 RADAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVENGER (FAADS LOS-R)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BQM-74E SSAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG-47 AEGIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COBRA DANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COBRA JUDY REPLACEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORPS SAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFENSE SUPPORT PROGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAADS C21 (SHORAD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBI - GROUND BASED INTERC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBR - GROUND BASED RADAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBR -GROUND BASED RADAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPALS (SDS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPROVED RADAR SIMULATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPROVED TARGET ACQ SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JLENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-77 DRAGON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK-23 TAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK-56 MOD 2 ROCKET MTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVY AREA TBMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTH-B RADAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRIOT PAC-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHOENIX (AIM-54C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIM 7-H-2 NATO SEA SPARRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIM-85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STINGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STINGER (RMP)  MANPORTABL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAAD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -364,13 +542,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8760,6 +8940,47 @@
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
     </row>
+    <row r="13">
+      <c r="M13" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="M14" t="str">
+        <f>Sum(A2:A12)</f>
+      </c>
+    </row>
+    <row r="15">
+      <c r="M15" t="str">
+        <f>Sum(B2:B12)</f>
+      </c>
+    </row>
     <row r="16">
       <c r="M16" t="s">
         <v>71</v>
@@ -9564,6 +9785,87 @@
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
     </row>
+    <row r="28">
+      <c r="M28" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="M29" t="str">
+        <f>Sum(A17:A27)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="M30" t="str">
+        <f>Sum(B17:B27)</f>
+      </c>
+    </row>
+    <row r="31">
+      <c r="M31" t="str">
+        <f>Sum(C17:C27)</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="M32" t="str">
+        <f>Sum(D17:D27)</f>
+      </c>
+    </row>
+    <row r="33">
+      <c r="M33" t="str">
+        <f>Sum(E17:E27)</f>
+      </c>
+    </row>
+    <row r="34">
+      <c r="M34" t="str">
+        <f>Sum(F17:F27)</f>
+      </c>
+    </row>
+    <row r="35">
+      <c r="M35" t="str">
+        <f>Sum(G17:G27)</f>
+      </c>
+    </row>
+    <row r="36">
+      <c r="M36" t="str">
+        <f>Sum(H17:H27)</f>
+      </c>
+    </row>
+    <row r="37">
+      <c r="M37" t="str">
+        <f>Sum(I17:I27)</f>
+      </c>
+    </row>
+    <row r="38">
+      <c r="M38" t="str">
+        <f>Sum(J17:J27)</f>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -11243,4 +11545,6770 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6" t="n">
+        <v>29531243.5063193</v>
+      </c>
+      <c r="V2" s="6" t="n">
+        <v>450278357.555349</v>
+      </c>
+      <c r="W2" s="6" t="n">
+        <v>202531018.690479</v>
+      </c>
+      <c r="X2" s="6" t="n">
+        <v>281340685.592031</v>
+      </c>
+      <c r="Y2" s="6" t="n">
+        <v>1131389455.95436</v>
+      </c>
+      <c r="Z2" s="6" t="n">
+        <v>1265944368.11565</v>
+      </c>
+      <c r="AA2" s="6" t="n">
+        <v>999007723.959491</v>
+      </c>
+      <c r="AB2" s="6" t="n">
+        <v>879899260.340753</v>
+      </c>
+      <c r="AC2" s="6" t="n">
+        <v>655874209.663381</v>
+      </c>
+      <c r="AD2" s="6" t="n">
+        <v>637097257.101265</v>
+      </c>
+      <c r="AE2" s="6" t="n">
+        <v>658114309.576629</v>
+      </c>
+      <c r="AF2" s="6" t="n">
+        <v>483025909.726209</v>
+      </c>
+      <c r="AG2" s="6" t="n">
+        <v>505429470.562474</v>
+      </c>
+      <c r="AH2" s="6" t="n">
+        <v>508269630.537183</v>
+      </c>
+      <c r="AI2" s="6" t="n">
+        <v>613575136.457047</v>
+      </c>
+      <c r="AJ2" s="6" t="n">
+        <v>320990525.498459</v>
+      </c>
+      <c r="AK2" s="6" t="n">
+        <v>241866892.8748</v>
+      </c>
+      <c r="AL2" s="6" t="n">
+        <v>80111888.7248183</v>
+      </c>
+      <c r="AM2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" t="n">
+        <v>863</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>31022364.3375288</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>60140516.173993</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>7520365.97839029</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>38684629.3316278</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-51123.3145047463</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>802533.607487923</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>147733.640398991</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>24391880.6163119</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6" t="n">
+        <v>-6440.03354792093</v>
+      </c>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6" t="n">
+        <v>-33124.114481189</v>
+      </c>
+      <c r="AI4" s="6" t="n">
+        <v>-169520.942695048</v>
+      </c>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" t="n">
+        <v>485</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="n">
+        <v>70118.8588641425</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>159247.329139852</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>16669.267553938</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2033</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6" t="n">
+        <v>22914815.4446492</v>
+      </c>
+      <c r="AE6" s="6" t="n">
+        <v>136024939.535994</v>
+      </c>
+      <c r="AF6" s="6" t="n">
+        <v>301644032.213527</v>
+      </c>
+      <c r="AG6" s="6" t="n">
+        <v>9780202.84239837</v>
+      </c>
+      <c r="AH6" s="6" t="n">
+        <v>110550558.088463</v>
+      </c>
+      <c r="AI6" s="6" t="n">
+        <v>120786689.602734</v>
+      </c>
+      <c r="AJ6" s="6" t="n">
+        <v>313089178.497093</v>
+      </c>
+      <c r="AK6" s="6" t="n">
+        <v>133587042.7949</v>
+      </c>
+      <c r="AL6" s="6" t="n">
+        <v>-2548446.52363759</v>
+      </c>
+      <c r="AM6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" t="n">
+        <v>438</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="n">
+        <v>1475231.38150741</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1053</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>136632.59592868</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>443012.370033078</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1674</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>381750.154589012</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>211325.147556265</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>187373.093475668</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>54035.3073830004</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1055</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6" t="n">
+        <v>8819976.28688117</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1077</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6" t="n">
+        <v>414724.186581224</v>
+      </c>
+      <c r="R11" s="6" t="n">
+        <v>2273678.03702413</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="M12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1653</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>126337.164051551</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>3031668.13121748</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>704754.533971902</v>
+      </c>
+      <c r="R12" s="6" t="n">
+        <v>1457766.22927752</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1682</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>15227884.101163</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>1928312.78812383</v>
+      </c>
+      <c r="Q13" s="6" t="n">
+        <v>45790073.6774671</v>
+      </c>
+      <c r="R13" s="6" t="n">
+        <v>24934150.6787682</v>
+      </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6" t="n">
+        <v>-32705.6929021753</v>
+      </c>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1655</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>701428.807856041</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6" t="n">
+        <v>2897071.75199287</v>
+      </c>
+      <c r="R14" s="6" t="n">
+        <v>881775.148291109</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" t="n">
+        <v>499</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>2785583.23500404</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>212265.323931586</v>
+      </c>
+      <c r="Q15" s="6" t="n">
+        <v>72511.0810208105</v>
+      </c>
+      <c r="R15" s="6" t="n">
+        <v>32750.3335103058</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1076</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>6172040.31821674</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6" t="n">
+        <v>433597.380439827</v>
+      </c>
+      <c r="R16" s="6" t="n">
+        <v>1689151.9375196</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>110</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1050</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>1512706.25460574</v>
+      </c>
+      <c r="P17" s="6" t="n">
+        <v>7711869.28252087</v>
+      </c>
+      <c r="Q17" s="6" t="n">
+        <v>5671269.74076017</v>
+      </c>
+      <c r="R17" s="6" t="n">
+        <v>5372991.4942148</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>111</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1034</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6" t="n">
+        <v>6038217.02429994</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" t="n">
+        <v>877</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>12365026.9607987</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>1195642.4882034</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>-5178255.88726594</v>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>26534.5969390915</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1078</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>12332499.0834367</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>27452949.8197833</v>
+      </c>
+      <c r="Q20" s="6" t="n">
+        <v>1461663.87272841</v>
+      </c>
+      <c r="R20" s="6" t="n">
+        <v>819084.43916148</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6" t="n">
+        <v>-248358.528418965</v>
+      </c>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>114</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1046</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>2938504.00556444</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6" t="n">
+        <v>68909.7532368805</v>
+      </c>
+      <c r="R21" s="6" t="n">
+        <v>4847290.1259823</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>115</v>
+      </c>
+      <c r="N22" t="n">
+        <v>426</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6" t="n">
+        <v>-153804.021130571</v>
+      </c>
+      <c r="Q22" s="6" t="n">
+        <v>10915619.8541943</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>10344437.8724345</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>116</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1037</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>-879480.643610554</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>151863.724248616</v>
+      </c>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>117</v>
+      </c>
+      <c r="N24" t="n">
+        <v>20</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6" t="n">
+        <v>334039.089202524</v>
+      </c>
+      <c r="X24" s="6" t="n">
+        <v>10985.7199061613</v>
+      </c>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6" t="n">
+        <v>26279290.0532467</v>
+      </c>
+      <c r="AD24" s="6" t="n">
+        <v>134216793.781921</v>
+      </c>
+      <c r="AE24" s="6" t="n">
+        <v>16351850.9134548</v>
+      </c>
+      <c r="AF24" s="6" t="n">
+        <v>63655043.8983098</v>
+      </c>
+      <c r="AG24" s="6" t="n">
+        <v>241440081.100313</v>
+      </c>
+      <c r="AH24" s="6" t="n">
+        <v>345788244.117657</v>
+      </c>
+      <c r="AI24" s="6" t="n">
+        <v>364312951.323356</v>
+      </c>
+      <c r="AJ24" s="6" t="n">
+        <v>189468731.477266</v>
+      </c>
+      <c r="AK24" s="6" t="n">
+        <v>161462601.9253</v>
+      </c>
+      <c r="AL24" s="6" t="n">
+        <v>55935390.0158688</v>
+      </c>
+      <c r="AM24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>118</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1876</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6" t="n">
+        <v>-21800171.4955945</v>
+      </c>
+      <c r="W25" s="6" t="n">
+        <v>180000.548429349</v>
+      </c>
+      <c r="X25" s="6" t="n">
+        <v>958665.877310031</v>
+      </c>
+      <c r="Y25" s="6" t="n">
+        <v>8325254.3544958</v>
+      </c>
+      <c r="Z25" s="6" t="n">
+        <v>1326971.14173374</v>
+      </c>
+      <c r="AA25" s="6" t="n">
+        <v>13537828.9690168</v>
+      </c>
+      <c r="AB25" s="6" t="n">
+        <v>3942098.59548798</v>
+      </c>
+      <c r="AC25" s="6" t="n">
+        <v>5815210.19664188</v>
+      </c>
+      <c r="AD25" s="6" t="n">
+        <v>4854916.35757942</v>
+      </c>
+      <c r="AE25" s="6" t="n">
+        <v>3250350.1344113</v>
+      </c>
+      <c r="AF25" s="6" t="n">
+        <v>6374205.67043284</v>
+      </c>
+      <c r="AG25" s="6" t="n">
+        <v>-609042.565457927</v>
+      </c>
+      <c r="AH25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="6" t="n">
+        <v>-4429.76514196457</v>
+      </c>
+      <c r="AJ25" s="6" t="n">
+        <v>-8534.71162451287</v>
+      </c>
+      <c r="AK25" s="6" t="n">
+        <v>-45059.6797</v>
+      </c>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" t="n">
+        <v>137</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>2784409924.1565</v>
+      </c>
+      <c r="P26" s="6" t="n">
+        <v>1804988805.52813</v>
+      </c>
+      <c r="Q26" s="6" t="n">
+        <v>957810194.98376</v>
+      </c>
+      <c r="R26" s="6" t="n">
+        <v>951802754.999747</v>
+      </c>
+      <c r="S26" s="6" t="n">
+        <v>2205734.00969018</v>
+      </c>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6" t="n">
+        <v>-309376.89349475</v>
+      </c>
+      <c r="X26" s="6" t="n">
+        <v>-974484.648893482</v>
+      </c>
+      <c r="Y26" s="6" t="n">
+        <v>-1711126.3151592</v>
+      </c>
+      <c r="Z26" s="6" t="n">
+        <v>-1276934.83176748</v>
+      </c>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="6" t="n">
+        <v>-99066.315721179</v>
+      </c>
+      <c r="AH26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="M27" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1357</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6" t="n">
+        <v>133463974.180334</v>
+      </c>
+      <c r="T27" s="6" t="n">
+        <v>353383518.726532</v>
+      </c>
+      <c r="U27" s="6" t="n">
+        <v>378757729.173113</v>
+      </c>
+      <c r="V27" s="6" t="n">
+        <v>610803752.3278</v>
+      </c>
+      <c r="W27" s="6" t="n">
+        <v>579891838.366996</v>
+      </c>
+      <c r="X27" s="6" t="n">
+        <v>562149208.602528</v>
+      </c>
+      <c r="Y27" s="6" t="n">
+        <v>338656801.840957</v>
+      </c>
+      <c r="Z27" s="6" t="n">
+        <v>337770942.453361</v>
+      </c>
+      <c r="AA27" s="6" t="n">
+        <v>622072077.856056</v>
+      </c>
+      <c r="AB27" s="6" t="n">
+        <v>515842698.65472</v>
+      </c>
+      <c r="AC27" s="6" t="n">
+        <v>761961692.870075</v>
+      </c>
+      <c r="AD27" s="6" t="n">
+        <v>684221021.134957</v>
+      </c>
+      <c r="AE27" s="6" t="n">
+        <v>721189621.171773</v>
+      </c>
+      <c r="AF27" s="6" t="n">
+        <v>640857556.85431</v>
+      </c>
+      <c r="AG27" s="6" t="n">
+        <v>790070176.586644</v>
+      </c>
+      <c r="AH27" s="6" t="n">
+        <v>807425798.773212</v>
+      </c>
+      <c r="AI27" s="6" t="n">
+        <v>711679835.061188</v>
+      </c>
+      <c r="AJ27" s="6" t="n">
+        <v>743907087.538328</v>
+      </c>
+      <c r="AK27" s="6" t="n">
+        <v>551993804.1368</v>
+      </c>
+      <c r="AL27" s="6" t="n">
+        <v>359482367.947432</v>
+      </c>
+      <c r="AM27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="M28" t="s">
+        <v>119</v>
+      </c>
+      <c r="N28" t="n">
+        <v>69</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6" t="n">
+        <v>10689.9437832963</v>
+      </c>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="M29" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" t="n">
+        <v>871</v>
+      </c>
+      <c r="O29" s="6" t="n">
+        <v>7400258.52003942</v>
+      </c>
+      <c r="P29" s="6" t="n">
+        <v>40871445.1915474</v>
+      </c>
+      <c r="Q29" s="6" t="n">
+        <v>7778080.6596077</v>
+      </c>
+      <c r="R29" s="6" t="n">
+        <v>41765588.1560653</v>
+      </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6" t="n">
+        <v>-892.865416229387</v>
+      </c>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="M30" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" t="n">
+        <v>866</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>146352642.099136</v>
+      </c>
+      <c r="P30" s="6" t="n">
+        <v>66666789.9202138</v>
+      </c>
+      <c r="Q30" s="6" t="n">
+        <v>51765833.4305581</v>
+      </c>
+      <c r="R30" s="6" t="n">
+        <v>30794938.0626156</v>
+      </c>
+      <c r="S30" s="6" t="n">
+        <v>74373.9664342852</v>
+      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6" t="n">
+        <v>-287.830212157484</v>
+      </c>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="M31" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1737</v>
+      </c>
+      <c r="O31" s="6" t="n">
+        <v>9536408.75591904</v>
+      </c>
+      <c r="P31" s="6" t="n">
+        <v>4720641.35525932</v>
+      </c>
+      <c r="Q31" s="6" t="n">
+        <v>2684447.433952</v>
+      </c>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+    </row>
+    <row r="32">
+      <c r="M32" t="s">
+        <v>123</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1359</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6" t="n">
+        <v>343826838.06891</v>
+      </c>
+      <c r="T32" s="6" t="n">
+        <v>276083236.816715</v>
+      </c>
+      <c r="U32" s="6" t="n">
+        <v>361815346.172335</v>
+      </c>
+      <c r="V32" s="6" t="n">
+        <v>376056311.08265</v>
+      </c>
+      <c r="W32" s="6" t="n">
+        <v>271563347.340223</v>
+      </c>
+      <c r="X32" s="6" t="n">
+        <v>337787166.654346</v>
+      </c>
+      <c r="Y32" s="6" t="n">
+        <v>127913509.752995</v>
+      </c>
+      <c r="Z32" s="6" t="n">
+        <v>78062775.355675</v>
+      </c>
+      <c r="AA32" s="6" t="n">
+        <v>116723680.543113</v>
+      </c>
+      <c r="AB32" s="6" t="n">
+        <v>73291298.0691879</v>
+      </c>
+      <c r="AC32" s="6" t="n">
+        <v>13882647.7013013</v>
+      </c>
+      <c r="AD32" s="6" t="n">
+        <v>9882585.23804568</v>
+      </c>
+      <c r="AE32" s="6" t="n">
+        <v>-37897.9590232488</v>
+      </c>
+      <c r="AF32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="6" t="n">
+        <v>-91949.8273457792</v>
+      </c>
+      <c r="AH32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6" t="n">
+        <v>-99728.9829641271</v>
+      </c>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="M33" t="s">
+        <v>124</v>
+      </c>
+      <c r="N33" t="n">
+        <v>165</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6" t="n">
+        <v>3617230.80046579</v>
+      </c>
+      <c r="Q33" s="6" t="n">
+        <v>3756551.37857733</v>
+      </c>
+      <c r="R33" s="6" t="n">
+        <v>5453139.29531791</v>
+      </c>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="M34" t="s">
+        <v>125</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1735</v>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>29919689.9763032</v>
+      </c>
+      <c r="P34" s="6" t="n">
+        <v>40930621.0914928</v>
+      </c>
+      <c r="Q34" s="6" t="n">
+        <v>-9348191.2429042</v>
+      </c>
+      <c r="R34" s="6" t="n">
+        <v>12051237.3817195</v>
+      </c>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6" t="n">
+        <v>476906.720799051</v>
+      </c>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="M35" t="s">
+        <v>126</v>
+      </c>
+      <c r="N35" t="n">
+        <v>151</v>
+      </c>
+      <c r="O35" s="6" t="n">
+        <v>5420118.33057536</v>
+      </c>
+      <c r="P35" s="6" t="n">
+        <v>11285015.9068378</v>
+      </c>
+      <c r="Q35" s="6" t="n">
+        <v>9272678.27891387</v>
+      </c>
+      <c r="R35" s="6" t="n">
+        <v>34775887.9988088</v>
+      </c>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6" t="n">
+        <v>-113945.111593029</v>
+      </c>
+      <c r="Y35" s="6" t="n">
+        <v>-16732.6375160538</v>
+      </c>
+      <c r="Z35" s="6" t="n">
+        <v>-204212.04162126</v>
+      </c>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+    </row>
+    <row r="36">
+      <c r="M36" t="s">
+        <v>127</v>
+      </c>
+      <c r="N36" t="n">
+        <v>166</v>
+      </c>
+      <c r="O36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6" t="n">
+        <v>85748.5618445359</v>
+      </c>
+      <c r="R36" s="6" t="n">
+        <v>109929.697535523</v>
+      </c>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+    </row>
+    <row r="37">
+      <c r="M37" t="s">
+        <v>128</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1921</v>
+      </c>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6" t="n">
+        <v>5169351.57272136</v>
+      </c>
+      <c r="Q37" s="6" t="n">
+        <v>-147438.576889312</v>
+      </c>
+      <c r="R37" s="6" t="n">
+        <v>5782952.76933785</v>
+      </c>
+      <c r="S37" s="6" t="n">
+        <v>24726465.5668988</v>
+      </c>
+      <c r="T37" s="6" t="n">
+        <v>18692777.5065223</v>
+      </c>
+      <c r="U37" s="6" t="n">
+        <v>20127560.9241601</v>
+      </c>
+      <c r="V37" s="6" t="n">
+        <v>28145375.2823954</v>
+      </c>
+      <c r="W37" s="6" t="n">
+        <v>2029731.62776045</v>
+      </c>
+      <c r="X37" s="6" t="n">
+        <v>-1932300.29521975</v>
+      </c>
+      <c r="Y37" s="6" t="n">
+        <v>-1113125.40563481</v>
+      </c>
+      <c r="Z37" s="6" t="n">
+        <v>-1294236.41742456</v>
+      </c>
+      <c r="AA37" s="6" t="n">
+        <v>-6226899.70782175</v>
+      </c>
+      <c r="AB37" s="6" t="n">
+        <v>-29584.1760361458</v>
+      </c>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+    </row>
+    <row r="38">
+      <c r="M38" t="s">
+        <v>129</v>
+      </c>
+      <c r="N38" t="n">
+        <v>167</v>
+      </c>
+      <c r="O38" s="6" t="n">
+        <v>2803401.5059929</v>
+      </c>
+      <c r="P38" s="6" t="n">
+        <v>19678959.4874971</v>
+      </c>
+      <c r="Q38" s="6" t="n">
+        <v>42656718.1728546</v>
+      </c>
+      <c r="R38" s="6" t="n">
+        <v>4031838.51741307</v>
+      </c>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+    </row>
+    <row r="39">
+      <c r="M39" t="s">
+        <v>130</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6" t="n">
+        <v>46744.3208901085</v>
+      </c>
+      <c r="V39" s="6" t="n">
+        <v>492674.557187717</v>
+      </c>
+      <c r="W39" s="6" t="n">
+        <v>7026028.77348402</v>
+      </c>
+      <c r="X39" s="6" t="n">
+        <v>100833.64050132</v>
+      </c>
+      <c r="Y39" s="6" t="n">
+        <v>183031.400721365</v>
+      </c>
+      <c r="Z39" s="6" t="n">
+        <v>169113.402312991</v>
+      </c>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6" t="n">
+        <v>3896480.25</v>
+      </c>
+      <c r="AL39" s="6" t="n">
+        <v>306466.5593915</v>
+      </c>
+      <c r="AM39" s="6"/>
+    </row>
+    <row r="40">
+      <c r="M40" t="s">
+        <v>131</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2032</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6" t="n">
+        <v>12290008.1682859</v>
+      </c>
+      <c r="AE40" s="6" t="n">
+        <v>205078767.629558</v>
+      </c>
+      <c r="AF40" s="6" t="n">
+        <v>35603625.7390458</v>
+      </c>
+      <c r="AG40" s="6" t="n">
+        <v>115005029.18812</v>
+      </c>
+      <c r="AH40" s="6" t="n">
+        <v>44523549.5105348</v>
+      </c>
+      <c r="AI40" s="6" t="n">
+        <v>97395709.4219913</v>
+      </c>
+      <c r="AJ40" s="6" t="n">
+        <v>21182482.0031199</v>
+      </c>
+      <c r="AK40" s="6" t="n">
+        <v>37864294.3989</v>
+      </c>
+      <c r="AL40" s="6" t="n">
+        <v>11073548.068709</v>
+      </c>
+      <c r="AM40" s="6"/>
+    </row>
+    <row r="41">
+      <c r="M41" t="s">
+        <v>132</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1681</v>
+      </c>
+      <c r="O41" s="6" t="n">
+        <v>-121848.665973292</v>
+      </c>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6" t="n">
+        <v>61887.241706509</v>
+      </c>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+    </row>
+    <row r="42">
+      <c r="M42" t="s">
+        <v>133</v>
+      </c>
+      <c r="N42" t="n">
+        <v>162</v>
+      </c>
+      <c r="O42" s="6" t="n">
+        <v>8928031.45735926</v>
+      </c>
+      <c r="P42" s="6" t="n">
+        <v>14557320.2883462</v>
+      </c>
+      <c r="Q42" s="6" t="n">
+        <v>64206767.0154161</v>
+      </c>
+      <c r="R42" s="6" t="n">
+        <v>12210164.5771003</v>
+      </c>
+      <c r="S42" s="6" t="n">
+        <v>-371.869832171426</v>
+      </c>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+    </row>
+    <row r="43">
+      <c r="M43" t="s">
+        <v>134</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1366</v>
+      </c>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6" t="n">
+        <v>40118241.2193166</v>
+      </c>
+      <c r="T43" s="6" t="n">
+        <v>112441822.934962</v>
+      </c>
+      <c r="U43" s="6" t="n">
+        <v>65331944.2864261</v>
+      </c>
+      <c r="V43" s="6" t="n">
+        <v>87055262.0249215</v>
+      </c>
+      <c r="W43" s="6" t="n">
+        <v>27392284.2450422</v>
+      </c>
+      <c r="X43" s="6" t="n">
+        <v>18220891.0688833</v>
+      </c>
+      <c r="Y43" s="6" t="n">
+        <v>11984895.0646412</v>
+      </c>
+      <c r="Z43" s="6" t="n">
+        <v>10696835.0234967</v>
+      </c>
+      <c r="AA43" s="6" t="n">
+        <v>371008.615279312</v>
+      </c>
+      <c r="AB43" s="6" t="n">
+        <v>380183.399465669</v>
+      </c>
+      <c r="AC43" s="6" t="n">
+        <v>-269885.969657057</v>
+      </c>
+      <c r="AD43" s="6" t="n">
+        <v>-1293280.44620371</v>
+      </c>
+      <c r="AE43" s="6" t="n">
+        <v>-764486.646866242</v>
+      </c>
+      <c r="AF43" s="6" t="n">
+        <v>-148463.255931874</v>
+      </c>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6" t="n">
+        <v>-2486.1320343459</v>
+      </c>
+      <c r="AI43" s="6" t="n">
+        <v>-1950.00295173996</v>
+      </c>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="M44" t="s">
+        <v>74</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2240</v>
+      </c>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6" t="n">
+        <v>3984993354.4387</v>
+      </c>
+      <c r="AI44" s="6" t="n">
+        <v>5035277276.68349</v>
+      </c>
+      <c r="AJ44" s="6" t="n">
+        <v>1276649838.60686</v>
+      </c>
+      <c r="AK44" s="6" t="n">
+        <v>1918911399.4134</v>
+      </c>
+      <c r="AL44" s="6" t="n">
+        <v>3084381709.64237</v>
+      </c>
+      <c r="AM44" s="6"/>
+    </row>
+    <row r="45">
+      <c r="M45" t="s">
+        <v>135</v>
+      </c>
+      <c r="N45" t="n">
+        <v>150</v>
+      </c>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6" t="n">
+        <v>575110.305719991</v>
+      </c>
+      <c r="Q45" s="6" t="n">
+        <v>-248698.161547946</v>
+      </c>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="M46" t="s">
+        <v>75</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1912</v>
+      </c>
+      <c r="O46" s="6" t="n">
+        <v>474172854.064499</v>
+      </c>
+      <c r="P46" s="6" t="n">
+        <v>1742076067.94145</v>
+      </c>
+      <c r="Q46" s="6" t="n">
+        <v>4080455651.77528</v>
+      </c>
+      <c r="R46" s="6" t="n">
+        <v>4545894082.35821</v>
+      </c>
+      <c r="S46" s="6" t="n">
+        <v>6628166669.95548</v>
+      </c>
+      <c r="T46" s="6" t="n">
+        <v>7077848240.04668</v>
+      </c>
+      <c r="U46" s="6" t="n">
+        <v>6273747807.44538</v>
+      </c>
+      <c r="V46" s="6" t="n">
+        <v>7670490879.98229</v>
+      </c>
+      <c r="W46" s="6" t="n">
+        <v>7768035295.25022</v>
+      </c>
+      <c r="X46" s="6" t="n">
+        <v>6965531282.02244</v>
+      </c>
+      <c r="Y46" s="6" t="n">
+        <v>6717519245.36619</v>
+      </c>
+      <c r="Z46" s="6" t="n">
+        <v>6504309490.55992</v>
+      </c>
+      <c r="AA46" s="6" t="n">
+        <v>8075866476.00407</v>
+      </c>
+      <c r="AB46" s="6" t="n">
+        <v>9124998112.52992</v>
+      </c>
+      <c r="AC46" s="6" t="n">
+        <v>6763227234.90294</v>
+      </c>
+      <c r="AD46" s="6" t="n">
+        <v>5079238411.92319</v>
+      </c>
+      <c r="AE46" s="6" t="n">
+        <v>7227061540.38152</v>
+      </c>
+      <c r="AF46" s="6" t="n">
+        <v>5976246254.19035</v>
+      </c>
+      <c r="AG46" s="6" t="n">
+        <v>8659054280.04308</v>
+      </c>
+      <c r="AH46" s="6" t="n">
+        <v>8990249833.32066</v>
+      </c>
+      <c r="AI46" s="6" t="n">
+        <v>12696359607.5543</v>
+      </c>
+      <c r="AJ46" s="6" t="n">
+        <v>8299562872.17891</v>
+      </c>
+      <c r="AK46" s="6" t="n">
+        <v>8172176497.1852</v>
+      </c>
+      <c r="AL46" s="6" t="n">
+        <v>4388790494.23981</v>
+      </c>
+      <c r="AM46" s="6"/>
+    </row>
+    <row r="47">
+      <c r="M47" t="s">
+        <v>136</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1079</v>
+      </c>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6" t="n">
+        <v>80135.8387018771</v>
+      </c>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
+      <c r="AJ47" s="6"/>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="6"/>
+    </row>
+    <row r="48">
+      <c r="M48" t="s">
+        <v>137</v>
+      </c>
+      <c r="N48" t="n">
+        <v>879</v>
+      </c>
+      <c r="O48" s="6" t="n">
+        <v>1531363.08949042</v>
+      </c>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6"/>
+    </row>
+    <row r="49">
+      <c r="M49" t="s">
+        <v>138</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1840</v>
+      </c>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" s="6" t="n">
+        <v>1225967.06798378</v>
+      </c>
+      <c r="V49" s="6" t="n">
+        <v>11480175.6133177</v>
+      </c>
+      <c r="W49" s="6" t="n">
+        <v>5795382.0028029</v>
+      </c>
+      <c r="X49" s="6" t="n">
+        <v>1369835.78663329</v>
+      </c>
+      <c r="Y49" s="6" t="n">
+        <v>1146263.89192458</v>
+      </c>
+      <c r="Z49" s="6" t="n">
+        <v>1611051.07434698</v>
+      </c>
+      <c r="AA49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6" t="n">
+        <v>-45968.6719401573</v>
+      </c>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6" t="n">
+        <v>-59189.5781</v>
+      </c>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+    </row>
+    <row r="50">
+      <c r="M50" t="s">
+        <v>139</v>
+      </c>
+      <c r="N50" t="n">
+        <v>664</v>
+      </c>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6" t="n">
+        <v>4106513.86199178</v>
+      </c>
+      <c r="AJ50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6"/>
+    </row>
+    <row r="51">
+      <c r="M51" t="s">
+        <v>140</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1877</v>
+      </c>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6" t="n">
+        <v>243067.509621202</v>
+      </c>
+      <c r="T51" s="6" t="n">
+        <v>9095.02464862119</v>
+      </c>
+      <c r="U51" s="6" t="n">
+        <v>1760371.93181506</v>
+      </c>
+      <c r="V51" s="6" t="n">
+        <v>5008928.68738961</v>
+      </c>
+      <c r="W51" s="6" t="n">
+        <v>6410650.1369725</v>
+      </c>
+      <c r="X51" s="6" t="n">
+        <v>6954044.99043301</v>
+      </c>
+      <c r="Y51" s="6" t="n">
+        <v>3841626.08560644</v>
+      </c>
+      <c r="Z51" s="6" t="n">
+        <v>9008532.94818861</v>
+      </c>
+      <c r="AA51" s="6" t="n">
+        <v>2749897.83425032</v>
+      </c>
+      <c r="AB51" s="6" t="n">
+        <v>779424.040700338</v>
+      </c>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="6" t="n">
+        <v>-3133.02152917279</v>
+      </c>
+      <c r="AG51" s="6" t="n">
+        <v>-80324.1602178157</v>
+      </c>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6"/>
+    </row>
+    <row r="52">
+      <c r="M52" t="s">
+        <v>141</v>
+      </c>
+      <c r="N52" t="n">
+        <v>674</v>
+      </c>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6" t="n">
+        <v>87569838.827896</v>
+      </c>
+      <c r="T52" s="6" t="n">
+        <v>64196859.0193785</v>
+      </c>
+      <c r="U52" s="6" t="n">
+        <v>52121994.2068984</v>
+      </c>
+      <c r="V52" s="6" t="n">
+        <v>43672027.5747617</v>
+      </c>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6" t="n">
+        <v>14916132.6268394</v>
+      </c>
+      <c r="AA52" s="6" t="n">
+        <v>897270.249517551</v>
+      </c>
+      <c r="AB52" s="6" t="n">
+        <v>-703.627536758782</v>
+      </c>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6"/>
+    </row>
+    <row r="53">
+      <c r="M53" t="s">
+        <v>142</v>
+      </c>
+      <c r="N53" t="n">
+        <v>638</v>
+      </c>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6" t="n">
+        <v>861302.706778769</v>
+      </c>
+      <c r="X53" s="6" t="n">
+        <v>-5167.88058475748</v>
+      </c>
+      <c r="Y53" s="6" t="n">
+        <v>55846.0029529552</v>
+      </c>
+      <c r="Z53" s="6" t="n">
+        <v>11321750.1098403</v>
+      </c>
+      <c r="AA53" s="6" t="n">
+        <v>-87164.9680833689</v>
+      </c>
+      <c r="AB53" s="6" t="n">
+        <v>1108919.81753706</v>
+      </c>
+      <c r="AC53" s="6" t="n">
+        <v>2683968.1465039</v>
+      </c>
+      <c r="AD53" s="6" t="n">
+        <v>497799.527077975</v>
+      </c>
+      <c r="AE53" s="6" t="n">
+        <v>-72737.6726639959</v>
+      </c>
+      <c r="AF53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="6" t="n">
+        <v>-320356.240896731</v>
+      </c>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+    </row>
+    <row r="54">
+      <c r="M54" t="s">
+        <v>77</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2147</v>
+      </c>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6" t="n">
+        <v>519452349.319387</v>
+      </c>
+      <c r="AD54" s="6" t="n">
+        <v>2195694680.35312</v>
+      </c>
+      <c r="AE54" s="6" t="n">
+        <v>2172636566.36466</v>
+      </c>
+      <c r="AF54" s="6" t="n">
+        <v>99069018.3704019</v>
+      </c>
+      <c r="AG54" s="6" t="n">
+        <v>68216065.8676888</v>
+      </c>
+      <c r="AH54" s="6" t="n">
+        <v>256632901.298235</v>
+      </c>
+      <c r="AI54" s="6" t="n">
+        <v>222259604.892425</v>
+      </c>
+      <c r="AJ54" s="6" t="n">
+        <v>173134299.900671</v>
+      </c>
+      <c r="AK54" s="6" t="n">
+        <v>223277735.9279</v>
+      </c>
+      <c r="AL54" s="6" t="n">
+        <v>207798843.610076</v>
+      </c>
+      <c r="AM54" s="6"/>
+    </row>
+    <row r="55">
+      <c r="M55" t="s">
+        <v>78</v>
+      </c>
+      <c r="N55" t="n">
+        <v>7</v>
+      </c>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6" t="n">
+        <v>-11400.0415750472</v>
+      </c>
+      <c r="T55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="6" t="n">
+        <v>762808.35644188</v>
+      </c>
+      <c r="V55" s="6" t="n">
+        <v>461571296.86791</v>
+      </c>
+      <c r="W55" s="6" t="n">
+        <v>1032545525.76262</v>
+      </c>
+      <c r="X55" s="6" t="n">
+        <v>3182289305.31524</v>
+      </c>
+      <c r="Y55" s="6" t="n">
+        <v>4047090254.39387</v>
+      </c>
+      <c r="Z55" s="6" t="n">
+        <v>4544284546.95069</v>
+      </c>
+      <c r="AA55" s="6" t="n">
+        <v>3012013272.73651</v>
+      </c>
+      <c r="AB55" s="6" t="n">
+        <v>2583636975.89195</v>
+      </c>
+      <c r="AC55" s="6" t="n">
+        <v>1416883993.45382</v>
+      </c>
+      <c r="AD55" s="6" t="n">
+        <v>834651952.991745</v>
+      </c>
+      <c r="AE55" s="6" t="n">
+        <v>396897055.064614</v>
+      </c>
+      <c r="AF55" s="6" t="n">
+        <v>61610376.0818868</v>
+      </c>
+      <c r="AG55" s="6" t="n">
+        <v>-32936939.2045942</v>
+      </c>
+      <c r="AH55" s="6" t="n">
+        <v>-40869190.535478</v>
+      </c>
+      <c r="AI55" s="6" t="n">
+        <v>-6970664.30431388</v>
+      </c>
+      <c r="AJ55" s="6" t="n">
+        <v>-5299768.58135699</v>
+      </c>
+      <c r="AK55" s="6" t="n">
+        <v>-9795723.5255</v>
+      </c>
+      <c r="AL55" s="6" t="n">
+        <v>-5706979.65475282</v>
+      </c>
+      <c r="AM55" s="6"/>
+    </row>
+    <row r="56">
+      <c r="M56" t="s">
+        <v>79</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1916</v>
+      </c>
+      <c r="O56" s="6" t="n">
+        <v>520420124.712709</v>
+      </c>
+      <c r="P56" s="6" t="n">
+        <v>438581840.921122</v>
+      </c>
+      <c r="Q56" s="6" t="n">
+        <v>757513869.534038</v>
+      </c>
+      <c r="R56" s="6" t="n">
+        <v>617797152.955541</v>
+      </c>
+      <c r="S56" s="6" t="n">
+        <v>60723413.2593164</v>
+      </c>
+      <c r="T56" s="6" t="n">
+        <v>12923891.4348389</v>
+      </c>
+      <c r="U56" s="6" t="n">
+        <v>17414648.1532649</v>
+      </c>
+      <c r="V56" s="6" t="n">
+        <v>-7006557.95103731</v>
+      </c>
+      <c r="W56" s="6" t="n">
+        <v>416488.780710749</v>
+      </c>
+      <c r="X56" s="6" t="n">
+        <v>-935981.839307822</v>
+      </c>
+      <c r="Y56" s="6" t="n">
+        <v>-16601301.2209793</v>
+      </c>
+      <c r="Z56" s="6" t="n">
+        <v>-5862553.27914596</v>
+      </c>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6" t="n">
+        <v>-683875.113902003</v>
+      </c>
+      <c r="AC56" s="6" t="n">
+        <v>-33064.5107968294</v>
+      </c>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6" t="n">
+        <v>1480186.57099324</v>
+      </c>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6" t="n">
+        <v>102357.529843038</v>
+      </c>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="6"/>
+      <c r="AM56" s="6"/>
+    </row>
+    <row r="57">
+      <c r="M57" t="s">
+        <v>143</v>
+      </c>
+      <c r="N57" t="n">
+        <v>44</v>
+      </c>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6" t="n">
+        <v>538997794.440025</v>
+      </c>
+      <c r="T57" s="6" t="n">
+        <v>331670972.157498</v>
+      </c>
+      <c r="U57" s="6" t="n">
+        <v>964481146.414597</v>
+      </c>
+      <c r="V57" s="6" t="n">
+        <v>570020106.669378</v>
+      </c>
+      <c r="W57" s="6" t="n">
+        <v>602940671.416663</v>
+      </c>
+      <c r="X57" s="6" t="n">
+        <v>150298161.182358</v>
+      </c>
+      <c r="Y57" s="6" t="n">
+        <v>90847237.2279975</v>
+      </c>
+      <c r="Z57" s="6" t="n">
+        <v>91210683.4637743</v>
+      </c>
+      <c r="AA57" s="6" t="n">
+        <v>198311913.858248</v>
+      </c>
+      <c r="AB57" s="6" t="n">
+        <v>37139524.5496837</v>
+      </c>
+      <c r="AC57" s="6" t="n">
+        <v>28473409.8986925</v>
+      </c>
+      <c r="AD57" s="6" t="n">
+        <v>135762449.775292</v>
+      </c>
+      <c r="AE57" s="6" t="n">
+        <v>219584093.214138</v>
+      </c>
+      <c r="AF57" s="6" t="n">
+        <v>500270698.391138</v>
+      </c>
+      <c r="AG57" s="6" t="n">
+        <v>294621131.775229</v>
+      </c>
+      <c r="AH57" s="6" t="n">
+        <v>51945828.8191197</v>
+      </c>
+      <c r="AI57" s="6" t="n">
+        <v>16801567.6057968</v>
+      </c>
+      <c r="AJ57" s="6" t="n">
+        <v>12816911.5690263</v>
+      </c>
+      <c r="AK57" s="6" t="n">
+        <v>138156456.2864</v>
+      </c>
+      <c r="AL57" s="6" t="n">
+        <v>-1891469.89218718</v>
+      </c>
+      <c r="AM57" s="6"/>
+    </row>
+    <row r="58">
+      <c r="M58" t="s">
+        <v>80</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1819</v>
+      </c>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6" t="n">
+        <v>2612135.30658605</v>
+      </c>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6" t="n">
+        <v>805316.132052596</v>
+      </c>
+      <c r="AB58" s="6" t="n">
+        <v>12029192.6556719</v>
+      </c>
+      <c r="AC58" s="6" t="n">
+        <v>45482512.1632548</v>
+      </c>
+      <c r="AD58" s="6" t="n">
+        <v>1413099397.23622</v>
+      </c>
+      <c r="AE58" s="6" t="n">
+        <v>52200144.9790241</v>
+      </c>
+      <c r="AF58" s="6" t="n">
+        <v>1841331687.10851</v>
+      </c>
+      <c r="AG58" s="6" t="n">
+        <v>4456009819.13505</v>
+      </c>
+      <c r="AH58" s="6" t="n">
+        <v>1262016110.91906</v>
+      </c>
+      <c r="AI58" s="6" t="n">
+        <v>679874352.903876</v>
+      </c>
+      <c r="AJ58" s="6" t="n">
+        <v>550315468.115461</v>
+      </c>
+      <c r="AK58" s="6" t="n">
+        <v>153662063.9002</v>
+      </c>
+      <c r="AL58" s="6" t="n">
+        <v>6224746.02550045</v>
+      </c>
+      <c r="AM58" s="6"/>
+    </row>
+    <row r="59">
+      <c r="M59" t="s">
+        <v>144</v>
+      </c>
+      <c r="N59" t="n">
+        <v>65</v>
+      </c>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6" t="n">
+        <v>43543.8299051978</v>
+      </c>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6" t="n">
+        <v>-22153.9394180912</v>
+      </c>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="6"/>
+      <c r="AM59" s="6"/>
+    </row>
+    <row r="60">
+      <c r="M60" t="s">
+        <v>145</v>
+      </c>
+      <c r="N60" t="n">
+        <v>848</v>
+      </c>
+      <c r="O60" s="6" t="n">
+        <v>61833024.4138265</v>
+      </c>
+      <c r="P60" s="6" t="n">
+        <v>13239713.5776019</v>
+      </c>
+      <c r="Q60" s="6" t="n">
+        <v>40173643.8194296</v>
+      </c>
+      <c r="R60" s="6" t="n">
+        <v>68394660.0242919</v>
+      </c>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6" t="n">
+        <v>-457.879700630455</v>
+      </c>
+      <c r="Z60" s="6" t="n">
+        <v>-359738.256598228</v>
+      </c>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="6"/>
+      <c r="AI60" s="6"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="6"/>
+      <c r="AM60" s="6"/>
+    </row>
+    <row r="61">
+      <c r="M61" t="s">
+        <v>146</v>
+      </c>
+      <c r="N61" t="n">
+        <v>856</v>
+      </c>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6" t="n">
+        <v>35089.4014977275</v>
+      </c>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6" t="n">
+        <v>343000.770976863</v>
+      </c>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6" t="n">
+        <v>-57.2972922913541</v>
+      </c>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="6"/>
+      <c r="AJ61" s="6"/>
+      <c r="AK61" s="6"/>
+      <c r="AL61" s="6"/>
+      <c r="AM61" s="6"/>
+    </row>
+    <row r="62">
+      <c r="M62" t="s">
+        <v>147</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1383</v>
+      </c>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6" t="n">
+        <v>9424039.82279659</v>
+      </c>
+      <c r="T62" s="6" t="n">
+        <v>90458490.0526986</v>
+      </c>
+      <c r="U62" s="6" t="n">
+        <v>116387362.3296</v>
+      </c>
+      <c r="V62" s="6" t="n">
+        <v>134938815.003</v>
+      </c>
+      <c r="W62" s="6" t="n">
+        <v>29724012.2413451</v>
+      </c>
+      <c r="X62" s="6" t="n">
+        <v>617127178.346029</v>
+      </c>
+      <c r="Y62" s="6" t="n">
+        <v>159816684.957587</v>
+      </c>
+      <c r="Z62" s="6" t="n">
+        <v>275040412.020595</v>
+      </c>
+      <c r="AA62" s="6" t="n">
+        <v>2999919.57102762</v>
+      </c>
+      <c r="AB62" s="6" t="n">
+        <v>1541587.00235895</v>
+      </c>
+      <c r="AC62" s="6" t="n">
+        <v>2002836.57931658</v>
+      </c>
+      <c r="AD62" s="6" t="n">
+        <v>1987103.1943179</v>
+      </c>
+      <c r="AE62" s="6" t="n">
+        <v>93686.9730223251</v>
+      </c>
+      <c r="AF62" s="6" t="n">
+        <v>42696131.6980358</v>
+      </c>
+      <c r="AG62" s="6" t="n">
+        <v>76937361.0237325</v>
+      </c>
+      <c r="AH62" s="6" t="n">
+        <v>57891604.6549055</v>
+      </c>
+      <c r="AI62" s="6" t="n">
+        <v>589884165.554055</v>
+      </c>
+      <c r="AJ62" s="6" t="n">
+        <v>237282776.577524</v>
+      </c>
+      <c r="AK62" s="6" t="n">
+        <v>229226198</v>
+      </c>
+      <c r="AL62" s="6" t="n">
+        <v>191508751.936136</v>
+      </c>
+      <c r="AM62" s="6"/>
+    </row>
+    <row r="63">
+      <c r="M63" t="s">
+        <v>148</v>
+      </c>
+      <c r="N63" t="n">
+        <v>46</v>
+      </c>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" s="6" t="n">
+        <v>11733980.3901111</v>
+      </c>
+      <c r="V63" s="6" t="n">
+        <v>15298726.7694531</v>
+      </c>
+      <c r="W63" s="6" t="n">
+        <v>6953938.37410235</v>
+      </c>
+      <c r="X63" s="6" t="n">
+        <v>103840632.148516</v>
+      </c>
+      <c r="Y63" s="6" t="n">
+        <v>11833313.1162439</v>
+      </c>
+      <c r="Z63" s="6" t="n">
+        <v>40308795.1161104</v>
+      </c>
+      <c r="AA63" s="6" t="n">
+        <v>54875880.8165033</v>
+      </c>
+      <c r="AB63" s="6" t="n">
+        <v>-198270.434616756</v>
+      </c>
+      <c r="AC63" s="6" t="n">
+        <v>11657245.1938991</v>
+      </c>
+      <c r="AD63" s="6" t="n">
+        <v>12922180.4751565</v>
+      </c>
+      <c r="AE63" s="6" t="n">
+        <v>13755544.1638961</v>
+      </c>
+      <c r="AF63" s="6" t="n">
+        <v>283729.213114725</v>
+      </c>
+      <c r="AG63" s="6" t="n">
+        <v>-71282.9241732546</v>
+      </c>
+      <c r="AH63" s="6" t="n">
+        <v>-1268446.03628745</v>
+      </c>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="6" t="n">
+        <v>356140979.125</v>
+      </c>
+      <c r="AL63" s="6" t="n">
+        <v>179081185.399969</v>
+      </c>
+      <c r="AM63" s="6"/>
+    </row>
+    <row r="64">
+      <c r="M64" t="s">
+        <v>149</v>
+      </c>
+      <c r="N64" t="n">
+        <v>152</v>
+      </c>
+      <c r="O64" s="6" t="n">
+        <v>20938278.0295597</v>
+      </c>
+      <c r="P64" s="6" t="n">
+        <v>28168444.5486056</v>
+      </c>
+      <c r="Q64" s="6" t="n">
+        <v>21931076.7763374</v>
+      </c>
+      <c r="R64" s="6" t="n">
+        <v>17591931.8562902</v>
+      </c>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="6"/>
+    </row>
+    <row r="65">
+      <c r="M65" t="s">
+        <v>150</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1830</v>
+      </c>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6" t="n">
+        <v>121412.804440268</v>
+      </c>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6" t="n">
+        <v>4282243.84961219</v>
+      </c>
+      <c r="X65" s="6" t="n">
+        <v>36347511.8469377</v>
+      </c>
+      <c r="Y65" s="6" t="n">
+        <v>66159775.1433639</v>
+      </c>
+      <c r="Z65" s="6" t="n">
+        <v>91593642.502563</v>
+      </c>
+      <c r="AA65" s="6" t="n">
+        <v>54074562.4740971</v>
+      </c>
+      <c r="AB65" s="6" t="n">
+        <v>433463.203896466</v>
+      </c>
+      <c r="AC65" s="6" t="n">
+        <v>-5332828.48910266</v>
+      </c>
+      <c r="AD65" s="6" t="n">
+        <v>-607581.527074847</v>
+      </c>
+      <c r="AE65" s="6" t="n">
+        <v>-952452.244312898</v>
+      </c>
+      <c r="AF65" s="6" t="n">
+        <v>-2518938.91330523</v>
+      </c>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6"/>
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
+      <c r="AL65" s="6"/>
+      <c r="AM65" s="6"/>
+    </row>
+    <row r="66">
+      <c r="M66" t="s">
+        <v>81</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1922</v>
+      </c>
+      <c r="O66" s="6" t="n">
+        <v>690552658.363074</v>
+      </c>
+      <c r="P66" s="6" t="n">
+        <v>895241702.372441</v>
+      </c>
+      <c r="Q66" s="6" t="n">
+        <v>1197160979.0429</v>
+      </c>
+      <c r="R66" s="6" t="n">
+        <v>1119858397.2617</v>
+      </c>
+      <c r="S66" s="6" t="n">
+        <v>909958821.366004</v>
+      </c>
+      <c r="T66" s="6" t="n">
+        <v>921066396.028761</v>
+      </c>
+      <c r="U66" s="6" t="n">
+        <v>1106237781.8312</v>
+      </c>
+      <c r="V66" s="6" t="n">
+        <v>789982214.340274</v>
+      </c>
+      <c r="W66" s="6" t="n">
+        <v>538016246.798891</v>
+      </c>
+      <c r="X66" s="6" t="n">
+        <v>549955525.121219</v>
+      </c>
+      <c r="Y66" s="6" t="n">
+        <v>375738228.178271</v>
+      </c>
+      <c r="Z66" s="6" t="n">
+        <v>188989674.478016</v>
+      </c>
+      <c r="AA66" s="6" t="n">
+        <v>68741460.0098279</v>
+      </c>
+      <c r="AB66" s="6" t="n">
+        <v>33605565.4797484</v>
+      </c>
+      <c r="AC66" s="6" t="n">
+        <v>-8171821.99782364</v>
+      </c>
+      <c r="AD66" s="6" t="n">
+        <v>-640784.556062817</v>
+      </c>
+      <c r="AE66" s="6" t="n">
+        <v>-1263803.34243011</v>
+      </c>
+      <c r="AF66" s="6" t="n">
+        <v>-1948451.63379081</v>
+      </c>
+      <c r="AG66" s="6" t="n">
+        <v>-6847131.82897433</v>
+      </c>
+      <c r="AH66" s="6" t="n">
+        <v>-709718.839827428</v>
+      </c>
+      <c r="AI66" s="6" t="n">
+        <v>-857659.119302521</v>
+      </c>
+      <c r="AJ66" s="6"/>
+      <c r="AK66" s="6"/>
+      <c r="AL66" s="6"/>
+      <c r="AM66" s="6"/>
+    </row>
+    <row r="67">
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" s="6" t="n">
+        <v>71935167.6203862</v>
+      </c>
+      <c r="Q67" s="6" t="n">
+        <v>41397818.8380462</v>
+      </c>
+      <c r="R67" s="6" t="n">
+        <v>75365670.3043614</v>
+      </c>
+      <c r="S67" s="6" t="n">
+        <v>134418979.046251</v>
+      </c>
+      <c r="T67" s="6" t="n">
+        <v>114331305.643785</v>
+      </c>
+      <c r="U67" s="6" t="n">
+        <v>54419788.9200964</v>
+      </c>
+      <c r="V67" s="6" t="n">
+        <v>79431788.5988949</v>
+      </c>
+      <c r="W67" s="6" t="n">
+        <v>592441278.85982</v>
+      </c>
+      <c r="X67" s="6" t="n">
+        <v>1045113613.00688</v>
+      </c>
+      <c r="Y67" s="6" t="n">
+        <v>716806912.74655</v>
+      </c>
+      <c r="Z67" s="6" t="n">
+        <v>533642922.747148</v>
+      </c>
+      <c r="AA67" s="6" t="n">
+        <v>896771540.109896</v>
+      </c>
+      <c r="AB67" s="6" t="n">
+        <v>98124542.3943036</v>
+      </c>
+      <c r="AC67" s="6" t="n">
+        <v>92330371.1556243</v>
+      </c>
+      <c r="AD67" s="6" t="n">
+        <v>73314687.7668141</v>
+      </c>
+      <c r="AE67" s="6" t="n">
+        <v>58430351.0281265</v>
+      </c>
+      <c r="AF67" s="6" t="n">
+        <v>41789722.3947888</v>
+      </c>
+      <c r="AG67" s="6" t="n">
+        <v>156885957.941945</v>
+      </c>
+      <c r="AH67" s="6" t="n">
+        <v>230796747.946451</v>
+      </c>
+      <c r="AI67" s="6" t="n">
+        <v>262964794.656281</v>
+      </c>
+      <c r="AJ67" s="6" t="n">
+        <v>802757744.323426</v>
+      </c>
+      <c r="AK67" s="6" t="n">
+        <v>1504968056.2708</v>
+      </c>
+      <c r="AL67" s="6" t="n">
+        <v>578759062.351869</v>
+      </c>
+      <c r="AM67" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="O2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7" t="n">
+        <v>29531243.5063193</v>
+      </c>
+      <c r="X2" s="7" t="n">
+        <v>450278357.555349</v>
+      </c>
+      <c r="Y2" s="7" t="n">
+        <v>202531018.690479</v>
+      </c>
+      <c r="Z2" s="7" t="n">
+        <v>281340685.592031</v>
+      </c>
+      <c r="AA2" s="7" t="n">
+        <v>1131389455.95436</v>
+      </c>
+      <c r="AB2" s="7" t="n">
+        <v>1265944368.11565</v>
+      </c>
+      <c r="AC2" s="7" t="n">
+        <v>999007723.959491</v>
+      </c>
+      <c r="AD2" s="7" t="n">
+        <v>879899260.340753</v>
+      </c>
+      <c r="AE2" s="7" t="n">
+        <v>655874209.663381</v>
+      </c>
+      <c r="AF2" s="7" t="n">
+        <v>637097257.101265</v>
+      </c>
+      <c r="AG2" s="7" t="n">
+        <v>658114309.576629</v>
+      </c>
+      <c r="AH2" s="7" t="n">
+        <v>483025909.726209</v>
+      </c>
+      <c r="AI2" s="7" t="n">
+        <v>505429470.562474</v>
+      </c>
+      <c r="AJ2" s="7" t="n">
+        <v>508269630.537183</v>
+      </c>
+      <c r="AK2" s="7" t="n">
+        <v>613575136.457047</v>
+      </c>
+      <c r="AL2" s="7" t="n">
+        <v>320990525.498459</v>
+      </c>
+      <c r="AM2" s="7" t="n">
+        <v>241866892.8748</v>
+      </c>
+      <c r="AN2" s="7" t="n">
+        <v>80111888.7248183</v>
+      </c>
+      <c r="AO2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="O3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" t="n">
+        <v>863</v>
+      </c>
+      <c r="Q3" s="7" t="n">
+        <v>31022364.3375288</v>
+      </c>
+      <c r="R3" s="7" t="n">
+        <v>60140516.173993</v>
+      </c>
+      <c r="S3" s="7" t="n">
+        <v>7520365.97839029</v>
+      </c>
+      <c r="T3" s="7" t="n">
+        <v>38684629.3316278</v>
+      </c>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="O4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" t="n">
+        <v>831</v>
+      </c>
+      <c r="Q4" s="7" t="n">
+        <v>-51123.3145047463</v>
+      </c>
+      <c r="R4" s="7" t="n">
+        <v>802533.607487923</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <v>147733.640398991</v>
+      </c>
+      <c r="T4" s="7" t="n">
+        <v>24391880.6163119</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7" t="n">
+        <v>-6440.03354792093</v>
+      </c>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7" t="n">
+        <v>-33124.114481189</v>
+      </c>
+      <c r="AK4" s="7" t="n">
+        <v>-169520.942695048</v>
+      </c>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="O5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" t="n">
+        <v>485</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7" t="n">
+        <v>70118.8588641425</v>
+      </c>
+      <c r="S5" s="7" t="n">
+        <v>159247.329139852</v>
+      </c>
+      <c r="T5" s="7" t="n">
+        <v>16669.267553938</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="O6" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2033</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7" t="n">
+        <v>22914815.4446492</v>
+      </c>
+      <c r="AG6" s="7" t="n">
+        <v>136024939.535994</v>
+      </c>
+      <c r="AH6" s="7" t="n">
+        <v>301644032.213527</v>
+      </c>
+      <c r="AI6" s="7" t="n">
+        <v>9780202.84239837</v>
+      </c>
+      <c r="AJ6" s="7" t="n">
+        <v>110550558.088463</v>
+      </c>
+      <c r="AK6" s="7" t="n">
+        <v>120786689.602734</v>
+      </c>
+      <c r="AL6" s="7" t="n">
+        <v>313089178.497093</v>
+      </c>
+      <c r="AM6" s="7" t="n">
+        <v>133587042.7949</v>
+      </c>
+      <c r="AN6" s="7" t="n">
+        <v>-2548446.52363759</v>
+      </c>
+      <c r="AO6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="O7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" t="n">
+        <v>438</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7" t="n">
+        <v>1475231.38150741</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1053</v>
+      </c>
+      <c r="Q8" s="7" t="n">
+        <v>136632.59592868</v>
+      </c>
+      <c r="R8" s="7" t="n">
+        <v>443012.370033078</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="O9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1674</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>381750.154589012</v>
+      </c>
+      <c r="R9" s="7" t="n">
+        <v>211325.147556265</v>
+      </c>
+      <c r="S9" s="7" t="n">
+        <v>187373.093475668</v>
+      </c>
+      <c r="T9" s="7" t="n">
+        <v>54035.3073830004</v>
+      </c>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1055</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7" t="n">
+        <v>8819976.28688117</v>
+      </c>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="O11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1077</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7" t="n">
+        <v>414724.186581224</v>
+      </c>
+      <c r="T11" s="7" t="n">
+        <v>2273678.03702413</v>
+      </c>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="O12" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1653</v>
+      </c>
+      <c r="Q12" s="7" t="n">
+        <v>126337.164051551</v>
+      </c>
+      <c r="R12" s="7" t="n">
+        <v>3031668.13121748</v>
+      </c>
+      <c r="S12" s="7" t="n">
+        <v>704754.533971902</v>
+      </c>
+      <c r="T12" s="7" t="n">
+        <v>1457766.22927752</v>
+      </c>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="O13" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1682</v>
+      </c>
+      <c r="Q13" s="7" t="n">
+        <v>15227884.101163</v>
+      </c>
+      <c r="R13" s="7" t="n">
+        <v>1928312.78812383</v>
+      </c>
+      <c r="S13" s="7" t="n">
+        <v>45790073.6774671</v>
+      </c>
+      <c r="T13" s="7" t="n">
+        <v>24934150.6787682</v>
+      </c>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="7" t="n">
+        <v>-32705.6929021753</v>
+      </c>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="O14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1655</v>
+      </c>
+      <c r="Q14" s="7" t="n">
+        <v>701428.807856041</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7" t="n">
+        <v>2897071.75199287</v>
+      </c>
+      <c r="T14" s="7" t="n">
+        <v>881775.148291109</v>
+      </c>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="O15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" t="n">
+        <v>499</v>
+      </c>
+      <c r="Q15" s="7" t="n">
+        <v>2785583.23500404</v>
+      </c>
+      <c r="R15" s="7" t="n">
+        <v>212265.323931586</v>
+      </c>
+      <c r="S15" s="7" t="n">
+        <v>72511.0810208105</v>
+      </c>
+      <c r="T15" s="7" t="n">
+        <v>32750.3335103058</v>
+      </c>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1076</v>
+      </c>
+      <c r="Q16" s="7" t="n">
+        <v>6172040.31821674</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7" t="n">
+        <v>433597.380439827</v>
+      </c>
+      <c r="T16" s="7" t="n">
+        <v>1689151.9375196</v>
+      </c>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="O17" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1050</v>
+      </c>
+      <c r="Q17" s="7" t="n">
+        <v>1512706.25460574</v>
+      </c>
+      <c r="R17" s="7" t="n">
+        <v>7711869.28252087</v>
+      </c>
+      <c r="S17" s="7" t="n">
+        <v>5671269.74076017</v>
+      </c>
+      <c r="T17" s="7" t="n">
+        <v>5372991.4942148</v>
+      </c>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="O18" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1034</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7" t="n">
+        <v>6038217.02429994</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="O19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" t="n">
+        <v>877</v>
+      </c>
+      <c r="Q19" s="7" t="n">
+        <v>12365026.9607987</v>
+      </c>
+      <c r="R19" s="7" t="n">
+        <v>1195642.4882034</v>
+      </c>
+      <c r="S19" s="7" t="n">
+        <v>-5178255.88726594</v>
+      </c>
+      <c r="T19" s="7" t="n">
+        <v>26534.5969390915</v>
+      </c>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="O20" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1078</v>
+      </c>
+      <c r="Q20" s="7" t="n">
+        <v>12332499.0834367</v>
+      </c>
+      <c r="R20" s="7" t="n">
+        <v>27452949.8197833</v>
+      </c>
+      <c r="S20" s="7" t="n">
+        <v>1461663.87272841</v>
+      </c>
+      <c r="T20" s="7" t="n">
+        <v>819084.43916148</v>
+      </c>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7" t="n">
+        <v>-248358.528418965</v>
+      </c>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="O21" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1046</v>
+      </c>
+      <c r="Q21" s="7" t="n">
+        <v>2938504.00556444</v>
+      </c>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7" t="n">
+        <v>68909.7532368805</v>
+      </c>
+      <c r="T21" s="7" t="n">
+        <v>4847290.1259823</v>
+      </c>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="O22" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" t="n">
+        <v>426</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7" t="n">
+        <v>-153804.021130571</v>
+      </c>
+      <c r="S22" s="7" t="n">
+        <v>10915619.8541943</v>
+      </c>
+      <c r="T22" s="7" t="n">
+        <v>10344437.8724345</v>
+      </c>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="O23" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1037</v>
+      </c>
+      <c r="Q23" s="7" t="n">
+        <v>-879480.643610554</v>
+      </c>
+      <c r="R23" s="7" t="n">
+        <v>151863.724248616</v>
+      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="O24" t="s">
+        <v>117</v>
+      </c>
+      <c r="P24" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7" t="n">
+        <v>334039.089202524</v>
+      </c>
+      <c r="Z24" s="7" t="n">
+        <v>10985.7199061613</v>
+      </c>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7" t="n">
+        <v>26279290.0532467</v>
+      </c>
+      <c r="AF24" s="7" t="n">
+        <v>134216793.781921</v>
+      </c>
+      <c r="AG24" s="7" t="n">
+        <v>16351850.9134548</v>
+      </c>
+      <c r="AH24" s="7" t="n">
+        <v>63655043.8983098</v>
+      </c>
+      <c r="AI24" s="7" t="n">
+        <v>241440081.100313</v>
+      </c>
+      <c r="AJ24" s="7" t="n">
+        <v>345788244.117657</v>
+      </c>
+      <c r="AK24" s="7" t="n">
+        <v>364312951.323356</v>
+      </c>
+      <c r="AL24" s="7" t="n">
+        <v>189468731.477266</v>
+      </c>
+      <c r="AM24" s="7" t="n">
+        <v>161462601.9253</v>
+      </c>
+      <c r="AN24" s="7" t="n">
+        <v>55935390.0158688</v>
+      </c>
+      <c r="AO24" s="7"/>
+    </row>
+    <row r="25">
+      <c r="O25" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1876</v>
+      </c>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7" t="n">
+        <v>-21800171.4955945</v>
+      </c>
+      <c r="Y25" s="7" t="n">
+        <v>180000.548429349</v>
+      </c>
+      <c r="Z25" s="7" t="n">
+        <v>958665.877310031</v>
+      </c>
+      <c r="AA25" s="7" t="n">
+        <v>8325254.3544958</v>
+      </c>
+      <c r="AB25" s="7" t="n">
+        <v>1326971.14173374</v>
+      </c>
+      <c r="AC25" s="7" t="n">
+        <v>13537828.9690168</v>
+      </c>
+      <c r="AD25" s="7" t="n">
+        <v>3942098.59548798</v>
+      </c>
+      <c r="AE25" s="7" t="n">
+        <v>5815210.19664188</v>
+      </c>
+      <c r="AF25" s="7" t="n">
+        <v>4854916.35757942</v>
+      </c>
+      <c r="AG25" s="7" t="n">
+        <v>3250350.1344113</v>
+      </c>
+      <c r="AH25" s="7" t="n">
+        <v>6374205.67043284</v>
+      </c>
+      <c r="AI25" s="7" t="n">
+        <v>-609042.565457927</v>
+      </c>
+      <c r="AJ25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="7" t="n">
+        <v>-4429.76514196457</v>
+      </c>
+      <c r="AL25" s="7" t="n">
+        <v>-8534.71162451287</v>
+      </c>
+      <c r="AM25" s="7" t="n">
+        <v>-45059.6797</v>
+      </c>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>137</v>
+      </c>
+      <c r="Q26" s="7" t="n">
+        <v>2784409924.1565</v>
+      </c>
+      <c r="R26" s="7" t="n">
+        <v>1804988805.52813</v>
+      </c>
+      <c r="S26" s="7" t="n">
+        <v>957810194.98376</v>
+      </c>
+      <c r="T26" s="7" t="n">
+        <v>951802754.999747</v>
+      </c>
+      <c r="U26" s="7" t="n">
+        <v>2205734.00969018</v>
+      </c>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7" t="n">
+        <v>-309376.89349475</v>
+      </c>
+      <c r="Z26" s="7" t="n">
+        <v>-974484.648893482</v>
+      </c>
+      <c r="AA26" s="7" t="n">
+        <v>-1711126.3151592</v>
+      </c>
+      <c r="AB26" s="7" t="n">
+        <v>-1276934.83176748</v>
+      </c>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="7" t="n">
+        <v>-99066.315721179</v>
+      </c>
+      <c r="AJ26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="7"/>
+    </row>
+    <row r="27">
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1357</v>
+      </c>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7" t="n">
+        <v>133463974.180334</v>
+      </c>
+      <c r="V27" s="7" t="n">
+        <v>353383518.726532</v>
+      </c>
+      <c r="W27" s="7" t="n">
+        <v>378757729.173113</v>
+      </c>
+      <c r="X27" s="7" t="n">
+        <v>610803752.3278</v>
+      </c>
+      <c r="Y27" s="7" t="n">
+        <v>579891838.366996</v>
+      </c>
+      <c r="Z27" s="7" t="n">
+        <v>562149208.602528</v>
+      </c>
+      <c r="AA27" s="7" t="n">
+        <v>338656801.840957</v>
+      </c>
+      <c r="AB27" s="7" t="n">
+        <v>337770942.453361</v>
+      </c>
+      <c r="AC27" s="7" t="n">
+        <v>622072077.856056</v>
+      </c>
+      <c r="AD27" s="7" t="n">
+        <v>515842698.65472</v>
+      </c>
+      <c r="AE27" s="7" t="n">
+        <v>761961692.870075</v>
+      </c>
+      <c r="AF27" s="7" t="n">
+        <v>684221021.134957</v>
+      </c>
+      <c r="AG27" s="7" t="n">
+        <v>721189621.171773</v>
+      </c>
+      <c r="AH27" s="7" t="n">
+        <v>640857556.85431</v>
+      </c>
+      <c r="AI27" s="7" t="n">
+        <v>790070176.586644</v>
+      </c>
+      <c r="AJ27" s="7" t="n">
+        <v>807425798.773212</v>
+      </c>
+      <c r="AK27" s="7" t="n">
+        <v>711679835.061188</v>
+      </c>
+      <c r="AL27" s="7" t="n">
+        <v>743907087.538328</v>
+      </c>
+      <c r="AM27" s="7" t="n">
+        <v>551993804.1368</v>
+      </c>
+      <c r="AN27" s="7" t="n">
+        <v>359482367.947432</v>
+      </c>
+      <c r="AO27" s="7"/>
+    </row>
+    <row r="28">
+      <c r="O28" t="s">
+        <v>119</v>
+      </c>
+      <c r="P28" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7" t="n">
+        <v>10689.9437832963</v>
+      </c>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+    </row>
+    <row r="29">
+      <c r="O29" t="s">
+        <v>120</v>
+      </c>
+      <c r="P29" t="n">
+        <v>871</v>
+      </c>
+      <c r="Q29" s="7" t="n">
+        <v>7400258.52003942</v>
+      </c>
+      <c r="R29" s="7" t="n">
+        <v>40871445.1915474</v>
+      </c>
+      <c r="S29" s="7" t="n">
+        <v>7778080.6596077</v>
+      </c>
+      <c r="T29" s="7" t="n">
+        <v>41765588.1560653</v>
+      </c>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7" t="n">
+        <v>-892.865416229387</v>
+      </c>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="O30" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" t="n">
+        <v>866</v>
+      </c>
+      <c r="Q30" s="7" t="n">
+        <v>146352642.099136</v>
+      </c>
+      <c r="R30" s="7" t="n">
+        <v>66666789.9202138</v>
+      </c>
+      <c r="S30" s="7" t="n">
+        <v>51765833.4305581</v>
+      </c>
+      <c r="T30" s="7" t="n">
+        <v>30794938.0626156</v>
+      </c>
+      <c r="U30" s="7" t="n">
+        <v>74373.9664342852</v>
+      </c>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7" t="n">
+        <v>-287.830212157484</v>
+      </c>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+    </row>
+    <row r="31">
+      <c r="O31" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1737</v>
+      </c>
+      <c r="Q31" s="7" t="n">
+        <v>9536408.75591904</v>
+      </c>
+      <c r="R31" s="7" t="n">
+        <v>4720641.35525932</v>
+      </c>
+      <c r="S31" s="7" t="n">
+        <v>2684447.433952</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+    </row>
+    <row r="32">
+      <c r="O32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1359</v>
+      </c>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7" t="n">
+        <v>343826838.06891</v>
+      </c>
+      <c r="V32" s="7" t="n">
+        <v>276083236.816715</v>
+      </c>
+      <c r="W32" s="7" t="n">
+        <v>361815346.172335</v>
+      </c>
+      <c r="X32" s="7" t="n">
+        <v>376056311.08265</v>
+      </c>
+      <c r="Y32" s="7" t="n">
+        <v>271563347.340223</v>
+      </c>
+      <c r="Z32" s="7" t="n">
+        <v>337787166.654346</v>
+      </c>
+      <c r="AA32" s="7" t="n">
+        <v>127913509.752995</v>
+      </c>
+      <c r="AB32" s="7" t="n">
+        <v>78062775.355675</v>
+      </c>
+      <c r="AC32" s="7" t="n">
+        <v>116723680.543113</v>
+      </c>
+      <c r="AD32" s="7" t="n">
+        <v>73291298.0691879</v>
+      </c>
+      <c r="AE32" s="7" t="n">
+        <v>13882647.7013013</v>
+      </c>
+      <c r="AF32" s="7" t="n">
+        <v>9882585.23804568</v>
+      </c>
+      <c r="AG32" s="7" t="n">
+        <v>-37897.9590232488</v>
+      </c>
+      <c r="AH32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="7" t="n">
+        <v>-91949.8273457792</v>
+      </c>
+      <c r="AJ32" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7" t="n">
+        <v>-99728.9829641271</v>
+      </c>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+    </row>
+    <row r="33">
+      <c r="O33" t="s">
+        <v>124</v>
+      </c>
+      <c r="P33" t="n">
+        <v>165</v>
+      </c>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7" t="n">
+        <v>3617230.80046579</v>
+      </c>
+      <c r="S33" s="7" t="n">
+        <v>3756551.37857733</v>
+      </c>
+      <c r="T33" s="7" t="n">
+        <v>5453139.29531791</v>
+      </c>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+    </row>
+    <row r="34">
+      <c r="O34" t="s">
+        <v>125</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1735</v>
+      </c>
+      <c r="Q34" s="7" t="n">
+        <v>29919689.9763032</v>
+      </c>
+      <c r="R34" s="7" t="n">
+        <v>40930621.0914928</v>
+      </c>
+      <c r="S34" s="7" t="n">
+        <v>-9348191.2429042</v>
+      </c>
+      <c r="T34" s="7" t="n">
+        <v>12051237.3817195</v>
+      </c>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7" t="n">
+        <v>476906.720799051</v>
+      </c>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="O35" t="s">
+        <v>126</v>
+      </c>
+      <c r="P35" t="n">
+        <v>151</v>
+      </c>
+      <c r="Q35" s="7" t="n">
+        <v>5420118.33057536</v>
+      </c>
+      <c r="R35" s="7" t="n">
+        <v>11285015.9068378</v>
+      </c>
+      <c r="S35" s="7" t="n">
+        <v>9272678.27891387</v>
+      </c>
+      <c r="T35" s="7" t="n">
+        <v>34775887.9988088</v>
+      </c>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7" t="n">
+        <v>-113945.111593029</v>
+      </c>
+      <c r="AA35" s="7" t="n">
+        <v>-16732.6375160538</v>
+      </c>
+      <c r="AB35" s="7" t="n">
+        <v>-204212.04162126</v>
+      </c>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="O36" t="s">
+        <v>127</v>
+      </c>
+      <c r="P36" t="n">
+        <v>166</v>
+      </c>
+      <c r="Q36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7" t="n">
+        <v>85748.5618445359</v>
+      </c>
+      <c r="T36" s="7" t="n">
+        <v>109929.697535523</v>
+      </c>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="O37" t="s">
+        <v>128</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1921</v>
+      </c>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7" t="n">
+        <v>5169351.57272136</v>
+      </c>
+      <c r="S37" s="7" t="n">
+        <v>-147438.576889312</v>
+      </c>
+      <c r="T37" s="7" t="n">
+        <v>5782952.76933785</v>
+      </c>
+      <c r="U37" s="7" t="n">
+        <v>24726465.5668988</v>
+      </c>
+      <c r="V37" s="7" t="n">
+        <v>18692777.5065223</v>
+      </c>
+      <c r="W37" s="7" t="n">
+        <v>20127560.9241601</v>
+      </c>
+      <c r="X37" s="7" t="n">
+        <v>28145375.2823954</v>
+      </c>
+      <c r="Y37" s="7" t="n">
+        <v>2029731.62776045</v>
+      </c>
+      <c r="Z37" s="7" t="n">
+        <v>-1932300.29521975</v>
+      </c>
+      <c r="AA37" s="7" t="n">
+        <v>-1113125.40563481</v>
+      </c>
+      <c r="AB37" s="7" t="n">
+        <v>-1294236.41742456</v>
+      </c>
+      <c r="AC37" s="7" t="n">
+        <v>-6226899.70782175</v>
+      </c>
+      <c r="AD37" s="7" t="n">
+        <v>-29584.1760361458</v>
+      </c>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="O38" t="s">
+        <v>129</v>
+      </c>
+      <c r="P38" t="n">
+        <v>167</v>
+      </c>
+      <c r="Q38" s="7" t="n">
+        <v>2803401.5059929</v>
+      </c>
+      <c r="R38" s="7" t="n">
+        <v>19678959.4874971</v>
+      </c>
+      <c r="S38" s="7" t="n">
+        <v>42656718.1728546</v>
+      </c>
+      <c r="T38" s="7" t="n">
+        <v>4031838.51741307</v>
+      </c>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="O39" t="s">
+        <v>130</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7" t="n">
+        <v>46744.3208901085</v>
+      </c>
+      <c r="X39" s="7" t="n">
+        <v>492674.557187717</v>
+      </c>
+      <c r="Y39" s="7" t="n">
+        <v>7026028.77348402</v>
+      </c>
+      <c r="Z39" s="7" t="n">
+        <v>100833.64050132</v>
+      </c>
+      <c r="AA39" s="7" t="n">
+        <v>183031.400721365</v>
+      </c>
+      <c r="AB39" s="7" t="n">
+        <v>169113.402312991</v>
+      </c>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7" t="n">
+        <v>3896480.25</v>
+      </c>
+      <c r="AN39" s="7" t="n">
+        <v>306466.5593915</v>
+      </c>
+      <c r="AO39" s="7"/>
+    </row>
+    <row r="40">
+      <c r="O40" t="s">
+        <v>131</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2032</v>
+      </c>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7" t="n">
+        <v>12290008.1682859</v>
+      </c>
+      <c r="AG40" s="7" t="n">
+        <v>205078767.629558</v>
+      </c>
+      <c r="AH40" s="7" t="n">
+        <v>35603625.7390458</v>
+      </c>
+      <c r="AI40" s="7" t="n">
+        <v>115005029.18812</v>
+      </c>
+      <c r="AJ40" s="7" t="n">
+        <v>44523549.5105348</v>
+      </c>
+      <c r="AK40" s="7" t="n">
+        <v>97395709.4219913</v>
+      </c>
+      <c r="AL40" s="7" t="n">
+        <v>21182482.0031199</v>
+      </c>
+      <c r="AM40" s="7" t="n">
+        <v>37864294.3989</v>
+      </c>
+      <c r="AN40" s="7" t="n">
+        <v>11073548.068709</v>
+      </c>
+      <c r="AO40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="O41" t="s">
+        <v>132</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1681</v>
+      </c>
+      <c r="Q41" s="7" t="n">
+        <v>-121848.665973292</v>
+      </c>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7" t="n">
+        <v>61887.241706509</v>
+      </c>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+    </row>
+    <row r="42">
+      <c r="O42" t="s">
+        <v>133</v>
+      </c>
+      <c r="P42" t="n">
+        <v>162</v>
+      </c>
+      <c r="Q42" s="7" t="n">
+        <v>8928031.45735926</v>
+      </c>
+      <c r="R42" s="7" t="n">
+        <v>14557320.2883462</v>
+      </c>
+      <c r="S42" s="7" t="n">
+        <v>64206767.0154161</v>
+      </c>
+      <c r="T42" s="7" t="n">
+        <v>12210164.5771003</v>
+      </c>
+      <c r="U42" s="7" t="n">
+        <v>-371.869832171426</v>
+      </c>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+    </row>
+    <row r="43">
+      <c r="O43" t="s">
+        <v>134</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1366</v>
+      </c>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7" t="n">
+        <v>40118241.2193166</v>
+      </c>
+      <c r="V43" s="7" t="n">
+        <v>112441822.934962</v>
+      </c>
+      <c r="W43" s="7" t="n">
+        <v>65331944.2864261</v>
+      </c>
+      <c r="X43" s="7" t="n">
+        <v>87055262.0249215</v>
+      </c>
+      <c r="Y43" s="7" t="n">
+        <v>27392284.2450422</v>
+      </c>
+      <c r="Z43" s="7" t="n">
+        <v>18220891.0688833</v>
+      </c>
+      <c r="AA43" s="7" t="n">
+        <v>11984895.0646412</v>
+      </c>
+      <c r="AB43" s="7" t="n">
+        <v>10696835.0234967</v>
+      </c>
+      <c r="AC43" s="7" t="n">
+        <v>371008.615279312</v>
+      </c>
+      <c r="AD43" s="7" t="n">
+        <v>380183.399465669</v>
+      </c>
+      <c r="AE43" s="7" t="n">
+        <v>-269885.969657057</v>
+      </c>
+      <c r="AF43" s="7" t="n">
+        <v>-1293280.44620371</v>
+      </c>
+      <c r="AG43" s="7" t="n">
+        <v>-764486.646866242</v>
+      </c>
+      <c r="AH43" s="7" t="n">
+        <v>-148463.255931874</v>
+      </c>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7" t="n">
+        <v>-2486.1320343459</v>
+      </c>
+      <c r="AK43" s="7" t="n">
+        <v>-1950.00295173996</v>
+      </c>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+    </row>
+    <row r="44">
+      <c r="O44" t="s">
+        <v>74</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2240</v>
+      </c>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7" t="n">
+        <v>3984993354.4387</v>
+      </c>
+      <c r="AK44" s="7" t="n">
+        <v>5035277276.68349</v>
+      </c>
+      <c r="AL44" s="7" t="n">
+        <v>1276649838.60686</v>
+      </c>
+      <c r="AM44" s="7" t="n">
+        <v>1918911399.4134</v>
+      </c>
+      <c r="AN44" s="7" t="n">
+        <v>3084381709.64237</v>
+      </c>
+      <c r="AO44" s="7"/>
+    </row>
+    <row r="45">
+      <c r="O45" t="s">
+        <v>135</v>
+      </c>
+      <c r="P45" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7" t="n">
+        <v>575110.305719991</v>
+      </c>
+      <c r="S45" s="7" t="n">
+        <v>-248698.161547946</v>
+      </c>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="O46" t="s">
+        <v>75</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1912</v>
+      </c>
+      <c r="Q46" s="7" t="n">
+        <v>474172854.064499</v>
+      </c>
+      <c r="R46" s="7" t="n">
+        <v>1742076067.94145</v>
+      </c>
+      <c r="S46" s="7" t="n">
+        <v>4080455651.77528</v>
+      </c>
+      <c r="T46" s="7" t="n">
+        <v>4545894082.35821</v>
+      </c>
+      <c r="U46" s="7" t="n">
+        <v>6628166669.95548</v>
+      </c>
+      <c r="V46" s="7" t="n">
+        <v>7077848240.04668</v>
+      </c>
+      <c r="W46" s="7" t="n">
+        <v>6273747807.44538</v>
+      </c>
+      <c r="X46" s="7" t="n">
+        <v>7670490879.98229</v>
+      </c>
+      <c r="Y46" s="7" t="n">
+        <v>7768035295.25022</v>
+      </c>
+      <c r="Z46" s="7" t="n">
+        <v>6965531282.02244</v>
+      </c>
+      <c r="AA46" s="7" t="n">
+        <v>6717519245.36619</v>
+      </c>
+      <c r="AB46" s="7" t="n">
+        <v>6504309490.55992</v>
+      </c>
+      <c r="AC46" s="7" t="n">
+        <v>8075866476.00407</v>
+      </c>
+      <c r="AD46" s="7" t="n">
+        <v>9124998112.52992</v>
+      </c>
+      <c r="AE46" s="7" t="n">
+        <v>6763227234.90294</v>
+      </c>
+      <c r="AF46" s="7" t="n">
+        <v>5079238411.92319</v>
+      </c>
+      <c r="AG46" s="7" t="n">
+        <v>7227061540.38152</v>
+      </c>
+      <c r="AH46" s="7" t="n">
+        <v>5976246254.19035</v>
+      </c>
+      <c r="AI46" s="7" t="n">
+        <v>8659054280.04308</v>
+      </c>
+      <c r="AJ46" s="7" t="n">
+        <v>8990249833.32066</v>
+      </c>
+      <c r="AK46" s="7" t="n">
+        <v>12696359607.5543</v>
+      </c>
+      <c r="AL46" s="7" t="n">
+        <v>8299562872.17891</v>
+      </c>
+      <c r="AM46" s="7" t="n">
+        <v>8172176497.1852</v>
+      </c>
+      <c r="AN46" s="7" t="n">
+        <v>4388790494.23981</v>
+      </c>
+      <c r="AO46" s="7"/>
+    </row>
+    <row r="47">
+      <c r="O47" t="s">
+        <v>136</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1079</v>
+      </c>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7" t="n">
+        <v>80135.8387018771</v>
+      </c>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+    </row>
+    <row r="48">
+      <c r="O48" t="s">
+        <v>137</v>
+      </c>
+      <c r="P48" t="n">
+        <v>879</v>
+      </c>
+      <c r="Q48" s="7" t="n">
+        <v>1531363.08949042</v>
+      </c>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="O49" t="s">
+        <v>138</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1840</v>
+      </c>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="7" t="n">
+        <v>1225967.06798378</v>
+      </c>
+      <c r="X49" s="7" t="n">
+        <v>11480175.6133177</v>
+      </c>
+      <c r="Y49" s="7" t="n">
+        <v>5795382.0028029</v>
+      </c>
+      <c r="Z49" s="7" t="n">
+        <v>1369835.78663329</v>
+      </c>
+      <c r="AA49" s="7" t="n">
+        <v>1146263.89192458</v>
+      </c>
+      <c r="AB49" s="7" t="n">
+        <v>1611051.07434698</v>
+      </c>
+      <c r="AC49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7" t="n">
+        <v>-45968.6719401573</v>
+      </c>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7" t="n">
+        <v>-59189.5781</v>
+      </c>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+    </row>
+    <row r="50">
+      <c r="O50" t="s">
+        <v>139</v>
+      </c>
+      <c r="P50" t="n">
+        <v>664</v>
+      </c>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7" t="n">
+        <v>4106513.86199178</v>
+      </c>
+      <c r="AL50" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+    </row>
+    <row r="51">
+      <c r="O51" t="s">
+        <v>140</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1877</v>
+      </c>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7" t="n">
+        <v>243067.509621202</v>
+      </c>
+      <c r="V51" s="7" t="n">
+        <v>9095.02464862119</v>
+      </c>
+      <c r="W51" s="7" t="n">
+        <v>1760371.93181506</v>
+      </c>
+      <c r="X51" s="7" t="n">
+        <v>5008928.68738961</v>
+      </c>
+      <c r="Y51" s="7" t="n">
+        <v>6410650.1369725</v>
+      </c>
+      <c r="Z51" s="7" t="n">
+        <v>6954044.99043301</v>
+      </c>
+      <c r="AA51" s="7" t="n">
+        <v>3841626.08560644</v>
+      </c>
+      <c r="AB51" s="7" t="n">
+        <v>9008532.94818861</v>
+      </c>
+      <c r="AC51" s="7" t="n">
+        <v>2749897.83425032</v>
+      </c>
+      <c r="AD51" s="7" t="n">
+        <v>779424.040700338</v>
+      </c>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="7" t="n">
+        <v>-3133.02152917279</v>
+      </c>
+      <c r="AI51" s="7" t="n">
+        <v>-80324.1602178157</v>
+      </c>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
+    </row>
+    <row r="52">
+      <c r="O52" t="s">
+        <v>141</v>
+      </c>
+      <c r="P52" t="n">
+        <v>674</v>
+      </c>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7" t="n">
+        <v>87569838.827896</v>
+      </c>
+      <c r="V52" s="7" t="n">
+        <v>64196859.0193785</v>
+      </c>
+      <c r="W52" s="7" t="n">
+        <v>52121994.2068984</v>
+      </c>
+      <c r="X52" s="7" t="n">
+        <v>43672027.5747617</v>
+      </c>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7" t="n">
+        <v>14916132.6268394</v>
+      </c>
+      <c r="AC52" s="7" t="n">
+        <v>897270.249517551</v>
+      </c>
+      <c r="AD52" s="7" t="n">
+        <v>-703.627536758782</v>
+      </c>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+    </row>
+    <row r="53">
+      <c r="O53" t="s">
+        <v>142</v>
+      </c>
+      <c r="P53" t="n">
+        <v>638</v>
+      </c>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7" t="n">
+        <v>861302.706778769</v>
+      </c>
+      <c r="Z53" s="7" t="n">
+        <v>-5167.88058475748</v>
+      </c>
+      <c r="AA53" s="7" t="n">
+        <v>55846.0029529552</v>
+      </c>
+      <c r="AB53" s="7" t="n">
+        <v>11321750.1098403</v>
+      </c>
+      <c r="AC53" s="7" t="n">
+        <v>-87164.9680833689</v>
+      </c>
+      <c r="AD53" s="7" t="n">
+        <v>1108919.81753706</v>
+      </c>
+      <c r="AE53" s="7" t="n">
+        <v>2683968.1465039</v>
+      </c>
+      <c r="AF53" s="7" t="n">
+        <v>497799.527077975</v>
+      </c>
+      <c r="AG53" s="7" t="n">
+        <v>-72737.6726639959</v>
+      </c>
+      <c r="AH53" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="7" t="n">
+        <v>-320356.240896731</v>
+      </c>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
+    </row>
+    <row r="54">
+      <c r="O54" t="s">
+        <v>77</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2147</v>
+      </c>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7" t="n">
+        <v>519452349.319387</v>
+      </c>
+      <c r="AF54" s="7" t="n">
+        <v>2195694680.35312</v>
+      </c>
+      <c r="AG54" s="7" t="n">
+        <v>2172636566.36466</v>
+      </c>
+      <c r="AH54" s="7" t="n">
+        <v>99069018.3704019</v>
+      </c>
+      <c r="AI54" s="7" t="n">
+        <v>68216065.8676888</v>
+      </c>
+      <c r="AJ54" s="7" t="n">
+        <v>256632901.298235</v>
+      </c>
+      <c r="AK54" s="7" t="n">
+        <v>222259604.892425</v>
+      </c>
+      <c r="AL54" s="7" t="n">
+        <v>173134299.900671</v>
+      </c>
+      <c r="AM54" s="7" t="n">
+        <v>223277735.9279</v>
+      </c>
+      <c r="AN54" s="7" t="n">
+        <v>207798843.610076</v>
+      </c>
+      <c r="AO54" s="7"/>
+    </row>
+    <row r="55">
+      <c r="O55" t="s">
+        <v>78</v>
+      </c>
+      <c r="P55" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7" t="n">
+        <v>-11400.0415750472</v>
+      </c>
+      <c r="V55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" s="7" t="n">
+        <v>762808.35644188</v>
+      </c>
+      <c r="X55" s="7" t="n">
+        <v>461571296.86791</v>
+      </c>
+      <c r="Y55" s="7" t="n">
+        <v>1032545525.76262</v>
+      </c>
+      <c r="Z55" s="7" t="n">
+        <v>3182289305.31524</v>
+      </c>
+      <c r="AA55" s="7" t="n">
+        <v>4047090254.39387</v>
+      </c>
+      <c r="AB55" s="7" t="n">
+        <v>4544284546.95069</v>
+      </c>
+      <c r="AC55" s="7" t="n">
+        <v>3012013272.73651</v>
+      </c>
+      <c r="AD55" s="7" t="n">
+        <v>2583636975.89195</v>
+      </c>
+      <c r="AE55" s="7" t="n">
+        <v>1416883993.45382</v>
+      </c>
+      <c r="AF55" s="7" t="n">
+        <v>834651952.991745</v>
+      </c>
+      <c r="AG55" s="7" t="n">
+        <v>396897055.064614</v>
+      </c>
+      <c r="AH55" s="7" t="n">
+        <v>61610376.0818868</v>
+      </c>
+      <c r="AI55" s="7" t="n">
+        <v>-32936939.2045942</v>
+      </c>
+      <c r="AJ55" s="7" t="n">
+        <v>-40869190.535478</v>
+      </c>
+      <c r="AK55" s="7" t="n">
+        <v>-6970664.30431388</v>
+      </c>
+      <c r="AL55" s="7" t="n">
+        <v>-5299768.58135699</v>
+      </c>
+      <c r="AM55" s="7" t="n">
+        <v>-9795723.5255</v>
+      </c>
+      <c r="AN55" s="7" t="n">
+        <v>-5706979.65475282</v>
+      </c>
+      <c r="AO55" s="7"/>
+    </row>
+    <row r="56">
+      <c r="O56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1916</v>
+      </c>
+      <c r="Q56" s="7" t="n">
+        <v>520420124.712709</v>
+      </c>
+      <c r="R56" s="7" t="n">
+        <v>438581840.921122</v>
+      </c>
+      <c r="S56" s="7" t="n">
+        <v>757513869.534038</v>
+      </c>
+      <c r="T56" s="7" t="n">
+        <v>617797152.955541</v>
+      </c>
+      <c r="U56" s="7" t="n">
+        <v>60723413.2593164</v>
+      </c>
+      <c r="V56" s="7" t="n">
+        <v>12923891.4348389</v>
+      </c>
+      <c r="W56" s="7" t="n">
+        <v>17414648.1532649</v>
+      </c>
+      <c r="X56" s="7" t="n">
+        <v>-7006557.95103731</v>
+      </c>
+      <c r="Y56" s="7" t="n">
+        <v>416488.780710749</v>
+      </c>
+      <c r="Z56" s="7" t="n">
+        <v>-935981.839307822</v>
+      </c>
+      <c r="AA56" s="7" t="n">
+        <v>-16601301.2209793</v>
+      </c>
+      <c r="AB56" s="7" t="n">
+        <v>-5862553.27914596</v>
+      </c>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7" t="n">
+        <v>-683875.113902003</v>
+      </c>
+      <c r="AE56" s="7" t="n">
+        <v>-33064.5107968294</v>
+      </c>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7" t="n">
+        <v>1480186.57099324</v>
+      </c>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7" t="n">
+        <v>102357.529843038</v>
+      </c>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+    </row>
+    <row r="57">
+      <c r="O57" t="s">
+        <v>143</v>
+      </c>
+      <c r="P57" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7" t="n">
+        <v>538997794.440025</v>
+      </c>
+      <c r="V57" s="7" t="n">
+        <v>331670972.157498</v>
+      </c>
+      <c r="W57" s="7" t="n">
+        <v>964481146.414597</v>
+      </c>
+      <c r="X57" s="7" t="n">
+        <v>570020106.669378</v>
+      </c>
+      <c r="Y57" s="7" t="n">
+        <v>602940671.416663</v>
+      </c>
+      <c r="Z57" s="7" t="n">
+        <v>150298161.182358</v>
+      </c>
+      <c r="AA57" s="7" t="n">
+        <v>90847237.2279975</v>
+      </c>
+      <c r="AB57" s="7" t="n">
+        <v>91210683.4637743</v>
+      </c>
+      <c r="AC57" s="7" t="n">
+        <v>198311913.858248</v>
+      </c>
+      <c r="AD57" s="7" t="n">
+        <v>37139524.5496837</v>
+      </c>
+      <c r="AE57" s="7" t="n">
+        <v>28473409.8986925</v>
+      </c>
+      <c r="AF57" s="7" t="n">
+        <v>135762449.775292</v>
+      </c>
+      <c r="AG57" s="7" t="n">
+        <v>219584093.214138</v>
+      </c>
+      <c r="AH57" s="7" t="n">
+        <v>500270698.391138</v>
+      </c>
+      <c r="AI57" s="7" t="n">
+        <v>294621131.775229</v>
+      </c>
+      <c r="AJ57" s="7" t="n">
+        <v>51945828.8191197</v>
+      </c>
+      <c r="AK57" s="7" t="n">
+        <v>16801567.6057968</v>
+      </c>
+      <c r="AL57" s="7" t="n">
+        <v>12816911.5690263</v>
+      </c>
+      <c r="AM57" s="7" t="n">
+        <v>138156456.2864</v>
+      </c>
+      <c r="AN57" s="7" t="n">
+        <v>-1891469.89218718</v>
+      </c>
+      <c r="AO57" s="7"/>
+    </row>
+    <row r="58">
+      <c r="O58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1819</v>
+      </c>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7" t="n">
+        <v>2612135.30658605</v>
+      </c>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7" t="n">
+        <v>805316.132052596</v>
+      </c>
+      <c r="AD58" s="7" t="n">
+        <v>12029192.6556719</v>
+      </c>
+      <c r="AE58" s="7" t="n">
+        <v>45482512.1632548</v>
+      </c>
+      <c r="AF58" s="7" t="n">
+        <v>1413099397.23622</v>
+      </c>
+      <c r="AG58" s="7" t="n">
+        <v>52200144.9790241</v>
+      </c>
+      <c r="AH58" s="7" t="n">
+        <v>1841331687.10851</v>
+      </c>
+      <c r="AI58" s="7" t="n">
+        <v>4456009819.13505</v>
+      </c>
+      <c r="AJ58" s="7" t="n">
+        <v>1262016110.91906</v>
+      </c>
+      <c r="AK58" s="7" t="n">
+        <v>679874352.903876</v>
+      </c>
+      <c r="AL58" s="7" t="n">
+        <v>550315468.115461</v>
+      </c>
+      <c r="AM58" s="7" t="n">
+        <v>153662063.9002</v>
+      </c>
+      <c r="AN58" s="7" t="n">
+        <v>6224746.02550045</v>
+      </c>
+      <c r="AO58" s="7"/>
+    </row>
+    <row r="59">
+      <c r="O59" t="s">
+        <v>144</v>
+      </c>
+      <c r="P59" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7" t="n">
+        <v>43543.8299051978</v>
+      </c>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7" t="n">
+        <v>-22153.9394180912</v>
+      </c>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+      <c r="AO59" s="7"/>
+    </row>
+    <row r="60">
+      <c r="O60" t="s">
+        <v>145</v>
+      </c>
+      <c r="P60" t="n">
+        <v>848</v>
+      </c>
+      <c r="Q60" s="7" t="n">
+        <v>61833024.4138265</v>
+      </c>
+      <c r="R60" s="7" t="n">
+        <v>13239713.5776019</v>
+      </c>
+      <c r="S60" s="7" t="n">
+        <v>40173643.8194296</v>
+      </c>
+      <c r="T60" s="7" t="n">
+        <v>68394660.0242919</v>
+      </c>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7" t="n">
+        <v>-457.879700630455</v>
+      </c>
+      <c r="AB60" s="7" t="n">
+        <v>-359738.256598228</v>
+      </c>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+      <c r="AO60" s="7"/>
+    </row>
+    <row r="61">
+      <c r="O61" t="s">
+        <v>146</v>
+      </c>
+      <c r="P61" t="n">
+        <v>856</v>
+      </c>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7" t="n">
+        <v>35089.4014977275</v>
+      </c>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7" t="n">
+        <v>343000.770976863</v>
+      </c>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7" t="n">
+        <v>-57.2972922913541</v>
+      </c>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+    </row>
+    <row r="62">
+      <c r="O62" t="s">
+        <v>147</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1383</v>
+      </c>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7" t="n">
+        <v>9424039.82279659</v>
+      </c>
+      <c r="V62" s="7" t="n">
+        <v>90458490.0526986</v>
+      </c>
+      <c r="W62" s="7" t="n">
+        <v>116387362.3296</v>
+      </c>
+      <c r="X62" s="7" t="n">
+        <v>134938815.003</v>
+      </c>
+      <c r="Y62" s="7" t="n">
+        <v>29724012.2413451</v>
+      </c>
+      <c r="Z62" s="7" t="n">
+        <v>617127178.346029</v>
+      </c>
+      <c r="AA62" s="7" t="n">
+        <v>159816684.957587</v>
+      </c>
+      <c r="AB62" s="7" t="n">
+        <v>275040412.020595</v>
+      </c>
+      <c r="AC62" s="7" t="n">
+        <v>2999919.57102762</v>
+      </c>
+      <c r="AD62" s="7" t="n">
+        <v>1541587.00235895</v>
+      </c>
+      <c r="AE62" s="7" t="n">
+        <v>2002836.57931658</v>
+      </c>
+      <c r="AF62" s="7" t="n">
+        <v>1987103.1943179</v>
+      </c>
+      <c r="AG62" s="7" t="n">
+        <v>93686.9730223251</v>
+      </c>
+      <c r="AH62" s="7" t="n">
+        <v>42696131.6980358</v>
+      </c>
+      <c r="AI62" s="7" t="n">
+        <v>76937361.0237325</v>
+      </c>
+      <c r="AJ62" s="7" t="n">
+        <v>57891604.6549055</v>
+      </c>
+      <c r="AK62" s="7" t="n">
+        <v>589884165.554055</v>
+      </c>
+      <c r="AL62" s="7" t="n">
+        <v>237282776.577524</v>
+      </c>
+      <c r="AM62" s="7" t="n">
+        <v>229226198</v>
+      </c>
+      <c r="AN62" s="7" t="n">
+        <v>191508751.936136</v>
+      </c>
+      <c r="AO62" s="7"/>
+    </row>
+    <row r="63">
+      <c r="O63" t="s">
+        <v>148</v>
+      </c>
+      <c r="P63" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" s="7" t="n">
+        <v>11733980.3901111</v>
+      </c>
+      <c r="X63" s="7" t="n">
+        <v>15298726.7694531</v>
+      </c>
+      <c r="Y63" s="7" t="n">
+        <v>6953938.37410235</v>
+      </c>
+      <c r="Z63" s="7" t="n">
+        <v>103840632.148516</v>
+      </c>
+      <c r="AA63" s="7" t="n">
+        <v>11833313.1162439</v>
+      </c>
+      <c r="AB63" s="7" t="n">
+        <v>40308795.1161104</v>
+      </c>
+      <c r="AC63" s="7" t="n">
+        <v>54875880.8165033</v>
+      </c>
+      <c r="AD63" s="7" t="n">
+        <v>-198270.434616756</v>
+      </c>
+      <c r="AE63" s="7" t="n">
+        <v>11657245.1938991</v>
+      </c>
+      <c r="AF63" s="7" t="n">
+        <v>12922180.4751565</v>
+      </c>
+      <c r="AG63" s="7" t="n">
+        <v>13755544.1638961</v>
+      </c>
+      <c r="AH63" s="7" t="n">
+        <v>283729.213114725</v>
+      </c>
+      <c r="AI63" s="7" t="n">
+        <v>-71282.9241732546</v>
+      </c>
+      <c r="AJ63" s="7" t="n">
+        <v>-1268446.03628745</v>
+      </c>
+      <c r="AK63" s="7"/>
+      <c r="AL63" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="7" t="n">
+        <v>356140979.125</v>
+      </c>
+      <c r="AN63" s="7" t="n">
+        <v>179081185.399969</v>
+      </c>
+      <c r="AO63" s="7"/>
+    </row>
+    <row r="64">
+      <c r="O64" t="s">
+        <v>149</v>
+      </c>
+      <c r="P64" t="n">
+        <v>152</v>
+      </c>
+      <c r="Q64" s="7" t="n">
+        <v>20938278.0295597</v>
+      </c>
+      <c r="R64" s="7" t="n">
+        <v>28168444.5486056</v>
+      </c>
+      <c r="S64" s="7" t="n">
+        <v>21931076.7763374</v>
+      </c>
+      <c r="T64" s="7" t="n">
+        <v>17591931.8562902</v>
+      </c>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7"/>
+      <c r="AH64" s="7"/>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="7"/>
+      <c r="AK64" s="7"/>
+      <c r="AL64" s="7"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+      <c r="AO64" s="7"/>
+    </row>
+    <row r="65">
+      <c r="O65" t="s">
+        <v>150</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1830</v>
+      </c>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7" t="n">
+        <v>121412.804440268</v>
+      </c>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7" t="n">
+        <v>4282243.84961219</v>
+      </c>
+      <c r="Z65" s="7" t="n">
+        <v>36347511.8469377</v>
+      </c>
+      <c r="AA65" s="7" t="n">
+        <v>66159775.1433639</v>
+      </c>
+      <c r="AB65" s="7" t="n">
+        <v>91593642.502563</v>
+      </c>
+      <c r="AC65" s="7" t="n">
+        <v>54074562.4740971</v>
+      </c>
+      <c r="AD65" s="7" t="n">
+        <v>433463.203896466</v>
+      </c>
+      <c r="AE65" s="7" t="n">
+        <v>-5332828.48910266</v>
+      </c>
+      <c r="AF65" s="7" t="n">
+        <v>-607581.527074847</v>
+      </c>
+      <c r="AG65" s="7" t="n">
+        <v>-952452.244312898</v>
+      </c>
+      <c r="AH65" s="7" t="n">
+        <v>-2518938.91330523</v>
+      </c>
+      <c r="AI65" s="7"/>
+      <c r="AJ65" s="7"/>
+      <c r="AK65" s="7"/>
+      <c r="AL65" s="7"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+      <c r="AO65" s="7"/>
+    </row>
+    <row r="66">
+      <c r="O66" t="s">
+        <v>81</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1922</v>
+      </c>
+      <c r="Q66" s="7" t="n">
+        <v>690552658.363074</v>
+      </c>
+      <c r="R66" s="7" t="n">
+        <v>895241702.372441</v>
+      </c>
+      <c r="S66" s="7" t="n">
+        <v>1197160979.0429</v>
+      </c>
+      <c r="T66" s="7" t="n">
+        <v>1119858397.2617</v>
+      </c>
+      <c r="U66" s="7" t="n">
+        <v>909958821.366004</v>
+      </c>
+      <c r="V66" s="7" t="n">
+        <v>921066396.028761</v>
+      </c>
+      <c r="W66" s="7" t="n">
+        <v>1106237781.8312</v>
+      </c>
+      <c r="X66" s="7" t="n">
+        <v>789982214.340274</v>
+      </c>
+      <c r="Y66" s="7" t="n">
+        <v>538016246.798891</v>
+      </c>
+      <c r="Z66" s="7" t="n">
+        <v>549955525.121219</v>
+      </c>
+      <c r="AA66" s="7" t="n">
+        <v>375738228.178271</v>
+      </c>
+      <c r="AB66" s="7" t="n">
+        <v>188989674.478016</v>
+      </c>
+      <c r="AC66" s="7" t="n">
+        <v>68741460.0098279</v>
+      </c>
+      <c r="AD66" s="7" t="n">
+        <v>33605565.4797484</v>
+      </c>
+      <c r="AE66" s="7" t="n">
+        <v>-8171821.99782364</v>
+      </c>
+      <c r="AF66" s="7" t="n">
+        <v>-640784.556062817</v>
+      </c>
+      <c r="AG66" s="7" t="n">
+        <v>-1263803.34243011</v>
+      </c>
+      <c r="AH66" s="7" t="n">
+        <v>-1948451.63379081</v>
+      </c>
+      <c r="AI66" s="7" t="n">
+        <v>-6847131.82897433</v>
+      </c>
+      <c r="AJ66" s="7" t="n">
+        <v>-709718.839827428</v>
+      </c>
+      <c r="AK66" s="7" t="n">
+        <v>-857659.119302521</v>
+      </c>
+      <c r="AL66" s="7"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+      <c r="AO66" s="7"/>
+    </row>
+    <row r="67">
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="7" t="n">
+        <v>71935167.6203862</v>
+      </c>
+      <c r="S67" s="7" t="n">
+        <v>41397818.8380462</v>
+      </c>
+      <c r="T67" s="7" t="n">
+        <v>75365670.3043614</v>
+      </c>
+      <c r="U67" s="7" t="n">
+        <v>134418979.046251</v>
+      </c>
+      <c r="V67" s="7" t="n">
+        <v>114331305.643785</v>
+      </c>
+      <c r="W67" s="7" t="n">
+        <v>54419788.9200964</v>
+      </c>
+      <c r="X67" s="7" t="n">
+        <v>79431788.5988949</v>
+      </c>
+      <c r="Y67" s="7" t="n">
+        <v>592441278.85982</v>
+      </c>
+      <c r="Z67" s="7" t="n">
+        <v>1045113613.00688</v>
+      </c>
+      <c r="AA67" s="7" t="n">
+        <v>716806912.74655</v>
+      </c>
+      <c r="AB67" s="7" t="n">
+        <v>533642922.747148</v>
+      </c>
+      <c r="AC67" s="7" t="n">
+        <v>896771540.109896</v>
+      </c>
+      <c r="AD67" s="7" t="n">
+        <v>98124542.3943036</v>
+      </c>
+      <c r="AE67" s="7" t="n">
+        <v>92330371.1556243</v>
+      </c>
+      <c r="AF67" s="7" t="n">
+        <v>73314687.7668141</v>
+      </c>
+      <c r="AG67" s="7" t="n">
+        <v>58430351.0281265</v>
+      </c>
+      <c r="AH67" s="7" t="n">
+        <v>41789722.3947888</v>
+      </c>
+      <c r="AI67" s="7" t="n">
+        <v>156885957.941945</v>
+      </c>
+      <c r="AJ67" s="7" t="n">
+        <v>230796747.946451</v>
+      </c>
+      <c r="AK67" s="7" t="n">
+        <v>262964794.656281</v>
+      </c>
+      <c r="AL67" s="7" t="n">
+        <v>802757744.323426</v>
+      </c>
+      <c r="AM67" s="7" t="n">
+        <v>1504968056.2708</v>
+      </c>
+      <c r="AN67" s="7" t="n">
+        <v>578759062.351869</v>
+      </c>
+      <c r="AO67" s="7"/>
+    </row>
+    <row r="68">
+      <c r="P68" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="7"/>
+      <c r="AH68" s="7"/>
+      <c r="AI68" s="7"/>
+      <c r="AJ68" s="7"/>
+      <c r="AK68" s="7"/>
+      <c r="AL68" s="7"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+      <c r="AO68" s="7"/>
+    </row>
+    <row r="69">
+      <c r="P69" t="str">
+        <f>Sum(A2:A67)</f>
+      </c>
+    </row>
+    <row r="70">
+      <c r="P70" t="str">
+        <f>Sum(B2:B67)</f>
+      </c>
+    </row>
+    <row r="71">
+      <c r="P71" t="str">
+        <f>Sum(C2:C67)</f>
+      </c>
+    </row>
+    <row r="72">
+      <c r="P72" t="str">
+        <f>Sum(D2:D67)</f>
+      </c>
+    </row>
+    <row r="73">
+      <c r="P73" t="str">
+        <f>Sum(E2:E67)</f>
+      </c>
+    </row>
+    <row r="74">
+      <c r="P74" t="str">
+        <f>Sum(F2:F67)</f>
+      </c>
+    </row>
+    <row r="75">
+      <c r="P75" t="str">
+        <f>Sum(G2:G67)</f>
+      </c>
+    </row>
+    <row r="76">
+      <c r="P76" t="str">
+        <f>Sum(H2:H67)</f>
+      </c>
+    </row>
+    <row r="77">
+      <c r="P77" t="str">
+        <f>Sum(I2:I67)</f>
+      </c>
+    </row>
+    <row r="78">
+      <c r="P78" t="str">
+        <f>Sum(J2:J67)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -507,14 +507,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -553,7 +553,7 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -561,7 +561,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1913,11 +1913,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>38</v>
       </c>
@@ -2028,624 +2037,787 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>40</v>
       </c>
       <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="10" t="n">
         <v>470217000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="10" t="n">
         <v>613189000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="10" t="n">
         <v>376708088</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="10" t="n">
         <v>643377657</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="10" t="n">
         <v>700881163</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="10" t="n">
         <v>502622601</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="10" t="n">
         <v>545411311</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="10" t="n">
         <v>398478349</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="10" t="n">
         <v>392324372</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="10" t="n">
         <v>295327627</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="10" t="n">
         <v>131314101</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="10" t="n">
         <v>84352536</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="10" t="n">
         <v>96138168</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="10" t="n">
         <v>174405665</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="10" t="n">
         <v>96587514</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="10" t="n">
         <v>144979633</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="10" t="n">
         <v>166773973</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="10" t="n">
         <v>86553592.6094</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="10" t="n">
         <v>45095176.8403</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="10" t="n">
         <v>32809287.8229</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="10" t="n">
         <v>25641488.1585</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="10" t="n">
         <v>29636707.579</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="10" t="n">
         <v>14629241.4632</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="10" t="n">
         <v>9385648.27</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="10" t="n">
         <v>4758025.45</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="10" t="n">
         <v>12418377.9126</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="10" t="n">
         <v>172460226.4852</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="10" t="n">
         <v>21529588.8</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="10" t="n">
         <v>126058246.4938</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="10" t="n">
         <v>190075388.7949</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="10" t="n">
         <v>264415210.0119</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="10" t="n">
         <v>116836394.2881</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="10" t="n">
         <v>119472291.0158</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="10" t="n">
         <v>18242736.165</v>
       </c>
+      <c r="AW2" s="10"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>41</v>
       </c>
       <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="10" t="n">
         <v>870175000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="10" t="n">
         <v>2804638000</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="10" t="n">
         <v>2013448289</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="10" t="n">
         <v>2821403783</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="10" t="n">
         <v>2265470215</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="10" t="n">
         <v>1981619408</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="10" t="n">
         <v>2100722472</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="10" t="n">
         <v>2279440437</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="10" t="n">
         <v>2121439195</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="10" t="n">
         <v>1760865299</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="10" t="n">
         <v>1319455234</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="10" t="n">
         <v>1464052245.3999</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="10" t="n">
         <v>2047875021</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="10" t="n">
         <v>1949960627</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="10" t="n">
         <v>1831998615</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="10" t="n">
         <v>1694056260</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="10" t="n">
         <v>2353920665.9137</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="10" t="n">
         <v>1980359355.5273</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="10" t="n">
         <v>2544567839.1769</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="10" t="n">
         <v>3759884620.3159</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="10" t="n">
         <v>4313422164.5704</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="10" t="n">
         <v>4545040507.6844</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="10" t="n">
         <v>3738191265.0331</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="10" t="n">
         <v>2727496060.8426</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="10" t="n">
         <v>2209126824.8555</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="10" t="n">
         <v>4427725617.9691</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="10" t="n">
         <v>2904503808.9982</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="10" t="n">
         <v>2737794939.2262</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="10" t="n">
         <v>4670383470.6385</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="10" t="n">
         <v>5400717299.9625</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="10" t="n">
         <v>5903190043.2429</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="10" t="n">
         <v>2424348269.0006</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="10" t="n">
         <v>3297017055.74</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="10" t="n">
         <v>1364573989.3057</v>
       </c>
+      <c r="AW3" s="10"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>42</v>
       </c>
       <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="O4"/>
-      <c r="P4" t="n">
+      <c r="O4" s="10"/>
+      <c r="P4" s="10" t="n">
         <v>1646000</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="10" t="n">
         <v>4381869</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="10" t="n">
         <v>1740006</v>
       </c>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4" t="n">
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10" t="n">
         <v>515860</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" s="10" t="n">
         <v>1967241</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="10" t="n">
         <v>2284529</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="10" t="n">
         <v>39045</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4" t="n">
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10" t="n">
         <v>18069560.821</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="10" t="n">
         <v>34765493.9195</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="10" t="n">
         <v>61753314.1957</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="10" t="n">
         <v>42583975.1672</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="10" t="n">
         <v>15244269.02</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="10" t="n">
         <v>19458021.21</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="10" t="n">
         <v>19904780.1504</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="10" t="n">
         <v>20195001.0522</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="10" t="n">
         <v>25436188.194</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="10" t="n">
         <v>82680492.6903</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="10" t="n">
         <v>63555237.6695</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="10" t="n">
         <v>8978308.1108</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="10" t="n">
         <v>-67114.7813</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="10" t="n">
         <v>-273230</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="10" t="n">
         <v>0</v>
       </c>
+      <c r="AW4" s="10"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>44</v>
       </c>
       <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5" t="n">
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10" t="n">
         <v>343747860</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="10" t="n">
         <v>251594273</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="10" t="n">
         <v>300305090</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="10" t="n">
         <v>388928264</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="10" t="n">
         <v>552081489</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="10" t="n">
         <v>925862742</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="10" t="n">
         <v>1373879916</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="10" t="n">
         <v>1673010902</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="10" t="n">
         <v>2485964870.8281</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="10" t="n">
         <v>2671495105.0938</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="10" t="n">
         <v>3382922949.586</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="10" t="n">
         <v>3841746302.1563</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="10" t="n">
         <v>3492627123.4842</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="10" t="n">
         <v>4929029582.7202</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="10" t="n">
         <v>5760262871.0691</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="10" t="n">
         <v>5673422750.5378</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="10" t="n">
         <v>5356951767.0357</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="10" t="n">
         <v>5382146532.3794</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="10" t="n">
         <v>6877002433.8232</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="10" t="n">
         <v>7703008831.9635</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="10" t="n">
         <v>6050847486.8789</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="10" t="n">
         <v>4688499792.4277</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="10" t="n">
         <v>6589081606.021</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="10" t="n">
         <v>5413263859.5578</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="10" t="n">
         <v>8292286174.1145</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="10" t="n">
         <v>8812437899.8142</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="10" t="n">
         <v>12327236260.2732</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="10" t="n">
         <v>8816866025.2676</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="10" t="n">
         <v>9841067323.8948</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="10" t="n">
         <v>4777405017.3465</v>
       </c>
+      <c r="AW5" s="10"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>45</v>
       </c>
       <c r="N6" t="s">
         <v>45</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="10" t="n">
         <v>1050291000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="10" t="n">
         <v>1089935283</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="10" t="n">
         <v>631694375</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="10" t="n">
         <v>869349250</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="10" t="n">
         <v>979194419</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="10" t="n">
         <v>750161236</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="10" t="n">
         <v>767046300</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="10" t="n">
         <v>943164702</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="10" t="n">
         <v>535512797</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="10" t="n">
         <v>680139218</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="10" t="n">
         <v>174884006</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="10" t="n">
         <v>140908592</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="10" t="n">
         <v>94328356</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="10" t="n">
         <v>240531682</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="10" t="n">
         <v>681116370</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="10" t="n">
         <v>811706701</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="10" t="n">
         <v>749900016.9308</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="10" t="n">
         <v>1312275233.375</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="10" t="n">
         <v>412560981.8175</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="10" t="n">
         <v>1015779320.4784</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="10" t="n">
         <v>842104342.5351</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="10" t="n">
         <v>904761208.499</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="10" t="n">
         <v>545958618.4628</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="10" t="n">
         <v>358585745.9401</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="10" t="n">
         <v>255807882.56</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="10" t="n">
         <v>238984713.7822</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="10" t="n">
         <v>303524608.2889</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="10" t="n">
         <v>439477681.4112</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="10" t="n">
         <v>262401302.4723</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="10" t="n">
         <v>369485543.18</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="10" t="n">
         <v>868653871.1922</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="10" t="n">
         <v>741161034.1095</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="10" t="n">
         <v>555417316.8903</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="10" t="n">
         <v>251495995.4531</v>
       </c>
+      <c r="AW6" s="10"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
       <c r="M7" t="s">
         <v>43</v>
       </c>
       <c r="N7" t="s">
         <v>43</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="10" t="n">
         <v>644651000</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="10" t="n">
         <v>696607000</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="10" t="n">
         <v>892321971</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="10" t="n">
         <v>655548015</v>
       </c>
-      <c r="S7"/>
-      <c r="T7" t="n">
+      <c r="S7" s="10"/>
+      <c r="T7" s="10" t="n">
         <v>358889</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" s="10" t="n">
         <v>2139723</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7" s="10" t="n">
         <v>2448709</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7" s="10" t="n">
         <v>1345350</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7" s="10" t="n">
         <v>3348065</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7" s="10" t="n">
         <v>990000</v>
       </c>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7" t="n">
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10" t="n">
         <v>218798</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="10" t="n">
         <v>6157</v>
       </c>
-      <c r="AF7"/>
-      <c r="AG7" t="n">
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10" t="n">
         <v>-745933</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="10" t="n">
         <v>-295786.1964</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="10" t="n">
         <v>-30228499.5707</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="10" t="n">
         <v>-13007394.6923</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="10" t="n">
         <v>-10944134.9533</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="10" t="n">
         <v>-5783369.5938</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="10" t="n">
         <v>-23540503.5603</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="10" t="n">
         <v>-8146830.669</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="10" t="n">
         <v>-3923592.7453</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="10" t="n">
         <v>-4292122.8531</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="10" t="n">
         <v>-6766013.5279</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="10" t="n">
         <v>-7190592.4972</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="10" t="n">
         <v>-3421075.3877</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="10" t="n">
         <v>-1604203.0264</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="10" t="n">
         <v>4589772.1654</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="10" t="n">
         <v>-952017.4502</v>
       </c>
+      <c r="AW7" s="10"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" t="s">
+        <v>152</v>
+      </c>
+      <c r="O8" s="10" t="str">
+        <f>Sum(O2:O7)</f>
+      </c>
+      <c r="P8" s="10" t="str">
+        <f>Sum(P2:P7)</f>
+      </c>
+      <c r="Q8" s="10" t="str">
+        <f>Sum(Q2:Q7)</f>
+      </c>
+      <c r="R8" s="10" t="str">
+        <f>Sum(R2:R7)</f>
+      </c>
+      <c r="S8" s="10" t="str">
+        <f>Sum(S2:S7)</f>
+      </c>
+      <c r="T8" s="10" t="str">
+        <f>Sum(T2:T7)</f>
+      </c>
+      <c r="U8" s="10" t="str">
+        <f>Sum(U2:U7)</f>
+      </c>
+      <c r="V8" s="10" t="str">
+        <f>Sum(V2:V7)</f>
+      </c>
+      <c r="W8" s="10" t="str">
+        <f>Sum(W2:W7)</f>
+      </c>
+      <c r="X8" s="10" t="str">
+        <f>Sum(X2:X7)</f>
+      </c>
+      <c r="Y8" s="10" t="str">
+        <f>Sum(Y2:Y7)</f>
+      </c>
+      <c r="Z8" s="10" t="str">
+        <f>Sum(Z2:Z7)</f>
+      </c>
+      <c r="AA8" s="10" t="str">
+        <f>Sum(AA2:AA7)</f>
+      </c>
+      <c r="AB8" s="10" t="str">
+        <f>Sum(AB2:AB7)</f>
+      </c>
+      <c r="AC8" s="10" t="str">
+        <f>Sum(AC2:AC7)</f>
+      </c>
+      <c r="AD8" s="10" t="str">
+        <f>Sum(AD2:AD7)</f>
+      </c>
+      <c r="AE8" s="10" t="str">
+        <f>Sum(AE2:AE7)</f>
+      </c>
+      <c r="AF8" s="10" t="str">
+        <f>Sum(AF2:AF7)</f>
+      </c>
+      <c r="AG8" s="10" t="str">
+        <f>Sum(AG2:AG7)</f>
+      </c>
+      <c r="AH8" s="10" t="str">
+        <f>Sum(AH2:AH7)</f>
+      </c>
+      <c r="AI8" s="10" t="str">
+        <f>Sum(AI2:AI7)</f>
+      </c>
+      <c r="AJ8" s="10" t="str">
+        <f>Sum(AJ2:AJ7)</f>
+      </c>
+      <c r="AK8" s="10" t="str">
+        <f>Sum(AK2:AK7)</f>
+      </c>
+      <c r="AL8" s="10" t="str">
+        <f>Sum(AL2:AL7)</f>
+      </c>
+      <c r="AM8" s="10" t="str">
+        <f>Sum(AM2:AM7)</f>
+      </c>
+      <c r="AN8" s="10" t="str">
+        <f>Sum(AN2:AN7)</f>
+      </c>
+      <c r="AO8" s="10" t="str">
+        <f>Sum(AO2:AO7)</f>
+      </c>
+      <c r="AP8" s="10" t="str">
+        <f>Sum(AP2:AP7)</f>
+      </c>
+      <c r="AQ8" s="10" t="str">
+        <f>Sum(AQ2:AQ7)</f>
+      </c>
+      <c r="AR8" s="10" t="str">
+        <f>Sum(AR2:AR7)</f>
+      </c>
+      <c r="AS8" s="10" t="str">
+        <f>Sum(AS2:AS7)</f>
+      </c>
+      <c r="AT8" s="10" t="str">
+        <f>Sum(AT2:AT7)</f>
+      </c>
+      <c r="AU8" s="10" t="str">
+        <f>Sum(AU2:AU7)</f>
+      </c>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
       <c r="M11" t="s">
         <v>38</v>
       </c>
@@ -2756,622 +2928,707 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
       <c r="M12" t="s">
         <v>40</v>
       </c>
       <c r="N12" t="s">
         <v>40</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="10" t="n">
         <v>934571130.627386</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="10" t="n">
         <v>1176758470.48753</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="10" t="n">
         <v>705305523.011573</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="10" t="n">
         <v>1176939982.65832</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="10" t="n">
         <v>1254790514.8722</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="10" t="n">
         <v>881181458.043662</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="10" t="n">
         <v>938557617.224607</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="10" t="n">
         <v>673742997.656689</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="10" t="n">
         <v>655157249.146672</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="10" t="n">
         <v>487106851.15807</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="10" t="n">
         <v>212168138.944124</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="10" t="n">
         <v>133064197.224218</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="10" t="n">
         <v>149299290.864394</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" s="10" t="n">
         <v>265766038.285719</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" s="10" t="n">
         <v>143671930.484141</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12" s="10" t="n">
         <v>209300529.473501</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12" s="10" t="n">
         <v>233172492.606925</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" s="10" t="n">
         <v>117783595.379774</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" s="10" t="n">
         <v>60112581.9535597</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12" s="10" t="n">
         <v>43295332.894055</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12" s="10" t="n">
         <v>33544905.4906667</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12" s="10" t="n">
         <v>38005606.7588175</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12" s="10" t="n">
         <v>18422603.7710927</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12" s="10" t="n">
         <v>11606939.8616877</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12" s="10" t="n">
         <v>5772429.14299236</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12" s="10" t="n">
         <v>14895193.1742932</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12" s="10" t="n">
         <v>205156965.172839</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12" s="10" t="n">
         <v>25162144.9553245</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12" s="10" t="n">
         <v>143947361.074787</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12" s="10" t="n">
         <v>212879702.197837</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" s="10" t="n">
         <v>292239840.398192</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12" s="10" t="n">
         <v>124931707.047949</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12" s="10" t="n">
         <v>119472291.0158</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12" s="10" t="n">
         <v>17399892.1906431</v>
       </c>
+      <c r="AW12" s="10"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>41</v>
       </c>
       <c r="N13" t="s">
         <v>41</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="10" t="n">
         <v>1729500280.92069</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="10" t="n">
         <v>5382323432.33688</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="10" t="n">
         <v>3769752346.09219</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="10" t="n">
         <v>5161234437.20418</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="10" t="n">
         <v>4055880921.86675</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="10" t="n">
         <v>3474110148.95659</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="10" t="n">
         <v>3614976510.39823</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="10" t="n">
         <v>3854053894.91878</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="10" t="n">
         <v>3542671234.37371</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" s="10" t="n">
         <v>2904332248.97515</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="10" t="n">
         <v>2131883470.89901</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" s="10" t="n">
         <v>2309508948.59227</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" s="10" t="n">
         <v>3180279953.05887</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13" s="10" t="n">
         <v>2971424756.47753</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13" s="10" t="n">
         <v>2725060069.99334</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13" s="10" t="n">
         <v>2445632292.19858</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" s="10" t="n">
         <v>3291098360.23425</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" s="10" t="n">
         <v>2694906566.0464</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" s="10" t="n">
         <v>3391949061.66147</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13" s="10" t="n">
         <v>4961566284.47736</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13" s="10" t="n">
         <v>5642938426.87504</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13" s="10" t="n">
         <v>5828482188.09392</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13" s="10" t="n">
         <v>4707504259.15799</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13" s="10" t="n">
         <v>3373009710.19555</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13" s="10" t="n">
         <v>2680109259.2647</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" s="10" t="n">
         <v>5310824720.15125</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13" s="10" t="n">
         <v>3455168759.37861</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13" s="10" t="n">
         <v>3199726374.65159</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13" s="10" t="n">
         <v>5333164584.66511</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13" s="10" t="n">
         <v>6048668887.43449</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" s="10" t="n">
         <v>6524387594.79783</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13" s="10" t="n">
         <v>2592325529.81853</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13" s="10" t="n">
         <v>3297017055.74</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13" s="10" t="n">
         <v>1301528459.61937</v>
       </c>
+      <c r="AW13" s="10"/>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>42</v>
       </c>
       <c r="N14" t="s">
         <v>43</v>
       </c>
-      <c r="O14"/>
-      <c r="P14" t="n">
+      <c r="O14" s="10"/>
+      <c r="P14" s="10" t="n">
         <v>3158804.94011223</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="10" t="n">
         <v>8204114.81797863</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="10" t="n">
         <v>3183017.95094102</v>
       </c>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14" t="n">
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10" t="n">
         <v>833490.503473925</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="10" t="n">
         <v>3103277.70597873</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="10" t="n">
         <v>3547795.49844494</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="10" t="n">
         <v>59498.2678163917</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-      <c r="AH14" t="n">
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10" t="n">
         <v>23844700.7816038</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="10" t="n">
         <v>45481182.7089444</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="10" t="n">
         <v>79191393.6161551</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="10" t="n">
         <v>53625999.9178231</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="10" t="n">
         <v>18852114.2770811</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="10" t="n">
         <v>23606441.3437653</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="10" t="n">
         <v>23874740.1245716</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="10" t="n">
         <v>24023771.8108714</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="10" t="n">
         <v>29727881.0289373</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="10" t="n">
         <v>94413805.2540442</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="10" t="n">
         <v>71180283.5389437</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="10" t="n">
         <v>9923102.87001986</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="10" t="n">
         <v>-71765.0030801471</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="10" t="n">
         <v>-273230</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="10" t="n">
         <v>0</v>
       </c>
+      <c r="AW14" s="10"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>44</v>
       </c>
       <c r="N15" t="s">
         <v>43</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15" t="n">
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10" t="n">
         <v>615413249.785993</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="10" t="n">
         <v>441086827.127328</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="10" t="n">
         <v>516772615.50379</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="10" t="n">
         <v>657595814.473655</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="10" t="n">
         <v>921941677.480181</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="10" t="n">
         <v>1527097513.50217</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="10" t="n">
         <v>2219819065.05554</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" s="10" t="n">
         <v>2639136452.5424</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="10" t="n">
         <v>3860618524.87589</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="10" t="n">
         <v>4070926654.7074</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="10" t="n">
         <v>5032027958.04565</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="10" t="n">
         <v>5546155128.86681</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="10" t="n">
         <v>4883163466.57621</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="10" t="n">
         <v>6707506973.23454</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="10" t="n">
         <v>7678521255.99703</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="10" t="n">
         <v>7486682672.27044</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="10" t="n">
         <v>7008112775.3774</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="10" t="n">
         <v>6901972632.50949</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="10" t="n">
         <v>8660209163.26119</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="10" t="n">
         <v>9526071901.97308</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="10" t="n">
         <v>7340878845.66945</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="10" t="n">
         <v>5623609669.26176</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="10" t="n">
         <v>7838305753.83973</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="10" t="n">
         <v>6326610841.52302</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="10" t="n">
         <v>9469056925.99361</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="10" t="n">
         <v>9869711000.68963</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="10" t="n">
         <v>13624441487.6547</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="10" t="n">
         <v>9427765466.92812</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="10" t="n">
         <v>9841067323.8948</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="10" t="n">
         <v>4556681163.45126</v>
       </c>
+      <c r="AW15" s="10"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
       <c r="M16" t="s">
         <v>45</v>
       </c>
       <c r="N16" t="s">
         <v>45</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="10" t="n">
         <v>2087486516.56101</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="10" t="n">
         <v>2091672512.9666</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="10" t="n">
         <v>1182712943.35163</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="10" t="n">
         <v>1590313061.21192</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16" s="10" t="n">
         <v>1753055915.95275</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" s="10" t="n">
         <v>1315158073.65438</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U16" s="10" t="n">
         <v>1319952727.61945</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V16" s="10" t="n">
         <v>1594692949.32623</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W16" s="10" t="n">
         <v>894272994.504048</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X16" s="10" t="n">
         <v>1121806571.88937</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y16" s="10" t="n">
         <v>282565343.718212</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z16" s="10" t="n">
         <v>222280082.681508</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="10" t="n">
         <v>146488714.650815</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="10" t="n">
         <v>366531397.97575</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="10" t="n">
         <v>1013146520.80444</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="10" t="n">
         <v>1171824198.89619</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="10" t="n">
         <v>1048461297.69739</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="10" t="n">
         <v>1785766372.65953</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="10" t="n">
         <v>549950295.530996</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="10" t="n">
         <v>1340428480.63022</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="10" t="n">
         <v>1101664240.74165</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="10" t="n">
         <v>1160250294.6451</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="10" t="n">
         <v>687525688.099024</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="10" t="n">
         <v>443451860.61241</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="10" t="n">
         <v>310345728.877199</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="10" t="n">
         <v>286649633.514313</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="10" t="n">
         <v>361069846.427282</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="10" t="n">
         <v>513628069.120323</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="10" t="n">
         <v>299639064.353734</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="10" t="n">
         <v>413814607.442092</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="10" t="n">
         <v>960063033.692562</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="10" t="n">
         <v>792514299.614551</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="10" t="n">
         <v>555417316.8903</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="10" t="n">
         <v>239876472.897639</v>
       </c>
+      <c r="AW16" s="10"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
       <c r="M17" t="s">
         <v>43</v>
       </c>
       <c r="N17" t="s">
         <v>43</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="10" t="n">
         <v>1281264211.90658</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" s="10" t="n">
         <v>1336844248.4306</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="10" t="n">
         <v>1670682511.20447</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="10" t="n">
         <v>1199203393.23471</v>
       </c>
-      <c r="S17"/>
-      <c r="T17" t="n">
+      <c r="S17" s="10"/>
+      <c r="T17" s="10" t="n">
         <v>629192.423234927</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U17" s="10" t="n">
         <v>3682089.60815022</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V17" s="10" t="n">
         <v>4140251.39932738</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W17" s="10" t="n">
         <v>2246650.64942607</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X17" s="10" t="n">
         <v>5522224.30454345</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y17" s="10" t="n">
         <v>1599572.74927148</v>
       </c>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17" t="n">
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10" t="n">
         <v>315868.762391908</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="10" t="n">
         <v>8608.31586101771</v>
       </c>
-      <c r="AF17"/>
-      <c r="AG17" t="n">
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10" t="n">
         <v>-994340.453595754</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="10" t="n">
         <v>-390321.237929034</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="10" t="n">
         <v>-39545760.9541141</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="10" t="n">
         <v>-16680460.416007</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="10" t="n">
         <v>-13781949.1440611</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="10" t="n">
         <v>-7152113.64650356</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="10" t="n">
         <v>-28559302.6393314</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="10" t="n">
         <v>-9771696.22530876</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="10" t="n">
         <v>-4667466.79280857</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="10" t="n">
         <v>-5016306.55369336</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="10" t="n">
         <v>-7726188.64237033</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="10" t="n">
         <v>-8053284.53691429</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="10" t="n">
         <v>-3781077.96917824</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="10" t="n">
         <v>-1715354.39586953</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="10" t="n">
         <v>4589772.1654</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="10" t="n">
         <v>-908032.701194905</v>
       </c>
+      <c r="AW17" s="10"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3525,89 +3782,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>188093593</v>
       </c>
-      <c r="AA2" s="10" t="n">
+      <c r="AA2" s="2" t="n">
         <v>265567420</v>
       </c>
-      <c r="AB2" s="10" t="n">
+      <c r="AB2" s="2" t="n">
         <v>305630976</v>
       </c>
-      <c r="AC2" s="10" t="n">
+      <c r="AC2" s="2" t="n">
         <v>470008161.0938</v>
       </c>
-      <c r="AD2" s="10" t="n">
+      <c r="AD2" s="2" t="n">
         <v>508187397.6484</v>
       </c>
-      <c r="AE2" s="10" t="n">
+      <c r="AE2" s="2" t="n">
         <v>412587169.4375</v>
       </c>
-      <c r="AF2" s="10" t="n">
+      <c r="AF2" s="2" t="n">
         <v>588051577.1021</v>
       </c>
-      <c r="AG2" s="10" t="n">
+      <c r="AG2" s="2" t="n">
         <v>731847538.1334</v>
       </c>
-      <c r="AH2" s="10" t="n">
+      <c r="AH2" s="2" t="n">
         <v>1154677070.255</v>
       </c>
-      <c r="AI2" s="10" t="n">
+      <c r="AI2" s="2" t="n">
         <v>2478561502.3815</v>
       </c>
-      <c r="AJ2" s="10" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>3280943246.4082</v>
       </c>
-      <c r="AK2" s="10" t="n">
+      <c r="AK2" s="2" t="n">
         <v>3594937685.9658</v>
       </c>
-      <c r="AL2" s="10" t="n">
+      <c r="AL2" s="2" t="n">
         <v>2167938638.0338</v>
       </c>
-      <c r="AM2" s="10" t="n">
+      <c r="AM2" s="2" t="n">
         <v>1028884661.1787</v>
       </c>
-      <c r="AN2" s="10" t="n">
+      <c r="AN2" s="2" t="n">
         <v>1324720469.133</v>
       </c>
-      <c r="AO2" s="10" t="n">
+      <c r="AO2" s="2" t="n">
         <v>1999334816.8284</v>
       </c>
-      <c r="AP2" s="10" t="n">
+      <c r="AP2" s="2" t="n">
         <v>3124515545.3746</v>
       </c>
-      <c r="AQ2" s="10" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>737933973.7061</v>
       </c>
-      <c r="AR2" s="10" t="n">
+      <c r="AR2" s="2" t="n">
         <v>631329825.3753</v>
       </c>
-      <c r="AS2" s="10" t="n">
+      <c r="AS2" s="2" t="n">
         <v>383721696.5766</v>
       </c>
-      <c r="AT2" s="10" t="n">
+      <c r="AT2" s="2" t="n">
         <v>6550229032.8473</v>
       </c>
-      <c r="AU2" s="10" t="n">
+      <c r="AU2" s="2" t="n">
         <v>1379016621.5815</v>
       </c>
-      <c r="AV2" s="10" t="n">
+      <c r="AV2" s="2" t="n">
         <v>2231441789.9627</v>
       </c>
-      <c r="AW2" s="10" t="n">
+      <c r="AW2" s="2" t="n">
         <v>1172691161.9394</v>
       </c>
-      <c r="AX2" s="10"/>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3625,73 +3882,73 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>13712019</v>
       </c>
-      <c r="AA3" s="10" t="n">
+      <c r="AA3" s="2" t="n">
         <v>23550576</v>
       </c>
-      <c r="AB3" s="10" t="n">
+      <c r="AB3" s="2" t="n">
         <v>32894146</v>
       </c>
-      <c r="AC3" s="10" t="n">
+      <c r="AC3" s="2" t="n">
         <v>16542070</v>
       </c>
-      <c r="AD3" s="10" t="n">
+      <c r="AD3" s="2" t="n">
         <v>1103661</v>
       </c>
-      <c r="AE3" s="10" t="n">
+      <c r="AE3" s="2" t="n">
         <v>1393825</v>
       </c>
-      <c r="AF3" s="10" t="n">
+      <c r="AF3" s="2" t="n">
         <v>1919856</v>
       </c>
-      <c r="AG3" s="10" t="n">
+      <c r="AG3" s="2" t="n">
         <v>99989</v>
       </c>
-      <c r="AH3" s="10" t="n">
+      <c r="AH3" s="2" t="n">
         <v>21977974.25</v>
       </c>
-      <c r="AI3" s="10" t="n">
+      <c r="AI3" s="2" t="n">
         <v>384624.5938</v>
       </c>
-      <c r="AJ3" s="10" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>10348269</v>
       </c>
-      <c r="AK3" s="10" t="n">
+      <c r="AK3" s="2" t="n">
         <v>9849413.3302</v>
       </c>
-      <c r="AL3" s="10" t="n">
+      <c r="AL3" s="2" t="n">
         <v>2016281</v>
       </c>
-      <c r="AM3" s="10" t="n">
+      <c r="AM3" s="2" t="n">
         <v>3724361</v>
       </c>
-      <c r="AN3" s="10" t="n">
+      <c r="AN3" s="2" t="n">
         <v>-20.89</v>
       </c>
-      <c r="AO3" s="10" t="n">
+      <c r="AO3" s="2" t="n">
         <v>-22.54</v>
       </c>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3709,89 +3966,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>143413440</v>
       </c>
-      <c r="AA4" s="10" t="n">
+      <c r="AA4" s="2" t="n">
         <v>172688897</v>
       </c>
-      <c r="AB4" s="10" t="n">
+      <c r="AB4" s="2" t="n">
         <v>203213466.8281</v>
       </c>
-      <c r="AC4" s="10" t="n">
+      <c r="AC4" s="2" t="n">
         <v>244288284</v>
       </c>
-      <c r="AD4" s="10" t="n">
+      <c r="AD4" s="2" t="n">
         <v>247394625.5938</v>
       </c>
-      <c r="AE4" s="10" t="n">
+      <c r="AE4" s="2" t="n">
         <v>288277076</v>
       </c>
-      <c r="AF4" s="10" t="n">
+      <c r="AF4" s="2" t="n">
         <v>350559515.4688</v>
       </c>
-      <c r="AG4" s="10" t="n">
+      <c r="AG4" s="2" t="n">
         <v>249377755.7227</v>
       </c>
-      <c r="AH4" s="10" t="n">
+      <c r="AH4" s="2" t="n">
         <v>237464435.387</v>
       </c>
-      <c r="AI4" s="10" t="n">
+      <c r="AI4" s="2" t="n">
         <v>387724569.7587</v>
       </c>
-      <c r="AJ4" s="10" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>576049069.2408</v>
       </c>
-      <c r="AK4" s="10" t="n">
+      <c r="AK4" s="2" t="n">
         <v>501991794.0445</v>
       </c>
-      <c r="AL4" s="10" t="n">
+      <c r="AL4" s="2" t="n">
         <v>483992311.7919</v>
       </c>
-      <c r="AM4" s="10" t="n">
+      <c r="AM4" s="2" t="n">
         <v>399494367.0039</v>
       </c>
-      <c r="AN4" s="10" t="n">
+      <c r="AN4" s="2" t="n">
         <v>189869901.1531</v>
       </c>
-      <c r="AO4" s="10" t="n">
+      <c r="AO4" s="2" t="n">
         <v>313780993.3078</v>
       </c>
-      <c r="AP4" s="10" t="n">
+      <c r="AP4" s="2" t="n">
         <v>207934670.21</v>
       </c>
-      <c r="AQ4" s="10" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>285904918.207</v>
       </c>
-      <c r="AR4" s="10" t="n">
+      <c r="AR4" s="2" t="n">
         <v>8416343.4459</v>
       </c>
-      <c r="AS4" s="10" t="n">
+      <c r="AS4" s="2" t="n">
         <v>2014404.0337</v>
       </c>
-      <c r="AT4" s="10" t="n">
+      <c r="AT4" s="2" t="n">
         <v>-78349.0893</v>
       </c>
-      <c r="AU4" s="10" t="n">
+      <c r="AU4" s="2" t="n">
         <v>-412285.4971</v>
       </c>
-      <c r="AV4" s="10" t="n">
+      <c r="AV4" s="2" t="n">
         <v>-10049870.0288</v>
       </c>
-      <c r="AW4" s="10" t="n">
+      <c r="AW4" s="2" t="n">
         <v>-2210387.9844</v>
       </c>
-      <c r="AX4" s="10"/>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3809,89 +4066,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>36020375</v>
       </c>
-      <c r="AA5" s="10" t="n">
+      <c r="AA5" s="2" t="n">
         <v>185463455</v>
       </c>
-      <c r="AB5" s="10" t="n">
+      <c r="AB5" s="2" t="n">
         <v>264519018</v>
       </c>
-      <c r="AC5" s="10" t="n">
+      <c r="AC5" s="2" t="n">
         <v>135374880</v>
       </c>
-      <c r="AD5" s="10" t="n">
+      <c r="AD5" s="2" t="n">
         <v>39511440</v>
       </c>
-      <c r="AE5" s="10" t="n">
+      <c r="AE5" s="2" t="n">
         <v>37634913</v>
       </c>
-      <c r="AF5" s="10" t="n">
+      <c r="AF5" s="2" t="n">
         <v>111698152</v>
       </c>
-      <c r="AG5" s="10" t="n">
+      <c r="AG5" s="2" t="n">
         <v>135894401.1563</v>
       </c>
-      <c r="AH5" s="10" t="n">
+      <c r="AH5" s="2" t="n">
         <v>262231428.3676</v>
       </c>
-      <c r="AI5" s="10" t="n">
+      <c r="AI5" s="2" t="n">
         <v>417836167.9448</v>
       </c>
-      <c r="AJ5" s="10" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>1158868116.2352</v>
       </c>
-      <c r="AK5" s="10" t="n">
+      <c r="AK5" s="2" t="n">
         <v>1425188606.175</v>
       </c>
-      <c r="AL5" s="10" t="n">
+      <c r="AL5" s="2" t="n">
         <v>1477921988.3733</v>
       </c>
-      <c r="AM5" s="10" t="n">
+      <c r="AM5" s="2" t="n">
         <v>3940505912.5198</v>
       </c>
-      <c r="AN5" s="10" t="n">
+      <c r="AN5" s="2" t="n">
         <v>2191682732.22</v>
       </c>
-      <c r="AO5" s="10" t="n">
+      <c r="AO5" s="2" t="n">
         <v>3053677012.1736</v>
       </c>
-      <c r="AP5" s="10" t="n">
+      <c r="AP5" s="2" t="n">
         <v>2586325522.717</v>
       </c>
-      <c r="AQ5" s="10" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>1254779181.1651</v>
       </c>
-      <c r="AR5" s="10" t="n">
+      <c r="AR5" s="2" t="n">
         <v>7893031520.39</v>
       </c>
-      <c r="AS5" s="10" t="n">
+      <c r="AS5" s="2" t="n">
         <v>9543424182.8969</v>
       </c>
-      <c r="AT5" s="10" t="n">
+      <c r="AT5" s="2" t="n">
         <v>6406255060.8543</v>
       </c>
-      <c r="AU5" s="10" t="n">
+      <c r="AU5" s="2" t="n">
         <v>5937681464.8529</v>
       </c>
-      <c r="AV5" s="10" t="n">
+      <c r="AV5" s="2" t="n">
         <v>7209301651.7395</v>
       </c>
-      <c r="AW5" s="10" t="n">
+      <c r="AW5" s="2" t="n">
         <v>2886601818.471</v>
       </c>
-      <c r="AX5" s="10"/>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3909,89 +4166,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>2042760115</v>
       </c>
-      <c r="AA6" s="10" t="n">
+      <c r="AA6" s="2" t="n">
         <v>2090668841</v>
       </c>
-      <c r="AB6" s="10" t="n">
+      <c r="AB6" s="2" t="n">
         <v>2957552781</v>
       </c>
-      <c r="AC6" s="10" t="n">
+      <c r="AC6" s="2" t="n">
         <v>3226349708</v>
       </c>
-      <c r="AD6" s="10" t="n">
+      <c r="AD6" s="2" t="n">
         <v>3882135178.1563</v>
       </c>
-      <c r="AE6" s="10" t="n">
+      <c r="AE6" s="2" t="n">
         <v>4548786188.7188</v>
       </c>
-      <c r="AF6" s="10" t="n">
+      <c r="AF6" s="2" t="n">
         <v>4106603861.7383</v>
       </c>
-      <c r="AG6" s="10" t="n">
+      <c r="AG6" s="2" t="n">
         <v>4453760963.0368</v>
       </c>
-      <c r="AH6" s="10" t="n">
+      <c r="AH6" s="2" t="n">
         <v>2491178476.9149</v>
       </c>
-      <c r="AI6" s="10" t="n">
+      <c r="AI6" s="2" t="n">
         <v>3399241384.2067</v>
       </c>
-      <c r="AJ6" s="10" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>4137433215.6188</v>
       </c>
-      <c r="AK6" s="10" t="n">
+      <c r="AK6" s="2" t="n">
         <v>3707906717.6788</v>
       </c>
-      <c r="AL6" s="10" t="n">
+      <c r="AL6" s="2" t="n">
         <v>4081238872.4698</v>
       </c>
-      <c r="AM6" s="10" t="n">
+      <c r="AM6" s="2" t="n">
         <v>3462075641.7363</v>
       </c>
-      <c r="AN6" s="10" t="n">
+      <c r="AN6" s="2" t="n">
         <v>3760509665.3786</v>
       </c>
-      <c r="AO6" s="10" t="n">
+      <c r="AO6" s="2" t="n">
         <v>3360832180.317</v>
       </c>
-      <c r="AP6" s="10" t="n">
+      <c r="AP6" s="2" t="n">
         <v>2481339093.598</v>
       </c>
-      <c r="AQ6" s="10" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>3140121951.4034</v>
       </c>
-      <c r="AR6" s="10" t="n">
+      <c r="AR6" s="2" t="n">
         <v>3003174380.6131</v>
       </c>
-      <c r="AS6" s="10" t="n">
+      <c r="AS6" s="2" t="n">
         <v>3506229863.3735</v>
       </c>
-      <c r="AT6" s="10" t="n">
+      <c r="AT6" s="2" t="n">
         <v>4634773807.7049</v>
       </c>
-      <c r="AU6" s="10" t="n">
+      <c r="AU6" s="2" t="n">
         <v>3356247027.6463</v>
       </c>
-      <c r="AV6" s="10" t="n">
+      <c r="AV6" s="2" t="n">
         <v>3097662122.9688</v>
       </c>
-      <c r="AW6" s="10" t="n">
+      <c r="AW6" s="2" t="n">
         <v>1936596308.6438</v>
       </c>
-      <c r="AX6" s="10"/>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4009,89 +4266,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>122092079</v>
       </c>
-      <c r="AA7" s="10" t="n">
+      <c r="AA7" s="2" t="n">
         <v>613410860</v>
       </c>
-      <c r="AB7" s="10" t="n">
+      <c r="AB7" s="2" t="n">
         <v>929286575</v>
       </c>
-      <c r="AC7" s="10" t="n">
+      <c r="AC7" s="2" t="n">
         <v>891140071</v>
       </c>
-      <c r="AD7" s="10" t="n">
+      <c r="AD7" s="2" t="n">
         <v>1216032307</v>
       </c>
-      <c r="AE7" s="10" t="n">
+      <c r="AE7" s="2" t="n">
         <v>1070575766</v>
       </c>
-      <c r="AF7" s="10" t="n">
+      <c r="AF7" s="2" t="n">
         <v>1363131220</v>
       </c>
-      <c r="AG7" s="10" t="n">
+      <c r="AG7" s="2" t="n">
         <v>1063840951.9997</v>
       </c>
-      <c r="AH7" s="10" t="n">
+      <c r="AH7" s="2" t="n">
         <v>1135542368.3325</v>
       </c>
-      <c r="AI7" s="10" t="n">
+      <c r="AI7" s="2" t="n">
         <v>1598689132.2695</v>
       </c>
-      <c r="AJ7" s="10" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>1372080615.1315</v>
       </c>
-      <c r="AK7" s="10" t="n">
+      <c r="AK7" s="2" t="n">
         <v>1668436621.1011</v>
       </c>
-      <c r="AL7" s="10" t="n">
+      <c r="AL7" s="2" t="n">
         <v>2995119286.7718</v>
       </c>
-      <c r="AM7" s="10" t="n">
+      <c r="AM7" s="2" t="n">
         <v>1973287979.8903</v>
       </c>
-      <c r="AN7" s="10" t="n">
+      <c r="AN7" s="2" t="n">
         <v>1051781326.8202</v>
       </c>
-      <c r="AO7" s="10" t="n">
+      <c r="AO7" s="2" t="n">
         <v>653442719.9612</v>
       </c>
-      <c r="AP7" s="10" t="n">
+      <c r="AP7" s="2" t="n">
         <v>1585413796.8568</v>
       </c>
-      <c r="AQ7" s="10" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>3213161772.667</v>
       </c>
-      <c r="AR7" s="10" t="n">
+      <c r="AR7" s="2" t="n">
         <v>1891091603.0572</v>
       </c>
-      <c r="AS7" s="10" t="n">
+      <c r="AS7" s="2" t="n">
         <v>1393690630.0432</v>
       </c>
-      <c r="AT7" s="10" t="n">
+      <c r="AT7" s="2" t="n">
         <v>1777873065.1261</v>
       </c>
-      <c r="AU7" s="10" t="n">
+      <c r="AU7" s="2" t="n">
         <v>1425007576.2745</v>
       </c>
-      <c r="AV7" s="10" t="n">
+      <c r="AV7" s="2" t="n">
         <v>1288934835.0641</v>
       </c>
-      <c r="AW7" s="10" t="n">
+      <c r="AW7" s="2" t="n">
         <v>417086819.7503</v>
       </c>
-      <c r="AX7" s="10"/>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4109,67 +4366,67 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2" t="n">
         <v>8050613</v>
       </c>
-      <c r="AD8" s="10" t="n">
+      <c r="AD8" s="2" t="n">
         <v>69113097</v>
       </c>
-      <c r="AE8" s="10" t="n">
+      <c r="AE8" s="2" t="n">
         <v>117706104</v>
       </c>
-      <c r="AF8" s="10" t="n">
+      <c r="AF8" s="2" t="n">
         <v>236927162.5508</v>
       </c>
-      <c r="AG8" s="10" t="n">
+      <c r="AG8" s="2" t="n">
         <v>1670263655.6915</v>
       </c>
-      <c r="AH8" s="10" t="n">
+      <c r="AH8" s="2" t="n">
         <v>3334452868.81</v>
       </c>
-      <c r="AI8" s="10" t="n">
+      <c r="AI8" s="2" t="n">
         <v>2202198527.7097</v>
       </c>
-      <c r="AJ8" s="10" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>6934225.014</v>
       </c>
-      <c r="AK8" s="10" t="n">
+      <c r="AK8" s="2" t="n">
         <v>2076027.0686</v>
       </c>
-      <c r="AL8" s="10" t="n">
+      <c r="AL8" s="2" t="n">
         <v>-744085.4561</v>
       </c>
-      <c r="AM8" s="10" t="n">
+      <c r="AM8" s="2" t="n">
         <v>-1545901.82</v>
       </c>
-      <c r="AN8" s="10" t="n">
+      <c r="AN8" s="2" t="n">
         <v>-1396170.87</v>
       </c>
-      <c r="AO8" s="10" t="n">
+      <c r="AO8" s="2" t="n">
         <v>188650</v>
       </c>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -4185,109 +4442,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="10" t="n">
+      <c r="P9" s="2" t="n">
         <v>3035334000</v>
       </c>
-      <c r="Q9" s="10" t="n">
+      <c r="Q9" s="2" t="n">
         <v>5206015283</v>
       </c>
-      <c r="R9" s="10" t="n">
+      <c r="R9" s="2" t="n">
         <v>3918554592</v>
       </c>
-      <c r="S9" s="10" t="n">
+      <c r="S9" s="2" t="n">
         <v>4991418711</v>
       </c>
-      <c r="T9" s="10" t="n">
+      <c r="T9" s="2" t="n">
         <v>4289293657</v>
       </c>
-      <c r="U9" s="10" t="n">
+      <c r="U9" s="2" t="n">
         <v>3486356407</v>
       </c>
-      <c r="V9" s="10" t="n">
+      <c r="V9" s="2" t="n">
         <v>3715624896</v>
       </c>
-      <c r="W9" s="10" t="n">
+      <c r="W9" s="2" t="n">
         <v>4012460461</v>
       </c>
-      <c r="X9" s="10" t="n">
+      <c r="X9" s="2" t="n">
         <v>3602703203</v>
       </c>
-      <c r="Y9" s="10" t="n">
+      <c r="Y9" s="2" t="n">
         <v>3665542951</v>
       </c>
-      <c r="Z9" s="10" t="n">
+      <c r="Z9" s="2" t="n">
         <v>454947496</v>
       </c>
-      <c r="AA9" s="10" t="n">
+      <c r="AA9" s="2" t="n">
         <v>12941467.3999</v>
       </c>
-      <c r="AB9" s="10" t="n">
+      <c r="AB9" s="2" t="n">
         <v>33493982</v>
       </c>
-      <c r="AC9" s="10" t="n">
+      <c r="AC9" s="2" t="n">
         <v>44678337</v>
       </c>
-      <c r="AD9" s="10" t="n">
+      <c r="AD9" s="2" t="n">
         <v>29147742.1875</v>
       </c>
-      <c r="AE9" s="10" t="n">
+      <c r="AE9" s="2" t="n">
         <v>15746652</v>
       </c>
-      <c r="AF9" s="10" t="n">
+      <c r="AF9" s="2" t="n">
         <v>4336591.4687</v>
       </c>
-      <c r="AG9" s="10" t="n">
+      <c r="AG9" s="2" t="n">
         <v>3132509.4915</v>
       </c>
-      <c r="AH9" s="10" t="n">
+      <c r="AH9" s="2" t="n">
         <v>124216313.5868</v>
       </c>
-      <c r="AI9" s="10" t="n">
+      <c r="AI9" s="2" t="n">
         <v>15033844.9149</v>
       </c>
-      <c r="AJ9" s="10" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="10" t="n">
+      <c r="AK9" s="2" t="n">
         <v>-55989.7188</v>
       </c>
-      <c r="AL9" s="10" t="n">
+      <c r="AL9" s="2" t="n">
         <v>-61893.9883</v>
       </c>
-      <c r="AM9" s="10" t="n">
+      <c r="AM9" s="2" t="n">
         <v>1510164.9334</v>
       </c>
-      <c r="AN9" s="10" t="n">
+      <c r="AN9" s="2" t="n">
         <v>-710165.5508</v>
       </c>
-      <c r="AO9" s="10" t="n">
+      <c r="AO9" s="2" t="n">
         <v>-1869898.475</v>
       </c>
-      <c r="AP9" s="10" t="n">
+      <c r="AP9" s="2" t="n">
         <v>313029.3438</v>
       </c>
-      <c r="AQ9" s="10" t="n">
+      <c r="AQ9" s="2" t="n">
         <v>1308337.1875</v>
       </c>
-      <c r="AR9" s="10" t="n">
+      <c r="AR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="10" t="n">
+      <c r="AS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="10" t="n">
+      <c r="AT9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="10" t="n">
+      <c r="AU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="10" t="n">
+      <c r="AV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="10" t="n">
+      <c r="AW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="10"/>
+      <c r="AX9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4302,107 +4559,107 @@
       <c r="O10" t="s">
         <v>152</v>
       </c>
-      <c r="P10" s="10" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="10" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="10" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="10" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="10" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="10" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="10" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="10" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="10" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="10" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="10" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="10" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="10" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="10" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="10" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="10" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="10" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="10" t="str">
+      <c r="AG10" s="2" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="10" t="str">
+      <c r="AH10" s="2" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="10" t="str">
+      <c r="AI10" s="2" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="10" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="10" t="str">
+      <c r="AK10" s="2" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="10" t="str">
+      <c r="AL10" s="2" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="10" t="str">
+      <c r="AM10" s="2" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="10" t="str">
+      <c r="AN10" s="2" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="10" t="str">
+      <c r="AO10" s="2" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="10" t="str">
+      <c r="AP10" s="2" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="10" t="str">
+      <c r="AQ10" s="2" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="10" t="str">
+      <c r="AR10" s="2" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="10" t="str">
+      <c r="AS10" s="2" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="10" t="str">
+      <c r="AT10" s="2" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="10" t="str">
+      <c r="AU10" s="2" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="10" t="str">
+      <c r="AV10" s="2" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4539,89 +4796,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>303908470.379152</v>
       </c>
-      <c r="AA14" s="10" t="n">
+      <c r="AA14" s="2" t="n">
         <v>418926534.125859</v>
       </c>
-      <c r="AB14" s="10" t="n">
+      <c r="AB14" s="2" t="n">
         <v>474634465.5017</v>
       </c>
-      <c r="AC14" s="10" t="n">
+      <c r="AC14" s="2" t="n">
         <v>716216453.954378</v>
       </c>
-      <c r="AD14" s="10" t="n">
+      <c r="AD14" s="2" t="n">
         <v>755918249.100577</v>
       </c>
-      <c r="AE14" s="10" t="n">
+      <c r="AE14" s="2" t="n">
         <v>595633408.847446</v>
       </c>
-      <c r="AF14" s="10" t="n">
+      <c r="AF14" s="2" t="n">
         <v>822175364.343753</v>
       </c>
-      <c r="AG14" s="10" t="n">
+      <c r="AG14" s="2" t="n">
         <v>995910530.255985</v>
       </c>
-      <c r="AH14" s="10" t="n">
+      <c r="AH14" s="2" t="n">
         <v>1539202745.81494</v>
       </c>
-      <c r="AI14" s="10" t="n">
+      <c r="AI14" s="2" t="n">
         <v>3270724616.85976</v>
       </c>
-      <c r="AJ14" s="10" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>4292220889.85971</v>
       </c>
-      <c r="AK14" s="10" t="n">
+      <c r="AK14" s="2" t="n">
         <v>4610086584.38434</v>
       </c>
-      <c r="AL14" s="10" t="n">
+      <c r="AL14" s="2" t="n">
         <v>2730085126.35506</v>
       </c>
-      <c r="AM14" s="10" t="n">
+      <c r="AM14" s="2" t="n">
         <v>1272389721.3457</v>
       </c>
-      <c r="AN14" s="10" t="n">
+      <c r="AN14" s="2" t="n">
         <v>1607148831.52671</v>
       </c>
-      <c r="AO14" s="10" t="n">
+      <c r="AO14" s="2" t="n">
         <v>2398097281.81432</v>
       </c>
-      <c r="AP14" s="10" t="n">
+      <c r="AP14" s="2" t="n">
         <v>3716892526.40186</v>
       </c>
-      <c r="AQ14" s="10" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>862441070.581501</v>
       </c>
-      <c r="AR14" s="10" t="n">
+      <c r="AR14" s="2" t="n">
         <v>720922786.555265</v>
       </c>
-      <c r="AS14" s="10" t="n">
+      <c r="AS14" s="2" t="n">
         <v>429758744.737958</v>
       </c>
-      <c r="AT14" s="10" t="n">
+      <c r="AT14" s="2" t="n">
         <v>7239515030.33714</v>
       </c>
-      <c r="AU14" s="10" t="n">
+      <c r="AU14" s="2" t="n">
         <v>1474565366.65151</v>
       </c>
-      <c r="AV14" s="10" t="n">
+      <c r="AV14" s="2" t="n">
         <v>2231441789.9627</v>
       </c>
-      <c r="AW14" s="10" t="n">
+      <c r="AW14" s="2" t="n">
         <v>1118510929.83592</v>
       </c>
-      <c r="AX14" s="10"/>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4639,73 +4896,73 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>22154921.1413058</v>
       </c>
-      <c r="AA15" s="10" t="n">
+      <c r="AA15" s="2" t="n">
         <v>37150495.2691397</v>
       </c>
-      <c r="AB15" s="10" t="n">
+      <c r="AB15" s="2" t="n">
         <v>51083485.0877317</v>
       </c>
-      <c r="AC15" s="10" t="n">
+      <c r="AC15" s="2" t="n">
         <v>25207440.417403</v>
       </c>
-      <c r="AD15" s="10" t="n">
+      <c r="AD15" s="2" t="n">
         <v>1641672.92337659</v>
       </c>
-      <c r="AE15" s="10" t="n">
+      <c r="AE15" s="2" t="n">
         <v>2012202.02077213</v>
       </c>
-      <c r="AF15" s="10" t="n">
+      <c r="AF15" s="2" t="n">
         <v>2684217.45260192</v>
       </c>
-      <c r="AG15" s="10" t="n">
+      <c r="AG15" s="2" t="n">
         <v>136066.725405332</v>
       </c>
-      <c r="AH15" s="10" t="n">
+      <c r="AH15" s="2" t="n">
         <v>29296986.3042134</v>
       </c>
-      <c r="AI15" s="10" t="n">
+      <c r="AI15" s="2" t="n">
         <v>507552.919700644</v>
       </c>
-      <c r="AJ15" s="10" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>13537892.319324</v>
       </c>
-      <c r="AK15" s="10" t="n">
+      <c r="AK15" s="2" t="n">
         <v>12630719.1456679</v>
       </c>
-      <c r="AL15" s="10" t="n">
+      <c r="AL15" s="2" t="n">
         <v>2539102.66281554</v>
       </c>
-      <c r="AM15" s="10" t="n">
+      <c r="AM15" s="2" t="n">
         <v>4605801.63528916</v>
       </c>
-      <c r="AN15" s="10" t="n">
+      <c r="AN15" s="2" t="n">
         <v>-25.3437158048641</v>
       </c>
-      <c r="AO15" s="10" t="n">
+      <c r="AO15" s="2" t="n">
         <v>-27.0355481618835</v>
       </c>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4723,89 +4980,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>231717404.548768</v>
       </c>
-      <c r="AA16" s="10" t="n">
+      <c r="AA16" s="2" t="n">
         <v>272412787.314903</v>
       </c>
-      <c r="AB16" s="10" t="n">
+      <c r="AB16" s="2" t="n">
         <v>315583572.297013</v>
       </c>
-      <c r="AC16" s="10" t="n">
+      <c r="AC16" s="2" t="n">
         <v>372255852.11522</v>
       </c>
-      <c r="AD16" s="10" t="n">
+      <c r="AD16" s="2" t="n">
         <v>367994391.598717</v>
       </c>
-      <c r="AE16" s="10" t="n">
+      <c r="AE16" s="2" t="n">
         <v>416172557.436896</v>
       </c>
-      <c r="AF16" s="10" t="n">
+      <c r="AF16" s="2" t="n">
         <v>490129452.207366</v>
       </c>
-      <c r="AG16" s="10" t="n">
+      <c r="AG16" s="2" t="n">
         <v>339357475.423483</v>
       </c>
-      <c r="AH16" s="10" t="n">
+      <c r="AH16" s="2" t="n">
         <v>316543837.577328</v>
       </c>
-      <c r="AI16" s="10" t="n">
+      <c r="AI16" s="2" t="n">
         <v>511643666.559276</v>
       </c>
-      <c r="AJ16" s="10" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>753603358.206942</v>
       </c>
-      <c r="AK16" s="10" t="n">
+      <c r="AK16" s="2" t="n">
         <v>643745688.341144</v>
       </c>
-      <c r="AL16" s="10" t="n">
+      <c r="AL16" s="2" t="n">
         <v>609491518.123249</v>
       </c>
-      <c r="AM16" s="10" t="n">
+      <c r="AM16" s="2" t="n">
         <v>494042282.376862</v>
       </c>
-      <c r="AN16" s="10" t="n">
+      <c r="AN16" s="2" t="n">
         <v>230349871.456285</v>
       </c>
-      <c r="AO16" s="10" t="n">
+      <c r="AO16" s="2" t="n">
         <v>376363849.017599</v>
       </c>
-      <c r="AP16" s="10" t="n">
+      <c r="AP16" s="2" t="n">
         <v>247357009.577856</v>
       </c>
-      <c r="AQ16" s="10" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>334143910.605702</v>
       </c>
-      <c r="AR16" s="10" t="n">
+      <c r="AR16" s="2" t="n">
         <v>9610719.35104201</v>
       </c>
-      <c r="AS16" s="10" t="n">
+      <c r="AS16" s="2" t="n">
         <v>2256082.35510648</v>
       </c>
-      <c r="AT16" s="10" t="n">
+      <c r="AT16" s="2" t="n">
         <v>-86593.8285144234</v>
       </c>
-      <c r="AU16" s="10" t="n">
+      <c r="AU16" s="2" t="n">
         <v>-440851.767616227</v>
       </c>
-      <c r="AV16" s="10" t="n">
+      <c r="AV16" s="2" t="n">
         <v>-10049870.0288</v>
       </c>
-      <c r="AW16" s="10" t="n">
+      <c r="AW16" s="2" t="n">
         <v>-2108264.47744402</v>
       </c>
-      <c r="AX16" s="10"/>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4823,89 +5080,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>58199202.2914542</v>
       </c>
-      <c r="AA17" s="10" t="n">
+      <c r="AA17" s="2" t="n">
         <v>292564360.530962</v>
       </c>
-      <c r="AB17" s="10" t="n">
+      <c r="AB17" s="2" t="n">
         <v>410788999.094989</v>
       </c>
-      <c r="AC17" s="10" t="n">
+      <c r="AC17" s="2" t="n">
         <v>206289431.831269</v>
       </c>
-      <c r="AD17" s="10" t="n">
+      <c r="AD17" s="2" t="n">
         <v>58772450.2466055</v>
       </c>
-      <c r="AE17" s="10" t="n">
+      <c r="AE17" s="2" t="n">
         <v>54331819.2672562</v>
       </c>
-      <c r="AF17" s="10" t="n">
+      <c r="AF17" s="2" t="n">
         <v>156169071.545877</v>
       </c>
-      <c r="AG17" s="10" t="n">
+      <c r="AG17" s="2" t="n">
         <v>184927403.676968</v>
       </c>
-      <c r="AH17" s="10" t="n">
+      <c r="AH17" s="2" t="n">
         <v>349558629.836865</v>
       </c>
-      <c r="AI17" s="10" t="n">
+      <c r="AI17" s="2" t="n">
         <v>551379112.036677</v>
       </c>
-      <c r="AJ17" s="10" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>1516063388.94844</v>
       </c>
-      <c r="AK17" s="10" t="n">
+      <c r="AK17" s="2" t="n">
         <v>1827637485.67721</v>
       </c>
-      <c r="AL17" s="10" t="n">
+      <c r="AL17" s="2" t="n">
         <v>1861147159.60339</v>
       </c>
-      <c r="AM17" s="10" t="n">
+      <c r="AM17" s="2" t="n">
         <v>4873101338.92775</v>
       </c>
-      <c r="AN17" s="10" t="n">
+      <c r="AN17" s="2" t="n">
         <v>2658946112.9637</v>
       </c>
-      <c r="AO17" s="10" t="n">
+      <c r="AO17" s="2" t="n">
         <v>3662725462.88625</v>
       </c>
-      <c r="AP17" s="10" t="n">
+      <c r="AP17" s="2" t="n">
         <v>3076667043.779</v>
       </c>
-      <c r="AQ17" s="10" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>1466490416.3613</v>
       </c>
-      <c r="AR17" s="10" t="n">
+      <c r="AR17" s="2" t="n">
         <v>9013143446.32058</v>
       </c>
-      <c r="AS17" s="10" t="n">
+      <c r="AS17" s="2" t="n">
         <v>10688397434.7406</v>
       </c>
-      <c r="AT17" s="10" t="n">
+      <c r="AT17" s="2" t="n">
         <v>7080390558.6593</v>
       </c>
-      <c r="AU17" s="10" t="n">
+      <c r="AU17" s="2" t="n">
         <v>6349089132.97912</v>
       </c>
-      <c r="AV17" s="10" t="n">
+      <c r="AV17" s="2" t="n">
         <v>7209301651.7395</v>
       </c>
-      <c r="AW17" s="10" t="n">
+      <c r="AW17" s="2" t="n">
         <v>2753236136.53269</v>
       </c>
-      <c r="AX17" s="10"/>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -4923,89 +5180,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>3300548902.27543</v>
       </c>
-      <c r="AA18" s="10" t="n">
+      <c r="AA18" s="2" t="n">
         <v>3297982303.57119</v>
       </c>
-      <c r="AB18" s="10" t="n">
+      <c r="AB18" s="2" t="n">
         <v>4592978440.1271</v>
       </c>
-      <c r="AC18" s="10" t="n">
+      <c r="AC18" s="2" t="n">
         <v>4916435369.34105</v>
       </c>
-      <c r="AD18" s="10" t="n">
+      <c r="AD18" s="2" t="n">
         <v>5774595828.67109</v>
       </c>
-      <c r="AE18" s="10" t="n">
+      <c r="AE18" s="2" t="n">
         <v>6566876588.52463</v>
       </c>
-      <c r="AF18" s="10" t="n">
+      <c r="AF18" s="2" t="n">
         <v>5741585700.49024</v>
       </c>
-      <c r="AG18" s="10" t="n">
+      <c r="AG18" s="2" t="n">
         <v>6060753382.65725</v>
       </c>
-      <c r="AH18" s="10" t="n">
+      <c r="AH18" s="2" t="n">
         <v>3320780199.72778</v>
       </c>
-      <c r="AI18" s="10" t="n">
+      <c r="AI18" s="2" t="n">
         <v>4485659308.14736</v>
       </c>
-      <c r="AJ18" s="10" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>5412704806.13153</v>
       </c>
-      <c r="AK18" s="10" t="n">
+      <c r="AK18" s="2" t="n">
         <v>4754956137.91905</v>
       </c>
-      <c r="AL18" s="10" t="n">
+      <c r="AL18" s="2" t="n">
         <v>5139504111.1206</v>
       </c>
-      <c r="AM18" s="10" t="n">
+      <c r="AM18" s="2" t="n">
         <v>4281441474.71307</v>
       </c>
-      <c r="AN18" s="10" t="n">
+      <c r="AN18" s="2" t="n">
         <v>4562244530.4356</v>
       </c>
-      <c r="AO18" s="10" t="n">
+      <c r="AO18" s="2" t="n">
         <v>4031141982.03054</v>
       </c>
-      <c r="AP18" s="10" t="n">
+      <c r="AP18" s="2" t="n">
         <v>2951776234.91626</v>
       </c>
-      <c r="AQ18" s="10" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>3669935568.79306</v>
       </c>
-      <c r="AR18" s="10" t="n">
+      <c r="AR18" s="2" t="n">
         <v>3429359355.38281</v>
       </c>
-      <c r="AS18" s="10" t="n">
+      <c r="AS18" s="2" t="n">
         <v>3926890134.9323</v>
       </c>
-      <c r="AT18" s="10" t="n">
+      <c r="AT18" s="2" t="n">
         <v>5122494873.81775</v>
       </c>
-      <c r="AU18" s="10" t="n">
+      <c r="AU18" s="2" t="n">
         <v>3588793312.16373</v>
       </c>
-      <c r="AV18" s="10" t="n">
+      <c r="AV18" s="2" t="n">
         <v>3097662122.9688</v>
       </c>
-      <c r="AW18" s="10" t="n">
+      <c r="AW18" s="2" t="n">
         <v>1847122420.80488</v>
       </c>
-      <c r="AX18" s="10"/>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5023,89 +5280,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>197267840.879092</v>
       </c>
-      <c r="AA19" s="10" t="n">
+      <c r="AA19" s="2" t="n">
         <v>967641608.955507</v>
       </c>
-      <c r="AB19" s="10" t="n">
+      <c r="AB19" s="2" t="n">
         <v>1443150306.9343</v>
       </c>
-      <c r="AC19" s="10" t="n">
+      <c r="AC19" s="2" t="n">
         <v>1357953402.64506</v>
       </c>
-      <c r="AD19" s="10" t="n">
+      <c r="AD19" s="2" t="n">
         <v>1808822919.67649</v>
       </c>
-      <c r="AE19" s="10" t="n">
+      <c r="AE19" s="2" t="n">
         <v>1545541742.855</v>
       </c>
-      <c r="AF19" s="10" t="n">
+      <c r="AF19" s="2" t="n">
         <v>1905841172.93721</v>
       </c>
-      <c r="AG19" s="10" t="n">
+      <c r="AG19" s="2" t="n">
         <v>1447692793.11415</v>
       </c>
-      <c r="AH19" s="10" t="n">
+      <c r="AH19" s="2" t="n">
         <v>1513695886.36638</v>
       </c>
-      <c r="AI19" s="10" t="n">
+      <c r="AI19" s="2" t="n">
         <v>2109639762.65907</v>
       </c>
-      <c r="AJ19" s="10" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>1794993889.42075</v>
       </c>
-      <c r="AK19" s="10" t="n">
+      <c r="AK19" s="2" t="n">
         <v>2139574578.40255</v>
       </c>
-      <c r="AL19" s="10" t="n">
+      <c r="AL19" s="2" t="n">
         <v>3771753717.11208</v>
       </c>
-      <c r="AM19" s="10" t="n">
+      <c r="AM19" s="2" t="n">
         <v>2440303988.97292</v>
       </c>
-      <c r="AN19" s="10" t="n">
+      <c r="AN19" s="2" t="n">
         <v>1276019484.71967</v>
       </c>
-      <c r="AO19" s="10" t="n">
+      <c r="AO19" s="2" t="n">
         <v>783770280.68071</v>
       </c>
-      <c r="AP19" s="10" t="n">
+      <c r="AP19" s="2" t="n">
         <v>1885992438.57657</v>
       </c>
-      <c r="AQ19" s="10" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>3755298953.44562</v>
       </c>
-      <c r="AR19" s="10" t="n">
+      <c r="AR19" s="2" t="n">
         <v>2159459245.08923</v>
       </c>
-      <c r="AS19" s="10" t="n">
+      <c r="AS19" s="2" t="n">
         <v>1560898800.00011</v>
       </c>
-      <c r="AT19" s="10" t="n">
+      <c r="AT19" s="2" t="n">
         <v>1964960112.45841</v>
       </c>
-      <c r="AU19" s="10" t="n">
+      <c r="AU19" s="2" t="n">
         <v>1523742923.98346</v>
       </c>
-      <c r="AV19" s="10" t="n">
+      <c r="AV19" s="2" t="n">
         <v>1288934835.0641</v>
       </c>
-      <c r="AW19" s="10" t="n">
+      <c r="AW19" s="2" t="n">
         <v>397816732.761667</v>
       </c>
-      <c r="AX19" s="10"/>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5123,67 +5380,67 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2" t="n">
         <v>12267832.7150755</v>
       </c>
-      <c r="AD20" s="10" t="n">
+      <c r="AD20" s="2" t="n">
         <v>102804303.12895</v>
       </c>
-      <c r="AE20" s="10" t="n">
+      <c r="AE20" s="2" t="n">
         <v>169926970.979868</v>
       </c>
-      <c r="AF20" s="10" t="n">
+      <c r="AF20" s="2" t="n">
         <v>331256107.080067</v>
       </c>
-      <c r="AG20" s="10" t="n">
+      <c r="AG20" s="2" t="n">
         <v>2272923083.474</v>
       </c>
-      <c r="AH20" s="10" t="n">
+      <c r="AH20" s="2" t="n">
         <v>4444878263.95427</v>
       </c>
-      <c r="AI20" s="10" t="n">
+      <c r="AI20" s="2" t="n">
         <v>2906034378.7603</v>
       </c>
-      <c r="AJ20" s="10" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>9071545.35289866</v>
       </c>
-      <c r="AK20" s="10" t="n">
+      <c r="AK20" s="2" t="n">
         <v>2662261.59500186</v>
       </c>
-      <c r="AL20" s="10" t="n">
+      <c r="AL20" s="2" t="n">
         <v>-937026.814687945</v>
       </c>
-      <c r="AM20" s="10" t="n">
+      <c r="AM20" s="2" t="n">
         <v>-1911768.79216394</v>
       </c>
-      <c r="AN20" s="10" t="n">
+      <c r="AN20" s="2" t="n">
         <v>-1693832.34774102</v>
       </c>
-      <c r="AO20" s="10" t="n">
+      <c r="AO20" s="2" t="n">
         <v>226275.783528808</v>
       </c>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5199,109 +5456,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="10" t="n">
+      <c r="P21" s="2" t="n">
         <v>6032822140.01566</v>
       </c>
-      <c r="Q21" s="10" t="n">
+      <c r="Q21" s="2" t="n">
         <v>9990757469.16172</v>
       </c>
-      <c r="R21" s="10" t="n">
+      <c r="R21" s="2" t="n">
         <v>7336657438.47783</v>
       </c>
-      <c r="S21" s="10" t="n">
+      <c r="S21" s="2" t="n">
         <v>9130873892.26007</v>
       </c>
-      <c r="T21" s="10" t="n">
+      <c r="T21" s="2" t="n">
         <v>7679140602.47769</v>
       </c>
-      <c r="U21" s="10" t="n">
+      <c r="U21" s="2" t="n">
         <v>6112165700.2052</v>
       </c>
-      <c r="V21" s="10" t="n">
+      <c r="V21" s="2" t="n">
         <v>6393941560.35423</v>
       </c>
-      <c r="W21" s="10" t="n">
+      <c r="W21" s="2" t="n">
         <v>6784225907.77468</v>
       </c>
-      <c r="X21" s="10" t="n">
+      <c r="X21" s="2" t="n">
         <v>6016289806.15404</v>
       </c>
-      <c r="Y21" s="10" t="n">
+      <c r="Y21" s="2" t="n">
         <v>6045865409.8293</v>
       </c>
-      <c r="Z21" s="10" t="n">
+      <c r="Z21" s="2" t="n">
         <v>735072340.35444</v>
       </c>
-      <c r="AA21" s="10" t="n">
+      <c r="AA21" s="2" t="n">
         <v>20414868.9788187</v>
       </c>
-      <c r="AB21" s="10" t="n">
+      <c r="AB21" s="2" t="n">
         <v>52015009.9055848</v>
       </c>
-      <c r="AC21" s="10" t="n">
+      <c r="AC21" s="2" t="n">
         <v>68082562.6947625</v>
       </c>
-      <c r="AD21" s="10" t="n">
+      <c r="AD21" s="2" t="n">
         <v>43356663.9817665</v>
       </c>
-      <c r="AE21" s="10" t="n">
+      <c r="AE21" s="2" t="n">
         <v>22732728.2655969</v>
       </c>
-      <c r="AF21" s="10" t="n">
+      <c r="AF21" s="2" t="n">
         <v>6063139.37352027</v>
       </c>
-      <c r="AG21" s="10" t="n">
+      <c r="AG21" s="2" t="n">
         <v>4262771.9930145</v>
       </c>
-      <c r="AH21" s="10" t="n">
+      <c r="AH21" s="2" t="n">
         <v>165582305.107685</v>
       </c>
-      <c r="AI21" s="10" t="n">
+      <c r="AI21" s="2" t="n">
         <v>19838751.8736046</v>
       </c>
-      <c r="AJ21" s="10" t="n">
+      <c r="AJ21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" s="10" t="n">
+      <c r="AK21" s="2" t="n">
         <v>-71800.2574873525</v>
       </c>
-      <c r="AL21" s="10" t="n">
+      <c r="AL21" s="2" t="n">
         <v>-77943.0994513184</v>
       </c>
-      <c r="AM21" s="10" t="n">
+      <c r="AM21" s="2" t="n">
         <v>1867574.0938674</v>
       </c>
-      <c r="AN21" s="10" t="n">
+      <c r="AN21" s="2" t="n">
         <v>-861571.751741501</v>
       </c>
-      <c r="AO21" s="10" t="n">
+      <c r="AO21" s="2" t="n">
         <v>-2242845.17651709</v>
       </c>
-      <c r="AP21" s="10" t="n">
+      <c r="AP21" s="2" t="n">
         <v>372376.584983579</v>
       </c>
-      <c r="AQ21" s="10" t="n">
+      <c r="AQ21" s="2" t="n">
         <v>1529084.93832063</v>
       </c>
-      <c r="AR21" s="10" t="n">
+      <c r="AR21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="10" t="n">
+      <c r="AS21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="10" t="n">
+      <c r="AT21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="10" t="n">
+      <c r="AU21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="10" t="n">
+      <c r="AV21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="10" t="n">
+      <c r="AW21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="10"/>
+      <c r="AX21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5310,41 +5567,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -15,12 +15,13 @@
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="vend" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -500,6 +501,24 @@
   <si>
     <t xml:space="preserve"/>
   </si>
+  <si>
+    <t xml:space="preserve">Shiny.VendorSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlabeled</t>
+  </si>
 </sst>
 </file>
 
@@ -508,14 +527,14 @@
   <numFmts count="10">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -555,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -563,7 +582,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1911,6 +1930,1436 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>K1</f>
+      </c>
+      <c r="K1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>K2</f>
+      </c>
+      <c r="K2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="11" t="n">
+        <v>1432975000</v>
+      </c>
+      <c r="M2" s="11" t="n">
+        <v>2873347000</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>1681217544</v>
+      </c>
+      <c r="O2" s="11" t="n">
+        <v>2589136106</v>
+      </c>
+      <c r="P2" s="11" t="n">
+        <v>2314521002</v>
+      </c>
+      <c r="Q2" s="11" t="n">
+        <v>1705078056</v>
+      </c>
+      <c r="R2" s="11" t="n">
+        <v>1909163887</v>
+      </c>
+      <c r="S2" s="11" t="n">
+        <v>2762269589</v>
+      </c>
+      <c r="T2" s="11" t="n">
+        <v>2240706687</v>
+      </c>
+      <c r="U2" s="11" t="n">
+        <v>2417392837</v>
+      </c>
+      <c r="V2" s="11" t="n">
+        <v>1956089394</v>
+      </c>
+      <c r="W2" s="11" t="n">
+        <v>2333167521</v>
+      </c>
+      <c r="X2" s="11" t="n">
+        <v>3684949864</v>
+      </c>
+      <c r="Y2" s="11" t="n">
+        <v>3859708035.5938</v>
+      </c>
+      <c r="Z2" s="11" t="n">
+        <v>4701775050.5</v>
+      </c>
+      <c r="AA2" s="11" t="n">
+        <v>4989676208.4375</v>
+      </c>
+      <c r="AB2" s="11" t="n">
+        <v>5349510640.2774</v>
+      </c>
+      <c r="AC2" s="11" t="n">
+        <v>6454278531.9266</v>
+      </c>
+      <c r="AD2" s="11" t="n">
+        <v>6842656824.9687</v>
+      </c>
+      <c r="AE2" s="11" t="n">
+        <v>8782040594.9943</v>
+      </c>
+      <c r="AF2" s="11" t="n">
+        <v>9044332642.7514</v>
+      </c>
+      <c r="AG2" s="11" t="n">
+        <v>9518788736.0017</v>
+      </c>
+      <c r="AH2" s="11" t="n">
+        <v>9753797077.6346</v>
+      </c>
+      <c r="AI2" s="11" t="n">
+        <v>9435215707.1776</v>
+      </c>
+      <c r="AJ2" s="11" t="n">
+        <v>6915351196.4803</v>
+      </c>
+      <c r="AK2" s="11" t="n">
+        <v>7753678427.5827</v>
+      </c>
+      <c r="AL2" s="11" t="n">
+        <v>8246446764.1197</v>
+      </c>
+      <c r="AM2" s="11" t="n">
+        <v>6744481998.578</v>
+      </c>
+      <c r="AN2" s="11" t="n">
+        <v>11226960692.4651</v>
+      </c>
+      <c r="AO2" s="11" t="n">
+        <v>12636733508.8779</v>
+      </c>
+      <c r="AP2" s="11" t="n">
+        <v>17092189454.2241</v>
+      </c>
+      <c r="AQ2" s="11" t="n">
+        <v>9822494446.2365</v>
+      </c>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>K3</f>
+      </c>
+      <c r="K3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="11" t="n">
+        <v>1017171000</v>
+      </c>
+      <c r="M3" s="11" t="n">
+        <v>1181414006</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>1039353460</v>
+      </c>
+      <c r="O3" s="11" t="n">
+        <v>1248675104</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>892313975</v>
+      </c>
+      <c r="Q3" s="11" t="n">
+        <v>961250693</v>
+      </c>
+      <c r="R3" s="11" t="n">
+        <v>945542939</v>
+      </c>
+      <c r="S3" s="11" t="n">
+        <v>624096603</v>
+      </c>
+      <c r="T3" s="11" t="n">
+        <v>701362390</v>
+      </c>
+      <c r="U3" s="11" t="n">
+        <v>642641793</v>
+      </c>
+      <c r="V3" s="11" t="n">
+        <v>542180671</v>
+      </c>
+      <c r="W3" s="11" t="n">
+        <v>475271278</v>
+      </c>
+      <c r="X3" s="11" t="n">
+        <v>474854089.625</v>
+      </c>
+      <c r="Y3" s="11" t="n">
+        <v>474248296.5</v>
+      </c>
+      <c r="Z3" s="11" t="n">
+        <v>509169915.8438</v>
+      </c>
+      <c r="AA3" s="11" t="n">
+        <v>658697179</v>
+      </c>
+      <c r="AB3" s="11" t="n">
+        <v>606685920.5938</v>
+      </c>
+      <c r="AC3" s="11" t="n">
+        <v>849038487.1386</v>
+      </c>
+      <c r="AD3" s="11" t="n">
+        <v>630781331.9479</v>
+      </c>
+      <c r="AE3" s="11" t="n">
+        <v>551301821.6089</v>
+      </c>
+      <c r="AF3" s="11" t="n">
+        <v>460507744.1652</v>
+      </c>
+      <c r="AG3" s="11" t="n">
+        <v>376206571.7946</v>
+      </c>
+      <c r="AH3" s="11" t="n">
+        <v>372595687.0724</v>
+      </c>
+      <c r="AI3" s="11" t="n">
+        <v>405092566.7254</v>
+      </c>
+      <c r="AJ3" s="11" t="n">
+        <v>447099360.8152</v>
+      </c>
+      <c r="AK3" s="11" t="n">
+        <v>675576535.9282</v>
+      </c>
+      <c r="AL3" s="11" t="n">
+        <v>678267402.8444</v>
+      </c>
+      <c r="AM3" s="11" t="n">
+        <v>697770536.0834</v>
+      </c>
+      <c r="AN3" s="11" t="n">
+        <v>972267599.7899</v>
+      </c>
+      <c r="AO3" s="11" t="n">
+        <v>754993809.4825</v>
+      </c>
+      <c r="AP3" s="11" t="n">
+        <v>782798380.7414</v>
+      </c>
+      <c r="AQ3" s="11" t="n">
+        <v>815172703.9814</v>
+      </c>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>K4</f>
+      </c>
+      <c r="K4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="11" t="n">
+        <v>430527000</v>
+      </c>
+      <c r="M4" s="11" t="n">
+        <v>816080176</v>
+      </c>
+      <c r="N4" s="11" t="n">
+        <v>733016996</v>
+      </c>
+      <c r="O4" s="11" t="n">
+        <v>622544824</v>
+      </c>
+      <c r="P4" s="11" t="n">
+        <v>666168878</v>
+      </c>
+      <c r="Q4" s="11" t="n">
+        <v>401957849</v>
+      </c>
+      <c r="R4" s="11" t="n">
+        <v>458796338</v>
+      </c>
+      <c r="S4" s="11" t="n">
+        <v>290295638</v>
+      </c>
+      <c r="T4" s="11" t="n">
+        <v>295672531</v>
+      </c>
+      <c r="U4" s="11" t="n">
+        <v>308132629</v>
+      </c>
+      <c r="V4" s="11" t="n">
+        <v>197472848</v>
+      </c>
+      <c r="W4" s="11" t="n">
+        <v>270730505</v>
+      </c>
+      <c r="X4" s="11" t="n">
+        <v>260232628</v>
+      </c>
+      <c r="Y4" s="11" t="n">
+        <v>341207098</v>
+      </c>
+      <c r="Z4" s="11" t="n">
+        <v>356662742.1875</v>
+      </c>
+      <c r="AA4" s="11" t="n">
+        <v>412487724</v>
+      </c>
+      <c r="AB4" s="11" t="n">
+        <v>346680124.035</v>
+      </c>
+      <c r="AC4" s="11" t="n">
+        <v>492563818.5525</v>
+      </c>
+      <c r="AD4" s="11" t="n">
+        <v>683005871.9599</v>
+      </c>
+      <c r="AE4" s="11" t="n">
+        <v>529951233.7209</v>
+      </c>
+      <c r="AF4" s="11" t="n">
+        <v>439864141.9574</v>
+      </c>
+      <c r="AG4" s="11" t="n">
+        <v>417438319.6548</v>
+      </c>
+      <c r="AH4" s="11" t="n">
+        <v>505260857.5506</v>
+      </c>
+      <c r="AI4" s="11" t="n">
+        <v>485897392.8519</v>
+      </c>
+      <c r="AJ4" s="11" t="n">
+        <v>633466998.5488</v>
+      </c>
+      <c r="AK4" s="11" t="n">
+        <v>433630077.6578</v>
+      </c>
+      <c r="AL4" s="11" t="n">
+        <v>485988121.3176</v>
+      </c>
+      <c r="AM4" s="11" t="n">
+        <v>475591623.1785</v>
+      </c>
+      <c r="AN4" s="11" t="n">
+        <v>589542434.2768</v>
+      </c>
+      <c r="AO4" s="11" t="n">
+        <v>633531583.9358</v>
+      </c>
+      <c r="AP4" s="11" t="n">
+        <v>640836882.0949</v>
+      </c>
+      <c r="AQ4" s="11" t="n">
+        <v>590682027.3981</v>
+      </c>
+      <c r="AR4" s="11" t="n">
+        <v>12872654015.4419</v>
+      </c>
+      <c r="AS4" s="11" t="n">
+        <v>5934742828.7666</v>
+      </c>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>K5</f>
+      </c>
+      <c r="K5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="11" t="n">
+        <v>135475000</v>
+      </c>
+      <c r="M5" s="11" t="n">
+        <v>320155321</v>
+      </c>
+      <c r="N5" s="11" t="n">
+        <v>452878678</v>
+      </c>
+      <c r="O5" s="11" t="n">
+        <v>495842653</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>390585414</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>407748411</v>
+      </c>
+      <c r="R5" s="11" t="n">
+        <v>386123487</v>
+      </c>
+      <c r="S5" s="11" t="n">
+        <v>335372176</v>
+      </c>
+      <c r="T5" s="11" t="n">
+        <v>362426141</v>
+      </c>
+      <c r="U5" s="11" t="n">
+        <v>297296805</v>
+      </c>
+      <c r="V5" s="11" t="n">
+        <v>305296204</v>
+      </c>
+      <c r="W5" s="11" t="n">
+        <v>285090413</v>
+      </c>
+      <c r="X5" s="11" t="n">
+        <v>306554363.2031</v>
+      </c>
+      <c r="Y5" s="11" t="n">
+        <v>361268694</v>
+      </c>
+      <c r="Z5" s="11" t="n">
+        <v>425017740.0547</v>
+      </c>
+      <c r="AA5" s="11" t="n">
+        <v>431828609.7188</v>
+      </c>
+      <c r="AB5" s="11" t="n">
+        <v>459227409.8526</v>
+      </c>
+      <c r="AC5" s="11" t="n">
+        <v>512336926.6142</v>
+      </c>
+      <c r="AD5" s="11" t="n">
+        <v>605296907.0273</v>
+      </c>
+      <c r="AE5" s="11" t="n">
+        <v>636376103.4555</v>
+      </c>
+      <c r="AF5" s="11" t="n">
+        <v>597952227.7745</v>
+      </c>
+      <c r="AG5" s="11" t="n">
+        <v>597897248.1941</v>
+      </c>
+      <c r="AH5" s="11" t="n">
+        <v>575767776.7386</v>
+      </c>
+      <c r="AI5" s="11" t="n">
+        <v>480865479.6875</v>
+      </c>
+      <c r="AJ5" s="11" t="n">
+        <v>520540181.5498</v>
+      </c>
+      <c r="AK5" s="11" t="n">
+        <v>516501410.4043</v>
+      </c>
+      <c r="AL5" s="11" t="n">
+        <v>575139369.8185</v>
+      </c>
+      <c r="AM5" s="11" t="n">
+        <v>715365976.4962</v>
+      </c>
+      <c r="AN5" s="11" t="n">
+        <v>638272946.3497</v>
+      </c>
+      <c r="AO5" s="11" t="n">
+        <v>803722956.7674</v>
+      </c>
+      <c r="AP5" s="11" t="n">
+        <v>853150855.1613</v>
+      </c>
+      <c r="AQ5" s="11" t="n">
+        <v>869191227.2421</v>
+      </c>
+      <c r="AR5" s="11" t="n">
+        <v>944636514.2644</v>
+      </c>
+      <c r="AS5" s="11" t="n">
+        <v>476022892.0535</v>
+      </c>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>K6</f>
+      </c>
+      <c r="K6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L6" s="11" t="n">
+        <v>19186000</v>
+      </c>
+      <c r="M6" s="11" t="n">
+        <v>15018780</v>
+      </c>
+      <c r="N6" s="11" t="n">
+        <v>12087914</v>
+      </c>
+      <c r="O6" s="11" t="n">
+        <v>35220024</v>
+      </c>
+      <c r="P6" s="11" t="n">
+        <v>25704388</v>
+      </c>
+      <c r="Q6" s="11" t="n">
+        <v>10321398</v>
+      </c>
+      <c r="R6" s="11" t="n">
+        <v>15998245</v>
+      </c>
+      <c r="S6" s="11" t="n">
+        <v>426455</v>
+      </c>
+      <c r="T6" s="11" t="n">
+        <v>2535454</v>
+      </c>
+      <c r="U6" s="11" t="n">
+        <v>78887</v>
+      </c>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11" t="n">
+        <v>31799.3999</v>
+      </c>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11" t="n">
+        <v>17973</v>
+      </c>
+      <c r="AB6" s="11" t="n">
+        <v>1123841.5699</v>
+      </c>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11" t="n">
+        <v>866040</v>
+      </c>
+      <c r="AJ6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11" t="n">
+        <v>98917.8603</v>
+      </c>
+      <c r="AP6" s="11" t="n">
+        <v>77045.2216</v>
+      </c>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>K7</f>
+      </c>
+      <c r="K7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="11" t="str">
+        <f>Sum(L2:L6)</f>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f>Sum(M2:M6)</f>
+      </c>
+      <c r="N7" s="11" t="str">
+        <f>Sum(N2:N6)</f>
+      </c>
+      <c r="O7" s="11" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="11" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="11" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="11" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="11" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="11" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="11" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="11" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="11" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="11" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="11" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="11" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="11" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="11" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="11" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="11" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="11" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="11" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="11" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="11" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="11" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="11" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="11" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="11" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="11" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="11" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>K10</f>
+      </c>
+      <c r="K10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>K11</f>
+      </c>
+      <c r="K11" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>2848083046.57377</v>
+      </c>
+      <c r="M11" s="11" t="n">
+        <v>5514181469.17173</v>
+      </c>
+      <c r="N11" s="11" t="n">
+        <v>3147721158.47736</v>
+      </c>
+      <c r="O11" s="11" t="n">
+        <v>4736343841.81866</v>
+      </c>
+      <c r="P11" s="11" t="n">
+        <v>4143696753.59944</v>
+      </c>
+      <c r="Q11" s="11" t="n">
+        <v>2989286921.19106</v>
+      </c>
+      <c r="R11" s="11" t="n">
+        <v>3285337638.8338</v>
+      </c>
+      <c r="S11" s="11" t="n">
+        <v>4670416342.31618</v>
+      </c>
+      <c r="T11" s="11" t="n">
+        <v>3741840512.52231</v>
+      </c>
+      <c r="U11" s="11" t="n">
+        <v>3987194238.49616</v>
+      </c>
+      <c r="V11" s="11" t="n">
+        <v>3160512413.92057</v>
+      </c>
+      <c r="W11" s="11" t="n">
+        <v>3680518427.70304</v>
+      </c>
+      <c r="X11" s="11" t="n">
+        <v>5722601262.446</v>
+      </c>
+      <c r="Y11" s="11" t="n">
+        <v>5881571069.14686</v>
+      </c>
+      <c r="Z11" s="11" t="n">
+        <v>6993793195.74893</v>
+      </c>
+      <c r="AA11" s="11" t="n">
+        <v>7203369540.37743</v>
+      </c>
+      <c r="AB11" s="11" t="n">
+        <v>7479336900.01347</v>
+      </c>
+      <c r="AC11" s="11" t="n">
+        <v>8783091587.00644</v>
+      </c>
+      <c r="AD11" s="11" t="n">
+        <v>9121369467.68605</v>
+      </c>
+      <c r="AE11" s="11" t="n">
+        <v>11588833415.1526</v>
+      </c>
+      <c r="AF11" s="11" t="n">
+        <v>11832046636.7579</v>
+      </c>
+      <c r="AG11" s="11" t="n">
+        <v>12206731822.5687</v>
+      </c>
+      <c r="AH11" s="11" t="n">
+        <v>12282956657.5217</v>
+      </c>
+      <c r="AI11" s="11" t="n">
+        <v>11668238372.5489</v>
+      </c>
+      <c r="AJ11" s="11" t="n">
+        <v>8389693413.80677</v>
+      </c>
+      <c r="AK11" s="11" t="n">
+        <v>9300130725.85047</v>
+      </c>
+      <c r="AL11" s="11" t="n">
+        <v>9809890814.05018</v>
+      </c>
+      <c r="AM11" s="11" t="n">
+        <v>7882437294.70561</v>
+      </c>
+      <c r="AN11" s="11" t="n">
+        <v>12820195501.0552</v>
+      </c>
+      <c r="AO11" s="11" t="n">
+        <v>14152826850.3299</v>
+      </c>
+      <c r="AP11" s="11" t="n">
+        <v>18890814631.7805</v>
+      </c>
+      <c r="AQ11" s="11" t="n">
+        <v>10503071462.5735</v>
+      </c>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>K12</f>
+      </c>
+      <c r="K12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>2021659471.07695</v>
+      </c>
+      <c r="M12" s="11" t="n">
+        <v>2267227459.58116</v>
+      </c>
+      <c r="N12" s="11" t="n">
+        <v>1945967604.76029</v>
+      </c>
+      <c r="O12" s="11" t="n">
+        <v>2284219290.58011</v>
+      </c>
+      <c r="P12" s="11" t="n">
+        <v>1597513489.05622</v>
+      </c>
+      <c r="Q12" s="11" t="n">
+        <v>1685233185.92914</v>
+      </c>
+      <c r="R12" s="11" t="n">
+        <v>1627114271.21722</v>
+      </c>
+      <c r="S12" s="11" t="n">
+        <v>1055215966.40769</v>
+      </c>
+      <c r="T12" s="11" t="n">
+        <v>1171231478.03659</v>
+      </c>
+      <c r="U12" s="11" t="n">
+        <v>1059959149.06669</v>
+      </c>
+      <c r="V12" s="11" t="n">
+        <v>876017602.538713</v>
+      </c>
+      <c r="W12" s="11" t="n">
+        <v>749729576.248878</v>
+      </c>
+      <c r="X12" s="11" t="n">
+        <v>737432180.370547</v>
+      </c>
+      <c r="Y12" s="11" t="n">
+        <v>722677734.834794</v>
+      </c>
+      <c r="Z12" s="11" t="n">
+        <v>757379724.606292</v>
+      </c>
+      <c r="AA12" s="11" t="n">
+        <v>950931282.378134</v>
+      </c>
+      <c r="AB12" s="11" t="n">
+        <v>848228688.144184</v>
+      </c>
+      <c r="AC12" s="11" t="n">
+        <v>1155385959.33599</v>
+      </c>
+      <c r="AD12" s="11" t="n">
+        <v>840841463.950259</v>
+      </c>
+      <c r="AE12" s="11" t="n">
+        <v>727501188.702927</v>
+      </c>
+      <c r="AF12" s="11" t="n">
+        <v>602448994.389622</v>
+      </c>
+      <c r="AG12" s="11" t="n">
+        <v>482440871.328085</v>
+      </c>
+      <c r="AH12" s="11" t="n">
+        <v>469209748.640748</v>
+      </c>
+      <c r="AI12" s="11" t="n">
+        <v>500965402.190424</v>
+      </c>
+      <c r="AJ12" s="11" t="n">
+        <v>542420255.482853</v>
+      </c>
+      <c r="AK12" s="11" t="n">
+        <v>810318632.392427</v>
+      </c>
+      <c r="AL12" s="11" t="n">
+        <v>806860136.851103</v>
+      </c>
+      <c r="AM12" s="11" t="n">
+        <v>815501101.186149</v>
+      </c>
+      <c r="AN12" s="11" t="n">
+        <v>1110243551.22342</v>
+      </c>
+      <c r="AO12" s="11" t="n">
+        <v>845574265.783945</v>
+      </c>
+      <c r="AP12" s="11" t="n">
+        <v>865172899.25014</v>
+      </c>
+      <c r="AQ12" s="11" t="n">
+        <v>871654060.088206</v>
+      </c>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>K13</f>
+      </c>
+      <c r="K13" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <v>855686002.751105</v>
+      </c>
+      <c r="M13" s="11" t="n">
+        <v>1566122777.3247</v>
+      </c>
+      <c r="N13" s="11" t="n">
+        <v>1372417933.69765</v>
+      </c>
+      <c r="O13" s="11" t="n">
+        <v>1138830182.22777</v>
+      </c>
+      <c r="P13" s="11" t="n">
+        <v>1192644964.00434</v>
+      </c>
+      <c r="Q13" s="11" t="n">
+        <v>704699316.642775</v>
+      </c>
+      <c r="R13" s="11" t="n">
+        <v>789508374.872437</v>
+      </c>
+      <c r="S13" s="11" t="n">
+        <v>490828808.751115</v>
+      </c>
+      <c r="T13" s="11" t="n">
+        <v>493754698.620136</v>
+      </c>
+      <c r="U13" s="11" t="n">
+        <v>508227138.02948</v>
+      </c>
+      <c r="V13" s="11" t="n">
+        <v>319062814.5271</v>
+      </c>
+      <c r="W13" s="11" t="n">
+        <v>427071182.684208</v>
+      </c>
+      <c r="X13" s="11" t="n">
+        <v>404132381.846278</v>
+      </c>
+      <c r="Y13" s="11" t="n">
+        <v>519944456.336479</v>
+      </c>
+      <c r="Z13" s="11" t="n">
+        <v>530528456.316265</v>
+      </c>
+      <c r="AA13" s="11" t="n">
+        <v>595489843.973596</v>
+      </c>
+      <c r="AB13" s="11" t="n">
+        <v>484705540.105584</v>
+      </c>
+      <c r="AC13" s="11" t="n">
+        <v>670289190.246776</v>
+      </c>
+      <c r="AD13" s="11" t="n">
+        <v>910457599.453531</v>
+      </c>
+      <c r="AE13" s="11" t="n">
+        <v>699326824.934826</v>
+      </c>
+      <c r="AF13" s="11" t="n">
+        <v>575442461.821503</v>
+      </c>
+      <c r="AG13" s="11" t="n">
+        <v>535315759.369422</v>
+      </c>
+      <c r="AH13" s="11" t="n">
+        <v>636274997.792069</v>
+      </c>
+      <c r="AI13" s="11" t="n">
+        <v>600894222.278673</v>
+      </c>
+      <c r="AJ13" s="11" t="n">
+        <v>768521186.3562</v>
+      </c>
+      <c r="AK13" s="11" t="n">
+        <v>520116541.657443</v>
+      </c>
+      <c r="AL13" s="11" t="n">
+        <v>578126621.491621</v>
+      </c>
+      <c r="AM13" s="11" t="n">
+        <v>555835295.932613</v>
+      </c>
+      <c r="AN13" s="11" t="n">
+        <v>673205284.193173</v>
+      </c>
+      <c r="AO13" s="11" t="n">
+        <v>709539597.820862</v>
+      </c>
+      <c r="AP13" s="11" t="n">
+        <v>708272675.147017</v>
+      </c>
+      <c r="AQ13" s="11" t="n">
+        <v>631608964.441521</v>
+      </c>
+      <c r="AR13" s="11" t="n">
+        <v>12872654015.4419</v>
+      </c>
+      <c r="AS13" s="11" t="n">
+        <v>5660548092.44297</v>
+      </c>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>K14</f>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>269260838.978057</v>
+      </c>
+      <c r="M14" s="11" t="n">
+        <v>614403529.512769</v>
+      </c>
+      <c r="N14" s="11" t="n">
+        <v>847918701.56921</v>
+      </c>
+      <c r="O14" s="11" t="n">
+        <v>907052082.200416</v>
+      </c>
+      <c r="P14" s="11" t="n">
+        <v>699266721.104089</v>
+      </c>
+      <c r="Q14" s="11" t="n">
+        <v>714851140.010647</v>
+      </c>
+      <c r="R14" s="11" t="n">
+        <v>664451089.671619</v>
+      </c>
+      <c r="S14" s="11" t="n">
+        <v>567043744.675038</v>
+      </c>
+      <c r="T14" s="11" t="n">
+        <v>605229066.820258</v>
+      </c>
+      <c r="U14" s="11" t="n">
+        <v>490354769.765257</v>
+      </c>
+      <c r="V14" s="11" t="n">
+        <v>493276250.883259</v>
+      </c>
+      <c r="W14" s="11" t="n">
+        <v>449723609.283849</v>
+      </c>
+      <c r="X14" s="11" t="n">
+        <v>476068454.285594</v>
+      </c>
+      <c r="Y14" s="11" t="n">
+        <v>550515085.396083</v>
+      </c>
+      <c r="Z14" s="11" t="n">
+        <v>632205102.65608</v>
+      </c>
+      <c r="AA14" s="11" t="n">
+        <v>623411404.662271</v>
+      </c>
+      <c r="AB14" s="11" t="n">
+        <v>642061815.177557</v>
+      </c>
+      <c r="AC14" s="11" t="n">
+        <v>697196770.731042</v>
+      </c>
+      <c r="AD14" s="11" t="n">
+        <v>806870323.599616</v>
+      </c>
+      <c r="AE14" s="11" t="n">
+        <v>839765721.025398</v>
+      </c>
+      <c r="AF14" s="11" t="n">
+        <v>782257677.270576</v>
+      </c>
+      <c r="AG14" s="11" t="n">
+        <v>766733201.94128</v>
+      </c>
+      <c r="AH14" s="11" t="n">
+        <v>725064361.108577</v>
+      </c>
+      <c r="AI14" s="11" t="n">
+        <v>594671411.471336</v>
+      </c>
+      <c r="AJ14" s="11" t="n">
+        <v>631518546.012948</v>
+      </c>
+      <c r="AK14" s="11" t="n">
+        <v>619516360.100543</v>
+      </c>
+      <c r="AL14" s="11" t="n">
+        <v>684180057.443613</v>
+      </c>
+      <c r="AM14" s="11" t="n">
+        <v>836065312.901129</v>
+      </c>
+      <c r="AN14" s="11" t="n">
+        <v>728851216.227155</v>
+      </c>
+      <c r="AO14" s="11" t="n">
+        <v>900149697.291059</v>
+      </c>
+      <c r="AP14" s="11" t="n">
+        <v>942928622.512672</v>
+      </c>
+      <c r="AQ14" s="11" t="n">
+        <v>929415396.907002</v>
+      </c>
+      <c r="AR14" s="11" t="n">
+        <v>944636514.2644</v>
+      </c>
+      <c r="AS14" s="11" t="n">
+        <v>454029863.014742</v>
+      </c>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>K15</f>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" s="11" t="n">
+        <v>38132780.6357852</v>
+      </c>
+      <c r="M15" s="11" t="n">
+        <v>28822233.5713602</v>
+      </c>
+      <c r="N15" s="11" t="n">
+        <v>22632039.9733199</v>
+      </c>
+      <c r="O15" s="11" t="n">
+        <v>64428495.4331039</v>
+      </c>
+      <c r="P15" s="11" t="n">
+        <v>46018674.7136116</v>
+      </c>
+      <c r="Q15" s="11" t="n">
+        <v>18095136.4315767</v>
+      </c>
+      <c r="R15" s="11" t="n">
+        <v>27530185.7591572</v>
+      </c>
+      <c r="S15" s="11" t="n">
+        <v>721045.624653708</v>
+      </c>
+      <c r="T15" s="11" t="n">
+        <v>4234050.15474778</v>
+      </c>
+      <c r="U15" s="11" t="n">
+        <v>130114.471706051</v>
+      </c>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11" t="n">
+        <v>50162.8264016317</v>
+      </c>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11" t="n">
+        <v>25946.8060332807</v>
+      </c>
+      <c r="AB15" s="11" t="n">
+        <v>1571281.98983941</v>
+      </c>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11" t="n">
+        <v>1071004.78396853</v>
+      </c>
+      <c r="AJ15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11" t="n">
+        <v>110785.540285983</v>
+      </c>
+      <c r="AP15" s="11" t="n">
+        <v>85152.7537421695</v>
+      </c>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>K16</f>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -3784,89 +5233,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>188093593</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="3" t="n">
         <v>265567420</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="3" t="n">
         <v>305630976</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="3" t="n">
         <v>470008161.0938</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="3" t="n">
         <v>508187397.6484</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="3" t="n">
         <v>412587169.4375</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="3" t="n">
         <v>588051577.1021</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="3" t="n">
         <v>731847538.1334</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="3" t="n">
         <v>1154677070.255</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="3" t="n">
         <v>2478561502.3815</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>3280943246.4082</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="3" t="n">
         <v>3594937685.9658</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="3" t="n">
         <v>2167938638.0338</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="3" t="n">
         <v>1028884661.1787</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="3" t="n">
         <v>1324720469.133</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="3" t="n">
         <v>1999334816.8284</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="3" t="n">
         <v>3124515545.3746</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>737933973.7061</v>
       </c>
-      <c r="AR2" s="11" t="n">
+      <c r="AR2" s="3" t="n">
         <v>631329825.3753</v>
       </c>
-      <c r="AS2" s="11" t="n">
+      <c r="AS2" s="3" t="n">
         <v>383721696.5766</v>
       </c>
-      <c r="AT2" s="11" t="n">
+      <c r="AT2" s="3" t="n">
         <v>6550229032.8473</v>
       </c>
-      <c r="AU2" s="11" t="n">
+      <c r="AU2" s="3" t="n">
         <v>1379016621.5815</v>
       </c>
-      <c r="AV2" s="11" t="n">
+      <c r="AV2" s="3" t="n">
         <v>2231441789.9627</v>
       </c>
-      <c r="AW2" s="11" t="n">
+      <c r="AW2" s="3" t="n">
         <v>1172691161.9394</v>
       </c>
-      <c r="AX2" s="11"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3884,73 +5333,73 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>13712019</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="3" t="n">
         <v>23550576</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="3" t="n">
         <v>32894146</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="3" t="n">
         <v>16542070</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="3" t="n">
         <v>1103661</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="3" t="n">
         <v>1393825</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="3" t="n">
         <v>1919856</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="3" t="n">
         <v>99989</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="3" t="n">
         <v>21977974.25</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="3" t="n">
         <v>384624.5938</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>10348269</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="3" t="n">
         <v>9849413.3302</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="3" t="n">
         <v>2016281</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="3" t="n">
         <v>3724361</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="3" t="n">
         <v>-20.89</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="3" t="n">
         <v>-22.54</v>
       </c>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3968,89 +5417,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>143413440</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="3" t="n">
         <v>172688897</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="3" t="n">
         <v>203213466.8281</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="3" t="n">
         <v>244288284</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="3" t="n">
         <v>247394625.5938</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="3" t="n">
         <v>288277076</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="3" t="n">
         <v>350559515.4688</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="3" t="n">
         <v>249377755.7227</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="3" t="n">
         <v>237464435.387</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="3" t="n">
         <v>387724569.7587</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>576049069.2408</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="3" t="n">
         <v>501991794.0445</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="3" t="n">
         <v>483992311.7919</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="3" t="n">
         <v>399494367.0039</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AN4" s="3" t="n">
         <v>189869901.1531</v>
       </c>
-      <c r="AO4" s="11" t="n">
+      <c r="AO4" s="3" t="n">
         <v>313780993.3078</v>
       </c>
-      <c r="AP4" s="11" t="n">
+      <c r="AP4" s="3" t="n">
         <v>207934670.21</v>
       </c>
-      <c r="AQ4" s="11" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>285904918.207</v>
       </c>
-      <c r="AR4" s="11" t="n">
+      <c r="AR4" s="3" t="n">
         <v>8416343.4459</v>
       </c>
-      <c r="AS4" s="11" t="n">
+      <c r="AS4" s="3" t="n">
         <v>2014404.0337</v>
       </c>
-      <c r="AT4" s="11" t="n">
+      <c r="AT4" s="3" t="n">
         <v>-78349.0893</v>
       </c>
-      <c r="AU4" s="11" t="n">
+      <c r="AU4" s="3" t="n">
         <v>-412285.4971</v>
       </c>
-      <c r="AV4" s="11" t="n">
+      <c r="AV4" s="3" t="n">
         <v>-10049870.0288</v>
       </c>
-      <c r="AW4" s="11" t="n">
+      <c r="AW4" s="3" t="n">
         <v>-2210387.9844</v>
       </c>
-      <c r="AX4" s="11"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4068,89 +5517,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>36020375</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="3" t="n">
         <v>185463455</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="3" t="n">
         <v>264519018</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="3" t="n">
         <v>135374880</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="3" t="n">
         <v>39511440</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="3" t="n">
         <v>37634913</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="3" t="n">
         <v>111698152</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="3" t="n">
         <v>135894401.1563</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="3" t="n">
         <v>262231428.3676</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="3" t="n">
         <v>417836167.9448</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>1158868116.2352</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="3" t="n">
         <v>1425188606.175</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="3" t="n">
         <v>1477921988.3733</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="3" t="n">
         <v>3940505912.5198</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="3" t="n">
         <v>2191682732.22</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="3" t="n">
         <v>3053677012.1736</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="3" t="n">
         <v>2586325522.717</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>1254779181.1651</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="3" t="n">
         <v>7893031520.39</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="3" t="n">
         <v>9543424182.8969</v>
       </c>
-      <c r="AT5" s="11" t="n">
+      <c r="AT5" s="3" t="n">
         <v>6406255060.8543</v>
       </c>
-      <c r="AU5" s="11" t="n">
+      <c r="AU5" s="3" t="n">
         <v>5937681464.8529</v>
       </c>
-      <c r="AV5" s="11" t="n">
+      <c r="AV5" s="3" t="n">
         <v>7209301651.7395</v>
       </c>
-      <c r="AW5" s="11" t="n">
+      <c r="AW5" s="3" t="n">
         <v>2886601818.471</v>
       </c>
-      <c r="AX5" s="11"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4168,89 +5617,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>2042760115</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="3" t="n">
         <v>2090668841</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="3" t="n">
         <v>2957552781</v>
       </c>
-      <c r="AC6" s="11" t="n">
+      <c r="AC6" s="3" t="n">
         <v>3226349708</v>
       </c>
-      <c r="AD6" s="11" t="n">
+      <c r="AD6" s="3" t="n">
         <v>3882135178.1563</v>
       </c>
-      <c r="AE6" s="11" t="n">
+      <c r="AE6" s="3" t="n">
         <v>4548786188.7188</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="3" t="n">
         <v>4106603861.7383</v>
       </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AG6" s="3" t="n">
         <v>4453760963.0368</v>
       </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AH6" s="3" t="n">
         <v>2491178476.9149</v>
       </c>
-      <c r="AI6" s="11" t="n">
+      <c r="AI6" s="3" t="n">
         <v>3399241384.2067</v>
       </c>
-      <c r="AJ6" s="11" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>4137433215.6188</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="3" t="n">
         <v>3707906717.6788</v>
       </c>
-      <c r="AL6" s="11" t="n">
+      <c r="AL6" s="3" t="n">
         <v>4081238872.4698</v>
       </c>
-      <c r="AM6" s="11" t="n">
+      <c r="AM6" s="3" t="n">
         <v>3462075641.7363</v>
       </c>
-      <c r="AN6" s="11" t="n">
+      <c r="AN6" s="3" t="n">
         <v>3760509665.3786</v>
       </c>
-      <c r="AO6" s="11" t="n">
+      <c r="AO6" s="3" t="n">
         <v>3360832180.317</v>
       </c>
-      <c r="AP6" s="11" t="n">
+      <c r="AP6" s="3" t="n">
         <v>2481339093.598</v>
       </c>
-      <c r="AQ6" s="11" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>3140121951.4034</v>
       </c>
-      <c r="AR6" s="11" t="n">
+      <c r="AR6" s="3" t="n">
         <v>3003174380.6131</v>
       </c>
-      <c r="AS6" s="11" t="n">
+      <c r="AS6" s="3" t="n">
         <v>3506229863.3735</v>
       </c>
-      <c r="AT6" s="11" t="n">
+      <c r="AT6" s="3" t="n">
         <v>4634773807.7049</v>
       </c>
-      <c r="AU6" s="11" t="n">
+      <c r="AU6" s="3" t="n">
         <v>3356247027.6463</v>
       </c>
-      <c r="AV6" s="11" t="n">
+      <c r="AV6" s="3" t="n">
         <v>3097662122.9688</v>
       </c>
-      <c r="AW6" s="11" t="n">
+      <c r="AW6" s="3" t="n">
         <v>1936596308.6438</v>
       </c>
-      <c r="AX6" s="11"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4268,89 +5717,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>122092079</v>
       </c>
-      <c r="AA7" s="11" t="n">
+      <c r="AA7" s="3" t="n">
         <v>613410860</v>
       </c>
-      <c r="AB7" s="11" t="n">
+      <c r="AB7" s="3" t="n">
         <v>929286575</v>
       </c>
-      <c r="AC7" s="11" t="n">
+      <c r="AC7" s="3" t="n">
         <v>891140071</v>
       </c>
-      <c r="AD7" s="11" t="n">
+      <c r="AD7" s="3" t="n">
         <v>1216032307</v>
       </c>
-      <c r="AE7" s="11" t="n">
+      <c r="AE7" s="3" t="n">
         <v>1070575766</v>
       </c>
-      <c r="AF7" s="11" t="n">
+      <c r="AF7" s="3" t="n">
         <v>1363131220</v>
       </c>
-      <c r="AG7" s="11" t="n">
+      <c r="AG7" s="3" t="n">
         <v>1063840951.9997</v>
       </c>
-      <c r="AH7" s="11" t="n">
+      <c r="AH7" s="3" t="n">
         <v>1135542368.3325</v>
       </c>
-      <c r="AI7" s="11" t="n">
+      <c r="AI7" s="3" t="n">
         <v>1598689132.2695</v>
       </c>
-      <c r="AJ7" s="11" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>1372080615.1315</v>
       </c>
-      <c r="AK7" s="11" t="n">
+      <c r="AK7" s="3" t="n">
         <v>1668436621.1011</v>
       </c>
-      <c r="AL7" s="11" t="n">
+      <c r="AL7" s="3" t="n">
         <v>2995119286.7718</v>
       </c>
-      <c r="AM7" s="11" t="n">
+      <c r="AM7" s="3" t="n">
         <v>1973287979.8903</v>
       </c>
-      <c r="AN7" s="11" t="n">
+      <c r="AN7" s="3" t="n">
         <v>1051781326.8202</v>
       </c>
-      <c r="AO7" s="11" t="n">
+      <c r="AO7" s="3" t="n">
         <v>653442719.9612</v>
       </c>
-      <c r="AP7" s="11" t="n">
+      <c r="AP7" s="3" t="n">
         <v>1585413796.8568</v>
       </c>
-      <c r="AQ7" s="11" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>3213161772.667</v>
       </c>
-      <c r="AR7" s="11" t="n">
+      <c r="AR7" s="3" t="n">
         <v>1891091603.0572</v>
       </c>
-      <c r="AS7" s="11" t="n">
+      <c r="AS7" s="3" t="n">
         <v>1393690630.0432</v>
       </c>
-      <c r="AT7" s="11" t="n">
+      <c r="AT7" s="3" t="n">
         <v>1777873065.1261</v>
       </c>
-      <c r="AU7" s="11" t="n">
+      <c r="AU7" s="3" t="n">
         <v>1425007576.2745</v>
       </c>
-      <c r="AV7" s="11" t="n">
+      <c r="AV7" s="3" t="n">
         <v>1288934835.0641</v>
       </c>
-      <c r="AW7" s="11" t="n">
+      <c r="AW7" s="3" t="n">
         <v>417086819.7503</v>
       </c>
-      <c r="AX7" s="11"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4368,67 +5817,67 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3" t="n">
         <v>8050613</v>
       </c>
-      <c r="AD8" s="11" t="n">
+      <c r="AD8" s="3" t="n">
         <v>69113097</v>
       </c>
-      <c r="AE8" s="11" t="n">
+      <c r="AE8" s="3" t="n">
         <v>117706104</v>
       </c>
-      <c r="AF8" s="11" t="n">
+      <c r="AF8" s="3" t="n">
         <v>236927162.5508</v>
       </c>
-      <c r="AG8" s="11" t="n">
+      <c r="AG8" s="3" t="n">
         <v>1670263655.6915</v>
       </c>
-      <c r="AH8" s="11" t="n">
+      <c r="AH8" s="3" t="n">
         <v>3334452868.81</v>
       </c>
-      <c r="AI8" s="11" t="n">
+      <c r="AI8" s="3" t="n">
         <v>2202198527.7097</v>
       </c>
-      <c r="AJ8" s="11" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>6934225.014</v>
       </c>
-      <c r="AK8" s="11" t="n">
+      <c r="AK8" s="3" t="n">
         <v>2076027.0686</v>
       </c>
-      <c r="AL8" s="11" t="n">
+      <c r="AL8" s="3" t="n">
         <v>-744085.4561</v>
       </c>
-      <c r="AM8" s="11" t="n">
+      <c r="AM8" s="3" t="n">
         <v>-1545901.82</v>
       </c>
-      <c r="AN8" s="11" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-1396170.87</v>
       </c>
-      <c r="AO8" s="11" t="n">
+      <c r="AO8" s="3" t="n">
         <v>188650</v>
       </c>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -4444,109 +5893,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="11" t="n">
+      <c r="P9" s="3" t="n">
         <v>3035334000</v>
       </c>
-      <c r="Q9" s="11" t="n">
+      <c r="Q9" s="3" t="n">
         <v>5206015283</v>
       </c>
-      <c r="R9" s="11" t="n">
+      <c r="R9" s="3" t="n">
         <v>3918554592</v>
       </c>
-      <c r="S9" s="11" t="n">
+      <c r="S9" s="3" t="n">
         <v>4991418711</v>
       </c>
-      <c r="T9" s="11" t="n">
+      <c r="T9" s="3" t="n">
         <v>4289293657</v>
       </c>
-      <c r="U9" s="11" t="n">
+      <c r="U9" s="3" t="n">
         <v>3486356407</v>
       </c>
-      <c r="V9" s="11" t="n">
+      <c r="V9" s="3" t="n">
         <v>3715624896</v>
       </c>
-      <c r="W9" s="11" t="n">
+      <c r="W9" s="3" t="n">
         <v>4012460461</v>
       </c>
-      <c r="X9" s="11" t="n">
+      <c r="X9" s="3" t="n">
         <v>3602703203</v>
       </c>
-      <c r="Y9" s="11" t="n">
+      <c r="Y9" s="3" t="n">
         <v>3665542951</v>
       </c>
-      <c r="Z9" s="11" t="n">
+      <c r="Z9" s="3" t="n">
         <v>454947496</v>
       </c>
-      <c r="AA9" s="11" t="n">
+      <c r="AA9" s="3" t="n">
         <v>12941467.3999</v>
       </c>
-      <c r="AB9" s="11" t="n">
+      <c r="AB9" s="3" t="n">
         <v>33493982</v>
       </c>
-      <c r="AC9" s="11" t="n">
+      <c r="AC9" s="3" t="n">
         <v>44678337</v>
       </c>
-      <c r="AD9" s="11" t="n">
+      <c r="AD9" s="3" t="n">
         <v>29147742.1875</v>
       </c>
-      <c r="AE9" s="11" t="n">
+      <c r="AE9" s="3" t="n">
         <v>15746652</v>
       </c>
-      <c r="AF9" s="11" t="n">
+      <c r="AF9" s="3" t="n">
         <v>4336591.4687</v>
       </c>
-      <c r="AG9" s="11" t="n">
+      <c r="AG9" s="3" t="n">
         <v>3132509.4915</v>
       </c>
-      <c r="AH9" s="11" t="n">
+      <c r="AH9" s="3" t="n">
         <v>124216313.5868</v>
       </c>
-      <c r="AI9" s="11" t="n">
+      <c r="AI9" s="3" t="n">
         <v>15033844.9149</v>
       </c>
-      <c r="AJ9" s="11" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="11" t="n">
+      <c r="AK9" s="3" t="n">
         <v>-55989.7188</v>
       </c>
-      <c r="AL9" s="11" t="n">
+      <c r="AL9" s="3" t="n">
         <v>-61893.9883</v>
       </c>
-      <c r="AM9" s="11" t="n">
+      <c r="AM9" s="3" t="n">
         <v>1510164.9334</v>
       </c>
-      <c r="AN9" s="11" t="n">
+      <c r="AN9" s="3" t="n">
         <v>-710165.5508</v>
       </c>
-      <c r="AO9" s="11" t="n">
+      <c r="AO9" s="3" t="n">
         <v>-1869898.475</v>
       </c>
-      <c r="AP9" s="11" t="n">
+      <c r="AP9" s="3" t="n">
         <v>313029.3438</v>
       </c>
-      <c r="AQ9" s="11" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>1308337.1875</v>
       </c>
-      <c r="AR9" s="11" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="11" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="11" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="11" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="11" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="11" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="11"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4561,107 +6010,107 @@
       <c r="O10" t="s">
         <v>152</v>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="11" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="11" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="11" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="11" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="11" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="11" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="11" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="11" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="11" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="11" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="11" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="11" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="11" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="11" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="11" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="11" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="11" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4798,89 +6247,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>303908470.379152</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="3" t="n">
         <v>418926534.125859</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="3" t="n">
         <v>474634465.5017</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="3" t="n">
         <v>716216453.954378</v>
       </c>
-      <c r="AD14" s="11" t="n">
+      <c r="AD14" s="3" t="n">
         <v>755918249.100577</v>
       </c>
-      <c r="AE14" s="11" t="n">
+      <c r="AE14" s="3" t="n">
         <v>595633408.847446</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="3" t="n">
         <v>822175364.343753</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="3" t="n">
         <v>995910530.255985</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="3" t="n">
         <v>1539202745.81494</v>
       </c>
-      <c r="AI14" s="11" t="n">
+      <c r="AI14" s="3" t="n">
         <v>3270724616.85976</v>
       </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>4292220889.85971</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="3" t="n">
         <v>4610086584.38434</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="3" t="n">
         <v>2730085126.35506</v>
       </c>
-      <c r="AM14" s="11" t="n">
+      <c r="AM14" s="3" t="n">
         <v>1272389721.3457</v>
       </c>
-      <c r="AN14" s="11" t="n">
+      <c r="AN14" s="3" t="n">
         <v>1607148831.52671</v>
       </c>
-      <c r="AO14" s="11" t="n">
+      <c r="AO14" s="3" t="n">
         <v>2398097281.81432</v>
       </c>
-      <c r="AP14" s="11" t="n">
+      <c r="AP14" s="3" t="n">
         <v>3716892526.40186</v>
       </c>
-      <c r="AQ14" s="11" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>862441070.581501</v>
       </c>
-      <c r="AR14" s="11" t="n">
+      <c r="AR14" s="3" t="n">
         <v>720922786.555265</v>
       </c>
-      <c r="AS14" s="11" t="n">
+      <c r="AS14" s="3" t="n">
         <v>429758744.737958</v>
       </c>
-      <c r="AT14" s="11" t="n">
+      <c r="AT14" s="3" t="n">
         <v>7239515030.33714</v>
       </c>
-      <c r="AU14" s="11" t="n">
+      <c r="AU14" s="3" t="n">
         <v>1474565366.65151</v>
       </c>
-      <c r="AV14" s="11" t="n">
+      <c r="AV14" s="3" t="n">
         <v>2231441789.9627</v>
       </c>
-      <c r="AW14" s="11" t="n">
+      <c r="AW14" s="3" t="n">
         <v>1118510929.83592</v>
       </c>
-      <c r="AX14" s="11"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4898,73 +6347,73 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>22154921.1413058</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="3" t="n">
         <v>37150495.2691397</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="3" t="n">
         <v>51083485.0877317</v>
       </c>
-      <c r="AC15" s="11" t="n">
+      <c r="AC15" s="3" t="n">
         <v>25207440.417403</v>
       </c>
-      <c r="AD15" s="11" t="n">
+      <c r="AD15" s="3" t="n">
         <v>1641672.92337659</v>
       </c>
-      <c r="AE15" s="11" t="n">
+      <c r="AE15" s="3" t="n">
         <v>2012202.02077213</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="3" t="n">
         <v>2684217.45260192</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="3" t="n">
         <v>136066.725405332</v>
       </c>
-      <c r="AH15" s="11" t="n">
+      <c r="AH15" s="3" t="n">
         <v>29296986.3042134</v>
       </c>
-      <c r="AI15" s="11" t="n">
+      <c r="AI15" s="3" t="n">
         <v>507552.919700644</v>
       </c>
-      <c r="AJ15" s="11" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>13537892.319324</v>
       </c>
-      <c r="AK15" s="11" t="n">
+      <c r="AK15" s="3" t="n">
         <v>12630719.1456679</v>
       </c>
-      <c r="AL15" s="11" t="n">
+      <c r="AL15" s="3" t="n">
         <v>2539102.66281554</v>
       </c>
-      <c r="AM15" s="11" t="n">
+      <c r="AM15" s="3" t="n">
         <v>4605801.63528916</v>
       </c>
-      <c r="AN15" s="11" t="n">
+      <c r="AN15" s="3" t="n">
         <v>-25.3437158048641</v>
       </c>
-      <c r="AO15" s="11" t="n">
+      <c r="AO15" s="3" t="n">
         <v>-27.0355481618835</v>
       </c>
-      <c r="AP15" s="11"/>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="11"/>
-      <c r="AT15" s="11"/>
-      <c r="AU15" s="11"/>
-      <c r="AV15" s="11"/>
-      <c r="AW15" s="11"/>
-      <c r="AX15" s="11"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4982,89 +6431,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>231717404.548768</v>
       </c>
-      <c r="AA16" s="11" t="n">
+      <c r="AA16" s="3" t="n">
         <v>272412787.314903</v>
       </c>
-      <c r="AB16" s="11" t="n">
+      <c r="AB16" s="3" t="n">
         <v>315583572.297013</v>
       </c>
-      <c r="AC16" s="11" t="n">
+      <c r="AC16" s="3" t="n">
         <v>372255852.11522</v>
       </c>
-      <c r="AD16" s="11" t="n">
+      <c r="AD16" s="3" t="n">
         <v>367994391.598717</v>
       </c>
-      <c r="AE16" s="11" t="n">
+      <c r="AE16" s="3" t="n">
         <v>416172557.436896</v>
       </c>
-      <c r="AF16" s="11" t="n">
+      <c r="AF16" s="3" t="n">
         <v>490129452.207366</v>
       </c>
-      <c r="AG16" s="11" t="n">
+      <c r="AG16" s="3" t="n">
         <v>339357475.423483</v>
       </c>
-      <c r="AH16" s="11" t="n">
+      <c r="AH16" s="3" t="n">
         <v>316543837.577328</v>
       </c>
-      <c r="AI16" s="11" t="n">
+      <c r="AI16" s="3" t="n">
         <v>511643666.559276</v>
       </c>
-      <c r="AJ16" s="11" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>753603358.206942</v>
       </c>
-      <c r="AK16" s="11" t="n">
+      <c r="AK16" s="3" t="n">
         <v>643745688.341144</v>
       </c>
-      <c r="AL16" s="11" t="n">
+      <c r="AL16" s="3" t="n">
         <v>609491518.123249</v>
       </c>
-      <c r="AM16" s="11" t="n">
+      <c r="AM16" s="3" t="n">
         <v>494042282.376862</v>
       </c>
-      <c r="AN16" s="11" t="n">
+      <c r="AN16" s="3" t="n">
         <v>230349871.456285</v>
       </c>
-      <c r="AO16" s="11" t="n">
+      <c r="AO16" s="3" t="n">
         <v>376363849.017599</v>
       </c>
-      <c r="AP16" s="11" t="n">
+      <c r="AP16" s="3" t="n">
         <v>247357009.577856</v>
       </c>
-      <c r="AQ16" s="11" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>334143910.605702</v>
       </c>
-      <c r="AR16" s="11" t="n">
+      <c r="AR16" s="3" t="n">
         <v>9610719.35104201</v>
       </c>
-      <c r="AS16" s="11" t="n">
+      <c r="AS16" s="3" t="n">
         <v>2256082.35510648</v>
       </c>
-      <c r="AT16" s="11" t="n">
+      <c r="AT16" s="3" t="n">
         <v>-86593.8285144234</v>
       </c>
-      <c r="AU16" s="11" t="n">
+      <c r="AU16" s="3" t="n">
         <v>-440851.767616227</v>
       </c>
-      <c r="AV16" s="11" t="n">
+      <c r="AV16" s="3" t="n">
         <v>-10049870.0288</v>
       </c>
-      <c r="AW16" s="11" t="n">
+      <c r="AW16" s="3" t="n">
         <v>-2108264.47744402</v>
       </c>
-      <c r="AX16" s="11"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -5082,89 +6531,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>58199202.2914542</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AA17" s="3" t="n">
         <v>292564360.530962</v>
       </c>
-      <c r="AB17" s="11" t="n">
+      <c r="AB17" s="3" t="n">
         <v>410788999.094989</v>
       </c>
-      <c r="AC17" s="11" t="n">
+      <c r="AC17" s="3" t="n">
         <v>206289431.831269</v>
       </c>
-      <c r="AD17" s="11" t="n">
+      <c r="AD17" s="3" t="n">
         <v>58772450.2466055</v>
       </c>
-      <c r="AE17" s="11" t="n">
+      <c r="AE17" s="3" t="n">
         <v>54331819.2672562</v>
       </c>
-      <c r="AF17" s="11" t="n">
+      <c r="AF17" s="3" t="n">
         <v>156169071.545877</v>
       </c>
-      <c r="AG17" s="11" t="n">
+      <c r="AG17" s="3" t="n">
         <v>184927403.676968</v>
       </c>
-      <c r="AH17" s="11" t="n">
+      <c r="AH17" s="3" t="n">
         <v>349558629.836865</v>
       </c>
-      <c r="AI17" s="11" t="n">
+      <c r="AI17" s="3" t="n">
         <v>551379112.036677</v>
       </c>
-      <c r="AJ17" s="11" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>1516063388.94844</v>
       </c>
-      <c r="AK17" s="11" t="n">
+      <c r="AK17" s="3" t="n">
         <v>1827637485.67721</v>
       </c>
-      <c r="AL17" s="11" t="n">
+      <c r="AL17" s="3" t="n">
         <v>1861147159.60339</v>
       </c>
-      <c r="AM17" s="11" t="n">
+      <c r="AM17" s="3" t="n">
         <v>4873101338.92775</v>
       </c>
-      <c r="AN17" s="11" t="n">
+      <c r="AN17" s="3" t="n">
         <v>2658946112.9637</v>
       </c>
-      <c r="AO17" s="11" t="n">
+      <c r="AO17" s="3" t="n">
         <v>3662725462.88625</v>
       </c>
-      <c r="AP17" s="11" t="n">
+      <c r="AP17" s="3" t="n">
         <v>3076667043.779</v>
       </c>
-      <c r="AQ17" s="11" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>1466490416.3613</v>
       </c>
-      <c r="AR17" s="11" t="n">
+      <c r="AR17" s="3" t="n">
         <v>9013143446.32058</v>
       </c>
-      <c r="AS17" s="11" t="n">
+      <c r="AS17" s="3" t="n">
         <v>10688397434.7406</v>
       </c>
-      <c r="AT17" s="11" t="n">
+      <c r="AT17" s="3" t="n">
         <v>7080390558.6593</v>
       </c>
-      <c r="AU17" s="11" t="n">
+      <c r="AU17" s="3" t="n">
         <v>6349089132.97912</v>
       </c>
-      <c r="AV17" s="11" t="n">
+      <c r="AV17" s="3" t="n">
         <v>7209301651.7395</v>
       </c>
-      <c r="AW17" s="11" t="n">
+      <c r="AW17" s="3" t="n">
         <v>2753236136.53269</v>
       </c>
-      <c r="AX17" s="11"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -5182,89 +6631,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>3300548902.27543</v>
       </c>
-      <c r="AA18" s="11" t="n">
+      <c r="AA18" s="3" t="n">
         <v>3297982303.57119</v>
       </c>
-      <c r="AB18" s="11" t="n">
+      <c r="AB18" s="3" t="n">
         <v>4592978440.1271</v>
       </c>
-      <c r="AC18" s="11" t="n">
+      <c r="AC18" s="3" t="n">
         <v>4916435369.34105</v>
       </c>
-      <c r="AD18" s="11" t="n">
+      <c r="AD18" s="3" t="n">
         <v>5774595828.67109</v>
       </c>
-      <c r="AE18" s="11" t="n">
+      <c r="AE18" s="3" t="n">
         <v>6566876588.52463</v>
       </c>
-      <c r="AF18" s="11" t="n">
+      <c r="AF18" s="3" t="n">
         <v>5741585700.49024</v>
       </c>
-      <c r="AG18" s="11" t="n">
+      <c r="AG18" s="3" t="n">
         <v>6060753382.65725</v>
       </c>
-      <c r="AH18" s="11" t="n">
+      <c r="AH18" s="3" t="n">
         <v>3320780199.72778</v>
       </c>
-      <c r="AI18" s="11" t="n">
+      <c r="AI18" s="3" t="n">
         <v>4485659308.14736</v>
       </c>
-      <c r="AJ18" s="11" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>5412704806.13153</v>
       </c>
-      <c r="AK18" s="11" t="n">
+      <c r="AK18" s="3" t="n">
         <v>4754956137.91905</v>
       </c>
-      <c r="AL18" s="11" t="n">
+      <c r="AL18" s="3" t="n">
         <v>5139504111.1206</v>
       </c>
-      <c r="AM18" s="11" t="n">
+      <c r="AM18" s="3" t="n">
         <v>4281441474.71307</v>
       </c>
-      <c r="AN18" s="11" t="n">
+      <c r="AN18" s="3" t="n">
         <v>4562244530.4356</v>
       </c>
-      <c r="AO18" s="11" t="n">
+      <c r="AO18" s="3" t="n">
         <v>4031141982.03054</v>
       </c>
-      <c r="AP18" s="11" t="n">
+      <c r="AP18" s="3" t="n">
         <v>2951776234.91626</v>
       </c>
-      <c r="AQ18" s="11" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>3669935568.79306</v>
       </c>
-      <c r="AR18" s="11" t="n">
+      <c r="AR18" s="3" t="n">
         <v>3429359355.38281</v>
       </c>
-      <c r="AS18" s="11" t="n">
+      <c r="AS18" s="3" t="n">
         <v>3926890134.9323</v>
       </c>
-      <c r="AT18" s="11" t="n">
+      <c r="AT18" s="3" t="n">
         <v>5122494873.81775</v>
       </c>
-      <c r="AU18" s="11" t="n">
+      <c r="AU18" s="3" t="n">
         <v>3588793312.16373</v>
       </c>
-      <c r="AV18" s="11" t="n">
+      <c r="AV18" s="3" t="n">
         <v>3097662122.9688</v>
       </c>
-      <c r="AW18" s="11" t="n">
+      <c r="AW18" s="3" t="n">
         <v>1847122420.80488</v>
       </c>
-      <c r="AX18" s="11"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5282,89 +6731,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>197267840.879092</v>
       </c>
-      <c r="AA19" s="11" t="n">
+      <c r="AA19" s="3" t="n">
         <v>967641608.955507</v>
       </c>
-      <c r="AB19" s="11" t="n">
+      <c r="AB19" s="3" t="n">
         <v>1443150306.9343</v>
       </c>
-      <c r="AC19" s="11" t="n">
+      <c r="AC19" s="3" t="n">
         <v>1357953402.64506</v>
       </c>
-      <c r="AD19" s="11" t="n">
+      <c r="AD19" s="3" t="n">
         <v>1808822919.67649</v>
       </c>
-      <c r="AE19" s="11" t="n">
+      <c r="AE19" s="3" t="n">
         <v>1545541742.855</v>
       </c>
-      <c r="AF19" s="11" t="n">
+      <c r="AF19" s="3" t="n">
         <v>1905841172.93721</v>
       </c>
-      <c r="AG19" s="11" t="n">
+      <c r="AG19" s="3" t="n">
         <v>1447692793.11415</v>
       </c>
-      <c r="AH19" s="11" t="n">
+      <c r="AH19" s="3" t="n">
         <v>1513695886.36638</v>
       </c>
-      <c r="AI19" s="11" t="n">
+      <c r="AI19" s="3" t="n">
         <v>2109639762.65907</v>
       </c>
-      <c r="AJ19" s="11" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>1794993889.42075</v>
       </c>
-      <c r="AK19" s="11" t="n">
+      <c r="AK19" s="3" t="n">
         <v>2139574578.40255</v>
       </c>
-      <c r="AL19" s="11" t="n">
+      <c r="AL19" s="3" t="n">
         <v>3771753717.11208</v>
       </c>
-      <c r="AM19" s="11" t="n">
+      <c r="AM19" s="3" t="n">
         <v>2440303988.97292</v>
       </c>
-      <c r="AN19" s="11" t="n">
+      <c r="AN19" s="3" t="n">
         <v>1276019484.71967</v>
       </c>
-      <c r="AO19" s="11" t="n">
+      <c r="AO19" s="3" t="n">
         <v>783770280.68071</v>
       </c>
-      <c r="AP19" s="11" t="n">
+      <c r="AP19" s="3" t="n">
         <v>1885992438.57657</v>
       </c>
-      <c r="AQ19" s="11" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>3755298953.44562</v>
       </c>
-      <c r="AR19" s="11" t="n">
+      <c r="AR19" s="3" t="n">
         <v>2159459245.08923</v>
       </c>
-      <c r="AS19" s="11" t="n">
+      <c r="AS19" s="3" t="n">
         <v>1560898800.00011</v>
       </c>
-      <c r="AT19" s="11" t="n">
+      <c r="AT19" s="3" t="n">
         <v>1964960112.45841</v>
       </c>
-      <c r="AU19" s="11" t="n">
+      <c r="AU19" s="3" t="n">
         <v>1523742923.98346</v>
       </c>
-      <c r="AV19" s="11" t="n">
+      <c r="AV19" s="3" t="n">
         <v>1288934835.0641</v>
       </c>
-      <c r="AW19" s="11" t="n">
+      <c r="AW19" s="3" t="n">
         <v>397816732.761667</v>
       </c>
-      <c r="AX19" s="11"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5382,67 +6831,67 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3" t="n">
         <v>12267832.7150755</v>
       </c>
-      <c r="AD20" s="11" t="n">
+      <c r="AD20" s="3" t="n">
         <v>102804303.12895</v>
       </c>
-      <c r="AE20" s="11" t="n">
+      <c r="AE20" s="3" t="n">
         <v>169926970.979868</v>
       </c>
-      <c r="AF20" s="11" t="n">
+      <c r="AF20" s="3" t="n">
         <v>331256107.080067</v>
       </c>
-      <c r="AG20" s="11" t="n">
+      <c r="AG20" s="3" t="n">
         <v>2272923083.474</v>
       </c>
-      <c r="AH20" s="11" t="n">
+      <c r="AH20" s="3" t="n">
         <v>4444878263.95427</v>
       </c>
-      <c r="AI20" s="11" t="n">
+      <c r="AI20" s="3" t="n">
         <v>2906034378.7603</v>
       </c>
-      <c r="AJ20" s="11" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>9071545.35289866</v>
       </c>
-      <c r="AK20" s="11" t="n">
+      <c r="AK20" s="3" t="n">
         <v>2662261.59500186</v>
       </c>
-      <c r="AL20" s="11" t="n">
+      <c r="AL20" s="3" t="n">
         <v>-937026.814687945</v>
       </c>
-      <c r="AM20" s="11" t="n">
+      <c r="AM20" s="3" t="n">
         <v>-1911768.79216394</v>
       </c>
-      <c r="AN20" s="11" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-1693832.34774102</v>
       </c>
-      <c r="AO20" s="11" t="n">
+      <c r="AO20" s="3" t="n">
         <v>226275.783528808</v>
       </c>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5458,109 +6907,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="11" t="n">
+      <c r="P21" s="3" t="n">
         <v>6032822140.01566</v>
       </c>
-      <c r="Q21" s="11" t="n">
+      <c r="Q21" s="3" t="n">
         <v>9990757469.16172</v>
       </c>
-      <c r="R21" s="11" t="n">
+      <c r="R21" s="3" t="n">
         <v>7336657438.47783</v>
       </c>
-      <c r="S21" s="11" t="n">
+      <c r="S21" s="3" t="n">
         <v>9130873892.26007</v>
       </c>
-      <c r="T21" s="11" t="n">
+      <c r="T21" s="3" t="n">
         <v>7679140602.47769</v>
       </c>
-      <c r="U21" s="11" t="n">
+      <c r="U21" s="3" t="n">
         <v>6112165700.2052</v>
       </c>
-      <c r="V21" s="11" t="n">
+      <c r="V21" s="3" t="n">
         <v>6393941560.35423</v>
       </c>
-      <c r="W21" s="11" t="n">
+      <c r="W21" s="3" t="n">
         <v>6784225907.77468</v>
       </c>
-      <c r="X21" s="11" t="n">
+      <c r="X21" s="3" t="n">
         <v>6016289806.15404</v>
       </c>
-      <c r="Y21" s="11" t="n">
+      <c r="Y21" s="3" t="n">
         <v>6045865409.8293</v>
       </c>
-      <c r="Z21" s="11" t="n">
+      <c r="Z21" s="3" t="n">
         <v>735072340.35444</v>
       </c>
-      <c r="AA21" s="11" t="n">
+      <c r="AA21" s="3" t="n">
         <v>20414868.9788187</v>
       </c>
-      <c r="AB21" s="11" t="n">
+      <c r="AB21" s="3" t="n">
         <v>52015009.9055848</v>
       </c>
-      <c r="AC21" s="11" t="n">
+      <c r="AC21" s="3" t="n">
         <v>68082562.6947625</v>
       </c>
-      <c r="AD21" s="11" t="n">
+      <c r="AD21" s="3" t="n">
         <v>43356663.9817665</v>
       </c>
-      <c r="AE21" s="11" t="n">
+      <c r="AE21" s="3" t="n">
         <v>22732728.2655969</v>
       </c>
-      <c r="AF21" s="11" t="n">
+      <c r="AF21" s="3" t="n">
         <v>6063139.37352027</v>
       </c>
-      <c r="AG21" s="11" t="n">
+      <c r="AG21" s="3" t="n">
         <v>4262771.9930145</v>
       </c>
-      <c r="AH21" s="11" t="n">
+      <c r="AH21" s="3" t="n">
         <v>165582305.107685</v>
       </c>
-      <c r="AI21" s="11" t="n">
+      <c r="AI21" s="3" t="n">
         <v>19838751.8736046</v>
       </c>
-      <c r="AJ21" s="11" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" s="11" t="n">
+      <c r="AK21" s="3" t="n">
         <v>-71800.2574873525</v>
       </c>
-      <c r="AL21" s="11" t="n">
+      <c r="AL21" s="3" t="n">
         <v>-77943.0994513184</v>
       </c>
-      <c r="AM21" s="11" t="n">
+      <c r="AM21" s="3" t="n">
         <v>1867574.0938674</v>
       </c>
-      <c r="AN21" s="11" t="n">
+      <c r="AN21" s="3" t="n">
         <v>-861571.751741501</v>
       </c>
-      <c r="AO21" s="11" t="n">
+      <c r="AO21" s="3" t="n">
         <v>-2242845.17651709</v>
       </c>
-      <c r="AP21" s="11" t="n">
+      <c r="AP21" s="3" t="n">
         <v>372376.584983579</v>
       </c>
-      <c r="AQ21" s="11" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>1529084.93832063</v>
       </c>
-      <c r="AR21" s="11" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="11" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="11" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="11" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="11" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="11" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="11"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5569,41 +7018,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -524,7 +524,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
@@ -535,6 +535,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -570,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -583,6 +584,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2058,106 +2060,106 @@
       <c r="K2" t="s">
         <v>154</v>
       </c>
-      <c r="L2" s="11" t="n">
+      <c r="L2" s="12" t="n">
         <v>1432975000</v>
       </c>
-      <c r="M2" s="11" t="n">
+      <c r="M2" s="12" t="n">
         <v>2873347000</v>
       </c>
-      <c r="N2" s="11" t="n">
+      <c r="N2" s="12" t="n">
         <v>1681217544</v>
       </c>
-      <c r="O2" s="11" t="n">
+      <c r="O2" s="12" t="n">
         <v>2589136106</v>
       </c>
-      <c r="P2" s="11" t="n">
+      <c r="P2" s="12" t="n">
         <v>2314521002</v>
       </c>
-      <c r="Q2" s="11" t="n">
+      <c r="Q2" s="12" t="n">
         <v>1705078056</v>
       </c>
-      <c r="R2" s="11" t="n">
+      <c r="R2" s="12" t="n">
         <v>1909163887</v>
       </c>
-      <c r="S2" s="11" t="n">
+      <c r="S2" s="12" t="n">
         <v>2762269589</v>
       </c>
-      <c r="T2" s="11" t="n">
+      <c r="T2" s="12" t="n">
         <v>2240706687</v>
       </c>
-      <c r="U2" s="11" t="n">
+      <c r="U2" s="12" t="n">
         <v>2417392837</v>
       </c>
-      <c r="V2" s="11" t="n">
+      <c r="V2" s="12" t="n">
         <v>1956089394</v>
       </c>
-      <c r="W2" s="11" t="n">
+      <c r="W2" s="12" t="n">
         <v>2333167521</v>
       </c>
-      <c r="X2" s="11" t="n">
+      <c r="X2" s="12" t="n">
         <v>3684949864</v>
       </c>
-      <c r="Y2" s="11" t="n">
+      <c r="Y2" s="12" t="n">
         <v>3859708035.5938</v>
       </c>
-      <c r="Z2" s="11" t="n">
+      <c r="Z2" s="12" t="n">
         <v>4701775050.5</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="12" t="n">
         <v>4989676208.4375</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="12" t="n">
         <v>5349510640.2774</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="12" t="n">
         <v>6454278531.9266</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="12" t="n">
         <v>6842656824.9687</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="12" t="n">
         <v>8782040594.9943</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="12" t="n">
         <v>9044332642.7514</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="12" t="n">
         <v>9518788736.0017</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="12" t="n">
         <v>9753797077.6346</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="12" t="n">
         <v>9435215707.1776</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>6915351196.4803</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="12" t="n">
         <v>7753678427.5827</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="12" t="n">
         <v>8246446764.1197</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="12" t="n">
         <v>6744481998.578</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="12" t="n">
         <v>11226960692.4651</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="12" t="n">
         <v>12636733508.8779</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="12" t="n">
         <v>17092189454.2241</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="12" t="n">
         <v>9822494446.2365</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2166,106 +2168,106 @@
       <c r="K3" t="s">
         <v>155</v>
       </c>
-      <c r="L3" s="11" t="n">
+      <c r="L3" s="12" t="n">
         <v>1017171000</v>
       </c>
-      <c r="M3" s="11" t="n">
+      <c r="M3" s="12" t="n">
         <v>1181414006</v>
       </c>
-      <c r="N3" s="11" t="n">
+      <c r="N3" s="12" t="n">
         <v>1039353460</v>
       </c>
-      <c r="O3" s="11" t="n">
+      <c r="O3" s="12" t="n">
         <v>1248675104</v>
       </c>
-      <c r="P3" s="11" t="n">
+      <c r="P3" s="12" t="n">
         <v>892313975</v>
       </c>
-      <c r="Q3" s="11" t="n">
+      <c r="Q3" s="12" t="n">
         <v>961250693</v>
       </c>
-      <c r="R3" s="11" t="n">
+      <c r="R3" s="12" t="n">
         <v>945542939</v>
       </c>
-      <c r="S3" s="11" t="n">
+      <c r="S3" s="12" t="n">
         <v>624096603</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="T3" s="12" t="n">
         <v>701362390</v>
       </c>
-      <c r="U3" s="11" t="n">
+      <c r="U3" s="12" t="n">
         <v>642641793</v>
       </c>
-      <c r="V3" s="11" t="n">
+      <c r="V3" s="12" t="n">
         <v>542180671</v>
       </c>
-      <c r="W3" s="11" t="n">
+      <c r="W3" s="12" t="n">
         <v>475271278</v>
       </c>
-      <c r="X3" s="11" t="n">
+      <c r="X3" s="12" t="n">
         <v>474854089.625</v>
       </c>
-      <c r="Y3" s="11" t="n">
+      <c r="Y3" s="12" t="n">
         <v>474248296.5</v>
       </c>
-      <c r="Z3" s="11" t="n">
+      <c r="Z3" s="12" t="n">
         <v>509169915.8438</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="12" t="n">
         <v>658697179</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="12" t="n">
         <v>606685920.5938</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="12" t="n">
         <v>849038487.1386</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="12" t="n">
         <v>630781331.9479</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="12" t="n">
         <v>551301821.6089</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="12" t="n">
         <v>460507744.1652</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="12" t="n">
         <v>376206571.7946</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="12" t="n">
         <v>372595687.0724</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="12" t="n">
         <v>405092566.7254</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>447099360.8152</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="12" t="n">
         <v>675576535.9282</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="12" t="n">
         <v>678267402.8444</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="12" t="n">
         <v>697770536.0834</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="12" t="n">
         <v>972267599.7899</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="12" t="n">
         <v>754993809.4825</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="12" t="n">
         <v>782798380.7414</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="12" t="n">
         <v>815172703.9814</v>
       </c>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2274,110 +2276,110 @@
       <c r="K4" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="11" t="n">
+      <c r="L4" s="12" t="n">
         <v>430527000</v>
       </c>
-      <c r="M4" s="11" t="n">
+      <c r="M4" s="12" t="n">
         <v>816080176</v>
       </c>
-      <c r="N4" s="11" t="n">
+      <c r="N4" s="12" t="n">
         <v>733016996</v>
       </c>
-      <c r="O4" s="11" t="n">
+      <c r="O4" s="12" t="n">
         <v>622544824</v>
       </c>
-      <c r="P4" s="11" t="n">
+      <c r="P4" s="12" t="n">
         <v>666168878</v>
       </c>
-      <c r="Q4" s="11" t="n">
+      <c r="Q4" s="12" t="n">
         <v>401957849</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="12" t="n">
         <v>458796338</v>
       </c>
-      <c r="S4" s="11" t="n">
+      <c r="S4" s="12" t="n">
         <v>290295638</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="12" t="n">
         <v>295672531</v>
       </c>
-      <c r="U4" s="11" t="n">
+      <c r="U4" s="12" t="n">
         <v>308132629</v>
       </c>
-      <c r="V4" s="11" t="n">
+      <c r="V4" s="12" t="n">
         <v>197472848</v>
       </c>
-      <c r="W4" s="11" t="n">
+      <c r="W4" s="12" t="n">
         <v>270730505</v>
       </c>
-      <c r="X4" s="11" t="n">
+      <c r="X4" s="12" t="n">
         <v>260232628</v>
       </c>
-      <c r="Y4" s="11" t="n">
+      <c r="Y4" s="12" t="n">
         <v>341207098</v>
       </c>
-      <c r="Z4" s="11" t="n">
+      <c r="Z4" s="12" t="n">
         <v>356662742.1875</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="12" t="n">
         <v>412487724</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="12" t="n">
         <v>346680124.035</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="12" t="n">
         <v>492563818.5525</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="12" t="n">
         <v>683005871.9599</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="12" t="n">
         <v>529951233.7209</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="12" t="n">
         <v>439864141.9574</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="12" t="n">
         <v>417438319.6548</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="12" t="n">
         <v>505260857.5506</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="12" t="n">
         <v>485897392.8519</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="12" t="n">
         <v>633466998.5488</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="12" t="n">
         <v>433630077.6578</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="12" t="n">
         <v>485988121.3176</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="12" t="n">
         <v>475591623.1785</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AN4" s="12" t="n">
         <v>589542434.2768</v>
       </c>
-      <c r="AO4" s="11" t="n">
+      <c r="AO4" s="12" t="n">
         <v>633531583.9358</v>
       </c>
-      <c r="AP4" s="11" t="n">
+      <c r="AP4" s="12" t="n">
         <v>640836882.0949</v>
       </c>
-      <c r="AQ4" s="11" t="n">
+      <c r="AQ4" s="12" t="n">
         <v>590682027.3981</v>
       </c>
-      <c r="AR4" s="11" t="n">
+      <c r="AR4" s="12" t="n">
         <v>12872654015.4419</v>
       </c>
-      <c r="AS4" s="11" t="n">
+      <c r="AS4" s="12" t="n">
         <v>5934742828.7666</v>
       </c>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2386,110 +2388,110 @@
       <c r="K5" t="s">
         <v>157</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="12" t="n">
         <v>135475000</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="12" t="n">
         <v>320155321</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="12" t="n">
         <v>452878678</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="12" t="n">
         <v>495842653</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="12" t="n">
         <v>390585414</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="Q5" s="12" t="n">
         <v>407748411</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="12" t="n">
         <v>386123487</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="12" t="n">
         <v>335372176</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="12" t="n">
         <v>362426141</v>
       </c>
-      <c r="U5" s="11" t="n">
+      <c r="U5" s="12" t="n">
         <v>297296805</v>
       </c>
-      <c r="V5" s="11" t="n">
+      <c r="V5" s="12" t="n">
         <v>305296204</v>
       </c>
-      <c r="W5" s="11" t="n">
+      <c r="W5" s="12" t="n">
         <v>285090413</v>
       </c>
-      <c r="X5" s="11" t="n">
+      <c r="X5" s="12" t="n">
         <v>306554363.2031</v>
       </c>
-      <c r="Y5" s="11" t="n">
+      <c r="Y5" s="12" t="n">
         <v>361268694</v>
       </c>
-      <c r="Z5" s="11" t="n">
+      <c r="Z5" s="12" t="n">
         <v>425017740.0547</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="12" t="n">
         <v>431828609.7188</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="12" t="n">
         <v>459227409.8526</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="12" t="n">
         <v>512336926.6142</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="12" t="n">
         <v>605296907.0273</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="12" t="n">
         <v>636376103.4555</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="12" t="n">
         <v>597952227.7745</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="12" t="n">
         <v>597897248.1941</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="12" t="n">
         <v>575767776.7386</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="12" t="n">
         <v>480865479.6875</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="12" t="n">
         <v>520540181.5498</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="12" t="n">
         <v>516501410.4043</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="12" t="n">
         <v>575139369.8185</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="12" t="n">
         <v>715365976.4962</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="12" t="n">
         <v>638272946.3497</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="12" t="n">
         <v>803722956.7674</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="12" t="n">
         <v>853150855.1613</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="12" t="n">
         <v>869191227.2421</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="12" t="n">
         <v>944636514.2644</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="12" t="n">
         <v>476022892.0535</v>
       </c>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2498,78 +2500,78 @@
       <c r="K6" t="s">
         <v>158</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="12" t="n">
         <v>19186000</v>
       </c>
-      <c r="M6" s="11" t="n">
+      <c r="M6" s="12" t="n">
         <v>15018780</v>
       </c>
-      <c r="N6" s="11" t="n">
+      <c r="N6" s="12" t="n">
         <v>12087914</v>
       </c>
-      <c r="O6" s="11" t="n">
+      <c r="O6" s="12" t="n">
         <v>35220024</v>
       </c>
-      <c r="P6" s="11" t="n">
+      <c r="P6" s="12" t="n">
         <v>25704388</v>
       </c>
-      <c r="Q6" s="11" t="n">
+      <c r="Q6" s="12" t="n">
         <v>10321398</v>
       </c>
-      <c r="R6" s="11" t="n">
+      <c r="R6" s="12" t="n">
         <v>15998245</v>
       </c>
-      <c r="S6" s="11" t="n">
+      <c r="S6" s="12" t="n">
         <v>426455</v>
       </c>
-      <c r="T6" s="11" t="n">
+      <c r="T6" s="12" t="n">
         <v>2535454</v>
       </c>
-      <c r="U6" s="11" t="n">
+      <c r="U6" s="12" t="n">
         <v>78887</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11" t="n">
+      <c r="V6" s="12"/>
+      <c r="W6" s="12" t="n">
         <v>31799.3999</v>
       </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11" t="n">
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12" t="n">
         <v>17973</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="12" t="n">
         <v>1123841.5699</v>
       </c>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11" t="n">
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12" t="n">
         <v>866040</v>
       </c>
-      <c r="AJ6" s="11" t="n">
+      <c r="AJ6" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11" t="n">
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12" t="n">
         <v>98917.8603</v>
       </c>
-      <c r="AP6" s="11" t="n">
+      <c r="AP6" s="12" t="n">
         <v>77045.2216</v>
       </c>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2578,110 +2580,110 @@
       <c r="K7" t="s">
         <v>151</v>
       </c>
-      <c r="L7" s="11" t="str">
+      <c r="L7" s="12" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="12" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="11" t="str">
+      <c r="N7" s="12" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="11" t="str">
+      <c r="O7" s="12" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="11" t="str">
+      <c r="P7" s="12" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="11" t="str">
+      <c r="Q7" s="12" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="11" t="str">
+      <c r="R7" s="12" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="11" t="str">
+      <c r="S7" s="12" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="11" t="str">
+      <c r="T7" s="12" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="11" t="str">
+      <c r="U7" s="12" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="11" t="str">
+      <c r="V7" s="12" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="11" t="str">
+      <c r="W7" s="12" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="11" t="str">
+      <c r="X7" s="12" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="11" t="str">
+      <c r="Y7" s="12" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="11" t="str">
+      <c r="Z7" s="12" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="11" t="str">
+      <c r="AA7" s="12" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="11" t="str">
+      <c r="AB7" s="12" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="11" t="str">
+      <c r="AC7" s="12" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="11" t="str">
+      <c r="AD7" s="12" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="11" t="str">
+      <c r="AE7" s="12" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="11" t="str">
+      <c r="AF7" s="12" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="11" t="str">
+      <c r="AG7" s="12" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="11" t="str">
+      <c r="AH7" s="12" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="11" t="str">
+      <c r="AI7" s="12" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="11" t="str">
+      <c r="AJ7" s="12" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="11" t="str">
+      <c r="AK7" s="12" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="11" t="str">
+      <c r="AL7" s="12" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="11" t="str">
+      <c r="AM7" s="12" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="11" t="str">
+      <c r="AN7" s="12" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="11" t="str">
+      <c r="AO7" s="12" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="11" t="str">
+      <c r="AP7" s="12" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="11" t="str">
+      <c r="AQ7" s="12" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="11" t="str">
+      <c r="AR7" s="12" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="11" t="str">
+      <c r="AS7" s="12" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2800,106 +2802,106 @@
       <c r="K11" t="s">
         <v>154</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="12" t="n">
         <v>2848083046.57377</v>
       </c>
-      <c r="M11" s="11" t="n">
+      <c r="M11" s="12" t="n">
         <v>5514181469.17173</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="12" t="n">
         <v>3147721158.47736</v>
       </c>
-      <c r="O11" s="11" t="n">
+      <c r="O11" s="12" t="n">
         <v>4736343841.81866</v>
       </c>
-      <c r="P11" s="11" t="n">
+      <c r="P11" s="12" t="n">
         <v>4143696753.59944</v>
       </c>
-      <c r="Q11" s="11" t="n">
+      <c r="Q11" s="12" t="n">
         <v>2989286921.19106</v>
       </c>
-      <c r="R11" s="11" t="n">
+      <c r="R11" s="12" t="n">
         <v>3285337638.8338</v>
       </c>
-      <c r="S11" s="11" t="n">
+      <c r="S11" s="12" t="n">
         <v>4670416342.31618</v>
       </c>
-      <c r="T11" s="11" t="n">
+      <c r="T11" s="12" t="n">
         <v>3741840512.52231</v>
       </c>
-      <c r="U11" s="11" t="n">
+      <c r="U11" s="12" t="n">
         <v>3987194238.49616</v>
       </c>
-      <c r="V11" s="11" t="n">
+      <c r="V11" s="12" t="n">
         <v>3160512413.92057</v>
       </c>
-      <c r="W11" s="11" t="n">
+      <c r="W11" s="12" t="n">
         <v>3680518427.70304</v>
       </c>
-      <c r="X11" s="11" t="n">
+      <c r="X11" s="12" t="n">
         <v>5722601262.446</v>
       </c>
-      <c r="Y11" s="11" t="n">
+      <c r="Y11" s="12" t="n">
         <v>5881571069.14686</v>
       </c>
-      <c r="Z11" s="11" t="n">
+      <c r="Z11" s="12" t="n">
         <v>6993793195.74893</v>
       </c>
-      <c r="AA11" s="11" t="n">
+      <c r="AA11" s="12" t="n">
         <v>7203369540.37743</v>
       </c>
-      <c r="AB11" s="11" t="n">
+      <c r="AB11" s="12" t="n">
         <v>7479336900.01347</v>
       </c>
-      <c r="AC11" s="11" t="n">
+      <c r="AC11" s="12" t="n">
         <v>8783091587.00644</v>
       </c>
-      <c r="AD11" s="11" t="n">
+      <c r="AD11" s="12" t="n">
         <v>9121369467.68605</v>
       </c>
-      <c r="AE11" s="11" t="n">
+      <c r="AE11" s="12" t="n">
         <v>11588833415.1526</v>
       </c>
-      <c r="AF11" s="11" t="n">
+      <c r="AF11" s="12" t="n">
         <v>11832046636.7579</v>
       </c>
-      <c r="AG11" s="11" t="n">
+      <c r="AG11" s="12" t="n">
         <v>12206731822.5687</v>
       </c>
-      <c r="AH11" s="11" t="n">
+      <c r="AH11" s="12" t="n">
         <v>12282956657.5217</v>
       </c>
-      <c r="AI11" s="11" t="n">
+      <c r="AI11" s="12" t="n">
         <v>11668238372.5489</v>
       </c>
-      <c r="AJ11" s="11" t="n">
+      <c r="AJ11" s="12" t="n">
         <v>8389693413.80677</v>
       </c>
-      <c r="AK11" s="11" t="n">
+      <c r="AK11" s="12" t="n">
         <v>9300130725.85047</v>
       </c>
-      <c r="AL11" s="11" t="n">
+      <c r="AL11" s="12" t="n">
         <v>9809890814.05018</v>
       </c>
-      <c r="AM11" s="11" t="n">
+      <c r="AM11" s="12" t="n">
         <v>7882437294.70561</v>
       </c>
-      <c r="AN11" s="11" t="n">
+      <c r="AN11" s="12" t="n">
         <v>12820195501.0552</v>
       </c>
-      <c r="AO11" s="11" t="n">
+      <c r="AO11" s="12" t="n">
         <v>14152826850.3299</v>
       </c>
-      <c r="AP11" s="11" t="n">
+      <c r="AP11" s="12" t="n">
         <v>18890814631.7805</v>
       </c>
-      <c r="AQ11" s="11" t="n">
+      <c r="AQ11" s="12" t="n">
         <v>10503071462.5735</v>
       </c>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2908,106 +2910,106 @@
       <c r="K12" t="s">
         <v>155</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="12" t="n">
         <v>2021659471.07695</v>
       </c>
-      <c r="M12" s="11" t="n">
+      <c r="M12" s="12" t="n">
         <v>2267227459.58116</v>
       </c>
-      <c r="N12" s="11" t="n">
+      <c r="N12" s="12" t="n">
         <v>1945967604.76029</v>
       </c>
-      <c r="O12" s="11" t="n">
+      <c r="O12" s="12" t="n">
         <v>2284219290.58011</v>
       </c>
-      <c r="P12" s="11" t="n">
+      <c r="P12" s="12" t="n">
         <v>1597513489.05622</v>
       </c>
-      <c r="Q12" s="11" t="n">
+      <c r="Q12" s="12" t="n">
         <v>1685233185.92914</v>
       </c>
-      <c r="R12" s="11" t="n">
+      <c r="R12" s="12" t="n">
         <v>1627114271.21722</v>
       </c>
-      <c r="S12" s="11" t="n">
+      <c r="S12" s="12" t="n">
         <v>1055215966.40769</v>
       </c>
-      <c r="T12" s="11" t="n">
+      <c r="T12" s="12" t="n">
         <v>1171231478.03659</v>
       </c>
-      <c r="U12" s="11" t="n">
+      <c r="U12" s="12" t="n">
         <v>1059959149.06669</v>
       </c>
-      <c r="V12" s="11" t="n">
+      <c r="V12" s="12" t="n">
         <v>876017602.538713</v>
       </c>
-      <c r="W12" s="11" t="n">
+      <c r="W12" s="12" t="n">
         <v>749729576.248878</v>
       </c>
-      <c r="X12" s="11" t="n">
+      <c r="X12" s="12" t="n">
         <v>737432180.370547</v>
       </c>
-      <c r="Y12" s="11" t="n">
+      <c r="Y12" s="12" t="n">
         <v>722677734.834794</v>
       </c>
-      <c r="Z12" s="11" t="n">
+      <c r="Z12" s="12" t="n">
         <v>757379724.606292</v>
       </c>
-      <c r="AA12" s="11" t="n">
+      <c r="AA12" s="12" t="n">
         <v>950931282.378134</v>
       </c>
-      <c r="AB12" s="11" t="n">
+      <c r="AB12" s="12" t="n">
         <v>848228688.144184</v>
       </c>
-      <c r="AC12" s="11" t="n">
+      <c r="AC12" s="12" t="n">
         <v>1155385959.33599</v>
       </c>
-      <c r="AD12" s="11" t="n">
+      <c r="AD12" s="12" t="n">
         <v>840841463.950259</v>
       </c>
-      <c r="AE12" s="11" t="n">
+      <c r="AE12" s="12" t="n">
         <v>727501188.702927</v>
       </c>
-      <c r="AF12" s="11" t="n">
+      <c r="AF12" s="12" t="n">
         <v>602448994.389622</v>
       </c>
-      <c r="AG12" s="11" t="n">
+      <c r="AG12" s="12" t="n">
         <v>482440871.328085</v>
       </c>
-      <c r="AH12" s="11" t="n">
+      <c r="AH12" s="12" t="n">
         <v>469209748.640748</v>
       </c>
-      <c r="AI12" s="11" t="n">
+      <c r="AI12" s="12" t="n">
         <v>500965402.190424</v>
       </c>
-      <c r="AJ12" s="11" t="n">
+      <c r="AJ12" s="12" t="n">
         <v>542420255.482853</v>
       </c>
-      <c r="AK12" s="11" t="n">
+      <c r="AK12" s="12" t="n">
         <v>810318632.392427</v>
       </c>
-      <c r="AL12" s="11" t="n">
+      <c r="AL12" s="12" t="n">
         <v>806860136.851103</v>
       </c>
-      <c r="AM12" s="11" t="n">
+      <c r="AM12" s="12" t="n">
         <v>815501101.186149</v>
       </c>
-      <c r="AN12" s="11" t="n">
+      <c r="AN12" s="12" t="n">
         <v>1110243551.22342</v>
       </c>
-      <c r="AO12" s="11" t="n">
+      <c r="AO12" s="12" t="n">
         <v>845574265.783945</v>
       </c>
-      <c r="AP12" s="11" t="n">
+      <c r="AP12" s="12" t="n">
         <v>865172899.25014</v>
       </c>
-      <c r="AQ12" s="11" t="n">
+      <c r="AQ12" s="12" t="n">
         <v>871654060.088206</v>
       </c>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3016,110 +3018,110 @@
       <c r="K13" t="s">
         <v>156</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="12" t="n">
         <v>855686002.751105</v>
       </c>
-      <c r="M13" s="11" t="n">
+      <c r="M13" s="12" t="n">
         <v>1566122777.3247</v>
       </c>
-      <c r="N13" s="11" t="n">
+      <c r="N13" s="12" t="n">
         <v>1372417933.69765</v>
       </c>
-      <c r="O13" s="11" t="n">
+      <c r="O13" s="12" t="n">
         <v>1138830182.22777</v>
       </c>
-      <c r="P13" s="11" t="n">
+      <c r="P13" s="12" t="n">
         <v>1192644964.00434</v>
       </c>
-      <c r="Q13" s="11" t="n">
+      <c r="Q13" s="12" t="n">
         <v>704699316.642775</v>
       </c>
-      <c r="R13" s="11" t="n">
+      <c r="R13" s="12" t="n">
         <v>789508374.872437</v>
       </c>
-      <c r="S13" s="11" t="n">
+      <c r="S13" s="12" t="n">
         <v>490828808.751115</v>
       </c>
-      <c r="T13" s="11" t="n">
+      <c r="T13" s="12" t="n">
         <v>493754698.620136</v>
       </c>
-      <c r="U13" s="11" t="n">
+      <c r="U13" s="12" t="n">
         <v>508227138.02948</v>
       </c>
-      <c r="V13" s="11" t="n">
+      <c r="V13" s="12" t="n">
         <v>319062814.5271</v>
       </c>
-      <c r="W13" s="11" t="n">
+      <c r="W13" s="12" t="n">
         <v>427071182.684208</v>
       </c>
-      <c r="X13" s="11" t="n">
+      <c r="X13" s="12" t="n">
         <v>404132381.846278</v>
       </c>
-      <c r="Y13" s="11" t="n">
+      <c r="Y13" s="12" t="n">
         <v>519944456.336479</v>
       </c>
-      <c r="Z13" s="11" t="n">
+      <c r="Z13" s="12" t="n">
         <v>530528456.316265</v>
       </c>
-      <c r="AA13" s="11" t="n">
+      <c r="AA13" s="12" t="n">
         <v>595489843.973596</v>
       </c>
-      <c r="AB13" s="11" t="n">
+      <c r="AB13" s="12" t="n">
         <v>484705540.105584</v>
       </c>
-      <c r="AC13" s="11" t="n">
+      <c r="AC13" s="12" t="n">
         <v>670289190.246776</v>
       </c>
-      <c r="AD13" s="11" t="n">
+      <c r="AD13" s="12" t="n">
         <v>910457599.453531</v>
       </c>
-      <c r="AE13" s="11" t="n">
+      <c r="AE13" s="12" t="n">
         <v>699326824.934826</v>
       </c>
-      <c r="AF13" s="11" t="n">
+      <c r="AF13" s="12" t="n">
         <v>575442461.821503</v>
       </c>
-      <c r="AG13" s="11" t="n">
+      <c r="AG13" s="12" t="n">
         <v>535315759.369422</v>
       </c>
-      <c r="AH13" s="11" t="n">
+      <c r="AH13" s="12" t="n">
         <v>636274997.792069</v>
       </c>
-      <c r="AI13" s="11" t="n">
+      <c r="AI13" s="12" t="n">
         <v>600894222.278673</v>
       </c>
-      <c r="AJ13" s="11" t="n">
+      <c r="AJ13" s="12" t="n">
         <v>768521186.3562</v>
       </c>
-      <c r="AK13" s="11" t="n">
+      <c r="AK13" s="12" t="n">
         <v>520116541.657443</v>
       </c>
-      <c r="AL13" s="11" t="n">
+      <c r="AL13" s="12" t="n">
         <v>578126621.491621</v>
       </c>
-      <c r="AM13" s="11" t="n">
+      <c r="AM13" s="12" t="n">
         <v>555835295.932613</v>
       </c>
-      <c r="AN13" s="11" t="n">
+      <c r="AN13" s="12" t="n">
         <v>673205284.193173</v>
       </c>
-      <c r="AO13" s="11" t="n">
+      <c r="AO13" s="12" t="n">
         <v>709539597.820862</v>
       </c>
-      <c r="AP13" s="11" t="n">
+      <c r="AP13" s="12" t="n">
         <v>708272675.147017</v>
       </c>
-      <c r="AQ13" s="11" t="n">
+      <c r="AQ13" s="12" t="n">
         <v>631608964.441521</v>
       </c>
-      <c r="AR13" s="11" t="n">
+      <c r="AR13" s="12" t="n">
         <v>12872654015.4419</v>
       </c>
-      <c r="AS13" s="11" t="n">
+      <c r="AS13" s="12" t="n">
         <v>5660548092.44297</v>
       </c>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3128,110 +3130,110 @@
       <c r="K14" t="s">
         <v>157</v>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="12" t="n">
         <v>269260838.978057</v>
       </c>
-      <c r="M14" s="11" t="n">
+      <c r="M14" s="12" t="n">
         <v>614403529.512769</v>
       </c>
-      <c r="N14" s="11" t="n">
+      <c r="N14" s="12" t="n">
         <v>847918701.56921</v>
       </c>
-      <c r="O14" s="11" t="n">
+      <c r="O14" s="12" t="n">
         <v>907052082.200416</v>
       </c>
-      <c r="P14" s="11" t="n">
+      <c r="P14" s="12" t="n">
         <v>699266721.104089</v>
       </c>
-      <c r="Q14" s="11" t="n">
+      <c r="Q14" s="12" t="n">
         <v>714851140.010647</v>
       </c>
-      <c r="R14" s="11" t="n">
+      <c r="R14" s="12" t="n">
         <v>664451089.671619</v>
       </c>
-      <c r="S14" s="11" t="n">
+      <c r="S14" s="12" t="n">
         <v>567043744.675038</v>
       </c>
-      <c r="T14" s="11" t="n">
+      <c r="T14" s="12" t="n">
         <v>605229066.820258</v>
       </c>
-      <c r="U14" s="11" t="n">
+      <c r="U14" s="12" t="n">
         <v>490354769.765257</v>
       </c>
-      <c r="V14" s="11" t="n">
+      <c r="V14" s="12" t="n">
         <v>493276250.883259</v>
       </c>
-      <c r="W14" s="11" t="n">
+      <c r="W14" s="12" t="n">
         <v>449723609.283849</v>
       </c>
-      <c r="X14" s="11" t="n">
+      <c r="X14" s="12" t="n">
         <v>476068454.285594</v>
       </c>
-      <c r="Y14" s="11" t="n">
+      <c r="Y14" s="12" t="n">
         <v>550515085.396083</v>
       </c>
-      <c r="Z14" s="11" t="n">
+      <c r="Z14" s="12" t="n">
         <v>632205102.65608</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="12" t="n">
         <v>623411404.662271</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="12" t="n">
         <v>642061815.177557</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="12" t="n">
         <v>697196770.731042</v>
       </c>
-      <c r="AD14" s="11" t="n">
+      <c r="AD14" s="12" t="n">
         <v>806870323.599616</v>
       </c>
-      <c r="AE14" s="11" t="n">
+      <c r="AE14" s="12" t="n">
         <v>839765721.025398</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="12" t="n">
         <v>782257677.270576</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="12" t="n">
         <v>766733201.94128</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="12" t="n">
         <v>725064361.108577</v>
       </c>
-      <c r="AI14" s="11" t="n">
+      <c r="AI14" s="12" t="n">
         <v>594671411.471336</v>
       </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AJ14" s="12" t="n">
         <v>631518546.012948</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="12" t="n">
         <v>619516360.100543</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="12" t="n">
         <v>684180057.443613</v>
       </c>
-      <c r="AM14" s="11" t="n">
+      <c r="AM14" s="12" t="n">
         <v>836065312.901129</v>
       </c>
-      <c r="AN14" s="11" t="n">
+      <c r="AN14" s="12" t="n">
         <v>728851216.227155</v>
       </c>
-      <c r="AO14" s="11" t="n">
+      <c r="AO14" s="12" t="n">
         <v>900149697.291059</v>
       </c>
-      <c r="AP14" s="11" t="n">
+      <c r="AP14" s="12" t="n">
         <v>942928622.512672</v>
       </c>
-      <c r="AQ14" s="11" t="n">
+      <c r="AQ14" s="12" t="n">
         <v>929415396.907002</v>
       </c>
-      <c r="AR14" s="11" t="n">
+      <c r="AR14" s="12" t="n">
         <v>944636514.2644</v>
       </c>
-      <c r="AS14" s="11" t="n">
+      <c r="AS14" s="12" t="n">
         <v>454029863.014742</v>
       </c>
-      <c r="AT14" s="11"/>
-      <c r="AU14" s="11"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3240,119 +3242,119 @@
       <c r="K15" t="s">
         <v>158</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="12" t="n">
         <v>38132780.6357852</v>
       </c>
-      <c r="M15" s="11" t="n">
+      <c r="M15" s="12" t="n">
         <v>28822233.5713602</v>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N15" s="12" t="n">
         <v>22632039.9733199</v>
       </c>
-      <c r="O15" s="11" t="n">
+      <c r="O15" s="12" t="n">
         <v>64428495.4331039</v>
       </c>
-      <c r="P15" s="11" t="n">
+      <c r="P15" s="12" t="n">
         <v>46018674.7136116</v>
       </c>
-      <c r="Q15" s="11" t="n">
+      <c r="Q15" s="12" t="n">
         <v>18095136.4315767</v>
       </c>
-      <c r="R15" s="11" t="n">
+      <c r="R15" s="12" t="n">
         <v>27530185.7591572</v>
       </c>
-      <c r="S15" s="11" t="n">
+      <c r="S15" s="12" t="n">
         <v>721045.624653708</v>
       </c>
-      <c r="T15" s="11" t="n">
+      <c r="T15" s="12" t="n">
         <v>4234050.15474778</v>
       </c>
-      <c r="U15" s="11" t="n">
+      <c r="U15" s="12" t="n">
         <v>130114.471706051</v>
       </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11" t="n">
+      <c r="V15" s="12"/>
+      <c r="W15" s="12" t="n">
         <v>50162.8264016317</v>
       </c>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11" t="n">
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12" t="n">
         <v>25946.8060332807</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="12" t="n">
         <v>1571281.98983941</v>
       </c>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11" t="n">
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12" t="n">
         <v>1071004.78396853</v>
       </c>
-      <c r="AJ15" s="11" t="n">
+      <c r="AJ15" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AK15" s="11" t="n">
+      <c r="AK15" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11" t="n">
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12" t="n">
         <v>110785.540285983</v>
       </c>
-      <c r="AP15" s="11" t="n">
+      <c r="AP15" s="12" t="n">
         <v>85152.7537421695</v>
       </c>
-      <c r="AQ15" s="11"/>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="11"/>
-      <c r="AT15" s="11"/>
-      <c r="AU15" s="11"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="11"/>
-      <c r="AT16" s="11"/>
-      <c r="AU16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -534,8 +534,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -583,8 +583,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2097,7 +2097,7 @@
         <v>2333167521</v>
       </c>
       <c r="X2" s="12" t="n">
-        <v>3684949864</v>
+        <v>3686493905</v>
       </c>
       <c r="Y2" s="12" t="n">
         <v>3859708035.5938</v>
@@ -2156,8 +2156,12 @@
       <c r="AQ2" s="12" t="n">
         <v>9822494446.2365</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
+      <c r="AR2" s="12" t="n">
+        <v>11464418960.5359</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>5108059191.9642</v>
+      </c>
       <c r="AT2" s="12"/>
       <c r="AU2" s="12"/>
     </row>
@@ -2264,8 +2268,12 @@
       <c r="AQ3" s="12" t="n">
         <v>815172703.9814</v>
       </c>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
+      <c r="AR3" s="12" t="n">
+        <v>591918045.894</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>346460056.5721</v>
+      </c>
       <c r="AT3" s="12"/>
       <c r="AU3" s="12"/>
     </row>
@@ -2313,7 +2321,7 @@
         <v>270730505</v>
       </c>
       <c r="X4" s="12" t="n">
-        <v>260232628</v>
+        <v>258688587</v>
       </c>
       <c r="Y4" s="12" t="n">
         <v>341207098</v>
@@ -2373,10 +2381,10 @@
         <v>590682027.3981</v>
       </c>
       <c r="AR4" s="12" t="n">
-        <v>12872654015.4419</v>
+        <v>866488253.1489</v>
       </c>
       <c r="AS4" s="12" t="n">
-        <v>5934742828.7666</v>
+        <v>514049584.9121</v>
       </c>
       <c r="AT4" s="12"/>
       <c r="AU4" s="12"/>
@@ -2485,10 +2493,10 @@
         <v>869191227.2421</v>
       </c>
       <c r="AR5" s="12" t="n">
-        <v>944636514.2644</v>
+        <v>894465270.1275</v>
       </c>
       <c r="AS5" s="12" t="n">
-        <v>476022892.0535</v>
+        <v>442196887.3717</v>
       </c>
       <c r="AT5" s="12"/>
       <c r="AU5" s="12"/>
@@ -2839,7 +2847,7 @@
         <v>3680518427.70304</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>5722601262.446</v>
+        <v>5724999105.3752</v>
       </c>
       <c r="Y11" s="12" t="n">
         <v>5881571069.14686</v>
@@ -2898,8 +2906,12 @@
       <c r="AQ11" s="12" t="n">
         <v>10503071462.5735</v>
       </c>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
+      <c r="AR11" s="12" t="n">
+        <v>11464418960.5359</v>
+      </c>
+      <c r="AS11" s="12" t="n">
+        <v>4872058579.35514</v>
+      </c>
       <c r="AT11" s="12"/>
       <c r="AU11" s="12"/>
     </row>
@@ -2968,7 +2980,7 @@
         <v>840841463.950259</v>
       </c>
       <c r="AE12" s="12" t="n">
-        <v>727501188.702927</v>
+        <v>727501188.702928</v>
       </c>
       <c r="AF12" s="12" t="n">
         <v>602448994.389622</v>
@@ -3006,8 +3018,12 @@
       <c r="AQ12" s="12" t="n">
         <v>871654060.088206</v>
       </c>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
+      <c r="AR12" s="12" t="n">
+        <v>591918045.894</v>
+      </c>
+      <c r="AS12" s="12" t="n">
+        <v>330453040.497538</v>
+      </c>
       <c r="AT12" s="12"/>
       <c r="AU12" s="12"/>
     </row>
@@ -3055,7 +3071,7 @@
         <v>427071182.684208</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>404132381.846278</v>
+        <v>401734538.917073</v>
       </c>
       <c r="Y13" s="12" t="n">
         <v>519944456.336479</v>
@@ -3115,10 +3131,10 @@
         <v>631608964.441521</v>
       </c>
       <c r="AR13" s="12" t="n">
-        <v>12872654015.4419</v>
+        <v>866488253.1489</v>
       </c>
       <c r="AS13" s="12" t="n">
-        <v>5660548092.44297</v>
+        <v>490299661.03856</v>
       </c>
       <c r="AT13" s="12"/>
       <c r="AU13" s="12"/>
@@ -3146,7 +3162,7 @@
         <v>699266721.104089</v>
       </c>
       <c r="Q14" s="12" t="n">
-        <v>714851140.010647</v>
+        <v>714851140.010646</v>
       </c>
       <c r="R14" s="12" t="n">
         <v>664451089.671619</v>
@@ -3227,10 +3243,10 @@
         <v>929415396.907002</v>
       </c>
       <c r="AR14" s="12" t="n">
-        <v>944636514.2644</v>
+        <v>894465270.1275</v>
       </c>
       <c r="AS14" s="12" t="n">
-        <v>454029863.014742</v>
+        <v>421766674.56647</v>
       </c>
       <c r="AT14" s="12"/>
       <c r="AU14" s="12"/>

--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -519,6 +519,9 @@
   <si>
     <t xml:space="preserve">Unlabeled</t>
   </si>
+  <si>
+    <t xml:space="preserve">Firm Fixed-Price</t>
+  </si>
 </sst>
 </file>
 
@@ -534,8 +537,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -583,8 +586,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2060,110 +2063,110 @@
       <c r="K2" t="s">
         <v>154</v>
       </c>
-      <c r="L2" s="12" t="n">
+      <c r="L2" s="11" t="n">
         <v>1432975000</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="M2" s="11" t="n">
         <v>2873347000</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="11" t="n">
         <v>1681217544</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="11" t="n">
         <v>2589136106</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="11" t="n">
         <v>2314521002</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="11" t="n">
         <v>1705078056</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="11" t="n">
         <v>1909163887</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="11" t="n">
         <v>2762269589</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="11" t="n">
         <v>2240706687</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="11" t="n">
         <v>2417392837</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="11" t="n">
         <v>1956089394</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="11" t="n">
         <v>2333167521</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="11" t="n">
         <v>3686493905</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="11" t="n">
         <v>3859708035.5938</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="11" t="n">
         <v>4701775050.5</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="11" t="n">
         <v>4989676208.4375</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="11" t="n">
         <v>5349510640.2774</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="11" t="n">
         <v>6454278531.9266</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="11" t="n">
         <v>6842656824.9687</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="11" t="n">
         <v>8782040594.9943</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="11" t="n">
         <v>9044332642.7514</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="11" t="n">
         <v>9518788736.0017</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="11" t="n">
         <v>9753797077.6346</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="11" t="n">
         <v>9435215707.1776</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>6915351196.4803</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="11" t="n">
         <v>7753678427.5827</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="11" t="n">
         <v>8246446764.1197</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="11" t="n">
         <v>6744481998.578</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="11" t="n">
         <v>11226960692.4651</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="11" t="n">
         <v>12636733508.8779</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="11" t="n">
         <v>17092189454.2241</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="11" t="n">
         <v>9822494446.2365</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="11" t="n">
         <v>11464418960.5359</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="11" t="n">
         <v>5108059191.9642</v>
       </c>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2172,110 +2175,110 @@
       <c r="K3" t="s">
         <v>155</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="11" t="n">
         <v>1017171000</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="11" t="n">
         <v>1181414006</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="11" t="n">
         <v>1039353460</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="11" t="n">
         <v>1248675104</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="11" t="n">
         <v>892313975</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="11" t="n">
         <v>961250693</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="11" t="n">
         <v>945542939</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="11" t="n">
         <v>624096603</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="11" t="n">
         <v>701362390</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="11" t="n">
         <v>642641793</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="11" t="n">
         <v>542180671</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="11" t="n">
         <v>475271278</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="11" t="n">
         <v>474854089.625</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="11" t="n">
         <v>474248296.5</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="11" t="n">
         <v>509169915.8438</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="11" t="n">
         <v>658697179</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="11" t="n">
         <v>606685920.5938</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="11" t="n">
         <v>849038487.1386</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="11" t="n">
         <v>630781331.9479</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="11" t="n">
         <v>551301821.6089</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="11" t="n">
         <v>460507744.1652</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="11" t="n">
         <v>376206571.7946</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="11" t="n">
         <v>372595687.0724</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="11" t="n">
         <v>405092566.7254</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="11" t="n">
         <v>447099360.8152</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="11" t="n">
         <v>675576535.9282</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="11" t="n">
         <v>678267402.8444</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="11" t="n">
         <v>697770536.0834</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="11" t="n">
         <v>972267599.7899</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="11" t="n">
         <v>754993809.4825</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="11" t="n">
         <v>782798380.7414</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="11" t="n">
         <v>815172703.9814</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="11" t="n">
         <v>591918045.894</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="11" t="n">
         <v>346460056.5721</v>
       </c>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2284,110 +2287,110 @@
       <c r="K4" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="11" t="n">
         <v>430527000</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="11" t="n">
         <v>816080176</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="11" t="n">
         <v>733016996</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="11" t="n">
         <v>622544824</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="11" t="n">
         <v>666168878</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="11" t="n">
         <v>401957849</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="11" t="n">
         <v>458796338</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="11" t="n">
         <v>290295638</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="11" t="n">
         <v>295672531</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="11" t="n">
         <v>308132629</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="11" t="n">
         <v>197472848</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="11" t="n">
         <v>270730505</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="11" t="n">
         <v>258688587</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="11" t="n">
         <v>341207098</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="11" t="n">
         <v>356662742.1875</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="11" t="n">
         <v>412487724</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="11" t="n">
         <v>346680124.035</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="11" t="n">
         <v>492563818.5525</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="11" t="n">
         <v>683005871.9599</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="11" t="n">
         <v>529951233.7209</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="11" t="n">
         <v>439864141.9574</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="11" t="n">
         <v>417438319.6548</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="11" t="n">
         <v>505260857.5506</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="11" t="n">
         <v>485897392.8519</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="11" t="n">
         <v>633466998.5488</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="11" t="n">
         <v>433630077.6578</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="11" t="n">
         <v>485988121.3176</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="11" t="n">
         <v>475591623.1785</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="11" t="n">
         <v>589542434.2768</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="11" t="n">
         <v>633531583.9358</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="11" t="n">
         <v>640836882.0949</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="11" t="n">
         <v>590682027.3981</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="11" t="n">
         <v>866488253.1489</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="11" t="n">
         <v>514049584.9121</v>
       </c>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2396,110 +2399,110 @@
       <c r="K5" t="s">
         <v>157</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="11" t="n">
         <v>135475000</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="11" t="n">
         <v>320155321</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="11" t="n">
         <v>452878678</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="11" t="n">
         <v>495842653</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="11" t="n">
         <v>390585414</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="11" t="n">
         <v>407748411</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="11" t="n">
         <v>386123487</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="11" t="n">
         <v>335372176</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="11" t="n">
         <v>362426141</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="11" t="n">
         <v>297296805</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="11" t="n">
         <v>305296204</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="11" t="n">
         <v>285090413</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="11" t="n">
         <v>306554363.2031</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="11" t="n">
         <v>361268694</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="11" t="n">
         <v>425017740.0547</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="11" t="n">
         <v>431828609.7188</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="11" t="n">
         <v>459227409.8526</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="11" t="n">
         <v>512336926.6142</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="11" t="n">
         <v>605296907.0273</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="11" t="n">
         <v>636376103.4555</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="11" t="n">
         <v>597952227.7745</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="11" t="n">
         <v>597897248.1941</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="11" t="n">
         <v>575767776.7386</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="11" t="n">
         <v>480865479.6875</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="11" t="n">
         <v>520540181.5498</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="11" t="n">
         <v>516501410.4043</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="11" t="n">
         <v>575139369.8185</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="11" t="n">
         <v>715365976.4962</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="11" t="n">
         <v>638272946.3497</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="11" t="n">
         <v>803722956.7674</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="11" t="n">
         <v>853150855.1613</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="11" t="n">
         <v>869191227.2421</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="11" t="n">
         <v>894465270.1275</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="11" t="n">
         <v>442196887.3717</v>
       </c>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2508,78 +2511,78 @@
       <c r="K6" t="s">
         <v>158</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="11" t="n">
         <v>19186000</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="11" t="n">
         <v>15018780</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="11" t="n">
         <v>12087914</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="11" t="n">
         <v>35220024</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="11" t="n">
         <v>25704388</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="11" t="n">
         <v>10321398</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="11" t="n">
         <v>15998245</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="11" t="n">
         <v>426455</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="11" t="n">
         <v>2535454</v>
       </c>
-      <c r="U6" s="12" t="n">
+      <c r="U6" s="11" t="n">
         <v>78887</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12" t="n">
+      <c r="V6" s="11"/>
+      <c r="W6" s="11" t="n">
         <v>31799.3999</v>
       </c>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12" t="n">
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11" t="n">
         <v>17973</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="11" t="n">
         <v>1123841.5699</v>
       </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12" t="n">
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11" t="n">
         <v>866040</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12" t="n">
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11" t="n">
         <v>98917.8603</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="11" t="n">
         <v>77045.2216</v>
       </c>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2588,110 +2591,110 @@
       <c r="K7" t="s">
         <v>151</v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L7" s="11" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="11" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="11" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="12" t="str">
+      <c r="O7" s="11" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="11" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="11" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="11" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="11" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="11" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="12" t="str">
+      <c r="U7" s="11" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="12" t="str">
+      <c r="V7" s="11" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="12" t="str">
+      <c r="W7" s="11" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="11" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="12" t="str">
+      <c r="Y7" s="11" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="12" t="str">
+      <c r="Z7" s="11" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="12" t="str">
+      <c r="AA7" s="11" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="12" t="str">
+      <c r="AB7" s="11" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="12" t="str">
+      <c r="AC7" s="11" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="12" t="str">
+      <c r="AD7" s="11" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="12" t="str">
+      <c r="AE7" s="11" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="12" t="str">
+      <c r="AF7" s="11" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="12" t="str">
+      <c r="AG7" s="11" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="12" t="str">
+      <c r="AH7" s="11" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="12" t="str">
+      <c r="AI7" s="11" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="12" t="str">
+      <c r="AJ7" s="11" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="12" t="str">
+      <c r="AK7" s="11" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="12" t="str">
+      <c r="AL7" s="11" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="12" t="str">
+      <c r="AM7" s="11" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="12" t="str">
+      <c r="AN7" s="11" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="12" t="str">
+      <c r="AO7" s="11" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="12" t="str">
+      <c r="AP7" s="11" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="12" t="str">
+      <c r="AQ7" s="11" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="12" t="str">
+      <c r="AR7" s="11" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="12" t="str">
+      <c r="AS7" s="11" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2810,110 +2813,110 @@
       <c r="K11" t="s">
         <v>154</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="11" t="n">
         <v>2848083046.57377</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="11" t="n">
         <v>5514181469.17173</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="11" t="n">
         <v>3147721158.47736</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="11" t="n">
         <v>4736343841.81866</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="11" t="n">
         <v>4143696753.59944</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="11" t="n">
         <v>2989286921.19106</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="11" t="n">
         <v>3285337638.8338</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="11" t="n">
         <v>4670416342.31618</v>
       </c>
-      <c r="T11" s="12" t="n">
+      <c r="T11" s="11" t="n">
         <v>3741840512.52231</v>
       </c>
-      <c r="U11" s="12" t="n">
+      <c r="U11" s="11" t="n">
         <v>3987194238.49616</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="11" t="n">
         <v>3160512413.92057</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="11" t="n">
         <v>3680518427.70304</v>
       </c>
-      <c r="X11" s="12" t="n">
+      <c r="X11" s="11" t="n">
         <v>5724999105.3752</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="11" t="n">
         <v>5881571069.14686</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="11" t="n">
         <v>6993793195.74893</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="11" t="n">
         <v>7203369540.37743</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="11" t="n">
         <v>7479336900.01347</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="11" t="n">
         <v>8783091587.00644</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="11" t="n">
         <v>9121369467.68605</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="11" t="n">
         <v>11588833415.1526</v>
       </c>
-      <c r="AF11" s="12" t="n">
+      <c r="AF11" s="11" t="n">
         <v>11832046636.7579</v>
       </c>
-      <c r="AG11" s="12" t="n">
+      <c r="AG11" s="11" t="n">
         <v>12206731822.5687</v>
       </c>
-      <c r="AH11" s="12" t="n">
+      <c r="AH11" s="11" t="n">
         <v>12282956657.5217</v>
       </c>
-      <c r="AI11" s="12" t="n">
+      <c r="AI11" s="11" t="n">
         <v>11668238372.5489</v>
       </c>
-      <c r="AJ11" s="12" t="n">
+      <c r="AJ11" s="11" t="n">
         <v>8389693413.80677</v>
       </c>
-      <c r="AK11" s="12" t="n">
+      <c r="AK11" s="11" t="n">
         <v>9300130725.85047</v>
       </c>
-      <c r="AL11" s="12" t="n">
+      <c r="AL11" s="11" t="n">
         <v>9809890814.05018</v>
       </c>
-      <c r="AM11" s="12" t="n">
+      <c r="AM11" s="11" t="n">
         <v>7882437294.70561</v>
       </c>
-      <c r="AN11" s="12" t="n">
+      <c r="AN11" s="11" t="n">
         <v>12820195501.0552</v>
       </c>
-      <c r="AO11" s="12" t="n">
+      <c r="AO11" s="11" t="n">
         <v>14152826850.3299</v>
       </c>
-      <c r="AP11" s="12" t="n">
+      <c r="AP11" s="11" t="n">
         <v>18890814631.7805</v>
       </c>
-      <c r="AQ11" s="12" t="n">
+      <c r="AQ11" s="11" t="n">
         <v>10503071462.5735</v>
       </c>
-      <c r="AR11" s="12" t="n">
+      <c r="AR11" s="11" t="n">
         <v>11464418960.5359</v>
       </c>
-      <c r="AS11" s="12" t="n">
+      <c r="AS11" s="11" t="n">
         <v>4872058579.35514</v>
       </c>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2922,110 +2925,110 @@
       <c r="K12" t="s">
         <v>155</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="11" t="n">
         <v>2021659471.07695</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="11" t="n">
         <v>2267227459.58116</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="11" t="n">
         <v>1945967604.76029</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="11" t="n">
         <v>2284219290.58011</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="11" t="n">
         <v>1597513489.05622</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="11" t="n">
         <v>1685233185.92914</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="11" t="n">
         <v>1627114271.21722</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="S12" s="11" t="n">
         <v>1055215966.40769</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="11" t="n">
         <v>1171231478.03659</v>
       </c>
-      <c r="U12" s="12" t="n">
+      <c r="U12" s="11" t="n">
         <v>1059959149.06669</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="11" t="n">
         <v>876017602.538713</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="11" t="n">
         <v>749729576.248878</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="11" t="n">
         <v>737432180.370547</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="11" t="n">
         <v>722677734.834794</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="11" t="n">
         <v>757379724.606292</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="11" t="n">
         <v>950931282.378134</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="11" t="n">
         <v>848228688.144184</v>
       </c>
-      <c r="AC12" s="12" t="n">
+      <c r="AC12" s="11" t="n">
         <v>1155385959.33599</v>
       </c>
-      <c r="AD12" s="12" t="n">
+      <c r="AD12" s="11" t="n">
         <v>840841463.950259</v>
       </c>
-      <c r="AE12" s="12" t="n">
+      <c r="AE12" s="11" t="n">
         <v>727501188.702928</v>
       </c>
-      <c r="AF12" s="12" t="n">
+      <c r="AF12" s="11" t="n">
         <v>602448994.389622</v>
       </c>
-      <c r="AG12" s="12" t="n">
+      <c r="AG12" s="11" t="n">
         <v>482440871.328085</v>
       </c>
-      <c r="AH12" s="12" t="n">
+      <c r="AH12" s="11" t="n">
         <v>469209748.640748</v>
       </c>
-      <c r="AI12" s="12" t="n">
+      <c r="AI12" s="11" t="n">
         <v>500965402.190424</v>
       </c>
-      <c r="AJ12" s="12" t="n">
+      <c r="AJ12" s="11" t="n">
         <v>542420255.482853</v>
       </c>
-      <c r="AK12" s="12" t="n">
+      <c r="AK12" s="11" t="n">
         <v>810318632.392427</v>
       </c>
-      <c r="AL12" s="12" t="n">
+      <c r="AL12" s="11" t="n">
         <v>806860136.851103</v>
       </c>
-      <c r="AM12" s="12" t="n">
+      <c r="AM12" s="11" t="n">
         <v>815501101.186149</v>
       </c>
-      <c r="AN12" s="12" t="n">
+      <c r="AN12" s="11" t="n">
         <v>1110243551.22342</v>
       </c>
-      <c r="AO12" s="12" t="n">
+      <c r="AO12" s="11" t="n">
         <v>845574265.783945</v>
       </c>
-      <c r="AP12" s="12" t="n">
+      <c r="AP12" s="11" t="n">
         <v>865172899.25014</v>
       </c>
-      <c r="AQ12" s="12" t="n">
+      <c r="AQ12" s="11" t="n">
         <v>871654060.088206</v>
       </c>
-      <c r="AR12" s="12" t="n">
+      <c r="AR12" s="11" t="n">
         <v>591918045.894</v>
       </c>
-      <c r="AS12" s="12" t="n">
+      <c r="AS12" s="11" t="n">
         <v>330453040.497538</v>
       </c>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3034,110 +3037,110 @@
       <c r="K13" t="s">
         <v>156</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="11" t="n">
         <v>855686002.751105</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="11" t="n">
         <v>1566122777.3247</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="11" t="n">
         <v>1372417933.69765</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="11" t="n">
         <v>1138830182.22777</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="11" t="n">
         <v>1192644964.00434</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="11" t="n">
         <v>704699316.642775</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="11" t="n">
         <v>789508374.872437</v>
       </c>
-      <c r="S13" s="12" t="n">
+      <c r="S13" s="11" t="n">
         <v>490828808.751115</v>
       </c>
-      <c r="T13" s="12" t="n">
+      <c r="T13" s="11" t="n">
         <v>493754698.620136</v>
       </c>
-      <c r="U13" s="12" t="n">
+      <c r="U13" s="11" t="n">
         <v>508227138.02948</v>
       </c>
-      <c r="V13" s="12" t="n">
+      <c r="V13" s="11" t="n">
         <v>319062814.5271</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="11" t="n">
         <v>427071182.684208</v>
       </c>
-      <c r="X13" s="12" t="n">
+      <c r="X13" s="11" t="n">
         <v>401734538.917073</v>
       </c>
-      <c r="Y13" s="12" t="n">
+      <c r="Y13" s="11" t="n">
         <v>519944456.336479</v>
       </c>
-      <c r="Z13" s="12" t="n">
+      <c r="Z13" s="11" t="n">
         <v>530528456.316265</v>
       </c>
-      <c r="AA13" s="12" t="n">
+      <c r="AA13" s="11" t="n">
         <v>595489843.973596</v>
       </c>
-      <c r="AB13" s="12" t="n">
+      <c r="AB13" s="11" t="n">
         <v>484705540.105584</v>
       </c>
-      <c r="AC13" s="12" t="n">
+      <c r="AC13" s="11" t="n">
         <v>670289190.246776</v>
       </c>
-      <c r="AD13" s="12" t="n">
+      <c r="AD13" s="11" t="n">
         <v>910457599.453531</v>
       </c>
-      <c r="AE13" s="12" t="n">
+      <c r="AE13" s="11" t="n">
         <v>699326824.934826</v>
       </c>
-      <c r="AF13" s="12" t="n">
+      <c r="AF13" s="11" t="n">
         <v>575442461.821503</v>
       </c>
-      <c r="AG13" s="12" t="n">
+      <c r="AG13" s="11" t="n">
         <v>535315759.369422</v>
       </c>
-      <c r="AH13" s="12" t="n">
+      <c r="AH13" s="11" t="n">
         <v>636274997.792069</v>
       </c>
-      <c r="AI13" s="12" t="n">
+      <c r="AI13" s="11" t="n">
         <v>600894222.278673</v>
       </c>
-      <c r="AJ13" s="12" t="n">
+      <c r="AJ13" s="11" t="n">
         <v>768521186.3562</v>
       </c>
-      <c r="AK13" s="12" t="n">
+      <c r="AK13" s="11" t="n">
         <v>520116541.657443</v>
       </c>
-      <c r="AL13" s="12" t="n">
+      <c r="AL13" s="11" t="n">
         <v>578126621.491621</v>
       </c>
-      <c r="AM13" s="12" t="n">
+      <c r="AM13" s="11" t="n">
         <v>555835295.932613</v>
       </c>
-      <c r="AN13" s="12" t="n">
+      <c r="AN13" s="11" t="n">
         <v>673205284.193173</v>
       </c>
-      <c r="AO13" s="12" t="n">
+      <c r="AO13" s="11" t="n">
         <v>709539597.820862</v>
       </c>
-      <c r="AP13" s="12" t="n">
+      <c r="AP13" s="11" t="n">
         <v>708272675.147017</v>
       </c>
-      <c r="AQ13" s="12" t="n">
+      <c r="AQ13" s="11" t="n">
         <v>631608964.441521</v>
       </c>
-      <c r="AR13" s="12" t="n">
+      <c r="AR13" s="11" t="n">
         <v>866488253.1489</v>
       </c>
-      <c r="AS13" s="12" t="n">
+      <c r="AS13" s="11" t="n">
         <v>490299661.03856</v>
       </c>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3146,110 +3149,110 @@
       <c r="K14" t="s">
         <v>157</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="11" t="n">
         <v>269260838.978057</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="11" t="n">
         <v>614403529.512769</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="11" t="n">
         <v>847918701.56921</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="11" t="n">
         <v>907052082.200416</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="11" t="n">
         <v>699266721.104089</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="11" t="n">
         <v>714851140.010646</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="11" t="n">
         <v>664451089.671619</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="11" t="n">
         <v>567043744.675038</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="11" t="n">
         <v>605229066.820258</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="11" t="n">
         <v>490354769.765257</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="11" t="n">
         <v>493276250.883259</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="11" t="n">
         <v>449723609.283849</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="11" t="n">
         <v>476068454.285594</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="11" t="n">
         <v>550515085.396083</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="11" t="n">
         <v>632205102.65608</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="11" t="n">
         <v>623411404.662271</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="11" t="n">
         <v>642061815.177557</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="11" t="n">
         <v>697196770.731042</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="11" t="n">
         <v>806870323.599616</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="11" t="n">
         <v>839765721.025398</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="11" t="n">
         <v>782257677.270576</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="11" t="n">
         <v>766733201.94128</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="11" t="n">
         <v>725064361.108577</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="11" t="n">
         <v>594671411.471336</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="11" t="n">
         <v>631518546.012948</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="11" t="n">
         <v>619516360.100543</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="11" t="n">
         <v>684180057.443613</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="11" t="n">
         <v>836065312.901129</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="11" t="n">
         <v>728851216.227155</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="11" t="n">
         <v>900149697.291059</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="11" t="n">
         <v>942928622.512672</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="11" t="n">
         <v>929415396.907002</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="11" t="n">
         <v>894465270.1275</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="11" t="n">
         <v>421766674.56647</v>
       </c>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3258,119 +3261,119 @@
       <c r="K15" t="s">
         <v>158</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="L15" s="11" t="n">
         <v>38132780.6357852</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="11" t="n">
         <v>28822233.5713602</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="11" t="n">
         <v>22632039.9733199</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="11" t="n">
         <v>64428495.4331039</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="11" t="n">
         <v>46018674.7136116</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="11" t="n">
         <v>18095136.4315767</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="11" t="n">
         <v>27530185.7591572</v>
       </c>
-      <c r="S15" s="12" t="n">
+      <c r="S15" s="11" t="n">
         <v>721045.624653708</v>
       </c>
-      <c r="T15" s="12" t="n">
+      <c r="T15" s="11" t="n">
         <v>4234050.15474778</v>
       </c>
-      <c r="U15" s="12" t="n">
+      <c r="U15" s="11" t="n">
         <v>130114.471706051</v>
       </c>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12" t="n">
+      <c r="V15" s="11"/>
+      <c r="W15" s="11" t="n">
         <v>50162.8264016317</v>
       </c>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12" t="n">
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11" t="n">
         <v>25946.8060332807</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="11" t="n">
         <v>1571281.98983941</v>
       </c>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12" t="n">
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11" t="n">
         <v>1071004.78396853</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12" t="n">
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11" t="n">
         <v>110785.540285983</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="11" t="n">
         <v>85152.7537421695</v>
       </c>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5246,94 +5249,94 @@
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="n">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12" t="n">
         <v>188093593</v>
       </c>
-      <c r="AA2" s="3" t="n">
+      <c r="AA2" s="12" t="n">
         <v>265567420</v>
       </c>
-      <c r="AB2" s="3" t="n">
+      <c r="AB2" s="12" t="n">
         <v>305630976</v>
       </c>
-      <c r="AC2" s="3" t="n">
-        <v>470008161.0938</v>
-      </c>
-      <c r="AD2" s="3" t="n">
+      <c r="AC2" s="12" t="n">
+        <v>470008160.0938</v>
+      </c>
+      <c r="AD2" s="12" t="n">
         <v>508187397.6484</v>
       </c>
-      <c r="AE2" s="3" t="n">
-        <v>412587169.4375</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>588051577.1021</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>731847538.1334</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>1154677070.255</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>2478561502.3815</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AE2" s="12" t="n">
+        <v>412587169.3175</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>588051576.6752</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>731847538.0382</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>1154677076.2421</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>2478561495.5104</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
         <v>3280943246.4082</v>
       </c>
-      <c r="AK2" s="3" t="n">
+      <c r="AK2" s="12" t="n">
         <v>3594937685.9658</v>
       </c>
-      <c r="AL2" s="3" t="n">
+      <c r="AL2" s="12" t="n">
         <v>2167938638.0338</v>
       </c>
-      <c r="AM2" s="3" t="n">
+      <c r="AM2" s="12" t="n">
         <v>1028884661.1787</v>
       </c>
-      <c r="AN2" s="3" t="n">
+      <c r="AN2" s="12" t="n">
         <v>1324720469.133</v>
       </c>
-      <c r="AO2" s="3" t="n">
+      <c r="AO2" s="12" t="n">
         <v>1999334816.8284</v>
       </c>
-      <c r="AP2" s="3" t="n">
+      <c r="AP2" s="12" t="n">
         <v>3124515545.3746</v>
       </c>
-      <c r="AQ2" s="3" t="n">
+      <c r="AQ2" s="12" t="n">
         <v>737933973.7061</v>
       </c>
-      <c r="AR2" s="3" t="n">
-        <v>631329825.3753</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>383721696.5766</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>6550229032.8473</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>1379016621.5815</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>2231441789.9627</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>1172691161.9394</v>
-      </c>
-      <c r="AX2" s="3"/>
+      <c r="AR2" s="12" t="n">
+        <v>631329825.3098</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>383721696.3777</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>6550229031.646</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>1385393253.5534</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>2231668904.0034</v>
+      </c>
+      <c r="AW2" s="12" t="n">
+        <v>4253872309.0539</v>
+      </c>
+      <c r="AX2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5351,73 +5354,73 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12" t="n">
         <v>13712019</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="12" t="n">
         <v>23550576</v>
       </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AB3" s="12" t="n">
         <v>32894146</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="12" t="n">
         <v>16542070</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="12" t="n">
         <v>1103661</v>
       </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AE3" s="12" t="n">
         <v>1393825</v>
       </c>
-      <c r="AF3" s="3" t="n">
+      <c r="AF3" s="12" t="n">
         <v>1919856</v>
       </c>
-      <c r="AG3" s="3" t="n">
+      <c r="AG3" s="12" t="n">
         <v>99989</v>
       </c>
-      <c r="AH3" s="3" t="n">
-        <v>21977974.25</v>
-      </c>
-      <c r="AI3" s="3" t="n">
+      <c r="AH3" s="12" t="n">
+        <v>21977975.17</v>
+      </c>
+      <c r="AI3" s="12" t="n">
         <v>384624.5938</v>
       </c>
-      <c r="AJ3" s="3" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>10348269</v>
       </c>
-      <c r="AK3" s="3" t="n">
+      <c r="AK3" s="12" t="n">
         <v>9849413.3302</v>
       </c>
-      <c r="AL3" s="3" t="n">
+      <c r="AL3" s="12" t="n">
         <v>2016281</v>
       </c>
-      <c r="AM3" s="3" t="n">
+      <c r="AM3" s="12" t="n">
         <v>3724361</v>
       </c>
-      <c r="AN3" s="3" t="n">
+      <c r="AN3" s="12" t="n">
         <v>-20.89</v>
       </c>
-      <c r="AO3" s="3" t="n">
+      <c r="AO3" s="12" t="n">
         <v>-22.54</v>
       </c>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5435,89 +5438,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="n">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12" t="n">
         <v>143413440</v>
       </c>
-      <c r="AA4" s="3" t="n">
+      <c r="AA4" s="12" t="n">
         <v>172688897</v>
       </c>
-      <c r="AB4" s="3" t="n">
-        <v>203213466.8281</v>
-      </c>
-      <c r="AC4" s="3" t="n">
+      <c r="AB4" s="12" t="n">
+        <v>203213466.825</v>
+      </c>
+      <c r="AC4" s="12" t="n">
         <v>244288284</v>
       </c>
-      <c r="AD4" s="3" t="n">
+      <c r="AD4" s="12" t="n">
         <v>247394625.5938</v>
       </c>
-      <c r="AE4" s="3" t="n">
+      <c r="AE4" s="12" t="n">
         <v>288277076</v>
       </c>
-      <c r="AF4" s="3" t="n">
+      <c r="AF4" s="12" t="n">
         <v>350559515.4688</v>
       </c>
-      <c r="AG4" s="3" t="n">
+      <c r="AG4" s="12" t="n">
         <v>249377755.7227</v>
       </c>
-      <c r="AH4" s="3" t="n">
-        <v>237464435.387</v>
-      </c>
-      <c r="AI4" s="3" t="n">
-        <v>387724569.7587</v>
-      </c>
-      <c r="AJ4" s="3" t="n">
+      <c r="AH4" s="12" t="n">
+        <v>237464435.3906</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>387724571.9586</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
         <v>576049069.2408</v>
       </c>
-      <c r="AK4" s="3" t="n">
+      <c r="AK4" s="12" t="n">
         <v>501991794.0445</v>
       </c>
-      <c r="AL4" s="3" t="n">
+      <c r="AL4" s="12" t="n">
         <v>483992311.7919</v>
       </c>
-      <c r="AM4" s="3" t="n">
+      <c r="AM4" s="12" t="n">
         <v>399494367.0039</v>
       </c>
-      <c r="AN4" s="3" t="n">
+      <c r="AN4" s="12" t="n">
         <v>189869901.1531</v>
       </c>
-      <c r="AO4" s="3" t="n">
+      <c r="AO4" s="12" t="n">
         <v>313780993.3078</v>
       </c>
-      <c r="AP4" s="3" t="n">
+      <c r="AP4" s="12" t="n">
         <v>207934670.21</v>
       </c>
-      <c r="AQ4" s="3" t="n">
+      <c r="AQ4" s="12" t="n">
         <v>285904918.207</v>
       </c>
-      <c r="AR4" s="3" t="n">
+      <c r="AR4" s="12" t="n">
         <v>8416343.4459</v>
       </c>
-      <c r="AS4" s="3" t="n">
+      <c r="AS4" s="12" t="n">
         <v>2014404.0337</v>
       </c>
-      <c r="AT4" s="3" t="n">
+      <c r="AT4" s="12" t="n">
         <v>-78349.0893</v>
       </c>
-      <c r="AU4" s="3" t="n">
+      <c r="AU4" s="12" t="n">
         <v>-412285.4971</v>
       </c>
-      <c r="AV4" s="3" t="n">
-        <v>-10049870.0288</v>
-      </c>
-      <c r="AW4" s="3" t="n">
-        <v>-2210387.9844</v>
-      </c>
-      <c r="AX4" s="3"/>
+      <c r="AV4" s="12" t="n">
+        <v>-10049869.9713</v>
+      </c>
+      <c r="AW4" s="12" t="n">
+        <v>-5192591.7029</v>
+      </c>
+      <c r="AX4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5535,89 +5538,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3" t="n">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12" t="n">
         <v>36020375</v>
       </c>
-      <c r="AA5" s="3" t="n">
-        <v>185463455</v>
-      </c>
-      <c r="AB5" s="3" t="n">
-        <v>264519018</v>
-      </c>
-      <c r="AC5" s="3" t="n">
+      <c r="AA5" s="12" t="n">
+        <v>185463456</v>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>264519015</v>
+      </c>
+      <c r="AC5" s="12" t="n">
         <v>135374880</v>
       </c>
-      <c r="AD5" s="3" t="n">
+      <c r="AD5" s="12" t="n">
         <v>39511440</v>
       </c>
-      <c r="AE5" s="3" t="n">
+      <c r="AE5" s="12" t="n">
         <v>37634913</v>
       </c>
-      <c r="AF5" s="3" t="n">
-        <v>111698152</v>
-      </c>
-      <c r="AG5" s="3" t="n">
+      <c r="AF5" s="12" t="n">
+        <v>111698154</v>
+      </c>
+      <c r="AG5" s="12" t="n">
         <v>135894401.1563</v>
       </c>
-      <c r="AH5" s="3" t="n">
-        <v>262231428.3676</v>
-      </c>
-      <c r="AI5" s="3" t="n">
-        <v>417836167.9448</v>
-      </c>
-      <c r="AJ5" s="3" t="n">
+      <c r="AH5" s="12" t="n">
+        <v>262231429.3676</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>417836164.93</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
         <v>1158868116.2352</v>
       </c>
-      <c r="AK5" s="3" t="n">
+      <c r="AK5" s="12" t="n">
         <v>1425188606.175</v>
       </c>
-      <c r="AL5" s="3" t="n">
+      <c r="AL5" s="12" t="n">
         <v>1477921988.3733</v>
       </c>
-      <c r="AM5" s="3" t="n">
+      <c r="AM5" s="12" t="n">
         <v>3940505912.5198</v>
       </c>
-      <c r="AN5" s="3" t="n">
+      <c r="AN5" s="12" t="n">
         <v>2191682732.22</v>
       </c>
-      <c r="AO5" s="3" t="n">
+      <c r="AO5" s="12" t="n">
         <v>3053677012.1736</v>
       </c>
-      <c r="AP5" s="3" t="n">
+      <c r="AP5" s="12" t="n">
         <v>2586325522.717</v>
       </c>
-      <c r="AQ5" s="3" t="n">
+      <c r="AQ5" s="12" t="n">
         <v>1254779181.1651</v>
       </c>
-      <c r="AR5" s="3" t="n">
-        <v>7893031520.39</v>
-      </c>
-      <c r="AS5" s="3" t="n">
-        <v>9543424182.8969</v>
-      </c>
-      <c r="AT5" s="3" t="n">
-        <v>6406255060.8543</v>
-      </c>
-      <c r="AU5" s="3" t="n">
-        <v>5937681464.8529</v>
-      </c>
-      <c r="AV5" s="3" t="n">
-        <v>7209301651.7395</v>
-      </c>
-      <c r="AW5" s="3" t="n">
-        <v>2886601818.471</v>
-      </c>
-      <c r="AX5" s="3"/>
+      <c r="AR5" s="12" t="n">
+        <v>7893031521.1961</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>9543424183.6722</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>6406255068.3619</v>
+      </c>
+      <c r="AU5" s="12" t="n">
+        <v>5937681463.9261</v>
+      </c>
+      <c r="AV5" s="12" t="n">
+        <v>7209301618.192</v>
+      </c>
+      <c r="AW5" s="12" t="n">
+        <v>4330223170.0299</v>
+      </c>
+      <c r="AX5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5635,89 +5638,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3" t="n">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="n">
         <v>2042760115</v>
       </c>
-      <c r="AA6" s="3" t="n">
-        <v>2090668841</v>
-      </c>
-      <c r="AB6" s="3" t="n">
-        <v>2957552781</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>3226349708</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>3882135178.1563</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>4548786188.7188</v>
-      </c>
-      <c r="AF6" s="3" t="n">
-        <v>4106603861.7383</v>
-      </c>
-      <c r="AG6" s="3" t="n">
-        <v>4453760963.0368</v>
-      </c>
-      <c r="AH6" s="3" t="n">
-        <v>2491178476.9149</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>3399241384.2067</v>
-      </c>
-      <c r="AJ6" s="3" t="n">
+      <c r="AA6" s="12" t="n">
+        <v>2069338391</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <v>2915279275</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <v>3191994336</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>3872043645.15</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>4548786150.7</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>4106603876.74</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>4453761005.0719</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>2491178474.9163</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>3399241388.4668</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
         <v>4137433215.6188</v>
       </c>
-      <c r="AK6" s="3" t="n">
+      <c r="AK6" s="12" t="n">
         <v>3707906717.6788</v>
       </c>
-      <c r="AL6" s="3" t="n">
+      <c r="AL6" s="12" t="n">
         <v>4081238872.4698</v>
       </c>
-      <c r="AM6" s="3" t="n">
+      <c r="AM6" s="12" t="n">
         <v>3462075641.7363</v>
       </c>
-      <c r="AN6" s="3" t="n">
+      <c r="AN6" s="12" t="n">
         <v>3760509665.3786</v>
       </c>
-      <c r="AO6" s="3" t="n">
+      <c r="AO6" s="12" t="n">
         <v>3360832180.317</v>
       </c>
-      <c r="AP6" s="3" t="n">
+      <c r="AP6" s="12" t="n">
         <v>2481339093.598</v>
       </c>
-      <c r="AQ6" s="3" t="n">
+      <c r="AQ6" s="12" t="n">
         <v>3140121951.4034</v>
       </c>
-      <c r="AR6" s="3" t="n">
-        <v>3003174380.6131</v>
-      </c>
-      <c r="AS6" s="3" t="n">
-        <v>3506229863.3735</v>
-      </c>
-      <c r="AT6" s="3" t="n">
-        <v>4634773807.7049</v>
-      </c>
-      <c r="AU6" s="3" t="n">
-        <v>3356247027.6463</v>
-      </c>
-      <c r="AV6" s="3" t="n">
-        <v>3097662122.9688</v>
-      </c>
-      <c r="AW6" s="3" t="n">
-        <v>1936596308.6438</v>
-      </c>
-      <c r="AX6" s="3"/>
+      <c r="AR6" s="12" t="n">
+        <v>3003174380.2593</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>3506229797.1471</v>
+      </c>
+      <c r="AT6" s="12" t="n">
+        <v>4634773810.4572</v>
+      </c>
+      <c r="AU6" s="12" t="n">
+        <v>3349870387.3934</v>
+      </c>
+      <c r="AV6" s="12" t="n">
+        <v>3097434982.9303</v>
+      </c>
+      <c r="AW6" s="12" t="n">
+        <v>3353503294.0161</v>
+      </c>
+      <c r="AX6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5735,89 +5738,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="n">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12" t="n">
         <v>122092079</v>
       </c>
-      <c r="AA7" s="3" t="n">
-        <v>613410860</v>
-      </c>
-      <c r="AB7" s="3" t="n">
-        <v>929286575</v>
-      </c>
-      <c r="AC7" s="3" t="n">
-        <v>891140071</v>
-      </c>
-      <c r="AD7" s="3" t="n">
-        <v>1216032307</v>
-      </c>
-      <c r="AE7" s="3" t="n">
-        <v>1070575766</v>
-      </c>
-      <c r="AF7" s="3" t="n">
+      <c r="AA7" s="12" t="n">
+        <v>634741324</v>
+      </c>
+      <c r="AB7" s="12" t="n">
+        <v>971560086</v>
+      </c>
+      <c r="AC7" s="12" t="n">
+        <v>925495415</v>
+      </c>
+      <c r="AD7" s="12" t="n">
+        <v>1226123860</v>
+      </c>
+      <c r="AE7" s="12" t="n">
+        <v>1070575770</v>
+      </c>
+      <c r="AF7" s="12" t="n">
         <v>1363131220</v>
       </c>
-      <c r="AG7" s="3" t="n">
-        <v>1063840951.9997</v>
-      </c>
-      <c r="AH7" s="3" t="n">
-        <v>1135542368.3325</v>
-      </c>
-      <c r="AI7" s="3" t="n">
-        <v>1598689132.2695</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
+      <c r="AG7" s="12" t="n">
+        <v>1063840950.9333</v>
+      </c>
+      <c r="AH7" s="12" t="n">
+        <v>1135542369.89</v>
+      </c>
+      <c r="AI7" s="12" t="n">
+        <v>1598689142.4923</v>
+      </c>
+      <c r="AJ7" s="12" t="n">
         <v>1372080615.1315</v>
       </c>
-      <c r="AK7" s="3" t="n">
+      <c r="AK7" s="12" t="n">
         <v>1668436621.1011</v>
       </c>
-      <c r="AL7" s="3" t="n">
+      <c r="AL7" s="12" t="n">
         <v>2995119286.7718</v>
       </c>
-      <c r="AM7" s="3" t="n">
+      <c r="AM7" s="12" t="n">
         <v>1973287979.8903</v>
       </c>
-      <c r="AN7" s="3" t="n">
+      <c r="AN7" s="12" t="n">
         <v>1051781326.8202</v>
       </c>
-      <c r="AO7" s="3" t="n">
+      <c r="AO7" s="12" t="n">
         <v>653442719.9612</v>
       </c>
-      <c r="AP7" s="3" t="n">
+      <c r="AP7" s="12" t="n">
         <v>1585413796.8568</v>
       </c>
-      <c r="AQ7" s="3" t="n">
+      <c r="AQ7" s="12" t="n">
         <v>3213161772.667</v>
       </c>
-      <c r="AR7" s="3" t="n">
-        <v>1891091603.0572</v>
-      </c>
-      <c r="AS7" s="3" t="n">
-        <v>1393690630.0432</v>
-      </c>
-      <c r="AT7" s="3" t="n">
-        <v>1777873065.1261</v>
-      </c>
-      <c r="AU7" s="3" t="n">
-        <v>1425007576.2745</v>
-      </c>
-      <c r="AV7" s="3" t="n">
-        <v>1288934835.0641</v>
-      </c>
-      <c r="AW7" s="3" t="n">
-        <v>417086819.7503</v>
-      </c>
-      <c r="AX7" s="3"/>
+      <c r="AR7" s="12" t="n">
+        <v>1891091603.6908</v>
+      </c>
+      <c r="AS7" s="12" t="n">
+        <v>1393690682.7826</v>
+      </c>
+      <c r="AT7" s="12" t="n">
+        <v>1777873081.4826</v>
+      </c>
+      <c r="AU7" s="12" t="n">
+        <v>1425007568.8633</v>
+      </c>
+      <c r="AV7" s="12" t="n">
+        <v>1288934832.3706</v>
+      </c>
+      <c r="AW7" s="12" t="n">
+        <v>633399787.6649</v>
+      </c>
+      <c r="AX7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5835,67 +5838,67 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3" t="n">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12" t="n">
         <v>8050613</v>
       </c>
-      <c r="AD8" s="3" t="n">
+      <c r="AD8" s="12" t="n">
         <v>69113097</v>
       </c>
-      <c r="AE8" s="3" t="n">
+      <c r="AE8" s="12" t="n">
         <v>117706104</v>
       </c>
-      <c r="AF8" s="3" t="n">
+      <c r="AF8" s="12" t="n">
         <v>236927162.5508</v>
       </c>
-      <c r="AG8" s="3" t="n">
-        <v>1670263655.6915</v>
-      </c>
-      <c r="AH8" s="3" t="n">
-        <v>3334452868.81</v>
-      </c>
-      <c r="AI8" s="3" t="n">
-        <v>2202198527.7097</v>
-      </c>
-      <c r="AJ8" s="3" t="n">
+      <c r="AG8" s="12" t="n">
+        <v>1670263649.6878</v>
+      </c>
+      <c r="AH8" s="12" t="n">
+        <v>3334452865.8074</v>
+      </c>
+      <c r="AI8" s="12" t="n">
+        <v>2202198546.7105</v>
+      </c>
+      <c r="AJ8" s="12" t="n">
         <v>6934225.014</v>
       </c>
-      <c r="AK8" s="3" t="n">
+      <c r="AK8" s="12" t="n">
         <v>2076027.0686</v>
       </c>
-      <c r="AL8" s="3" t="n">
+      <c r="AL8" s="12" t="n">
         <v>-744085.4561</v>
       </c>
-      <c r="AM8" s="3" t="n">
+      <c r="AM8" s="12" t="n">
         <v>-1545901.82</v>
       </c>
-      <c r="AN8" s="3" t="n">
+      <c r="AN8" s="12" t="n">
         <v>-1396170.87</v>
       </c>
-      <c r="AO8" s="3" t="n">
+      <c r="AO8" s="12" t="n">
         <v>188650</v>
       </c>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5911,109 +5914,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="12" t="n">
         <v>3035334000</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="12" t="n">
         <v>5206015283</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="12" t="n">
         <v>3918554592</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="12" t="n">
         <v>4991418711</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="12" t="n">
         <v>4289293657</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="12" t="n">
         <v>3486356407</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="12" t="n">
         <v>3715624896</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="12" t="n">
         <v>4012460461</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="12" t="n">
         <v>3602703203</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="12" t="n">
         <v>3665542951</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="12" t="n">
         <v>454947496</v>
       </c>
-      <c r="AA9" s="3" t="n">
-        <v>12941467.3999</v>
-      </c>
-      <c r="AB9" s="3" t="n">
+      <c r="AA9" s="12" t="n">
+        <v>12941467.4</v>
+      </c>
+      <c r="AB9" s="12" t="n">
         <v>33493982</v>
       </c>
-      <c r="AC9" s="3" t="n">
+      <c r="AC9" s="12" t="n">
         <v>44678337</v>
       </c>
-      <c r="AD9" s="3" t="n">
+      <c r="AD9" s="12" t="n">
         <v>29147742.1875</v>
       </c>
-      <c r="AE9" s="3" t="n">
+      <c r="AE9" s="12" t="n">
         <v>15746652</v>
       </c>
-      <c r="AF9" s="3" t="n">
+      <c r="AF9" s="12" t="n">
         <v>4336591.4687</v>
       </c>
-      <c r="AG9" s="3" t="n">
-        <v>3132509.4915</v>
-      </c>
-      <c r="AH9" s="3" t="n">
-        <v>124216313.5868</v>
-      </c>
-      <c r="AI9" s="3" t="n">
+      <c r="AG9" s="12" t="n">
+        <v>3132509.4914</v>
+      </c>
+      <c r="AH9" s="12" t="n">
+        <v>124216311.5868</v>
+      </c>
+      <c r="AI9" s="12" t="n">
         <v>15033844.9149</v>
       </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AJ9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="3" t="n">
+      <c r="AK9" s="12" t="n">
         <v>-55989.7188</v>
       </c>
-      <c r="AL9" s="3" t="n">
+      <c r="AL9" s="12" t="n">
         <v>-61893.9883</v>
       </c>
-      <c r="AM9" s="3" t="n">
+      <c r="AM9" s="12" t="n">
         <v>1510164.9334</v>
       </c>
-      <c r="AN9" s="3" t="n">
+      <c r="AN9" s="12" t="n">
         <v>-710165.5508</v>
       </c>
-      <c r="AO9" s="3" t="n">
+      <c r="AO9" s="12" t="n">
         <v>-1869898.475</v>
       </c>
-      <c r="AP9" s="3" t="n">
+      <c r="AP9" s="12" t="n">
         <v>313029.3438</v>
       </c>
-      <c r="AQ9" s="3" t="n">
+      <c r="AQ9" s="12" t="n">
         <v>1308337.1875</v>
       </c>
-      <c r="AR9" s="3" t="n">
+      <c r="AR9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="3" t="n">
+      <c r="AS9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="3" t="n">
+      <c r="AT9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="3" t="n">
+      <c r="AU9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="3" t="n">
+      <c r="AV9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="3" t="n">
+      <c r="AW9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6028,107 +6031,107 @@
       <c r="O10" t="s">
         <v>152</v>
       </c>
-      <c r="P10" s="3" t="str">
+      <c r="P10" s="12" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="3" t="str">
+      <c r="Q10" s="12" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="R10" s="12" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="3" t="str">
+      <c r="S10" s="12" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="3" t="str">
+      <c r="T10" s="12" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="3" t="str">
+      <c r="U10" s="12" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="3" t="str">
+      <c r="V10" s="12" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="3" t="str">
+      <c r="W10" s="12" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="3" t="str">
+      <c r="X10" s="12" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="3" t="str">
+      <c r="Y10" s="12" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="3" t="str">
+      <c r="Z10" s="12" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="3" t="str">
+      <c r="AA10" s="12" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="3" t="str">
+      <c r="AB10" s="12" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="3" t="str">
+      <c r="AC10" s="12" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="3" t="str">
+      <c r="AD10" s="12" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="3" t="str">
+      <c r="AE10" s="12" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="3" t="str">
+      <c r="AF10" s="12" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="3" t="str">
+      <c r="AG10" s="12" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="3" t="str">
+      <c r="AH10" s="12" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="3" t="str">
+      <c r="AI10" s="12" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="3" t="str">
+      <c r="AJ10" s="12" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="3" t="str">
+      <c r="AK10" s="12" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="3" t="str">
+      <c r="AL10" s="12" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="3" t="str">
+      <c r="AM10" s="12" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="3" t="str">
+      <c r="AN10" s="12" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="3" t="str">
+      <c r="AO10" s="12" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="3" t="str">
+      <c r="AP10" s="12" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="3" t="str">
+      <c r="AQ10" s="12" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="3" t="str">
+      <c r="AR10" s="12" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="3" t="str">
+      <c r="AS10" s="12" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="3" t="str">
+      <c r="AT10" s="12" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="3" t="str">
+      <c r="AU10" s="12" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="3" t="str">
+      <c r="AV10" s="12" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6260,94 +6263,94 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3" t="n">
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12" t="n">
         <v>303908470.379152</v>
       </c>
-      <c r="AA14" s="3" t="n">
+      <c r="AA14" s="12" t="n">
         <v>418926534.125859</v>
       </c>
-      <c r="AB14" s="3" t="n">
+      <c r="AB14" s="12" t="n">
         <v>474634465.5017</v>
       </c>
-      <c r="AC14" s="3" t="n">
-        <v>716216453.954378</v>
-      </c>
-      <c r="AD14" s="3" t="n">
+      <c r="AC14" s="12" t="n">
+        <v>716216452.43054</v>
+      </c>
+      <c r="AD14" s="12" t="n">
         <v>755918249.100577</v>
       </c>
-      <c r="AE14" s="3" t="n">
-        <v>595633408.847446</v>
-      </c>
-      <c r="AF14" s="3" t="n">
-        <v>822175364.343753</v>
-      </c>
-      <c r="AG14" s="3" t="n">
-        <v>995910530.255985</v>
-      </c>
-      <c r="AH14" s="3" t="n">
-        <v>1539202745.81494</v>
-      </c>
-      <c r="AI14" s="3" t="n">
-        <v>3270724616.85976</v>
-      </c>
-      <c r="AJ14" s="3" t="n">
+      <c r="AE14" s="12" t="n">
+        <v>595633408.674208</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>822175363.746889</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>995910530.126435</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>1539202753.79584</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>3270724607.79261</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
         <v>4292220889.85971</v>
       </c>
-      <c r="AK14" s="3" t="n">
+      <c r="AK14" s="12" t="n">
         <v>4610086584.38434</v>
       </c>
-      <c r="AL14" s="3" t="n">
+      <c r="AL14" s="12" t="n">
         <v>2730085126.35506</v>
       </c>
-      <c r="AM14" s="3" t="n">
+      <c r="AM14" s="12" t="n">
         <v>1272389721.3457</v>
       </c>
-      <c r="AN14" s="3" t="n">
+      <c r="AN14" s="12" t="n">
         <v>1607148831.52671</v>
       </c>
-      <c r="AO14" s="3" t="n">
+      <c r="AO14" s="12" t="n">
         <v>2398097281.81432</v>
       </c>
-      <c r="AP14" s="3" t="n">
+      <c r="AP14" s="12" t="n">
         <v>3716892526.40186</v>
       </c>
-      <c r="AQ14" s="3" t="n">
+      <c r="AQ14" s="12" t="n">
         <v>862441070.581501</v>
       </c>
-      <c r="AR14" s="3" t="n">
-        <v>720922786.555265</v>
-      </c>
-      <c r="AS14" s="3" t="n">
-        <v>429758744.737958</v>
-      </c>
-      <c r="AT14" s="3" t="n">
-        <v>7239515030.33714</v>
-      </c>
-      <c r="AU14" s="3" t="n">
-        <v>1474565366.65151</v>
-      </c>
-      <c r="AV14" s="3" t="n">
-        <v>2231441789.9627</v>
-      </c>
-      <c r="AW14" s="3" t="n">
-        <v>1118510929.83592</v>
-      </c>
-      <c r="AX14" s="3"/>
+      <c r="AR14" s="12" t="n">
+        <v>720922786.48047</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>429758744.515195</v>
+      </c>
+      <c r="AT14" s="12" t="n">
+        <v>7239515029.00942</v>
+      </c>
+      <c r="AU14" s="12" t="n">
+        <v>1481383820.11646</v>
+      </c>
+      <c r="AV14" s="12" t="n">
+        <v>2231668904.0034</v>
+      </c>
+      <c r="AW14" s="12" t="n">
+        <v>4057336514.70039</v>
+      </c>
+      <c r="AX14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6365,73 +6368,73 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12" t="n">
         <v>22154921.1413058</v>
       </c>
-      <c r="AA15" s="3" t="n">
+      <c r="AA15" s="12" t="n">
         <v>37150495.2691397</v>
       </c>
-      <c r="AB15" s="3" t="n">
+      <c r="AB15" s="12" t="n">
         <v>51083485.0877317</v>
       </c>
-      <c r="AC15" s="3" t="n">
+      <c r="AC15" s="12" t="n">
         <v>25207440.417403</v>
       </c>
-      <c r="AD15" s="3" t="n">
+      <c r="AD15" s="12" t="n">
         <v>1641672.92337659</v>
       </c>
-      <c r="AE15" s="3" t="n">
+      <c r="AE15" s="12" t="n">
         <v>2012202.02077213</v>
       </c>
-      <c r="AF15" s="3" t="n">
+      <c r="AF15" s="12" t="n">
         <v>2684217.45260192</v>
       </c>
-      <c r="AG15" s="3" t="n">
+      <c r="AG15" s="12" t="n">
         <v>136066.725405332</v>
       </c>
-      <c r="AH15" s="3" t="n">
-        <v>29296986.3042134</v>
-      </c>
-      <c r="AI15" s="3" t="n">
+      <c r="AH15" s="12" t="n">
+        <v>29296987.5305879</v>
+      </c>
+      <c r="AI15" s="12" t="n">
         <v>507552.919700644</v>
       </c>
-      <c r="AJ15" s="3" t="n">
+      <c r="AJ15" s="12" t="n">
         <v>13537892.319324</v>
       </c>
-      <c r="AK15" s="3" t="n">
+      <c r="AK15" s="12" t="n">
         <v>12630719.1456679</v>
       </c>
-      <c r="AL15" s="3" t="n">
+      <c r="AL15" s="12" t="n">
         <v>2539102.66281554</v>
       </c>
-      <c r="AM15" s="3" t="n">
+      <c r="AM15" s="12" t="n">
         <v>4605801.63528916</v>
       </c>
-      <c r="AN15" s="3" t="n">
+      <c r="AN15" s="12" t="n">
         <v>-25.3437158048641</v>
       </c>
-      <c r="AO15" s="3" t="n">
+      <c r="AO15" s="12" t="n">
         <v>-27.0355481618835</v>
       </c>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6449,89 +6452,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3" t="n">
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12" t="n">
         <v>231717404.548768</v>
       </c>
-      <c r="AA16" s="3" t="n">
+      <c r="AA16" s="12" t="n">
         <v>272412787.314903</v>
       </c>
-      <c r="AB16" s="3" t="n">
-        <v>315583572.297013</v>
-      </c>
-      <c r="AC16" s="3" t="n">
+      <c r="AB16" s="12" t="n">
+        <v>315583572.292199</v>
+      </c>
+      <c r="AC16" s="12" t="n">
         <v>372255852.11522</v>
       </c>
-      <c r="AD16" s="3" t="n">
+      <c r="AD16" s="12" t="n">
         <v>367994391.598717</v>
       </c>
-      <c r="AE16" s="3" t="n">
+      <c r="AE16" s="12" t="n">
         <v>416172557.436896</v>
       </c>
-      <c r="AF16" s="3" t="n">
+      <c r="AF16" s="12" t="n">
         <v>490129452.207366</v>
       </c>
-      <c r="AG16" s="3" t="n">
+      <c r="AG16" s="12" t="n">
         <v>339357475.423483</v>
       </c>
-      <c r="AH16" s="3" t="n">
-        <v>316543837.577328</v>
-      </c>
-      <c r="AI16" s="3" t="n">
-        <v>511643666.559276</v>
-      </c>
-      <c r="AJ16" s="3" t="n">
+      <c r="AH16" s="12" t="n">
+        <v>316543837.582127</v>
+      </c>
+      <c r="AI16" s="12" t="n">
+        <v>511643669.462277</v>
+      </c>
+      <c r="AJ16" s="12" t="n">
         <v>753603358.206942</v>
       </c>
-      <c r="AK16" s="3" t="n">
+      <c r="AK16" s="12" t="n">
         <v>643745688.341144</v>
       </c>
-      <c r="AL16" s="3" t="n">
+      <c r="AL16" s="12" t="n">
         <v>609491518.123249</v>
       </c>
-      <c r="AM16" s="3" t="n">
+      <c r="AM16" s="12" t="n">
         <v>494042282.376862</v>
       </c>
-      <c r="AN16" s="3" t="n">
+      <c r="AN16" s="12" t="n">
         <v>230349871.456285</v>
       </c>
-      <c r="AO16" s="3" t="n">
+      <c r="AO16" s="12" t="n">
         <v>376363849.017599</v>
       </c>
-      <c r="AP16" s="3" t="n">
+      <c r="AP16" s="12" t="n">
         <v>247357009.577856</v>
       </c>
-      <c r="AQ16" s="3" t="n">
+      <c r="AQ16" s="12" t="n">
         <v>334143910.605702</v>
       </c>
-      <c r="AR16" s="3" t="n">
+      <c r="AR16" s="12" t="n">
         <v>9610719.35104201</v>
       </c>
-      <c r="AS16" s="3" t="n">
+      <c r="AS16" s="12" t="n">
         <v>2256082.35510648</v>
       </c>
-      <c r="AT16" s="3" t="n">
+      <c r="AT16" s="12" t="n">
         <v>-86593.8285144234</v>
       </c>
-      <c r="AU16" s="3" t="n">
+      <c r="AU16" s="12" t="n">
         <v>-440851.767616227</v>
       </c>
-      <c r="AV16" s="3" t="n">
-        <v>-10049870.0288</v>
-      </c>
-      <c r="AW16" s="3" t="n">
-        <v>-2108264.47744402</v>
-      </c>
-      <c r="AX16" s="3"/>
+      <c r="AV16" s="12" t="n">
+        <v>-10049869.9713</v>
+      </c>
+      <c r="AW16" s="12" t="n">
+        <v>-4952685.55129531</v>
+      </c>
+      <c r="AX16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6549,89 +6552,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3" t="n">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12" t="n">
         <v>58199202.2914542</v>
       </c>
-      <c r="AA17" s="3" t="n">
-        <v>292564360.530962</v>
-      </c>
-      <c r="AB17" s="3" t="n">
-        <v>410788999.094989</v>
-      </c>
-      <c r="AC17" s="3" t="n">
+      <c r="AA17" s="12" t="n">
+        <v>292564362.108439</v>
+      </c>
+      <c r="AB17" s="12" t="n">
+        <v>410788994.436091</v>
+      </c>
+      <c r="AC17" s="12" t="n">
         <v>206289431.831269</v>
       </c>
-      <c r="AD17" s="3" t="n">
+      <c r="AD17" s="12" t="n">
         <v>58772450.2466055</v>
       </c>
-      <c r="AE17" s="3" t="n">
+      <c r="AE17" s="12" t="n">
         <v>54331819.2672562</v>
       </c>
-      <c r="AF17" s="3" t="n">
-        <v>156169071.545877</v>
-      </c>
-      <c r="AG17" s="3" t="n">
+      <c r="AF17" s="12" t="n">
+        <v>156169074.342147</v>
+      </c>
+      <c r="AG17" s="12" t="n">
         <v>184927403.676968</v>
       </c>
-      <c r="AH17" s="3" t="n">
-        <v>349558629.836865</v>
-      </c>
-      <c r="AI17" s="3" t="n">
-        <v>551379112.036677</v>
-      </c>
-      <c r="AJ17" s="3" t="n">
+      <c r="AH17" s="12" t="n">
+        <v>349558631.16988</v>
+      </c>
+      <c r="AI17" s="12" t="n">
+        <v>551379108.058329</v>
+      </c>
+      <c r="AJ17" s="12" t="n">
         <v>1516063388.94844</v>
       </c>
-      <c r="AK17" s="3" t="n">
+      <c r="AK17" s="12" t="n">
         <v>1827637485.67721</v>
       </c>
-      <c r="AL17" s="3" t="n">
+      <c r="AL17" s="12" t="n">
         <v>1861147159.60339</v>
       </c>
-      <c r="AM17" s="3" t="n">
+      <c r="AM17" s="12" t="n">
         <v>4873101338.92775</v>
       </c>
-      <c r="AN17" s="3" t="n">
+      <c r="AN17" s="12" t="n">
         <v>2658946112.9637</v>
       </c>
-      <c r="AO17" s="3" t="n">
+      <c r="AO17" s="12" t="n">
         <v>3662725462.88625</v>
       </c>
-      <c r="AP17" s="3" t="n">
+      <c r="AP17" s="12" t="n">
         <v>3076667043.779</v>
       </c>
-      <c r="AQ17" s="3" t="n">
+      <c r="AQ17" s="12" t="n">
         <v>1466490416.3613</v>
       </c>
-      <c r="AR17" s="3" t="n">
-        <v>9013143446.32058</v>
-      </c>
-      <c r="AS17" s="3" t="n">
-        <v>10688397434.7406</v>
-      </c>
-      <c r="AT17" s="3" t="n">
-        <v>7080390558.6593</v>
-      </c>
-      <c r="AU17" s="3" t="n">
-        <v>6349089132.97912</v>
-      </c>
-      <c r="AV17" s="3" t="n">
-        <v>7209301651.7395</v>
-      </c>
-      <c r="AW17" s="3" t="n">
-        <v>2753236136.53269</v>
-      </c>
-      <c r="AX17" s="3"/>
+      <c r="AR17" s="12" t="n">
+        <v>9013143447.24107</v>
+      </c>
+      <c r="AS17" s="12" t="n">
+        <v>10688397435.6089</v>
+      </c>
+      <c r="AT17" s="12" t="n">
+        <v>7080390566.95693</v>
+      </c>
+      <c r="AU17" s="12" t="n">
+        <v>6349089131.98811</v>
+      </c>
+      <c r="AV17" s="12" t="n">
+        <v>7209301618.192</v>
+      </c>
+      <c r="AW17" s="12" t="n">
+        <v>4130159842.16779</v>
+      </c>
+      <c r="AX17" s="12"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6649,89 +6652,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3" t="n">
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12" t="n">
         <v>3300548902.27543</v>
       </c>
-      <c r="AA18" s="3" t="n">
-        <v>3297982303.57119</v>
-      </c>
-      <c r="AB18" s="3" t="n">
-        <v>4592978440.1271</v>
-      </c>
-      <c r="AC18" s="3" t="n">
-        <v>4916435369.34105</v>
-      </c>
-      <c r="AD18" s="3" t="n">
-        <v>5774595828.67109</v>
-      </c>
-      <c r="AE18" s="3" t="n">
-        <v>6566876588.52463</v>
-      </c>
-      <c r="AF18" s="3" t="n">
-        <v>5741585700.49024</v>
-      </c>
-      <c r="AG18" s="3" t="n">
-        <v>6060753382.65725</v>
-      </c>
-      <c r="AH18" s="3" t="n">
-        <v>3320780199.72778</v>
-      </c>
-      <c r="AI18" s="3" t="n">
-        <v>4485659308.14736</v>
-      </c>
-      <c r="AJ18" s="3" t="n">
+      <c r="AA18" s="12" t="n">
+        <v>3264334006.31453</v>
+      </c>
+      <c r="AB18" s="12" t="n">
+        <v>4527329129.35438</v>
+      </c>
+      <c r="AC18" s="12" t="n">
+        <v>4864083336.45111</v>
+      </c>
+      <c r="AD18" s="12" t="n">
+        <v>5759584881.92947</v>
+      </c>
+      <c r="AE18" s="12" t="n">
+        <v>6566876533.63861</v>
+      </c>
+      <c r="AF18" s="12" t="n">
+        <v>5741585721.46464</v>
+      </c>
+      <c r="AG18" s="12" t="n">
+        <v>6060753439.85933</v>
+      </c>
+      <c r="AH18" s="12" t="n">
+        <v>3320780197.06361</v>
+      </c>
+      <c r="AI18" s="12" t="n">
+        <v>4485659313.76902</v>
+      </c>
+      <c r="AJ18" s="12" t="n">
         <v>5412704806.13153</v>
       </c>
-      <c r="AK18" s="3" t="n">
+      <c r="AK18" s="12" t="n">
         <v>4754956137.91905</v>
       </c>
-      <c r="AL18" s="3" t="n">
+      <c r="AL18" s="12" t="n">
         <v>5139504111.1206</v>
       </c>
-      <c r="AM18" s="3" t="n">
+      <c r="AM18" s="12" t="n">
         <v>4281441474.71307</v>
       </c>
-      <c r="AN18" s="3" t="n">
+      <c r="AN18" s="12" t="n">
         <v>4562244530.4356</v>
       </c>
-      <c r="AO18" s="3" t="n">
+      <c r="AO18" s="12" t="n">
         <v>4031141982.03054</v>
       </c>
-      <c r="AP18" s="3" t="n">
+      <c r="AP18" s="12" t="n">
         <v>2951776234.91626</v>
       </c>
-      <c r="AQ18" s="3" t="n">
+      <c r="AQ18" s="12" t="n">
         <v>3669935568.79306</v>
       </c>
-      <c r="AR18" s="3" t="n">
-        <v>3429359355.38281</v>
-      </c>
-      <c r="AS18" s="3" t="n">
-        <v>3926890134.9323</v>
-      </c>
-      <c r="AT18" s="3" t="n">
-        <v>5122494873.81775</v>
-      </c>
-      <c r="AU18" s="3" t="n">
-        <v>3588793312.16373</v>
-      </c>
-      <c r="AV18" s="3" t="n">
-        <v>3097662122.9688</v>
-      </c>
-      <c r="AW18" s="3" t="n">
-        <v>1847122420.80488</v>
-      </c>
-      <c r="AX18" s="3"/>
+      <c r="AR18" s="12" t="n">
+        <v>3429359354.9788</v>
+      </c>
+      <c r="AS18" s="12" t="n">
+        <v>3926890060.76039</v>
+      </c>
+      <c r="AT18" s="12" t="n">
+        <v>5122494876.85968</v>
+      </c>
+      <c r="AU18" s="12" t="n">
+        <v>3581974849.84401</v>
+      </c>
+      <c r="AV18" s="12" t="n">
+        <v>3097434982.9303</v>
+      </c>
+      <c r="AW18" s="12" t="n">
+        <v>3198566007.26356</v>
+      </c>
+      <c r="AX18" s="12"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6749,89 +6752,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="n">
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12" t="n">
         <v>197267840.879092</v>
       </c>
-      <c r="AA19" s="3" t="n">
-        <v>967641608.955507</v>
-      </c>
-      <c r="AB19" s="3" t="n">
-        <v>1443150306.9343</v>
-      </c>
-      <c r="AC19" s="3" t="n">
-        <v>1357953402.64506</v>
-      </c>
-      <c r="AD19" s="3" t="n">
-        <v>1808822919.67649</v>
-      </c>
-      <c r="AE19" s="3" t="n">
-        <v>1545541742.855</v>
-      </c>
-      <c r="AF19" s="3" t="n">
+      <c r="AA19" s="12" t="n">
+        <v>1001289928.29685</v>
+      </c>
+      <c r="AB19" s="12" t="n">
+        <v>1508799625.47185</v>
+      </c>
+      <c r="AC19" s="12" t="n">
+        <v>1410305392.86753</v>
+      </c>
+      <c r="AD19" s="12" t="n">
+        <v>1823833896.15832</v>
+      </c>
+      <c r="AE19" s="12" t="n">
+        <v>1545541748.62962</v>
+      </c>
+      <c r="AF19" s="12" t="n">
         <v>1905841172.93721</v>
       </c>
-      <c r="AG19" s="3" t="n">
-        <v>1447692793.11415</v>
-      </c>
-      <c r="AH19" s="3" t="n">
-        <v>1513695886.36638</v>
-      </c>
-      <c r="AI19" s="3" t="n">
-        <v>2109639762.65907</v>
-      </c>
-      <c r="AJ19" s="3" t="n">
+      <c r="AG19" s="12" t="n">
+        <v>1447692791.66297</v>
+      </c>
+      <c r="AH19" s="12" t="n">
+        <v>1513695888.44255</v>
+      </c>
+      <c r="AI19" s="12" t="n">
+        <v>2109639776.14914</v>
+      </c>
+      <c r="AJ19" s="12" t="n">
         <v>1794993889.42075</v>
       </c>
-      <c r="AK19" s="3" t="n">
+      <c r="AK19" s="12" t="n">
         <v>2139574578.40255</v>
       </c>
-      <c r="AL19" s="3" t="n">
+      <c r="AL19" s="12" t="n">
         <v>3771753717.11208</v>
       </c>
-      <c r="AM19" s="3" t="n">
+      <c r="AM19" s="12" t="n">
         <v>2440303988.97292</v>
       </c>
-      <c r="AN19" s="3" t="n">
+      <c r="AN19" s="12" t="n">
         <v>1276019484.71967</v>
       </c>
-      <c r="AO19" s="3" t="n">
+      <c r="AO19" s="12" t="n">
         <v>783770280.68071</v>
       </c>
-      <c r="AP19" s="3" t="n">
+      <c r="AP19" s="12" t="n">
         <v>1885992438.57657</v>
       </c>
-      <c r="AQ19" s="3" t="n">
+      <c r="AQ19" s="12" t="n">
         <v>3755298953.44562</v>
       </c>
-      <c r="AR19" s="3" t="n">
-        <v>2159459245.08923</v>
-      </c>
-      <c r="AS19" s="3" t="n">
-        <v>1560898800.00011</v>
-      </c>
-      <c r="AT19" s="3" t="n">
-        <v>1964960112.45841</v>
-      </c>
-      <c r="AU19" s="3" t="n">
-        <v>1523742923.98346</v>
-      </c>
-      <c r="AV19" s="3" t="n">
-        <v>1288934835.0641</v>
-      </c>
-      <c r="AW19" s="3" t="n">
-        <v>397816732.761667</v>
-      </c>
-      <c r="AX19" s="3"/>
+      <c r="AR19" s="12" t="n">
+        <v>2159459245.81274</v>
+      </c>
+      <c r="AS19" s="12" t="n">
+        <v>1560898859.06692</v>
+      </c>
+      <c r="AT19" s="12" t="n">
+        <v>1964960130.53612</v>
+      </c>
+      <c r="AU19" s="12" t="n">
+        <v>1523742916.05876</v>
+      </c>
+      <c r="AV19" s="12" t="n">
+        <v>1288934832.3706</v>
+      </c>
+      <c r="AW19" s="12" t="n">
+        <v>604135691.009457</v>
+      </c>
+      <c r="AX19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6849,67 +6852,67 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3" t="n">
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12" t="n">
         <v>12267832.7150755</v>
       </c>
-      <c r="AD20" s="3" t="n">
+      <c r="AD20" s="12" t="n">
         <v>102804303.12895</v>
       </c>
-      <c r="AE20" s="3" t="n">
+      <c r="AE20" s="12" t="n">
         <v>169926970.979868</v>
       </c>
-      <c r="AF20" s="3" t="n">
+      <c r="AF20" s="12" t="n">
         <v>331256107.080067</v>
       </c>
-      <c r="AG20" s="3" t="n">
-        <v>2272923083.474</v>
-      </c>
-      <c r="AH20" s="3" t="n">
-        <v>4444878263.95427</v>
-      </c>
-      <c r="AI20" s="3" t="n">
-        <v>2906034378.7603</v>
-      </c>
-      <c r="AJ20" s="3" t="n">
+      <c r="AG20" s="12" t="n">
+        <v>2272923075.30406</v>
+      </c>
+      <c r="AH20" s="12" t="n">
+        <v>4444878259.95175</v>
+      </c>
+      <c r="AI20" s="12" t="n">
+        <v>2906034403.83387</v>
+      </c>
+      <c r="AJ20" s="12" t="n">
         <v>9071545.35289866</v>
       </c>
-      <c r="AK20" s="3" t="n">
+      <c r="AK20" s="12" t="n">
         <v>2662261.59500186</v>
       </c>
-      <c r="AL20" s="3" t="n">
+      <c r="AL20" s="12" t="n">
         <v>-937026.814687945</v>
       </c>
-      <c r="AM20" s="3" t="n">
+      <c r="AM20" s="12" t="n">
         <v>-1911768.79216394</v>
       </c>
-      <c r="AN20" s="3" t="n">
+      <c r="AN20" s="12" t="n">
         <v>-1693832.34774102</v>
       </c>
-      <c r="AO20" s="3" t="n">
+      <c r="AO20" s="12" t="n">
         <v>226275.783528808</v>
       </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6925,109 +6928,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="12" t="n">
         <v>6032822140.01566</v>
       </c>
-      <c r="Q21" s="3" t="n">
+      <c r="Q21" s="12" t="n">
         <v>9990757469.16172</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="12" t="n">
         <v>7336657438.47783</v>
       </c>
-      <c r="S21" s="3" t="n">
+      <c r="S21" s="12" t="n">
         <v>9130873892.26007</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="12" t="n">
         <v>7679140602.47769</v>
       </c>
-      <c r="U21" s="3" t="n">
+      <c r="U21" s="12" t="n">
         <v>6112165700.2052</v>
       </c>
-      <c r="V21" s="3" t="n">
+      <c r="V21" s="12" t="n">
         <v>6393941560.35423</v>
       </c>
-      <c r="W21" s="3" t="n">
+      <c r="W21" s="12" t="n">
         <v>6784225907.77468</v>
       </c>
-      <c r="X21" s="3" t="n">
+      <c r="X21" s="12" t="n">
         <v>6016289806.15404</v>
       </c>
-      <c r="Y21" s="3" t="n">
+      <c r="Y21" s="12" t="n">
         <v>6045865409.8293</v>
       </c>
-      <c r="Z21" s="3" t="n">
+      <c r="Z21" s="12" t="n">
         <v>735072340.35444</v>
       </c>
-      <c r="AA21" s="3" t="n">
-        <v>20414868.9788187</v>
-      </c>
-      <c r="AB21" s="3" t="n">
+      <c r="AA21" s="12" t="n">
+        <v>20414868.9789764</v>
+      </c>
+      <c r="AB21" s="12" t="n">
         <v>52015009.9055848</v>
       </c>
-      <c r="AC21" s="3" t="n">
+      <c r="AC21" s="12" t="n">
         <v>68082562.6947625</v>
       </c>
-      <c r="AD21" s="3" t="n">
+      <c r="AD21" s="12" t="n">
         <v>43356663.9817665</v>
       </c>
-      <c r="AE21" s="3" t="n">
+      <c r="AE21" s="12" t="n">
         <v>22732728.2655969</v>
       </c>
-      <c r="AF21" s="3" t="n">
+      <c r="AF21" s="12" t="n">
         <v>6063139.37352027</v>
       </c>
-      <c r="AG21" s="3" t="n">
-        <v>4262771.9930145</v>
-      </c>
-      <c r="AH21" s="3" t="n">
-        <v>165582305.107685</v>
-      </c>
-      <c r="AI21" s="3" t="n">
+      <c r="AG21" s="12" t="n">
+        <v>4262771.99287842</v>
+      </c>
+      <c r="AH21" s="12" t="n">
+        <v>165582302.441654</v>
+      </c>
+      <c r="AI21" s="12" t="n">
         <v>19838751.8736046</v>
       </c>
-      <c r="AJ21" s="3" t="n">
+      <c r="AJ21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" s="3" t="n">
+      <c r="AK21" s="12" t="n">
         <v>-71800.2574873525</v>
       </c>
-      <c r="AL21" s="3" t="n">
+      <c r="AL21" s="12" t="n">
         <v>-77943.0994513184</v>
       </c>
-      <c r="AM21" s="3" t="n">
+      <c r="AM21" s="12" t="n">
         <v>1867574.0938674</v>
       </c>
-      <c r="AN21" s="3" t="n">
+      <c r="AN21" s="12" t="n">
         <v>-861571.751741501</v>
       </c>
-      <c r="AO21" s="3" t="n">
+      <c r="AO21" s="12" t="n">
         <v>-2242845.17651709</v>
       </c>
-      <c r="AP21" s="3" t="n">
+      <c r="AP21" s="12" t="n">
         <v>372376.584983579</v>
       </c>
-      <c r="AQ21" s="3" t="n">
+      <c r="AQ21" s="12" t="n">
         <v>1529084.93832063</v>
       </c>
-      <c r="AR21" s="3" t="n">
+      <c r="AR21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="3" t="n">
+      <c r="AS21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="3" t="n">
+      <c r="AT21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="3" t="n">
+      <c r="AU21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="3" t="n">
+      <c r="AV21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="3" t="n">
+      <c r="AW21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="12"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -7036,41 +7039,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -528,9 +528,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -538,7 +538,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -576,9 +576,9 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -587,7 +587,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,110 +1001,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="12" t="n">
         <v>1431051000</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="12" t="n">
         <v>2392678106</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="12" t="n">
         <v>934431536</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="12" t="n">
         <v>1935355998</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="12" t="n">
         <v>1378215063</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="12" t="n">
         <v>1068422788</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="12" t="n">
         <v>1108552673</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="U2" s="12" t="n">
         <v>1492805862</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="12" t="n">
         <v>1000862100</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="W2" s="12" t="n">
         <v>1056388010</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="12" t="n">
         <v>438028788</v>
       </c>
-      <c r="Y2" s="1" t="n">
-        <v>1227012243</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>2635649216</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>2586389839</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>3564590595</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>3642275559</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>3621166404.9815</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>4431952449.5023</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>4152317872.0228</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>4966890258.1929</v>
-      </c>
-      <c r="AH2" s="1" t="n">
+      <c r="Y2" s="12" t="n">
+        <v>1227012264</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>2635649218</v>
+      </c>
+      <c r="AA2" s="12" t="n">
+        <v>2586389808</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>3564590615</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>3642275524.88</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>3621166425.5602</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>4431952486.4795</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>4152317872.7099</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>4966890279.7397</v>
+      </c>
+      <c r="AH2" s="12" t="n">
         <v>4946959798.9355</v>
       </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AI2" s="12" t="n">
         <v>6325432244.9797</v>
       </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>6673172924.4838</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="AK2" s="12" t="n">
         <v>7177473408.211</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="AL2" s="12" t="n">
         <v>4843676471.603</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="AM2" s="12" t="n">
         <v>6001774318.3246</v>
       </c>
-      <c r="AN2" s="1" t="n">
+      <c r="AN2" s="12" t="n">
         <v>6586950913.1606</v>
       </c>
-      <c r="AO2" s="1" t="n">
+      <c r="AO2" s="12" t="n">
         <v>4887807618.3511</v>
       </c>
-      <c r="AP2" s="1" t="n">
-        <v>9791618994.3741</v>
-      </c>
-      <c r="AQ2" s="1" t="n">
-        <v>10400546619.5339</v>
-      </c>
-      <c r="AR2" s="1" t="n">
-        <v>14875990117.5596</v>
-      </c>
-      <c r="AS2" s="1" t="n">
-        <v>6853691022.7873</v>
-      </c>
-      <c r="AT2" s="1" t="n">
-        <v>8292975143.6667</v>
-      </c>
-      <c r="AU2" s="1" t="n">
-        <v>2152156913.9755</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+      <c r="AP2" s="12" t="n">
+        <v>9791618995.9055</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>10400546606.3132</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>14875990122.4042</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>6853691011.5334</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>8292975084.0834</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>6191213261.551</v>
+      </c>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1113,110 +1113,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="12" t="n">
         <v>1193411000</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O3" s="12" t="n">
         <v>2241296000</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="12" t="n">
         <v>2691938479</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q3" s="12" t="n">
         <v>2575355491</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R3" s="12" t="n">
         <v>2397249665</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="12" t="n">
         <v>1910282904</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="T3" s="12" t="n">
         <v>2122417106</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U3" s="12" t="n">
         <v>2214334723</v>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="V3" s="12" t="n">
         <v>2243653591</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="W3" s="12" t="n">
         <v>2241686462</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="X3" s="12" t="n">
         <v>2460371006</v>
       </c>
-      <c r="Y3" s="1" t="n">
-        <v>2057683899.3999</v>
-      </c>
-      <c r="Z3" s="1" t="n">
+      <c r="Y3" s="12" t="n">
+        <v>2057683893.4</v>
+      </c>
+      <c r="Z3" s="12" t="n">
         <v>1959576427</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v>2260888980</v>
-      </c>
-      <c r="AB3" s="1" t="n">
+      <c r="AA3" s="12" t="n">
+        <v>2260888982</v>
+      </c>
+      <c r="AB3" s="12" t="n">
         <v>2122295989</v>
       </c>
-      <c r="AC3" s="1" t="n">
+      <c r="AC3" s="12" t="n">
         <v>2540064147.4375</v>
       </c>
-      <c r="AD3" s="1" t="n">
-        <v>2797900519.9292</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>3331604109.0234</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>3960550147.8141</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>4568683352.8575</v>
-      </c>
-      <c r="AH3" s="1" t="n">
+      <c r="AD3" s="12" t="n">
+        <v>2797900515.9288</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>3331604106.9019</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>3960550149.8555</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>4568683355.3729</v>
+      </c>
+      <c r="AH3" s="12" t="n">
         <v>4710086893.3547</v>
       </c>
-      <c r="AI3" s="1" t="n">
+      <c r="AI3" s="12" t="n">
         <v>3637689524.5484</v>
       </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>3438782410.0567</v>
       </c>
-      <c r="AK3" s="1" t="n">
+      <c r="AK3" s="12" t="n">
         <v>2602178645.2404</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="AL3" s="12" t="n">
         <v>2598599379.3982</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="AM3" s="12" t="n">
         <v>2337218952.017</v>
       </c>
-      <c r="AN3" s="1" t="n">
+      <c r="AN3" s="12" t="n">
         <v>2339214977.5489</v>
       </c>
-      <c r="AO3" s="1" t="n">
+      <c r="AO3" s="12" t="n">
         <v>2460480444.1709</v>
       </c>
-      <c r="AP3" s="1" t="n">
-        <v>2373192230.2804</v>
-      </c>
-      <c r="AQ3" s="1" t="n">
-        <v>2764261064.949</v>
-      </c>
-      <c r="AR3" s="1" t="n">
-        <v>2521750379.7145</v>
-      </c>
-      <c r="AS3" s="1" t="n">
-        <v>3423161774.1622</v>
-      </c>
-      <c r="AT3" s="1" t="n">
-        <v>3450366056.2506</v>
-      </c>
-      <c r="AU3" s="1" t="n">
-        <v>3135815714.2059</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+      <c r="AP3" s="12" t="n">
+        <v>2373192230.2165</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>2764261065.7637</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>2521750380.6947</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>3423161777.3339</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>3450366052.4446</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>4302261451.2497</v>
+      </c>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1225,110 +1225,110 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="12" t="n">
         <v>410872000</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O4" s="12" t="n">
         <v>572041177</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="12" t="n">
         <v>292184577</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q4" s="12" t="n">
         <v>480707222</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R4" s="12" t="n">
         <v>513828929</v>
       </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="12" t="n">
         <v>507650715</v>
       </c>
-      <c r="T4" s="1" t="n">
+      <c r="T4" s="12" t="n">
         <v>484655117</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="U4" s="12" t="n">
         <v>305319876</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="V4" s="12" t="n">
         <v>358187512</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="W4" s="12" t="n">
         <v>367468479</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="X4" s="12" t="n">
         <v>102639323</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="Y4" s="12" t="n">
         <v>79595374</v>
       </c>
-      <c r="Z4" s="1" t="n">
-        <v>131365301.8281</v>
-      </c>
-      <c r="AA4" s="1" t="n">
+      <c r="Z4" s="12" t="n">
+        <v>131365301.825</v>
+      </c>
+      <c r="AA4" s="12" t="n">
         <v>189153305.0938</v>
       </c>
-      <c r="AB4" s="1" t="n">
-        <v>305738864.586</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>310367987.7188</v>
-      </c>
-      <c r="AD4" s="1" t="n">
-        <v>344161011.418</v>
-      </c>
-      <c r="AE4" s="1" t="n">
-        <v>544661205.7062</v>
-      </c>
-      <c r="AF4" s="1" t="n">
-        <v>648872916.0669</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>964096142.7292</v>
-      </c>
-      <c r="AH4" s="1" t="n">
+      <c r="AB4" s="12" t="n">
+        <v>305738864.5797</v>
+      </c>
+      <c r="AC4" s="12" t="n">
+        <v>310367987.7</v>
+      </c>
+      <c r="AD4" s="12" t="n">
+        <v>344161011.4145</v>
+      </c>
+      <c r="AE4" s="12" t="n">
+        <v>544661205.7202</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>648872915.8054</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>964096144.4647</v>
+      </c>
+      <c r="AH4" s="12" t="n">
         <v>885610064.3583</v>
       </c>
-      <c r="AI4" s="1" t="n">
+      <c r="AI4" s="12" t="n">
         <v>947209106.1171</v>
       </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="AJ4" s="12" t="n">
         <v>1095466064.4557</v>
       </c>
-      <c r="AK4" s="1" t="n">
+      <c r="AK4" s="12" t="n">
         <v>1028285132.991</v>
       </c>
-      <c r="AL4" s="1" t="n">
+      <c r="AL4" s="12" t="n">
         <v>1074181886.3929</v>
       </c>
-      <c r="AM4" s="1" t="n">
+      <c r="AM4" s="12" t="n">
         <v>1040393181.2314</v>
       </c>
-      <c r="AN4" s="1" t="n">
+      <c r="AN4" s="12" t="n">
         <v>1059675767.3907</v>
       </c>
-      <c r="AO4" s="1" t="n">
+      <c r="AO4" s="12" t="n">
         <v>1284922071.8141</v>
       </c>
-      <c r="AP4" s="1" t="n">
-        <v>1262232448.227</v>
-      </c>
-      <c r="AQ4" s="1" t="n">
-        <v>1664273092.441</v>
-      </c>
-      <c r="AR4" s="1" t="n">
-        <v>1971312120.1692</v>
-      </c>
-      <c r="AS4" s="1" t="n">
-        <v>1820687607.9086</v>
-      </c>
-      <c r="AT4" s="1" t="n">
-        <v>2073949329.789</v>
-      </c>
-      <c r="AU4" s="1" t="n">
-        <v>1122793092.6387</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+      <c r="AP4" s="12" t="n">
+        <v>1262232447.7799</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>1664273091.9364</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>1971312139.7595</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>1820687599.3718</v>
+      </c>
+      <c r="AT4" s="12" t="n">
+        <v>2073949330.997</v>
+      </c>
+      <c r="AU4" s="12" t="n">
+        <v>2072331256.2612</v>
+      </c>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1337,110 +1337,110 @@
       <c r="M5" t="s">
         <v>151</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="N5" s="12" t="str">
         <f>Sum(N2:N4)</f>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="O5" s="12" t="str">
         <f>Sum(O2:O4)</f>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="12" t="str">
         <f>Sum(P2:P4)</f>
       </c>
-      <c r="Q5" s="1" t="str">
+      <c r="Q5" s="12" t="str">
         <f>Sum(Q2:Q4)</f>
       </c>
-      <c r="R5" s="1" t="str">
+      <c r="R5" s="12" t="str">
         <f>Sum(R2:R4)</f>
       </c>
-      <c r="S5" s="1" t="str">
+      <c r="S5" s="12" t="str">
         <f>Sum(S2:S4)</f>
       </c>
-      <c r="T5" s="1" t="str">
+      <c r="T5" s="12" t="str">
         <f>Sum(T2:T4)</f>
       </c>
-      <c r="U5" s="1" t="str">
+      <c r="U5" s="12" t="str">
         <f>Sum(U2:U4)</f>
       </c>
-      <c r="V5" s="1" t="str">
+      <c r="V5" s="12" t="str">
         <f>Sum(V2:V4)</f>
       </c>
-      <c r="W5" s="1" t="str">
+      <c r="W5" s="12" t="str">
         <f>Sum(W2:W4)</f>
       </c>
-      <c r="X5" s="1" t="str">
+      <c r="X5" s="12" t="str">
         <f>Sum(X2:X4)</f>
       </c>
-      <c r="Y5" s="1" t="str">
+      <c r="Y5" s="12" t="str">
         <f>Sum(Y2:Y4)</f>
       </c>
-      <c r="Z5" s="1" t="str">
+      <c r="Z5" s="12" t="str">
         <f>Sum(Z2:Z4)</f>
       </c>
-      <c r="AA5" s="1" t="str">
+      <c r="AA5" s="12" t="str">
         <f>Sum(AA2:AA4)</f>
       </c>
-      <c r="AB5" s="1" t="str">
+      <c r="AB5" s="12" t="str">
         <f>Sum(AB2:AB4)</f>
       </c>
-      <c r="AC5" s="1" t="str">
+      <c r="AC5" s="12" t="str">
         <f>Sum(AC2:AC4)</f>
       </c>
-      <c r="AD5" s="1" t="str">
+      <c r="AD5" s="12" t="str">
         <f>Sum(AD2:AD4)</f>
       </c>
-      <c r="AE5" s="1" t="str">
+      <c r="AE5" s="12" t="str">
         <f>Sum(AE2:AE4)</f>
       </c>
-      <c r="AF5" s="1" t="str">
+      <c r="AF5" s="12" t="str">
         <f>Sum(AF2:AF4)</f>
       </c>
-      <c r="AG5" s="1" t="str">
+      <c r="AG5" s="12" t="str">
         <f>Sum(AG2:AG4)</f>
       </c>
-      <c r="AH5" s="1" t="str">
+      <c r="AH5" s="12" t="str">
         <f>Sum(AH2:AH4)</f>
       </c>
-      <c r="AI5" s="1" t="str">
+      <c r="AI5" s="12" t="str">
         <f>Sum(AI2:AI4)</f>
       </c>
-      <c r="AJ5" s="1" t="str">
+      <c r="AJ5" s="12" t="str">
         <f>Sum(AJ2:AJ4)</f>
       </c>
-      <c r="AK5" s="1" t="str">
+      <c r="AK5" s="12" t="str">
         <f>Sum(AK2:AK4)</f>
       </c>
-      <c r="AL5" s="1" t="str">
+      <c r="AL5" s="12" t="str">
         <f>Sum(AL2:AL4)</f>
       </c>
-      <c r="AM5" s="1" t="str">
+      <c r="AM5" s="12" t="str">
         <f>Sum(AM2:AM4)</f>
       </c>
-      <c r="AN5" s="1" t="str">
+      <c r="AN5" s="12" t="str">
         <f>Sum(AN2:AN4)</f>
       </c>
-      <c r="AO5" s="1" t="str">
+      <c r="AO5" s="12" t="str">
         <f>Sum(AO2:AO4)</f>
       </c>
-      <c r="AP5" s="1" t="str">
+      <c r="AP5" s="12" t="str">
         <f>Sum(AP2:AP4)</f>
       </c>
-      <c r="AQ5" s="1" t="str">
+      <c r="AQ5" s="12" t="str">
         <f>Sum(AQ2:AQ4)</f>
       </c>
-      <c r="AR5" s="1" t="str">
+      <c r="AR5" s="12" t="str">
         <f>Sum(AR2:AR4)</f>
       </c>
-      <c r="AS5" s="1" t="str">
+      <c r="AS5" s="12" t="str">
         <f>Sum(AS2:AS4)</f>
       </c>
-      <c r="AT5" s="1" t="str">
+      <c r="AT5" s="12" t="str">
         <f>Sum(AT2:AT4)</f>
       </c>
-      <c r="AU5" s="1" t="str">
+      <c r="AU5" s="12" t="str">
         <f>Sum(AU2:AU4)</f>
       </c>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1559,110 +1559,110 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="12" t="n">
         <v>2844259035.83973</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="O9" s="12" t="n">
         <v>4591739624.13802</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="P9" s="12" t="n">
         <v>1749523687.46855</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="12" t="n">
         <v>3540374506.23467</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="R9" s="12" t="n">
         <v>2467424265.05532</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="S9" s="12" t="n">
         <v>1873123787.63667</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="T9" s="12" t="n">
         <v>1907625555.89693</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="U9" s="12" t="n">
         <v>2524020436.51149</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="V9" s="12" t="n">
         <v>1671377327.05314</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="W9" s="12" t="n">
         <v>1742383001.48005</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="X9" s="12" t="n">
         <v>707736275.43557</v>
       </c>
-      <c r="Y9" s="1" t="n">
-        <v>1935583763.58812</v>
-      </c>
-      <c r="Z9" s="1" t="n">
-        <v>4093073199.77323</v>
-      </c>
-      <c r="AA9" s="1" t="n">
-        <v>3941239987.66593</v>
-      </c>
-      <c r="AB9" s="1" t="n">
-        <v>5302254825.28998</v>
-      </c>
-      <c r="AC9" s="1" t="n">
-        <v>5258188251.7739</v>
-      </c>
-      <c r="AD9" s="1" t="n">
-        <v>5062878707.06297</v>
-      </c>
-      <c r="AE9" s="1" t="n">
-        <v>6031075987.91786</v>
-      </c>
-      <c r="AF9" s="1" t="n">
-        <v>5535105212.31921</v>
-      </c>
-      <c r="AG9" s="1" t="n">
-        <v>6554338159.8977</v>
-      </c>
-      <c r="AH9" s="1" t="n">
+      <c r="Y9" s="12" t="n">
+        <v>1935583796.71514</v>
+      </c>
+      <c r="Z9" s="12" t="n">
+        <v>4093073202.87916</v>
+      </c>
+      <c r="AA9" s="12" t="n">
+        <v>3941239940.42694</v>
+      </c>
+      <c r="AB9" s="12" t="n">
+        <v>5302254855.03956</v>
+      </c>
+      <c r="AC9" s="12" t="n">
+        <v>5258188202.5164</v>
+      </c>
+      <c r="AD9" s="12" t="n">
+        <v>5062878735.83477</v>
+      </c>
+      <c r="AE9" s="12" t="n">
+        <v>6031076038.23706</v>
+      </c>
+      <c r="AF9" s="12" t="n">
+        <v>5535105213.23513</v>
+      </c>
+      <c r="AG9" s="12" t="n">
+        <v>6554338188.33098</v>
+      </c>
+      <c r="AH9" s="12" t="n">
         <v>6471749919.33566</v>
       </c>
-      <c r="AI9" s="1" t="n">
+      <c r="AI9" s="12" t="n">
         <v>8111626092.11648</v>
       </c>
-      <c r="AJ9" s="1" t="n">
+      <c r="AJ9" s="12" t="n">
         <v>8403526662.19906</v>
       </c>
-      <c r="AK9" s="1" t="n">
+      <c r="AK9" s="12" t="n">
         <v>8876158557.34251</v>
       </c>
-      <c r="AL9" s="1" t="n">
+      <c r="AL9" s="12" t="n">
         <v>5876340830.39795</v>
       </c>
-      <c r="AM9" s="1" t="n">
+      <c r="AM9" s="12" t="n">
         <v>7198813604.25113</v>
       </c>
-      <c r="AN9" s="1" t="n">
+      <c r="AN9" s="12" t="n">
         <v>7835771102.8662</v>
       </c>
-      <c r="AO9" s="1" t="n">
+      <c r="AO9" s="12" t="n">
         <v>5712497574.81154</v>
       </c>
-      <c r="AP9" s="1" t="n">
-        <v>11181162312.6079</v>
-      </c>
-      <c r="AQ9" s="1" t="n">
-        <v>11648353219.7331</v>
-      </c>
-      <c r="AR9" s="1" t="n">
-        <v>16441402813.1175</v>
-      </c>
-      <c r="AS9" s="1" t="n">
-        <v>7328566790.11047</v>
-      </c>
-      <c r="AT9" s="1" t="n">
-        <v>8292975143.6667</v>
-      </c>
-      <c r="AU9" s="1" t="n">
-        <v>2052723776.84035</v>
-      </c>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
+      <c r="AP9" s="12" t="n">
+        <v>11181162314.3566</v>
+      </c>
+      <c r="AQ9" s="12" t="n">
+        <v>11648353204.9263</v>
+      </c>
+      <c r="AR9" s="12" t="n">
+        <v>16441402818.4719</v>
+      </c>
+      <c r="AS9" s="12" t="n">
+        <v>7328566778.07681</v>
+      </c>
+      <c r="AT9" s="12" t="n">
+        <v>8292975084.0834</v>
+      </c>
+      <c r="AU9" s="12" t="n">
+        <v>5905169175.6058</v>
+      </c>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1671,110 +1671,110 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="1" t="n">
+      <c r="N10" s="12" t="n">
         <v>2371942034.36532</v>
       </c>
-      <c r="O10" s="1" t="n">
+      <c r="O10" s="12" t="n">
         <v>4301225320.20279</v>
       </c>
-      <c r="P10" s="1" t="n">
+      <c r="P10" s="12" t="n">
         <v>5040080469.0078</v>
       </c>
-      <c r="Q10" s="1" t="n">
+      <c r="Q10" s="12" t="n">
         <v>4711134764.99938</v>
       </c>
-      <c r="R10" s="1" t="n">
+      <c r="R10" s="12" t="n">
         <v>4291806229.38579</v>
       </c>
-      <c r="S10" s="1" t="n">
+      <c r="S10" s="12" t="n">
         <v>3349045329.98229</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="T10" s="12" t="n">
         <v>3652309186.82599</v>
       </c>
-      <c r="U10" s="1" t="n">
+      <c r="U10" s="12" t="n">
         <v>3743973839.06375</v>
       </c>
-      <c r="V10" s="1" t="n">
+      <c r="V10" s="12" t="n">
         <v>3746761658.53293</v>
       </c>
-      <c r="W10" s="1" t="n">
+      <c r="W10" s="12" t="n">
         <v>3697388032.67631</v>
       </c>
-      <c r="X10" s="1" t="n">
+      <c r="X10" s="12" t="n">
         <v>3975295367.97501</v>
       </c>
-      <c r="Y10" s="1" t="n">
-        <v>3245949312.23937</v>
-      </c>
-      <c r="Z10" s="1" t="n">
+      <c r="Y10" s="12" t="n">
+        <v>3245949302.77466</v>
+      </c>
+      <c r="Z10" s="12" t="n">
         <v>3043155252.81991</v>
       </c>
-      <c r="AA10" s="1" t="n">
-        <v>3445229300.42691</v>
-      </c>
-      <c r="AB10" s="1" t="n">
+      <c r="AA10" s="12" t="n">
+        <v>3445229303.47459</v>
+      </c>
+      <c r="AB10" s="12" t="n">
         <v>3156871412.99008</v>
       </c>
-      <c r="AC10" s="1" t="n">
+      <c r="AC10" s="12" t="n">
         <v>3666975560.32112</v>
       </c>
-      <c r="AD10" s="1" t="n">
-        <v>3911842037.23506</v>
-      </c>
-      <c r="AE10" s="1" t="n">
-        <v>4533703321.98305</v>
-      </c>
-      <c r="AF10" s="1" t="n">
-        <v>5279475811.45519</v>
-      </c>
-      <c r="AG10" s="1" t="n">
-        <v>6028861940.47259</v>
-      </c>
-      <c r="AH10" s="1" t="n">
+      <c r="AD10" s="12" t="n">
+        <v>3911842031.64196</v>
+      </c>
+      <c r="AE10" s="12" t="n">
+        <v>4533703319.09608</v>
+      </c>
+      <c r="AF10" s="12" t="n">
+        <v>5279475814.17641</v>
+      </c>
+      <c r="AG10" s="12" t="n">
+        <v>6028861943.79193</v>
+      </c>
+      <c r="AH10" s="12" t="n">
         <v>6161866219.0648</v>
       </c>
-      <c r="AI10" s="1" t="n">
+      <c r="AI10" s="12" t="n">
         <v>4664910810.76156</v>
       </c>
-      <c r="AJ10" s="1" t="n">
+      <c r="AJ10" s="12" t="n">
         <v>4330458688.15815</v>
       </c>
-      <c r="AK10" s="1" t="n">
+      <c r="AK10" s="12" t="n">
         <v>3218033552.48397</v>
       </c>
-      <c r="AL10" s="1" t="n">
+      <c r="AL10" s="12" t="n">
         <v>3152616762.19072</v>
       </c>
-      <c r="AM10" s="1" t="n">
+      <c r="AM10" s="12" t="n">
         <v>2803371585.71972</v>
       </c>
-      <c r="AN10" s="1" t="n">
+      <c r="AN10" s="12" t="n">
         <v>2782706804.12198</v>
       </c>
-      <c r="AO10" s="1" t="n">
+      <c r="AO10" s="12" t="n">
         <v>2875622296.88146</v>
       </c>
-      <c r="AP10" s="1" t="n">
-        <v>2709975494.4541</v>
-      </c>
-      <c r="AQ10" s="1" t="n">
-        <v>3095903557.18483</v>
-      </c>
-      <c r="AR10" s="1" t="n">
-        <v>2787116249.6994</v>
-      </c>
-      <c r="AS10" s="1" t="n">
-        <v>3660344420.53068</v>
-      </c>
-      <c r="AT10" s="1" t="n">
-        <v>3450366056.2506</v>
-      </c>
-      <c r="AU10" s="1" t="n">
-        <v>2990935946.4174</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+      <c r="AP10" s="12" t="n">
+        <v>2709975494.38113</v>
+      </c>
+      <c r="AQ10" s="12" t="n">
+        <v>3095903558.09727</v>
+      </c>
+      <c r="AR10" s="12" t="n">
+        <v>2787116250.78275</v>
+      </c>
+      <c r="AS10" s="12" t="n">
+        <v>3660344423.92214</v>
+      </c>
+      <c r="AT10" s="12" t="n">
+        <v>3450366052.4446</v>
+      </c>
+      <c r="AU10" s="12" t="n">
+        <v>4103490000.10901</v>
+      </c>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1783,151 +1783,151 @@
       <c r="M11" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="1" t="n">
+      <c r="N11" s="12" t="n">
         <v>816621069.810609</v>
       </c>
-      <c r="O11" s="1" t="n">
+      <c r="O11" s="12" t="n">
         <v>1097792524.82091</v>
       </c>
-      <c r="P11" s="1" t="n">
+      <c r="P11" s="12" t="n">
         <v>547053282.001474</v>
       </c>
-      <c r="Q11" s="1" t="n">
+      <c r="Q11" s="12" t="n">
         <v>879364621.026013</v>
       </c>
-      <c r="R11" s="1" t="n">
+      <c r="R11" s="12" t="n">
         <v>919910108.03659</v>
       </c>
-      <c r="S11" s="1" t="n">
+      <c r="S11" s="12" t="n">
         <v>889996582.58624</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="T11" s="12" t="n">
         <v>834006817.631314</v>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="U11" s="12" t="n">
         <v>516231632.199441</v>
       </c>
-      <c r="V11" s="1" t="n">
+      <c r="V11" s="12" t="n">
         <v>598150820.567962</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="W11" s="12" t="n">
         <v>606094375.672938</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="X11" s="12" t="n">
         <v>165837438.459064</v>
       </c>
-      <c r="Y11" s="1" t="n">
+      <c r="Y11" s="12" t="n">
         <v>125559882.918889</v>
       </c>
-      <c r="Z11" s="1" t="n">
-        <v>204005826.355277</v>
-      </c>
-      <c r="AA11" s="1" t="n">
+      <c r="Z11" s="12" t="n">
+        <v>204005826.350463</v>
+      </c>
+      <c r="AA11" s="12" t="n">
         <v>288239057.621374</v>
       </c>
-      <c r="AB11" s="1" t="n">
-        <v>454780241.047513</v>
-      </c>
-      <c r="AC11" s="1" t="n">
-        <v>448064206.102452</v>
-      </c>
-      <c r="AD11" s="1" t="n">
-        <v>481183481.132608</v>
-      </c>
-      <c r="AE11" s="1" t="n">
-        <v>741184197.419342</v>
-      </c>
-      <c r="AF11" s="1" t="n">
-        <v>864957830.915057</v>
-      </c>
-      <c r="AG11" s="1" t="n">
-        <v>1272227049.44546</v>
-      </c>
-      <c r="AH11" s="1" t="n">
+      <c r="AB11" s="12" t="n">
+        <v>454780241.038142</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>448064206.075311</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>481183481.127715</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>741184197.438394</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>864957830.566473</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>1272227051.73564</v>
+      </c>
+      <c r="AH11" s="12" t="n">
         <v>1158579631.83913</v>
       </c>
-      <c r="AI11" s="1" t="n">
+      <c r="AI11" s="12" t="n">
         <v>1214684752.32944</v>
       </c>
-      <c r="AJ11" s="1" t="n">
+      <c r="AJ11" s="12" t="n">
         <v>1379520414.70585</v>
       </c>
-      <c r="AK11" s="1" t="n">
+      <c r="AK11" s="12" t="n">
         <v>1271648303.44681</v>
       </c>
-      <c r="AL11" s="1" t="n">
+      <c r="AL11" s="12" t="n">
         <v>1303195809.0701</v>
       </c>
-      <c r="AM11" s="1" t="n">
+      <c r="AM11" s="12" t="n">
         <v>1247897070.03002</v>
       </c>
-      <c r="AN11" s="1" t="n">
+      <c r="AN11" s="12" t="n">
         <v>1260579722.84834</v>
       </c>
-      <c r="AO11" s="1" t="n">
+      <c r="AO11" s="12" t="n">
         <v>1501719133.0325</v>
       </c>
-      <c r="AP11" s="1" t="n">
-        <v>1441357745.6369</v>
-      </c>
-      <c r="AQ11" s="1" t="n">
-        <v>1863944419.84811</v>
-      </c>
-      <c r="AR11" s="1" t="n">
-        <v>2178754918.62719</v>
-      </c>
-      <c r="AS11" s="1" t="n">
-        <v>1946838673.36906</v>
-      </c>
-      <c r="AT11" s="1" t="n">
-        <v>2073949329.789</v>
-      </c>
-      <c r="AU11" s="1" t="n">
-        <v>1070918232.19996</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+      <c r="AP11" s="12" t="n">
+        <v>1441357745.12636</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
+        <v>1863944419.28297</v>
+      </c>
+      <c r="AR11" s="12" t="n">
+        <v>2178754940.279</v>
+      </c>
+      <c r="AS11" s="12" t="n">
+        <v>1946838664.24076</v>
+      </c>
+      <c r="AT11" s="12" t="n">
+        <v>2073949330.997</v>
+      </c>
+      <c r="AU11" s="12" t="n">
+        <v>1976586193.87509</v>
+      </c>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <f>M12</f>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5254,89 +5254,89 @@
       <c r="O2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>188093593</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="3" t="n">
         <v>265567420</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="3" t="n">
         <v>305630976</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="3" t="n">
         <v>470008160.0938</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="3" t="n">
         <v>508187397.6484</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="3" t="n">
         <v>412587169.3175</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="3" t="n">
         <v>588051576.6752</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="3" t="n">
         <v>731847538.0382</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="3" t="n">
         <v>1154677076.2421</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="3" t="n">
         <v>2478561495.5104</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>3280943246.4082</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="3" t="n">
         <v>3594937685.9658</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="3" t="n">
         <v>2167938638.0338</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="3" t="n">
         <v>1028884661.1787</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="3" t="n">
         <v>1324720469.133</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="3" t="n">
         <v>1999334816.8284</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="3" t="n">
         <v>3124515545.3746</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>737933973.7061</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="3" t="n">
         <v>631329825.3098</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="3" t="n">
         <v>383721696.3777</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="3" t="n">
         <v>6550229031.646</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="3" t="n">
         <v>1385393253.5534</v>
       </c>
-      <c r="AV2" s="12" t="n">
+      <c r="AV2" s="3" t="n">
         <v>2231668904.0034</v>
       </c>
-      <c r="AW2" s="12" t="n">
+      <c r="AW2" s="3" t="n">
         <v>4253872309.0539</v>
       </c>
-      <c r="AX2" s="12"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5354,73 +5354,73 @@
       <c r="O3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>13712019</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="3" t="n">
         <v>23550576</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="3" t="n">
         <v>32894146</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="3" t="n">
         <v>16542070</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="3" t="n">
         <v>1103661</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="3" t="n">
         <v>1393825</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="3" t="n">
         <v>1919856</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="3" t="n">
         <v>99989</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="3" t="n">
         <v>21977975.17</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="3" t="n">
         <v>384624.5938</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>10348269</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="3" t="n">
         <v>9849413.3302</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="3" t="n">
         <v>2016281</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="3" t="n">
         <v>3724361</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="3" t="n">
         <v>-20.89</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="3" t="n">
         <v>-22.54</v>
       </c>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5438,89 +5438,89 @@
       <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>143413440</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="3" t="n">
         <v>172688897</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="3" t="n">
         <v>203213466.825</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="3" t="n">
         <v>244288284</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="3" t="n">
         <v>247394625.5938</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="3" t="n">
         <v>288277076</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="3" t="n">
         <v>350559515.4688</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="3" t="n">
         <v>249377755.7227</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="3" t="n">
         <v>237464435.3906</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="3" t="n">
         <v>387724571.9586</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>576049069.2408</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="3" t="n">
         <v>501991794.0445</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="3" t="n">
         <v>483992311.7919</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="3" t="n">
         <v>399494367.0039</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="3" t="n">
         <v>189869901.1531</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="3" t="n">
         <v>313780993.3078</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="3" t="n">
         <v>207934670.21</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>285904918.207</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="3" t="n">
         <v>8416343.4459</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="3" t="n">
         <v>2014404.0337</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="3" t="n">
         <v>-78349.0893</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="3" t="n">
         <v>-412285.4971</v>
       </c>
-      <c r="AV4" s="12" t="n">
+      <c r="AV4" s="3" t="n">
         <v>-10049869.9713</v>
       </c>
-      <c r="AW4" s="12" t="n">
+      <c r="AW4" s="3" t="n">
         <v>-5192591.7029</v>
       </c>
-      <c r="AX4" s="12"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5538,89 +5538,89 @@
       <c r="O5" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>36020375</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="3" t="n">
         <v>185463456</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="3" t="n">
         <v>264519015</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="3" t="n">
         <v>135374880</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="3" t="n">
         <v>39511440</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="3" t="n">
         <v>37634913</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="3" t="n">
         <v>111698154</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="3" t="n">
         <v>135894401.1563</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="3" t="n">
         <v>262231429.3676</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="3" t="n">
         <v>417836164.93</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>1158868116.2352</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="3" t="n">
         <v>1425188606.175</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="3" t="n">
         <v>1477921988.3733</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="3" t="n">
         <v>3940505912.5198</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="3" t="n">
         <v>2191682732.22</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="3" t="n">
         <v>3053677012.1736</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="3" t="n">
         <v>2586325522.717</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>1254779181.1651</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="3" t="n">
         <v>7893031521.1961</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="3" t="n">
         <v>9543424183.6722</v>
       </c>
-      <c r="AT5" s="12" t="n">
+      <c r="AT5" s="3" t="n">
         <v>6406255068.3619</v>
       </c>
-      <c r="AU5" s="12" t="n">
+      <c r="AU5" s="3" t="n">
         <v>5937681463.9261</v>
       </c>
-      <c r="AV5" s="12" t="n">
+      <c r="AV5" s="3" t="n">
         <v>7209301618.192</v>
       </c>
-      <c r="AW5" s="12" t="n">
+      <c r="AW5" s="3" t="n">
         <v>4330223170.0299</v>
       </c>
-      <c r="AX5" s="12"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5638,89 +5638,89 @@
       <c r="O6" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>2042760115</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="3" t="n">
         <v>2069338391</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="3" t="n">
         <v>2915279275</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="3" t="n">
         <v>3191994336</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="3" t="n">
         <v>3872043645.15</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="3" t="n">
         <v>4548786150.7</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="3" t="n">
         <v>4106603876.74</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="3" t="n">
         <v>4453761005.0719</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="3" t="n">
         <v>2491178474.9163</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="3" t="n">
         <v>3399241388.4668</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>4137433215.6188</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="3" t="n">
         <v>3707906717.6788</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="3" t="n">
         <v>4081238872.4698</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="3" t="n">
         <v>3462075641.7363</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="3" t="n">
         <v>3760509665.3786</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="3" t="n">
         <v>3360832180.317</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="3" t="n">
         <v>2481339093.598</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>3140121951.4034</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="3" t="n">
         <v>3003174380.2593</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="3" t="n">
         <v>3506229797.1471</v>
       </c>
-      <c r="AT6" s="12" t="n">
+      <c r="AT6" s="3" t="n">
         <v>4634773810.4572</v>
       </c>
-      <c r="AU6" s="12" t="n">
+      <c r="AU6" s="3" t="n">
         <v>3349870387.3934</v>
       </c>
-      <c r="AV6" s="12" t="n">
+      <c r="AV6" s="3" t="n">
         <v>3097434982.9303</v>
       </c>
-      <c r="AW6" s="12" t="n">
+      <c r="AW6" s="3" t="n">
         <v>3353503294.0161</v>
       </c>
-      <c r="AX6" s="12"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5738,89 +5738,89 @@
       <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>122092079</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="3" t="n">
         <v>634741324</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="3" t="n">
         <v>971560086</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="3" t="n">
         <v>925495415</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="3" t="n">
         <v>1226123860</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="3" t="n">
         <v>1070575770</v>
       </c>
-      <c r="AF7" s="12" t="n">
+      <c r="AF7" s="3" t="n">
         <v>1363131220</v>
       </c>
-      <c r="AG7" s="12" t="n">
+      <c r="AG7" s="3" t="n">
         <v>1063840950.9333</v>
       </c>
-      <c r="AH7" s="12" t="n">
+      <c r="AH7" s="3" t="n">
         <v>1135542369.89</v>
       </c>
-      <c r="AI7" s="12" t="n">
+      <c r="AI7" s="3" t="n">
         <v>1598689142.4923</v>
       </c>
-      <c r="AJ7" s="12" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>1372080615.1315</v>
       </c>
-      <c r="AK7" s="12" t="n">
+      <c r="AK7" s="3" t="n">
         <v>1668436621.1011</v>
       </c>
-      <c r="AL7" s="12" t="n">
+      <c r="AL7" s="3" t="n">
         <v>2995119286.7718</v>
       </c>
-      <c r="AM7" s="12" t="n">
+      <c r="AM7" s="3" t="n">
         <v>1973287979.8903</v>
       </c>
-      <c r="AN7" s="12" t="n">
+      <c r="AN7" s="3" t="n">
         <v>1051781326.8202</v>
       </c>
-      <c r="AO7" s="12" t="n">
+      <c r="AO7" s="3" t="n">
         <v>653442719.9612</v>
       </c>
-      <c r="AP7" s="12" t="n">
+      <c r="AP7" s="3" t="n">
         <v>1585413796.8568</v>
       </c>
-      <c r="AQ7" s="12" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>3213161772.667</v>
       </c>
-      <c r="AR7" s="12" t="n">
+      <c r="AR7" s="3" t="n">
         <v>1891091603.6908</v>
       </c>
-      <c r="AS7" s="12" t="n">
+      <c r="AS7" s="3" t="n">
         <v>1393690682.7826</v>
       </c>
-      <c r="AT7" s="12" t="n">
+      <c r="AT7" s="3" t="n">
         <v>1777873081.4826</v>
       </c>
-      <c r="AU7" s="12" t="n">
+      <c r="AU7" s="3" t="n">
         <v>1425007568.8633</v>
       </c>
-      <c r="AV7" s="12" t="n">
+      <c r="AV7" s="3" t="n">
         <v>1288934832.3706</v>
       </c>
-      <c r="AW7" s="12" t="n">
+      <c r="AW7" s="3" t="n">
         <v>633399787.6649</v>
       </c>
-      <c r="AX7" s="12"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5838,67 +5838,67 @@
       <c r="O8" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3" t="n">
         <v>8050613</v>
       </c>
-      <c r="AD8" s="12" t="n">
+      <c r="AD8" s="3" t="n">
         <v>69113097</v>
       </c>
-      <c r="AE8" s="12" t="n">
+      <c r="AE8" s="3" t="n">
         <v>117706104</v>
       </c>
-      <c r="AF8" s="12" t="n">
+      <c r="AF8" s="3" t="n">
         <v>236927162.5508</v>
       </c>
-      <c r="AG8" s="12" t="n">
+      <c r="AG8" s="3" t="n">
         <v>1670263649.6878</v>
       </c>
-      <c r="AH8" s="12" t="n">
+      <c r="AH8" s="3" t="n">
         <v>3334452865.8074</v>
       </c>
-      <c r="AI8" s="12" t="n">
+      <c r="AI8" s="3" t="n">
         <v>2202198546.7105</v>
       </c>
-      <c r="AJ8" s="12" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>6934225.014</v>
       </c>
-      <c r="AK8" s="12" t="n">
+      <c r="AK8" s="3" t="n">
         <v>2076027.0686</v>
       </c>
-      <c r="AL8" s="12" t="n">
+      <c r="AL8" s="3" t="n">
         <v>-744085.4561</v>
       </c>
-      <c r="AM8" s="12" t="n">
+      <c r="AM8" s="3" t="n">
         <v>-1545901.82</v>
       </c>
-      <c r="AN8" s="12" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-1396170.87</v>
       </c>
-      <c r="AO8" s="12" t="n">
+      <c r="AO8" s="3" t="n">
         <v>188650</v>
       </c>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5914,109 +5914,109 @@
         <v>58</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="3" t="n">
         <v>3035334000</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="3" t="n">
         <v>5206015283</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="3" t="n">
         <v>3918554592</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="3" t="n">
         <v>4991418711</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="3" t="n">
         <v>4289293657</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="3" t="n">
         <v>3486356407</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="3" t="n">
         <v>3715624896</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="3" t="n">
         <v>4012460461</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="3" t="n">
         <v>3602703203</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="3" t="n">
         <v>3665542951</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="3" t="n">
         <v>454947496</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="3" t="n">
         <v>12941467.4</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="3" t="n">
         <v>33493982</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="3" t="n">
         <v>44678337</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="3" t="n">
         <v>29147742.1875</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="3" t="n">
         <v>15746652</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="3" t="n">
         <v>4336591.4687</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="3" t="n">
         <v>3132509.4914</v>
       </c>
-      <c r="AH9" s="12" t="n">
+      <c r="AH9" s="3" t="n">
         <v>124216311.5868</v>
       </c>
-      <c r="AI9" s="12" t="n">
+      <c r="AI9" s="3" t="n">
         <v>15033844.9149</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="12" t="n">
+      <c r="AK9" s="3" t="n">
         <v>-55989.7188</v>
       </c>
-      <c r="AL9" s="12" t="n">
+      <c r="AL9" s="3" t="n">
         <v>-61893.9883</v>
       </c>
-      <c r="AM9" s="12" t="n">
+      <c r="AM9" s="3" t="n">
         <v>1510164.9334</v>
       </c>
-      <c r="AN9" s="12" t="n">
+      <c r="AN9" s="3" t="n">
         <v>-710165.5508</v>
       </c>
-      <c r="AO9" s="12" t="n">
+      <c r="AO9" s="3" t="n">
         <v>-1869898.475</v>
       </c>
-      <c r="AP9" s="12" t="n">
+      <c r="AP9" s="3" t="n">
         <v>313029.3438</v>
       </c>
-      <c r="AQ9" s="12" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>1308337.1875</v>
       </c>
-      <c r="AR9" s="12" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="12" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="12" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="12" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="12" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="12" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="12"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6031,107 +6031,107 @@
       <c r="O10" t="s">
         <v>152</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="12" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="12" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="12" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="12" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="12" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="12" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="12" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="12" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="12" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="12" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="12" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="12" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="12" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="12" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6268,89 +6268,89 @@
       <c r="O14" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>303908470.379152</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="3" t="n">
         <v>418926534.125859</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="3" t="n">
         <v>474634465.5017</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="3" t="n">
         <v>716216452.43054</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="3" t="n">
         <v>755918249.100577</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="3" t="n">
         <v>595633408.674208</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="3" t="n">
         <v>822175363.746889</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="3" t="n">
         <v>995910530.126435</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="3" t="n">
         <v>1539202753.79584</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="3" t="n">
         <v>3270724607.79261</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>4292220889.85971</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="3" t="n">
         <v>4610086584.38434</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="3" t="n">
         <v>2730085126.35506</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="3" t="n">
         <v>1272389721.3457</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="3" t="n">
         <v>1607148831.52671</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="3" t="n">
         <v>2398097281.81432</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="3" t="n">
         <v>3716892526.40186</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>862441070.581501</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="3" t="n">
         <v>720922786.48047</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="3" t="n">
         <v>429758744.515195</v>
       </c>
-      <c r="AT14" s="12" t="n">
+      <c r="AT14" s="3" t="n">
         <v>7239515029.00942</v>
       </c>
-      <c r="AU14" s="12" t="n">
+      <c r="AU14" s="3" t="n">
         <v>1481383820.11646</v>
       </c>
-      <c r="AV14" s="12" t="n">
+      <c r="AV14" s="3" t="n">
         <v>2231668904.0034</v>
       </c>
-      <c r="AW14" s="12" t="n">
+      <c r="AW14" s="3" t="n">
         <v>4057336514.70039</v>
       </c>
-      <c r="AX14" s="12"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6368,73 +6368,73 @@
       <c r="O15" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>22154921.1413058</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="3" t="n">
         <v>37150495.2691397</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="3" t="n">
         <v>51083485.0877317</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="3" t="n">
         <v>25207440.417403</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="3" t="n">
         <v>1641672.92337659</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="3" t="n">
         <v>2012202.02077213</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="3" t="n">
         <v>2684217.45260192</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="3" t="n">
         <v>136066.725405332</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="3" t="n">
         <v>29296987.5305879</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="3" t="n">
         <v>507552.919700644</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>13537892.319324</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="3" t="n">
         <v>12630719.1456679</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="3" t="n">
         <v>2539102.66281554</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="3" t="n">
         <v>4605801.63528916</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="3" t="n">
         <v>-25.3437158048641</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="3" t="n">
         <v>-27.0355481618835</v>
       </c>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
-      <c r="AV15" s="12"/>
-      <c r="AW15" s="12"/>
-      <c r="AX15" s="12"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6452,89 +6452,89 @@
       <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>231717404.548768</v>
       </c>
-      <c r="AA16" s="12" t="n">
+      <c r="AA16" s="3" t="n">
         <v>272412787.314903</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="3" t="n">
         <v>315583572.292199</v>
       </c>
-      <c r="AC16" s="12" t="n">
+      <c r="AC16" s="3" t="n">
         <v>372255852.11522</v>
       </c>
-      <c r="AD16" s="12" t="n">
+      <c r="AD16" s="3" t="n">
         <v>367994391.598717</v>
       </c>
-      <c r="AE16" s="12" t="n">
+      <c r="AE16" s="3" t="n">
         <v>416172557.436896</v>
       </c>
-      <c r="AF16" s="12" t="n">
+      <c r="AF16" s="3" t="n">
         <v>490129452.207366</v>
       </c>
-      <c r="AG16" s="12" t="n">
+      <c r="AG16" s="3" t="n">
         <v>339357475.423483</v>
       </c>
-      <c r="AH16" s="12" t="n">
+      <c r="AH16" s="3" t="n">
         <v>316543837.582127</v>
       </c>
-      <c r="AI16" s="12" t="n">
+      <c r="AI16" s="3" t="n">
         <v>511643669.462277</v>
       </c>
-      <c r="AJ16" s="12" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>753603358.206942</v>
       </c>
-      <c r="AK16" s="12" t="n">
+      <c r="AK16" s="3" t="n">
         <v>643745688.341144</v>
       </c>
-      <c r="AL16" s="12" t="n">
+      <c r="AL16" s="3" t="n">
         <v>609491518.123249</v>
       </c>
-      <c r="AM16" s="12" t="n">
+      <c r="AM16" s="3" t="n">
         <v>494042282.376862</v>
       </c>
-      <c r="AN16" s="12" t="n">
+      <c r="AN16" s="3" t="n">
         <v>230349871.456285</v>
       </c>
-      <c r="AO16" s="12" t="n">
+      <c r="AO16" s="3" t="n">
         <v>376363849.017599</v>
       </c>
-      <c r="AP16" s="12" t="n">
+      <c r="AP16" s="3" t="n">
         <v>247357009.577856</v>
       </c>
-      <c r="AQ16" s="12" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>334143910.605702</v>
       </c>
-      <c r="AR16" s="12" t="n">
+      <c r="AR16" s="3" t="n">
         <v>9610719.35104201</v>
       </c>
-      <c r="AS16" s="12" t="n">
+      <c r="AS16" s="3" t="n">
         <v>2256082.35510648</v>
       </c>
-      <c r="AT16" s="12" t="n">
+      <c r="AT16" s="3" t="n">
         <v>-86593.8285144234</v>
       </c>
-      <c r="AU16" s="12" t="n">
+      <c r="AU16" s="3" t="n">
         <v>-440851.767616227</v>
       </c>
-      <c r="AV16" s="12" t="n">
+      <c r="AV16" s="3" t="n">
         <v>-10049869.9713</v>
       </c>
-      <c r="AW16" s="12" t="n">
+      <c r="AW16" s="3" t="n">
         <v>-4952685.55129531</v>
       </c>
-      <c r="AX16" s="12"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6552,89 +6552,89 @@
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>58199202.2914542</v>
       </c>
-      <c r="AA17" s="12" t="n">
+      <c r="AA17" s="3" t="n">
         <v>292564362.108439</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="3" t="n">
         <v>410788994.436091</v>
       </c>
-      <c r="AC17" s="12" t="n">
+      <c r="AC17" s="3" t="n">
         <v>206289431.831269</v>
       </c>
-      <c r="AD17" s="12" t="n">
+      <c r="AD17" s="3" t="n">
         <v>58772450.2466055</v>
       </c>
-      <c r="AE17" s="12" t="n">
+      <c r="AE17" s="3" t="n">
         <v>54331819.2672562</v>
       </c>
-      <c r="AF17" s="12" t="n">
+      <c r="AF17" s="3" t="n">
         <v>156169074.342147</v>
       </c>
-      <c r="AG17" s="12" t="n">
+      <c r="AG17" s="3" t="n">
         <v>184927403.676968</v>
       </c>
-      <c r="AH17" s="12" t="n">
+      <c r="AH17" s="3" t="n">
         <v>349558631.16988</v>
       </c>
-      <c r="AI17" s="12" t="n">
+      <c r="AI17" s="3" t="n">
         <v>551379108.058329</v>
       </c>
-      <c r="AJ17" s="12" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>1516063388.94844</v>
       </c>
-      <c r="AK17" s="12" t="n">
+      <c r="AK17" s="3" t="n">
         <v>1827637485.67721</v>
       </c>
-      <c r="AL17" s="12" t="n">
+      <c r="AL17" s="3" t="n">
         <v>1861147159.60339</v>
       </c>
-      <c r="AM17" s="12" t="n">
+      <c r="AM17" s="3" t="n">
         <v>4873101338.92775</v>
       </c>
-      <c r="AN17" s="12" t="n">
+      <c r="AN17" s="3" t="n">
         <v>2658946112.9637</v>
       </c>
-      <c r="AO17" s="12" t="n">
+      <c r="AO17" s="3" t="n">
         <v>3662725462.88625</v>
       </c>
-      <c r="AP17" s="12" t="n">
+      <c r="AP17" s="3" t="n">
         <v>3076667043.779</v>
       </c>
-      <c r="AQ17" s="12" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>1466490416.3613</v>
       </c>
-      <c r="AR17" s="12" t="n">
+      <c r="AR17" s="3" t="n">
         <v>9013143447.24107</v>
       </c>
-      <c r="AS17" s="12" t="n">
+      <c r="AS17" s="3" t="n">
         <v>10688397435.6089</v>
       </c>
-      <c r="AT17" s="12" t="n">
+      <c r="AT17" s="3" t="n">
         <v>7080390566.95693</v>
       </c>
-      <c r="AU17" s="12" t="n">
+      <c r="AU17" s="3" t="n">
         <v>6349089131.98811</v>
       </c>
-      <c r="AV17" s="12" t="n">
+      <c r="AV17" s="3" t="n">
         <v>7209301618.192</v>
       </c>
-      <c r="AW17" s="12" t="n">
+      <c r="AW17" s="3" t="n">
         <v>4130159842.16779</v>
       </c>
-      <c r="AX17" s="12"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6652,89 +6652,89 @@
       <c r="O18" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>3300548902.27543</v>
       </c>
-      <c r="AA18" s="12" t="n">
+      <c r="AA18" s="3" t="n">
         <v>3264334006.31453</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="3" t="n">
         <v>4527329129.35438</v>
       </c>
-      <c r="AC18" s="12" t="n">
+      <c r="AC18" s="3" t="n">
         <v>4864083336.45111</v>
       </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AD18" s="3" t="n">
         <v>5759584881.92947</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="3" t="n">
         <v>6566876533.63861</v>
       </c>
-      <c r="AF18" s="12" t="n">
+      <c r="AF18" s="3" t="n">
         <v>5741585721.46464</v>
       </c>
-      <c r="AG18" s="12" t="n">
+      <c r="AG18" s="3" t="n">
         <v>6060753439.85933</v>
       </c>
-      <c r="AH18" s="12" t="n">
+      <c r="AH18" s="3" t="n">
         <v>3320780197.06361</v>
       </c>
-      <c r="AI18" s="12" t="n">
+      <c r="AI18" s="3" t="n">
         <v>4485659313.76902</v>
       </c>
-      <c r="AJ18" s="12" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>5412704806.13153</v>
       </c>
-      <c r="AK18" s="12" t="n">
+      <c r="AK18" s="3" t="n">
         <v>4754956137.91905</v>
       </c>
-      <c r="AL18" s="12" t="n">
+      <c r="AL18" s="3" t="n">
         <v>5139504111.1206</v>
       </c>
-      <c r="AM18" s="12" t="n">
+      <c r="AM18" s="3" t="n">
         <v>4281441474.71307</v>
       </c>
-      <c r="AN18" s="12" t="n">
+      <c r="AN18" s="3" t="n">
         <v>4562244530.4356</v>
       </c>
-      <c r="AO18" s="12" t="n">
+      <c r="AO18" s="3" t="n">
         <v>4031141982.03054</v>
       </c>
-      <c r="AP18" s="12" t="n">
+      <c r="AP18" s="3" t="n">
         <v>2951776234.91626</v>
       </c>
-      <c r="AQ18" s="12" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>3669935568.79306</v>
       </c>
-      <c r="AR18" s="12" t="n">
+      <c r="AR18" s="3" t="n">
         <v>3429359354.9788</v>
       </c>
-      <c r="AS18" s="12" t="n">
+      <c r="AS18" s="3" t="n">
         <v>3926890060.76039</v>
       </c>
-      <c r="AT18" s="12" t="n">
+      <c r="AT18" s="3" t="n">
         <v>5122494876.85968</v>
       </c>
-      <c r="AU18" s="12" t="n">
+      <c r="AU18" s="3" t="n">
         <v>3581974849.84401</v>
       </c>
-      <c r="AV18" s="12" t="n">
+      <c r="AV18" s="3" t="n">
         <v>3097434982.9303</v>
       </c>
-      <c r="AW18" s="12" t="n">
+      <c r="AW18" s="3" t="n">
         <v>3198566007.26356</v>
       </c>
-      <c r="AX18" s="12"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6752,89 +6752,89 @@
       <c r="O19" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>197267840.879092</v>
       </c>
-      <c r="AA19" s="12" t="n">
+      <c r="AA19" s="3" t="n">
         <v>1001289928.29685</v>
       </c>
-      <c r="AB19" s="12" t="n">
+      <c r="AB19" s="3" t="n">
         <v>1508799625.47185</v>
       </c>
-      <c r="AC19" s="12" t="n">
+      <c r="AC19" s="3" t="n">
         <v>1410305392.86753</v>
       </c>
-      <c r="AD19" s="12" t="n">
+      <c r="AD19" s="3" t="n">
         <v>1823833896.15832</v>
       </c>
-      <c r="AE19" s="12" t="n">
+      <c r="AE19" s="3" t="n">
         <v>1545541748.62962</v>
       </c>
-      <c r="AF19" s="12" t="n">
+      <c r="AF19" s="3" t="n">
         <v>1905841172.93721</v>
       </c>
-      <c r="AG19" s="12" t="n">
+      <c r="AG19" s="3" t="n">
         <v>1447692791.66297</v>
       </c>
-      <c r="AH19" s="12" t="n">
+      <c r="AH19" s="3" t="n">
         <v>1513695888.44255</v>
       </c>
-      <c r="AI19" s="12" t="n">
+      <c r="AI19" s="3" t="n">
         <v>2109639776.14914</v>
       </c>
-      <c r="AJ19" s="12" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>1794993889.42075</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="3" t="n">
         <v>2139574578.40255</v>
       </c>
-      <c r="AL19" s="12" t="n">
+      <c r="AL19" s="3" t="n">
         <v>3771753717.11208</v>
       </c>
-      <c r="AM19" s="12" t="n">
+      <c r="AM19" s="3" t="n">
         <v>2440303988.97292</v>
       </c>
-      <c r="AN19" s="12" t="n">
+      <c r="AN19" s="3" t="n">
         <v>1276019484.71967</v>
       </c>
-      <c r="AO19" s="12" t="n">
+      <c r="AO19" s="3" t="n">
         <v>783770280.68071</v>
       </c>
-      <c r="AP19" s="12" t="n">
+      <c r="AP19" s="3" t="n">
         <v>1885992438.57657</v>
       </c>
-      <c r="AQ19" s="12" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>3755298953.44562</v>
       </c>
-      <c r="AR19" s="12" t="n">
+      <c r="AR19" s="3" t="n">
         <v>2159459245.81274</v>
       </c>
-      <c r="AS19" s="12" t="n">
+      <c r="AS19" s="3" t="n">
         <v>1560898859.06692</v>
       </c>
-      <c r="AT19" s="12" t="n">
+      <c r="AT19" s="3" t="n">
         <v>1964960130.53612</v>
       </c>
-      <c r="AU19" s="12" t="n">
+      <c r="AU19" s="3" t="n">
         <v>1523742916.05876</v>
       </c>
-      <c r="AV19" s="12" t="n">
+      <c r="AV19" s="3" t="n">
         <v>1288934832.3706</v>
       </c>
-      <c r="AW19" s="12" t="n">
+      <c r="AW19" s="3" t="n">
         <v>604135691.009457</v>
       </c>
-      <c r="AX19" s="12"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6852,67 +6852,67 @@
       <c r="O20" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3" t="n">
         <v>12267832.7150755</v>
       </c>
-      <c r="AD20" s="12" t="n">
+      <c r="AD20" s="3" t="n">
         <v>102804303.12895</v>
       </c>
-      <c r="AE20" s="12" t="n">
+      <c r="AE20" s="3" t="n">
         <v>169926970.979868</v>
       </c>
-      <c r="AF20" s="12" t="n">
+      <c r="AF20" s="3" t="n">
         <v>331256107.080067</v>
       </c>
-      <c r="AG20" s="12" t="n">
+      <c r="AG20" s="3" t="n">
         <v>2272923075.30406</v>
       </c>
-      <c r="AH20" s="12" t="n">
+      <c r="AH20" s="3" t="n">
         <v>4444878259.95175</v>
       </c>
-      <c r="AI20" s="12" t="n">
+      <c r="AI20" s="3" t="n">
         <v>2906034403.83387</v>
       </c>
-      <c r="AJ20" s="12" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>9071545.35289866</v>
       </c>
-      <c r="AK20" s="12" t="n">
+      <c r="AK20" s="3" t="n">
         <v>2662261.59500186</v>
       </c>
-      <c r="AL20" s="12" t="n">
+      <c r="AL20" s="3" t="n">
         <v>-937026.814687945</v>
       </c>
-      <c r="AM20" s="12" t="n">
+      <c r="AM20" s="3" t="n">
         <v>-1911768.79216394</v>
       </c>
-      <c r="AN20" s="12" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-1693832.34774102</v>
       </c>
-      <c r="AO20" s="12" t="n">
+      <c r="AO20" s="3" t="n">
         <v>226275.783528808</v>
       </c>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6928,109 +6928,109 @@
         <v>58</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="3" t="n">
         <v>6032822140.01566</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="3" t="n">
         <v>9990757469.16172</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="3" t="n">
         <v>7336657438.47783</v>
       </c>
-      <c r="S21" s="12" t="n">
+      <c r="S21" s="3" t="n">
         <v>9130873892.26007</v>
       </c>
-      <c r="T21" s="12" t="n">
+      <c r="T21" s="3" t="n">
         <v>7679140602.47769</v>
       </c>
-      <c r="U21" s="12" t="n">
+      <c r="U21" s="3" t="n">
         <v>6112165700.2052</v>
       </c>
-      <c r="V21" s="12" t="n">
+      <c r="V21" s="3" t="n">
         <v>6393941560.35423</v>
       </c>
-      <c r="W21" s="12" t="n">
+      <c r="W21" s="3" t="n">
         <v>6784225907.77468</v>
       </c>
-      <c r="X21" s="12" t="n">
+      <c r="X21" s="3" t="n">
         <v>6016289806.15404</v>
       </c>
-      <c r="Y21" s="12" t="n">
+      <c r="Y21" s="3" t="n">
         <v>6045865409.8293</v>
       </c>
-      <c r="Z21" s="12" t="n">
+      <c r="Z21" s="3" t="n">
         <v>735072340.35444</v>
       </c>
-      <c r="AA21" s="12" t="n">
+      <c r="AA21" s="3" t="n">
         <v>20414868.9789764</v>
       </c>
-      <c r="AB21" s="12" t="n">
+      <c r="AB21" s="3" t="n">
         <v>52015009.9055848</v>
       </c>
-      <c r="AC21" s="12" t="n">
+      <c r="AC21" s="3" t="n">
         <v>68082562.6947625</v>
       </c>
-      <c r="AD21" s="12" t="n">
+      <c r="AD21" s="3" t="n">
         <v>43356663.9817665</v>
       </c>
-      <c r="AE21" s="12" t="n">
+      <c r="AE21" s="3" t="n">
         <v>22732728.2655969</v>
       </c>
-      <c r="AF21" s="12" t="n">
+      <c r="AF21" s="3" t="n">
         <v>6063139.37352027</v>
       </c>
-      <c r="AG21" s="12" t="n">
+      <c r="AG21" s="3" t="n">
         <v>4262771.99287842</v>
       </c>
-      <c r="AH21" s="12" t="n">
+      <c r="AH21" s="3" t="n">
         <v>165582302.441654</v>
       </c>
-      <c r="AI21" s="12" t="n">
+      <c r="AI21" s="3" t="n">
         <v>19838751.8736046</v>
       </c>
-      <c r="AJ21" s="12" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" s="12" t="n">
+      <c r="AK21" s="3" t="n">
         <v>-71800.2574873525</v>
       </c>
-      <c r="AL21" s="12" t="n">
+      <c r="AL21" s="3" t="n">
         <v>-77943.0994513184</v>
       </c>
-      <c r="AM21" s="12" t="n">
+      <c r="AM21" s="3" t="n">
         <v>1867574.0938674</v>
       </c>
-      <c r="AN21" s="12" t="n">
+      <c r="AN21" s="3" t="n">
         <v>-861571.751741501</v>
       </c>
-      <c r="AO21" s="12" t="n">
+      <c r="AO21" s="3" t="n">
         <v>-2242845.17651709</v>
       </c>
-      <c r="AP21" s="12" t="n">
+      <c r="AP21" s="3" t="n">
         <v>372376.584983579</v>
       </c>
-      <c r="AQ21" s="12" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>1529084.93832063</v>
       </c>
-      <c r="AR21" s="12" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="12" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="12" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="12" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="12" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="12" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="12"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -7039,41 +7039,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -522,23 +522,29 @@
   <si>
     <t xml:space="preserve">Firm Fixed-Price</t>
   </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -576,18 +582,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,110 +1007,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="1" t="n">
         <v>1431051000</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="1" t="n">
         <v>2392678106</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="1" t="n">
         <v>934431536</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="1" t="n">
         <v>1935355998</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="1" t="n">
         <v>1378215063</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="1" t="n">
         <v>1068422788</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="1" t="n">
         <v>1108552673</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="1" t="n">
         <v>1492805862</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="1" t="n">
         <v>1000862100</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="1" t="n">
         <v>1056388010</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="1" t="n">
         <v>438028788</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="1" t="n">
         <v>1227012264</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="1" t="n">
         <v>2635649218</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="1" t="n">
         <v>2586389808</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="1" t="n">
         <v>3564590615</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="1" t="n">
         <v>3642275524.88</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="1" t="n">
         <v>3621166425.5602</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="1" t="n">
         <v>4431952486.4795</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="1" t="n">
         <v>4152317872.7099</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="1" t="n">
         <v>4966890279.7397</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="1" t="n">
         <v>4946959798.9355</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="1" t="n">
         <v>6325432244.9797</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>6673172924.4838</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="1" t="n">
         <v>7177473408.211</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="1" t="n">
         <v>4843676471.603</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="1" t="n">
         <v>6001774318.3246</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="1" t="n">
         <v>6586950913.1606</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="1" t="n">
         <v>4887807618.3511</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="1" t="n">
         <v>9791618995.9055</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>10400546606.3132</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="1" t="n">
         <v>14875990122.4042</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="1" t="n">
         <v>6853691011.5334</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="1" t="n">
         <v>8292975084.0834</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="1" t="n">
         <v>6191213261.551</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1113,110 +1119,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="1" t="n">
         <v>1193411000</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="1" t="n">
         <v>2241296000</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="1" t="n">
         <v>2691938479</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="1" t="n">
         <v>2575355491</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="1" t="n">
         <v>2397249665</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="1" t="n">
         <v>1910282904</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="1" t="n">
         <v>2122417106</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="1" t="n">
         <v>2214334723</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="1" t="n">
         <v>2243653591</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="1" t="n">
         <v>2241686462</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="1" t="n">
         <v>2460371006</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="1" t="n">
         <v>2057683893.4</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="1" t="n">
         <v>1959576427</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="1" t="n">
         <v>2260888982</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="1" t="n">
         <v>2122295989</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="1" t="n">
         <v>2540064147.4375</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="1" t="n">
         <v>2797900515.9288</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="1" t="n">
         <v>3331604106.9019</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="1" t="n">
         <v>3960550149.8555</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="1" t="n">
         <v>4568683355.3729</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="1" t="n">
         <v>4710086893.3547</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="1" t="n">
         <v>3637689524.5484</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>3438782410.0567</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="1" t="n">
         <v>2602178645.2404</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="1" t="n">
         <v>2598599379.3982</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="1" t="n">
         <v>2337218952.017</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="1" t="n">
         <v>2339214977.5489</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="1" t="n">
         <v>2460480444.1709</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="1" t="n">
         <v>2373192230.2165</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>2764261065.7637</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="1" t="n">
         <v>2521750380.6947</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="1" t="n">
         <v>3423161777.3339</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="1" t="n">
         <v>3450366052.4446</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="1" t="n">
         <v>4302261451.2497</v>
       </c>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1225,110 +1231,110 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="1" t="n">
         <v>410872000</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="1" t="n">
         <v>572041177</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="1" t="n">
         <v>292184577</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="1" t="n">
         <v>480707222</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="1" t="n">
         <v>513828929</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="1" t="n">
         <v>507650715</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="1" t="n">
         <v>484655117</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="1" t="n">
         <v>305319876</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="1" t="n">
         <v>358187512</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="1" t="n">
         <v>367468479</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="1" t="n">
         <v>102639323</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="1" t="n">
         <v>79595374</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="1" t="n">
         <v>131365301.825</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="1" t="n">
         <v>189153305.0938</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="1" t="n">
         <v>305738864.5797</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="1" t="n">
         <v>310367987.7</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="1" t="n">
         <v>344161011.4145</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="1" t="n">
         <v>544661205.7202</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="1" t="n">
         <v>648872915.8054</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="1" t="n">
         <v>964096144.4647</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="1" t="n">
         <v>885610064.3583</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="1" t="n">
         <v>947209106.1171</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>1095466064.4557</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="1" t="n">
         <v>1028285132.991</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="1" t="n">
         <v>1074181886.3929</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="1" t="n">
         <v>1040393181.2314</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="1" t="n">
         <v>1059675767.3907</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="1" t="n">
         <v>1284922071.8141</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="1" t="n">
         <v>1262232447.7799</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>1664273091.9364</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="1" t="n">
         <v>1971312139.7595</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="1" t="n">
         <v>1820687599.3718</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="1" t="n">
         <v>2073949330.997</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="1" t="n">
         <v>2072331256.2612</v>
       </c>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1337,110 +1343,110 @@
       <c r="M5" t="s">
         <v>151</v>
       </c>
-      <c r="N5" s="12" t="str">
+      <c r="N5" s="1" t="str">
         <f>Sum(N2:N4)</f>
       </c>
-      <c r="O5" s="12" t="str">
+      <c r="O5" s="1" t="str">
         <f>Sum(O2:O4)</f>
       </c>
-      <c r="P5" s="12" t="str">
+      <c r="P5" s="1" t="str">
         <f>Sum(P2:P4)</f>
       </c>
-      <c r="Q5" s="12" t="str">
+      <c r="Q5" s="1" t="str">
         <f>Sum(Q2:Q4)</f>
       </c>
-      <c r="R5" s="12" t="str">
+      <c r="R5" s="1" t="str">
         <f>Sum(R2:R4)</f>
       </c>
-      <c r="S5" s="12" t="str">
+      <c r="S5" s="1" t="str">
         <f>Sum(S2:S4)</f>
       </c>
-      <c r="T5" s="12" t="str">
+      <c r="T5" s="1" t="str">
         <f>Sum(T2:T4)</f>
       </c>
-      <c r="U5" s="12" t="str">
+      <c r="U5" s="1" t="str">
         <f>Sum(U2:U4)</f>
       </c>
-      <c r="V5" s="12" t="str">
+      <c r="V5" s="1" t="str">
         <f>Sum(V2:V4)</f>
       </c>
-      <c r="W5" s="12" t="str">
+      <c r="W5" s="1" t="str">
         <f>Sum(W2:W4)</f>
       </c>
-      <c r="X5" s="12" t="str">
+      <c r="X5" s="1" t="str">
         <f>Sum(X2:X4)</f>
       </c>
-      <c r="Y5" s="12" t="str">
+      <c r="Y5" s="1" t="str">
         <f>Sum(Y2:Y4)</f>
       </c>
-      <c r="Z5" s="12" t="str">
+      <c r="Z5" s="1" t="str">
         <f>Sum(Z2:Z4)</f>
       </c>
-      <c r="AA5" s="12" t="str">
+      <c r="AA5" s="1" t="str">
         <f>Sum(AA2:AA4)</f>
       </c>
-      <c r="AB5" s="12" t="str">
+      <c r="AB5" s="1" t="str">
         <f>Sum(AB2:AB4)</f>
       </c>
-      <c r="AC5" s="12" t="str">
+      <c r="AC5" s="1" t="str">
         <f>Sum(AC2:AC4)</f>
       </c>
-      <c r="AD5" s="12" t="str">
+      <c r="AD5" s="1" t="str">
         <f>Sum(AD2:AD4)</f>
       </c>
-      <c r="AE5" s="12" t="str">
+      <c r="AE5" s="1" t="str">
         <f>Sum(AE2:AE4)</f>
       </c>
-      <c r="AF5" s="12" t="str">
+      <c r="AF5" s="1" t="str">
         <f>Sum(AF2:AF4)</f>
       </c>
-      <c r="AG5" s="12" t="str">
+      <c r="AG5" s="1" t="str">
         <f>Sum(AG2:AG4)</f>
       </c>
-      <c r="AH5" s="12" t="str">
+      <c r="AH5" s="1" t="str">
         <f>Sum(AH2:AH4)</f>
       </c>
-      <c r="AI5" s="12" t="str">
+      <c r="AI5" s="1" t="str">
         <f>Sum(AI2:AI4)</f>
       </c>
-      <c r="AJ5" s="12" t="str">
+      <c r="AJ5" s="1" t="str">
         <f>Sum(AJ2:AJ4)</f>
       </c>
-      <c r="AK5" s="12" t="str">
+      <c r="AK5" s="1" t="str">
         <f>Sum(AK2:AK4)</f>
       </c>
-      <c r="AL5" s="12" t="str">
+      <c r="AL5" s="1" t="str">
         <f>Sum(AL2:AL4)</f>
       </c>
-      <c r="AM5" s="12" t="str">
+      <c r="AM5" s="1" t="str">
         <f>Sum(AM2:AM4)</f>
       </c>
-      <c r="AN5" s="12" t="str">
+      <c r="AN5" s="1" t="str">
         <f>Sum(AN2:AN4)</f>
       </c>
-      <c r="AO5" s="12" t="str">
+      <c r="AO5" s="1" t="str">
         <f>Sum(AO2:AO4)</f>
       </c>
-      <c r="AP5" s="12" t="str">
+      <c r="AP5" s="1" t="str">
         <f>Sum(AP2:AP4)</f>
       </c>
-      <c r="AQ5" s="12" t="str">
+      <c r="AQ5" s="1" t="str">
         <f>Sum(AQ2:AQ4)</f>
       </c>
-      <c r="AR5" s="12" t="str">
+      <c r="AR5" s="1" t="str">
         <f>Sum(AR2:AR4)</f>
       </c>
-      <c r="AS5" s="12" t="str">
+      <c r="AS5" s="1" t="str">
         <f>Sum(AS2:AS4)</f>
       </c>
-      <c r="AT5" s="12" t="str">
+      <c r="AT5" s="1" t="str">
         <f>Sum(AT2:AT4)</f>
       </c>
-      <c r="AU5" s="12" t="str">
+      <c r="AU5" s="1" t="str">
         <f>Sum(AU2:AU4)</f>
       </c>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1559,110 +1565,110 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="12" t="n">
+      <c r="N9" s="1" t="n">
         <v>2844259035.83973</v>
       </c>
-      <c r="O9" s="12" t="n">
+      <c r="O9" s="1" t="n">
         <v>4591739624.13802</v>
       </c>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="1" t="n">
         <v>1749523687.46855</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="1" t="n">
         <v>3540374506.23467</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="1" t="n">
         <v>2467424265.05532</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="1" t="n">
         <v>1873123787.63667</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="1" t="n">
         <v>1907625555.89693</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="1" t="n">
         <v>2524020436.51149</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="1" t="n">
         <v>1671377327.05314</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="1" t="n">
         <v>1742383001.48005</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="1" t="n">
         <v>707736275.43557</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="1" t="n">
         <v>1935583796.71514</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="1" t="n">
         <v>4093073202.87916</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="1" t="n">
         <v>3941239940.42694</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="1" t="n">
         <v>5302254855.03956</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="1" t="n">
         <v>5258188202.5164</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="1" t="n">
         <v>5062878735.83477</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="1" t="n">
         <v>6031076038.23706</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="1" t="n">
         <v>5535105213.23513</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="1" t="n">
         <v>6554338188.33098</v>
       </c>
-      <c r="AH9" s="12" t="n">
+      <c r="AH9" s="1" t="n">
         <v>6471749919.33566</v>
       </c>
-      <c r="AI9" s="12" t="n">
+      <c r="AI9" s="1" t="n">
         <v>8111626092.11648</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>8403526662.19906</v>
       </c>
-      <c r="AK9" s="12" t="n">
+      <c r="AK9" s="1" t="n">
         <v>8876158557.34251</v>
       </c>
-      <c r="AL9" s="12" t="n">
+      <c r="AL9" s="1" t="n">
         <v>5876340830.39795</v>
       </c>
-      <c r="AM9" s="12" t="n">
+      <c r="AM9" s="1" t="n">
         <v>7198813604.25113</v>
       </c>
-      <c r="AN9" s="12" t="n">
+      <c r="AN9" s="1" t="n">
         <v>7835771102.8662</v>
       </c>
-      <c r="AO9" s="12" t="n">
+      <c r="AO9" s="1" t="n">
         <v>5712497574.81154</v>
       </c>
-      <c r="AP9" s="12" t="n">
+      <c r="AP9" s="1" t="n">
         <v>11181162314.3566</v>
       </c>
-      <c r="AQ9" s="12" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>11648353204.9263</v>
       </c>
-      <c r="AR9" s="12" t="n">
+      <c r="AR9" s="1" t="n">
         <v>16441402818.4719</v>
       </c>
-      <c r="AS9" s="12" t="n">
+      <c r="AS9" s="1" t="n">
         <v>7328566778.07681</v>
       </c>
-      <c r="AT9" s="12" t="n">
+      <c r="AT9" s="1" t="n">
         <v>8292975084.0834</v>
       </c>
-      <c r="AU9" s="12" t="n">
+      <c r="AU9" s="1" t="n">
         <v>5905169175.6058</v>
       </c>
-      <c r="AV9" s="12"/>
-      <c r="AW9" s="12"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1671,110 +1677,110 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="12" t="n">
+      <c r="N10" s="1" t="n">
         <v>2371942034.36532</v>
       </c>
-      <c r="O10" s="12" t="n">
+      <c r="O10" s="1" t="n">
         <v>4301225320.20279</v>
       </c>
-      <c r="P10" s="12" t="n">
+      <c r="P10" s="1" t="n">
         <v>5040080469.0078</v>
       </c>
-      <c r="Q10" s="12" t="n">
+      <c r="Q10" s="1" t="n">
         <v>4711134764.99938</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="1" t="n">
         <v>4291806229.38579</v>
       </c>
-      <c r="S10" s="12" t="n">
+      <c r="S10" s="1" t="n">
         <v>3349045329.98229</v>
       </c>
-      <c r="T10" s="12" t="n">
+      <c r="T10" s="1" t="n">
         <v>3652309186.82599</v>
       </c>
-      <c r="U10" s="12" t="n">
+      <c r="U10" s="1" t="n">
         <v>3743973839.06375</v>
       </c>
-      <c r="V10" s="12" t="n">
+      <c r="V10" s="1" t="n">
         <v>3746761658.53293</v>
       </c>
-      <c r="W10" s="12" t="n">
+      <c r="W10" s="1" t="n">
         <v>3697388032.67631</v>
       </c>
-      <c r="X10" s="12" t="n">
+      <c r="X10" s="1" t="n">
         <v>3975295367.97501</v>
       </c>
-      <c r="Y10" s="12" t="n">
+      <c r="Y10" s="1" t="n">
         <v>3245949302.77466</v>
       </c>
-      <c r="Z10" s="12" t="n">
+      <c r="Z10" s="1" t="n">
         <v>3043155252.81991</v>
       </c>
-      <c r="AA10" s="12" t="n">
+      <c r="AA10" s="1" t="n">
         <v>3445229303.47459</v>
       </c>
-      <c r="AB10" s="12" t="n">
+      <c r="AB10" s="1" t="n">
         <v>3156871412.99008</v>
       </c>
-      <c r="AC10" s="12" t="n">
+      <c r="AC10" s="1" t="n">
         <v>3666975560.32112</v>
       </c>
-      <c r="AD10" s="12" t="n">
+      <c r="AD10" s="1" t="n">
         <v>3911842031.64196</v>
       </c>
-      <c r="AE10" s="12" t="n">
+      <c r="AE10" s="1" t="n">
         <v>4533703319.09608</v>
       </c>
-      <c r="AF10" s="12" t="n">
+      <c r="AF10" s="1" t="n">
         <v>5279475814.17641</v>
       </c>
-      <c r="AG10" s="12" t="n">
+      <c r="AG10" s="1" t="n">
         <v>6028861943.79193</v>
       </c>
-      <c r="AH10" s="12" t="n">
+      <c r="AH10" s="1" t="n">
         <v>6161866219.0648</v>
       </c>
-      <c r="AI10" s="12" t="n">
+      <c r="AI10" s="1" t="n">
         <v>4664910810.76156</v>
       </c>
-      <c r="AJ10" s="12" t="n">
+      <c r="AJ10" s="1" t="n">
         <v>4330458688.15815</v>
       </c>
-      <c r="AK10" s="12" t="n">
+      <c r="AK10" s="1" t="n">
         <v>3218033552.48397</v>
       </c>
-      <c r="AL10" s="12" t="n">
+      <c r="AL10" s="1" t="n">
         <v>3152616762.19072</v>
       </c>
-      <c r="AM10" s="12" t="n">
+      <c r="AM10" s="1" t="n">
         <v>2803371585.71972</v>
       </c>
-      <c r="AN10" s="12" t="n">
+      <c r="AN10" s="1" t="n">
         <v>2782706804.12198</v>
       </c>
-      <c r="AO10" s="12" t="n">
+      <c r="AO10" s="1" t="n">
         <v>2875622296.88146</v>
       </c>
-      <c r="AP10" s="12" t="n">
+      <c r="AP10" s="1" t="n">
         <v>2709975494.38113</v>
       </c>
-      <c r="AQ10" s="12" t="n">
+      <c r="AQ10" s="1" t="n">
         <v>3095903558.09727</v>
       </c>
-      <c r="AR10" s="12" t="n">
+      <c r="AR10" s="1" t="n">
         <v>2787116250.78275</v>
       </c>
-      <c r="AS10" s="12" t="n">
+      <c r="AS10" s="1" t="n">
         <v>3660344423.92214</v>
       </c>
-      <c r="AT10" s="12" t="n">
+      <c r="AT10" s="1" t="n">
         <v>3450366052.4446</v>
       </c>
-      <c r="AU10" s="12" t="n">
+      <c r="AU10" s="1" t="n">
         <v>4103490000.10901</v>
       </c>
-      <c r="AV10" s="12"/>
-      <c r="AW10" s="12"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1783,151 +1789,151 @@
       <c r="M11" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="1" t="n">
         <v>816621069.810609</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="1" t="n">
         <v>1097792524.82091</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="1" t="n">
         <v>547053282.001474</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="1" t="n">
         <v>879364621.026013</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="1" t="n">
         <v>919910108.03659</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="1" t="n">
         <v>889996582.58624</v>
       </c>
-      <c r="T11" s="12" t="n">
+      <c r="T11" s="1" t="n">
         <v>834006817.631314</v>
       </c>
-      <c r="U11" s="12" t="n">
+      <c r="U11" s="1" t="n">
         <v>516231632.199441</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="1" t="n">
         <v>598150820.567962</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="1" t="n">
         <v>606094375.672938</v>
       </c>
-      <c r="X11" s="12" t="n">
+      <c r="X11" s="1" t="n">
         <v>165837438.459064</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="1" t="n">
         <v>125559882.918889</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="1" t="n">
         <v>204005826.350463</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="1" t="n">
         <v>288239057.621374</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="1" t="n">
         <v>454780241.038142</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="1" t="n">
         <v>448064206.075311</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="1" t="n">
         <v>481183481.127715</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="1" t="n">
         <v>741184197.438394</v>
       </c>
-      <c r="AF11" s="12" t="n">
+      <c r="AF11" s="1" t="n">
         <v>864957830.566473</v>
       </c>
-      <c r="AG11" s="12" t="n">
+      <c r="AG11" s="1" t="n">
         <v>1272227051.73564</v>
       </c>
-      <c r="AH11" s="12" t="n">
+      <c r="AH11" s="1" t="n">
         <v>1158579631.83913</v>
       </c>
-      <c r="AI11" s="12" t="n">
+      <c r="AI11" s="1" t="n">
         <v>1214684752.32944</v>
       </c>
-      <c r="AJ11" s="12" t="n">
+      <c r="AJ11" s="1" t="n">
         <v>1379520414.70585</v>
       </c>
-      <c r="AK11" s="12" t="n">
+      <c r="AK11" s="1" t="n">
         <v>1271648303.44681</v>
       </c>
-      <c r="AL11" s="12" t="n">
+      <c r="AL11" s="1" t="n">
         <v>1303195809.0701</v>
       </c>
-      <c r="AM11" s="12" t="n">
+      <c r="AM11" s="1" t="n">
         <v>1247897070.03002</v>
       </c>
-      <c r="AN11" s="12" t="n">
+      <c r="AN11" s="1" t="n">
         <v>1260579722.84834</v>
       </c>
-      <c r="AO11" s="12" t="n">
+      <c r="AO11" s="1" t="n">
         <v>1501719133.0325</v>
       </c>
-      <c r="AP11" s="12" t="n">
+      <c r="AP11" s="1" t="n">
         <v>1441357745.12636</v>
       </c>
-      <c r="AQ11" s="12" t="n">
+      <c r="AQ11" s="1" t="n">
         <v>1863944419.28297</v>
       </c>
-      <c r="AR11" s="12" t="n">
+      <c r="AR11" s="1" t="n">
         <v>2178754940.279</v>
       </c>
-      <c r="AS11" s="12" t="n">
+      <c r="AS11" s="1" t="n">
         <v>1946838664.24076</v>
       </c>
-      <c r="AT11" s="12" t="n">
+      <c r="AT11" s="1" t="n">
         <v>2073949330.997</v>
       </c>
-      <c r="AU11" s="12" t="n">
+      <c r="AU11" s="1" t="n">
         <v>1976586193.87509</v>
       </c>
-      <c r="AV11" s="12"/>
-      <c r="AW11" s="12"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <f>M12</f>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="12"/>
-      <c r="AW12" s="12"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7093,6 +7099,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
       <c r="N1" t="s">
         <v>60</v>
       </c>
@@ -7201,700 +7213,935 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
       <c r="N2" t="s">
         <v>62</v>
       </c>
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="n">
-        <v>2558900794</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>2885845820</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>4040456662.2031</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>4079977686</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>5018785990.1563</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>5274788848.7188</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>5257498575.1915</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>6177213235.1166</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>6224315728.5161</v>
-      </c>
-      <c r="AI2" s="4" t="n">
-        <v>7067817596.8509</v>
-      </c>
-      <c r="AJ2" s="4" t="n">
-        <v>6615447768.5775</v>
-      </c>
-      <c r="AK2" s="4" t="n">
-        <v>6594771286.0772</v>
-      </c>
-      <c r="AL2" s="4" t="n">
-        <v>7534709642.0676</v>
-      </c>
-      <c r="AM2" s="4" t="n">
-        <v>7863139729.8713</v>
-      </c>
-      <c r="AN2" s="4" t="n">
-        <v>5373713082.9504</v>
-      </c>
-      <c r="AO2" s="4" t="n">
-        <v>6543780031.0753</v>
-      </c>
-      <c r="AP2" s="4" t="n">
-        <v>7232656502.986</v>
-      </c>
-      <c r="AQ2" s="4" t="n">
-        <v>6332266870.3337</v>
-      </c>
-      <c r="AR2" s="4" t="n">
-        <v>10826353400.0477</v>
-      </c>
-      <c r="AS2" s="4" t="n">
-        <v>12037395074.6029</v>
-      </c>
-      <c r="AT2" s="4" t="n">
-        <v>16698966232.4039</v>
-      </c>
-      <c r="AU2" s="4" t="n">
-        <v>9120552741.7392</v>
-      </c>
-      <c r="AV2" s="4" t="n">
-        <v>10498698100.2625</v>
-      </c>
-      <c r="AW2" s="4" t="n">
-        <v>4581855050.4325</v>
-      </c>
-      <c r="AX2" s="4"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12" t="n">
+        <v>224000</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>1109687442</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>1210702556</v>
+      </c>
+      <c r="Y2" s="12" t="n">
+        <v>704851883.63</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>3251862381</v>
+      </c>
+      <c r="AA2" s="12" t="n">
+        <v>3518855223</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>4915249579.2</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>4849479384</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>5437731135.15</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>5984444761.58</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>6593434751.27</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>7455784926.57</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>7800476864.15</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>8798191743.89</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
+        <v>8447253075.4352</v>
+      </c>
+      <c r="AK2" s="12" t="n">
+        <v>7735536187.7055</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>8966336789.0336</v>
+      </c>
+      <c r="AM2" s="12" t="n">
+        <v>9101073453.0635</v>
+      </c>
+      <c r="AN2" s="12" t="n">
+        <v>6091575018.4066</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>7787957864.286</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>8199776709.5911</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>6475900735.2383</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>12094357103.19</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>12217420629.34</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>17599995429.09</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>10407363452.7</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>11582883734.54</v>
+      </c>
+      <c r="AW2" s="12" t="n">
+        <v>10420097930.52</v>
+      </c>
+      <c r="AX2" s="12" t="n">
+        <v>10644505986.18</v>
+      </c>
+      <c r="AY2" s="12" t="n">
+        <v>4138381324.25</v>
+      </c>
+      <c r="AZ2" s="12"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
       <c r="N3" t="s">
         <v>62</v>
       </c>
       <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="n">
-        <v>9359901</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>11458401.3999</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>23739693</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>29914621</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>18301071</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>6057948</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>4146965.9137</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>7456999.7012</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>47945902.742</v>
-      </c>
-      <c r="AI3" s="4" t="n">
-        <v>41328318.6303</v>
-      </c>
-      <c r="AJ3" s="4" t="n">
-        <v>3427622.5218</v>
-      </c>
-      <c r="AK3" s="4" t="n">
-        <v>6315344.7673</v>
-      </c>
-      <c r="AL3" s="4" t="n">
-        <v>4012111.4833</v>
-      </c>
-      <c r="AM3" s="4" t="n">
-        <v>4288752.86</v>
-      </c>
-      <c r="AN3" s="4" t="n">
-        <v>4201257.22</v>
-      </c>
-      <c r="AO3" s="4" t="n">
-        <v>3767931.089</v>
-      </c>
-      <c r="AP3" s="4" t="n">
-        <v>2381826.8378</v>
-      </c>
-      <c r="AQ3" s="4" t="n">
-        <v>2482831.5998</v>
-      </c>
-      <c r="AR3" s="4" t="n">
-        <v>4097839.9511</v>
-      </c>
-      <c r="AS3" s="4" t="n">
-        <v>1926730.4835</v>
-      </c>
-      <c r="AT3" s="4" t="n">
-        <v>1377345.1151</v>
-      </c>
-      <c r="AU3" s="4" t="n">
-        <v>1509319.8941</v>
-      </c>
-      <c r="AV3" s="4" t="n">
-        <v>298037.9588</v>
-      </c>
-      <c r="AW3" s="4" t="n">
-        <v>-4860</v>
-      </c>
-      <c r="AX3" s="4"/>
+      <c r="P3" s="12" t="n">
+        <v>74831000</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>68100000</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>1661000</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12" t="n">
+        <v>774823</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>3132239</v>
+      </c>
+      <c r="Y3" s="12" t="n">
+        <v>2601102</v>
+      </c>
+      <c r="Z3" s="12" t="n">
+        <v>10227484</v>
+      </c>
+      <c r="AA3" s="12" t="n">
+        <v>12558571.4</v>
+      </c>
+      <c r="AB3" s="12" t="n">
+        <v>24807377</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <v>31575619</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>23444564</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>12465506</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>8009184.79</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>7762929.62</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>48101078</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>41447953.43</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
+        <v>3573906.3118</v>
+      </c>
+      <c r="AK3" s="12" t="n">
+        <v>6539820.1623</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>4092593.4833</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>4394042.64</v>
+      </c>
+      <c r="AN3" s="12" t="n">
+        <v>4258293.18</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>3721235.09</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>2391109.8413</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>2492327.6012</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>4107554.95</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>2097509.38</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>1387512.11</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>1516959.9</v>
+      </c>
+      <c r="AV3" s="12" t="n">
+        <v>305776.96</v>
+      </c>
+      <c r="AW3" s="12" t="n">
+        <v>383503.34</v>
+      </c>
+      <c r="AX3" s="12" t="n">
+        <v>175876.92</v>
+      </c>
+      <c r="AY3" s="12" t="n">
+        <v>3030948.5</v>
+      </c>
+      <c r="AZ3" s="12"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
       <c r="N4" t="s">
         <v>65</v>
       </c>
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="n">
-        <v>-86835</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>1373875</v>
-      </c>
-      <c r="AB4" s="4" t="n">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12" t="n">
+        <v>256990</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <v>-665855</v>
+      </c>
+      <c r="Y4" s="12" t="n">
+        <v>923430</v>
+      </c>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12" t="n">
+        <v>1324375</v>
+      </c>
+      <c r="AB4" s="12" t="n">
         <v>-295030</v>
       </c>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4" t="n">
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12" t="n">
+        <v>499872</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12" t="n">
         <v>344518.3672</v>
       </c>
-      <c r="AK4" s="4" t="n">
-        <v>24755231.0312</v>
-      </c>
-      <c r="AL4" s="4" t="n">
-        <v>118987300.2111</v>
-      </c>
-      <c r="AM4" s="4" t="n">
-        <v>144054186.9</v>
-      </c>
-      <c r="AN4" s="4" t="n">
-        <v>218073741.68</v>
-      </c>
-      <c r="AO4" s="4" t="n">
-        <v>220320527.2748</v>
-      </c>
-      <c r="AP4" s="4" t="n">
-        <v>323336359.1307</v>
-      </c>
-      <c r="AQ4" s="4" t="n">
-        <v>252881989.0787</v>
-      </c>
-      <c r="AR4" s="4" t="n">
-        <v>244734668.0503</v>
-      </c>
-      <c r="AS4" s="4" t="n">
-        <v>244615993.1658</v>
-      </c>
-      <c r="AT4" s="4" t="n">
-        <v>211126717.7843</v>
-      </c>
-      <c r="AU4" s="4" t="n">
-        <v>190252182.1247</v>
-      </c>
-      <c r="AV4" s="4" t="n">
-        <v>159594051.9701</v>
-      </c>
-      <c r="AW4" s="4" t="n">
-        <v>83390133.8195</v>
-      </c>
-      <c r="AX4" s="4"/>
+      <c r="AK4" s="12" t="n">
+        <v>24925685.8837</v>
+      </c>
+      <c r="AL4" s="12" t="n">
+        <v>119119932.0552</v>
+      </c>
+      <c r="AM4" s="12" t="n">
+        <v>145346464.62</v>
+      </c>
+      <c r="AN4" s="12" t="n">
+        <v>218094210.68</v>
+      </c>
+      <c r="AO4" s="12" t="n">
+        <v>220320527.27</v>
+      </c>
+      <c r="AP4" s="12" t="n">
+        <v>323336362.3058</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>252881989.1743</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>244734668.0218</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>244615992.7717</v>
+      </c>
+      <c r="AT4" s="12" t="n">
+        <v>211126715.6115</v>
+      </c>
+      <c r="AU4" s="12" t="n">
+        <v>190252183.5236</v>
+      </c>
+      <c r="AV4" s="12" t="n">
+        <v>159594051.9031</v>
+      </c>
+      <c r="AW4" s="12" t="n">
+        <v>150181620.8418</v>
+      </c>
+      <c r="AX4" s="12" t="n">
+        <v>137350660.34</v>
+      </c>
+      <c r="AY4" s="12" t="n">
+        <v>51948287.3</v>
+      </c>
+      <c r="AZ4" s="12"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
       <c r="N5" t="s">
         <v>65</v>
       </c>
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="n">
-        <v>7929210</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>10924355</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>34224659.625</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>62708598.0938</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>109468386.4297</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>153172589</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>211604886.8945</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>320827792.9358</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>319670621.9295</v>
-      </c>
-      <c r="AI5" s="4" t="n">
-        <v>326292080.046</v>
-      </c>
-      <c r="AJ5" s="4" t="n">
-        <v>270530588.6533</v>
-      </c>
-      <c r="AK5" s="4" t="n">
-        <v>160941783.793</v>
-      </c>
-      <c r="AL5" s="4" t="n">
-        <v>51592311.8886</v>
-      </c>
-      <c r="AM5" s="4" t="n">
-        <v>38543213.7133</v>
-      </c>
-      <c r="AN5" s="4" t="n">
-        <v>31011468.32</v>
-      </c>
-      <c r="AO5" s="4" t="n">
-        <v>32489557.5681</v>
-      </c>
-      <c r="AP5" s="4" t="n">
-        <v>36531996.5104</v>
-      </c>
-      <c r="AQ5" s="4" t="n">
-        <v>37254817.9215</v>
-      </c>
-      <c r="AR5" s="4" t="n">
-        <v>27216215.4048</v>
-      </c>
-      <c r="AS5" s="4" t="n">
-        <v>54015585.171</v>
-      </c>
-      <c r="AT5" s="4" t="n">
-        <v>57856220.8699</v>
-      </c>
-      <c r="AU5" s="4" t="n">
-        <v>39535987.7044</v>
-      </c>
-      <c r="AV5" s="4" t="n">
-        <v>42936239.6834</v>
-      </c>
-      <c r="AW5" s="4" t="n">
-        <v>19902650.1548</v>
-      </c>
-      <c r="AX5" s="4"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12" t="n">
+        <v>304000</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>731977</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>1763715</v>
+      </c>
+      <c r="Y5" s="12" t="n">
+        <v>3424826</v>
+      </c>
+      <c r="Z5" s="12" t="n">
+        <v>8082321</v>
+      </c>
+      <c r="AA5" s="12" t="n">
+        <v>11000448</v>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>34382284.625</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>62848381.0938</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>126092472.4297</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>161058983</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>218467563.8945</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>321159938.8342</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>321805322.4098</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>328023043.1692</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
+        <v>281055826.7547</v>
+      </c>
+      <c r="AK5" s="12" t="n">
+        <v>168244624.2278</v>
+      </c>
+      <c r="AL5" s="12" t="n">
+        <v>51159615.3689</v>
+      </c>
+      <c r="AM5" s="12" t="n">
+        <v>39641094.2833</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>32844398.56</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>35188143.7203</v>
+      </c>
+      <c r="AP5" s="12" t="n">
+        <v>36671326.29</v>
+      </c>
+      <c r="AQ5" s="12" t="n">
+        <v>38227400.2299</v>
+      </c>
+      <c r="AR5" s="12" t="n">
+        <v>27378532.7213</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>54108455.9005</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>58038277.8552</v>
+      </c>
+      <c r="AU5" s="12" t="n">
+        <v>39544685.2267</v>
+      </c>
+      <c r="AV5" s="12" t="n">
+        <v>43483546.092</v>
+      </c>
+      <c r="AW5" s="12" t="n">
+        <v>38842949.5142</v>
+      </c>
+      <c r="AX5" s="12" t="n">
+        <v>32581315.03</v>
+      </c>
+      <c r="AY5" s="12" t="n">
+        <v>11308062.76</v>
+      </c>
+      <c r="AZ5" s="12"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
       <c r="N6" t="s">
         <v>65</v>
       </c>
       <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="n">
-        <v>182377265</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>207968974</v>
-      </c>
-      <c r="AB6" s="4" t="n">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12" t="n">
+        <v>26053028</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>16875593</v>
+      </c>
+      <c r="Y6" s="12" t="n">
+        <v>31951346</v>
+      </c>
+      <c r="Z6" s="12" t="n">
+        <v>183633039</v>
+      </c>
+      <c r="AA6" s="12" t="n">
+        <v>209298561</v>
+      </c>
+      <c r="AB6" s="12" t="n">
         <v>257477721</v>
       </c>
-      <c r="AC6" s="4" t="n">
-        <v>297026783</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>280436648</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>296197183</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>321230171</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>334779639.6993</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>620599460.0895</v>
-      </c>
-      <c r="AI6" s="4" t="n">
-        <v>662791273.8364</v>
-      </c>
-      <c r="AJ6" s="4" t="n">
-        <v>845313610.9294</v>
-      </c>
-      <c r="AK6" s="4" t="n">
-        <v>960717893.5084</v>
-      </c>
-      <c r="AL6" s="4" t="n">
-        <v>1428591517.8023</v>
-      </c>
-      <c r="AM6" s="4" t="n">
-        <v>878667396.6901</v>
-      </c>
-      <c r="AN6" s="4" t="n">
-        <v>864387280.1527</v>
-      </c>
-      <c r="AO6" s="4" t="n">
-        <v>736477819.9313</v>
-      </c>
-      <c r="AP6" s="4" t="n">
-        <v>486928011.559</v>
-      </c>
-      <c r="AQ6" s="4" t="n">
-        <v>148502404.0303</v>
-      </c>
-      <c r="AR6" s="4" t="n">
-        <v>132728406.8579</v>
-      </c>
-      <c r="AS6" s="4" t="n">
-        <v>286887474.3502</v>
-      </c>
-      <c r="AT6" s="4" t="n">
-        <v>306678039.9971</v>
-      </c>
-      <c r="AU6" s="4" t="n">
-        <v>331125903.669</v>
-      </c>
-      <c r="AV6" s="4" t="n">
-        <v>342250714.6995</v>
-      </c>
-      <c r="AW6" s="4" t="n">
-        <v>235580620.3642</v>
-      </c>
-      <c r="AX6" s="4"/>
+      <c r="AC6" s="12" t="n">
+        <v>297359151</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>280933913</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>300881701</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>325176941</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>343494797.9365</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>629066579.9296</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>671607300.5139</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
+        <v>851461493.5618</v>
+      </c>
+      <c r="AK6" s="12" t="n">
+        <v>967125552.2835</v>
+      </c>
+      <c r="AL6" s="12" t="n">
+        <v>1433294384.6745</v>
+      </c>
+      <c r="AM6" s="12" t="n">
+        <v>896504788.6801</v>
+      </c>
+      <c r="AN6" s="12" t="n">
+        <v>865899581.4527</v>
+      </c>
+      <c r="AO6" s="12" t="n">
+        <v>736626702.7297</v>
+      </c>
+      <c r="AP6" s="12" t="n">
+        <v>486922573.6899</v>
+      </c>
+      <c r="AQ6" s="12" t="n">
+        <v>148397949.2024</v>
+      </c>
+      <c r="AR6" s="12" t="n">
+        <v>132960670.6306</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>286887458.5015</v>
+      </c>
+      <c r="AT6" s="12" t="n">
+        <v>306678039.3747</v>
+      </c>
+      <c r="AU6" s="12" t="n">
+        <v>329505480.5458</v>
+      </c>
+      <c r="AV6" s="12" t="n">
+        <v>341831736.0086</v>
+      </c>
+      <c r="AW6" s="12" t="n">
+        <v>447545003.1791</v>
+      </c>
+      <c r="AX6" s="12" t="n">
+        <v>292963223.63</v>
+      </c>
+      <c r="AY6" s="12" t="n">
+        <v>19149634.86</v>
+      </c>
+      <c r="AZ6" s="12"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
       <c r="N7" t="s">
         <v>65</v>
       </c>
       <c r="O7" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4" t="n">
-        <v>236607674</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>241150872</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>365004941</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>567029827</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>565824399</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>762477556.4375</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>968747337.329</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>1467940096.779</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1549209222.6267</v>
-      </c>
-      <c r="AI7" s="4" t="n">
-        <v>2401440484.416</v>
-      </c>
-      <c r="AJ7" s="4" t="n">
-        <v>2796841636.3411</v>
-      </c>
-      <c r="AK7" s="4" t="n">
-        <v>3155589856.3139</v>
-      </c>
-      <c r="AL7" s="4" t="n">
-        <v>2070025279.9031</v>
-      </c>
-      <c r="AM7" s="4" t="n">
-        <v>1878146025.8377</v>
-      </c>
-      <c r="AN7" s="4" t="n">
-        <v>2023400318.501</v>
-      </c>
-      <c r="AO7" s="4" t="n">
-        <v>1839877775.0993</v>
-      </c>
-      <c r="AP7" s="4" t="n">
-        <v>1904006961.0763</v>
-      </c>
-      <c r="AQ7" s="4" t="n">
-        <v>1858927122.2117</v>
-      </c>
-      <c r="AR7" s="4" t="n">
-        <v>2191913142.5697</v>
-      </c>
-      <c r="AS7" s="4" t="n">
-        <v>2204239919.1505</v>
-      </c>
-      <c r="AT7" s="4" t="n">
-        <v>2093048061.273</v>
-      </c>
-      <c r="AU7" s="4" t="n">
-        <v>2414564269.7267</v>
-      </c>
-      <c r="AV7" s="4" t="n">
-        <v>2773513385.132</v>
-      </c>
-      <c r="AW7" s="4" t="n">
-        <v>1490042126.0491</v>
-      </c>
-      <c r="AX7" s="4"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12" t="n">
+        <v>9867000</v>
+      </c>
+      <c r="W7" s="12" t="n">
+        <v>33076541</v>
+      </c>
+      <c r="X7" s="12" t="n">
+        <v>43663788</v>
+      </c>
+      <c r="Y7" s="12" t="n">
+        <v>86470328</v>
+      </c>
+      <c r="Z7" s="12" t="n">
+        <v>259096373</v>
+      </c>
+      <c r="AA7" s="12" t="n">
+        <v>251929788</v>
+      </c>
+      <c r="AB7" s="12" t="n">
+        <v>405270111</v>
+      </c>
+      <c r="AC7" s="12" t="n">
+        <v>584678521</v>
+      </c>
+      <c r="AD7" s="12" t="n">
+        <v>982872215</v>
+      </c>
+      <c r="AE7" s="12" t="n">
+        <v>782622286.4375</v>
+      </c>
+      <c r="AF7" s="12" t="n">
+        <v>992844509.6259</v>
+      </c>
+      <c r="AG7" s="12" t="n">
+        <v>1470512876.6352</v>
+      </c>
+      <c r="AH7" s="12" t="n">
+        <v>1557994479.598</v>
+      </c>
+      <c r="AI7" s="12" t="n">
+        <v>2408749664.5514</v>
+      </c>
+      <c r="AJ7" s="12" t="n">
+        <v>2827189526.1604</v>
+      </c>
+      <c r="AK7" s="12" t="n">
+        <v>3180411274.7275</v>
+      </c>
+      <c r="AL7" s="12" t="n">
+        <v>2102563333.0627</v>
+      </c>
+      <c r="AM7" s="12" t="n">
+        <v>1912781894.8718</v>
+      </c>
+      <c r="AN7" s="12" t="n">
+        <v>2080822631.2285</v>
+      </c>
+      <c r="AO7" s="12" t="n">
+        <v>1892063555.2083</v>
+      </c>
+      <c r="AP7" s="12" t="n">
+        <v>1926336241.4566</v>
+      </c>
+      <c r="AQ7" s="12" t="n">
+        <v>1915348836.1225</v>
+      </c>
+      <c r="AR7" s="12" t="n">
+        <v>2252199714.6027</v>
+      </c>
+      <c r="AS7" s="12" t="n">
+        <v>2276775762.2453</v>
+      </c>
+      <c r="AT7" s="12" t="n">
+        <v>2200886943.824</v>
+      </c>
+      <c r="AU7" s="12" t="n">
+        <v>2508102828.1379</v>
+      </c>
+      <c r="AV7" s="12" t="n">
+        <v>2907790782.0564</v>
+      </c>
+      <c r="AW7" s="12" t="n">
+        <v>2831710791.6156</v>
+      </c>
+      <c r="AX7" s="12" t="n">
+        <v>2919402311.93</v>
+      </c>
+      <c r="AY7" s="12" t="n">
+        <v>1764300310.28</v>
+      </c>
+      <c r="AZ7" s="12"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
       <c r="N8" t="s">
         <v>65</v>
       </c>
       <c r="O8" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4" t="n">
-        <v>5951108</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>5569219</v>
-      </c>
-      <c r="AB8" s="4" t="n">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="12" t="n">
+        <v>5521351</v>
+      </c>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12" t="n">
+        <v>91551</v>
+      </c>
+      <c r="AA8" s="12" t="n">
+        <v>4968922</v>
+      </c>
+      <c r="AB8" s="12" t="n">
         <v>5982298</v>
       </c>
-      <c r="AC8" s="4" t="n">
-        <v>-225391</v>
-      </c>
-      <c r="AD8" s="4" t="n">
+      <c r="AC8" s="12" t="n">
+        <v>-190078</v>
+      </c>
+      <c r="AD8" s="12" t="n">
         <v>-191046</v>
       </c>
-      <c r="AE8" s="4" t="n">
+      <c r="AE8" s="12" t="n">
         <v>13569</v>
       </c>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4" t="n">
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" s="4" t="n">
-        <v>10751011.2582</v>
-      </c>
-      <c r="AK8" s="4" t="n">
-        <v>7239480.1542</v>
-      </c>
-      <c r="AL8" s="4" t="n">
-        <v>-496764.3598</v>
-      </c>
-      <c r="AM8" s="4" t="n">
-        <v>1097880.57</v>
-      </c>
-      <c r="AN8" s="4" t="n">
-        <v>1670588.57</v>
-      </c>
-      <c r="AO8" s="4" t="n">
-        <v>2672809.5352</v>
-      </c>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4" t="n">
-        <v>894099.1604</v>
-      </c>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12" t="n">
+        <v>-90028.05</v>
+      </c>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="4" t="n">
-        <v>3035334000</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>5206015283</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>3918554592</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>4991418711</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>4289293657</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3486356407</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>3715624896</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>4012460461</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>3602703203</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>3665542951</v>
-      </c>
-      <c r="Z9" s="4" t="n">
+      <c r="P9" s="12" t="n">
+        <v>4418278000</v>
+      </c>
+      <c r="Q9" s="12" t="n">
+        <v>6715280054</v>
+      </c>
+      <c r="R9" s="12" t="n">
+        <v>5438989317</v>
+      </c>
+      <c r="S9" s="12" t="n">
+        <v>6509522213</v>
+      </c>
+      <c r="T9" s="12" t="n">
+        <v>5223252139</v>
+      </c>
+      <c r="U9" s="12" t="n">
+        <v>4527970932</v>
+      </c>
+      <c r="V9" s="12" t="n">
+        <v>4779883768</v>
+      </c>
+      <c r="W9" s="12" t="n">
+        <v>5046910249</v>
+      </c>
+      <c r="X9" s="12" t="n">
+        <v>4789326120</v>
+      </c>
+      <c r="Y9" s="12" t="n">
+        <v>4349473537</v>
+      </c>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="4"/>
+      <c r="AZ9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="N10" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="12" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="12" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="12" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="12" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="12" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="12" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="12" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="12" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="12" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="12" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="12" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="12" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="12" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="12" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="12" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="12" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="12" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="12" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="12" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="12" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="12" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="12" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="12" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="12" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="12" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="12" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="12" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="12" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="12" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="12" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="12" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="12" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="12" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="12" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="12" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="12" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="12"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
       <c r="N13" t="s">
         <v>60</v>
       </c>
@@ -8003,698 +8250,849 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
       <c r="N14" t="s">
         <v>62</v>
       </c>
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4" t="n">
-        <v>4134492907.24399</v>
-      </c>
-      <c r="AA14" s="4" t="n">
-        <v>4552355810.0395</v>
-      </c>
-      <c r="AB14" s="4" t="n">
-        <v>6274691176.09189</v>
-      </c>
-      <c r="AC14" s="4" t="n">
-        <v>6217226406.62134</v>
-      </c>
-      <c r="AD14" s="4" t="n">
-        <v>7465340415.45491</v>
-      </c>
-      <c r="AE14" s="4" t="n">
-        <v>7614973745.29678</v>
-      </c>
-      <c r="AF14" s="4" t="n">
-        <v>7350691631.33003</v>
-      </c>
-      <c r="AG14" s="4" t="n">
-        <v>8406056436.53596</v>
-      </c>
-      <c r="AH14" s="4" t="n">
-        <v>8297111033.85409</v>
-      </c>
-      <c r="AI14" s="4" t="n">
-        <v>9326734470.49153</v>
-      </c>
-      <c r="AJ14" s="4" t="n">
-        <v>8654512125.17907</v>
-      </c>
-      <c r="AK14" s="4" t="n">
-        <v>8457021870.42493</v>
-      </c>
-      <c r="AL14" s="4" t="n">
-        <v>9488459850.44533</v>
-      </c>
-      <c r="AM14" s="4" t="n">
-        <v>9724100812.55507</v>
-      </c>
-      <c r="AN14" s="4" t="n">
-        <v>6519380430.40569</v>
-      </c>
-      <c r="AO14" s="4" t="n">
-        <v>7848921037.75102</v>
-      </c>
-      <c r="AP14" s="4" t="n">
-        <v>8603896031.74704</v>
-      </c>
-      <c r="AQ14" s="4" t="n">
-        <v>7400671623.00543</v>
-      </c>
-      <c r="AR14" s="4" t="n">
-        <v>12362737427.7062</v>
-      </c>
-      <c r="AS14" s="4" t="n">
-        <v>13481582728.6522</v>
-      </c>
-      <c r="AT14" s="4" t="n">
-        <v>18456212206.3738</v>
-      </c>
-      <c r="AU14" s="4" t="n">
-        <v>9752493905.5945</v>
-      </c>
-      <c r="AV14" s="4" t="n">
-        <v>10498698100.2625</v>
-      </c>
-      <c r="AW14" s="4" t="n">
-        <v>4370165921.91005</v>
-      </c>
-      <c r="AX14" s="4"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12" t="n">
+        <v>401051.334588731</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>1952147947.78454</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>2103479378.44784</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>1209634041.77707</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>5466944507.35629</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>5775805524.12298</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>7942871542.49087</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>7688997896.23081</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>8416176489.11555</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>8988817182.73483</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>9591950658.62519</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>10555876434.7515</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>10819272928.3196</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>12079577837.827</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
+        <v>11498173311.1109</v>
+      </c>
+      <c r="AK14" s="12" t="n">
+        <v>10322222376.8854</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>11751349927.6008</v>
+      </c>
+      <c r="AM14" s="12" t="n">
+        <v>11715364716.1819</v>
+      </c>
+      <c r="AN14" s="12" t="n">
+        <v>7700896463.45423</v>
+      </c>
+      <c r="AO14" s="12" t="n">
+        <v>9744526614.1616</v>
+      </c>
+      <c r="AP14" s="12" t="n">
+        <v>10178429361.0727</v>
+      </c>
+      <c r="AQ14" s="12" t="n">
+        <v>7905132029.02397</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>14442948259.4662</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>14325045978.6428</v>
+      </c>
+      <c r="AT14" s="12" t="n">
+        <v>20370071505.7403</v>
+      </c>
+      <c r="AU14" s="12" t="n">
+        <v>11644609135.3733</v>
+      </c>
+      <c r="AV14" s="12" t="n">
+        <v>12112761222.417</v>
+      </c>
+      <c r="AW14" s="12" t="n">
+        <v>10420097930.52</v>
+      </c>
+      <c r="AX14" s="12" t="n">
+        <v>10367628231.053</v>
+      </c>
+      <c r="AY14" s="12" t="n">
+        <v>3944192756.63687</v>
+      </c>
+      <c r="AZ14" s="12"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
       <c r="N15" t="s">
         <v>62</v>
       </c>
       <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4" t="n">
-        <v>15123073.3085645</v>
-      </c>
-      <c r="AA15" s="4" t="n">
-        <v>18075366.2670029</v>
-      </c>
-      <c r="AB15" s="4" t="n">
-        <v>36866932.291017</v>
-      </c>
-      <c r="AC15" s="4" t="n">
-        <v>45585046.2769588</v>
-      </c>
-      <c r="AD15" s="4" t="n">
-        <v>27222464.8053094</v>
-      </c>
-      <c r="AE15" s="4" t="n">
-        <v>8745585.13969293</v>
-      </c>
-      <c r="AF15" s="4" t="n">
-        <v>5798017.28926482</v>
-      </c>
-      <c r="AG15" s="4" t="n">
-        <v>10147611.5441781</v>
-      </c>
-      <c r="AH15" s="4" t="n">
-        <v>63912644.5411829</v>
-      </c>
-      <c r="AI15" s="4" t="n">
-        <v>54537097.0168244</v>
-      </c>
-      <c r="AJ15" s="4" t="n">
-        <v>4484110.78330282</v>
-      </c>
-      <c r="AK15" s="4" t="n">
-        <v>8098690.08332194</v>
-      </c>
-      <c r="AL15" s="4" t="n">
-        <v>5052451.98995568</v>
-      </c>
-      <c r="AM15" s="4" t="n">
-        <v>5303767.52842677</v>
-      </c>
-      <c r="AN15" s="4" t="n">
-        <v>5096958.78443338</v>
-      </c>
-      <c r="AO15" s="4" t="n">
-        <v>4519435.77760949</v>
-      </c>
-      <c r="AP15" s="4" t="n">
-        <v>2833397.44803247</v>
-      </c>
-      <c r="AQ15" s="4" t="n">
-        <v>2901744.62662416</v>
-      </c>
-      <c r="AR15" s="4" t="n">
-        <v>4679370.55666321</v>
-      </c>
-      <c r="AS15" s="4" t="n">
-        <v>2157890.16212698</v>
-      </c>
-      <c r="AT15" s="4" t="n">
-        <v>1522284.27627873</v>
-      </c>
-      <c r="AU15" s="4" t="n">
-        <v>1613897.03953358</v>
-      </c>
-      <c r="AV15" s="4" t="n">
-        <v>298037.9588</v>
-      </c>
-      <c r="AW15" s="4" t="n">
-        <v>-4635.46012405565</v>
-      </c>
-      <c r="AX15" s="4"/>
+      <c r="P15" s="12" t="n">
+        <v>154771605.644373</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>135988336.330315</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>3235848.54821463</v>
+      </c>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12" t="n">
+        <v>1363058.70653104</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>5441964.34724476</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>4463890.35541835</v>
+      </c>
+      <c r="Z15" s="12" t="n">
+        <v>17194173.9615316</v>
+      </c>
+      <c r="AA15" s="12" t="n">
+        <v>20613484.0652445</v>
+      </c>
+      <c r="AB15" s="12" t="n">
+        <v>40087854.2670488</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>50064109.740153</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>36286014.0434145</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>18723567.3464051</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>11651545.5478943</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>10990730.9086088</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>66716266.2093349</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>56906441.0336376</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
+        <v>4864704.98797417</v>
+      </c>
+      <c r="AK15" s="12" t="n">
+        <v>8726670.83212528</v>
+      </c>
+      <c r="AL15" s="12" t="n">
+        <v>5363784.48247654</v>
+      </c>
+      <c r="AM15" s="12" t="n">
+        <v>5656235.20912547</v>
+      </c>
+      <c r="AN15" s="12" t="n">
+        <v>5383283.43509278</v>
+      </c>
+      <c r="AO15" s="12" t="n">
+        <v>4656121.02735503</v>
+      </c>
+      <c r="AP15" s="12" t="n">
+        <v>2968098.21489047</v>
+      </c>
+      <c r="AQ15" s="12" t="n">
+        <v>3042384.30336928</v>
+      </c>
+      <c r="AR15" s="12" t="n">
+        <v>4905196.95338884</v>
+      </c>
+      <c r="AS15" s="12" t="n">
+        <v>2459350.39978711</v>
+      </c>
+      <c r="AT15" s="12" t="n">
+        <v>1605893.64978272</v>
+      </c>
+      <c r="AU15" s="12" t="n">
+        <v>1697298.76253647</v>
+      </c>
+      <c r="AV15" s="12" t="n">
+        <v>319765.214663415</v>
+      </c>
+      <c r="AW15" s="12" t="n">
+        <v>383503.34</v>
+      </c>
+      <c r="AX15" s="12" t="n">
+        <v>171302.127440207</v>
+      </c>
+      <c r="AY15" s="12" t="n">
+        <v>2888724.88607751</v>
+      </c>
+      <c r="AZ15" s="12"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
       <c r="N16" t="s">
         <v>65</v>
       </c>
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4" t="n">
-        <v>-140301.918871706</v>
-      </c>
-      <c r="AA16" s="4" t="n">
-        <v>2167256.40544373</v>
-      </c>
-      <c r="AB16" s="4" t="n">
-        <v>-458171.511898606</v>
-      </c>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4" t="n">
-        <v>450708.476672083</v>
-      </c>
-      <c r="AK16" s="4" t="n">
-        <v>31745684.7488053</v>
-      </c>
-      <c r="AL16" s="4" t="n">
-        <v>149840707.127249</v>
-      </c>
-      <c r="AM16" s="4" t="n">
-        <v>178147341.139667</v>
-      </c>
-      <c r="AN16" s="4" t="n">
-        <v>264566727.31648</v>
-      </c>
-      <c r="AO16" s="4" t="n">
-        <v>264262920.416568</v>
-      </c>
-      <c r="AP16" s="4" t="n">
-        <v>384637707.610701</v>
-      </c>
-      <c r="AQ16" s="4" t="n">
-        <v>295549224.13516</v>
-      </c>
-      <c r="AR16" s="4" t="n">
-        <v>279465331.37828</v>
-      </c>
-      <c r="AS16" s="4" t="n">
-        <v>273963820.924516</v>
-      </c>
-      <c r="AT16" s="4" t="n">
-        <v>233343756.232106</v>
-      </c>
-      <c r="AU16" s="4" t="n">
-        <v>203434298.253219</v>
-      </c>
-      <c r="AV16" s="4" t="n">
-        <v>159594051.9701</v>
-      </c>
-      <c r="AW16" s="4" t="n">
-        <v>79537374.4979335</v>
-      </c>
-      <c r="AX16" s="4"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12" t="n">
+        <v>452093.519412063</v>
+      </c>
+      <c r="X16" s="12" t="n">
+        <v>-1156859.09358598</v>
+      </c>
+      <c r="Y16" s="12" t="n">
+        <v>1584747.64576859</v>
+      </c>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12" t="n">
+        <v>2173812.77610192</v>
+      </c>
+      <c r="AB16" s="12" t="n">
+        <v>-476758.169330333</v>
+      </c>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12" t="n">
+        <v>750822.875267333</v>
+      </c>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12" t="n">
+        <v>468949.11985604</v>
+      </c>
+      <c r="AK16" s="12" t="n">
+        <v>33260586.7705546</v>
+      </c>
+      <c r="AL16" s="12" t="n">
+        <v>156119498.72826</v>
+      </c>
+      <c r="AM16" s="12" t="n">
+        <v>187097362.966317</v>
+      </c>
+      <c r="AN16" s="12" t="n">
+        <v>275712099.194466</v>
+      </c>
+      <c r="AO16" s="12" t="n">
+        <v>275671656.041434</v>
+      </c>
+      <c r="AP16" s="12" t="n">
+        <v>401359261.374315</v>
+      </c>
+      <c r="AQ16" s="12" t="n">
+        <v>308693044.244368</v>
+      </c>
+      <c r="AR16" s="12" t="n">
+        <v>292259449.376121</v>
+      </c>
+      <c r="AS16" s="12" t="n">
+        <v>286814659.974202</v>
+      </c>
+      <c r="AT16" s="12" t="n">
+        <v>244356102.881142</v>
+      </c>
+      <c r="AU16" s="12" t="n">
+        <v>212869697.916515</v>
+      </c>
+      <c r="AV16" s="12" t="n">
+        <v>166894936.315015</v>
+      </c>
+      <c r="AW16" s="12" t="n">
+        <v>150181620.8418</v>
+      </c>
+      <c r="AX16" s="12" t="n">
+        <v>133777987.023876</v>
+      </c>
+      <c r="AY16" s="12" t="n">
+        <v>49510676.3815401</v>
+      </c>
+      <c r="AZ16" s="12"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
       <c r="N17" t="s">
         <v>65</v>
       </c>
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4" t="n">
-        <v>12811462.8679302</v>
-      </c>
-      <c r="AA17" s="4" t="n">
-        <v>17232920.2795678</v>
-      </c>
-      <c r="AB17" s="4" t="n">
-        <v>53149727.2975678</v>
-      </c>
-      <c r="AC17" s="4" t="n">
-        <v>95557765.7517066</v>
-      </c>
-      <c r="AD17" s="4" t="n">
-        <v>162831961.958757</v>
-      </c>
-      <c r="AE17" s="4" t="n">
-        <v>221128328.96002</v>
-      </c>
-      <c r="AF17" s="4" t="n">
-        <v>295852152.691698</v>
-      </c>
-      <c r="AG17" s="4" t="n">
-        <v>436587896.70658</v>
-      </c>
-      <c r="AH17" s="4" t="n">
-        <v>426125980.765854</v>
-      </c>
-      <c r="AI17" s="4" t="n">
-        <v>430576984.862957</v>
-      </c>
-      <c r="AJ17" s="4" t="n">
-        <v>353915614.125582</v>
-      </c>
-      <c r="AK17" s="4" t="n">
-        <v>206388990.058854</v>
-      </c>
-      <c r="AL17" s="4" t="n">
-        <v>64970198.3489177</v>
-      </c>
-      <c r="AM17" s="4" t="n">
-        <v>47665195.9222043</v>
-      </c>
-      <c r="AN17" s="4" t="n">
-        <v>37623065.5717389</v>
-      </c>
-      <c r="AO17" s="4" t="n">
-        <v>38969520.7804195</v>
-      </c>
-      <c r="AP17" s="4" t="n">
-        <v>43458098.6499029</v>
-      </c>
-      <c r="AQ17" s="4" t="n">
-        <v>43540596.0389268</v>
-      </c>
-      <c r="AR17" s="4" t="n">
-        <v>31078509.2997198</v>
-      </c>
-      <c r="AS17" s="4" t="n">
-        <v>60496110.2968052</v>
-      </c>
-      <c r="AT17" s="4" t="n">
-        <v>63944478.6565085</v>
-      </c>
-      <c r="AU17" s="4" t="n">
-        <v>42275341.2053944</v>
-      </c>
-      <c r="AV17" s="4" t="n">
-        <v>42936239.6834</v>
-      </c>
-      <c r="AW17" s="4" t="n">
-        <v>18983115.4641163</v>
-      </c>
-      <c r="AX17" s="4"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12" t="n">
+        <v>544283.954084707</v>
+      </c>
+      <c r="W17" s="12" t="n">
+        <v>1287684.57161245</v>
+      </c>
+      <c r="X17" s="12" t="n">
+        <v>3064285.37180617</v>
+      </c>
+      <c r="Y17" s="12" t="n">
+        <v>5877527.19823598</v>
+      </c>
+      <c r="Z17" s="12" t="n">
+        <v>13587783.0057656</v>
+      </c>
+      <c r="AA17" s="12" t="n">
+        <v>18055999.5509163</v>
+      </c>
+      <c r="AB17" s="12" t="n">
+        <v>55560570.3664355</v>
+      </c>
+      <c r="AC17" s="12" t="n">
+        <v>99648030.5919248</v>
+      </c>
+      <c r="AD17" s="12" t="n">
+        <v>195157957.527082</v>
+      </c>
+      <c r="AE17" s="12" t="n">
+        <v>241915467.767133</v>
+      </c>
+      <c r="AF17" s="12" t="n">
+        <v>317820706.875496</v>
+      </c>
+      <c r="AG17" s="12" t="n">
+        <v>454697213.440916</v>
+      </c>
+      <c r="AH17" s="12" t="n">
+        <v>446344457.341955</v>
+      </c>
+      <c r="AI17" s="12" t="n">
+        <v>450362983.429516</v>
+      </c>
+      <c r="AJ17" s="12" t="n">
+        <v>382565619.529118</v>
+      </c>
+      <c r="AK17" s="12" t="n">
+        <v>224503949.416594</v>
+      </c>
+      <c r="AL17" s="12" t="n">
+        <v>67050185.2101637</v>
+      </c>
+      <c r="AM17" s="12" t="n">
+        <v>51028033.0856015</v>
+      </c>
+      <c r="AN17" s="12" t="n">
+        <v>41521496.813339</v>
+      </c>
+      <c r="AO17" s="12" t="n">
+        <v>44028461.4992384</v>
+      </c>
+      <c r="AP17" s="12" t="n">
+        <v>45520325.4233769</v>
+      </c>
+      <c r="AQ17" s="12" t="n">
+        <v>46664187.4696031</v>
+      </c>
+      <c r="AR17" s="12" t="n">
+        <v>32695142.7132526</v>
+      </c>
+      <c r="AS17" s="12" t="n">
+        <v>63442697.2864158</v>
+      </c>
+      <c r="AT17" s="12" t="n">
+        <v>67172964.603524</v>
+      </c>
+      <c r="AU17" s="12" t="n">
+        <v>44245826.9992318</v>
+      </c>
+      <c r="AV17" s="12" t="n">
+        <v>45472770.2519997</v>
+      </c>
+      <c r="AW17" s="12" t="n">
+        <v>38842949.5142</v>
+      </c>
+      <c r="AX17" s="12" t="n">
+        <v>31733831.7013887</v>
+      </c>
+      <c r="AY17" s="12" t="n">
+        <v>10777445.5119044</v>
+      </c>
+      <c r="AZ17" s="12"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
       <c r="N18" t="s">
         <v>65</v>
       </c>
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4" t="n">
-        <v>294672427.455215</v>
-      </c>
-      <c r="AA18" s="4" t="n">
-        <v>328066302.272813</v>
-      </c>
-      <c r="AB18" s="4" t="n">
-        <v>399854105.381749</v>
-      </c>
-      <c r="AC18" s="4" t="n">
-        <v>452620798.657325</v>
-      </c>
-      <c r="AD18" s="4" t="n">
-        <v>417143716.905909</v>
-      </c>
-      <c r="AE18" s="4" t="n">
-        <v>427606457.180502</v>
-      </c>
-      <c r="AF18" s="4" t="n">
-        <v>449123075.533008</v>
-      </c>
-      <c r="AG18" s="4" t="n">
-        <v>455573806.181287</v>
-      </c>
-      <c r="AH18" s="4" t="n">
-        <v>827268868.178072</v>
-      </c>
-      <c r="AI18" s="4" t="n">
-        <v>874623338.211956</v>
-      </c>
-      <c r="AJ18" s="4" t="n">
-        <v>1105862694.60344</v>
-      </c>
-      <c r="AK18" s="4" t="n">
-        <v>1232008190.16455</v>
-      </c>
-      <c r="AL18" s="4" t="n">
-        <v>1799025298.02518</v>
-      </c>
-      <c r="AM18" s="4" t="n">
-        <v>1086620693.46944</v>
-      </c>
-      <c r="AN18" s="4" t="n">
-        <v>1048673316.1096</v>
-      </c>
-      <c r="AO18" s="4" t="n">
-        <v>883366529.321724</v>
-      </c>
-      <c r="AP18" s="4" t="n">
-        <v>579244705.547585</v>
-      </c>
-      <c r="AQ18" s="4" t="n">
-        <v>173558308.574132</v>
-      </c>
-      <c r="AR18" s="4" t="n">
-        <v>151564093.887306</v>
-      </c>
-      <c r="AS18" s="4" t="n">
-        <v>321306827.207705</v>
-      </c>
-      <c r="AT18" s="4" t="n">
-        <v>338950022.800691</v>
-      </c>
-      <c r="AU18" s="4" t="n">
-        <v>354068821.151359</v>
-      </c>
-      <c r="AV18" s="4" t="n">
-        <v>342250714.6995</v>
-      </c>
-      <c r="AW18" s="4" t="n">
-        <v>224696413.929741</v>
-      </c>
-      <c r="AX18" s="4"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12" t="n">
+        <v>45832153.4684658</v>
+      </c>
+      <c r="X18" s="12" t="n">
+        <v>29319721.5935991</v>
+      </c>
+      <c r="Y18" s="12" t="n">
+        <v>54833414.934145</v>
+      </c>
+      <c r="Z18" s="12" t="n">
+        <v>308718978.944452</v>
+      </c>
+      <c r="AA18" s="12" t="n">
+        <v>343540074.315467</v>
+      </c>
+      <c r="AB18" s="12" t="n">
+        <v>416074998.838444</v>
+      </c>
+      <c r="AC18" s="12" t="n">
+        <v>471472029.349693</v>
+      </c>
+      <c r="AD18" s="12" t="n">
+        <v>434811750.493179</v>
+      </c>
+      <c r="AE18" s="12" t="n">
+        <v>451933422.676497</v>
+      </c>
+      <c r="AF18" s="12" t="n">
+        <v>473058624.382973</v>
+      </c>
+      <c r="AG18" s="12" t="n">
+        <v>486318835.469104</v>
+      </c>
+      <c r="AH18" s="12" t="n">
+        <v>872516275.206536</v>
+      </c>
+      <c r="AI18" s="12" t="n">
+        <v>922090913.583975</v>
+      </c>
+      <c r="AJ18" s="12" t="n">
+        <v>1158986446.0414</v>
+      </c>
+      <c r="AK18" s="12" t="n">
+        <v>1290522696.13898</v>
+      </c>
+      <c r="AL18" s="12" t="n">
+        <v>1878486639.5132</v>
+      </c>
+      <c r="AM18" s="12" t="n">
+        <v>1154026568.77312</v>
+      </c>
+      <c r="AN18" s="12" t="n">
+        <v>1094659920.35994</v>
+      </c>
+      <c r="AO18" s="12" t="n">
+        <v>921689438.301777</v>
+      </c>
+      <c r="AP18" s="12" t="n">
+        <v>604419753.871751</v>
+      </c>
+      <c r="AQ18" s="12" t="n">
+        <v>181149376.626168</v>
+      </c>
+      <c r="AR18" s="12" t="n">
+        <v>158780170.791813</v>
+      </c>
+      <c r="AS18" s="12" t="n">
+        <v>336378369.740387</v>
+      </c>
+      <c r="AT18" s="12" t="n">
+        <v>354946318.961963</v>
+      </c>
+      <c r="AU18" s="12" t="n">
+        <v>368677671.953866</v>
+      </c>
+      <c r="AV18" s="12" t="n">
+        <v>357469373.897752</v>
+      </c>
+      <c r="AW18" s="12" t="n">
+        <v>447545003.1791</v>
+      </c>
+      <c r="AX18" s="12" t="n">
+        <v>285342860.618438</v>
+      </c>
+      <c r="AY18" s="12" t="n">
+        <v>18251061.2698894</v>
+      </c>
+      <c r="AZ18" s="12"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
       <c r="N19" t="s">
         <v>65</v>
       </c>
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4" t="n">
-        <v>382294128.887788</v>
-      </c>
-      <c r="AA19" s="4" t="n">
-        <v>380409987.823012</v>
-      </c>
-      <c r="AB19" s="4" t="n">
-        <v>566840204.956891</v>
-      </c>
-      <c r="AC19" s="4" t="n">
-        <v>864061787.853202</v>
-      </c>
-      <c r="AD19" s="4" t="n">
-        <v>841652097.178512</v>
-      </c>
-      <c r="AE19" s="4" t="n">
-        <v>1100754312.66976</v>
-      </c>
-      <c r="AF19" s="4" t="n">
-        <v>1354439348.58663</v>
-      </c>
-      <c r="AG19" s="4" t="n">
-        <v>1997597756.35225</v>
-      </c>
-      <c r="AH19" s="4" t="n">
-        <v>2065120327.35026</v>
-      </c>
-      <c r="AI19" s="4" t="n">
-        <v>3168955259.23249</v>
-      </c>
-      <c r="AJ19" s="4" t="n">
-        <v>3658905746.16758</v>
-      </c>
-      <c r="AK19" s="4" t="n">
-        <v>4046674444.23414</v>
-      </c>
-      <c r="AL19" s="4" t="n">
-        <v>2606782834.4846</v>
-      </c>
-      <c r="AM19" s="4" t="n">
-        <v>2322644887.83851</v>
-      </c>
-      <c r="AN19" s="4" t="n">
-        <v>2454786147.99238</v>
-      </c>
-      <c r="AO19" s="4" t="n">
-        <v>2206836921.05928</v>
-      </c>
-      <c r="AP19" s="4" t="n">
-        <v>2264987688.83326</v>
-      </c>
-      <c r="AQ19" s="4" t="n">
-        <v>2172572553.28885</v>
-      </c>
-      <c r="AR19" s="4" t="n">
-        <v>2502970819.87072</v>
-      </c>
-      <c r="AS19" s="4" t="n">
-        <v>2468693819.5227</v>
-      </c>
-      <c r="AT19" s="4" t="n">
-        <v>2313301233.1047</v>
-      </c>
-      <c r="AU19" s="4" t="n">
-        <v>2581863620.7662</v>
-      </c>
-      <c r="AV19" s="4" t="n">
-        <v>2773513385.132</v>
-      </c>
-      <c r="AW19" s="4" t="n">
-        <v>1421199765.11599</v>
-      </c>
-      <c r="AX19" s="4"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12" t="n">
+        <v>17665953.2070849</v>
+      </c>
+      <c r="W19" s="12" t="n">
+        <v>58187827.6612608</v>
+      </c>
+      <c r="X19" s="12" t="n">
+        <v>75861636.8551868</v>
+      </c>
+      <c r="Y19" s="12" t="n">
+        <v>148396357.847197</v>
+      </c>
+      <c r="Z19" s="12" t="n">
+        <v>435585928.089829</v>
+      </c>
+      <c r="AA19" s="12" t="n">
+        <v>413514444.047229</v>
+      </c>
+      <c r="AB19" s="12" t="n">
+        <v>654902336.049422</v>
+      </c>
+      <c r="AC19" s="12" t="n">
+        <v>927025678.833228</v>
+      </c>
+      <c r="AD19" s="12" t="n">
+        <v>1521227479.27289</v>
+      </c>
+      <c r="AE19" s="12" t="n">
+        <v>1175522364.42789</v>
+      </c>
+      <c r="AF19" s="12" t="n">
+        <v>1444363356.47126</v>
+      </c>
+      <c r="AG19" s="12" t="n">
+        <v>2081947423.95999</v>
+      </c>
+      <c r="AH19" s="12" t="n">
+        <v>2160940643.64908</v>
+      </c>
+      <c r="AI19" s="12" t="n">
+        <v>3307120361.97606</v>
+      </c>
+      <c r="AJ19" s="12" t="n">
+        <v>3848294216.45748</v>
+      </c>
+      <c r="AK19" s="12" t="n">
+        <v>4243909100.94474</v>
+      </c>
+      <c r="AL19" s="12" t="n">
+        <v>2755635668.51312</v>
+      </c>
+      <c r="AM19" s="12" t="n">
+        <v>2462230157.40958</v>
+      </c>
+      <c r="AN19" s="12" t="n">
+        <v>2630551145.39074</v>
+      </c>
+      <c r="AO19" s="12" t="n">
+        <v>2367406705.41658</v>
+      </c>
+      <c r="AP19" s="12" t="n">
+        <v>2391172107.94366</v>
+      </c>
+      <c r="AQ19" s="12" t="n">
+        <v>2338066324.70388</v>
+      </c>
+      <c r="AR19" s="12" t="n">
+        <v>2689552133.31775</v>
+      </c>
+      <c r="AS19" s="12" t="n">
+        <v>2669541997.99744</v>
+      </c>
+      <c r="AT19" s="12" t="n">
+        <v>2547286140.06595</v>
+      </c>
+      <c r="AU19" s="12" t="n">
+        <v>2806270506.23597</v>
+      </c>
+      <c r="AV19" s="12" t="n">
+        <v>3040812308.48971</v>
+      </c>
+      <c r="AW19" s="12" t="n">
+        <v>2831710791.6156</v>
+      </c>
+      <c r="AX19" s="12" t="n">
+        <v>2843464775.75039</v>
+      </c>
+      <c r="AY19" s="12" t="n">
+        <v>1681512639.63083</v>
+      </c>
+      <c r="AZ19" s="12"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
       <c r="N20" t="s">
         <v>65</v>
       </c>
       <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4" t="n">
-        <v>9615384.02502171</v>
-      </c>
-      <c r="AA20" s="4" t="n">
-        <v>8785315.65904389</v>
-      </c>
-      <c r="AB20" s="4" t="n">
-        <v>9290304.44120261</v>
-      </c>
-      <c r="AC20" s="4" t="n">
-        <v>-343459.446315901</v>
-      </c>
-      <c r="AD20" s="4" t="n">
-        <v>-284176.975828089</v>
-      </c>
-      <c r="AE20" s="4" t="n">
-        <v>19588.9507074827</v>
-      </c>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4" t="n">
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" s="4" t="n">
-        <v>14064770.9039408</v>
-      </c>
-      <c r="AK20" s="4" t="n">
-        <v>9283785.49288478</v>
-      </c>
-      <c r="AL20" s="4" t="n">
-        <v>-625575.35817678</v>
-      </c>
-      <c r="AM20" s="4" t="n">
-        <v>1357714.81998072</v>
-      </c>
-      <c r="AN20" s="4" t="n">
-        <v>2026755.47845545</v>
-      </c>
-      <c r="AO20" s="4" t="n">
-        <v>3205894.89425205</v>
-      </c>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4" t="n">
-        <v>1044955.05638355</v>
-      </c>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
+      <c r="W20" s="12" t="n">
+        <v>9713090.02490103</v>
+      </c>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12" t="n">
+        <v>153913.105153934</v>
+      </c>
+      <c r="AA20" s="12" t="n">
+        <v>8155927.23137624</v>
+      </c>
+      <c r="AB20" s="12" t="n">
+        <v>9667184.49943569</v>
+      </c>
+      <c r="AC20" s="12" t="n">
+        <v>-301374.482989195</v>
+      </c>
+      <c r="AD20" s="12" t="n">
+        <v>-295688.921275659</v>
+      </c>
+      <c r="AE20" s="12" t="n">
+        <v>20381.0487374817</v>
+      </c>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12" t="n">
+        <v>-120132.532471934</v>
+      </c>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
+      </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="4" t="n">
-        <v>6032822140.01566</v>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v>9990757469.16172</v>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v>7336657438.47783</v>
-      </c>
-      <c r="S21" s="4" t="n">
-        <v>9130873892.26007</v>
-      </c>
-      <c r="T21" s="4" t="n">
-        <v>7679140602.47769</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <v>6112165700.2052</v>
-      </c>
-      <c r="V21" s="4" t="n">
-        <v>6393941560.35423</v>
-      </c>
-      <c r="W21" s="4" t="n">
-        <v>6784225907.77468</v>
-      </c>
-      <c r="X21" s="4" t="n">
-        <v>6016289806.15404</v>
-      </c>
-      <c r="Y21" s="4" t="n">
-        <v>6045865409.8293</v>
-      </c>
-      <c r="Z21" s="4" t="n">
+      <c r="P21" s="12" t="n">
+        <v>9138244581.03204</v>
+      </c>
+      <c r="Q21" s="12" t="n">
+        <v>13409688142.9605</v>
+      </c>
+      <c r="R21" s="12" t="n">
+        <v>10595873380.5956</v>
+      </c>
+      <c r="S21" s="12" t="n">
+        <v>12390727840.3286</v>
+      </c>
+      <c r="T21" s="12" t="n">
+        <v>9729931160.15749</v>
+      </c>
+      <c r="U21" s="12" t="n">
+        <v>8259554872.83913</v>
+      </c>
+      <c r="V21" s="12" t="n">
+        <v>8557940912.21167</v>
+      </c>
+      <c r="W21" s="12" t="n">
+        <v>8878459926.95133</v>
+      </c>
+      <c r="X21" s="12" t="n">
+        <v>8320994021.32725</v>
+      </c>
+      <c r="Y21" s="12" t="n">
+        <v>7464364324.41389</v>
+      </c>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="4"/>
+      <c r="AZ21" s="12"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8714,6 +9112,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>60</v>
       </c>
@@ -8822,8 +9226,20 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>62</v>
       </c>
@@ -8836,176 +9252,220 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="U2" s="5" t="n">
+        <v>224000</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>1109687442</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>1210702556</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>704851883.63</v>
+      </c>
       <c r="Y2" s="5" t="n">
-        <v>2558900794</v>
+        <v>3251862381</v>
       </c>
       <c r="Z2" s="5" t="n">
-        <v>2885845820</v>
+        <v>3518855223</v>
       </c>
       <c r="AA2" s="5" t="n">
-        <v>4040456662.2031</v>
+        <v>4915249579.2</v>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>4079977686</v>
+        <v>4849479384</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>5018785990.1563</v>
+        <v>5437731135.15</v>
       </c>
       <c r="AD2" s="5" t="n">
-        <v>5274788848.7188</v>
+        <v>5984444761.58</v>
       </c>
       <c r="AE2" s="5" t="n">
-        <v>5257498575.1915</v>
+        <v>6593434751.27</v>
       </c>
       <c r="AF2" s="5" t="n">
-        <v>6177213235.1166</v>
+        <v>7455784926.57</v>
       </c>
       <c r="AG2" s="5" t="n">
-        <v>6224315728.5161</v>
+        <v>7800476864.15</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>7067817596.8509</v>
+        <v>8798191743.89</v>
       </c>
       <c r="AI2" s="5" t="n">
-        <v>6615447768.5775</v>
+        <v>8447253075.4352</v>
       </c>
       <c r="AJ2" s="5" t="n">
-        <v>6594771286.0772</v>
+        <v>7735536187.7055</v>
       </c>
       <c r="AK2" s="5" t="n">
-        <v>7534709642.0676</v>
+        <v>8966336789.0336</v>
       </c>
       <c r="AL2" s="5" t="n">
-        <v>7863139729.8713</v>
+        <v>9101073453.0635</v>
       </c>
       <c r="AM2" s="5" t="n">
-        <v>5373713082.9504</v>
+        <v>6091575018.4066</v>
       </c>
       <c r="AN2" s="5" t="n">
-        <v>6543780031.0753</v>
+        <v>7787957864.286</v>
       </c>
       <c r="AO2" s="5" t="n">
-        <v>7232656502.986</v>
+        <v>8199776709.5911</v>
       </c>
       <c r="AP2" s="5" t="n">
-        <v>6332266870.3337</v>
+        <v>6475900735.2383</v>
       </c>
       <c r="AQ2" s="5" t="n">
-        <v>10826353400.0477</v>
+        <v>12094357103.19</v>
       </c>
       <c r="AR2" s="5" t="n">
-        <v>12037395074.6029</v>
+        <v>12217420629.34</v>
       </c>
       <c r="AS2" s="5" t="n">
-        <v>16698966232.4039</v>
+        <v>17599995429.09</v>
       </c>
       <c r="AT2" s="5" t="n">
-        <v>9120552741.7392</v>
+        <v>10407363452.7</v>
       </c>
       <c r="AU2" s="5" t="n">
-        <v>10498698100.2625</v>
+        <v>11582883734.54</v>
       </c>
       <c r="AV2" s="5" t="n">
-        <v>4581855050.4325</v>
-      </c>
-      <c r="AW2" s="5"/>
+        <v>10420097930.52</v>
+      </c>
+      <c r="AW2" s="5" t="n">
+        <v>10644505986.18</v>
+      </c>
+      <c r="AX2" s="5" t="n">
+        <v>4138381324.25</v>
+      </c>
+      <c r="AY2" s="5"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>62</v>
       </c>
       <c r="N3" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="O3" s="5" t="n">
+        <v>74831000</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>68100000</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>1661000</v>
+      </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="V3" s="5" t="n">
+        <v>774823</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>3132239</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>2601102</v>
+      </c>
       <c r="Y3" s="5" t="n">
-        <v>9359901</v>
+        <v>10227484</v>
       </c>
       <c r="Z3" s="5" t="n">
-        <v>11458401.3999</v>
+        <v>12558571.4</v>
       </c>
       <c r="AA3" s="5" t="n">
-        <v>23739693</v>
+        <v>24807377</v>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>29914621</v>
+        <v>31575619</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>18301071</v>
+        <v>23444564</v>
       </c>
       <c r="AD3" s="5" t="n">
-        <v>6057948</v>
+        <v>12465506</v>
       </c>
       <c r="AE3" s="5" t="n">
-        <v>4146965.9137</v>
+        <v>8009184.79</v>
       </c>
       <c r="AF3" s="5" t="n">
-        <v>7456999.7012</v>
+        <v>7762929.62</v>
       </c>
       <c r="AG3" s="5" t="n">
-        <v>47945902.742</v>
+        <v>48101078</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>41328318.6303</v>
+        <v>41447953.43</v>
       </c>
       <c r="AI3" s="5" t="n">
-        <v>3427622.5218</v>
+        <v>3573906.3118</v>
       </c>
       <c r="AJ3" s="5" t="n">
-        <v>6315344.7673</v>
+        <v>6539820.1623</v>
       </c>
       <c r="AK3" s="5" t="n">
-        <v>4012111.4833</v>
+        <v>4092593.4833</v>
       </c>
       <c r="AL3" s="5" t="n">
-        <v>4288752.86</v>
+        <v>4394042.64</v>
       </c>
       <c r="AM3" s="5" t="n">
-        <v>4201257.22</v>
+        <v>4258293.18</v>
       </c>
       <c r="AN3" s="5" t="n">
-        <v>3767931.089</v>
+        <v>3721235.09</v>
       </c>
       <c r="AO3" s="5" t="n">
-        <v>2381826.8378</v>
+        <v>2391109.8413</v>
       </c>
       <c r="AP3" s="5" t="n">
-        <v>2482831.5998</v>
+        <v>2492327.6012</v>
       </c>
       <c r="AQ3" s="5" t="n">
-        <v>4097839.9511</v>
+        <v>4107554.95</v>
       </c>
       <c r="AR3" s="5" t="n">
-        <v>1926730.4835</v>
+        <v>2097509.38</v>
       </c>
       <c r="AS3" s="5" t="n">
-        <v>1377345.1151</v>
+        <v>1387512.11</v>
       </c>
       <c r="AT3" s="5" t="n">
-        <v>1509319.8941</v>
+        <v>1516959.9</v>
       </c>
       <c r="AU3" s="5" t="n">
-        <v>298037.9588</v>
+        <v>305776.96</v>
       </c>
       <c r="AV3" s="5" t="n">
-        <v>-4860</v>
-      </c>
-      <c r="AW3" s="5"/>
+        <v>383503.34</v>
+      </c>
+      <c r="AW3" s="5" t="n">
+        <v>175876.92</v>
+      </c>
+      <c r="AX3" s="5" t="n">
+        <v>3030948.5</v>
+      </c>
+      <c r="AY3" s="5"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>65</v>
       </c>
@@ -9019,21 +9479,27 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5" t="n">
-        <v>-86835</v>
-      </c>
+      <c r="V4" s="5" t="n">
+        <v>256990</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>-665855</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>923430</v>
+      </c>
+      <c r="Y4" s="5"/>
       <c r="Z4" s="5" t="n">
-        <v>1373875</v>
+        <v>1324375</v>
       </c>
       <c r="AA4" s="5" t="n">
         <v>-295030</v>
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
+      <c r="AD4" s="5" t="n">
+        <v>499872</v>
+      </c>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
@@ -9042,47 +9508,59 @@
         <v>344518.3672</v>
       </c>
       <c r="AJ4" s="5" t="n">
-        <v>24755231.0312</v>
+        <v>24925685.8837</v>
       </c>
       <c r="AK4" s="5" t="n">
-        <v>118987300.2111</v>
+        <v>119119932.0552</v>
       </c>
       <c r="AL4" s="5" t="n">
-        <v>144054186.9</v>
+        <v>145346464.62</v>
       </c>
       <c r="AM4" s="5" t="n">
-        <v>218073741.68</v>
+        <v>218094210.68</v>
       </c>
       <c r="AN4" s="5" t="n">
-        <v>220320527.2748</v>
+        <v>220320527.27</v>
       </c>
       <c r="AO4" s="5" t="n">
-        <v>323336359.1307</v>
+        <v>323336362.3058</v>
       </c>
       <c r="AP4" s="5" t="n">
-        <v>252881989.0787</v>
+        <v>252881989.1743</v>
       </c>
       <c r="AQ4" s="5" t="n">
-        <v>244734668.0503</v>
+        <v>244734668.0218</v>
       </c>
       <c r="AR4" s="5" t="n">
-        <v>244615993.1658</v>
+        <v>244615992.7717</v>
       </c>
       <c r="AS4" s="5" t="n">
-        <v>211126717.7843</v>
+        <v>211126715.6115</v>
       </c>
       <c r="AT4" s="5" t="n">
-        <v>190252182.1247</v>
+        <v>190252183.5236</v>
       </c>
       <c r="AU4" s="5" t="n">
-        <v>159594051.9701</v>
+        <v>159594051.9031</v>
       </c>
       <c r="AV4" s="5" t="n">
-        <v>83390133.8195</v>
-      </c>
-      <c r="AW4" s="5"/>
+        <v>150181620.8418</v>
+      </c>
+      <c r="AW4" s="5" t="n">
+        <v>137350660.34</v>
+      </c>
+      <c r="AX4" s="5" t="n">
+        <v>51948287.3</v>
+      </c>
+      <c r="AY4" s="5"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>65</v>
       </c>
@@ -9095,85 +9573,105 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="U5" s="5" t="n">
+        <v>304000</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>731977</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>1763715</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>3424826</v>
+      </c>
       <c r="Y5" s="5" t="n">
-        <v>7929210</v>
+        <v>8082321</v>
       </c>
       <c r="Z5" s="5" t="n">
-        <v>10924355</v>
+        <v>11000448</v>
       </c>
       <c r="AA5" s="5" t="n">
-        <v>34224659.625</v>
+        <v>34382284.625</v>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>62708598.0938</v>
+        <v>62848381.0938</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>109468386.4297</v>
+        <v>126092472.4297</v>
       </c>
       <c r="AD5" s="5" t="n">
-        <v>153172589</v>
+        <v>161058983</v>
       </c>
       <c r="AE5" s="5" t="n">
-        <v>211604886.8945</v>
+        <v>218467563.8945</v>
       </c>
       <c r="AF5" s="5" t="n">
-        <v>320827792.9358</v>
+        <v>321159938.8342</v>
       </c>
       <c r="AG5" s="5" t="n">
-        <v>319670621.9295</v>
+        <v>321805322.4098</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>326292080.046</v>
+        <v>328023043.1692</v>
       </c>
       <c r="AI5" s="5" t="n">
-        <v>270530588.6533</v>
+        <v>281055826.7547</v>
       </c>
       <c r="AJ5" s="5" t="n">
-        <v>160941783.793</v>
+        <v>168244624.2278</v>
       </c>
       <c r="AK5" s="5" t="n">
-        <v>51592311.8886</v>
+        <v>51159615.3689</v>
       </c>
       <c r="AL5" s="5" t="n">
-        <v>38543213.7133</v>
+        <v>39641094.2833</v>
       </c>
       <c r="AM5" s="5" t="n">
-        <v>31011468.32</v>
+        <v>32844398.56</v>
       </c>
       <c r="AN5" s="5" t="n">
-        <v>32489557.5681</v>
+        <v>35188143.7203</v>
       </c>
       <c r="AO5" s="5" t="n">
-        <v>36531996.5104</v>
+        <v>36671326.29</v>
       </c>
       <c r="AP5" s="5" t="n">
-        <v>37254817.9215</v>
+        <v>38227400.2299</v>
       </c>
       <c r="AQ5" s="5" t="n">
-        <v>27216215.4048</v>
+        <v>27378532.7213</v>
       </c>
       <c r="AR5" s="5" t="n">
-        <v>54015585.171</v>
+        <v>54108455.9005</v>
       </c>
       <c r="AS5" s="5" t="n">
-        <v>57856220.8699</v>
+        <v>58038277.8552</v>
       </c>
       <c r="AT5" s="5" t="n">
-        <v>39535987.7044</v>
+        <v>39544685.2267</v>
       </c>
       <c r="AU5" s="5" t="n">
-        <v>42936239.6834</v>
+        <v>43483546.092</v>
       </c>
       <c r="AV5" s="5" t="n">
-        <v>19902650.1548</v>
-      </c>
-      <c r="AW5" s="5"/>
+        <v>38842949.5142</v>
+      </c>
+      <c r="AW5" s="5" t="n">
+        <v>32581315.03</v>
+      </c>
+      <c r="AX5" s="5" t="n">
+        <v>11308062.76</v>
+      </c>
+      <c r="AY5" s="5"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>65</v>
       </c>
@@ -9187,84 +9685,102 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="V6" s="5" t="n">
+        <v>26053028</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>16875593</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>31951346</v>
+      </c>
       <c r="Y6" s="5" t="n">
-        <v>182377265</v>
+        <v>183633039</v>
       </c>
       <c r="Z6" s="5" t="n">
-        <v>207968974</v>
+        <v>209298561</v>
       </c>
       <c r="AA6" s="5" t="n">
         <v>257477721</v>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>297026783</v>
+        <v>297359151</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>280436648</v>
+        <v>280933913</v>
       </c>
       <c r="AD6" s="5" t="n">
-        <v>296197183</v>
+        <v>300881701</v>
       </c>
       <c r="AE6" s="5" t="n">
-        <v>321230171</v>
+        <v>325176941</v>
       </c>
       <c r="AF6" s="5" t="n">
-        <v>334779639.6993</v>
+        <v>343494797.9365</v>
       </c>
       <c r="AG6" s="5" t="n">
-        <v>620599460.0895</v>
+        <v>629066579.9296</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>662791273.8364</v>
+        <v>671607300.5139</v>
       </c>
       <c r="AI6" s="5" t="n">
-        <v>845313610.9294</v>
+        <v>851461493.5618</v>
       </c>
       <c r="AJ6" s="5" t="n">
-        <v>960717893.5084</v>
+        <v>967125552.2835</v>
       </c>
       <c r="AK6" s="5" t="n">
-        <v>1428591517.8023</v>
+        <v>1433294384.6745</v>
       </c>
       <c r="AL6" s="5" t="n">
-        <v>878667396.6901</v>
+        <v>896504788.6801</v>
       </c>
       <c r="AM6" s="5" t="n">
-        <v>864387280.1527</v>
+        <v>865899581.4527</v>
       </c>
       <c r="AN6" s="5" t="n">
-        <v>736477819.9313</v>
+        <v>736626702.7297</v>
       </c>
       <c r="AO6" s="5" t="n">
-        <v>486928011.559</v>
+        <v>486922573.6899</v>
       </c>
       <c r="AP6" s="5" t="n">
-        <v>148502404.0303</v>
+        <v>148397949.2024</v>
       </c>
       <c r="AQ6" s="5" t="n">
-        <v>132728406.8579</v>
+        <v>132960670.6306</v>
       </c>
       <c r="AR6" s="5" t="n">
-        <v>286887474.3502</v>
+        <v>286887458.5015</v>
       </c>
       <c r="AS6" s="5" t="n">
-        <v>306678039.9971</v>
+        <v>306678039.3747</v>
       </c>
       <c r="AT6" s="5" t="n">
-        <v>331125903.669</v>
+        <v>329505480.5458</v>
       </c>
       <c r="AU6" s="5" t="n">
-        <v>342250714.6995</v>
+        <v>341831736.0086</v>
       </c>
       <c r="AV6" s="5" t="n">
-        <v>235580620.3642</v>
-      </c>
-      <c r="AW6" s="5"/>
+        <v>447545003.1791</v>
+      </c>
+      <c r="AW6" s="5" t="n">
+        <v>292963223.63</v>
+      </c>
+      <c r="AX6" s="5" t="n">
+        <v>19149634.86</v>
+      </c>
+      <c r="AY6" s="5"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
       <c r="M7" t="s">
         <v>65</v>
       </c>
@@ -9277,85 +9793,105 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="U7" s="5" t="n">
+        <v>9867000</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>33076541</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>43663788</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>86470328</v>
+      </c>
       <c r="Y7" s="5" t="n">
-        <v>236607674</v>
+        <v>259096373</v>
       </c>
       <c r="Z7" s="5" t="n">
-        <v>241150872</v>
+        <v>251929788</v>
       </c>
       <c r="AA7" s="5" t="n">
-        <v>365004941</v>
+        <v>405270111</v>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>567029827</v>
+        <v>584678521</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>565824399</v>
+        <v>982872215</v>
       </c>
       <c r="AD7" s="5" t="n">
-        <v>762477556.4375</v>
+        <v>782622286.4375</v>
       </c>
       <c r="AE7" s="5" t="n">
-        <v>968747337.329</v>
+        <v>992844509.6259</v>
       </c>
       <c r="AF7" s="5" t="n">
-        <v>1467940096.779</v>
+        <v>1470512876.6352</v>
       </c>
       <c r="AG7" s="5" t="n">
-        <v>1549209222.6267</v>
+        <v>1557994479.598</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>2401440484.416</v>
+        <v>2408749664.5514</v>
       </c>
       <c r="AI7" s="5" t="n">
-        <v>2796841636.3411</v>
+        <v>2827189526.1604</v>
       </c>
       <c r="AJ7" s="5" t="n">
-        <v>3155589856.3139</v>
+        <v>3180411274.7275</v>
       </c>
       <c r="AK7" s="5" t="n">
-        <v>2070025279.9031</v>
+        <v>2102563333.0627</v>
       </c>
       <c r="AL7" s="5" t="n">
-        <v>1878146025.8377</v>
+        <v>1912781894.8718</v>
       </c>
       <c r="AM7" s="5" t="n">
-        <v>2023400318.501</v>
+        <v>2080822631.2285</v>
       </c>
       <c r="AN7" s="5" t="n">
-        <v>1839877775.0993</v>
+        <v>1892063555.2083</v>
       </c>
       <c r="AO7" s="5" t="n">
-        <v>1904006961.0763</v>
+        <v>1926336241.4566</v>
       </c>
       <c r="AP7" s="5" t="n">
-        <v>1858927122.2117</v>
+        <v>1915348836.1225</v>
       </c>
       <c r="AQ7" s="5" t="n">
-        <v>2191913142.5697</v>
+        <v>2252199714.6027</v>
       </c>
       <c r="AR7" s="5" t="n">
-        <v>2204239919.1505</v>
+        <v>2276775762.2453</v>
       </c>
       <c r="AS7" s="5" t="n">
-        <v>2093048061.273</v>
+        <v>2200886943.824</v>
       </c>
       <c r="AT7" s="5" t="n">
-        <v>2414564269.7267</v>
+        <v>2508102828.1379</v>
       </c>
       <c r="AU7" s="5" t="n">
-        <v>2773513385.132</v>
+        <v>2907790782.0564</v>
       </c>
       <c r="AV7" s="5" t="n">
-        <v>1490042126.0491</v>
-      </c>
-      <c r="AW7" s="5"/>
+        <v>2831710791.6156</v>
+      </c>
+      <c r="AW7" s="5" t="n">
+        <v>2919402311.93</v>
+      </c>
+      <c r="AX7" s="5" t="n">
+        <v>1764300310.28</v>
+      </c>
+      <c r="AY7" s="5"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
       <c r="M8" t="s">
         <v>65</v>
       </c>
@@ -9368,21 +9904,25 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="U8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>5521351</v>
+      </c>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5" t="n">
-        <v>5951108</v>
+        <v>91551</v>
       </c>
       <c r="Z8" s="5" t="n">
-        <v>5569219</v>
+        <v>4968922</v>
       </c>
       <c r="AA8" s="5" t="n">
         <v>5982298</v>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>-225391</v>
+        <v>-190078</v>
       </c>
       <c r="AC8" s="5" t="n">
         <v>-191046</v>
@@ -9396,28 +9936,16 @@
       <c r="AH8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI8" s="5" t="n">
-        <v>10751011.2582</v>
-      </c>
+      <c r="AI8" s="5"/>
       <c r="AJ8" s="5" t="n">
-        <v>7239480.1542</v>
-      </c>
-      <c r="AK8" s="5" t="n">
-        <v>-496764.3598</v>
-      </c>
-      <c r="AL8" s="5" t="n">
-        <v>1097880.57</v>
-      </c>
-      <c r="AM8" s="5" t="n">
-        <v>1670588.57</v>
-      </c>
-      <c r="AN8" s="5" t="n">
-        <v>2672809.5352</v>
-      </c>
+        <v>-90028.05</v>
+      </c>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
-      <c r="AP8" s="5" t="n">
-        <v>894099.1604</v>
-      </c>
+      <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
@@ -9425,97 +9953,208 @@
       <c r="AU8" s="5"/>
       <c r="AV8" s="5"/>
       <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" s="5" t="n">
-        <v>3035334000</v>
+        <v>4418278000</v>
       </c>
       <c r="P9" s="5" t="n">
-        <v>5206015283</v>
+        <v>6715280054</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>3918554592</v>
+        <v>5438989317</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>4991418711</v>
+        <v>6509522213</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4289293657</v>
+        <v>5223252139</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>3486356407</v>
+        <v>4527970932</v>
       </c>
       <c r="U9" s="5" t="n">
-        <v>3715624896</v>
+        <v>4779883768</v>
       </c>
       <c r="V9" s="5" t="n">
-        <v>4012460461</v>
+        <v>5046910249</v>
       </c>
       <c r="W9" s="5" t="n">
-        <v>3602703203</v>
+        <v>4789326120</v>
       </c>
       <c r="X9" s="5" t="n">
-        <v>3665542951</v>
-      </c>
-      <c r="Y9" s="5" t="n">
-        <v>0</v>
-      </c>
+        <v>4349473537</v>
+      </c>
+      <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
       <c r="AU9" s="5"/>
-      <c r="AV9" s="5" t="n">
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="5"/>
+      <c r="AY9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N10" t="s">
+        <v>152</v>
+      </c>
+      <c r="O10" s="5" t="str">
+        <f>Sum(O2:O9)</f>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="5" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="5" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="5" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="5" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="5" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="5" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="5" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="5" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="5" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="5" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="5" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="5" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="5" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="5" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="5" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="5" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="5" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="5" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="5" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="5" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="5" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="5" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="5" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="5" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="5" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="5" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="5" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="5" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="5" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="5" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="5" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="5" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="5" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="5" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="5"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>60</v>
       </c>
@@ -9624,8 +10263,20 @@
       <c r="AV13" t="s">
         <v>34</v>
       </c>
+      <c r="AW13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>62</v>
       </c>
@@ -9638,176 +10289,220 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="U14" s="5" t="n">
+        <v>401051.334588731</v>
+      </c>
+      <c r="V14" s="5" t="n">
+        <v>1952147947.78454</v>
+      </c>
+      <c r="W14" s="5" t="n">
+        <v>2103479378.44784</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>1209634041.77707</v>
+      </c>
       <c r="Y14" s="5" t="n">
-        <v>4134492907.24399</v>
+        <v>5466944507.35629</v>
       </c>
       <c r="Z14" s="5" t="n">
-        <v>4552355810.0395</v>
+        <v>5775805524.12298</v>
       </c>
       <c r="AA14" s="5" t="n">
-        <v>6274691176.09189</v>
+        <v>7942871542.49087</v>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>6217226406.62134</v>
+        <v>7688997896.23081</v>
       </c>
       <c r="AC14" s="5" t="n">
-        <v>7465340415.45491</v>
+        <v>8416176489.11555</v>
       </c>
       <c r="AD14" s="5" t="n">
-        <v>7614973745.29678</v>
+        <v>8988817182.73483</v>
       </c>
       <c r="AE14" s="5" t="n">
-        <v>7350691631.33003</v>
+        <v>9591950658.62519</v>
       </c>
       <c r="AF14" s="5" t="n">
-        <v>8406056436.53596</v>
+        <v>10555876434.7515</v>
       </c>
       <c r="AG14" s="5" t="n">
-        <v>8297111033.85409</v>
+        <v>10819272928.3196</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>9326734470.49153</v>
+        <v>12079577837.827</v>
       </c>
       <c r="AI14" s="5" t="n">
-        <v>8654512125.17907</v>
+        <v>11498173311.1109</v>
       </c>
       <c r="AJ14" s="5" t="n">
-        <v>8457021870.42493</v>
+        <v>10322222376.8854</v>
       </c>
       <c r="AK14" s="5" t="n">
-        <v>9488459850.44533</v>
+        <v>11751349927.6008</v>
       </c>
       <c r="AL14" s="5" t="n">
-        <v>9724100812.55507</v>
+        <v>11715364716.1819</v>
       </c>
       <c r="AM14" s="5" t="n">
-        <v>6519380430.40569</v>
+        <v>7700896463.45423</v>
       </c>
       <c r="AN14" s="5" t="n">
-        <v>7848921037.75102</v>
+        <v>9744526614.1616</v>
       </c>
       <c r="AO14" s="5" t="n">
-        <v>8603896031.74704</v>
+        <v>10178429361.0727</v>
       </c>
       <c r="AP14" s="5" t="n">
-        <v>7400671623.00543</v>
+        <v>7905132029.02397</v>
       </c>
       <c r="AQ14" s="5" t="n">
-        <v>12362737427.7062</v>
+        <v>14442948259.4662</v>
       </c>
       <c r="AR14" s="5" t="n">
-        <v>13481582728.6522</v>
+        <v>14325045978.6428</v>
       </c>
       <c r="AS14" s="5" t="n">
-        <v>18456212206.3738</v>
+        <v>20370071505.7403</v>
       </c>
       <c r="AT14" s="5" t="n">
-        <v>9752493905.5945</v>
+        <v>11644609135.3733</v>
       </c>
       <c r="AU14" s="5" t="n">
-        <v>10498698100.2625</v>
+        <v>12112761222.417</v>
       </c>
       <c r="AV14" s="5" t="n">
-        <v>4370165921.91005</v>
-      </c>
-      <c r="AW14" s="5"/>
+        <v>10420097930.52</v>
+      </c>
+      <c r="AW14" s="5" t="n">
+        <v>10367628231.053</v>
+      </c>
+      <c r="AX14" s="5" t="n">
+        <v>3944192756.63687</v>
+      </c>
+      <c r="AY14" s="5"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>62</v>
       </c>
       <c r="N15" t="s">
         <v>64</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="O15" s="5" t="n">
+        <v>154771605.644373</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>135988336.330315</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>3235848.54821463</v>
+      </c>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="V15" s="5" t="n">
+        <v>1363058.70653104</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>5441964.34724476</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>4463890.35541835</v>
+      </c>
       <c r="Y15" s="5" t="n">
-        <v>15123073.3085645</v>
+        <v>17194173.9615316</v>
       </c>
       <c r="Z15" s="5" t="n">
-        <v>18075366.2670029</v>
+        <v>20613484.0652445</v>
       </c>
       <c r="AA15" s="5" t="n">
-        <v>36866932.291017</v>
+        <v>40087854.2670488</v>
       </c>
       <c r="AB15" s="5" t="n">
-        <v>45585046.2769588</v>
+        <v>50064109.740153</v>
       </c>
       <c r="AC15" s="5" t="n">
-        <v>27222464.8053094</v>
+        <v>36286014.0434145</v>
       </c>
       <c r="AD15" s="5" t="n">
-        <v>8745585.13969293</v>
+        <v>18723567.3464051</v>
       </c>
       <c r="AE15" s="5" t="n">
-        <v>5798017.28926482</v>
+        <v>11651545.5478943</v>
       </c>
       <c r="AF15" s="5" t="n">
-        <v>10147611.5441781</v>
+        <v>10990730.9086088</v>
       </c>
       <c r="AG15" s="5" t="n">
-        <v>63912644.5411829</v>
+        <v>66716266.2093349</v>
       </c>
       <c r="AH15" s="5" t="n">
-        <v>54537097.0168244</v>
+        <v>56906441.0336376</v>
       </c>
       <c r="AI15" s="5" t="n">
-        <v>4484110.78330282</v>
+        <v>4864704.98797417</v>
       </c>
       <c r="AJ15" s="5" t="n">
-        <v>8098690.08332194</v>
+        <v>8726670.83212528</v>
       </c>
       <c r="AK15" s="5" t="n">
-        <v>5052451.98995568</v>
+        <v>5363784.48247654</v>
       </c>
       <c r="AL15" s="5" t="n">
-        <v>5303767.52842677</v>
+        <v>5656235.20912547</v>
       </c>
       <c r="AM15" s="5" t="n">
-        <v>5096958.78443338</v>
+        <v>5383283.43509278</v>
       </c>
       <c r="AN15" s="5" t="n">
-        <v>4519435.77760949</v>
+        <v>4656121.02735503</v>
       </c>
       <c r="AO15" s="5" t="n">
-        <v>2833397.44803247</v>
+        <v>2968098.21489047</v>
       </c>
       <c r="AP15" s="5" t="n">
-        <v>2901744.62662416</v>
+        <v>3042384.30336928</v>
       </c>
       <c r="AQ15" s="5" t="n">
-        <v>4679370.55666321</v>
+        <v>4905196.95338884</v>
       </c>
       <c r="AR15" s="5" t="n">
-        <v>2157890.16212698</v>
+        <v>2459350.39978711</v>
       </c>
       <c r="AS15" s="5" t="n">
-        <v>1522284.27627873</v>
+        <v>1605893.64978272</v>
       </c>
       <c r="AT15" s="5" t="n">
-        <v>1613897.03953358</v>
+        <v>1697298.76253647</v>
       </c>
       <c r="AU15" s="5" t="n">
-        <v>298037.9588</v>
+        <v>319765.214663415</v>
       </c>
       <c r="AV15" s="5" t="n">
-        <v>-4635.46012405565</v>
-      </c>
-      <c r="AW15" s="5"/>
+        <v>383503.34</v>
+      </c>
+      <c r="AW15" s="5" t="n">
+        <v>171302.127440207</v>
+      </c>
+      <c r="AX15" s="5" t="n">
+        <v>2888724.88607751</v>
+      </c>
+      <c r="AY15" s="5"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
       <c r="M16" t="s">
         <v>65</v>
       </c>
@@ -9821,70 +10516,88 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5" t="n">
-        <v>-140301.918871706</v>
-      </c>
+      <c r="V16" s="5" t="n">
+        <v>452093.519412063</v>
+      </c>
+      <c r="W16" s="5" t="n">
+        <v>-1156859.09358598</v>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>1584747.64576859</v>
+      </c>
+      <c r="Y16" s="5"/>
       <c r="Z16" s="5" t="n">
-        <v>2167256.40544373</v>
+        <v>2173812.77610192</v>
       </c>
       <c r="AA16" s="5" t="n">
-        <v>-458171.511898606</v>
+        <v>-476758.169330333</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
+      <c r="AD16" s="5" t="n">
+        <v>750822.875267333</v>
+      </c>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5" t="n">
-        <v>450708.476672083</v>
+        <v>468949.11985604</v>
       </c>
       <c r="AJ16" s="5" t="n">
-        <v>31745684.7488053</v>
+        <v>33260586.7705546</v>
       </c>
       <c r="AK16" s="5" t="n">
-        <v>149840707.127249</v>
+        <v>156119498.72826</v>
       </c>
       <c r="AL16" s="5" t="n">
-        <v>178147341.139667</v>
+        <v>187097362.966317</v>
       </c>
       <c r="AM16" s="5" t="n">
-        <v>264566727.31648</v>
+        <v>275712099.194466</v>
       </c>
       <c r="AN16" s="5" t="n">
-        <v>264262920.416568</v>
+        <v>275671656.041434</v>
       </c>
       <c r="AO16" s="5" t="n">
-        <v>384637707.610701</v>
+        <v>401359261.374315</v>
       </c>
       <c r="AP16" s="5" t="n">
-        <v>295549224.13516</v>
+        <v>308693044.244368</v>
       </c>
       <c r="AQ16" s="5" t="n">
-        <v>279465331.37828</v>
+        <v>292259449.376121</v>
       </c>
       <c r="AR16" s="5" t="n">
-        <v>273963820.924516</v>
+        <v>286814659.974202</v>
       </c>
       <c r="AS16" s="5" t="n">
-        <v>233343756.232106</v>
+        <v>244356102.881142</v>
       </c>
       <c r="AT16" s="5" t="n">
-        <v>203434298.253219</v>
+        <v>212869697.916515</v>
       </c>
       <c r="AU16" s="5" t="n">
-        <v>159594051.9701</v>
+        <v>166894936.315015</v>
       </c>
       <c r="AV16" s="5" t="n">
-        <v>79537374.4979335</v>
-      </c>
-      <c r="AW16" s="5"/>
+        <v>150181620.8418</v>
+      </c>
+      <c r="AW16" s="5" t="n">
+        <v>133777987.023876</v>
+      </c>
+      <c r="AX16" s="5" t="n">
+        <v>49510676.3815401</v>
+      </c>
+      <c r="AY16" s="5"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
       <c r="M17" t="s">
         <v>65</v>
       </c>
@@ -9897,85 +10610,105 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
+      <c r="U17" s="5" t="n">
+        <v>544283.954084707</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>1287684.57161245</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>3064285.37180617</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>5877527.19823598</v>
+      </c>
       <c r="Y17" s="5" t="n">
-        <v>12811462.8679302</v>
+        <v>13587783.0057656</v>
       </c>
       <c r="Z17" s="5" t="n">
-        <v>17232920.2795678</v>
+        <v>18055999.5509163</v>
       </c>
       <c r="AA17" s="5" t="n">
-        <v>53149727.2975678</v>
+        <v>55560570.3664355</v>
       </c>
       <c r="AB17" s="5" t="n">
-        <v>95557765.7517066</v>
+        <v>99648030.5919248</v>
       </c>
       <c r="AC17" s="5" t="n">
-        <v>162831961.958757</v>
+        <v>195157957.527082</v>
       </c>
       <c r="AD17" s="5" t="n">
-        <v>221128328.96002</v>
+        <v>241915467.767133</v>
       </c>
       <c r="AE17" s="5" t="n">
-        <v>295852152.691698</v>
+        <v>317820706.875496</v>
       </c>
       <c r="AF17" s="5" t="n">
-        <v>436587896.70658</v>
+        <v>454697213.440916</v>
       </c>
       <c r="AG17" s="5" t="n">
-        <v>426125980.765854</v>
+        <v>446344457.341955</v>
       </c>
       <c r="AH17" s="5" t="n">
-        <v>430576984.862957</v>
+        <v>450362983.429516</v>
       </c>
       <c r="AI17" s="5" t="n">
-        <v>353915614.125582</v>
+        <v>382565619.529118</v>
       </c>
       <c r="AJ17" s="5" t="n">
-        <v>206388990.058854</v>
+        <v>224503949.416594</v>
       </c>
       <c r="AK17" s="5" t="n">
-        <v>64970198.3489177</v>
+        <v>67050185.2101637</v>
       </c>
       <c r="AL17" s="5" t="n">
-        <v>47665195.9222043</v>
+        <v>51028033.0856015</v>
       </c>
       <c r="AM17" s="5" t="n">
-        <v>37623065.5717389</v>
+        <v>41521496.813339</v>
       </c>
       <c r="AN17" s="5" t="n">
-        <v>38969520.7804195</v>
+        <v>44028461.4992384</v>
       </c>
       <c r="AO17" s="5" t="n">
-        <v>43458098.6499029</v>
+        <v>45520325.4233769</v>
       </c>
       <c r="AP17" s="5" t="n">
-        <v>43540596.0389268</v>
+        <v>46664187.4696031</v>
       </c>
       <c r="AQ17" s="5" t="n">
-        <v>31078509.2997198</v>
+        <v>32695142.7132526</v>
       </c>
       <c r="AR17" s="5" t="n">
-        <v>60496110.2968052</v>
+        <v>63442697.2864158</v>
       </c>
       <c r="AS17" s="5" t="n">
-        <v>63944478.6565085</v>
+        <v>67172964.603524</v>
       </c>
       <c r="AT17" s="5" t="n">
-        <v>42275341.2053944</v>
+        <v>44245826.9992318</v>
       </c>
       <c r="AU17" s="5" t="n">
-        <v>42936239.6834</v>
+        <v>45472770.2519997</v>
       </c>
       <c r="AV17" s="5" t="n">
-        <v>18983115.4641163</v>
-      </c>
-      <c r="AW17" s="5"/>
+        <v>38842949.5142</v>
+      </c>
+      <c r="AW17" s="5" t="n">
+        <v>31733831.7013887</v>
+      </c>
+      <c r="AX17" s="5" t="n">
+        <v>10777445.5119044</v>
+      </c>
+      <c r="AY17" s="5"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
       <c r="M18" t="s">
         <v>65</v>
       </c>
@@ -9989,84 +10722,102 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="V18" s="5" t="n">
+        <v>45832153.4684658</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>29319721.5935991</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>54833414.934145</v>
+      </c>
       <c r="Y18" s="5" t="n">
-        <v>294672427.455215</v>
+        <v>308718978.944452</v>
       </c>
       <c r="Z18" s="5" t="n">
-        <v>328066302.272813</v>
+        <v>343540074.315467</v>
       </c>
       <c r="AA18" s="5" t="n">
-        <v>399854105.381749</v>
+        <v>416074998.838444</v>
       </c>
       <c r="AB18" s="5" t="n">
-        <v>452620798.657325</v>
+        <v>471472029.349693</v>
       </c>
       <c r="AC18" s="5" t="n">
-        <v>417143716.905909</v>
+        <v>434811750.493179</v>
       </c>
       <c r="AD18" s="5" t="n">
-        <v>427606457.180502</v>
+        <v>451933422.676497</v>
       </c>
       <c r="AE18" s="5" t="n">
-        <v>449123075.533008</v>
+        <v>473058624.382973</v>
       </c>
       <c r="AF18" s="5" t="n">
-        <v>455573806.181287</v>
+        <v>486318835.469104</v>
       </c>
       <c r="AG18" s="5" t="n">
-        <v>827268868.178072</v>
+        <v>872516275.206536</v>
       </c>
       <c r="AH18" s="5" t="n">
-        <v>874623338.211956</v>
+        <v>922090913.583975</v>
       </c>
       <c r="AI18" s="5" t="n">
-        <v>1105862694.60344</v>
+        <v>1158986446.0414</v>
       </c>
       <c r="AJ18" s="5" t="n">
-        <v>1232008190.16455</v>
+        <v>1290522696.13898</v>
       </c>
       <c r="AK18" s="5" t="n">
-        <v>1799025298.02518</v>
+        <v>1878486639.5132</v>
       </c>
       <c r="AL18" s="5" t="n">
-        <v>1086620693.46944</v>
+        <v>1154026568.77312</v>
       </c>
       <c r="AM18" s="5" t="n">
-        <v>1048673316.1096</v>
+        <v>1094659920.35994</v>
       </c>
       <c r="AN18" s="5" t="n">
-        <v>883366529.321724</v>
+        <v>921689438.301777</v>
       </c>
       <c r="AO18" s="5" t="n">
-        <v>579244705.547585</v>
+        <v>604419753.871751</v>
       </c>
       <c r="AP18" s="5" t="n">
-        <v>173558308.574132</v>
+        <v>181149376.626168</v>
       </c>
       <c r="AQ18" s="5" t="n">
-        <v>151564093.887306</v>
+        <v>158780170.791813</v>
       </c>
       <c r="AR18" s="5" t="n">
-        <v>321306827.207705</v>
+        <v>336378369.740387</v>
       </c>
       <c r="AS18" s="5" t="n">
-        <v>338950022.800691</v>
+        <v>354946318.961963</v>
       </c>
       <c r="AT18" s="5" t="n">
-        <v>354068821.151359</v>
+        <v>368677671.953866</v>
       </c>
       <c r="AU18" s="5" t="n">
-        <v>342250714.6995</v>
+        <v>357469373.897752</v>
       </c>
       <c r="AV18" s="5" t="n">
-        <v>224696413.929741</v>
-      </c>
-      <c r="AW18" s="5"/>
+        <v>447545003.1791</v>
+      </c>
+      <c r="AW18" s="5" t="n">
+        <v>285342860.618438</v>
+      </c>
+      <c r="AX18" s="5" t="n">
+        <v>18251061.2698894</v>
+      </c>
+      <c r="AY18" s="5"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
       <c r="M19" t="s">
         <v>65</v>
       </c>
@@ -10079,85 +10830,105 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
+      <c r="U19" s="5" t="n">
+        <v>17665953.2070849</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>58187827.6612608</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>75861636.8551868</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>148396357.847197</v>
+      </c>
       <c r="Y19" s="5" t="n">
-        <v>382294128.887788</v>
+        <v>435585928.089829</v>
       </c>
       <c r="Z19" s="5" t="n">
-        <v>380409987.823012</v>
+        <v>413514444.047229</v>
       </c>
       <c r="AA19" s="5" t="n">
-        <v>566840204.956891</v>
+        <v>654902336.049422</v>
       </c>
       <c r="AB19" s="5" t="n">
-        <v>864061787.853202</v>
+        <v>927025678.833228</v>
       </c>
       <c r="AC19" s="5" t="n">
-        <v>841652097.178512</v>
+        <v>1521227479.27289</v>
       </c>
       <c r="AD19" s="5" t="n">
-        <v>1100754312.66976</v>
+        <v>1175522364.42789</v>
       </c>
       <c r="AE19" s="5" t="n">
-        <v>1354439348.58663</v>
+        <v>1444363356.47126</v>
       </c>
       <c r="AF19" s="5" t="n">
-        <v>1997597756.35225</v>
+        <v>2081947423.95999</v>
       </c>
       <c r="AG19" s="5" t="n">
-        <v>2065120327.35026</v>
+        <v>2160940643.64908</v>
       </c>
       <c r="AH19" s="5" t="n">
-        <v>3168955259.23249</v>
+        <v>3307120361.97606</v>
       </c>
       <c r="AI19" s="5" t="n">
-        <v>3658905746.16758</v>
+        <v>3848294216.45748</v>
       </c>
       <c r="AJ19" s="5" t="n">
-        <v>4046674444.23414</v>
+        <v>4243909100.94474</v>
       </c>
       <c r="AK19" s="5" t="n">
-        <v>2606782834.4846</v>
+        <v>2755635668.51312</v>
       </c>
       <c r="AL19" s="5" t="n">
-        <v>2322644887.83851</v>
+        <v>2462230157.40958</v>
       </c>
       <c r="AM19" s="5" t="n">
-        <v>2454786147.99238</v>
+        <v>2630551145.39074</v>
       </c>
       <c r="AN19" s="5" t="n">
-        <v>2206836921.05928</v>
+        <v>2367406705.41658</v>
       </c>
       <c r="AO19" s="5" t="n">
-        <v>2264987688.83326</v>
+        <v>2391172107.94366</v>
       </c>
       <c r="AP19" s="5" t="n">
-        <v>2172572553.28885</v>
+        <v>2338066324.70388</v>
       </c>
       <c r="AQ19" s="5" t="n">
-        <v>2502970819.87072</v>
+        <v>2689552133.31775</v>
       </c>
       <c r="AR19" s="5" t="n">
-        <v>2468693819.5227</v>
+        <v>2669541997.99744</v>
       </c>
       <c r="AS19" s="5" t="n">
-        <v>2313301233.1047</v>
+        <v>2547286140.06595</v>
       </c>
       <c r="AT19" s="5" t="n">
-        <v>2581863620.7662</v>
+        <v>2806270506.23597</v>
       </c>
       <c r="AU19" s="5" t="n">
-        <v>2773513385.132</v>
+        <v>3040812308.48971</v>
       </c>
       <c r="AV19" s="5" t="n">
-        <v>1421199765.11599</v>
-      </c>
-      <c r="AW19" s="5"/>
+        <v>2831710791.6156</v>
+      </c>
+      <c r="AW19" s="5" t="n">
+        <v>2843464775.75039</v>
+      </c>
+      <c r="AX19" s="5" t="n">
+        <v>1681512639.63083</v>
+      </c>
+      <c r="AY19" s="5"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
       <c r="M20" t="s">
         <v>65</v>
       </c>
@@ -10170,27 +10941,31 @@
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
+      <c r="U20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>9713090.02490103</v>
+      </c>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5" t="n">
-        <v>9615384.02502171</v>
+        <v>153913.105153934</v>
       </c>
       <c r="Z20" s="5" t="n">
-        <v>8785315.65904389</v>
+        <v>8155927.23137624</v>
       </c>
       <c r="AA20" s="5" t="n">
-        <v>9290304.44120261</v>
+        <v>9667184.49943569</v>
       </c>
       <c r="AB20" s="5" t="n">
-        <v>-343459.446315901</v>
+        <v>-301374.482989195</v>
       </c>
       <c r="AC20" s="5" t="n">
-        <v>-284176.975828089</v>
+        <v>-295688.921275659</v>
       </c>
       <c r="AD20" s="5" t="n">
-        <v>19588.9507074827</v>
+        <v>20381.0487374817</v>
       </c>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
@@ -10198,28 +10973,16 @@
       <c r="AH20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AI20" s="5" t="n">
-        <v>14064770.9039408</v>
-      </c>
+      <c r="AI20" s="5"/>
       <c r="AJ20" s="5" t="n">
-        <v>9283785.49288478</v>
-      </c>
-      <c r="AK20" s="5" t="n">
-        <v>-625575.35817678</v>
-      </c>
-      <c r="AL20" s="5" t="n">
-        <v>1357714.81998072</v>
-      </c>
-      <c r="AM20" s="5" t="n">
-        <v>2026755.47845545</v>
-      </c>
-      <c r="AN20" s="5" t="n">
-        <v>3205894.89425205</v>
-      </c>
+        <v>-120132.532471934</v>
+      </c>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
-      <c r="AP20" s="5" t="n">
-        <v>1044955.05638355</v>
-      </c>
+      <c r="AP20" s="5"/>
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
       <c r="AS20" s="5"/>
@@ -10227,95 +10990,122 @@
       <c r="AU20" s="5"/>
       <c r="AV20" s="5"/>
       <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" s="5" t="n">
-        <v>6032822140.01566</v>
+        <v>9138244581.03204</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>9990757469.16172</v>
+        <v>13409688142.9605</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>7336657438.47783</v>
+        <v>10595873380.5956</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>9130873892.26007</v>
+        <v>12390727840.3286</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7679140602.47769</v>
+        <v>9729931160.15749</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6112165700.2052</v>
+        <v>8259554872.83913</v>
       </c>
       <c r="U21" s="5" t="n">
-        <v>6393941560.35423</v>
+        <v>8557940912.21167</v>
       </c>
       <c r="V21" s="5" t="n">
-        <v>6784225907.77468</v>
+        <v>8878459926.95133</v>
       </c>
       <c r="W21" s="5" t="n">
-        <v>6016289806.15404</v>
+        <v>8320994021.32725</v>
       </c>
       <c r="X21" s="5" t="n">
-        <v>6045865409.8293</v>
-      </c>
-      <c r="Y21" s="5" t="n">
-        <v>0</v>
-      </c>
+        <v>7464364324.41389</v>
+      </c>
+      <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
       <c r="AQ21" s="5"/>
       <c r="AR21" s="5"/>
       <c r="AS21" s="5"/>
       <c r="AT21" s="5"/>
       <c r="AU21" s="5"/>
-      <c r="AV21" s="5" t="n">
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="5"/>
+      <c r="AY21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -537,14 +537,14 @@
     <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -585,15 +585,15 @@
     <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -534,17 +534,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -582,18 +582,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,6 +999,12 @@
       <c r="AU1" t="s">
         <v>34</v>
       </c>
+      <c r="AV1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1008,109 +1014,115 @@
         <v>35</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>1431051000</v>
+        <v>2528105000</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>2392678106</v>
+        <v>3818241106</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>934431536</v>
+        <v>2162582682</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1935355998</v>
+        <v>3175655494</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>1378215063</v>
+        <v>2130227136</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>1068422788</v>
+        <v>1880260328</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>1108552673</v>
+        <v>2088331724</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>1492805862</v>
+        <v>3044633343</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>1000862100</v>
+        <v>2729409572</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>1056388010</v>
+        <v>2034707210</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>438028788</v>
+        <v>1129313192</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>1227012264</v>
+        <v>1858297951</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>2635649218</v>
+        <v>3522399672</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>2586389808</v>
+        <v>3340721261</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>3564590615</v>
+        <v>3993688673</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>3642275524.88</v>
+        <v>4339849491.88</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>3621166425.5602</v>
+        <v>4943980265.0602</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>4431952486.4795</v>
+        <v>5608034857.7656</v>
       </c>
       <c r="AF2" s="1" t="n">
-        <v>4152317872.7099</v>
+        <v>5590264666.0629</v>
       </c>
       <c r="AG2" s="1" t="n">
-        <v>4966890279.7397</v>
+        <v>6533950930.0233</v>
       </c>
       <c r="AH2" s="1" t="n">
-        <v>4946959798.9355</v>
+        <v>6645036446.488</v>
       </c>
       <c r="AI2" s="1" t="n">
-        <v>6325432244.9797</v>
+        <v>7365649585.3433</v>
       </c>
       <c r="AJ2" s="1" t="n">
-        <v>6673172924.4838</v>
+        <v>8002523590.813</v>
       </c>
       <c r="AK2" s="1" t="n">
-        <v>7177473408.211</v>
+        <v>8275260218.702</v>
       </c>
       <c r="AL2" s="1" t="n">
-        <v>4843676471.603</v>
+        <v>5488209829.483</v>
       </c>
       <c r="AM2" s="1" t="n">
-        <v>6001774318.3246</v>
+        <v>7168594694.63</v>
       </c>
       <c r="AN2" s="1" t="n">
-        <v>6586950913.1606</v>
+        <v>7366267338.0396</v>
       </c>
       <c r="AO2" s="1" t="n">
-        <v>4887807618.3511</v>
+        <v>4907501167.9884</v>
       </c>
       <c r="AP2" s="1" t="n">
-        <v>9791618995.9055</v>
+        <v>10982391186.1999</v>
       </c>
       <c r="AQ2" s="1" t="n">
-        <v>10400546606.3132</v>
+        <v>10306006374.7818</v>
       </c>
       <c r="AR2" s="1" t="n">
-        <v>14875990122.4042</v>
+        <v>15531778020.7328</v>
       </c>
       <c r="AS2" s="1" t="n">
-        <v>6853691011.5334</v>
+        <v>7955818214.696</v>
       </c>
       <c r="AT2" s="1" t="n">
-        <v>8292975084.0834</v>
+        <v>9227087172.2722</v>
       </c>
       <c r="AU2" s="1" t="n">
-        <v>6191213261.551</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+        <v>7381927554.0168</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>7078317570.07</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>2769615531.51</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1120,109 +1132,115 @@
         <v>36</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>1193411000</v>
+        <v>1416811000</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>2241296000</v>
+        <v>2416400771</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>2691938479</v>
+        <v>2842890914</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>2575355491</v>
+        <v>2778007246</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>2397249665</v>
+        <v>2490935605</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>1910282904</v>
+        <v>2100052256</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>2122417106</v>
+        <v>2192985952</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>2214334723</v>
+        <v>2779652339</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>2243653591</v>
+        <v>2864811200</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>2241686462</v>
+        <v>2677805952.63</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>2460371006</v>
+        <v>2465687039</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>2057683893.4</v>
+        <v>2059536254.4</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>1959576427</v>
+        <v>1959577035</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>2260888982</v>
+        <v>2269314662</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>2122295989</v>
+        <v>2126372250</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>2540064147.4375</v>
+        <v>2572376430.4375</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>2797900515.9288</v>
+        <v>2834819730.9288</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>3331604106.9019</v>
+        <v>3420051938.7431</v>
       </c>
       <c r="AF3" s="1" t="n">
-        <v>3960550149.8555</v>
+        <v>4085099587.2522</v>
       </c>
       <c r="AG3" s="1" t="n">
-        <v>4568683355.3729</v>
+        <v>4718185112.5069</v>
       </c>
       <c r="AH3" s="1" t="n">
-        <v>4710086893.3547</v>
+        <v>4850566339.9601</v>
       </c>
       <c r="AI3" s="1" t="n">
-        <v>3637689524.5484</v>
+        <v>3732857487.462</v>
       </c>
       <c r="AJ3" s="1" t="n">
-        <v>3438782410.0567</v>
+        <v>3524333981.7703</v>
       </c>
       <c r="AK3" s="1" t="n">
-        <v>2602178645.2404</v>
+        <v>2722187306.6245</v>
       </c>
       <c r="AL3" s="1" t="n">
-        <v>2598599379.3982</v>
+        <v>2680773286.1057</v>
       </c>
       <c r="AM3" s="1" t="n">
-        <v>2337218952.017</v>
+        <v>2415933055.2847</v>
       </c>
       <c r="AN3" s="1" t="n">
-        <v>2339214977.5489</v>
+        <v>2521019866.7572</v>
       </c>
       <c r="AO3" s="1" t="n">
-        <v>2460480444.1709</v>
+        <v>2585572803.8472</v>
       </c>
       <c r="AP3" s="1" t="n">
-        <v>2373192230.2165</v>
+        <v>2394052047.1216</v>
       </c>
       <c r="AQ3" s="1" t="n">
-        <v>2764261065.7637</v>
+        <v>2878708454.7402</v>
       </c>
       <c r="AR3" s="1" t="n">
-        <v>2521750380.6947</v>
+        <v>2588288965.6096</v>
       </c>
       <c r="AS3" s="1" t="n">
-        <v>3423161777.3339</v>
+        <v>3503200323.719</v>
       </c>
       <c r="AT3" s="1" t="n">
-        <v>3450366052.4446</v>
+        <v>3517714620.7947</v>
       </c>
       <c r="AU3" s="1" t="n">
-        <v>4302261451.2497</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+        <v>4339142163.9228</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>4255361441.13</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>1852284764.31</v>
+      </c>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1232,109 +1250,115 @@
         <v>37</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>410872000</v>
+        <v>548193000</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>572041177</v>
+        <v>548738177</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>292184577</v>
+        <v>435176721</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>480707222</v>
+        <v>555859473</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>513828929</v>
+        <v>602089398</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>507650715</v>
+        <v>547658348</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>484655117</v>
+        <v>508961092</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>305319876</v>
+        <v>398726719</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>358187512</v>
+        <v>470577384</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>367468479</v>
+        <v>467183290</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>102639323</v>
+        <v>117992918</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>79595374</v>
+        <v>92101683</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>131365301.825</v>
+        <v>160897633.825</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>189153305.0938</v>
+        <v>215715055.0938</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>305738864.5797</v>
+        <v>730822330.5797</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>310367987.7</v>
+        <v>329760756.7</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>344161011.4145</v>
+        <v>359132954.5914</v>
       </c>
       <c r="AE4" s="1" t="n">
-        <v>544661205.7202</v>
+        <v>570628673.0872</v>
       </c>
       <c r="AF4" s="1" t="n">
-        <v>648872915.8054</v>
+        <v>682080070.7723</v>
       </c>
       <c r="AG4" s="1" t="n">
-        <v>964096144.4647</v>
+        <v>995883663.0243</v>
       </c>
       <c r="AH4" s="1" t="n">
-        <v>885610064.3583</v>
+        <v>915275560.143</v>
       </c>
       <c r="AI4" s="1" t="n">
-        <v>947209106.1171</v>
+        <v>984186044.135</v>
       </c>
       <c r="AJ4" s="1" t="n">
-        <v>1095466064.4557</v>
+        <v>1149709075.0949</v>
       </c>
       <c r="AK4" s="1" t="n">
-        <v>1028285132.991</v>
+        <v>1102294212.8322</v>
       </c>
       <c r="AL4" s="1" t="n">
-        <v>1074181886.3929</v>
+        <v>1124511017.9191</v>
       </c>
       <c r="AM4" s="1" t="n">
-        <v>1040393181.2314</v>
+        <v>1091350278.3896</v>
       </c>
       <c r="AN4" s="1" t="n">
-        <v>1059675767.3907</v>
+        <v>1088147118.3779</v>
       </c>
       <c r="AO4" s="1" t="n">
-        <v>1284922071.8141</v>
+        <v>1340175265.733</v>
       </c>
       <c r="AP4" s="1" t="n">
-        <v>1262232447.7799</v>
+        <v>1379295010.7949</v>
       </c>
       <c r="AQ4" s="1" t="n">
-        <v>1664273091.9364</v>
+        <v>1897190978.617</v>
       </c>
       <c r="AR4" s="1" t="n">
-        <v>1971312139.7595</v>
+        <v>2258045931.523</v>
       </c>
       <c r="AS4" s="1" t="n">
-        <v>1820687599.3718</v>
+        <v>2017267051.619</v>
       </c>
       <c r="AT4" s="1" t="n">
-        <v>2073949330.997</v>
+        <v>2291087834.4932</v>
       </c>
       <c r="AU4" s="1" t="n">
-        <v>2072331256.2612</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+        <v>2167692081.0711</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>2693300362.83</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>1366218272.13</v>
+      </c>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1445,8 +1469,16 @@
       <c r="AU5" s="1" t="str">
         <f>Sum(AU2:AU4)</f>
       </c>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="AV5" s="1" t="str">
+        <f>Sum(AV2:AV4)</f>
+      </c>
+      <c r="AW5" s="1" t="str">
+        <f>Sum(AW2:AW4)</f>
+      </c>
+      <c r="AX5" s="1" t="str">
+        <f>Sum(AX2:AX4)</f>
+      </c>
+      <c r="AY5" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1557,6 +1589,12 @@
       <c r="AU8" t="s">
         <v>34</v>
       </c>
+      <c r="AV8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1566,109 +1604,115 @@
         <v>35</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>2844259035.83973</v>
+        <v>5228833906.90445</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>4591739624.13802</v>
+        <v>7624614621.33572</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>1749523687.46855</v>
+        <v>4212998213.09079</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>3540374506.23467</v>
+        <v>6044788181.56825</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>2467424265.05532</v>
+        <v>3968210386.40261</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>1873123787.63667</v>
+        <v>3429817370.20093</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>1907625555.89693</v>
+        <v>3738965290.06333</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>2524020436.51149</v>
+        <v>5356080016.17256</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>1671377327.05314</v>
+        <v>4742086916.05352</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>1742383001.48005</v>
+        <v>3491869942.36257</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>707736275.43557</v>
+        <v>1898571288.92116</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>1935583796.71514</v>
+        <v>3050187316.80062</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>4093073202.87916</v>
+        <v>5692074769.59118</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>3941239940.42694</v>
+        <v>5296815743.24691</v>
       </c>
       <c r="AB9" s="1" t="n">
-        <v>5302254855.03956</v>
+        <v>6181178855.51223</v>
       </c>
       <c r="AC9" s="1" t="n">
-        <v>5258188202.5164</v>
+        <v>6518585305.27978</v>
       </c>
       <c r="AD9" s="1" t="n">
-        <v>5062878735.83477</v>
+        <v>7192368856.0867</v>
       </c>
       <c r="AE9" s="1" t="n">
-        <v>6031076038.23706</v>
+        <v>7939837801.56953</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>5535105213.23513</v>
+        <v>7753705346.0983</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>6554338188.33098</v>
+        <v>8970862552.81609</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>6471749919.33566</v>
+        <v>9045044588.82114</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>8111626092.11648</v>
+        <v>9828649381.92201</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>8403526662.19906</v>
+        <v>10488168940.3572</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>8876158557.34251</v>
+        <v>10652335912.1744</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>5876340830.39795</v>
+        <v>6938129389.99405</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>7198813604.25113</v>
+        <v>8969560827.78755</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>7835771102.8662</v>
+        <v>9143789448.23146</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>5712497574.81154</v>
+        <v>5990586676.91423</v>
       </c>
       <c r="AP9" s="1" t="n">
-        <v>11181162314.3566</v>
+        <v>13115050788.906</v>
       </c>
       <c r="AQ9" s="1" t="n">
-        <v>11648353204.9263</v>
+        <v>12083893945.6986</v>
       </c>
       <c r="AR9" s="1" t="n">
-        <v>16441402818.4719</v>
+        <v>17976335855.7856</v>
       </c>
       <c r="AS9" s="1" t="n">
-        <v>7328566778.07681</v>
+        <v>8901619885.11931</v>
       </c>
       <c r="AT9" s="1" t="n">
-        <v>8292975084.0834</v>
+        <v>9649194989.57562</v>
       </c>
       <c r="AU9" s="1" t="n">
-        <v>5905169175.6058</v>
-      </c>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
+        <v>7381927554.0168</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>6894201117.74979</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>2639654652.90477</v>
+      </c>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1678,109 +1722,115 @@
         <v>36</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>2371942034.36532</v>
+        <v>2930364599.75959</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>4301225320.20279</v>
+        <v>4825291053.6796</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>5040080469.0078</v>
+        <v>5538328980.61377</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>4711134764.99938</v>
+        <v>5287873763.59274</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>4291806229.38579</v>
+        <v>4640142063.99682</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>3349045329.98229</v>
+        <v>3830743859.61222</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>3652309186.82599</v>
+        <v>3926339030.28545</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>3743973839.06375</v>
+        <v>4889928824.78106</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>3746761658.53293</v>
+        <v>4977334236.62354</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>3697388032.67631</v>
+        <v>4595526113.78827</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>3975295367.97501</v>
+        <v>4145247441.42936</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>3245949302.77466</v>
+        <v>3380497383.79222</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>3043155252.81991</v>
+        <v>3166608005.51931</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>3445229303.47459</v>
+        <v>3598067809.00499</v>
       </c>
       <c r="AB10" s="1" t="n">
-        <v>3156871412.99008</v>
+        <v>3291064543.79048</v>
       </c>
       <c r="AC10" s="1" t="n">
-        <v>3666975560.32112</v>
+        <v>3863787265.08186</v>
       </c>
       <c r="AD10" s="1" t="n">
-        <v>3911842031.64196</v>
+        <v>4124019120.67586</v>
       </c>
       <c r="AE10" s="1" t="n">
-        <v>4533703319.09608</v>
+        <v>4842098588.05742</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>5279475814.17641</v>
+        <v>5666039159.34612</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>6028861943.79193</v>
+        <v>6477886136.02147</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>6161866219.0648</v>
+        <v>6602460224.1515</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>4664910810.76156</v>
+        <v>4981087820.13641</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>4330458688.15815</v>
+        <v>4619019211.0753</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>3218033552.48397</v>
+        <v>3504137977.49672</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>3152616762.19072</v>
+        <v>3389001605.64615</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>2803371585.71972</v>
+        <v>3022887946.42995</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>2782706804.12198</v>
+        <v>3129356266.69384</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>2875622296.88146</v>
+        <v>3156208722.26258</v>
       </c>
       <c r="AP10" s="1" t="n">
-        <v>2709975494.38113</v>
+        <v>2858950628.9612</v>
       </c>
       <c r="AQ10" s="1" t="n">
-        <v>3095903558.09727</v>
+        <v>3375314006.47936</v>
       </c>
       <c r="AR10" s="1" t="n">
-        <v>2787116250.78275</v>
+        <v>2995661647.72079</v>
       </c>
       <c r="AS10" s="1" t="n">
-        <v>3660344423.92214</v>
+        <v>3919666943.31578</v>
       </c>
       <c r="AT10" s="1" t="n">
-        <v>3450366052.4446</v>
+        <v>3678638085.888</v>
       </c>
       <c r="AU10" s="1" t="n">
-        <v>4103490000.10901</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+        <v>4339142163.9228</v>
+      </c>
+      <c r="AV10" s="1" t="n">
+        <v>4144673831.52147</v>
+      </c>
+      <c r="AW10" s="1" t="n">
+        <v>1765368528.94878</v>
+      </c>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1790,109 +1840,115 @@
         <v>37</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>816621069.810609</v>
+        <v>1133817680.01237</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>1097792524.82091</v>
+        <v>1095770804.27548</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>547053282.001474</v>
+        <v>847782035.439286</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>879364621.026013</v>
+        <v>1058065895.16764</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>919910108.03659</v>
+        <v>1121578709.75806</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>889996582.58624</v>
+        <v>998993643.025982</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>834006817.631314</v>
+        <v>911247880.358652</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>516231632.199441</v>
+        <v>701434941.734444</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>598150820.567962</v>
+        <v>817582996.172292</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>606094375.672938</v>
+        <v>801758248.020882</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>165837438.459064</v>
+        <v>198366554.1125</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>125559882.918889</v>
+        <v>151174565.516481</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>204005826.350463</v>
+        <v>260004953.231838</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>288239057.621374</v>
+        <v>342022818.01092</v>
       </c>
       <c r="AB11" s="1" t="n">
-        <v>454780241.038142</v>
+        <v>1131120602.22813</v>
       </c>
       <c r="AC11" s="1" t="n">
-        <v>448064206.075311</v>
+        <v>495310638.515111</v>
       </c>
       <c r="AD11" s="1" t="n">
-        <v>481183481.127715</v>
+        <v>522456915.140241</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>741184197.438394</v>
+        <v>807894248.903148</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>864957830.566473</v>
+        <v>946046065.282087</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>1272227051.73564</v>
+        <v>1367309849.01262</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>1158579631.83913</v>
+        <v>1245848434.27414</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>1214684752.32944</v>
+        <v>1313288046.39746</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>1379520414.70585</v>
+        <v>1506817552.61555</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>1271648303.44681</v>
+        <v>1418929183.95456</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>1303195809.0701</v>
+        <v>1421593413.00761</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>1247897070.03002</v>
+        <v>1365530222.23049</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>1260579722.84834</v>
+        <v>1350723192.97541</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>1501719133.0325</v>
+        <v>1635951947.19454</v>
       </c>
       <c r="AP11" s="1" t="n">
-        <v>1441357745.12636</v>
+        <v>1647138934.75133</v>
       </c>
       <c r="AQ11" s="1" t="n">
-        <v>1863944419.28297</v>
+        <v>2224475101.86305</v>
       </c>
       <c r="AR11" s="1" t="n">
-        <v>2178754940.279</v>
+        <v>2613441422.39631</v>
       </c>
       <c r="AS11" s="1" t="n">
-        <v>1946838664.24076</v>
+        <v>2257083308.80633</v>
       </c>
       <c r="AT11" s="1" t="n">
-        <v>2073949330.997</v>
+        <v>2395897301.12255</v>
       </c>
       <c r="AU11" s="1" t="n">
-        <v>1976586193.87509</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+        <v>2167692081.0711</v>
+      </c>
+      <c r="AV11" s="1" t="n">
+        <v>2623244039.00331</v>
+      </c>
+      <c r="AW11" s="1" t="n">
+        <v>1302110122.46356</v>
+      </c>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -1934,6 +1990,8 @@
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3513,6 +3571,12 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -3527,109 +3591,115 @@
       <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>470217000</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>613189000</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>376708088</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>643377657</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>700881163</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>502622601</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>545411311</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>398478349</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>392324372</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>295327627</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>131314101</v>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>84352536</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>96138168</v>
-      </c>
-      <c r="AB2" s="2" t="n">
-        <v>174405665</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>96587514</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>144979633</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>166773973</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>86553592.6094</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>45095176.8403</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>32809287.8229</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>25641488.1585</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>29636707.579</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>14629241.4632</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>9385648.27</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>4758025.45</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>12418377.9126</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>172460226.4852</v>
-      </c>
-      <c r="AP2" s="2" t="n">
-        <v>21529588.8</v>
-      </c>
-      <c r="AQ2" s="2" t="n">
-        <v>126058246.4938</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>190075388.7949</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>264415210.0119</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>116836394.2881</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>119472291.0158</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>18242736.165</v>
-      </c>
-      <c r="AW2" s="2"/>
+      <c r="O2" s="12" t="n">
+        <v>1115655000</v>
+      </c>
+      <c r="P2" s="12" t="n">
+        <v>1856254000</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>1174474880</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>1568028954</v>
+      </c>
+      <c r="S2" s="12" t="n">
+        <v>1363717424</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>996995349</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>1013765798</v>
+      </c>
+      <c r="V2" s="12" t="n">
+        <v>1066163633</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>856496514</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>615289977</v>
+      </c>
+      <c r="Y2" s="12" t="n">
+        <v>365671303</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>372557428</v>
+      </c>
+      <c r="AA2" s="12" t="n">
+        <v>493699839</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>385294281</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>284076604</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>406527737</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>514368923.2969</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>597273208.8856</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>626681983.8943</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>995195105.7429</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>776620018.2946</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
+        <v>692588786.6646</v>
+      </c>
+      <c r="AK2" s="12" t="n">
+        <v>669537970.6962</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>634651794.3</v>
+      </c>
+      <c r="AM2" s="12" t="n">
+        <v>248363932.03</v>
+      </c>
+      <c r="AN2" s="12" t="n">
+        <v>1156908715.17</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>1048003514.4983</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>199326729.9779</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>1465823877.6687</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>442464629.1049</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>1278036656.8173</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>1495956974.8826</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>1308585792.3237</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>1360798527.3256</v>
+      </c>
+      <c r="AW2" s="12" t="n">
+        <v>1478977209.95</v>
+      </c>
+      <c r="AX2" s="12" t="n">
+        <v>108744592.04</v>
+      </c>
+      <c r="AY2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3644,109 +3714,115 @@
       <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>870175000</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>2804638000</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>2013448289</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>2821403783</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>2265470215</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>1981619408</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>2100722472</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>2279440437</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>2121439195</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>1760865299</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>1319455234</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>1464052245.3999</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>2047875021</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>1949960627</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>1831998615</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>1694056260</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>2353920665.9137</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>1980359355.5273</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>2544567839.1769</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>3759884620.3159</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>4313422164.5704</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>4545040507.6844</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>3738191265.0331</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>2727496060.8426</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>2209126824.8555</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>4427725617.9691</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>2904503808.9982</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>2737794939.2262</v>
-      </c>
-      <c r="AQ3" s="2" t="n">
-        <v>4670383470.6385</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>5400717299.9625</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>5903190043.2429</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>2424348269.0006</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>3297017055.74</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>1364573989.3057</v>
-      </c>
-      <c r="AW3" s="2"/>
+      <c r="O3" s="12" t="n">
+        <v>1120025000</v>
+      </c>
+      <c r="P3" s="12" t="n">
+        <v>2981127000</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>2223992743</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>2959858750</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>2358517153</v>
+      </c>
+      <c r="T3" s="12" t="n">
+        <v>2017408518</v>
+      </c>
+      <c r="U3" s="12" t="n">
+        <v>2230964453</v>
+      </c>
+      <c r="V3" s="12" t="n">
+        <v>3073986159</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>2877613852</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>2379267979</v>
+      </c>
+      <c r="Y3" s="12" t="n">
+        <v>1354702863</v>
+      </c>
+      <c r="Z3" s="12" t="n">
+        <v>1490995427.4</v>
+      </c>
+      <c r="AA3" s="12" t="n">
+        <v>2090283132</v>
+      </c>
+      <c r="AB3" s="12" t="n">
+        <v>1997872448</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <v>1838114930</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>1722646752</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>2393886882.91</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>2049531599.6261</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>2640295511.5117</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>3865414824.9638</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>4406562411.1806</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
+        <v>4606138568.5741</v>
+      </c>
+      <c r="AK3" s="12" t="n">
+        <v>3991826385.0534</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>2793951304.9646</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>2251323747.6617</v>
+      </c>
+      <c r="AN3" s="12" t="n">
+        <v>4456914414.9631</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>2917984105.9196</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>2710491353.1743</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>4667739676.9956</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>5397572682.8034</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>5899425613.3359</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>2417855774.7764</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>3326330296.493</v>
+      </c>
+      <c r="AV3" s="12" t="n">
+        <v>4930294728.3096</v>
+      </c>
+      <c r="AW3" s="12" t="n">
+        <v>3612203476.75</v>
+      </c>
+      <c r="AX3" s="12" t="n">
+        <v>1259163144.43</v>
+      </c>
+      <c r="AY3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3761,87 +3837,91 @@
       <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="n">
-        <v>1646000</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>4381869</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>1740006</v>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2" t="n">
-        <v>515860</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>1967241</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>2284529</v>
-      </c>
-      <c r="AB4" s="2" t="n">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12" t="n">
+        <v>2928000</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>5067810</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>1907682</v>
+      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12" t="n">
+        <v>601127</v>
+      </c>
+      <c r="Z4" s="12" t="n">
+        <v>1886957</v>
+      </c>
+      <c r="AA4" s="12" t="n">
+        <v>2291396</v>
+      </c>
+      <c r="AB4" s="12" t="n">
         <v>39045</v>
       </c>
-      <c r="AC4" s="2" t="n">
+      <c r="AC4" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2" t="n">
-        <v>18069560.821</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>34765493.9195</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12" t="n">
+        <v>18069560.8305</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>34796704.5093</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
         <v>61753314.1957</v>
       </c>
-      <c r="AK4" s="2" t="n">
+      <c r="AK4" s="12" t="n">
         <v>42583975.1672</v>
       </c>
-      <c r="AL4" s="2" t="n">
-        <v>15244269.02</v>
-      </c>
-      <c r="AM4" s="2" t="n">
+      <c r="AL4" s="12" t="n">
+        <v>15405066.44</v>
+      </c>
+      <c r="AM4" s="12" t="n">
         <v>19458021.21</v>
       </c>
-      <c r="AN4" s="2" t="n">
-        <v>19904780.1504</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>20195001.0522</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>25436188.194</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
-        <v>82680492.6903</v>
-      </c>
-      <c r="AR4" s="2" t="n">
-        <v>63555237.6695</v>
-      </c>
-      <c r="AS4" s="2" t="n">
-        <v>8978308.1108</v>
-      </c>
-      <c r="AT4" s="2" t="n">
+      <c r="AN4" s="12" t="n">
+        <v>19904780.16</v>
+      </c>
+      <c r="AO4" s="12" t="n">
+        <v>20195001.0637</v>
+      </c>
+      <c r="AP4" s="12" t="n">
+        <v>25436188.2019</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>82680492.1639</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>63555238.6255</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>8978308.1457</v>
+      </c>
+      <c r="AT4" s="12" t="n">
         <v>-67114.7813</v>
       </c>
-      <c r="AU4" s="2" t="n">
+      <c r="AU4" s="12" t="n">
         <v>-273230</v>
       </c>
-      <c r="AV4" s="2" t="n">
+      <c r="AV4" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AW4" s="2"/>
+      <c r="AW4" s="12" t="n">
+        <v>227098.22</v>
+      </c>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3856,101 +3936,113 @@
       <c r="N5" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2" t="n">
+      <c r="O5" s="12" t="n">
+        <v>74831000</v>
+      </c>
+      <c r="P5" s="12" t="n">
+        <v>68100000</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>1661000</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12" t="n">
         <v>343747860</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="12" t="n">
         <v>251594273</v>
       </c>
-      <c r="U5" s="2" t="n">
-        <v>300305090</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>388928264</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>552081489</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>925862742</v>
-      </c>
-      <c r="Y5" s="2" t="n">
+      <c r="U5" s="12" t="n">
+        <v>310476090</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>431242526</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>747389215</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>945575248.63</v>
+      </c>
+      <c r="Y5" s="12" t="n">
         <v>1373879916</v>
       </c>
-      <c r="Z5" s="2" t="n">
-        <v>1673010902</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>2485964870.8281</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>2671495105.0938</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>3382922949.586</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>3841746302.1563</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>3492627123.4842</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>4929029582.7202</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>5760262871.0691</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>5673422750.5378</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>5356951767.0357</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>5382146532.3794</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>6877002433.8232</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>7703008831.9635</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>6050847486.8789</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>4688499792.4277</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>6589081606.021</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>5413263859.5578</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
-        <v>8292286174.1145</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>8812437899.8142</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>12327236260.2732</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>8816866025.2676</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>9841067323.8948</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>4777405017.3465</v>
-      </c>
-      <c r="AW5" s="2"/>
+      <c r="Z5" s="12" t="n">
+        <v>1673010916</v>
+      </c>
+      <c r="AA5" s="12" t="n">
+        <v>2485964875.825</v>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>2671495076.0938</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>3382922964.5797</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>3841746261.1375</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>3492627141.4845</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>4929029621.6667</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>5760262873.5729</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>5673422751.5254</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>5356951769.0357</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
+        <v>5382146529.484</v>
+      </c>
+      <c r="AK5" s="12" t="n">
+        <v>6877002431.1045</v>
+      </c>
+      <c r="AL5" s="12" t="n">
+        <v>7706159819.8678</v>
+      </c>
+      <c r="AM5" s="12" t="n">
+        <v>6050847486.8864</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>4690777698.051</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>6589241607.8602</v>
+      </c>
+      <c r="AP5" s="12" t="n">
+        <v>5412284919.1813</v>
+      </c>
+      <c r="AQ5" s="12" t="n">
+        <v>8292286171.334</v>
+      </c>
+      <c r="AR5" s="12" t="n">
+        <v>8818804834.6125</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>12327842101.7369</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>8817318506.7272</v>
+      </c>
+      <c r="AU5" s="12" t="n">
+        <v>9841769591.9764</v>
+      </c>
+      <c r="AV5" s="12" t="n">
+        <v>7078919042.8608</v>
+      </c>
+      <c r="AW5" s="12" t="n">
+        <v>8459332539.52</v>
+      </c>
+      <c r="AX5" s="12" t="n">
+        <v>4080439773.84</v>
+      </c>
+      <c r="AY5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3965,109 +4057,115 @@
       <c r="N6" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="2" t="n">
-        <v>1050291000</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>1089935283</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>631694375</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>869349250</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>979194419</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>750161236</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>767046300</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>943164702</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>535512797</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>680139218</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>174884006</v>
-      </c>
-      <c r="Z6" s="2" t="n">
-        <v>140908592</v>
-      </c>
-      <c r="AA6" s="2" t="n">
-        <v>94328356</v>
-      </c>
-      <c r="AB6" s="2" t="n">
-        <v>240531682</v>
-      </c>
-      <c r="AC6" s="2" t="n">
-        <v>681116370</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>811706701</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>749900016.9308</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>1312275233.375</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>412560981.8175</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>1015779320.4784</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>842104342.5351</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>904761208.499</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>545958618.4628</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>358585745.9401</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>255807882.56</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>238984713.7822</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>303524608.2889</v>
-      </c>
-      <c r="AP6" s="2" t="n">
-        <v>439477681.4112</v>
-      </c>
-      <c r="AQ6" s="2" t="n">
-        <v>262401302.4723</v>
-      </c>
-      <c r="AR6" s="2" t="n">
-        <v>369485543.18</v>
-      </c>
-      <c r="AS6" s="2" t="n">
-        <v>868653871.1922</v>
-      </c>
-      <c r="AT6" s="2" t="n">
-        <v>741161034.1095</v>
-      </c>
-      <c r="AU6" s="2" t="n">
-        <v>555417316.8903</v>
-      </c>
-      <c r="AV6" s="2" t="n">
-        <v>251495995.4531</v>
-      </c>
-      <c r="AW6" s="2"/>
+      <c r="O6" s="12" t="n">
+        <v>1537947000</v>
+      </c>
+      <c r="P6" s="12" t="n">
+        <v>1178364054</v>
+      </c>
+      <c r="Q6" s="12" t="n">
+        <v>1143131913</v>
+      </c>
+      <c r="R6" s="12" t="n">
+        <v>1324178812</v>
+      </c>
+      <c r="S6" s="12" t="n">
+        <v>1155397737</v>
+      </c>
+      <c r="T6" s="12" t="n">
+        <v>1261613903</v>
+      </c>
+      <c r="U6" s="12" t="n">
+        <v>1232932704</v>
+      </c>
+      <c r="V6" s="12" t="n">
+        <v>1648126889</v>
+      </c>
+      <c r="W6" s="12" t="n">
+        <v>1581953225</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>1234527060</v>
+      </c>
+      <c r="Y6" s="12" t="n">
+        <v>617147940</v>
+      </c>
+      <c r="Z6" s="12" t="n">
+        <v>471485160</v>
+      </c>
+      <c r="AA6" s="12" t="n">
+        <v>570635098</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <v>771050128</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <v>1345768755</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>1270847130.88</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>1737043845.889</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>2022881039.4175</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>1330949888.1085</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>1697050135.4344</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>1868717023.9371</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
+        <v>1356142160.6198</v>
+      </c>
+      <c r="AK6" s="12" t="n">
+        <v>1107691777.9459</v>
+      </c>
+      <c r="AL6" s="12" t="n">
+        <v>956347031.4801</v>
+      </c>
+      <c r="AM6" s="12" t="n">
+        <v>749167838.79</v>
+      </c>
+      <c r="AN6" s="12" t="n">
+        <v>361203711.3748</v>
+      </c>
+      <c r="AO6" s="12" t="n">
+        <v>404292864.7068</v>
+      </c>
+      <c r="AP6" s="12" t="n">
+        <v>490110729.6058</v>
+      </c>
+      <c r="AQ6" s="12" t="n">
+        <v>256267426.8102</v>
+      </c>
+      <c r="AR6" s="12" t="n">
+        <v>369502208.8166</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>869546370.9401</v>
+      </c>
+      <c r="AT6" s="12" t="n">
+        <v>748629966.05</v>
+      </c>
+      <c r="AU6" s="12" t="n">
+        <v>555417311.4</v>
+      </c>
+      <c r="AV6" s="12" t="n">
+        <v>518221151.2745</v>
+      </c>
+      <c r="AW6" s="12" t="n">
+        <v>481613754.4</v>
+      </c>
+      <c r="AX6" s="12" t="n">
+        <v>537347628.09</v>
+      </c>
+      <c r="AY6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4082,97 +4180,105 @@
       <c r="N7" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="O7" s="12" t="n">
         <v>644651000</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="12" t="n">
         <v>696607000</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="12" t="n">
         <v>892321971</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" s="12" t="n">
         <v>655548015</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2" t="n">
+      <c r="S7" s="12" t="n">
+        <v>1871965</v>
+      </c>
+      <c r="T7" s="12" t="n">
         <v>358889</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="12" t="n">
         <v>2139723</v>
       </c>
-      <c r="V7" s="2" t="n">
-        <v>2448709</v>
-      </c>
-      <c r="W7" s="2" t="n">
+      <c r="V7" s="12" t="n">
+        <v>3493194</v>
+      </c>
+      <c r="W7" s="12" t="n">
         <v>1345350</v>
       </c>
-      <c r="X7" s="2" t="n">
-        <v>3348065</v>
-      </c>
-      <c r="Y7" s="2" t="n">
+      <c r="X7" s="12" t="n">
+        <v>5036188</v>
+      </c>
+      <c r="Y7" s="12" t="n">
         <v>990000</v>
       </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2" t="n">
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12" t="n">
         <v>218798</v>
       </c>
-      <c r="AE7" s="2" t="n">
+      <c r="AE7" s="12" t="n">
         <v>6157</v>
       </c>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2" t="n">
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12" t="n">
         <v>-745933</v>
       </c>
-      <c r="AH7" s="2" t="n">
-        <v>-295786.1964</v>
-      </c>
-      <c r="AI7" s="2" t="n">
-        <v>-30228499.5707</v>
-      </c>
-      <c r="AJ7" s="2" t="n">
-        <v>-13007394.6923</v>
-      </c>
-      <c r="AK7" s="2" t="n">
-        <v>-10944134.9533</v>
-      </c>
-      <c r="AL7" s="2" t="n">
-        <v>-5783369.5938</v>
-      </c>
-      <c r="AM7" s="2" t="n">
-        <v>-23540503.5603</v>
-      </c>
-      <c r="AN7" s="2" t="n">
-        <v>-8146830.669</v>
-      </c>
-      <c r="AO7" s="2" t="n">
-        <v>-3923592.7453</v>
-      </c>
-      <c r="AP7" s="2" t="n">
-        <v>-4292122.8531</v>
-      </c>
-      <c r="AQ7" s="2" t="n">
-        <v>-6766013.5279</v>
-      </c>
-      <c r="AR7" s="2" t="n">
-        <v>-7190592.4972</v>
-      </c>
-      <c r="AS7" s="2" t="n">
-        <v>-3421075.3877</v>
-      </c>
-      <c r="AT7" s="2" t="n">
-        <v>-1604203.0264</v>
-      </c>
-      <c r="AU7" s="2" t="n">
-        <v>4589772.1654</v>
-      </c>
-      <c r="AV7" s="2" t="n">
-        <v>-952017.4502</v>
-      </c>
-      <c r="AW7" s="2"/>
+      <c r="AH7" s="12" t="n">
+        <v>-1132672.9425</v>
+      </c>
+      <c r="AI7" s="12" t="n">
+        <v>-32769580.3662</v>
+      </c>
+      <c r="AJ7" s="12" t="n">
+        <v>-16076242.5979</v>
+      </c>
+      <c r="AK7" s="12" t="n">
+        <v>-12075892.289</v>
+      </c>
+      <c r="AL7" s="12" t="n">
+        <v>-6773278.8938</v>
+      </c>
+      <c r="AM7" s="12" t="n">
+        <v>-25666893.0703</v>
+      </c>
+      <c r="AN7" s="12" t="n">
+        <v>-9831291.4146</v>
+      </c>
+      <c r="AO7" s="12" t="n">
+        <v>-4282770.8739</v>
+      </c>
+      <c r="AP7" s="12" t="n">
+        <v>-4400682.5726</v>
+      </c>
+      <c r="AQ7" s="12" t="n">
+        <v>-9059400.856</v>
+      </c>
+      <c r="AR7" s="12" t="n">
+        <v>-9993785.8239</v>
+      </c>
+      <c r="AS7" s="12" t="n">
+        <v>-5716133.1105</v>
+      </c>
+      <c r="AT7" s="12" t="n">
+        <v>-3408517.6209</v>
+      </c>
+      <c r="AU7" s="12" t="n">
+        <v>4059865.367</v>
+      </c>
+      <c r="AV7" s="12" t="n">
+        <v>528349.2402</v>
+      </c>
+      <c r="AW7" s="12" t="n">
+        <v>-5374704.81</v>
+      </c>
+      <c r="AX7" s="12" t="n">
+        <v>2423429.55</v>
+      </c>
+      <c r="AY7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4187,107 +4293,115 @@
       <c r="N8" t="s">
         <v>152</v>
       </c>
-      <c r="O8" s="2" t="str">
+      <c r="O8" s="12" t="str">
         <f>Sum(O2:O7)</f>
       </c>
-      <c r="P8" s="2" t="str">
+      <c r="P8" s="12" t="str">
         <f>Sum(P2:P7)</f>
       </c>
-      <c r="Q8" s="2" t="str">
+      <c r="Q8" s="12" t="str">
         <f>Sum(Q2:Q7)</f>
       </c>
-      <c r="R8" s="2" t="str">
+      <c r="R8" s="12" t="str">
         <f>Sum(R2:R7)</f>
       </c>
-      <c r="S8" s="2" t="str">
+      <c r="S8" s="12" t="str">
         <f>Sum(S2:S7)</f>
       </c>
-      <c r="T8" s="2" t="str">
+      <c r="T8" s="12" t="str">
         <f>Sum(T2:T7)</f>
       </c>
-      <c r="U8" s="2" t="str">
+      <c r="U8" s="12" t="str">
         <f>Sum(U2:U7)</f>
       </c>
-      <c r="V8" s="2" t="str">
+      <c r="V8" s="12" t="str">
         <f>Sum(V2:V7)</f>
       </c>
-      <c r="W8" s="2" t="str">
+      <c r="W8" s="12" t="str">
         <f>Sum(W2:W7)</f>
       </c>
-      <c r="X8" s="2" t="str">
+      <c r="X8" s="12" t="str">
         <f>Sum(X2:X7)</f>
       </c>
-      <c r="Y8" s="2" t="str">
+      <c r="Y8" s="12" t="str">
         <f>Sum(Y2:Y7)</f>
       </c>
-      <c r="Z8" s="2" t="str">
+      <c r="Z8" s="12" t="str">
         <f>Sum(Z2:Z7)</f>
       </c>
-      <c r="AA8" s="2" t="str">
+      <c r="AA8" s="12" t="str">
         <f>Sum(AA2:AA7)</f>
       </c>
-      <c r="AB8" s="2" t="str">
+      <c r="AB8" s="12" t="str">
         <f>Sum(AB2:AB7)</f>
       </c>
-      <c r="AC8" s="2" t="str">
+      <c r="AC8" s="12" t="str">
         <f>Sum(AC2:AC7)</f>
       </c>
-      <c r="AD8" s="2" t="str">
+      <c r="AD8" s="12" t="str">
         <f>Sum(AD2:AD7)</f>
       </c>
-      <c r="AE8" s="2" t="str">
+      <c r="AE8" s="12" t="str">
         <f>Sum(AE2:AE7)</f>
       </c>
-      <c r="AF8" s="2" t="str">
+      <c r="AF8" s="12" t="str">
         <f>Sum(AF2:AF7)</f>
       </c>
-      <c r="AG8" s="2" t="str">
+      <c r="AG8" s="12" t="str">
         <f>Sum(AG2:AG7)</f>
       </c>
-      <c r="AH8" s="2" t="str">
+      <c r="AH8" s="12" t="str">
         <f>Sum(AH2:AH7)</f>
       </c>
-      <c r="AI8" s="2" t="str">
+      <c r="AI8" s="12" t="str">
         <f>Sum(AI2:AI7)</f>
       </c>
-      <c r="AJ8" s="2" t="str">
+      <c r="AJ8" s="12" t="str">
         <f>Sum(AJ2:AJ7)</f>
       </c>
-      <c r="AK8" s="2" t="str">
+      <c r="AK8" s="12" t="str">
         <f>Sum(AK2:AK7)</f>
       </c>
-      <c r="AL8" s="2" t="str">
+      <c r="AL8" s="12" t="str">
         <f>Sum(AL2:AL7)</f>
       </c>
-      <c r="AM8" s="2" t="str">
+      <c r="AM8" s="12" t="str">
         <f>Sum(AM2:AM7)</f>
       </c>
-      <c r="AN8" s="2" t="str">
+      <c r="AN8" s="12" t="str">
         <f>Sum(AN2:AN7)</f>
       </c>
-      <c r="AO8" s="2" t="str">
+      <c r="AO8" s="12" t="str">
         <f>Sum(AO2:AO7)</f>
       </c>
-      <c r="AP8" s="2" t="str">
+      <c r="AP8" s="12" t="str">
         <f>Sum(AP2:AP7)</f>
       </c>
-      <c r="AQ8" s="2" t="str">
+      <c r="AQ8" s="12" t="str">
         <f>Sum(AQ2:AQ7)</f>
       </c>
-      <c r="AR8" s="2" t="str">
+      <c r="AR8" s="12" t="str">
         <f>Sum(AR2:AR7)</f>
       </c>
-      <c r="AS8" s="2" t="str">
+      <c r="AS8" s="12" t="str">
         <f>Sum(AS2:AS7)</f>
       </c>
-      <c r="AT8" s="2" t="str">
+      <c r="AT8" s="12" t="str">
         <f>Sum(AT2:AT7)</f>
       </c>
-      <c r="AU8" s="2" t="str">
+      <c r="AU8" s="12" t="str">
         <f>Sum(AU2:AU7)</f>
       </c>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
+      <c r="AV8" s="12" t="str">
+        <f>Sum(AV2:AV7)</f>
+      </c>
+      <c r="AW8" s="12" t="str">
+        <f>Sum(AW2:AW7)</f>
+      </c>
+      <c r="AX8" s="12" t="str">
+        <f>Sum(AX2:AX7)</f>
+      </c>
+      <c r="AY8" s="12"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -4404,6 +4518,12 @@
       <c r="AV11" t="s">
         <v>34</v>
       </c>
+      <c r="AW11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4418,109 +4538,115 @@
       <c r="N12" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="2" t="n">
-        <v>934571130.627386</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>1176758470.48753</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>705305523.011573</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>1176939982.65832</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>1254790514.8722</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>881181458.043662</v>
-      </c>
-      <c r="U12" s="2" t="n">
-        <v>938557617.224607</v>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>673742997.656689</v>
-      </c>
-      <c r="W12" s="2" t="n">
-        <v>655157249.146672</v>
-      </c>
-      <c r="X12" s="2" t="n">
-        <v>487106851.15807</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>212168138.944124</v>
-      </c>
-      <c r="Z12" s="2" t="n">
-        <v>133064197.224218</v>
-      </c>
-      <c r="AA12" s="2" t="n">
-        <v>149299290.864394</v>
-      </c>
-      <c r="AB12" s="2" t="n">
-        <v>265766038.285719</v>
-      </c>
-      <c r="AC12" s="2" t="n">
-        <v>143671930.484141</v>
-      </c>
-      <c r="AD12" s="2" t="n">
-        <v>209300529.473501</v>
-      </c>
-      <c r="AE12" s="2" t="n">
-        <v>233172492.606925</v>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>117783595.379774</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <v>60112581.9535597</v>
-      </c>
-      <c r="AH12" s="2" t="n">
-        <v>43295332.894055</v>
-      </c>
-      <c r="AI12" s="2" t="n">
-        <v>33544905.4906667</v>
-      </c>
-      <c r="AJ12" s="2" t="n">
-        <v>38005606.7588175</v>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <v>18422603.7710927</v>
-      </c>
-      <c r="AL12" s="2" t="n">
-        <v>11606939.8616877</v>
-      </c>
-      <c r="AM12" s="2" t="n">
-        <v>5772429.14299236</v>
-      </c>
-      <c r="AN12" s="2" t="n">
-        <v>14895193.1742932</v>
-      </c>
-      <c r="AO12" s="2" t="n">
-        <v>205156965.172839</v>
-      </c>
-      <c r="AP12" s="2" t="n">
-        <v>25162144.9553245</v>
-      </c>
-      <c r="AQ12" s="2" t="n">
-        <v>143947361.074787</v>
-      </c>
-      <c r="AR12" s="2" t="n">
-        <v>212879702.197837</v>
-      </c>
-      <c r="AS12" s="2" t="n">
-        <v>292239840.398192</v>
-      </c>
-      <c r="AT12" s="2" t="n">
-        <v>124931707.047949</v>
-      </c>
-      <c r="AU12" s="2" t="n">
-        <v>119472291.0158</v>
-      </c>
-      <c r="AV12" s="2" t="n">
-        <v>17399892.1906431</v>
-      </c>
-      <c r="AW12" s="2"/>
+      <c r="O12" s="12" t="n">
+        <v>2307489084.6731</v>
+      </c>
+      <c r="P12" s="12" t="n">
+        <v>3706738520.80019</v>
+      </c>
+      <c r="Q12" s="12" t="n">
+        <v>2288033013.46331</v>
+      </c>
+      <c r="R12" s="12" t="n">
+        <v>2984707537.51604</v>
+      </c>
+      <c r="S12" s="12" t="n">
+        <v>2540347719.06831</v>
+      </c>
+      <c r="T12" s="12" t="n">
+        <v>1818637512.62944</v>
+      </c>
+      <c r="U12" s="12" t="n">
+        <v>1815054135.0371</v>
+      </c>
+      <c r="V12" s="12" t="n">
+        <v>1875581419.94677</v>
+      </c>
+      <c r="W12" s="12" t="n">
+        <v>1488080409.16655</v>
+      </c>
+      <c r="X12" s="12" t="n">
+        <v>1055932060.37898</v>
+      </c>
+      <c r="Y12" s="12" t="n">
+        <v>614756864.59367</v>
+      </c>
+      <c r="Z12" s="12" t="n">
+        <v>611511163.241583</v>
+      </c>
+      <c r="AA12" s="12" t="n">
+        <v>797801686.066909</v>
+      </c>
+      <c r="AB12" s="12" t="n">
+        <v>610895867.670476</v>
+      </c>
+      <c r="AC12" s="12" t="n">
+        <v>439675808.948696</v>
+      </c>
+      <c r="AD12" s="12" t="n">
+        <v>610616966.683995</v>
+      </c>
+      <c r="AE12" s="12" t="n">
+        <v>748290006.455846</v>
+      </c>
+      <c r="AF12" s="12" t="n">
+        <v>845617497.403372</v>
+      </c>
+      <c r="AG12" s="12" t="n">
+        <v>869208836.984615</v>
+      </c>
+      <c r="AH12" s="12" t="n">
+        <v>1366364486.42919</v>
+      </c>
+      <c r="AI12" s="12" t="n">
+        <v>1057114246.19173</v>
+      </c>
+      <c r="AJ12" s="12" t="n">
+        <v>924183572.827388</v>
+      </c>
+      <c r="AK12" s="12" t="n">
+        <v>877501611.704994</v>
+      </c>
+      <c r="AL12" s="12" t="n">
+        <v>816956074.066299</v>
+      </c>
+      <c r="AM12" s="12" t="n">
+        <v>313978719.795805</v>
+      </c>
+      <c r="AN12" s="12" t="n">
+        <v>1447558905.88824</v>
+      </c>
+      <c r="AO12" s="12" t="n">
+        <v>1300892709.67585</v>
+      </c>
+      <c r="AP12" s="12" t="n">
+        <v>243318139.330764</v>
+      </c>
+      <c r="AQ12" s="12" t="n">
+        <v>1750470756.07476</v>
+      </c>
+      <c r="AR12" s="12" t="n">
+        <v>518794134.060459</v>
+      </c>
+      <c r="AS12" s="12" t="n">
+        <v>1479187775.42954</v>
+      </c>
+      <c r="AT12" s="12" t="n">
+        <v>1673798972.71908</v>
+      </c>
+      <c r="AU12" s="12" t="n">
+        <v>1368449136.21969</v>
+      </c>
+      <c r="AV12" s="12" t="n">
+        <v>1360798527.3256</v>
+      </c>
+      <c r="AW12" s="12" t="n">
+        <v>1440507046.0639</v>
+      </c>
+      <c r="AX12" s="12" t="n">
+        <v>103641882.814008</v>
+      </c>
+      <c r="AY12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4535,109 +4661,115 @@
       <c r="N13" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="2" t="n">
-        <v>1729500280.92069</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>5382323432.33688</v>
-      </c>
-      <c r="Q13" s="2" t="n">
-        <v>3769752346.09219</v>
-      </c>
-      <c r="R13" s="2" t="n">
-        <v>5161234437.20418</v>
-      </c>
-      <c r="S13" s="2" t="n">
-        <v>4055880921.86675</v>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>3474110148.95659</v>
-      </c>
-      <c r="U13" s="2" t="n">
-        <v>3614976510.39823</v>
-      </c>
-      <c r="V13" s="2" t="n">
-        <v>3854053894.91878</v>
-      </c>
-      <c r="W13" s="2" t="n">
-        <v>3542671234.37371</v>
-      </c>
-      <c r="X13" s="2" t="n">
-        <v>2904332248.97515</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>2131883470.89901</v>
-      </c>
-      <c r="Z13" s="2" t="n">
-        <v>2309508948.59227</v>
-      </c>
-      <c r="AA13" s="2" t="n">
-        <v>3180279953.05887</v>
-      </c>
-      <c r="AB13" s="2" t="n">
-        <v>2971424756.47753</v>
-      </c>
-      <c r="AC13" s="2" t="n">
-        <v>2725060069.99334</v>
-      </c>
-      <c r="AD13" s="2" t="n">
-        <v>2445632292.19858</v>
-      </c>
-      <c r="AE13" s="2" t="n">
-        <v>3291098360.23425</v>
-      </c>
-      <c r="AF13" s="2" t="n">
-        <v>2694906566.0464</v>
-      </c>
-      <c r="AG13" s="2" t="n">
-        <v>3391949061.66147</v>
-      </c>
-      <c r="AH13" s="2" t="n">
-        <v>4961566284.47736</v>
-      </c>
-      <c r="AI13" s="2" t="n">
-        <v>5642938426.87504</v>
-      </c>
-      <c r="AJ13" s="2" t="n">
-        <v>5828482188.09392</v>
-      </c>
-      <c r="AK13" s="2" t="n">
-        <v>4707504259.15799</v>
-      </c>
-      <c r="AL13" s="2" t="n">
-        <v>3373009710.19555</v>
-      </c>
-      <c r="AM13" s="2" t="n">
-        <v>2680109259.2647</v>
-      </c>
-      <c r="AN13" s="2" t="n">
-        <v>5310824720.15125</v>
-      </c>
-      <c r="AO13" s="2" t="n">
-        <v>3455168759.37861</v>
-      </c>
-      <c r="AP13" s="2" t="n">
-        <v>3199726374.65159</v>
-      </c>
-      <c r="AQ13" s="2" t="n">
-        <v>5333164584.66511</v>
-      </c>
-      <c r="AR13" s="2" t="n">
-        <v>6048668887.43449</v>
-      </c>
-      <c r="AS13" s="2" t="n">
-        <v>6524387594.79783</v>
-      </c>
-      <c r="AT13" s="2" t="n">
-        <v>2592325529.81853</v>
-      </c>
-      <c r="AU13" s="2" t="n">
-        <v>3297017055.74</v>
-      </c>
-      <c r="AV13" s="2" t="n">
-        <v>1301528459.61937</v>
-      </c>
-      <c r="AW13" s="2"/>
+      <c r="O13" s="12" t="n">
+        <v>2316527476.73877</v>
+      </c>
+      <c r="P13" s="12" t="n">
+        <v>5952988269.0071</v>
+      </c>
+      <c r="Q13" s="12" t="n">
+        <v>4332633165.97015</v>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>5634023975.49593</v>
+      </c>
+      <c r="S13" s="12" t="n">
+        <v>4393471524.64558</v>
+      </c>
+      <c r="T13" s="12" t="n">
+        <v>3679991900.47673</v>
+      </c>
+      <c r="U13" s="12" t="n">
+        <v>3994336032.56995</v>
+      </c>
+      <c r="V13" s="12" t="n">
+        <v>5407717114.46469</v>
+      </c>
+      <c r="W13" s="12" t="n">
+        <v>4999577614.51845</v>
+      </c>
+      <c r="X13" s="12" t="n">
+        <v>4083189119.23246</v>
+      </c>
+      <c r="Y13" s="12" t="n">
+        <v>2277490406.49752</v>
+      </c>
+      <c r="Z13" s="12" t="n">
+        <v>2447301488.77143</v>
+      </c>
+      <c r="AA13" s="12" t="n">
+        <v>3377824490.37181</v>
+      </c>
+      <c r="AB13" s="12" t="n">
+        <v>3167687876.00016</v>
+      </c>
+      <c r="AC13" s="12" t="n">
+        <v>2844918086.91302</v>
+      </c>
+      <c r="AD13" s="12" t="n">
+        <v>2587467566.51017</v>
+      </c>
+      <c r="AE13" s="12" t="n">
+        <v>3482561931.5911</v>
+      </c>
+      <c r="AF13" s="12" t="n">
+        <v>2901720278.66214</v>
+      </c>
+      <c r="AG13" s="12" t="n">
+        <v>3662093772.97795</v>
+      </c>
+      <c r="AH13" s="12" t="n">
+        <v>5307065430.35582</v>
+      </c>
+      <c r="AI13" s="12" t="n">
+        <v>5998094038.08718</v>
+      </c>
+      <c r="AJ13" s="12" t="n">
+        <v>6146385389.43649</v>
+      </c>
+      <c r="AK13" s="12" t="n">
+        <v>5231718348.83174</v>
+      </c>
+      <c r="AL13" s="12" t="n">
+        <v>3596516246.76151</v>
+      </c>
+      <c r="AM13" s="12" t="n">
+        <v>2846096622.64218</v>
+      </c>
+      <c r="AN13" s="12" t="n">
+        <v>5576625078.16227</v>
+      </c>
+      <c r="AO13" s="12" t="n">
+        <v>3622110229.42802</v>
+      </c>
+      <c r="AP13" s="12" t="n">
+        <v>3308696795.45547</v>
+      </c>
+      <c r="AQ13" s="12" t="n">
+        <v>5574163394.40839</v>
+      </c>
+      <c r="AR13" s="12" t="n">
+        <v>6328707114.21205</v>
+      </c>
+      <c r="AS13" s="12" t="n">
+        <v>6827940499.79259</v>
+      </c>
+      <c r="AT13" s="12" t="n">
+        <v>2705294724.34943</v>
+      </c>
+      <c r="AU13" s="12" t="n">
+        <v>3478498580.46697</v>
+      </c>
+      <c r="AV13" s="12" t="n">
+        <v>4930294728.3096</v>
+      </c>
+      <c r="AW13" s="12" t="n">
+        <v>3518245261.02793</v>
+      </c>
+      <c r="AX13" s="12" t="n">
+        <v>1200078427.90683</v>
+      </c>
+      <c r="AY13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -4652,87 +4784,91 @@
       <c r="N14" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2" t="n">
-        <v>3158804.94011223</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>8204114.81797863</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>3183017.95094102</v>
-      </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2" t="n">
-        <v>833490.503473925</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>3103277.70597873</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>3547795.49844494</v>
-      </c>
-      <c r="AB14" s="2" t="n">
-        <v>59498.2678163917</v>
-      </c>
-      <c r="AC14" s="2" t="n">
+      <c r="O14" s="12"/>
+      <c r="P14" s="12" t="n">
+        <v>5846899.39464263</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>9872766.7857481</v>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>3631229.40431601</v>
+      </c>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12" t="n">
+        <v>1010598.71723814</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>3097227.92604432</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>3702815.85659373</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>61907.0417844944</v>
+      </c>
+      <c r="AC14" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2" t="n">
-        <v>23844700.7816038</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>45481182.7089444</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>79191393.6161551</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>53625999.9178231</v>
-      </c>
-      <c r="AL14" s="2" t="n">
-        <v>18852114.2770811</v>
-      </c>
-      <c r="AM14" s="2" t="n">
-        <v>23606441.3437653</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>23874740.1245716</v>
-      </c>
-      <c r="AO14" s="2" t="n">
-        <v>24023771.8108714</v>
-      </c>
-      <c r="AP14" s="2" t="n">
-        <v>29727881.0289373</v>
-      </c>
-      <c r="AQ14" s="2" t="n">
-        <v>94413805.2540442</v>
-      </c>
-      <c r="AR14" s="2" t="n">
-        <v>71180283.5389437</v>
-      </c>
-      <c r="AS14" s="2" t="n">
-        <v>9923102.87001986</v>
-      </c>
-      <c r="AT14" s="2" t="n">
-        <v>-71765.0030801471</v>
-      </c>
-      <c r="AU14" s="2" t="n">
-        <v>-273230</v>
-      </c>
-      <c r="AV14" s="2" t="n">
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12" t="n">
+        <v>24808809.912441</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>47364336.7294088</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
+        <v>82403006.8724636</v>
+      </c>
+      <c r="AK14" s="12" t="n">
+        <v>55810885.2335408</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>19830185.1701751</v>
+      </c>
+      <c r="AM14" s="12" t="n">
+        <v>24598598.272061</v>
+      </c>
+      <c r="AN14" s="12" t="n">
+        <v>24905458.3240145</v>
+      </c>
+      <c r="AO14" s="12" t="n">
+        <v>25068169.4213975</v>
+      </c>
+      <c r="AP14" s="12" t="n">
+        <v>31049954.944024</v>
+      </c>
+      <c r="AQ14" s="12" t="n">
+        <v>98736134.5627407</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>74519143.0429686</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>10391410.5924251</v>
+      </c>
+      <c r="AT14" s="12" t="n">
+        <v>-75093.5046130063</v>
+      </c>
+      <c r="AU14" s="12" t="n">
+        <v>-285729.342074972</v>
+      </c>
+      <c r="AV14" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AW14" s="2"/>
+      <c r="AW14" s="12" t="n">
+        <v>221191.093316191</v>
+      </c>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4747,101 +4883,113 @@
       <c r="N15" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2" t="n">
-        <v>615413249.785993</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>441086827.127328</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>516772615.50379</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>657595814.473655</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>921941677.480181</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>1527097513.50217</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>2219819065.05554</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>2639136452.5424</v>
-      </c>
-      <c r="AA15" s="2" t="n">
-        <v>3860618524.87589</v>
-      </c>
-      <c r="AB15" s="2" t="n">
-        <v>4070926654.7074</v>
-      </c>
-      <c r="AC15" s="2" t="n">
-        <v>5032027958.04565</v>
-      </c>
-      <c r="AD15" s="2" t="n">
-        <v>5546155128.86681</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>4883163466.57621</v>
-      </c>
-      <c r="AF15" s="2" t="n">
-        <v>6707506973.23454</v>
-      </c>
-      <c r="AG15" s="2" t="n">
-        <v>7678521255.99703</v>
-      </c>
-      <c r="AH15" s="2" t="n">
-        <v>7486682672.27044</v>
-      </c>
-      <c r="AI15" s="2" t="n">
-        <v>7008112775.3774</v>
-      </c>
-      <c r="AJ15" s="2" t="n">
-        <v>6901972632.50949</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <v>8660209163.26119</v>
-      </c>
-      <c r="AL15" s="2" t="n">
-        <v>9526071901.97308</v>
-      </c>
-      <c r="AM15" s="2" t="n">
-        <v>7340878845.66945</v>
-      </c>
-      <c r="AN15" s="2" t="n">
-        <v>5623609669.26176</v>
-      </c>
-      <c r="AO15" s="2" t="n">
-        <v>7838305753.83973</v>
-      </c>
-      <c r="AP15" s="2" t="n">
-        <v>6326610841.52302</v>
-      </c>
-      <c r="AQ15" s="2" t="n">
-        <v>9469056925.99361</v>
-      </c>
-      <c r="AR15" s="2" t="n">
-        <v>9869711000.68963</v>
-      </c>
-      <c r="AS15" s="2" t="n">
-        <v>13624441487.6547</v>
-      </c>
-      <c r="AT15" s="2" t="n">
-        <v>9427765466.92812</v>
-      </c>
-      <c r="AU15" s="2" t="n">
-        <v>9841067323.8948</v>
-      </c>
-      <c r="AV15" s="2" t="n">
-        <v>4556681163.45126</v>
-      </c>
-      <c r="AW15" s="2"/>
+      <c r="O15" s="12" t="n">
+        <v>154771605.644373</v>
+      </c>
+      <c r="P15" s="12" t="n">
+        <v>135988336.330315</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>3235848.54821463</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12" t="n">
+        <v>640337269.816692</v>
+      </c>
+      <c r="T15" s="12" t="n">
+        <v>458937730.551573</v>
+      </c>
+      <c r="U15" s="12" t="n">
+        <v>555878795.769603</v>
+      </c>
+      <c r="V15" s="12" t="n">
+        <v>758636333.318371</v>
+      </c>
+      <c r="W15" s="12" t="n">
+        <v>1298516959.129</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>1622752292.1753</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>2309730357.72614</v>
+      </c>
+      <c r="Z15" s="12" t="n">
+        <v>2746059464.84853</v>
+      </c>
+      <c r="AA15" s="12" t="n">
+        <v>4017232360.15943</v>
+      </c>
+      <c r="AB15" s="12" t="n">
+        <v>4235737157.19836</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>5235874303.33651</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>5770419174.97836</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>5080979561.31918</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>6978504361.64336</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>7989493110.92442</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>7789390562.16214</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>7291738427.81566</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
+        <v>7181882676.80957</v>
+      </c>
+      <c r="AK15" s="12" t="n">
+        <v>9013052255.60019</v>
+      </c>
+      <c r="AL15" s="12" t="n">
+        <v>9919760928.92085</v>
+      </c>
+      <c r="AM15" s="12" t="n">
+        <v>7649409204.00139</v>
+      </c>
+      <c r="AN15" s="12" t="n">
+        <v>5869241836.73204</v>
+      </c>
+      <c r="AO15" s="12" t="n">
+        <v>8179262999.95439</v>
+      </c>
+      <c r="AP15" s="12" t="n">
+        <v>6606776202.11377</v>
+      </c>
+      <c r="AQ15" s="12" t="n">
+        <v>9902556961.3514</v>
+      </c>
+      <c r="AR15" s="12" t="n">
+        <v>10340135497.105</v>
+      </c>
+      <c r="AS15" s="12" t="n">
+        <v>14268130133.0793</v>
+      </c>
+      <c r="AT15" s="12" t="n">
+        <v>9865536847.97993</v>
+      </c>
+      <c r="AU15" s="12" t="n">
+        <v>10291997036.8147</v>
+      </c>
+      <c r="AV15" s="12" t="n">
+        <v>7078919042.8608</v>
+      </c>
+      <c r="AW15" s="12" t="n">
+        <v>8239294051.45341</v>
+      </c>
+      <c r="AX15" s="12" t="n">
+        <v>3888970043.81042</v>
+      </c>
+      <c r="AY15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4856,109 +5004,115 @@
       <c r="N16" t="s">
         <v>45</v>
       </c>
-      <c r="O16" s="2" t="n">
-        <v>2087486516.56101</v>
-      </c>
-      <c r="P16" s="2" t="n">
-        <v>2091672512.9666</v>
-      </c>
-      <c r="Q16" s="2" t="n">
-        <v>1182712943.35163</v>
-      </c>
-      <c r="R16" s="2" t="n">
-        <v>1590313061.21192</v>
-      </c>
-      <c r="S16" s="2" t="n">
-        <v>1753055915.95275</v>
-      </c>
-      <c r="T16" s="2" t="n">
-        <v>1315158073.65438</v>
-      </c>
-      <c r="U16" s="2" t="n">
-        <v>1319952727.61945</v>
-      </c>
-      <c r="V16" s="2" t="n">
-        <v>1594692949.32623</v>
-      </c>
-      <c r="W16" s="2" t="n">
-        <v>894272994.504048</v>
-      </c>
-      <c r="X16" s="2" t="n">
-        <v>1121806571.88937</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>282565343.718212</v>
-      </c>
-      <c r="Z16" s="2" t="n">
-        <v>222280082.681508</v>
-      </c>
-      <c r="AA16" s="2" t="n">
-        <v>146488714.650815</v>
-      </c>
-      <c r="AB16" s="2" t="n">
-        <v>366531397.97575</v>
-      </c>
-      <c r="AC16" s="2" t="n">
-        <v>1013146520.80444</v>
-      </c>
-      <c r="AD16" s="2" t="n">
-        <v>1171824198.89619</v>
-      </c>
-      <c r="AE16" s="2" t="n">
-        <v>1048461297.69739</v>
-      </c>
-      <c r="AF16" s="2" t="n">
-        <v>1785766372.65953</v>
-      </c>
-      <c r="AG16" s="2" t="n">
-        <v>549950295.530996</v>
-      </c>
-      <c r="AH16" s="2" t="n">
-        <v>1340428480.63022</v>
-      </c>
-      <c r="AI16" s="2" t="n">
-        <v>1101664240.74165</v>
-      </c>
-      <c r="AJ16" s="2" t="n">
-        <v>1160250294.6451</v>
-      </c>
-      <c r="AK16" s="2" t="n">
-        <v>687525688.099024</v>
-      </c>
-      <c r="AL16" s="2" t="n">
-        <v>443451860.61241</v>
-      </c>
-      <c r="AM16" s="2" t="n">
-        <v>310345728.877199</v>
-      </c>
-      <c r="AN16" s="2" t="n">
-        <v>286649633.514313</v>
-      </c>
-      <c r="AO16" s="2" t="n">
-        <v>361069846.427282</v>
-      </c>
-      <c r="AP16" s="2" t="n">
-        <v>513628069.120323</v>
-      </c>
-      <c r="AQ16" s="2" t="n">
-        <v>299639064.353734</v>
-      </c>
-      <c r="AR16" s="2" t="n">
-        <v>413814607.442092</v>
-      </c>
-      <c r="AS16" s="2" t="n">
-        <v>960063033.692562</v>
-      </c>
-      <c r="AT16" s="2" t="n">
-        <v>792514299.614551</v>
-      </c>
-      <c r="AU16" s="2" t="n">
-        <v>555417316.8903</v>
-      </c>
-      <c r="AV16" s="2" t="n">
-        <v>239876472.897639</v>
-      </c>
-      <c r="AW16" s="2"/>
+      <c r="O16" s="12" t="n">
+        <v>3180908000.50709</v>
+      </c>
+      <c r="P16" s="12" t="n">
+        <v>2353065599.04414</v>
+      </c>
+      <c r="Q16" s="12" t="n">
+        <v>2226972752.01617</v>
+      </c>
+      <c r="R16" s="12" t="n">
+        <v>2520544324.84378</v>
+      </c>
+      <c r="S16" s="12" t="n">
+        <v>2152287529.76953</v>
+      </c>
+      <c r="T16" s="12" t="n">
+        <v>2301333073.17028</v>
+      </c>
+      <c r="U16" s="12" t="n">
+        <v>2207452260.7022</v>
+      </c>
+      <c r="V16" s="12" t="n">
+        <v>2899363732.77429</v>
+      </c>
+      <c r="W16" s="12" t="n">
+        <v>2748491749.65859</v>
+      </c>
+      <c r="X16" s="12" t="n">
+        <v>2118637960.61706</v>
+      </c>
+      <c r="Y16" s="12" t="n">
+        <v>1037532695.27098</v>
+      </c>
+      <c r="Z16" s="12" t="n">
+        <v>773889921.321724</v>
+      </c>
+      <c r="AA16" s="12" t="n">
+        <v>922126375.887588</v>
+      </c>
+      <c r="AB16" s="12" t="n">
+        <v>1222523562.35205</v>
+      </c>
+      <c r="AC16" s="12" t="n">
+        <v>2082895802.33262</v>
+      </c>
+      <c r="AD16" s="12" t="n">
+        <v>1908850859.48515</v>
+      </c>
+      <c r="AE16" s="12" t="n">
+        <v>2527004435.4995</v>
+      </c>
+      <c r="AF16" s="12" t="n">
+        <v>2863988500.82124</v>
+      </c>
+      <c r="AG16" s="12" t="n">
+        <v>1846029460.01192</v>
+      </c>
+      <c r="AH16" s="12" t="n">
+        <v>2329984365.24311</v>
+      </c>
+      <c r="AI16" s="12" t="n">
+        <v>2543647268.38082</v>
+      </c>
+      <c r="AJ16" s="12" t="n">
+        <v>1809622580.37598</v>
+      </c>
+      <c r="AK16" s="12" t="n">
+        <v>1451749359.9492</v>
+      </c>
+      <c r="AL16" s="12" t="n">
+        <v>1231058547.8525</v>
+      </c>
+      <c r="AM16" s="12" t="n">
+        <v>947089043.940011</v>
+      </c>
+      <c r="AN16" s="12" t="n">
+        <v>451948924.218836</v>
+      </c>
+      <c r="AO16" s="12" t="n">
+        <v>501851027.210361</v>
+      </c>
+      <c r="AP16" s="12" t="n">
+        <v>598278167.744729</v>
+      </c>
+      <c r="AQ16" s="12" t="n">
+        <v>306031743.103568</v>
+      </c>
+      <c r="AR16" s="12" t="n">
+        <v>433244977.896272</v>
+      </c>
+      <c r="AS16" s="12" t="n">
+        <v>1006404906.46551</v>
+      </c>
+      <c r="AT16" s="12" t="n">
+        <v>837628413.891746</v>
+      </c>
+      <c r="AU16" s="12" t="n">
+        <v>580825762.044328</v>
+      </c>
+      <c r="AV16" s="12" t="n">
+        <v>518221151.2745</v>
+      </c>
+      <c r="AW16" s="12" t="n">
+        <v>469086340.226936</v>
+      </c>
+      <c r="AX16" s="12" t="n">
+        <v>512133236.753547</v>
+      </c>
+      <c r="AY16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4973,97 +5127,105 @@
       <c r="N17" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="2" t="n">
-        <v>1281264211.90658</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>1336844248.4306</v>
-      </c>
-      <c r="Q17" s="2" t="n">
-        <v>1670682511.20447</v>
-      </c>
-      <c r="R17" s="2" t="n">
-        <v>1199203393.23471</v>
-      </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2" t="n">
-        <v>629192.423234927</v>
-      </c>
-      <c r="U17" s="2" t="n">
-        <v>3682089.60815022</v>
-      </c>
-      <c r="V17" s="2" t="n">
-        <v>4140251.39932738</v>
-      </c>
-      <c r="W17" s="2" t="n">
-        <v>2246650.64942607</v>
-      </c>
-      <c r="X17" s="2" t="n">
-        <v>5522224.30454345</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>1599572.74927148</v>
-      </c>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2" t="n">
-        <v>315868.762391908</v>
-      </c>
-      <c r="AE17" s="2" t="n">
-        <v>8608.31586101771</v>
-      </c>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2" t="n">
-        <v>-994340.453595754</v>
-      </c>
-      <c r="AH17" s="2" t="n">
-        <v>-390321.237929034</v>
-      </c>
-      <c r="AI17" s="2" t="n">
-        <v>-39545760.9541141</v>
-      </c>
-      <c r="AJ17" s="2" t="n">
-        <v>-16680460.416007</v>
-      </c>
-      <c r="AK17" s="2" t="n">
-        <v>-13781949.1440611</v>
-      </c>
-      <c r="AL17" s="2" t="n">
-        <v>-7152113.64650356</v>
-      </c>
-      <c r="AM17" s="2" t="n">
-        <v>-28559302.6393314</v>
-      </c>
-      <c r="AN17" s="2" t="n">
-        <v>-9771696.22530876</v>
-      </c>
-      <c r="AO17" s="2" t="n">
-        <v>-4667466.79280857</v>
-      </c>
-      <c r="AP17" s="2" t="n">
-        <v>-5016306.55369336</v>
-      </c>
-      <c r="AQ17" s="2" t="n">
-        <v>-7726188.64237033</v>
-      </c>
-      <c r="AR17" s="2" t="n">
-        <v>-8053284.53691429</v>
-      </c>
-      <c r="AS17" s="2" t="n">
-        <v>-3781077.96917824</v>
-      </c>
-      <c r="AT17" s="2" t="n">
-        <v>-1715354.39586953</v>
-      </c>
-      <c r="AU17" s="2" t="n">
-        <v>4589772.1654</v>
-      </c>
-      <c r="AV17" s="2" t="n">
-        <v>-908032.701194905</v>
-      </c>
-      <c r="AW17" s="2"/>
+      <c r="O17" s="12" t="n">
+        <v>1333320019.11308</v>
+      </c>
+      <c r="P17" s="12" t="n">
+        <v>1391048854.71442</v>
+      </c>
+      <c r="Q17" s="12" t="n">
+        <v>1738361682.36025</v>
+      </c>
+      <c r="R17" s="12" t="n">
+        <v>1247820773.06857</v>
+      </c>
+      <c r="S17" s="12" t="n">
+        <v>3487116.85737448</v>
+      </c>
+      <c r="T17" s="12" t="n">
+        <v>654656.011108501</v>
+      </c>
+      <c r="U17" s="12" t="n">
+        <v>3830976.62857234</v>
+      </c>
+      <c r="V17" s="12" t="n">
+        <v>6145182.18393363</v>
+      </c>
+      <c r="W17" s="12" t="n">
+        <v>2337416.37677257</v>
+      </c>
+      <c r="X17" s="12" t="n">
+        <v>8642871.76791745</v>
+      </c>
+      <c r="Y17" s="12" t="n">
+        <v>1664361.657463</v>
+      </c>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12" t="n">
+        <v>328641.219077568</v>
+      </c>
+      <c r="AE17" s="12" t="n">
+        <v>8957.03717910909</v>
+      </c>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12" t="n">
+        <v>-1034610.17240254</v>
+      </c>
+      <c r="AH17" s="12" t="n">
+        <v>-1555116.25252212</v>
+      </c>
+      <c r="AI17" s="12" t="n">
+        <v>-44605069.958027</v>
+      </c>
+      <c r="AJ17" s="12" t="n">
+        <v>-21451977.8659975</v>
+      </c>
+      <c r="AK17" s="12" t="n">
+        <v>-15826757.2716672</v>
+      </c>
+      <c r="AL17" s="12" t="n">
+        <v>-8718909.145665</v>
+      </c>
+      <c r="AM17" s="12" t="n">
+        <v>-32447780.0036407</v>
+      </c>
+      <c r="AN17" s="12" t="n">
+        <v>-12301206.8774118</v>
+      </c>
+      <c r="AO17" s="12" t="n">
+        <v>-5316227.78930825</v>
+      </c>
+      <c r="AP17" s="12" t="n">
+        <v>-5371913.21740476</v>
+      </c>
+      <c r="AQ17" s="12" t="n">
+        <v>-10818636.8823573</v>
+      </c>
+      <c r="AR17" s="12" t="n">
+        <v>-11717812.2757168</v>
+      </c>
+      <c r="AS17" s="12" t="n">
+        <v>-6615799.45667265</v>
+      </c>
+      <c r="AT17" s="12" t="n">
+        <v>-3813728.19415814</v>
+      </c>
+      <c r="AU17" s="12" t="n">
+        <v>4245590.38255636</v>
+      </c>
+      <c r="AV17" s="12" t="n">
+        <v>528349.2402</v>
+      </c>
+      <c r="AW17" s="12" t="n">
+        <v>-5234901.5909314</v>
+      </c>
+      <c r="AX17" s="12" t="n">
+        <v>2309713.03231996</v>
+      </c>
+      <c r="AY17" s="12"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -5072,41 +5234,43 @@
       <c r="B18" t="str">
         <f>N18</f>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
-      <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
-      <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="2"/>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5243,6 +5407,12 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -5255,10 +5425,10 @@
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -5267,82 +5437,94 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="W2" s="3" t="n">
+        <v>37607939</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>33436467</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>17546909</v>
+      </c>
       <c r="Z2" s="3" t="n">
-        <v>188093593</v>
+        <v>34540739</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>265567420</v>
+        <v>175750668</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>305630976</v>
+        <v>265505426</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>470008160.0938</v>
+        <v>136993508</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>508187397.6484</v>
+        <v>49636908</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>412587169.3175</v>
+        <v>172858767</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>588051576.6752</v>
+        <v>116115807</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>731847538.0382</v>
+        <v>138330862.16</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>1154677076.2421</v>
+        <v>262939971.3675</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>2478561495.5104</v>
+        <v>417836164.93</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>3280943246.4082</v>
+        <v>1161486370.1515</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>3594937685.9658</v>
+        <v>1438078330.2172</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>2167938638.0338</v>
+        <v>1477921987.5472</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>1028884661.1787</v>
+        <v>3944824746.52</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>1324720469.133</v>
+        <v>2586115385.23</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>1999334816.8284</v>
+        <v>4092221938.26</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>3124515545.3746</v>
+        <v>3412118108.7306</v>
       </c>
       <c r="AQ2" s="3" t="n">
-        <v>737933973.7061</v>
+        <v>1356936330.7396</v>
       </c>
       <c r="AR2" s="3" t="n">
-        <v>631329825.3098</v>
+        <v>9194739724.7792</v>
       </c>
       <c r="AS2" s="3" t="n">
-        <v>383721696.3777</v>
+        <v>9753417157.7155</v>
       </c>
       <c r="AT2" s="3" t="n">
-        <v>6550229031.646</v>
+        <v>7338610707.7273</v>
       </c>
       <c r="AU2" s="3" t="n">
-        <v>1385393253.5534</v>
+        <v>7259955604.8145</v>
       </c>
       <c r="AV2" s="3" t="n">
-        <v>2231668904.0034</v>
+        <v>8318967058.2984</v>
       </c>
       <c r="AW2" s="3" t="n">
-        <v>4253872309.0539</v>
-      </c>
-      <c r="AX2" s="3"/>
+        <v>5576575597.6423</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>6331853418.8</v>
+      </c>
+      <c r="AY2" s="3" t="n">
+        <v>1784939403.73</v>
+      </c>
+      <c r="AZ2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5354,11 +5536,9 @@
       <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -5370,53 +5550,47 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
-        <v>13712019</v>
-      </c>
-      <c r="AA3" s="3" t="n">
-        <v>23550576</v>
-      </c>
-      <c r="AB3" s="3" t="n">
-        <v>32894146</v>
-      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
       <c r="AC3" s="3" t="n">
-        <v>16542070</v>
+        <v>8050613</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>1103661</v>
+        <v>69113097</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>1393825</v>
+        <v>117706104</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>1919856</v>
+        <v>236927162.5508</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>99989</v>
+        <v>1673143153.6878</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>21977975.17</v>
+        <v>3355844226.8011</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>384624.5938</v>
+        <v>2309458964.6827</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>10348269</v>
+        <v>6685018.014</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>9849413.3302</v>
+        <v>2689783.0686</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>2016281</v>
+        <v>-730085.4561</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>3724361</v>
+        <v>-1703738.82</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>-20.89</v>
+        <v>-1213561.52</v>
       </c>
       <c r="AO3" s="3" t="n">
-        <v>-22.54</v>
+        <v>188650</v>
       </c>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
@@ -5427,6 +5601,8 @@
       <c r="AV3" s="3"/>
       <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5438,11 +5614,9 @@
       <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
+      <c r="N4"/>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -5450,83 +5624,97 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="V4" s="3" t="n">
+        <v>224000</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>374600569</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>436820355</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>183441551</v>
+      </c>
       <c r="Z4" s="3" t="n">
-        <v>143413440</v>
+        <v>489411716</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>172688897</v>
+        <v>544755059</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>203213466.825</v>
+        <v>914653190</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>244288284</v>
+        <v>993197453.0938</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>247394625.5938</v>
+        <v>1217795713.6484</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>288277076</v>
+        <v>965092742.3175</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>350559515.4688</v>
+        <v>1847671415.1752</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>249377755.7227</v>
+        <v>1883282707.3331</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>237464435.3906</v>
+        <v>2567024362.8427</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>387724571.9586</v>
+        <v>3912078615.1837</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>576049069.2408</v>
+        <v>4696653359.7695</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>501991794.0445</v>
+        <v>4440174910.3155</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>483992311.7919</v>
+        <v>3266410245.1392</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>399494367.0039</v>
+        <v>2018835499.4895</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>189869901.1531</v>
+        <v>1494690109.303</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>313780993.3078</v>
+        <v>2062034025.6424</v>
       </c>
       <c r="AP4" s="3" t="n">
-        <v>207934670.21</v>
+        <v>3161644042.4993</v>
       </c>
       <c r="AQ4" s="3" t="n">
-        <v>285904918.207</v>
+        <v>759575891.5113</v>
       </c>
       <c r="AR4" s="3" t="n">
-        <v>8416343.4459</v>
+        <v>628231451.1567</v>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>2014404.0337</v>
+        <v>380755558.6035</v>
       </c>
       <c r="AT4" s="3" t="n">
-        <v>-78349.0893</v>
+        <v>6545797994.3935</v>
       </c>
       <c r="AU4" s="3" t="n">
-        <v>-412285.4971</v>
+        <v>1395269922.3552</v>
       </c>
       <c r="AV4" s="3" t="n">
-        <v>-10049869.9713</v>
+        <v>2264448067.3559</v>
       </c>
       <c r="AW4" s="3" t="n">
-        <v>-5192591.7029</v>
-      </c>
-      <c r="AX4" s="3"/>
+        <v>4264576361.2496</v>
+      </c>
+      <c r="AX4" s="3" t="n">
+        <v>766317305.72</v>
+      </c>
+      <c r="AY4" s="3" t="n">
+        <v>979784591.01</v>
+      </c>
+      <c r="AZ4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5538,95 +5726,113 @@
       <c r="M5" t="s">
         <v>53</v>
       </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>74831000</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>68100000</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>1661000</v>
+      </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="V5" s="3" t="n">
+        <v>9867000</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>490753137</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>623236482</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>429079233.63</v>
+      </c>
       <c r="Z5" s="3" t="n">
-        <v>36020375</v>
+        <v>2258472035</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>185463456</v>
+        <v>2227778718</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>264519015</v>
+        <v>3165389940</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>135374880</v>
+        <v>3318772311</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>39511440</v>
+        <v>3958902160.15</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>37634913</v>
+        <v>4589192937.7</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>111698154</v>
+        <v>4197609391.74</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>135894401.1563</v>
+        <v>4571770918.1769</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>262231429.3676</v>
+        <v>2616277782.6635</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>417836164.93</v>
+        <v>3521011420.5948</v>
       </c>
       <c r="AJ5" s="3" t="n">
-        <v>1158868116.2352</v>
+        <v>4357976569.7752</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>1425188606.175</v>
+        <v>3950897292.2757</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>1477921988.3733</v>
+        <v>4343319145.542</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>3940505912.5198</v>
+        <v>3668028035.3616</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>2191682732.22</v>
+        <v>3971843078.6123</v>
       </c>
       <c r="AO5" s="3" t="n">
-        <v>3053677012.1736</v>
+        <v>3469738024.3226</v>
       </c>
       <c r="AP5" s="3" t="n">
-        <v>2586325522.717</v>
+        <v>2613901831.1015</v>
       </c>
       <c r="AQ5" s="3" t="n">
-        <v>1254779181.1651</v>
+        <v>3242781255.3691</v>
       </c>
       <c r="AR5" s="3" t="n">
-        <v>7893031521.1961</v>
+        <v>3033285326.638</v>
       </c>
       <c r="AS5" s="3" t="n">
-        <v>9543424183.6722</v>
+        <v>3551508970.8017</v>
       </c>
       <c r="AT5" s="3" t="n">
-        <v>6406255068.3619</v>
+        <v>4703697747.6719</v>
       </c>
       <c r="AU5" s="3" t="n">
-        <v>5937681463.9261</v>
+        <v>3396055436.7862</v>
       </c>
       <c r="AV5" s="3" t="n">
-        <v>7209301618.192</v>
+        <v>3171290139.9578</v>
       </c>
       <c r="AW5" s="3" t="n">
-        <v>4330223170.0299</v>
-      </c>
-      <c r="AX5" s="3"/>
+        <v>3418279083.8942</v>
+      </c>
+      <c r="AX5" s="3" t="n">
+        <v>3577737112.74</v>
+      </c>
+      <c r="AY5" s="3" t="n">
+        <v>1644369125.82</v>
+      </c>
+      <c r="AZ5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5638,11 +5844,9 @@
       <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" t="s">
-        <v>54</v>
-      </c>
+      <c r="N6"/>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -5650,83 +5854,79 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="V6" s="3" t="n">
+        <v>304000</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>49621767</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>4278472</v>
+      </c>
       <c r="Z6" s="3" t="n">
-        <v>2042760115</v>
+        <v>131404608</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>2069338391</v>
+        <v>151596110</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>2915279275</v>
+        <v>37819385</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>3191994336</v>
+        <v>21860548</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>3872043645.15</v>
+        <v>5204924</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>4548786150.7</v>
+        <v>2071089</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>4106603876.74</v>
+        <v>3858379</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>4453761005.0719</v>
+        <v>99989</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>2491178474.9163</v>
+        <v>21977975.17</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>3399241388.4668</v>
+        <v>384624.5938</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>4137433215.6188</v>
+        <v>10385411.1602</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>3707906717.6788</v>
+        <v>9849413.3302</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>4081238872.4698</v>
+        <v>2192612</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>3462075641.7363</v>
+        <v>3724361</v>
       </c>
       <c r="AN6" s="3" t="n">
-        <v>3760509665.3786</v>
+        <v>-20.89</v>
       </c>
       <c r="AO6" s="3" t="n">
-        <v>3360832180.317</v>
-      </c>
-      <c r="AP6" s="3" t="n">
-        <v>2481339093.598</v>
-      </c>
-      <c r="AQ6" s="3" t="n">
-        <v>3140121951.4034</v>
-      </c>
+        <v>-22.54</v>
+      </c>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
       <c r="AR6" s="3" t="n">
-        <v>3003174380.2593</v>
-      </c>
-      <c r="AS6" s="3" t="n">
-        <v>3506229797.1471</v>
-      </c>
-      <c r="AT6" s="3" t="n">
-        <v>4634773810.4572</v>
-      </c>
-      <c r="AU6" s="3" t="n">
-        <v>3349870387.3934</v>
-      </c>
-      <c r="AV6" s="3" t="n">
-        <v>3097434982.9303</v>
-      </c>
-      <c r="AW6" s="3" t="n">
-        <v>3353503294.0161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
       <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5738,11 +5938,9 @@
       <c r="M7" t="s">
         <v>56</v>
       </c>
-      <c r="N7" t="s">
-        <v>56</v>
-      </c>
+      <c r="N7"/>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -5751,82 +5949,94 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="W7" s="3" t="n">
+        <v>33535872</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>18436584</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>30943213</v>
+      </c>
       <c r="Z7" s="3" t="n">
-        <v>122092079</v>
+        <v>155472987</v>
       </c>
       <c r="AA7" s="3" t="n">
-        <v>634741324</v>
+        <v>178015501</v>
       </c>
       <c r="AB7" s="3" t="n">
-        <v>971560086</v>
+        <v>208249651.825</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>925495415</v>
+        <v>251466396</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>1226123860</v>
+        <v>261601277.5938</v>
       </c>
       <c r="AE7" s="3" t="n">
-        <v>1070575770</v>
+        <v>303921923</v>
       </c>
       <c r="AF7" s="3" t="n">
-        <v>1363131220</v>
+        <v>363259346.7657</v>
       </c>
       <c r="AG7" s="3" t="n">
-        <v>1063840950.9333</v>
+        <v>258448775.8967</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>1135542369.89</v>
+        <v>249640954.3308</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>1598689142.4923</v>
+        <v>400302275.1096</v>
       </c>
       <c r="AJ7" s="3" t="n">
-        <v>1372080615.1315</v>
+        <v>592848483.5892</v>
       </c>
       <c r="AK7" s="3" t="n">
-        <v>1668436621.1011</v>
+        <v>503940646.1008</v>
       </c>
       <c r="AL7" s="3" t="n">
-        <v>2995119286.7718</v>
+        <v>484366937.5465</v>
       </c>
       <c r="AM7" s="3" t="n">
-        <v>1973287979.8903</v>
+        <v>398255647.0139</v>
       </c>
       <c r="AN7" s="3" t="n">
-        <v>1051781326.8202</v>
+        <v>189869901.1531</v>
       </c>
       <c r="AO7" s="3" t="n">
-        <v>653442719.9612</v>
+        <v>313780988.2443</v>
       </c>
       <c r="AP7" s="3" t="n">
-        <v>1585413796.8568</v>
+        <v>207913063.4683</v>
       </c>
       <c r="AQ7" s="3" t="n">
-        <v>3213161772.667</v>
+        <v>285904919.2223</v>
       </c>
       <c r="AR7" s="3" t="n">
-        <v>1891091603.6908</v>
+        <v>8390149.2976</v>
       </c>
       <c r="AS7" s="3" t="n">
-        <v>1393690682.7826</v>
+        <v>2014404.0289</v>
       </c>
       <c r="AT7" s="3" t="n">
-        <v>1777873081.4826</v>
+        <v>-78349.072</v>
       </c>
       <c r="AU7" s="3" t="n">
-        <v>1425007568.8633</v>
+        <v>-412285.4933</v>
       </c>
       <c r="AV7" s="3" t="n">
-        <v>1288934832.3706</v>
+        <v>-10049869.9713</v>
       </c>
       <c r="AW7" s="3" t="n">
-        <v>633399787.6649</v>
-      </c>
-      <c r="AX7" s="3"/>
+        <v>-5192591.6596</v>
+      </c>
+      <c r="AX7" s="3" t="n">
+        <v>-7258383.52</v>
+      </c>
+      <c r="AY7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5838,11 +6048,9 @@
       <c r="M8" t="s">
         <v>58</v>
       </c>
-      <c r="N8" t="s">
-        <v>58</v>
-      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -5851,60 +6059,94 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+      <c r="W8" s="3" t="n">
+        <v>238872658</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>111353373</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>161293690</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>174918331</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>718812210</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>1017511382</v>
+      </c>
       <c r="AC8" s="3" t="n">
-        <v>8050613</v>
+        <v>1050564122</v>
       </c>
       <c r="AD8" s="3" t="n">
-        <v>69113097</v>
+        <v>1243708582</v>
       </c>
       <c r="AE8" s="3" t="n">
-        <v>117706104</v>
+        <v>1071078896</v>
       </c>
       <c r="AF8" s="3" t="n">
-        <v>236927162.5508</v>
+        <v>1366468336</v>
       </c>
       <c r="AG8" s="3" t="n">
-        <v>1670263649.6878</v>
+        <v>1070271076.93</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>3334452865.8074</v>
+        <v>1140354853.96</v>
       </c>
       <c r="AI8" s="3" t="n">
-        <v>2202198546.7105</v>
+        <v>1623627975.3848</v>
       </c>
       <c r="AJ8" s="3" t="n">
-        <v>6934225.014</v>
+        <v>1584843134.1315</v>
       </c>
       <c r="AK8" s="3" t="n">
-        <v>2076027.0686</v>
+        <v>1737118731.3511</v>
       </c>
       <c r="AL8" s="3" t="n">
-        <v>-744085.4561</v>
+        <v>3103147699.3477</v>
       </c>
       <c r="AM8" s="3" t="n">
-        <v>-1545901.82</v>
+        <v>2066267022.6603</v>
       </c>
       <c r="AN8" s="3" t="n">
-        <v>-1396170.87</v>
+        <v>1052899407.1702</v>
       </c>
       <c r="AO8" s="3" t="n">
-        <v>188650</v>
-      </c>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+        <v>739784322.85</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>1579544248.0312</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>3188050840.7263</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>1891091592.2449</v>
+      </c>
+      <c r="AS8" s="3" t="n">
+        <v>1394209716.9894</v>
+      </c>
+      <c r="AT8" s="3" t="n">
+        <v>1790084817.1447</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>1425416911.5714</v>
+      </c>
+      <c r="AV8" s="3" t="n">
+        <v>1291234231.9193</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>634523347.8842</v>
+      </c>
+      <c r="AX8" s="3" t="n">
+        <v>3358329920.29</v>
+      </c>
+      <c r="AY8" s="3" t="n">
+        <v>1579025447.39</v>
+      </c>
+      <c r="AZ8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5916,69 +6158,67 @@
       <c r="M9" t="s">
         <v>58</v>
       </c>
-      <c r="N9" t="s">
-        <v>58</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" s="3" t="n">
-        <v>3035334000</v>
+        <v>4418278000</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>5206015283</v>
+        <v>6715280054</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>3918554592</v>
+        <v>5438989317</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>4991418711</v>
+        <v>6509522213</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>4289293657</v>
+        <v>5223252139</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>3486356407</v>
+        <v>4527970932</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>3715624896</v>
+        <v>4779883768</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>4012460461</v>
+        <v>5047642226</v>
       </c>
       <c r="X9" s="3" t="n">
-        <v>3602703203</v>
+        <v>4791893128</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>3665542951</v>
+        <v>4353113384</v>
       </c>
       <c r="Z9" s="3" t="n">
-        <v>454947496</v>
+        <v>468772733</v>
       </c>
       <c r="AA9" s="3" t="n">
-        <v>12941467.4</v>
+        <v>13227622.4</v>
       </c>
       <c r="AB9" s="3" t="n">
-        <v>33493982</v>
+        <v>33745366</v>
       </c>
       <c r="AC9" s="3" t="n">
-        <v>44678337</v>
+        <v>44846027</v>
       </c>
       <c r="AD9" s="3" t="n">
-        <v>29147742.1875</v>
+        <v>44920591.1875</v>
       </c>
       <c r="AE9" s="3" t="n">
-        <v>15746652</v>
+        <v>20064220</v>
       </c>
       <c r="AF9" s="3" t="n">
-        <v>4336591.4687</v>
+        <v>6023112.3487</v>
       </c>
       <c r="AG9" s="3" t="n">
-        <v>3132509.4914</v>
+        <v>3367986.4114</v>
       </c>
       <c r="AH9" s="3" t="n">
-        <v>124216311.5868</v>
+        <v>143384196.9518</v>
       </c>
       <c r="AI9" s="3" t="n">
-        <v>15033844.9149</v>
+        <v>63319665.0751</v>
       </c>
       <c r="AJ9" s="3" t="n">
         <v>0</v>
@@ -6002,7 +6242,7 @@
         <v>313029.3438</v>
       </c>
       <c r="AQ9" s="3" t="n">
-        <v>1308337.1875</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="3" t="n">
         <v>0</v>
@@ -6022,7 +6262,13 @@
       <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6136,8 +6382,16 @@
       <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="3" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="3" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="3" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6257,6 +6511,12 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -6269,10 +6529,10 @@
         <v>48</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -6281,82 +6541,94 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="W14" s="3" t="n">
+        <v>66159405.0365547</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>58092649.1598584</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>30113189.6605759</v>
+      </c>
       <c r="Z14" s="3" t="n">
-        <v>303908470.379152</v>
+        <v>58068971.3252896</v>
       </c>
       <c r="AA14" s="3" t="n">
-        <v>418926534.125859</v>
+        <v>288474976.881055</v>
       </c>
       <c r="AB14" s="3" t="n">
-        <v>474634465.5017</v>
+        <v>429047489.567265</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>716216452.43054</v>
+        <v>217207397.207337</v>
       </c>
       <c r="AD14" s="3" t="n">
-        <v>755918249.100577</v>
+        <v>76824868.2619848</v>
       </c>
       <c r="AE14" s="3" t="n">
-        <v>595633408.674208</v>
+        <v>259639100.517945</v>
       </c>
       <c r="AF14" s="3" t="n">
-        <v>822175363.746889</v>
+        <v>168922137.466502</v>
       </c>
       <c r="AG14" s="3" t="n">
-        <v>995910530.126435</v>
+        <v>195848391.880231</v>
       </c>
       <c r="AH14" s="3" t="n">
-        <v>1539202753.79584</v>
+        <v>364698128.529033</v>
       </c>
       <c r="AI14" s="3" t="n">
-        <v>3270724607.79261</v>
+        <v>573672934.695495</v>
       </c>
       <c r="AJ14" s="3" t="n">
-        <v>4292220889.85971</v>
+        <v>1580983955.75855</v>
       </c>
       <c r="AK14" s="3" t="n">
-        <v>4610086584.38434</v>
+        <v>1918957388.3029</v>
       </c>
       <c r="AL14" s="3" t="n">
-        <v>2730085126.35506</v>
+        <v>1936975918.92868</v>
       </c>
       <c r="AM14" s="3" t="n">
-        <v>1272389721.3457</v>
+        <v>5077979085.13147</v>
       </c>
       <c r="AN14" s="3" t="n">
-        <v>1607148831.52671</v>
+        <v>3269336216.66398</v>
       </c>
       <c r="AO14" s="3" t="n">
-        <v>2398097281.81432</v>
+        <v>5120310906.05887</v>
       </c>
       <c r="AP14" s="3" t="n">
-        <v>3716892526.40186</v>
+        <v>4235481571.19065</v>
       </c>
       <c r="AQ14" s="3" t="n">
-        <v>862441070.581501</v>
+        <v>1656412179.25203</v>
       </c>
       <c r="AR14" s="3" t="n">
-        <v>720922786.48047</v>
+        <v>10980257071.2268</v>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>429758744.515195</v>
+        <v>11435977647.9846</v>
       </c>
       <c r="AT14" s="3" t="n">
-        <v>7239515029.00942</v>
+        <v>8493639982.54889</v>
       </c>
       <c r="AU14" s="3" t="n">
-        <v>1481383820.11646</v>
+        <v>8123031903.56009</v>
       </c>
       <c r="AV14" s="3" t="n">
-        <v>2231668904.0034</v>
+        <v>8699531472.79202</v>
       </c>
       <c r="AW14" s="3" t="n">
-        <v>4057336514.70039</v>
-      </c>
-      <c r="AX14" s="3"/>
+        <v>5576575597.6423</v>
+      </c>
+      <c r="AX14" s="3" t="n">
+        <v>6167153491.65763</v>
+      </c>
+      <c r="AY14" s="3" t="n">
+        <v>1701183268.43733</v>
+      </c>
+      <c r="AZ14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6368,11 +6640,9 @@
       <c r="M15" t="s">
         <v>50</v>
       </c>
-      <c r="N15" t="s">
-        <v>50</v>
-      </c>
+      <c r="N15"/>
       <c r="O15" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -6384,53 +6654,47 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
-        <v>22154921.1413058</v>
-      </c>
-      <c r="AA15" s="3" t="n">
-        <v>37150495.2691397</v>
-      </c>
-      <c r="AB15" s="3" t="n">
-        <v>51083485.0877317</v>
-      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
       <c r="AC15" s="3" t="n">
-        <v>25207440.417403</v>
+        <v>12764493.158709</v>
       </c>
       <c r="AD15" s="3" t="n">
-        <v>1641672.92337659</v>
+        <v>106968882.35268</v>
       </c>
       <c r="AE15" s="3" t="n">
-        <v>2012202.02077213</v>
+        <v>176798131.20518</v>
       </c>
       <c r="AF15" s="3" t="n">
-        <v>2684217.45260192</v>
+        <v>344675232.046181</v>
       </c>
       <c r="AG15" s="3" t="n">
-        <v>136066.725405332</v>
+        <v>2368830721.63724</v>
       </c>
       <c r="AH15" s="3" t="n">
-        <v>29296987.5305879</v>
+        <v>4654560897.62317</v>
       </c>
       <c r="AI15" s="3" t="n">
-        <v>507552.919700644</v>
+        <v>3170798061.6046</v>
       </c>
       <c r="AJ15" s="3" t="n">
-        <v>13537892.319324</v>
+        <v>9099466.42138582</v>
       </c>
       <c r="AK15" s="3" t="n">
-        <v>12630719.1456679</v>
+        <v>3589219.71353427</v>
       </c>
       <c r="AL15" s="3" t="n">
-        <v>2539102.66281554</v>
+        <v>-956855.611555477</v>
       </c>
       <c r="AM15" s="3" t="n">
-        <v>4605801.63528916</v>
+        <v>-2193139.27751003</v>
       </c>
       <c r="AN15" s="3" t="n">
-        <v>-25.3437158048641</v>
+        <v>-1534169.9953318</v>
       </c>
       <c r="AO15" s="3" t="n">
-        <v>-27.0355481618835</v>
+        <v>236044.541816499</v>
       </c>
       <c r="AP15" s="3"/>
       <c r="AQ15" s="3"/>
@@ -6441,6 +6705,8 @@
       <c r="AV15" s="3"/>
       <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6452,11 +6718,9 @@
       <c r="M16" t="s">
         <v>50</v>
       </c>
-      <c r="N16" t="s">
-        <v>50</v>
-      </c>
+      <c r="N16"/>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -6464,83 +6728,97 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="V16" s="3" t="n">
+        <v>401051.334588731</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>658992527.386169</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>758933401.333933</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>314813863.620836</v>
+      </c>
       <c r="Z16" s="3" t="n">
-        <v>231717404.548768</v>
+        <v>822785954.367242</v>
       </c>
       <c r="AA16" s="3" t="n">
-        <v>272412787.314903</v>
+        <v>894154229.051708</v>
       </c>
       <c r="AB16" s="3" t="n">
-        <v>315583572.292199</v>
+        <v>1478047589.86052</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>372255852.11522</v>
+        <v>1574744941.1943</v>
       </c>
       <c r="AD16" s="3" t="n">
-        <v>367994391.598717</v>
+        <v>1884827219.11381</v>
       </c>
       <c r="AE16" s="3" t="n">
-        <v>416172557.436896</v>
+        <v>1449598512.59214</v>
       </c>
       <c r="AF16" s="3" t="n">
-        <v>490129452.207366</v>
+        <v>2687942433.08452</v>
       </c>
       <c r="AG16" s="3" t="n">
-        <v>339357475.423483</v>
+        <v>2666345629.07892</v>
       </c>
       <c r="AH16" s="3" t="n">
-        <v>316543837.582127</v>
+        <v>3560466581.58601</v>
       </c>
       <c r="AI16" s="3" t="n">
-        <v>511643669.462277</v>
+        <v>5371133014.07958</v>
       </c>
       <c r="AJ16" s="3" t="n">
-        <v>753603358.206942</v>
+        <v>6392958022.04423</v>
       </c>
       <c r="AK16" s="3" t="n">
-        <v>643745688.341144</v>
+        <v>5924925138.2713</v>
       </c>
       <c r="AL16" s="3" t="n">
-        <v>609491518.123249</v>
+        <v>4280982378.9664</v>
       </c>
       <c r="AM16" s="3" t="n">
-        <v>494042282.376862</v>
+        <v>2598747752.17132</v>
       </c>
       <c r="AN16" s="3" t="n">
-        <v>230349871.456285</v>
+        <v>1889569403.95726</v>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>376363849.017599</v>
+        <v>2580078859.22497</v>
       </c>
       <c r="AP16" s="3" t="n">
-        <v>247357009.577856</v>
+        <v>3924566691.40692</v>
       </c>
       <c r="AQ16" s="3" t="n">
-        <v>334143910.605702</v>
+        <v>927214290.945962</v>
       </c>
       <c r="AR16" s="3" t="n">
-        <v>9610719.35104201</v>
+        <v>750227090.75064</v>
       </c>
       <c r="AS16" s="3" t="n">
-        <v>2256082.35510648</v>
+        <v>446439641.320069</v>
       </c>
       <c r="AT16" s="3" t="n">
-        <v>-86593.8285144234</v>
+        <v>7576045899.84949</v>
       </c>
       <c r="AU16" s="3" t="n">
-        <v>-440851.767616227</v>
+        <v>1561142066.19294</v>
       </c>
       <c r="AV16" s="3" t="n">
-        <v>-10049869.9713</v>
+        <v>2368038855.35462</v>
       </c>
       <c r="AW16" s="3" t="n">
-        <v>-4952685.55129531</v>
-      </c>
-      <c r="AX16" s="3"/>
+        <v>4264576361.2496</v>
+      </c>
+      <c r="AX16" s="3" t="n">
+        <v>746384373.595374</v>
+      </c>
+      <c r="AY16" s="3" t="n">
+        <v>933809377.17875</v>
+      </c>
+      <c r="AZ16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6552,95 +6830,113 @@
       <c r="M17" t="s">
         <v>53</v>
       </c>
-      <c r="N17" t="s">
-        <v>53</v>
-      </c>
+      <c r="N17"/>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>154771605.644373</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>135988336.330315</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>3235848.54821463</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="V17" s="3" t="n">
+        <v>17665953.2070849</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>863326638.658471</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>1082813512.93635</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>736365837.522424</v>
+      </c>
       <c r="Z17" s="3" t="n">
-        <v>58199202.2914542</v>
+        <v>3796883090.41053</v>
       </c>
       <c r="AA17" s="3" t="n">
-        <v>292564362.108439</v>
+        <v>3656648486.657</v>
       </c>
       <c r="AB17" s="3" t="n">
-        <v>410788994.436091</v>
+        <v>5115159519.40837</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>206289431.831269</v>
+        <v>5262015011.6609</v>
       </c>
       <c r="AD17" s="3" t="n">
-        <v>58772450.2466055</v>
+        <v>6127338490.05282</v>
       </c>
       <c r="AE17" s="3" t="n">
-        <v>54331819.2672562</v>
+        <v>6893106708.5983</v>
       </c>
       <c r="AF17" s="3" t="n">
-        <v>156169074.342147</v>
+        <v>6106568683.64344</v>
       </c>
       <c r="AG17" s="3" t="n">
-        <v>184927403.676968</v>
+        <v>6472698632.74705</v>
       </c>
       <c r="AH17" s="3" t="n">
-        <v>349558631.16988</v>
+        <v>3628781147.60228</v>
       </c>
       <c r="AI17" s="3" t="n">
-        <v>551379108.058329</v>
+        <v>4834212842.93897</v>
       </c>
       <c r="AJ17" s="3" t="n">
-        <v>1516063388.94844</v>
+        <v>5931960299.70423</v>
       </c>
       <c r="AK17" s="3" t="n">
-        <v>1827637485.67721</v>
+        <v>5272037962.14167</v>
       </c>
       <c r="AL17" s="3" t="n">
-        <v>1861147159.60339</v>
+        <v>5692387462.95333</v>
       </c>
       <c r="AM17" s="3" t="n">
-        <v>4873101338.92775</v>
+        <v>4721672278.00766</v>
       </c>
       <c r="AN17" s="3" t="n">
-        <v>2658946112.9637</v>
+        <v>5021156634.37751</v>
       </c>
       <c r="AO17" s="3" t="n">
-        <v>3662725462.88625</v>
+        <v>4341440350.77928</v>
       </c>
       <c r="AP17" s="3" t="n">
-        <v>3076667043.779</v>
+        <v>3244651176.11379</v>
       </c>
       <c r="AQ17" s="3" t="n">
-        <v>1466490416.3613</v>
+        <v>3958463079.18948</v>
       </c>
       <c r="AR17" s="3" t="n">
-        <v>9013143447.24107</v>
+        <v>3622315982.1596</v>
       </c>
       <c r="AS17" s="3" t="n">
-        <v>10688397435.6089</v>
+        <v>4164179235.84621</v>
       </c>
       <c r="AT17" s="3" t="n">
-        <v>7080390566.95693</v>
+        <v>5444016155.99852</v>
       </c>
       <c r="AU17" s="3" t="n">
-        <v>6349089131.98811</v>
+        <v>3799784483.66529</v>
       </c>
       <c r="AV17" s="3" t="n">
-        <v>7209301618.192</v>
+        <v>3316365864.72564</v>
       </c>
       <c r="AW17" s="3" t="n">
-        <v>4130159842.16779</v>
-      </c>
-      <c r="AX17" s="3"/>
+        <v>3418279083.8942</v>
+      </c>
+      <c r="AX17" s="3" t="n">
+        <v>3484675412.97714</v>
+      </c>
+      <c r="AY17" s="3" t="n">
+        <v>1567209081.79527</v>
+      </c>
+      <c r="AZ17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6652,11 +6948,9 @@
       <c r="M18" t="s">
         <v>54</v>
       </c>
-      <c r="N18" t="s">
-        <v>54</v>
-      </c>
+      <c r="N18"/>
       <c r="O18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -6664,83 +6958,79 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="V18" s="3" t="n">
+        <v>544283.954084707</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>86213052.9826384</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>7342514.7867048</v>
+      </c>
       <c r="Z18" s="3" t="n">
-        <v>3300548902.27543</v>
+        <v>220913930.473894</v>
       </c>
       <c r="AA18" s="3" t="n">
-        <v>3264334006.31453</v>
+        <v>248827983.558548</v>
       </c>
       <c r="AB18" s="3" t="n">
-        <v>4527329129.35438</v>
+        <v>61114804.4531033</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>4864083336.45111</v>
+        <v>34660567.5110243</v>
       </c>
       <c r="AD18" s="3" t="n">
-        <v>5759584881.92947</v>
+        <v>8055852.32290543</v>
       </c>
       <c r="AE18" s="3" t="n">
-        <v>6566876533.63861</v>
+        <v>3110838.37045193</v>
       </c>
       <c r="AF18" s="3" t="n">
-        <v>5741585721.46464</v>
+        <v>5613065.47898225</v>
       </c>
       <c r="AG18" s="3" t="n">
-        <v>6060753439.85933</v>
+        <v>141564.106157758</v>
       </c>
       <c r="AH18" s="3" t="n">
-        <v>3320780197.06361</v>
+        <v>30483484.0122268</v>
       </c>
       <c r="AI18" s="3" t="n">
-        <v>4485659313.76902</v>
+        <v>528074.72880734</v>
       </c>
       <c r="AJ18" s="3" t="n">
-        <v>5412704806.13153</v>
+        <v>14136341.8806975</v>
       </c>
       <c r="AK18" s="3" t="n">
-        <v>4754956137.91905</v>
+        <v>13142958.9635647</v>
       </c>
       <c r="AL18" s="3" t="n">
-        <v>5139504111.1206</v>
+        <v>2873654.14368221</v>
       </c>
       <c r="AM18" s="3" t="n">
-        <v>4281441474.71307</v>
+        <v>4794186.93572208</v>
       </c>
       <c r="AN18" s="3" t="n">
-        <v>4562244530.4356</v>
+        <v>-26.4088887743254</v>
       </c>
       <c r="AO18" s="3" t="n">
-        <v>4031141982.03054</v>
-      </c>
-      <c r="AP18" s="3" t="n">
-        <v>2951776234.91626</v>
-      </c>
-      <c r="AQ18" s="3" t="n">
-        <v>3669935568.79306</v>
-      </c>
+        <v>-28.2027244767765</v>
+      </c>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
       <c r="AR18" s="3" t="n">
-        <v>3429359354.9788</v>
-      </c>
-      <c r="AS18" s="3" t="n">
-        <v>3926890060.76039</v>
-      </c>
-      <c r="AT18" s="3" t="n">
-        <v>5122494876.85968</v>
-      </c>
-      <c r="AU18" s="3" t="n">
-        <v>3581974849.84401</v>
-      </c>
-      <c r="AV18" s="3" t="n">
-        <v>3097434982.9303</v>
-      </c>
-      <c r="AW18" s="3" t="n">
-        <v>3198566007.26356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6752,11 +7042,9 @@
       <c r="M19" t="s">
         <v>56</v>
       </c>
-      <c r="N19" t="s">
-        <v>56</v>
-      </c>
+      <c r="N19"/>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -6765,82 +7053,94 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="W19" s="3" t="n">
+        <v>58995876.8786041</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>32031793.4911682</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>53103303.936699</v>
+      </c>
       <c r="Z19" s="3" t="n">
-        <v>197267840.879092</v>
+        <v>261377048.822266</v>
       </c>
       <c r="AA19" s="3" t="n">
-        <v>1001289928.29685</v>
+        <v>292192445.808766</v>
       </c>
       <c r="AB19" s="3" t="n">
-        <v>1508799625.47185</v>
+        <v>336524159.467736</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>1410305392.86753</v>
+        <v>398707662.557772</v>
       </c>
       <c r="AD19" s="3" t="n">
-        <v>1823833896.15832</v>
+        <v>404889919.579813</v>
       </c>
       <c r="AE19" s="3" t="n">
-        <v>1545541748.62962</v>
+        <v>456499928.14888</v>
       </c>
       <c r="AF19" s="3" t="n">
-        <v>1905841172.93721</v>
+        <v>528459878.940922</v>
       </c>
       <c r="AG19" s="3" t="n">
-        <v>1447692791.66297</v>
+        <v>365910949.678295</v>
       </c>
       <c r="AH19" s="3" t="n">
-        <v>1513695888.44255</v>
+        <v>346252372.262552</v>
       </c>
       <c r="AI19" s="3" t="n">
-        <v>2109639776.14914</v>
+        <v>549599580.414203</v>
       </c>
       <c r="AJ19" s="3" t="n">
-        <v>1794993889.42075</v>
+        <v>806969384.090194</v>
       </c>
       <c r="AK19" s="3" t="n">
-        <v>2139574578.40255</v>
+        <v>672453374.60527</v>
       </c>
       <c r="AL19" s="3" t="n">
-        <v>3771753717.11208</v>
+        <v>634815032.091022</v>
       </c>
       <c r="AM19" s="3" t="n">
-        <v>2440303988.97292</v>
+        <v>512654927.916918</v>
       </c>
       <c r="AN19" s="3" t="n">
-        <v>1276019484.71967</v>
+        <v>240031263.817346</v>
       </c>
       <c r="AO19" s="3" t="n">
-        <v>783770280.68071</v>
+        <v>392612189.773941</v>
       </c>
       <c r="AP19" s="3" t="n">
-        <v>1885992438.57657</v>
+        <v>258083665.532137</v>
       </c>
       <c r="AQ19" s="3" t="n">
-        <v>3755298953.44562</v>
+        <v>349004134.961705</v>
       </c>
       <c r="AR19" s="3" t="n">
-        <v>2159459245.81274</v>
+        <v>10019424.0306061</v>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>1560898859.06692</v>
+        <v>2361908.55738055</v>
       </c>
       <c r="AT19" s="3" t="n">
-        <v>1964960130.53612</v>
+        <v>-90680.4894057245</v>
       </c>
       <c r="AU19" s="3" t="n">
-        <v>1523742916.05876</v>
+        <v>-461298.718304832</v>
       </c>
       <c r="AV19" s="3" t="n">
-        <v>1288934832.3706</v>
+        <v>-10509617.299852</v>
       </c>
       <c r="AW19" s="3" t="n">
-        <v>604135691.009457</v>
-      </c>
-      <c r="AX19" s="3"/>
+        <v>-5192591.6596</v>
+      </c>
+      <c r="AX19" s="3" t="n">
+        <v>-7069583.31288119</v>
+      </c>
+      <c r="AY19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6852,11 +7152,9 @@
       <c r="M20" t="s">
         <v>58</v>
       </c>
-      <c r="N20" t="s">
-        <v>58</v>
-      </c>
+      <c r="N20"/>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -6865,60 +7163,94 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
+      <c r="W20" s="3" t="n">
+        <v>420221723.205316</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>193465787.831467</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>276804733.986148</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>294068043.741233</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>1179849488.03478</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>1644262833.45794</v>
+      </c>
       <c r="AC20" s="3" t="n">
-        <v>12267832.7150755</v>
+        <v>1665701549.44153</v>
       </c>
       <c r="AD20" s="3" t="n">
-        <v>102804303.12895</v>
+        <v>1924933518.59165</v>
       </c>
       <c r="AE20" s="3" t="n">
-        <v>169926970.979868</v>
+        <v>1608792923.65422</v>
       </c>
       <c r="AF20" s="3" t="n">
-        <v>331256107.080067</v>
+        <v>1987901200.19934</v>
       </c>
       <c r="AG20" s="3" t="n">
-        <v>2272923075.30406</v>
+        <v>1515286365.02112</v>
       </c>
       <c r="AH20" s="3" t="n">
-        <v>4444878259.95175</v>
+        <v>1581673866.22609</v>
       </c>
       <c r="AI20" s="3" t="n">
-        <v>2906034403.83387</v>
+        <v>2229178572.05765</v>
       </c>
       <c r="AJ20" s="3" t="n">
-        <v>9071545.35289866</v>
+        <v>2157245777.3475</v>
       </c>
       <c r="AK20" s="3" t="n">
-        <v>2662261.59500186</v>
+        <v>2317993918.58028</v>
       </c>
       <c r="AL20" s="3" t="n">
-        <v>-937026.814687945</v>
+        <v>4067009231.31335</v>
       </c>
       <c r="AM20" s="3" t="n">
-        <v>-1911768.79216394</v>
+        <v>2659804021.61642</v>
       </c>
       <c r="AN20" s="3" t="n">
-        <v>-1693832.34774102</v>
+        <v>1331062869.0527</v>
       </c>
       <c r="AO20" s="3" t="n">
-        <v>226275.783528808</v>
-      </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+        <v>925640347.363673</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>1960697238.55639</v>
+      </c>
+      <c r="AQ20" s="3" t="n">
+        <v>3891653662.02218</v>
+      </c>
+      <c r="AR20" s="3" t="n">
+        <v>2258320784.45084</v>
+      </c>
+      <c r="AS20" s="3" t="n">
+        <v>1634724620.33278</v>
+      </c>
+      <c r="AT20" s="3" t="n">
+        <v>2071827567.99517</v>
+      </c>
+      <c r="AU20" s="3" t="n">
+        <v>1594872982.54139</v>
+      </c>
+      <c r="AV20" s="3" t="n">
+        <v>1350303801.01374</v>
+      </c>
+      <c r="AW20" s="3" t="n">
+        <v>634523347.8842</v>
+      </c>
+      <c r="AX20" s="3" t="n">
+        <v>3270975293.3573</v>
+      </c>
+      <c r="AY20" s="3" t="n">
+        <v>1504931576.90577</v>
+      </c>
+      <c r="AZ20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6930,93 +7262,91 @@
       <c r="M21" t="s">
         <v>58</v>
       </c>
-      <c r="N21" t="s">
-        <v>58</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" s="3" t="n">
-        <v>6032822140.01566</v>
+        <v>9138244581.03204</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>9990757469.16172</v>
+        <v>13409688142.9605</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>7336657438.47783</v>
+        <v>10595873380.5956</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>9130873892.26007</v>
+        <v>12390727840.3286</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>7679140602.47769</v>
+        <v>9729931160.15749</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>6112165700.2052</v>
+        <v>8259554872.83913</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>6393941560.35423</v>
+        <v>8557940912.21167</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>6784225907.77468</v>
+        <v>8879747611.52295</v>
       </c>
       <c r="X21" s="3" t="n">
-        <v>6016289806.15404</v>
+        <v>8325453951.11393</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>6045865409.8293</v>
+        <v>7470610860.65834</v>
       </c>
       <c r="Z21" s="3" t="n">
-        <v>735072340.35444</v>
+        <v>788088245.322564</v>
       </c>
       <c r="AA21" s="3" t="n">
-        <v>20414868.9789764</v>
+        <v>21711656.1174682</v>
       </c>
       <c r="AB21" s="3" t="n">
-        <v>52015009.9055848</v>
+        <v>54531332.1273839</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>68082562.6947625</v>
+        <v>71104747.5312476</v>
       </c>
       <c r="AD21" s="3" t="n">
-        <v>43356663.9817665</v>
+        <v>69525251.2551782</v>
       </c>
       <c r="AE21" s="3" t="n">
-        <v>22732728.2655969</v>
+        <v>30137065.7896348</v>
       </c>
       <c r="AF21" s="3" t="n">
-        <v>6063139.37352027</v>
+        <v>8762261.04291976</v>
       </c>
       <c r="AG21" s="3" t="n">
-        <v>4262771.99287842</v>
+        <v>4768384.38109508</v>
       </c>
       <c r="AH21" s="3" t="n">
-        <v>165582302.441654</v>
+        <v>198874092.885153</v>
       </c>
       <c r="AI21" s="3" t="n">
-        <v>19838751.8736046</v>
+        <v>86935457.330875</v>
       </c>
       <c r="AJ21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="AK21" s="3" t="n">
-        <v>-71800.2574873525</v>
+        <v>-74712.122631063</v>
       </c>
       <c r="AL21" s="3" t="n">
-        <v>-77943.0994513184</v>
+        <v>-81118.7368979614</v>
       </c>
       <c r="AM21" s="3" t="n">
-        <v>1867574.0938674</v>
+        <v>1943961.1236644</v>
       </c>
       <c r="AN21" s="3" t="n">
-        <v>-861571.751741501</v>
+        <v>-897782.816775237</v>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>-2242845.17651709</v>
+        <v>-2339673.09183538</v>
       </c>
       <c r="AP21" s="3" t="n">
-        <v>372376.584983579</v>
+        <v>388565.100813596</v>
       </c>
       <c r="AQ21" s="3" t="n">
-        <v>1529084.93832063</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="3" t="n">
         <v>0</v>
@@ -7036,7 +7366,13 @@
       <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -7080,6 +7416,8 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7233,103 +7571,103 @@
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12" t="n">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4" t="n">
         <v>224000</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="4" t="n">
         <v>1109687442</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="4" t="n">
         <v>1210702556</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="4" t="n">
         <v>704851883.63</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="4" t="n">
         <v>3251862381</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="4" t="n">
         <v>3518855223</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="4" t="n">
         <v>4915249579.2</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="4" t="n">
         <v>4849479384</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="4" t="n">
         <v>5437731135.15</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="4" t="n">
         <v>5984444761.58</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="4" t="n">
         <v>6593434751.27</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="4" t="n">
         <v>7455784926.57</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="4" t="n">
         <v>7800476864.15</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="4" t="n">
         <v>8798191743.89</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="4" t="n">
         <v>8447253075.4352</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="4" t="n">
         <v>7735536187.7055</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="4" t="n">
         <v>8966336789.0336</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="4" t="n">
         <v>9101073453.0635</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="4" t="n">
         <v>6091575018.4066</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="4" t="n">
         <v>7787957864.286</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="4" t="n">
         <v>8199776709.5911</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="4" t="n">
         <v>6475900735.2383</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="4" t="n">
         <v>12094357103.19</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="4" t="n">
         <v>12217420629.34</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="4" t="n">
         <v>17599995429.09</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="4" t="n">
         <v>10407363452.7</v>
       </c>
-      <c r="AV2" s="12" t="n">
+      <c r="AV2" s="4" t="n">
         <v>11582883734.54</v>
       </c>
-      <c r="AW2" s="12" t="n">
+      <c r="AW2" s="4" t="n">
         <v>10420097930.52</v>
       </c>
-      <c r="AX2" s="12" t="n">
+      <c r="AX2" s="4" t="n">
         <v>10644505986.18</v>
       </c>
-      <c r="AY2" s="12" t="n">
+      <c r="AY2" s="4" t="n">
         <v>4138381324.25</v>
       </c>
-      <c r="AZ2" s="12"/>
+      <c r="AZ2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -7344,107 +7682,107 @@
       <c r="O3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="4" t="n">
         <v>74831000</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="4" t="n">
         <v>68100000</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="4" t="n">
         <v>1661000</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12" t="n">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4" t="n">
         <v>774823</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="4" t="n">
         <v>3132239</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="4" t="n">
         <v>2601102</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="4" t="n">
         <v>10227484</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="4" t="n">
         <v>12558571.4</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="4" t="n">
         <v>24807377</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="4" t="n">
         <v>31575619</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="4" t="n">
         <v>23444564</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="4" t="n">
         <v>12465506</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="4" t="n">
         <v>8009184.79</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="4" t="n">
         <v>7762929.62</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="4" t="n">
         <v>48101078</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="4" t="n">
         <v>41447953.43</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="4" t="n">
         <v>3573906.3118</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="4" t="n">
         <v>6539820.1623</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="4" t="n">
         <v>4092593.4833</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="4" t="n">
         <v>4394042.64</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="4" t="n">
         <v>4258293.18</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="4" t="n">
         <v>3721235.09</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="4" t="n">
         <v>2391109.8413</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="4" t="n">
         <v>2492327.6012</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="4" t="n">
         <v>4107554.95</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="4" t="n">
         <v>2097509.38</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="4" t="n">
         <v>1387512.11</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="4" t="n">
         <v>1516959.9</v>
       </c>
-      <c r="AV3" s="12" t="n">
+      <c r="AV3" s="4" t="n">
         <v>305776.96</v>
       </c>
-      <c r="AW3" s="12" t="n">
+      <c r="AW3" s="4" t="n">
         <v>383503.34</v>
       </c>
-      <c r="AX3" s="12" t="n">
+      <c r="AX3" s="4" t="n">
         <v>175876.92</v>
       </c>
-      <c r="AY3" s="12" t="n">
+      <c r="AY3" s="4" t="n">
         <v>3030948.5</v>
       </c>
-      <c r="AZ3" s="12"/>
+      <c r="AZ3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -7459,87 +7797,87 @@
       <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12" t="n">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="n">
         <v>256990</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="4" t="n">
         <v>-665855</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="4" t="n">
         <v>923430</v>
       </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12" t="n">
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4" t="n">
         <v>1324375</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="4" t="n">
         <v>-295030</v>
       </c>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12" t="n">
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4" t="n">
         <v>499872</v>
       </c>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12" t="n">
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4" t="n">
         <v>344518.3672</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="4" t="n">
         <v>24925685.8837</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="4" t="n">
         <v>119119932.0552</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="4" t="n">
         <v>145346464.62</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="4" t="n">
         <v>218094210.68</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="4" t="n">
         <v>220320527.27</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="4" t="n">
         <v>323336362.3058</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="4" t="n">
         <v>252881989.1743</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="4" t="n">
         <v>244734668.0218</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="4" t="n">
         <v>244615992.7717</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="4" t="n">
         <v>211126715.6115</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="4" t="n">
         <v>190252183.5236</v>
       </c>
-      <c r="AV4" s="12" t="n">
+      <c r="AV4" s="4" t="n">
         <v>159594051.9031</v>
       </c>
-      <c r="AW4" s="12" t="n">
+      <c r="AW4" s="4" t="n">
         <v>150181620.8418</v>
       </c>
-      <c r="AX4" s="12" t="n">
+      <c r="AX4" s="4" t="n">
         <v>137350660.34</v>
       </c>
-      <c r="AY4" s="12" t="n">
+      <c r="AY4" s="4" t="n">
         <v>51948287.3</v>
       </c>
-      <c r="AZ4" s="12"/>
+      <c r="AZ4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -7554,103 +7892,103 @@
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12" t="n">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4" t="n">
         <v>304000</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="4" t="n">
         <v>731977</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="4" t="n">
         <v>1763715</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="4" t="n">
         <v>3424826</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="4" t="n">
         <v>8082321</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="4" t="n">
         <v>11000448</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="4" t="n">
         <v>34382284.625</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="4" t="n">
         <v>62848381.0938</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="4" t="n">
         <v>126092472.4297</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="4" t="n">
         <v>161058983</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="4" t="n">
         <v>218467563.8945</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="4" t="n">
         <v>321159938.8342</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="4" t="n">
         <v>321805322.4098</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="4" t="n">
         <v>328023043.1692</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="4" t="n">
         <v>281055826.7547</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="4" t="n">
         <v>168244624.2278</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="4" t="n">
         <v>51159615.3689</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="4" t="n">
         <v>39641094.2833</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="4" t="n">
         <v>32844398.56</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="4" t="n">
         <v>35188143.7203</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="4" t="n">
         <v>36671326.29</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="4" t="n">
         <v>38227400.2299</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="4" t="n">
         <v>27378532.7213</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="4" t="n">
         <v>54108455.9005</v>
       </c>
-      <c r="AT5" s="12" t="n">
+      <c r="AT5" s="4" t="n">
         <v>58038277.8552</v>
       </c>
-      <c r="AU5" s="12" t="n">
+      <c r="AU5" s="4" t="n">
         <v>39544685.2267</v>
       </c>
-      <c r="AV5" s="12" t="n">
+      <c r="AV5" s="4" t="n">
         <v>43483546.092</v>
       </c>
-      <c r="AW5" s="12" t="n">
+      <c r="AW5" s="4" t="n">
         <v>38842949.5142</v>
       </c>
-      <c r="AX5" s="12" t="n">
+      <c r="AX5" s="4" t="n">
         <v>32581315.03</v>
       </c>
-      <c r="AY5" s="12" t="n">
+      <c r="AY5" s="4" t="n">
         <v>11308062.76</v>
       </c>
-      <c r="AZ5" s="12"/>
+      <c r="AZ5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -7665,101 +8003,101 @@
       <c r="O6" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12" t="n">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="n">
         <v>26053028</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="4" t="n">
         <v>16875593</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="4" t="n">
         <v>31951346</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="4" t="n">
         <v>183633039</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="4" t="n">
         <v>209298561</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="4" t="n">
         <v>257477721</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="4" t="n">
         <v>297359151</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="4" t="n">
         <v>280933913</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="4" t="n">
         <v>300881701</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="4" t="n">
         <v>325176941</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="4" t="n">
         <v>343494797.9365</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="4" t="n">
         <v>629066579.9296</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="4" t="n">
         <v>671607300.5139</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="4" t="n">
         <v>851461493.5618</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="4" t="n">
         <v>967125552.2835</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="4" t="n">
         <v>1433294384.6745</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="4" t="n">
         <v>896504788.6801</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="4" t="n">
         <v>865899581.4527</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="4" t="n">
         <v>736626702.7297</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="4" t="n">
         <v>486922573.6899</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="4" t="n">
         <v>148397949.2024</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="4" t="n">
         <v>132960670.6306</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="4" t="n">
         <v>286887458.5015</v>
       </c>
-      <c r="AT6" s="12" t="n">
+      <c r="AT6" s="4" t="n">
         <v>306678039.3747</v>
       </c>
-      <c r="AU6" s="12" t="n">
+      <c r="AU6" s="4" t="n">
         <v>329505480.5458</v>
       </c>
-      <c r="AV6" s="12" t="n">
+      <c r="AV6" s="4" t="n">
         <v>341831736.0086</v>
       </c>
-      <c r="AW6" s="12" t="n">
+      <c r="AW6" s="4" t="n">
         <v>447545003.1791</v>
       </c>
-      <c r="AX6" s="12" t="n">
+      <c r="AX6" s="4" t="n">
         <v>292963223.63</v>
       </c>
-      <c r="AY6" s="12" t="n">
+      <c r="AY6" s="4" t="n">
         <v>19149634.86</v>
       </c>
-      <c r="AZ6" s="12"/>
+      <c r="AZ6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -7774,103 +8112,103 @@
       <c r="O7" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12" t="n">
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4" t="n">
         <v>9867000</v>
       </c>
-      <c r="W7" s="12" t="n">
+      <c r="W7" s="4" t="n">
         <v>33076541</v>
       </c>
-      <c r="X7" s="12" t="n">
+      <c r="X7" s="4" t="n">
         <v>43663788</v>
       </c>
-      <c r="Y7" s="12" t="n">
+      <c r="Y7" s="4" t="n">
         <v>86470328</v>
       </c>
-      <c r="Z7" s="12" t="n">
+      <c r="Z7" s="4" t="n">
         <v>259096373</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="4" t="n">
         <v>251929788</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="4" t="n">
         <v>405270111</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="4" t="n">
         <v>584678521</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="4" t="n">
         <v>982872215</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="4" t="n">
         <v>782622286.4375</v>
       </c>
-      <c r="AF7" s="12" t="n">
+      <c r="AF7" s="4" t="n">
         <v>992844509.6259</v>
       </c>
-      <c r="AG7" s="12" t="n">
+      <c r="AG7" s="4" t="n">
         <v>1470512876.6352</v>
       </c>
-      <c r="AH7" s="12" t="n">
+      <c r="AH7" s="4" t="n">
         <v>1557994479.598</v>
       </c>
-      <c r="AI7" s="12" t="n">
+      <c r="AI7" s="4" t="n">
         <v>2408749664.5514</v>
       </c>
-      <c r="AJ7" s="12" t="n">
+      <c r="AJ7" s="4" t="n">
         <v>2827189526.1604</v>
       </c>
-      <c r="AK7" s="12" t="n">
+      <c r="AK7" s="4" t="n">
         <v>3180411274.7275</v>
       </c>
-      <c r="AL7" s="12" t="n">
+      <c r="AL7" s="4" t="n">
         <v>2102563333.0627</v>
       </c>
-      <c r="AM7" s="12" t="n">
+      <c r="AM7" s="4" t="n">
         <v>1912781894.8718</v>
       </c>
-      <c r="AN7" s="12" t="n">
+      <c r="AN7" s="4" t="n">
         <v>2080822631.2285</v>
       </c>
-      <c r="AO7" s="12" t="n">
+      <c r="AO7" s="4" t="n">
         <v>1892063555.2083</v>
       </c>
-      <c r="AP7" s="12" t="n">
+      <c r="AP7" s="4" t="n">
         <v>1926336241.4566</v>
       </c>
-      <c r="AQ7" s="12" t="n">
+      <c r="AQ7" s="4" t="n">
         <v>1915348836.1225</v>
       </c>
-      <c r="AR7" s="12" t="n">
+      <c r="AR7" s="4" t="n">
         <v>2252199714.6027</v>
       </c>
-      <c r="AS7" s="12" t="n">
+      <c r="AS7" s="4" t="n">
         <v>2276775762.2453</v>
       </c>
-      <c r="AT7" s="12" t="n">
+      <c r="AT7" s="4" t="n">
         <v>2200886943.824</v>
       </c>
-      <c r="AU7" s="12" t="n">
+      <c r="AU7" s="4" t="n">
         <v>2508102828.1379</v>
       </c>
-      <c r="AV7" s="12" t="n">
+      <c r="AV7" s="4" t="n">
         <v>2907790782.0564</v>
       </c>
-      <c r="AW7" s="12" t="n">
+      <c r="AW7" s="4" t="n">
         <v>2831710791.6156</v>
       </c>
-      <c r="AX7" s="12" t="n">
+      <c r="AX7" s="4" t="n">
         <v>2919402311.93</v>
       </c>
-      <c r="AY7" s="12" t="n">
+      <c r="AY7" s="4" t="n">
         <v>1764300310.28</v>
       </c>
-      <c r="AZ7" s="12"/>
+      <c r="AZ7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -7885,63 +8223,63 @@
       <c r="O8" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12" t="n">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W8" s="12" t="n">
+      <c r="W8" s="4" t="n">
         <v>5521351</v>
       </c>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12" t="n">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4" t="n">
         <v>91551</v>
       </c>
-      <c r="AA8" s="12" t="n">
+      <c r="AA8" s="4" t="n">
         <v>4968922</v>
       </c>
-      <c r="AB8" s="12" t="n">
+      <c r="AB8" s="4" t="n">
         <v>5982298</v>
       </c>
-      <c r="AC8" s="12" t="n">
+      <c r="AC8" s="4" t="n">
         <v>-190078</v>
       </c>
-      <c r="AD8" s="12" t="n">
+      <c r="AD8" s="4" t="n">
         <v>-191046</v>
       </c>
-      <c r="AE8" s="12" t="n">
+      <c r="AE8" s="4" t="n">
         <v>13569</v>
       </c>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12" t="n">
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12" t="n">
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4" t="n">
         <v>-90028.05</v>
       </c>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -7952,65 +8290,65 @@
       </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="4" t="n">
         <v>4418278000</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="4" t="n">
         <v>6715280054</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="4" t="n">
         <v>5438989317</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="4" t="n">
         <v>6509522213</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="4" t="n">
         <v>5223252139</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="4" t="n">
         <v>4527970932</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="4" t="n">
         <v>4779883768</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="4" t="n">
         <v>5046910249</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="4" t="n">
         <v>4789326120</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="4" t="n">
         <v>4349473537</v>
       </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="12"/>
-      <c r="AU9" s="12"/>
-      <c r="AV9" s="12"/>
-      <c r="AW9" s="12"/>
-      <c r="AX9" s="12"/>
-      <c r="AY9" s="12" t="n">
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="12"/>
+      <c r="AZ9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -8025,115 +8363,115 @@
       <c r="O10" t="s">
         <v>152</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="4" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="4" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="4" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="4" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="4" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="4" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="4" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="4" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="4" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="4" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="4" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="4" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="4" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="4" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="4" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="4" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="4" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="4" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12" t="str">
+      <c r="AH10" s="4" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="12" t="str">
+      <c r="AI10" s="4" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="12" t="str">
+      <c r="AJ10" s="4" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="12" t="str">
+      <c r="AK10" s="4" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="12" t="str">
+      <c r="AL10" s="4" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="12" t="str">
+      <c r="AM10" s="4" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="12" t="str">
+      <c r="AN10" s="4" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="12" t="str">
+      <c r="AO10" s="4" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="12" t="str">
+      <c r="AP10" s="4" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="12" t="str">
+      <c r="AQ10" s="4" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="12" t="str">
+      <c r="AR10" s="4" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="12" t="str">
+      <c r="AS10" s="4" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="12" t="str">
+      <c r="AT10" s="4" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="12" t="str">
+      <c r="AU10" s="4" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="12" t="str">
+      <c r="AV10" s="4" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="12" t="str">
+      <c r="AW10" s="4" t="str">
         <f>Sum(AW2:AW9)</f>
       </c>
-      <c r="AX10" s="12" t="str">
+      <c r="AX10" s="4" t="str">
         <f>Sum(AX2:AX9)</f>
       </c>
-      <c r="AY10" s="12" t="str">
+      <c r="AY10" s="4" t="str">
         <f>Sum(AY2:AY9)</f>
       </c>
-      <c r="AZ10" s="12"/>
+      <c r="AZ10" s="4"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -8270,103 +8608,103 @@
       <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12" t="n">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4" t="n">
         <v>401051.334588731</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="4" t="n">
         <v>1952147947.78454</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="4" t="n">
         <v>2103479378.44784</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="4" t="n">
         <v>1209634041.77707</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="4" t="n">
         <v>5466944507.35629</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="4" t="n">
         <v>5775805524.12298</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="4" t="n">
         <v>7942871542.49087</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="4" t="n">
         <v>7688997896.23081</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="4" t="n">
         <v>8416176489.11555</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="4" t="n">
         <v>8988817182.73483</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="4" t="n">
         <v>9591950658.62519</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="4" t="n">
         <v>10555876434.7515</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="4" t="n">
         <v>10819272928.3196</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="4" t="n">
         <v>12079577837.827</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="4" t="n">
         <v>11498173311.1109</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="4" t="n">
         <v>10322222376.8854</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="4" t="n">
         <v>11751349927.6008</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="4" t="n">
         <v>11715364716.1819</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="4" t="n">
         <v>7700896463.45423</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="4" t="n">
         <v>9744526614.1616</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="4" t="n">
         <v>10178429361.0727</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="4" t="n">
         <v>7905132029.02397</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="4" t="n">
         <v>14442948259.4662</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="4" t="n">
         <v>14325045978.6428</v>
       </c>
-      <c r="AT14" s="12" t="n">
+      <c r="AT14" s="4" t="n">
         <v>20370071505.7403</v>
       </c>
-      <c r="AU14" s="12" t="n">
+      <c r="AU14" s="4" t="n">
         <v>11644609135.3733</v>
       </c>
-      <c r="AV14" s="12" t="n">
+      <c r="AV14" s="4" t="n">
         <v>12112761222.417</v>
       </c>
-      <c r="AW14" s="12" t="n">
+      <c r="AW14" s="4" t="n">
         <v>10420097930.52</v>
       </c>
-      <c r="AX14" s="12" t="n">
+      <c r="AX14" s="4" t="n">
         <v>10367628231.053</v>
       </c>
-      <c r="AY14" s="12" t="n">
+      <c r="AY14" s="4" t="n">
         <v>3944192756.63687</v>
       </c>
-      <c r="AZ14" s="12"/>
+      <c r="AZ14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -8381,107 +8719,107 @@
       <c r="O15" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="4" t="n">
         <v>154771605.644373</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="4" t="n">
         <v>135988336.330315</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="4" t="n">
         <v>3235848.54821463</v>
       </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12" t="n">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4" t="n">
         <v>1363058.70653104</v>
       </c>
-      <c r="X15" s="12" t="n">
+      <c r="X15" s="4" t="n">
         <v>5441964.34724476</v>
       </c>
-      <c r="Y15" s="12" t="n">
+      <c r="Y15" s="4" t="n">
         <v>4463890.35541835</v>
       </c>
-      <c r="Z15" s="12" t="n">
+      <c r="Z15" s="4" t="n">
         <v>17194173.9615316</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="4" t="n">
         <v>20613484.0652445</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="4" t="n">
         <v>40087854.2670488</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="4" t="n">
         <v>50064109.740153</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="4" t="n">
         <v>36286014.0434145</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="4" t="n">
         <v>18723567.3464051</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="4" t="n">
         <v>11651545.5478943</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="4" t="n">
         <v>10990730.9086088</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="4" t="n">
         <v>66716266.2093349</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="4" t="n">
         <v>56906441.0336376</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="4" t="n">
         <v>4864704.98797417</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="4" t="n">
         <v>8726670.83212528</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="4" t="n">
         <v>5363784.48247654</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="4" t="n">
         <v>5656235.20912547</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="4" t="n">
         <v>5383283.43509278</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="4" t="n">
         <v>4656121.02735503</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="4" t="n">
         <v>2968098.21489047</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="4" t="n">
         <v>3042384.30336928</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="4" t="n">
         <v>4905196.95338884</v>
       </c>
-      <c r="AS15" s="12" t="n">
+      <c r="AS15" s="4" t="n">
         <v>2459350.39978711</v>
       </c>
-      <c r="AT15" s="12" t="n">
+      <c r="AT15" s="4" t="n">
         <v>1605893.64978272</v>
       </c>
-      <c r="AU15" s="12" t="n">
+      <c r="AU15" s="4" t="n">
         <v>1697298.76253647</v>
       </c>
-      <c r="AV15" s="12" t="n">
+      <c r="AV15" s="4" t="n">
         <v>319765.214663415</v>
       </c>
-      <c r="AW15" s="12" t="n">
+      <c r="AW15" s="4" t="n">
         <v>383503.34</v>
       </c>
-      <c r="AX15" s="12" t="n">
+      <c r="AX15" s="4" t="n">
         <v>171302.127440207</v>
       </c>
-      <c r="AY15" s="12" t="n">
+      <c r="AY15" s="4" t="n">
         <v>2888724.88607751</v>
       </c>
-      <c r="AZ15" s="12"/>
+      <c r="AZ15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -8496,87 +8834,87 @@
       <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12" t="n">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="n">
         <v>452093.519412063</v>
       </c>
-      <c r="X16" s="12" t="n">
+      <c r="X16" s="4" t="n">
         <v>-1156859.09358598</v>
       </c>
-      <c r="Y16" s="12" t="n">
+      <c r="Y16" s="4" t="n">
         <v>1584747.64576859</v>
       </c>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12" t="n">
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4" t="n">
         <v>2173812.77610192</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="4" t="n">
         <v>-476758.169330333</v>
       </c>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12" t="n">
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4" t="n">
         <v>750822.875267333</v>
       </c>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12" t="n">
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4" t="n">
         <v>468949.11985604</v>
       </c>
-      <c r="AK16" s="12" t="n">
+      <c r="AK16" s="4" t="n">
         <v>33260586.7705546</v>
       </c>
-      <c r="AL16" s="12" t="n">
+      <c r="AL16" s="4" t="n">
         <v>156119498.72826</v>
       </c>
-      <c r="AM16" s="12" t="n">
+      <c r="AM16" s="4" t="n">
         <v>187097362.966317</v>
       </c>
-      <c r="AN16" s="12" t="n">
+      <c r="AN16" s="4" t="n">
         <v>275712099.194466</v>
       </c>
-      <c r="AO16" s="12" t="n">
+      <c r="AO16" s="4" t="n">
         <v>275671656.041434</v>
       </c>
-      <c r="AP16" s="12" t="n">
+      <c r="AP16" s="4" t="n">
         <v>401359261.374315</v>
       </c>
-      <c r="AQ16" s="12" t="n">
+      <c r="AQ16" s="4" t="n">
         <v>308693044.244368</v>
       </c>
-      <c r="AR16" s="12" t="n">
+      <c r="AR16" s="4" t="n">
         <v>292259449.376121</v>
       </c>
-      <c r="AS16" s="12" t="n">
+      <c r="AS16" s="4" t="n">
         <v>286814659.974202</v>
       </c>
-      <c r="AT16" s="12" t="n">
+      <c r="AT16" s="4" t="n">
         <v>244356102.881142</v>
       </c>
-      <c r="AU16" s="12" t="n">
+      <c r="AU16" s="4" t="n">
         <v>212869697.916515</v>
       </c>
-      <c r="AV16" s="12" t="n">
+      <c r="AV16" s="4" t="n">
         <v>166894936.315015</v>
       </c>
-      <c r="AW16" s="12" t="n">
+      <c r="AW16" s="4" t="n">
         <v>150181620.8418</v>
       </c>
-      <c r="AX16" s="12" t="n">
+      <c r="AX16" s="4" t="n">
         <v>133777987.023876</v>
       </c>
-      <c r="AY16" s="12" t="n">
+      <c r="AY16" s="4" t="n">
         <v>49510676.3815401</v>
       </c>
-      <c r="AZ16" s="12"/>
+      <c r="AZ16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -8591,103 +8929,103 @@
       <c r="O17" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12" t="n">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4" t="n">
         <v>544283.954084707</v>
       </c>
-      <c r="W17" s="12" t="n">
+      <c r="W17" s="4" t="n">
         <v>1287684.57161245</v>
       </c>
-      <c r="X17" s="12" t="n">
+      <c r="X17" s="4" t="n">
         <v>3064285.37180617</v>
       </c>
-      <c r="Y17" s="12" t="n">
+      <c r="Y17" s="4" t="n">
         <v>5877527.19823598</v>
       </c>
-      <c r="Z17" s="12" t="n">
+      <c r="Z17" s="4" t="n">
         <v>13587783.0057656</v>
       </c>
-      <c r="AA17" s="12" t="n">
+      <c r="AA17" s="4" t="n">
         <v>18055999.5509163</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="4" t="n">
         <v>55560570.3664355</v>
       </c>
-      <c r="AC17" s="12" t="n">
+      <c r="AC17" s="4" t="n">
         <v>99648030.5919248</v>
       </c>
-      <c r="AD17" s="12" t="n">
+      <c r="AD17" s="4" t="n">
         <v>195157957.527082</v>
       </c>
-      <c r="AE17" s="12" t="n">
+      <c r="AE17" s="4" t="n">
         <v>241915467.767133</v>
       </c>
-      <c r="AF17" s="12" t="n">
+      <c r="AF17" s="4" t="n">
         <v>317820706.875496</v>
       </c>
-      <c r="AG17" s="12" t="n">
+      <c r="AG17" s="4" t="n">
         <v>454697213.440916</v>
       </c>
-      <c r="AH17" s="12" t="n">
+      <c r="AH17" s="4" t="n">
         <v>446344457.341955</v>
       </c>
-      <c r="AI17" s="12" t="n">
+      <c r="AI17" s="4" t="n">
         <v>450362983.429516</v>
       </c>
-      <c r="AJ17" s="12" t="n">
+      <c r="AJ17" s="4" t="n">
         <v>382565619.529118</v>
       </c>
-      <c r="AK17" s="12" t="n">
+      <c r="AK17" s="4" t="n">
         <v>224503949.416594</v>
       </c>
-      <c r="AL17" s="12" t="n">
+      <c r="AL17" s="4" t="n">
         <v>67050185.2101637</v>
       </c>
-      <c r="AM17" s="12" t="n">
+      <c r="AM17" s="4" t="n">
         <v>51028033.0856015</v>
       </c>
-      <c r="AN17" s="12" t="n">
+      <c r="AN17" s="4" t="n">
         <v>41521496.813339</v>
       </c>
-      <c r="AO17" s="12" t="n">
+      <c r="AO17" s="4" t="n">
         <v>44028461.4992384</v>
       </c>
-      <c r="AP17" s="12" t="n">
+      <c r="AP17" s="4" t="n">
         <v>45520325.4233769</v>
       </c>
-      <c r="AQ17" s="12" t="n">
+      <c r="AQ17" s="4" t="n">
         <v>46664187.4696031</v>
       </c>
-      <c r="AR17" s="12" t="n">
+      <c r="AR17" s="4" t="n">
         <v>32695142.7132526</v>
       </c>
-      <c r="AS17" s="12" t="n">
+      <c r="AS17" s="4" t="n">
         <v>63442697.2864158</v>
       </c>
-      <c r="AT17" s="12" t="n">
+      <c r="AT17" s="4" t="n">
         <v>67172964.603524</v>
       </c>
-      <c r="AU17" s="12" t="n">
+      <c r="AU17" s="4" t="n">
         <v>44245826.9992318</v>
       </c>
-      <c r="AV17" s="12" t="n">
+      <c r="AV17" s="4" t="n">
         <v>45472770.2519997</v>
       </c>
-      <c r="AW17" s="12" t="n">
+      <c r="AW17" s="4" t="n">
         <v>38842949.5142</v>
       </c>
-      <c r="AX17" s="12" t="n">
+      <c r="AX17" s="4" t="n">
         <v>31733831.7013887</v>
       </c>
-      <c r="AY17" s="12" t="n">
+      <c r="AY17" s="4" t="n">
         <v>10777445.5119044</v>
       </c>
-      <c r="AZ17" s="12"/>
+      <c r="AZ17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -8702,101 +9040,101 @@
       <c r="O18" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12" t="n">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="n">
         <v>45832153.4684658</v>
       </c>
-      <c r="X18" s="12" t="n">
+      <c r="X18" s="4" t="n">
         <v>29319721.5935991</v>
       </c>
-      <c r="Y18" s="12" t="n">
+      <c r="Y18" s="4" t="n">
         <v>54833414.934145</v>
       </c>
-      <c r="Z18" s="12" t="n">
+      <c r="Z18" s="4" t="n">
         <v>308718978.944452</v>
       </c>
-      <c r="AA18" s="12" t="n">
+      <c r="AA18" s="4" t="n">
         <v>343540074.315467</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="4" t="n">
         <v>416074998.838444</v>
       </c>
-      <c r="AC18" s="12" t="n">
+      <c r="AC18" s="4" t="n">
         <v>471472029.349693</v>
       </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AD18" s="4" t="n">
         <v>434811750.493179</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="4" t="n">
         <v>451933422.676497</v>
       </c>
-      <c r="AF18" s="12" t="n">
+      <c r="AF18" s="4" t="n">
         <v>473058624.382973</v>
       </c>
-      <c r="AG18" s="12" t="n">
+      <c r="AG18" s="4" t="n">
         <v>486318835.469104</v>
       </c>
-      <c r="AH18" s="12" t="n">
+      <c r="AH18" s="4" t="n">
         <v>872516275.206536</v>
       </c>
-      <c r="AI18" s="12" t="n">
+      <c r="AI18" s="4" t="n">
         <v>922090913.583975</v>
       </c>
-      <c r="AJ18" s="12" t="n">
+      <c r="AJ18" s="4" t="n">
         <v>1158986446.0414</v>
       </c>
-      <c r="AK18" s="12" t="n">
+      <c r="AK18" s="4" t="n">
         <v>1290522696.13898</v>
       </c>
-      <c r="AL18" s="12" t="n">
+      <c r="AL18" s="4" t="n">
         <v>1878486639.5132</v>
       </c>
-      <c r="AM18" s="12" t="n">
+      <c r="AM18" s="4" t="n">
         <v>1154026568.77312</v>
       </c>
-      <c r="AN18" s="12" t="n">
+      <c r="AN18" s="4" t="n">
         <v>1094659920.35994</v>
       </c>
-      <c r="AO18" s="12" t="n">
+      <c r="AO18" s="4" t="n">
         <v>921689438.301777</v>
       </c>
-      <c r="AP18" s="12" t="n">
+      <c r="AP18" s="4" t="n">
         <v>604419753.871751</v>
       </c>
-      <c r="AQ18" s="12" t="n">
+      <c r="AQ18" s="4" t="n">
         <v>181149376.626168</v>
       </c>
-      <c r="AR18" s="12" t="n">
+      <c r="AR18" s="4" t="n">
         <v>158780170.791813</v>
       </c>
-      <c r="AS18" s="12" t="n">
+      <c r="AS18" s="4" t="n">
         <v>336378369.740387</v>
       </c>
-      <c r="AT18" s="12" t="n">
+      <c r="AT18" s="4" t="n">
         <v>354946318.961963</v>
       </c>
-      <c r="AU18" s="12" t="n">
+      <c r="AU18" s="4" t="n">
         <v>368677671.953866</v>
       </c>
-      <c r="AV18" s="12" t="n">
+      <c r="AV18" s="4" t="n">
         <v>357469373.897752</v>
       </c>
-      <c r="AW18" s="12" t="n">
+      <c r="AW18" s="4" t="n">
         <v>447545003.1791</v>
       </c>
-      <c r="AX18" s="12" t="n">
+      <c r="AX18" s="4" t="n">
         <v>285342860.618438</v>
       </c>
-      <c r="AY18" s="12" t="n">
+      <c r="AY18" s="4" t="n">
         <v>18251061.2698894</v>
       </c>
-      <c r="AZ18" s="12"/>
+      <c r="AZ18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -8811,103 +9149,103 @@
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12" t="n">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4" t="n">
         <v>17665953.2070849</v>
       </c>
-      <c r="W19" s="12" t="n">
+      <c r="W19" s="4" t="n">
         <v>58187827.6612608</v>
       </c>
-      <c r="X19" s="12" t="n">
+      <c r="X19" s="4" t="n">
         <v>75861636.8551868</v>
       </c>
-      <c r="Y19" s="12" t="n">
+      <c r="Y19" s="4" t="n">
         <v>148396357.847197</v>
       </c>
-      <c r="Z19" s="12" t="n">
+      <c r="Z19" s="4" t="n">
         <v>435585928.089829</v>
       </c>
-      <c r="AA19" s="12" t="n">
+      <c r="AA19" s="4" t="n">
         <v>413514444.047229</v>
       </c>
-      <c r="AB19" s="12" t="n">
+      <c r="AB19" s="4" t="n">
         <v>654902336.049422</v>
       </c>
-      <c r="AC19" s="12" t="n">
+      <c r="AC19" s="4" t="n">
         <v>927025678.833228</v>
       </c>
-      <c r="AD19" s="12" t="n">
+      <c r="AD19" s="4" t="n">
         <v>1521227479.27289</v>
       </c>
-      <c r="AE19" s="12" t="n">
+      <c r="AE19" s="4" t="n">
         <v>1175522364.42789</v>
       </c>
-      <c r="AF19" s="12" t="n">
+      <c r="AF19" s="4" t="n">
         <v>1444363356.47126</v>
       </c>
-      <c r="AG19" s="12" t="n">
+      <c r="AG19" s="4" t="n">
         <v>2081947423.95999</v>
       </c>
-      <c r="AH19" s="12" t="n">
+      <c r="AH19" s="4" t="n">
         <v>2160940643.64908</v>
       </c>
-      <c r="AI19" s="12" t="n">
+      <c r="AI19" s="4" t="n">
         <v>3307120361.97606</v>
       </c>
-      <c r="AJ19" s="12" t="n">
+      <c r="AJ19" s="4" t="n">
         <v>3848294216.45748</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="4" t="n">
         <v>4243909100.94474</v>
       </c>
-      <c r="AL19" s="12" t="n">
+      <c r="AL19" s="4" t="n">
         <v>2755635668.51312</v>
       </c>
-      <c r="AM19" s="12" t="n">
+      <c r="AM19" s="4" t="n">
         <v>2462230157.40958</v>
       </c>
-      <c r="AN19" s="12" t="n">
+      <c r="AN19" s="4" t="n">
         <v>2630551145.39074</v>
       </c>
-      <c r="AO19" s="12" t="n">
+      <c r="AO19" s="4" t="n">
         <v>2367406705.41658</v>
       </c>
-      <c r="AP19" s="12" t="n">
+      <c r="AP19" s="4" t="n">
         <v>2391172107.94366</v>
       </c>
-      <c r="AQ19" s="12" t="n">
+      <c r="AQ19" s="4" t="n">
         <v>2338066324.70388</v>
       </c>
-      <c r="AR19" s="12" t="n">
+      <c r="AR19" s="4" t="n">
         <v>2689552133.31775</v>
       </c>
-      <c r="AS19" s="12" t="n">
+      <c r="AS19" s="4" t="n">
         <v>2669541997.99744</v>
       </c>
-      <c r="AT19" s="12" t="n">
+      <c r="AT19" s="4" t="n">
         <v>2547286140.06595</v>
       </c>
-      <c r="AU19" s="12" t="n">
+      <c r="AU19" s="4" t="n">
         <v>2806270506.23597</v>
       </c>
-      <c r="AV19" s="12" t="n">
+      <c r="AV19" s="4" t="n">
         <v>3040812308.48971</v>
       </c>
-      <c r="AW19" s="12" t="n">
+      <c r="AW19" s="4" t="n">
         <v>2831710791.6156</v>
       </c>
-      <c r="AX19" s="12" t="n">
+      <c r="AX19" s="4" t="n">
         <v>2843464775.75039</v>
       </c>
-      <c r="AY19" s="12" t="n">
+      <c r="AY19" s="4" t="n">
         <v>1681512639.63083</v>
       </c>
-      <c r="AZ19" s="12"/>
+      <c r="AZ19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -8922,63 +9260,63 @@
       <c r="O20" t="s">
         <v>70</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12" t="n">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W20" s="12" t="n">
+      <c r="W20" s="4" t="n">
         <v>9713090.02490103</v>
       </c>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12" t="n">
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4" t="n">
         <v>153913.105153934</v>
       </c>
-      <c r="AA20" s="12" t="n">
+      <c r="AA20" s="4" t="n">
         <v>8155927.23137624</v>
       </c>
-      <c r="AB20" s="12" t="n">
+      <c r="AB20" s="4" t="n">
         <v>9667184.49943569</v>
       </c>
-      <c r="AC20" s="12" t="n">
+      <c r="AC20" s="4" t="n">
         <v>-301374.482989195</v>
       </c>
-      <c r="AD20" s="12" t="n">
+      <c r="AD20" s="4" t="n">
         <v>-295688.921275659</v>
       </c>
-      <c r="AE20" s="12" t="n">
+      <c r="AE20" s="4" t="n">
         <v>20381.0487374817</v>
       </c>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12" t="n">
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12" t="n">
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4" t="n">
         <v>-120132.532471934</v>
       </c>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
-      <c r="AY20" s="12"/>
-      <c r="AZ20" s="12"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -8989,65 +9327,65 @@
       </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="4" t="n">
         <v>9138244581.03204</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="4" t="n">
         <v>13409688142.9605</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="4" t="n">
         <v>10595873380.5956</v>
       </c>
-      <c r="S21" s="12" t="n">
+      <c r="S21" s="4" t="n">
         <v>12390727840.3286</v>
       </c>
-      <c r="T21" s="12" t="n">
+      <c r="T21" s="4" t="n">
         <v>9729931160.15749</v>
       </c>
-      <c r="U21" s="12" t="n">
+      <c r="U21" s="4" t="n">
         <v>8259554872.83913</v>
       </c>
-      <c r="V21" s="12" t="n">
+      <c r="V21" s="4" t="n">
         <v>8557940912.21167</v>
       </c>
-      <c r="W21" s="12" t="n">
+      <c r="W21" s="4" t="n">
         <v>8878459926.95133</v>
       </c>
-      <c r="X21" s="12" t="n">
+      <c r="X21" s="4" t="n">
         <v>8320994021.32725</v>
       </c>
-      <c r="Y21" s="12" t="n">
+      <c r="Y21" s="4" t="n">
         <v>7464364324.41389</v>
       </c>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="12"/>
-      <c r="AV21" s="12"/>
-      <c r="AW21" s="12"/>
-      <c r="AX21" s="12"/>
-      <c r="AY21" s="12" t="n">
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ21" s="12"/>
+      <c r="AZ21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -9056,43 +9394,43 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
-      <c r="AY22" s="12"/>
-      <c r="AZ22" s="12"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Missile_Defense/DoD_Missile_Defense_Contracts.xlsx
@@ -534,17 +534,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="210" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="209" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="208" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="212" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -582,18 +582,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="210" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="212" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
